--- a/Контакты Stratera.xlsx
+++ b/Контакты Stratera.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="822">
   <si>
     <t>СКО</t>
   </si>
@@ -3855,232 +3855,251 @@
     <t>Столбец 6</t>
   </si>
   <si>
+    <t xml:space="preserve">Осакаровский </t>
+  </si>
+  <si>
+    <t>Аршалынский</t>
+  </si>
+  <si>
+    <t>конст</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Астраханский </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Буландынский, Астраханский </t>
+  </si>
+  <si>
+    <t>Құрман Айдын Мұхитұлы</t>
+  </si>
+  <si>
+    <t>спец</t>
+  </si>
+  <si>
+    <t>Шортандинский, Ерейментауский</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Целиноградский </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Егиндыкольский </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коргалжынский </t>
+  </si>
+  <si>
+    <t>Аккольский</t>
+  </si>
+  <si>
+    <t>мл конс</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Атбасарский </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Есильский </t>
+  </si>
+  <si>
+    <t>Жаксынский</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жаркаинский </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жаксынский, Есильский </t>
+  </si>
+  <si>
+    <t>Осакаровский</t>
+  </si>
+  <si>
+    <t>Нуринский, Абайский</t>
+  </si>
+  <si>
+    <t>Бухар жырауский</t>
+  </si>
+  <si>
     <t>Абайский</t>
   </si>
   <si>
+    <t>Сандыктау</t>
+  </si>
+  <si>
+    <t>Биржан Сал</t>
+  </si>
+  <si>
+    <t>Зерендинский</t>
+  </si>
+  <si>
+    <t>Сандыктау, Бурабай ауданы</t>
+  </si>
+  <si>
+    <t>Джексембаев Ринат Каденович</t>
+  </si>
+  <si>
+    <t>Шемонайхинский, Глубоковский</t>
+  </si>
+  <si>
+    <t>Бескарагайский, Бородулихинский</t>
+  </si>
+  <si>
+    <t>Алтай, Катон Карагай, Улкен нарын, Бородулихинский, Самарский</t>
+  </si>
+  <si>
+    <t>Бескарагайский, Бородулихинский, Шемонайхинский</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КСТ (Костанай) </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">Мендыгаринский, Сарыкольский, Узункольский, Костанайский, Алтынсаринский, Карасу, Аркалыкский, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Житикара</t>
+    </r>
+  </si>
+  <si>
+    <t>Әмірбек Жанибек Адильбекович</t>
+  </si>
+  <si>
+    <t>Денисовский, Житикаринский, Камыстинский</t>
+  </si>
+  <si>
+    <t>Карасуский,Сарыкольский, Алтынсаринский</t>
+  </si>
+  <si>
+    <t>Карабалыкский, Федоровский, Алтынсаринский, Карасуский, Костанайский</t>
+  </si>
+  <si>
+    <t>Денисовский, Карасуский, Мендыгаринский, Аркалыкский, Тарановский</t>
+  </si>
+  <si>
+    <t>Карасуский</t>
+  </si>
+  <si>
+    <t>Беимбета Майлина, Алтынсаринский</t>
+  </si>
+  <si>
+    <t>Костанайский</t>
+  </si>
+  <si>
+    <t xml:space="preserve">мало проехал по км </t>
+  </si>
+  <si>
+    <t>Карасуский,  Аулиекольский</t>
+  </si>
+  <si>
+    <t>Федоровский, Аулиекольский</t>
+  </si>
+  <si>
+    <t>Сарыкольский, Житикаринский, Узункольский</t>
+  </si>
+  <si>
+    <t>Карабалыкский, Мендыкаринский</t>
+  </si>
+  <si>
+    <t>Камыстинский, Житикаринский, Денисовский, Беимбета Майлина</t>
+  </si>
+  <si>
+    <t>Узункольский, Сарыкольский</t>
+  </si>
+  <si>
+    <t>Сарыкольский , Узункольский</t>
+  </si>
+  <si>
+    <t>Карабалыкский, Костанайский, Камыстинский, Мендыкаринский</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Костанайский, Мендыгаринский </t>
+  </si>
+  <si>
+    <t>Федоровский, Тарановский,  Аулиекольский, Узункольский</t>
+  </si>
+  <si>
+    <t>ПВЛ (Павлодар)</t>
+  </si>
+  <si>
+    <t>Шарбактинский, Успенка</t>
+  </si>
+  <si>
+    <t>Успенский</t>
+  </si>
+  <si>
+    <t>Павлодарская область</t>
+  </si>
+  <si>
+    <t>Железинский</t>
+  </si>
+  <si>
+    <t>Теренкольский</t>
+  </si>
+  <si>
+    <t>Садвакасов Рустам Дмитриевич</t>
+  </si>
+  <si>
+    <t>Шарбактинский</t>
+  </si>
+  <si>
+    <t>Актогайский, Иртышский</t>
+  </si>
+  <si>
+    <t>СКО (район Магжана Жумабаева)</t>
+  </si>
+  <si>
+    <t>Магжана Жумабаева</t>
+  </si>
+  <si>
+    <t>Г.Мусрепова</t>
+  </si>
+  <si>
+    <t>Тайыншинский</t>
+  </si>
+  <si>
     <t>Айыртауский, Есильский</t>
   </si>
   <si>
+    <t>Уалихановский</t>
+  </si>
+  <si>
+    <t>Аккайынский</t>
+  </si>
+  <si>
+    <t>Шал Акына</t>
+  </si>
+  <si>
     <t>СКО (Акжарский район)</t>
   </si>
   <si>
     <t>Акжарский, Уалихановский</t>
   </si>
   <si>
-    <t>Аккайынский</t>
-  </si>
-  <si>
-    <t>Аккольский</t>
-  </si>
-  <si>
-    <t>мл конс</t>
-  </si>
-  <si>
-    <t>ПВЛ (Павлодар)</t>
-  </si>
-  <si>
-    <t>Актогайский, Иртышский</t>
-  </si>
-  <si>
-    <t>Алтай, Катон Карагай, Улкен нарын, Бородулихинский, Самарский</t>
-  </si>
-  <si>
-    <t>Аршалынский</t>
-  </si>
-  <si>
-    <t>конст</t>
-  </si>
-  <si>
-    <t>Құрман Айдын Мұхитұлы</t>
-  </si>
-  <si>
-    <t>спец</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Астраханский </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Атбасарский </t>
-  </si>
-  <si>
-    <t xml:space="preserve">КСТ (Костанай) </t>
-  </si>
-  <si>
-    <t>Беимбета Майлина, Алтынсаринский</t>
-  </si>
-  <si>
-    <t>Бескарагайский, Бородулихинский</t>
-  </si>
-  <si>
-    <t>Бескарагайский, Бородулихинский, Шемонайхинский</t>
-  </si>
-  <si>
-    <t>Биржан Сал</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Буландынский, Астраханский </t>
-  </si>
-  <si>
-    <t>Бухар жырауский</t>
-  </si>
-  <si>
-    <t>Г.Мусрепова</t>
-  </si>
-  <si>
-    <t>Әмірбек Жанибек Адильбекович</t>
-  </si>
-  <si>
-    <t>Денисовский, Житикаринский, Камыстинский</t>
-  </si>
-  <si>
-    <t>Денисовский, Карасуский, Мендыгаринский, Аркалыкский, Тарановский</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Егиндыкольский </t>
-  </si>
-  <si>
     <t>Есильский</t>
   </si>
   <si>
-    <t xml:space="preserve">Есильский </t>
-  </si>
-  <si>
-    <t>Жаксынский</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Жаксынский, Есильский </t>
-  </si>
-  <si>
     <t>Жамбылский</t>
   </si>
   <si>
-    <t xml:space="preserve">Жаркаинский </t>
-  </si>
-  <si>
-    <t>Железинский</t>
-  </si>
-  <si>
-    <t>Зерендинский</t>
-  </si>
-  <si>
-    <t>Камыстинский, Житикаринский, Денисовский, Беимбета Майлина</t>
-  </si>
-  <si>
-    <t>Карабалыкский, Костанайский, Камыстинский, Мендыкаринский</t>
-  </si>
-  <si>
-    <t>Карабалыкский, Мендыкаринский</t>
-  </si>
-  <si>
-    <t>Карабалыкский, Федоровский, Алтынсаринский, Карасуский, Костанайский</t>
-  </si>
-  <si>
-    <t>Карасуский</t>
-  </si>
-  <si>
-    <t>Карасуский,  Аулиекольский</t>
-  </si>
-  <si>
-    <t>Карасуский,Сарыкольский, Алтынсаринский</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Коргалжынский </t>
-  </si>
-  <si>
-    <t>Костанайский</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Костанайский, Мендыгаринский </t>
-  </si>
-  <si>
     <t>Кызылжарский, Аккайынский</t>
   </si>
   <si>
-    <t>СКО (район Магжана Жумабаева)</t>
-  </si>
-  <si>
-    <t>Магжана Жумабаева</t>
+    <t>Тимирязевский</t>
   </si>
   <si>
     <t xml:space="preserve">Мамлютский </t>
   </si>
   <si>
-    <t>Мендыгаринский, Сарыкольский, Узункольский, Костанайский, Алтынсаринский, Карасу, Аркалыкский</t>
-  </si>
-  <si>
-    <t>Нуринский</t>
-  </si>
-  <si>
-    <t>Осакаровский</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Осакаровский </t>
-  </si>
-  <si>
-    <t>Павлодарская область</t>
-  </si>
-  <si>
-    <t>Сандыктау</t>
-  </si>
-  <si>
-    <t>Сандыктау, Бурабай ауданы</t>
-  </si>
-  <si>
-    <t>Сарыкольский , Узункольский</t>
-  </si>
-  <si>
-    <t>Сарыкольский, Житикаринский, Узункольский</t>
-  </si>
-  <si>
-    <t>Тайыншинский</t>
-  </si>
-  <si>
-    <t>Теренкольский</t>
-  </si>
-  <si>
-    <t>Тимирязевский</t>
-  </si>
-  <si>
     <t>Тимирязевский, Шал Акына</t>
-  </si>
-  <si>
-    <t>Уалихановский</t>
-  </si>
-  <si>
-    <t>Узункольский, Сарыкольский</t>
-  </si>
-  <si>
-    <t>Успенский</t>
-  </si>
-  <si>
-    <t>Федоровский, Аулиекольский</t>
-  </si>
-  <si>
-    <t>Федоровский, Тарановский,  Аулиекольский, Узункольский</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Целиноградский </t>
-  </si>
-  <si>
-    <t>Шал Акына</t>
-  </si>
-  <si>
-    <t>Садвакасов Рустам Дмитриевич</t>
-  </si>
-  <si>
-    <t>Шарбактинский</t>
-  </si>
-  <si>
-    <t>Шарбактинский, Успенка</t>
-  </si>
-  <si>
-    <t>Джексембаев Ринат Каденович</t>
-  </si>
-  <si>
-    <t>Шемонайхинский, Глубоковский</t>
-  </si>
-  <si>
-    <t>Шортандинский, Ерейментауский</t>
   </si>
   <si>
     <t>апрель</t>
@@ -4948,6 +4967,20 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB7E1CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB7E1CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB7E1CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB7E1CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
@@ -4972,20 +5005,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFF6F8F9"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB7E1CD"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB7E1CD"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB7E1CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB7E1CD"/>
       </bottom>
     </border>
     <border>
@@ -5020,7 +5039,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="236">
+  <cellXfs count="235">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -5549,32 +5568,8 @@
     <xf borderId="22" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="22" fillId="0" fontId="58" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="22" fillId="0" fontId="58" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="34" fillId="0" fontId="58" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="35" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="22" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="22" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -5582,44 +5577,20 @@
     <xf borderId="34" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="36" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="22" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="58" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="35" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="58" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="35" fillId="0" fontId="58" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="58" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="22" fillId="0" fontId="58" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="34" fillId="0" fontId="58" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="15" fillId="0" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -5630,11 +5601,17 @@
     <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="35" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="36" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="22" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -5642,38 +5619,77 @@
     <xf borderId="22" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="34" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="35" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="27" fillId="0" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="24" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="23" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="19" fillId="0" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="7" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="25" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="36" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="34" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="24" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="58" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="58" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="36" fillId="0" fontId="58" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="34" fillId="0" fontId="58" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="22" fillId="0" fontId="58" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="35" fillId="0" fontId="58" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="58" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="58" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="22" fillId="0" fontId="58" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="35" fillId="0" fontId="58" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="25" fillId="0" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="7" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -42007,866 +42023,890 @@
     </row>
     <row r="2">
       <c r="A2" s="183">
-        <v>23.0</v>
+        <v>1.0</v>
       </c>
       <c r="B2" s="184" t="s">
-        <v>311</v>
+        <v>542</v>
       </c>
       <c r="C2" s="185" t="s">
         <v>516</v>
       </c>
-      <c r="D2" s="185" t="s">
+      <c r="D2" s="186"/>
+      <c r="E2" s="185" t="s">
+        <v>509</v>
+      </c>
+      <c r="F2" s="185" t="s">
+        <v>544</v>
+      </c>
+      <c r="G2" s="187" t="s">
+        <v>740</v>
+      </c>
+      <c r="H2" s="188">
+        <v>9.0</v>
+      </c>
+      <c r="I2" s="189"/>
+      <c r="J2" s="189"/>
+      <c r="K2" s="189"/>
+      <c r="L2" s="189"/>
+      <c r="M2" s="189"/>
+      <c r="N2" s="189"/>
+      <c r="O2" s="189"/>
+      <c r="P2" s="189"/>
+      <c r="Q2" s="189"/>
+      <c r="R2" s="189"/>
+      <c r="S2" s="190"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="191">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="192" t="s">
+        <v>330</v>
+      </c>
+      <c r="C3" s="141" t="s">
+        <v>516</v>
+      </c>
+      <c r="D3" s="141" t="s">
         <v>520</v>
       </c>
-      <c r="E2" s="185" t="s">
-        <v>570</v>
-      </c>
-      <c r="F2" s="185" t="s">
-        <v>578</v>
-      </c>
-      <c r="G2" s="186" t="s">
-        <v>740</v>
-      </c>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="187"/>
-      <c r="K2" s="187"/>
-      <c r="L2" s="187"/>
-      <c r="M2" s="187"/>
-      <c r="N2" s="187"/>
-      <c r="O2" s="187"/>
-      <c r="P2" s="187"/>
-      <c r="Q2" s="187"/>
-      <c r="R2" s="187"/>
-      <c r="S2" s="188"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="189">
-        <v>62.0</v>
-      </c>
-      <c r="B3" s="133" t="s">
-        <v>705</v>
-      </c>
-      <c r="C3" s="133" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="133" t="s">
-        <v>706</v>
-      </c>
-      <c r="E3" s="190" t="s">
-        <v>427</v>
-      </c>
-      <c r="F3" s="135">
-        <v>7.7057455796E10</v>
-      </c>
-      <c r="G3" s="191" t="s">
+      <c r="E3" s="193" t="s">
+        <v>509</v>
+      </c>
+      <c r="F3" s="148" t="s">
+        <v>528</v>
+      </c>
+      <c r="G3" s="194" t="s">
         <v>741</v>
       </c>
-      <c r="H3" s="192"/>
-      <c r="I3" s="192"/>
-      <c r="J3" s="192"/>
-      <c r="K3" s="192"/>
-      <c r="L3" s="192"/>
-      <c r="M3" s="192"/>
-      <c r="N3" s="192"/>
-      <c r="O3" s="192"/>
-      <c r="P3" s="192"/>
-      <c r="Q3" s="192"/>
-      <c r="R3" s="192"/>
-      <c r="S3" s="193"/>
+      <c r="H3" s="195">
+        <v>8.0</v>
+      </c>
+      <c r="I3" s="196"/>
+      <c r="J3" s="196"/>
+      <c r="K3" s="196"/>
+      <c r="L3" s="196"/>
+      <c r="M3" s="196"/>
+      <c r="N3" s="195" t="s">
+        <v>742</v>
+      </c>
+      <c r="O3" s="195">
+        <v>50.0</v>
+      </c>
+      <c r="P3" s="195">
+        <v>82.5</v>
+      </c>
+      <c r="Q3" s="195">
+        <v>82.5</v>
+      </c>
+      <c r="R3" s="195">
+        <v>35.0</v>
+      </c>
+      <c r="S3" s="197">
+        <f>SUM(O3:R3)</f>
+        <v>250</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="194">
-        <v>67.0</v>
-      </c>
-      <c r="B4" s="138" t="s">
-        <v>688</v>
-      </c>
-      <c r="C4" s="138" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="138" t="s">
+      <c r="A4" s="198">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="199" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" s="127" t="s">
+        <v>516</v>
+      </c>
+      <c r="D4" s="127" t="s">
+        <v>520</v>
+      </c>
+      <c r="E4" s="193" t="s">
+        <v>509</v>
+      </c>
+      <c r="F4" s="145" t="s">
+        <v>524</v>
+      </c>
+      <c r="G4" s="200" t="s">
+        <v>743</v>
+      </c>
+      <c r="H4" s="201">
+        <v>8.0</v>
+      </c>
+      <c r="I4" s="202"/>
+      <c r="J4" s="202"/>
+      <c r="K4" s="202"/>
+      <c r="L4" s="202"/>
+      <c r="M4" s="202"/>
+      <c r="N4" s="201"/>
+      <c r="O4" s="202"/>
+      <c r="P4" s="202"/>
+      <c r="Q4" s="202"/>
+      <c r="R4" s="202"/>
+      <c r="S4" s="203"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="191">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="204" t="s">
+        <v>349</v>
+      </c>
+      <c r="C5" s="141" t="s">
+        <v>516</v>
+      </c>
+      <c r="D5" s="141" t="s">
+        <v>520</v>
+      </c>
+      <c r="E5" s="193" t="s">
+        <v>509</v>
+      </c>
+      <c r="F5" s="143" t="s">
+        <v>532</v>
+      </c>
+      <c r="G5" s="200" t="s">
+        <v>744</v>
+      </c>
+      <c r="H5" s="205">
+        <v>7.0</v>
+      </c>
+      <c r="I5" s="206"/>
+      <c r="J5" s="206"/>
+      <c r="K5" s="206"/>
+      <c r="L5" s="206"/>
+      <c r="M5" s="206"/>
+      <c r="N5" s="206"/>
+      <c r="O5" s="206"/>
+      <c r="P5" s="206"/>
+      <c r="Q5" s="206"/>
+      <c r="R5" s="206"/>
+      <c r="S5" s="207"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="198">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="208" t="s">
+        <v>745</v>
+      </c>
+      <c r="C6" s="138" t="s">
+        <v>516</v>
+      </c>
+      <c r="D6" s="138" t="s">
+        <v>517</v>
+      </c>
+      <c r="E6" s="209" t="s">
+        <v>509</v>
+      </c>
+      <c r="F6" s="129" t="s">
+        <v>519</v>
+      </c>
+      <c r="G6" s="194" t="s">
+        <v>741</v>
+      </c>
+      <c r="H6" s="188">
+        <v>9.0</v>
+      </c>
+      <c r="I6" s="189"/>
+      <c r="J6" s="189"/>
+      <c r="K6" s="189"/>
+      <c r="L6" s="189"/>
+      <c r="M6" s="189"/>
+      <c r="N6" s="187" t="s">
+        <v>746</v>
+      </c>
+      <c r="O6" s="187">
+        <v>70.0</v>
+      </c>
+      <c r="P6" s="187">
+        <v>115.5</v>
+      </c>
+      <c r="Q6" s="187">
+        <v>115.5</v>
+      </c>
+      <c r="R6" s="187">
+        <v>49.0</v>
+      </c>
+      <c r="S6" s="190">
+        <f>SUM(O6:R6)</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="191">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="192" t="s">
+        <v>307</v>
+      </c>
+      <c r="C7" s="141" t="s">
+        <v>516</v>
+      </c>
+      <c r="D7" s="141" t="s">
+        <v>520</v>
+      </c>
+      <c r="E7" s="193" t="s">
+        <v>509</v>
+      </c>
+      <c r="F7" s="148" t="s">
+        <v>522</v>
+      </c>
+      <c r="G7" s="200" t="s">
+        <v>747</v>
+      </c>
+      <c r="H7" s="210">
+        <v>12.0</v>
+      </c>
+      <c r="I7" s="206"/>
+      <c r="J7" s="206"/>
+      <c r="K7" s="206"/>
+      <c r="L7" s="206"/>
+      <c r="M7" s="206"/>
+      <c r="N7" s="206"/>
+      <c r="O7" s="206"/>
+      <c r="P7" s="206"/>
+      <c r="Q7" s="206"/>
+      <c r="R7" s="206"/>
+      <c r="S7" s="207"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="198">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="127" t="s">
+        <v>507</v>
+      </c>
+      <c r="C8" s="127" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="127" t="s">
         <v>508</v>
       </c>
-      <c r="E4" s="190" t="s">
-        <v>742</v>
-      </c>
-      <c r="F4" s="129" t="s">
-        <v>690</v>
-      </c>
-      <c r="G4" s="191" t="s">
-        <v>743</v>
-      </c>
-      <c r="H4" s="195"/>
-      <c r="I4" s="195"/>
-      <c r="J4" s="195"/>
-      <c r="K4" s="195"/>
-      <c r="L4" s="195"/>
-      <c r="M4" s="195"/>
-      <c r="N4" s="195"/>
-      <c r="O4" s="195"/>
-      <c r="P4" s="195"/>
-      <c r="Q4" s="195"/>
-      <c r="R4" s="195"/>
-      <c r="S4" s="196"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="189">
-        <v>64.0</v>
-      </c>
-      <c r="B5" s="197" t="s">
-        <v>376</v>
-      </c>
-      <c r="C5" s="133" t="s">
+      <c r="E8" s="193" t="s">
+        <v>509</v>
+      </c>
+      <c r="F8" s="129" t="s">
+        <v>511</v>
+      </c>
+      <c r="G8" s="194" t="s">
+        <v>748</v>
+      </c>
+      <c r="H8" s="188">
+        <v>10.0</v>
+      </c>
+      <c r="I8" s="189"/>
+      <c r="J8" s="189"/>
+      <c r="K8" s="189"/>
+      <c r="L8" s="189"/>
+      <c r="M8" s="189"/>
+      <c r="N8" s="189"/>
+      <c r="O8" s="189"/>
+      <c r="P8" s="189"/>
+      <c r="Q8" s="189"/>
+      <c r="R8" s="189"/>
+      <c r="S8" s="190"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="191">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="211" t="s">
+        <v>334</v>
+      </c>
+      <c r="C9" s="133" t="s">
         <v>516</v>
       </c>
-      <c r="D5" s="133" t="s">
+      <c r="D9" s="133" t="s">
+        <v>520</v>
+      </c>
+      <c r="E9" s="209" t="s">
+        <v>509</v>
+      </c>
+      <c r="F9" s="135" t="s">
+        <v>526</v>
+      </c>
+      <c r="G9" s="194" t="s">
+        <v>749</v>
+      </c>
+      <c r="H9" s="195">
+        <v>6.0</v>
+      </c>
+      <c r="I9" s="196"/>
+      <c r="J9" s="196"/>
+      <c r="K9" s="196"/>
+      <c r="L9" s="196"/>
+      <c r="M9" s="196"/>
+      <c r="N9" s="196"/>
+      <c r="O9" s="196"/>
+      <c r="P9" s="196"/>
+      <c r="Q9" s="196"/>
+      <c r="R9" s="196"/>
+      <c r="S9" s="197"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="198">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="212" t="s">
+        <v>326</v>
+      </c>
+      <c r="C10" s="127" t="s">
+        <v>516</v>
+      </c>
+      <c r="D10" s="127" t="s">
+        <v>520</v>
+      </c>
+      <c r="E10" s="193" t="s">
+        <v>509</v>
+      </c>
+      <c r="F10" s="145" t="s">
+        <v>530</v>
+      </c>
+      <c r="G10" s="194" t="s">
+        <v>749</v>
+      </c>
+      <c r="H10" s="187">
+        <v>7.0</v>
+      </c>
+      <c r="I10" s="189"/>
+      <c r="J10" s="189"/>
+      <c r="K10" s="189"/>
+      <c r="L10" s="189"/>
+      <c r="M10" s="189"/>
+      <c r="N10" s="189"/>
+      <c r="O10" s="189"/>
+      <c r="P10" s="189"/>
+      <c r="Q10" s="189"/>
+      <c r="R10" s="189"/>
+      <c r="S10" s="190"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="191">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="133" t="s">
+        <v>538</v>
+      </c>
+      <c r="C11" s="133" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="133" t="s">
+        <v>539</v>
+      </c>
+      <c r="E11" s="209" t="s">
+        <v>509</v>
+      </c>
+      <c r="F11" s="135" t="s">
+        <v>541</v>
+      </c>
+      <c r="G11" s="194" t="s">
+        <v>750</v>
+      </c>
+      <c r="H11" s="195">
+        <v>8.0</v>
+      </c>
+      <c r="I11" s="196"/>
+      <c r="J11" s="196"/>
+      <c r="K11" s="196"/>
+      <c r="L11" s="196"/>
+      <c r="M11" s="196"/>
+      <c r="N11" s="196"/>
+      <c r="O11" s="196"/>
+      <c r="P11" s="196"/>
+      <c r="Q11" s="196"/>
+      <c r="R11" s="196"/>
+      <c r="S11" s="197"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="198">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="138" t="s">
+        <v>512</v>
+      </c>
+      <c r="C12" s="138" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="138" t="s">
+        <v>513</v>
+      </c>
+      <c r="E12" s="209" t="s">
+        <v>509</v>
+      </c>
+      <c r="F12" s="129" t="s">
+        <v>515</v>
+      </c>
+      <c r="G12" s="194" t="s">
+        <v>751</v>
+      </c>
+      <c r="H12" s="188">
+        <v>9.0</v>
+      </c>
+      <c r="I12" s="189"/>
+      <c r="J12" s="189"/>
+      <c r="K12" s="189"/>
+      <c r="L12" s="189"/>
+      <c r="M12" s="189"/>
+      <c r="N12" s="187" t="s">
+        <v>752</v>
+      </c>
+      <c r="O12" s="187">
+        <v>30.0</v>
+      </c>
+      <c r="P12" s="187">
+        <v>50.0</v>
+      </c>
+      <c r="Q12" s="187">
+        <v>50.0</v>
+      </c>
+      <c r="R12" s="187">
+        <v>20.0</v>
+      </c>
+      <c r="S12" s="190">
+        <f>SUM(O12:R12)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="191">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="211" t="s">
+        <v>359</v>
+      </c>
+      <c r="C13" s="133" t="s">
+        <v>516</v>
+      </c>
+      <c r="D13" s="133" t="s">
         <v>517</v>
       </c>
-      <c r="E5" s="190" t="s">
-        <v>427</v>
-      </c>
-      <c r="F5" s="151">
-        <v>7.7761023037E10</v>
-      </c>
-      <c r="G5" s="191" t="s">
-        <v>744</v>
-      </c>
-      <c r="H5" s="192"/>
-      <c r="I5" s="192"/>
-      <c r="J5" s="192"/>
-      <c r="K5" s="192"/>
-      <c r="L5" s="192"/>
-      <c r="M5" s="192"/>
-      <c r="N5" s="192"/>
-      <c r="O5" s="192"/>
-      <c r="P5" s="192"/>
-      <c r="Q5" s="192"/>
-      <c r="R5" s="192"/>
-      <c r="S5" s="193"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="194">
-        <v>11.0</v>
-      </c>
-      <c r="B6" s="138" t="s">
-        <v>512</v>
-      </c>
-      <c r="C6" s="138" t="s">
+      <c r="E13" s="209" t="s">
+        <v>419</v>
+      </c>
+      <c r="F13" s="135" t="s">
+        <v>560</v>
+      </c>
+      <c r="G13" s="194" t="s">
+        <v>753</v>
+      </c>
+      <c r="H13" s="195">
+        <v>6.0</v>
+      </c>
+      <c r="I13" s="196"/>
+      <c r="J13" s="196"/>
+      <c r="K13" s="196"/>
+      <c r="L13" s="196"/>
+      <c r="M13" s="196"/>
+      <c r="N13" s="196"/>
+      <c r="O13" s="196"/>
+      <c r="P13" s="196"/>
+      <c r="Q13" s="196"/>
+      <c r="R13" s="196"/>
+      <c r="S13" s="197"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="198">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="138" t="s">
+        <v>566</v>
+      </c>
+      <c r="C14" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="138" t="s">
+      <c r="D14" s="138" t="s">
+        <v>567</v>
+      </c>
+      <c r="E14" s="209" t="s">
+        <v>419</v>
+      </c>
+      <c r="F14" s="129" t="s">
+        <v>569</v>
+      </c>
+      <c r="G14" s="194" t="s">
+        <v>754</v>
+      </c>
+      <c r="H14" s="187">
+        <v>5.0</v>
+      </c>
+      <c r="I14" s="189"/>
+      <c r="J14" s="189"/>
+      <c r="K14" s="189"/>
+      <c r="L14" s="189"/>
+      <c r="M14" s="189"/>
+      <c r="N14" s="189"/>
+      <c r="O14" s="189"/>
+      <c r="P14" s="189"/>
+      <c r="Q14" s="189"/>
+      <c r="R14" s="189"/>
+      <c r="S14" s="190"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="191">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="133" t="s">
+        <v>553</v>
+      </c>
+      <c r="C15" s="133" t="s">
+        <v>554</v>
+      </c>
+      <c r="D15" s="133" t="s">
         <v>513</v>
       </c>
-      <c r="E6" s="190" t="s">
-        <v>509</v>
-      </c>
-      <c r="F6" s="129" t="s">
-        <v>515</v>
-      </c>
-      <c r="G6" s="191" t="s">
-        <v>745</v>
-      </c>
-      <c r="H6" s="198">
+      <c r="E15" s="209" t="s">
+        <v>419</v>
+      </c>
+      <c r="F15" s="135" t="s">
+        <v>556</v>
+      </c>
+      <c r="G15" s="194" t="s">
+        <v>755</v>
+      </c>
+      <c r="H15" s="188">
         <v>9.0</v>
       </c>
-      <c r="I6" s="195"/>
-      <c r="J6" s="195"/>
-      <c r="K6" s="195"/>
-      <c r="L6" s="195"/>
-      <c r="M6" s="195"/>
-      <c r="N6" s="199" t="s">
-        <v>746</v>
-      </c>
-      <c r="O6" s="199">
-        <v>30.0</v>
-      </c>
-      <c r="P6" s="199">
-        <v>50.0</v>
-      </c>
-      <c r="Q6" s="199">
-        <v>50.0</v>
-      </c>
-      <c r="R6" s="199">
-        <v>20.0</v>
-      </c>
-      <c r="S6" s="196">
-        <f>SUM(O6:R6)</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="189">
-        <v>58.0</v>
-      </c>
-      <c r="B7" s="133" t="s">
-        <v>675</v>
-      </c>
-      <c r="C7" s="133" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="133" t="s">
-        <v>539</v>
-      </c>
-      <c r="E7" s="190" t="s">
-        <v>747</v>
-      </c>
-      <c r="F7" s="135">
-        <v>7.7775223892E10</v>
-      </c>
-      <c r="G7" s="200" t="s">
-        <v>748</v>
-      </c>
-      <c r="H7" s="201"/>
-      <c r="I7" s="201"/>
-      <c r="J7" s="201"/>
-      <c r="K7" s="201"/>
-      <c r="L7" s="201"/>
-      <c r="M7" s="201"/>
-      <c r="N7" s="201"/>
-      <c r="O7" s="201"/>
-      <c r="P7" s="201"/>
-      <c r="Q7" s="201"/>
-      <c r="R7" s="201"/>
-      <c r="S7" s="202"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="194">
-        <v>31.0</v>
-      </c>
-      <c r="B8" s="138" t="s">
-        <v>598</v>
-      </c>
-      <c r="C8" s="138" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="138" t="s">
-        <v>599</v>
-      </c>
-      <c r="E8" s="190" t="s">
-        <v>609</v>
-      </c>
-      <c r="F8" s="129" t="s">
-        <v>601</v>
-      </c>
-      <c r="G8" s="203" t="s">
-        <v>749</v>
-      </c>
-      <c r="H8" s="204"/>
-      <c r="I8" s="204"/>
-      <c r="J8" s="204"/>
-      <c r="K8" s="204"/>
-      <c r="L8" s="204"/>
-      <c r="M8" s="204"/>
-      <c r="N8" s="204"/>
-      <c r="O8" s="204"/>
-      <c r="P8" s="204"/>
-      <c r="Q8" s="204"/>
-      <c r="R8" s="204"/>
-      <c r="S8" s="205"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="189">
-        <v>2.0</v>
-      </c>
-      <c r="B9" s="206" t="s">
-        <v>330</v>
-      </c>
-      <c r="C9" s="141" t="s">
-        <v>516</v>
-      </c>
-      <c r="D9" s="141" t="s">
-        <v>520</v>
-      </c>
-      <c r="E9" s="207" t="s">
-        <v>509</v>
-      </c>
-      <c r="F9" s="148" t="s">
-        <v>528</v>
-      </c>
-      <c r="G9" s="191" t="s">
-        <v>750</v>
-      </c>
-      <c r="H9" s="208">
-        <v>8.0</v>
-      </c>
-      <c r="I9" s="192"/>
-      <c r="J9" s="192"/>
-      <c r="K9" s="192"/>
-      <c r="L9" s="192"/>
-      <c r="M9" s="192"/>
-      <c r="N9" s="208" t="s">
-        <v>751</v>
-      </c>
-      <c r="O9" s="208">
-        <v>50.0</v>
-      </c>
-      <c r="P9" s="208">
-        <v>82.5</v>
-      </c>
-      <c r="Q9" s="208">
-        <v>82.5</v>
-      </c>
-      <c r="R9" s="208">
-        <v>35.0</v>
-      </c>
-      <c r="S9" s="193">
-        <f t="shared" ref="S9:S10" si="1">SUM(O9:R9)</f>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="194">
-        <v>5.0</v>
-      </c>
-      <c r="B10" s="209" t="s">
-        <v>752</v>
-      </c>
-      <c r="C10" s="138" t="s">
-        <v>516</v>
-      </c>
-      <c r="D10" s="138" t="s">
-        <v>517</v>
-      </c>
-      <c r="E10" s="190" t="s">
-        <v>509</v>
-      </c>
-      <c r="F10" s="129" t="s">
-        <v>519</v>
-      </c>
-      <c r="G10" s="191" t="s">
-        <v>750</v>
-      </c>
-      <c r="H10" s="198">
-        <v>9.0</v>
-      </c>
-      <c r="I10" s="195"/>
-      <c r="J10" s="195"/>
-      <c r="K10" s="195"/>
-      <c r="L10" s="195"/>
-      <c r="M10" s="195"/>
-      <c r="N10" s="199" t="s">
-        <v>753</v>
-      </c>
-      <c r="O10" s="199">
-        <v>70.0</v>
-      </c>
-      <c r="P10" s="199">
-        <v>115.5</v>
-      </c>
-      <c r="Q10" s="199">
-        <v>115.5</v>
-      </c>
-      <c r="R10" s="199">
-        <v>49.0</v>
-      </c>
-      <c r="S10" s="196">
-        <f t="shared" si="1"/>
-        <v>350</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="189">
-        <v>3.0</v>
-      </c>
-      <c r="B11" s="206" t="s">
-        <v>236</v>
-      </c>
-      <c r="C11" s="141" t="s">
-        <v>516</v>
-      </c>
-      <c r="D11" s="141" t="s">
-        <v>520</v>
-      </c>
-      <c r="E11" s="207" t="s">
-        <v>509</v>
-      </c>
-      <c r="F11" s="148" t="s">
-        <v>524</v>
-      </c>
-      <c r="G11" s="210" t="s">
-        <v>754</v>
-      </c>
-      <c r="H11" s="211">
-        <v>8.0</v>
-      </c>
-      <c r="I11" s="212"/>
-      <c r="J11" s="212"/>
-      <c r="K11" s="212"/>
-      <c r="L11" s="212"/>
-      <c r="M11" s="212"/>
-      <c r="N11" s="211"/>
-      <c r="O11" s="212"/>
-      <c r="P11" s="212"/>
-      <c r="Q11" s="212"/>
-      <c r="R11" s="212"/>
-      <c r="S11" s="213"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="194">
-        <v>12.0</v>
-      </c>
-      <c r="B12" s="209" t="s">
-        <v>359</v>
-      </c>
-      <c r="C12" s="138" t="s">
-        <v>516</v>
-      </c>
-      <c r="D12" s="138" t="s">
-        <v>517</v>
-      </c>
-      <c r="E12" s="190" t="s">
-        <v>419</v>
-      </c>
-      <c r="F12" s="129" t="s">
-        <v>560</v>
-      </c>
-      <c r="G12" s="191" t="s">
-        <v>755</v>
-      </c>
-      <c r="H12" s="199">
-        <v>6.0</v>
-      </c>
-      <c r="I12" s="195"/>
-      <c r="J12" s="195"/>
-      <c r="K12" s="195"/>
-      <c r="L12" s="195"/>
-      <c r="M12" s="195"/>
-      <c r="N12" s="195"/>
-      <c r="O12" s="195"/>
-      <c r="P12" s="195"/>
-      <c r="Q12" s="195"/>
-      <c r="R12" s="195"/>
-      <c r="S12" s="196"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="189">
-        <v>16.0</v>
-      </c>
-      <c r="B13" s="197" t="s">
-        <v>418</v>
-      </c>
-      <c r="C13" s="141" t="s">
-        <v>516</v>
-      </c>
-      <c r="D13" s="133" t="s">
-        <v>563</v>
-      </c>
-      <c r="E13" s="190" t="s">
-        <v>419</v>
-      </c>
-      <c r="F13" s="135" t="s">
-        <v>565</v>
-      </c>
-      <c r="G13" s="191" t="s">
-        <v>755</v>
-      </c>
-      <c r="H13" s="208">
-        <v>8.0</v>
-      </c>
-      <c r="I13" s="192"/>
-      <c r="J13" s="192"/>
-      <c r="K13" s="192"/>
-      <c r="L13" s="192"/>
-      <c r="M13" s="192"/>
-      <c r="N13" s="192"/>
-      <c r="O13" s="192"/>
-      <c r="P13" s="192"/>
-      <c r="Q13" s="192"/>
-      <c r="R13" s="192"/>
-      <c r="S13" s="193"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="194">
-        <v>40.0</v>
-      </c>
-      <c r="B14" s="209" t="s">
-        <v>315</v>
-      </c>
-      <c r="C14" s="138" t="s">
-        <v>516</v>
-      </c>
-      <c r="D14" s="138" t="s">
-        <v>520</v>
-      </c>
-      <c r="E14" s="190" t="s">
-        <v>756</v>
-      </c>
-      <c r="F14" s="129">
-        <v>7.7772459654E10</v>
-      </c>
-      <c r="G14" s="191" t="s">
-        <v>757</v>
-      </c>
-      <c r="H14" s="195"/>
-      <c r="I14" s="195"/>
-      <c r="J14" s="195"/>
-      <c r="K14" s="195"/>
-      <c r="L14" s="195"/>
-      <c r="M14" s="195"/>
-      <c r="N14" s="195"/>
-      <c r="O14" s="195"/>
-      <c r="P14" s="195"/>
-      <c r="Q14" s="195"/>
-      <c r="R14" s="195"/>
-      <c r="S14" s="196"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="189">
-        <v>30.0</v>
-      </c>
-      <c r="B15" s="133" t="s">
-        <v>602</v>
-      </c>
-      <c r="C15" s="133" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="133" t="s">
-        <v>603</v>
-      </c>
-      <c r="E15" s="190" t="s">
-        <v>609</v>
-      </c>
-      <c r="F15" s="135" t="s">
-        <v>605</v>
-      </c>
-      <c r="G15" s="191" t="s">
-        <v>758</v>
-      </c>
-      <c r="H15" s="192"/>
-      <c r="I15" s="192"/>
-      <c r="J15" s="192"/>
-      <c r="K15" s="192"/>
-      <c r="L15" s="192"/>
-      <c r="M15" s="192"/>
-      <c r="N15" s="192"/>
-      <c r="O15" s="192"/>
-      <c r="P15" s="192"/>
-      <c r="Q15" s="192"/>
-      <c r="R15" s="192"/>
-      <c r="S15" s="193"/>
+      <c r="I15" s="196"/>
+      <c r="J15" s="196"/>
+      <c r="K15" s="196"/>
+      <c r="L15" s="196"/>
+      <c r="M15" s="196"/>
+      <c r="N15" s="196"/>
+      <c r="O15" s="196"/>
+      <c r="P15" s="196"/>
+      <c r="Q15" s="196"/>
+      <c r="R15" s="196"/>
+      <c r="S15" s="197"/>
     </row>
     <row r="16">
-      <c r="A16" s="194">
-        <v>33.0</v>
-      </c>
-      <c r="B16" s="209" t="s">
-        <v>611</v>
+      <c r="A16" s="198">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="208" t="s">
+        <v>367</v>
       </c>
       <c r="C16" s="138" t="s">
         <v>516</v>
       </c>
-      <c r="D16" s="159"/>
-      <c r="E16" s="190" t="s">
-        <v>609</v>
+      <c r="D16" s="138" t="s">
+        <v>517</v>
+      </c>
+      <c r="E16" s="209" t="s">
+        <v>419</v>
       </c>
       <c r="F16" s="129" t="s">
-        <v>613</v>
-      </c>
-      <c r="G16" s="203" t="s">
-        <v>759</v>
-      </c>
-      <c r="H16" s="204"/>
-      <c r="I16" s="204"/>
-      <c r="J16" s="204"/>
-      <c r="K16" s="204"/>
-      <c r="L16" s="204"/>
-      <c r="M16" s="204"/>
-      <c r="N16" s="204"/>
-      <c r="O16" s="204"/>
-      <c r="P16" s="204"/>
-      <c r="Q16" s="204"/>
-      <c r="R16" s="204"/>
-      <c r="S16" s="205"/>
+        <v>562</v>
+      </c>
+      <c r="G16" s="194" t="s">
+        <v>756</v>
+      </c>
+      <c r="H16" s="188">
+        <v>9.0</v>
+      </c>
+      <c r="I16" s="189"/>
+      <c r="J16" s="189"/>
+      <c r="K16" s="189"/>
+      <c r="L16" s="189"/>
+      <c r="M16" s="189"/>
+      <c r="N16" s="189"/>
+      <c r="O16" s="189"/>
+      <c r="P16" s="189"/>
+      <c r="Q16" s="189"/>
+      <c r="R16" s="189"/>
+      <c r="S16" s="190"/>
     </row>
     <row r="17">
-      <c r="A17" s="189">
-        <v>26.0</v>
-      </c>
-      <c r="B17" s="133" t="s">
-        <v>591</v>
-      </c>
-      <c r="C17" s="133" t="s">
+      <c r="A17" s="191">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="211" t="s">
+        <v>418</v>
+      </c>
+      <c r="C17" s="141" t="s">
+        <v>516</v>
+      </c>
+      <c r="D17" s="133" t="s">
+        <v>563</v>
+      </c>
+      <c r="E17" s="209" t="s">
+        <v>419</v>
+      </c>
+      <c r="F17" s="135" t="s">
+        <v>565</v>
+      </c>
+      <c r="G17" s="194" t="s">
+        <v>753</v>
+      </c>
+      <c r="H17" s="195">
+        <v>8.0</v>
+      </c>
+      <c r="I17" s="196"/>
+      <c r="J17" s="196"/>
+      <c r="K17" s="196"/>
+      <c r="L17" s="196"/>
+      <c r="M17" s="196"/>
+      <c r="N17" s="196"/>
+      <c r="O17" s="196"/>
+      <c r="P17" s="196"/>
+      <c r="Q17" s="196"/>
+      <c r="R17" s="196"/>
+      <c r="S17" s="197"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="198">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="208" t="s">
+        <v>363</v>
+      </c>
+      <c r="C18" s="138" t="s">
+        <v>516</v>
+      </c>
+      <c r="D18" s="138" t="s">
+        <v>517</v>
+      </c>
+      <c r="E18" s="209" t="s">
+        <v>419</v>
+      </c>
+      <c r="F18" s="129" t="s">
+        <v>558</v>
+      </c>
+      <c r="G18" s="194" t="s">
+        <v>756</v>
+      </c>
+      <c r="H18" s="187"/>
+      <c r="I18" s="189"/>
+      <c r="J18" s="189"/>
+      <c r="K18" s="189"/>
+      <c r="L18" s="189"/>
+      <c r="M18" s="189"/>
+      <c r="N18" s="189"/>
+      <c r="O18" s="189"/>
+      <c r="P18" s="189"/>
+      <c r="Q18" s="189"/>
+      <c r="R18" s="189"/>
+      <c r="S18" s="190"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="191">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="133" t="s">
+        <v>549</v>
+      </c>
+      <c r="C19" s="133" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="133" t="s">
+        <v>550</v>
+      </c>
+      <c r="E19" s="209" t="s">
+        <v>419</v>
+      </c>
+      <c r="F19" s="151" t="s">
+        <v>552</v>
+      </c>
+      <c r="G19" s="194" t="s">
+        <v>756</v>
+      </c>
+      <c r="H19" s="195"/>
+      <c r="I19" s="196"/>
+      <c r="J19" s="196"/>
+      <c r="K19" s="196"/>
+      <c r="L19" s="196"/>
+      <c r="M19" s="196"/>
+      <c r="N19" s="196"/>
+      <c r="O19" s="196"/>
+      <c r="P19" s="196"/>
+      <c r="Q19" s="196"/>
+      <c r="R19" s="196"/>
+      <c r="S19" s="197"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="198">
+        <v>19.0</v>
+      </c>
+      <c r="B20" s="167" t="s">
+        <v>545</v>
+      </c>
+      <c r="C20" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="133" t="s">
-        <v>592</v>
-      </c>
-      <c r="E17" s="190" t="s">
-        <v>411</v>
-      </c>
-      <c r="F17" s="135" t="s">
-        <v>594</v>
-      </c>
-      <c r="G17" s="191" t="s">
-        <v>760</v>
-      </c>
-      <c r="H17" s="192"/>
-      <c r="I17" s="192"/>
-      <c r="J17" s="192"/>
-      <c r="K17" s="192"/>
-      <c r="L17" s="192"/>
-      <c r="M17" s="192"/>
-      <c r="N17" s="192"/>
-      <c r="O17" s="192"/>
-      <c r="P17" s="192"/>
-      <c r="Q17" s="192"/>
-      <c r="R17" s="192"/>
-      <c r="S17" s="193"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="194">
-        <v>4.0</v>
-      </c>
-      <c r="B18" s="214" t="s">
-        <v>349</v>
-      </c>
-      <c r="C18" s="127" t="s">
-        <v>516</v>
-      </c>
-      <c r="D18" s="127" t="s">
-        <v>520</v>
-      </c>
-      <c r="E18" s="207" t="s">
-        <v>509</v>
-      </c>
-      <c r="F18" s="145" t="s">
-        <v>532</v>
-      </c>
-      <c r="G18" s="210" t="s">
-        <v>761</v>
-      </c>
-      <c r="H18" s="215">
-        <v>7.0</v>
-      </c>
-      <c r="I18" s="216"/>
-      <c r="J18" s="216"/>
-      <c r="K18" s="216"/>
-      <c r="L18" s="216"/>
-      <c r="M18" s="216"/>
-      <c r="N18" s="216"/>
-      <c r="O18" s="216"/>
-      <c r="P18" s="216"/>
-      <c r="Q18" s="216"/>
-      <c r="R18" s="216"/>
-      <c r="S18" s="217"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="189">
-        <v>22.0</v>
-      </c>
-      <c r="B19" s="197" t="s">
-        <v>289</v>
-      </c>
-      <c r="C19" s="133" t="s">
-        <v>516</v>
-      </c>
-      <c r="D19" s="133" t="s">
-        <v>520</v>
-      </c>
-      <c r="E19" s="190" t="s">
+      <c r="D20" s="138" t="s">
+        <v>546</v>
+      </c>
+      <c r="E20" s="209" t="s">
+        <v>419</v>
+      </c>
+      <c r="F20" s="129" t="s">
+        <v>548</v>
+      </c>
+      <c r="G20" s="194" t="s">
+        <v>757</v>
+      </c>
+      <c r="H20" s="188">
+        <v>9.0</v>
+      </c>
+      <c r="I20" s="189"/>
+      <c r="J20" s="189"/>
+      <c r="K20" s="189"/>
+      <c r="L20" s="189"/>
+      <c r="M20" s="189"/>
+      <c r="N20" s="189"/>
+      <c r="O20" s="189"/>
+      <c r="P20" s="189"/>
+      <c r="Q20" s="189"/>
+      <c r="R20" s="189"/>
+      <c r="S20" s="190"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="191">
+        <v>20.0</v>
+      </c>
+      <c r="B21" s="213" t="s">
+        <v>583</v>
+      </c>
+      <c r="C21" s="133" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="133" t="s">
+        <v>584</v>
+      </c>
+      <c r="E21" s="209" t="s">
         <v>570</v>
       </c>
-      <c r="F19" s="151" t="s">
-        <v>572</v>
-      </c>
-      <c r="G19" s="200" t="s">
-        <v>762</v>
-      </c>
-      <c r="H19" s="201"/>
-      <c r="I19" s="201"/>
-      <c r="J19" s="201"/>
-      <c r="K19" s="201"/>
-      <c r="L19" s="201"/>
-      <c r="M19" s="201"/>
-      <c r="N19" s="201"/>
-      <c r="O19" s="201"/>
-      <c r="P19" s="201"/>
-      <c r="Q19" s="201"/>
-      <c r="R19" s="201"/>
-      <c r="S19" s="202"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="194">
-        <v>60.0</v>
-      </c>
-      <c r="B20" s="218" t="s">
-        <v>393</v>
-      </c>
-      <c r="C20" s="138" t="s">
-        <v>516</v>
-      </c>
-      <c r="D20" s="138" t="s">
-        <v>517</v>
-      </c>
-      <c r="E20" s="190" t="s">
-        <v>427</v>
-      </c>
-      <c r="F20" s="129">
-        <v>7.7078750345E10</v>
-      </c>
-      <c r="G20" s="191" t="s">
-        <v>763</v>
-      </c>
-      <c r="H20" s="195"/>
-      <c r="I20" s="195"/>
-      <c r="J20" s="195"/>
-      <c r="K20" s="195"/>
-      <c r="L20" s="195"/>
-      <c r="M20" s="195"/>
-      <c r="N20" s="195"/>
-      <c r="O20" s="195"/>
-      <c r="P20" s="195"/>
-      <c r="Q20" s="195"/>
-      <c r="R20" s="195"/>
-      <c r="S20" s="196"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="189">
-        <v>65.0</v>
-      </c>
-      <c r="B21" s="219" t="s">
-        <v>698</v>
-      </c>
-      <c r="C21" s="133" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="133" t="s">
-        <v>699</v>
-      </c>
-      <c r="E21" s="190" t="s">
-        <v>427</v>
-      </c>
-      <c r="F21" s="151">
-        <v>7.7057454959E10</v>
-      </c>
-      <c r="G21" s="191" t="s">
-        <v>763</v>
-      </c>
-      <c r="H21" s="192"/>
-      <c r="I21" s="192"/>
-      <c r="J21" s="192"/>
-      <c r="K21" s="192"/>
-      <c r="L21" s="192"/>
-      <c r="M21" s="192"/>
-      <c r="N21" s="192"/>
-      <c r="O21" s="192"/>
-      <c r="P21" s="192"/>
-      <c r="Q21" s="192"/>
-      <c r="R21" s="192"/>
-      <c r="S21" s="193"/>
+      <c r="F21" s="151" t="s">
+        <v>586</v>
+      </c>
+      <c r="G21" s="214" t="s">
+        <v>758</v>
+      </c>
+      <c r="H21" s="215"/>
+      <c r="I21" s="215"/>
+      <c r="J21" s="215"/>
+      <c r="K21" s="215"/>
+      <c r="L21" s="215"/>
+      <c r="M21" s="215"/>
+      <c r="N21" s="215"/>
+      <c r="O21" s="215"/>
+      <c r="P21" s="215"/>
+      <c r="Q21" s="215"/>
+      <c r="R21" s="215"/>
+      <c r="S21" s="216"/>
     </row>
     <row r="22">
-      <c r="A22" s="194">
-        <v>69.0</v>
-      </c>
-      <c r="B22" s="209" t="s">
-        <v>401</v>
+      <c r="A22" s="198">
+        <v>21.0</v>
+      </c>
+      <c r="B22" s="208" t="s">
+        <v>338</v>
       </c>
       <c r="C22" s="138" t="s">
         <v>516</v>
       </c>
       <c r="D22" s="138" t="s">
-        <v>517</v>
-      </c>
-      <c r="E22" s="190" t="s">
-        <v>427</v>
-      </c>
-      <c r="F22" s="129">
-        <v>7.702214418E10</v>
-      </c>
-      <c r="G22" s="191" t="s">
-        <v>763</v>
-      </c>
-      <c r="H22" s="195"/>
-      <c r="I22" s="195"/>
-      <c r="J22" s="195"/>
-      <c r="K22" s="195"/>
-      <c r="L22" s="195"/>
-      <c r="M22" s="195"/>
-      <c r="N22" s="195"/>
-      <c r="O22" s="195"/>
-      <c r="P22" s="195"/>
-      <c r="Q22" s="195"/>
-      <c r="R22" s="195"/>
-      <c r="S22" s="196"/>
+        <v>520</v>
+      </c>
+      <c r="E22" s="209" t="s">
+        <v>570</v>
+      </c>
+      <c r="F22" s="129" t="s">
+        <v>576</v>
+      </c>
+      <c r="G22" s="214" t="s">
+        <v>759</v>
+      </c>
+      <c r="H22" s="217">
+        <v>15.0</v>
+      </c>
+      <c r="I22" s="218"/>
+      <c r="J22" s="218"/>
+      <c r="K22" s="218"/>
+      <c r="L22" s="218"/>
+      <c r="M22" s="218"/>
+      <c r="N22" s="218"/>
+      <c r="O22" s="218"/>
+      <c r="P22" s="218"/>
+      <c r="Q22" s="218"/>
+      <c r="R22" s="218"/>
+      <c r="S22" s="219"/>
     </row>
     <row r="23">
-      <c r="A23" s="189">
-        <v>35.0</v>
-      </c>
-      <c r="B23" s="197" t="s">
-        <v>764</v>
+      <c r="A23" s="191">
+        <v>22.0</v>
+      </c>
+      <c r="B23" s="211" t="s">
+        <v>289</v>
       </c>
       <c r="C23" s="133" t="s">
         <v>516</v>
       </c>
       <c r="D23" s="133" t="s">
-        <v>658</v>
-      </c>
-      <c r="E23" s="190" t="s">
-        <v>756</v>
-      </c>
-      <c r="F23" s="135">
-        <v>7.7009802493E10</v>
-      </c>
-      <c r="G23" s="191" t="s">
-        <v>765</v>
-      </c>
-      <c r="H23" s="192"/>
-      <c r="I23" s="192"/>
-      <c r="J23" s="192"/>
-      <c r="K23" s="192"/>
-      <c r="L23" s="192"/>
-      <c r="M23" s="192"/>
-      <c r="N23" s="192"/>
-      <c r="O23" s="192"/>
-      <c r="P23" s="192"/>
-      <c r="Q23" s="192"/>
-      <c r="R23" s="192"/>
-      <c r="S23" s="193"/>
+        <v>520</v>
+      </c>
+      <c r="E23" s="209" t="s">
+        <v>570</v>
+      </c>
+      <c r="F23" s="135" t="s">
+        <v>572</v>
+      </c>
+      <c r="G23" s="214" t="s">
+        <v>760</v>
+      </c>
+      <c r="H23" s="220">
+        <v>7.0</v>
+      </c>
+      <c r="I23" s="215"/>
+      <c r="J23" s="215"/>
+      <c r="K23" s="215"/>
+      <c r="L23" s="215"/>
+      <c r="M23" s="215"/>
+      <c r="N23" s="215"/>
+      <c r="O23" s="215"/>
+      <c r="P23" s="215"/>
+      <c r="Q23" s="215"/>
+      <c r="R23" s="215"/>
+      <c r="S23" s="216"/>
     </row>
     <row r="24">
-      <c r="A24" s="194">
-        <v>38.0</v>
-      </c>
-      <c r="B24" s="138" t="s">
-        <v>634</v>
+      <c r="A24" s="198">
+        <v>23.0</v>
+      </c>
+      <c r="B24" s="208" t="s">
+        <v>311</v>
       </c>
       <c r="C24" s="138" t="s">
-        <v>27</v>
+        <v>516</v>
       </c>
       <c r="D24" s="138" t="s">
-        <v>635</v>
-      </c>
-      <c r="E24" s="190" t="s">
-        <v>756</v>
-      </c>
-      <c r="F24" s="129">
-        <v>7.7054627019E10</v>
-      </c>
-      <c r="G24" s="191" t="s">
-        <v>766</v>
-      </c>
-      <c r="H24" s="195"/>
-      <c r="I24" s="195"/>
-      <c r="J24" s="195"/>
-      <c r="K24" s="195"/>
-      <c r="L24" s="195"/>
-      <c r="M24" s="195"/>
-      <c r="N24" s="195"/>
-      <c r="O24" s="195"/>
-      <c r="P24" s="195"/>
-      <c r="Q24" s="195"/>
-      <c r="R24" s="195"/>
-      <c r="S24" s="196"/>
+        <v>520</v>
+      </c>
+      <c r="E24" s="209" t="s">
+        <v>570</v>
+      </c>
+      <c r="F24" s="129" t="s">
+        <v>578</v>
+      </c>
+      <c r="G24" s="214" t="s">
+        <v>761</v>
+      </c>
+      <c r="H24" s="218"/>
+      <c r="I24" s="218"/>
+      <c r="J24" s="218"/>
+      <c r="K24" s="218"/>
+      <c r="L24" s="218"/>
+      <c r="M24" s="218"/>
+      <c r="N24" s="218"/>
+      <c r="O24" s="218"/>
+      <c r="P24" s="218"/>
+      <c r="Q24" s="218"/>
+      <c r="R24" s="218"/>
+      <c r="S24" s="219"/>
     </row>
     <row r="25">
-      <c r="A25" s="189">
-        <v>8.0</v>
-      </c>
-      <c r="B25" s="197" t="s">
-        <v>334</v>
+      <c r="A25" s="191">
+        <v>24.0</v>
+      </c>
+      <c r="B25" s="211" t="s">
+        <v>295</v>
       </c>
       <c r="C25" s="133" t="s">
         <v>516</v>
@@ -42874,431 +42914,417 @@
       <c r="D25" s="133" t="s">
         <v>520</v>
       </c>
-      <c r="E25" s="190" t="s">
-        <v>509</v>
+      <c r="E25" s="209" t="s">
+        <v>570</v>
       </c>
       <c r="F25" s="135" t="s">
-        <v>526</v>
-      </c>
-      <c r="G25" s="191" t="s">
-        <v>767</v>
-      </c>
-      <c r="H25" s="208">
-        <v>6.0</v>
-      </c>
-      <c r="I25" s="192"/>
-      <c r="J25" s="192"/>
-      <c r="K25" s="192"/>
-      <c r="L25" s="192"/>
-      <c r="M25" s="192"/>
-      <c r="N25" s="192"/>
-      <c r="O25" s="192"/>
-      <c r="P25" s="192"/>
-      <c r="Q25" s="192"/>
-      <c r="R25" s="192"/>
-      <c r="S25" s="193"/>
+        <v>574</v>
+      </c>
+      <c r="G25" s="214" t="s">
+        <v>758</v>
+      </c>
+      <c r="H25" s="215"/>
+      <c r="I25" s="215"/>
+      <c r="J25" s="215"/>
+      <c r="K25" s="215"/>
+      <c r="L25" s="215"/>
+      <c r="M25" s="215"/>
+      <c r="N25" s="215"/>
+      <c r="O25" s="215"/>
+      <c r="P25" s="215"/>
+      <c r="Q25" s="215"/>
+      <c r="R25" s="215"/>
+      <c r="S25" s="216"/>
     </row>
     <row r="26">
-      <c r="A26" s="194">
-        <v>9.0</v>
-      </c>
-      <c r="B26" s="214" t="s">
-        <v>326</v>
-      </c>
-      <c r="C26" s="127" t="s">
+      <c r="A26" s="198">
+        <v>25.0</v>
+      </c>
+      <c r="B26" s="138" t="s">
+        <v>595</v>
+      </c>
+      <c r="C26" s="138" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="138" t="s">
+        <v>592</v>
+      </c>
+      <c r="E26" s="209" t="s">
+        <v>411</v>
+      </c>
+      <c r="F26" s="156" t="s">
+        <v>597</v>
+      </c>
+      <c r="G26" s="194" t="s">
+        <v>762</v>
+      </c>
+      <c r="H26" s="189"/>
+      <c r="I26" s="189"/>
+      <c r="J26" s="189"/>
+      <c r="K26" s="189"/>
+      <c r="L26" s="189"/>
+      <c r="M26" s="189"/>
+      <c r="N26" s="189"/>
+      <c r="O26" s="189"/>
+      <c r="P26" s="189"/>
+      <c r="Q26" s="189"/>
+      <c r="R26" s="189"/>
+      <c r="S26" s="190"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="191">
+        <v>26.0</v>
+      </c>
+      <c r="B27" s="133" t="s">
+        <v>591</v>
+      </c>
+      <c r="C27" s="133" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="133" t="s">
+        <v>592</v>
+      </c>
+      <c r="E27" s="209" t="s">
+        <v>411</v>
+      </c>
+      <c r="F27" s="151" t="s">
+        <v>594</v>
+      </c>
+      <c r="G27" s="194" t="s">
+        <v>763</v>
+      </c>
+      <c r="H27" s="196"/>
+      <c r="I27" s="196"/>
+      <c r="J27" s="196"/>
+      <c r="K27" s="196"/>
+      <c r="L27" s="196"/>
+      <c r="M27" s="196"/>
+      <c r="N27" s="196"/>
+      <c r="O27" s="196"/>
+      <c r="P27" s="196"/>
+      <c r="Q27" s="196"/>
+      <c r="R27" s="196"/>
+      <c r="S27" s="197"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="198">
+        <v>27.0</v>
+      </c>
+      <c r="B28" s="208" t="s">
+        <v>410</v>
+      </c>
+      <c r="C28" s="138" t="s">
         <v>516</v>
       </c>
-      <c r="D26" s="127" t="s">
-        <v>520</v>
-      </c>
-      <c r="E26" s="207" t="s">
-        <v>509</v>
-      </c>
-      <c r="F26" s="220" t="s">
-        <v>530</v>
-      </c>
-      <c r="G26" s="191" t="s">
-        <v>767</v>
-      </c>
-      <c r="H26" s="199">
-        <v>7.0</v>
-      </c>
-      <c r="I26" s="195"/>
-      <c r="J26" s="195"/>
-      <c r="K26" s="195"/>
-      <c r="L26" s="195"/>
-      <c r="M26" s="195"/>
-      <c r="N26" s="195"/>
-      <c r="O26" s="195"/>
-      <c r="P26" s="195"/>
-      <c r="Q26" s="195"/>
-      <c r="R26" s="195"/>
-      <c r="S26" s="196"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="189">
-        <v>70.0</v>
-      </c>
-      <c r="B27" s="133" t="s">
-        <v>701</v>
-      </c>
-      <c r="C27" s="133" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="133" t="s">
-        <v>699</v>
-      </c>
-      <c r="E27" s="190" t="s">
-        <v>427</v>
-      </c>
-      <c r="F27" s="151">
-        <v>7.7057455794E10</v>
-      </c>
-      <c r="G27" s="191" t="s">
-        <v>768</v>
-      </c>
-      <c r="H27" s="192"/>
-      <c r="I27" s="192"/>
-      <c r="J27" s="192"/>
-      <c r="K27" s="192"/>
-      <c r="L27" s="192"/>
-      <c r="M27" s="192"/>
-      <c r="N27" s="192"/>
-      <c r="O27" s="192"/>
-      <c r="P27" s="192"/>
-      <c r="Q27" s="192"/>
-      <c r="R27" s="192"/>
-      <c r="S27" s="193"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="194">
-        <v>13.0</v>
-      </c>
-      <c r="B28" s="138" t="s">
-        <v>566</v>
-      </c>
-      <c r="C28" s="138" t="s">
+      <c r="D28" s="138">
+        <v>0.0</v>
+      </c>
+      <c r="E28" s="209" t="s">
+        <v>411</v>
+      </c>
+      <c r="F28" s="129">
+        <v>7.7789056044E10</v>
+      </c>
+      <c r="G28" s="194" t="s">
+        <v>764</v>
+      </c>
+      <c r="H28" s="189"/>
+      <c r="I28" s="189"/>
+      <c r="J28" s="189"/>
+      <c r="K28" s="189"/>
+      <c r="L28" s="189"/>
+      <c r="M28" s="189"/>
+      <c r="N28" s="189"/>
+      <c r="O28" s="189"/>
+      <c r="P28" s="189"/>
+      <c r="Q28" s="189"/>
+      <c r="R28" s="189"/>
+      <c r="S28" s="190"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="191">
+        <v>28.0</v>
+      </c>
+      <c r="B29" s="133" t="s">
+        <v>588</v>
+      </c>
+      <c r="C29" s="133" t="s">
         <v>27</v>
-      </c>
-      <c r="D28" s="138" t="s">
-        <v>567</v>
-      </c>
-      <c r="E28" s="190" t="s">
-        <v>419</v>
-      </c>
-      <c r="F28" s="129" t="s">
-        <v>569</v>
-      </c>
-      <c r="G28" s="191" t="s">
-        <v>769</v>
-      </c>
-      <c r="H28" s="199">
-        <v>5.0</v>
-      </c>
-      <c r="I28" s="195"/>
-      <c r="J28" s="195"/>
-      <c r="K28" s="195"/>
-      <c r="L28" s="195"/>
-      <c r="M28" s="195"/>
-      <c r="N28" s="195"/>
-      <c r="O28" s="195"/>
-      <c r="P28" s="195"/>
-      <c r="Q28" s="195"/>
-      <c r="R28" s="195"/>
-      <c r="S28" s="196"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="189">
-        <v>14.0</v>
-      </c>
-      <c r="B29" s="133" t="s">
-        <v>553</v>
-      </c>
-      <c r="C29" s="133" t="s">
-        <v>554</v>
       </c>
       <c r="D29" s="133" t="s">
         <v>513</v>
       </c>
-      <c r="E29" s="190" t="s">
-        <v>419</v>
+      <c r="E29" s="209" t="s">
+        <v>411</v>
       </c>
       <c r="F29" s="135" t="s">
-        <v>556</v>
-      </c>
-      <c r="G29" s="191" t="s">
-        <v>770</v>
-      </c>
-      <c r="H29" s="198">
-        <v>9.0</v>
-      </c>
-      <c r="I29" s="192"/>
-      <c r="J29" s="192"/>
-      <c r="K29" s="192"/>
-      <c r="L29" s="192"/>
-      <c r="M29" s="192"/>
-      <c r="N29" s="192"/>
-      <c r="O29" s="192"/>
-      <c r="P29" s="192"/>
-      <c r="Q29" s="192"/>
-      <c r="R29" s="192"/>
-      <c r="S29" s="193"/>
+        <v>590</v>
+      </c>
+      <c r="G29" s="194" t="s">
+        <v>765</v>
+      </c>
+      <c r="H29" s="196"/>
+      <c r="I29" s="196"/>
+      <c r="J29" s="196"/>
+      <c r="K29" s="196"/>
+      <c r="L29" s="196"/>
+      <c r="M29" s="196"/>
+      <c r="N29" s="196"/>
+      <c r="O29" s="196"/>
+      <c r="P29" s="196"/>
+      <c r="Q29" s="196"/>
+      <c r="R29" s="196"/>
+      <c r="S29" s="197"/>
     </row>
     <row r="30">
-      <c r="A30" s="194">
-        <v>19.0</v>
+      <c r="A30" s="198">
+        <v>29.0</v>
       </c>
       <c r="B30" s="138" t="s">
-        <v>545</v>
+        <v>766</v>
       </c>
       <c r="C30" s="138" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D30" s="138" t="s">
-        <v>546</v>
-      </c>
-      <c r="E30" s="190" t="s">
-        <v>419</v>
+        <v>603</v>
+      </c>
+      <c r="E30" s="209" t="s">
+        <v>609</v>
       </c>
       <c r="F30" s="129" t="s">
-        <v>548</v>
-      </c>
-      <c r="G30" s="191" t="s">
-        <v>771</v>
-      </c>
-      <c r="H30" s="198">
-        <v>9.0</v>
-      </c>
-      <c r="I30" s="195"/>
-      <c r="J30" s="195"/>
-      <c r="K30" s="195"/>
-      <c r="L30" s="195"/>
-      <c r="M30" s="195"/>
-      <c r="N30" s="195"/>
-      <c r="O30" s="195"/>
-      <c r="P30" s="195"/>
-      <c r="Q30" s="195"/>
-      <c r="R30" s="195"/>
-      <c r="S30" s="196"/>
+        <v>608</v>
+      </c>
+      <c r="G30" s="214" t="s">
+        <v>767</v>
+      </c>
+      <c r="H30" s="218"/>
+      <c r="I30" s="218"/>
+      <c r="J30" s="218"/>
+      <c r="K30" s="218"/>
+      <c r="L30" s="218"/>
+      <c r="M30" s="218"/>
+      <c r="N30" s="218"/>
+      <c r="O30" s="218"/>
+      <c r="P30" s="218"/>
+      <c r="Q30" s="218"/>
+      <c r="R30" s="218"/>
+      <c r="S30" s="219"/>
     </row>
     <row r="31">
-      <c r="A31" s="189">
-        <v>71.0</v>
+      <c r="A31" s="191">
+        <v>30.0</v>
       </c>
       <c r="B31" s="133" t="s">
-        <v>723</v>
+        <v>602</v>
       </c>
       <c r="C31" s="133" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="133" t="s">
-        <v>724</v>
-      </c>
-      <c r="E31" s="190" t="s">
-        <v>415</v>
-      </c>
-      <c r="F31" s="221" t="s">
-        <v>726</v>
-      </c>
-      <c r="G31" s="200" t="s">
-        <v>772</v>
-      </c>
-      <c r="H31" s="201"/>
-      <c r="I31" s="201"/>
-      <c r="J31" s="201"/>
-      <c r="K31" s="201"/>
-      <c r="L31" s="201"/>
-      <c r="M31" s="201"/>
-      <c r="N31" s="201"/>
-      <c r="O31" s="201"/>
-      <c r="P31" s="201"/>
-      <c r="Q31" s="201"/>
-      <c r="R31" s="201"/>
-      <c r="S31" s="202"/>
+        <v>603</v>
+      </c>
+      <c r="E31" s="209" t="s">
+        <v>609</v>
+      </c>
+      <c r="F31" s="135" t="s">
+        <v>605</v>
+      </c>
+      <c r="G31" s="194" t="s">
+        <v>768</v>
+      </c>
+      <c r="H31" s="196"/>
+      <c r="I31" s="196"/>
+      <c r="J31" s="196"/>
+      <c r="K31" s="196"/>
+      <c r="L31" s="196"/>
+      <c r="M31" s="196"/>
+      <c r="N31" s="196"/>
+      <c r="O31" s="196"/>
+      <c r="P31" s="196"/>
+      <c r="Q31" s="196"/>
+      <c r="R31" s="196"/>
+      <c r="S31" s="197"/>
     </row>
     <row r="32">
-      <c r="A32" s="194">
-        <v>15.0</v>
-      </c>
-      <c r="B32" s="209" t="s">
-        <v>367</v>
+      <c r="A32" s="198">
+        <v>31.0</v>
+      </c>
+      <c r="B32" s="138" t="s">
+        <v>598</v>
       </c>
       <c r="C32" s="138" t="s">
-        <v>516</v>
+        <v>20</v>
       </c>
       <c r="D32" s="138" t="s">
-        <v>517</v>
-      </c>
-      <c r="E32" s="190" t="s">
-        <v>419</v>
+        <v>599</v>
+      </c>
+      <c r="E32" s="209" t="s">
+        <v>609</v>
       </c>
       <c r="F32" s="129" t="s">
-        <v>562</v>
-      </c>
-      <c r="G32" s="191" t="s">
-        <v>773</v>
-      </c>
-      <c r="H32" s="198">
-        <v>9.0</v>
-      </c>
-      <c r="I32" s="195"/>
-      <c r="J32" s="195"/>
-      <c r="K32" s="195"/>
-      <c r="L32" s="195"/>
-      <c r="M32" s="195"/>
-      <c r="N32" s="195"/>
-      <c r="O32" s="195"/>
-      <c r="P32" s="195"/>
-      <c r="Q32" s="195"/>
-      <c r="R32" s="195"/>
-      <c r="S32" s="196"/>
+        <v>601</v>
+      </c>
+      <c r="G32" s="221" t="s">
+        <v>769</v>
+      </c>
+      <c r="H32" s="222"/>
+      <c r="I32" s="222"/>
+      <c r="J32" s="222"/>
+      <c r="K32" s="222"/>
+      <c r="L32" s="222"/>
+      <c r="M32" s="222"/>
+      <c r="N32" s="222"/>
+      <c r="O32" s="222"/>
+      <c r="P32" s="222"/>
+      <c r="Q32" s="222"/>
+      <c r="R32" s="222"/>
+      <c r="S32" s="223"/>
     </row>
     <row r="33">
-      <c r="A33" s="189">
-        <v>17.0</v>
-      </c>
-      <c r="B33" s="197" t="s">
-        <v>363</v>
+      <c r="A33" s="191">
+        <v>32.0</v>
+      </c>
+      <c r="B33" s="211" t="s">
+        <v>319</v>
       </c>
       <c r="C33" s="133" t="s">
         <v>516</v>
       </c>
       <c r="D33" s="133" t="s">
-        <v>517</v>
-      </c>
-      <c r="E33" s="190" t="s">
-        <v>419</v>
-      </c>
-      <c r="F33" s="135" t="s">
-        <v>558</v>
-      </c>
-      <c r="G33" s="191" t="s">
-        <v>773</v>
-      </c>
-      <c r="H33" s="208"/>
-      <c r="I33" s="192"/>
-      <c r="J33" s="192"/>
-      <c r="K33" s="192"/>
-      <c r="L33" s="192"/>
-      <c r="M33" s="192"/>
-      <c r="N33" s="192"/>
-      <c r="O33" s="192"/>
-      <c r="P33" s="192"/>
-      <c r="Q33" s="192"/>
-      <c r="R33" s="192"/>
-      <c r="S33" s="193"/>
+        <v>520</v>
+      </c>
+      <c r="E33" s="209" t="s">
+        <v>609</v>
+      </c>
+      <c r="F33" s="135">
+        <v>7.7057797357E10</v>
+      </c>
+      <c r="G33" s="214" t="s">
+        <v>767</v>
+      </c>
+      <c r="H33" s="215"/>
+      <c r="I33" s="215"/>
+      <c r="J33" s="215"/>
+      <c r="K33" s="215"/>
+      <c r="L33" s="215"/>
+      <c r="M33" s="215"/>
+      <c r="N33" s="215"/>
+      <c r="O33" s="215"/>
+      <c r="P33" s="215"/>
+      <c r="Q33" s="215"/>
+      <c r="R33" s="215"/>
+      <c r="S33" s="216"/>
     </row>
     <row r="34">
-      <c r="A34" s="194">
-        <v>18.0</v>
-      </c>
-      <c r="B34" s="138" t="s">
-        <v>549</v>
+      <c r="A34" s="198">
+        <v>33.0</v>
+      </c>
+      <c r="B34" s="208" t="s">
+        <v>611</v>
       </c>
       <c r="C34" s="138" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="138" t="s">
-        <v>550</v>
-      </c>
-      <c r="E34" s="190" t="s">
-        <v>419</v>
+        <v>516</v>
+      </c>
+      <c r="D34" s="159"/>
+      <c r="E34" s="209" t="s">
+        <v>609</v>
       </c>
       <c r="F34" s="129" t="s">
-        <v>552</v>
-      </c>
-      <c r="G34" s="191" t="s">
-        <v>773</v>
-      </c>
-      <c r="H34" s="199"/>
-      <c r="I34" s="195"/>
-      <c r="J34" s="195"/>
-      <c r="K34" s="195"/>
-      <c r="L34" s="195"/>
-      <c r="M34" s="195"/>
-      <c r="N34" s="195"/>
-      <c r="O34" s="195"/>
-      <c r="P34" s="195"/>
-      <c r="Q34" s="195"/>
-      <c r="R34" s="195"/>
-      <c r="S34" s="196"/>
+        <v>613</v>
+      </c>
+      <c r="G34" s="221" t="s">
+        <v>770</v>
+      </c>
+      <c r="H34" s="222"/>
+      <c r="I34" s="222"/>
+      <c r="J34" s="222"/>
+      <c r="K34" s="222"/>
+      <c r="L34" s="222"/>
+      <c r="M34" s="222"/>
+      <c r="N34" s="222"/>
+      <c r="O34" s="222"/>
+      <c r="P34" s="222"/>
+      <c r="Q34" s="222"/>
+      <c r="R34" s="222"/>
+      <c r="S34" s="223"/>
     </row>
     <row r="35">
-      <c r="A35" s="189">
-        <v>55.0</v>
+      <c r="A35" s="191">
+        <v>34.0</v>
       </c>
       <c r="B35" s="133" t="s">
-        <v>664</v>
+        <v>639</v>
       </c>
       <c r="C35" s="133" t="s">
         <v>27</v>
       </c>
       <c r="D35" s="133" t="s">
-        <v>665</v>
-      </c>
-      <c r="E35" s="190" t="s">
-        <v>747</v>
-      </c>
-      <c r="F35" s="135" t="s">
-        <v>667</v>
-      </c>
-      <c r="G35" s="200" t="s">
-        <v>774</v>
-      </c>
-      <c r="H35" s="201"/>
-      <c r="I35" s="201"/>
-      <c r="J35" s="201"/>
-      <c r="K35" s="201"/>
-      <c r="L35" s="201"/>
-      <c r="M35" s="201"/>
-      <c r="N35" s="201"/>
-      <c r="O35" s="201"/>
-      <c r="P35" s="201"/>
-      <c r="Q35" s="201"/>
-      <c r="R35" s="201"/>
-      <c r="S35" s="202"/>
+        <v>592</v>
+      </c>
+      <c r="E35" s="209" t="s">
+        <v>771</v>
+      </c>
+      <c r="F35" s="135">
+        <v>7.7054441706E10</v>
+      </c>
+      <c r="G35" s="194" t="s">
+        <v>772</v>
+      </c>
+      <c r="H35" s="196"/>
+      <c r="I35" s="196"/>
+      <c r="J35" s="196"/>
+      <c r="K35" s="196"/>
+      <c r="L35" s="196"/>
+      <c r="M35" s="196"/>
+      <c r="N35" s="196"/>
+      <c r="O35" s="196"/>
+      <c r="P35" s="196"/>
+      <c r="Q35" s="196"/>
+      <c r="R35" s="196"/>
+      <c r="S35" s="197"/>
     </row>
     <row r="36">
-      <c r="A36" s="194">
-        <v>27.0</v>
-      </c>
-      <c r="B36" s="209" t="s">
-        <v>410</v>
+      <c r="A36" s="198">
+        <v>35.0</v>
+      </c>
+      <c r="B36" s="208" t="s">
+        <v>773</v>
       </c>
       <c r="C36" s="138" t="s">
         <v>516</v>
       </c>
-      <c r="D36" s="138">
-        <v>0.0</v>
-      </c>
-      <c r="E36" s="190" t="s">
-        <v>411</v>
+      <c r="D36" s="138" t="s">
+        <v>658</v>
+      </c>
+      <c r="E36" s="209" t="s">
+        <v>771</v>
       </c>
       <c r="F36" s="129">
-        <v>7.7789056044E10</v>
-      </c>
-      <c r="G36" s="191" t="s">
-        <v>775</v>
-      </c>
-      <c r="H36" s="195"/>
-      <c r="I36" s="195"/>
-      <c r="J36" s="195"/>
-      <c r="K36" s="195"/>
-      <c r="L36" s="195"/>
-      <c r="M36" s="195"/>
-      <c r="N36" s="195"/>
-      <c r="O36" s="195"/>
-      <c r="P36" s="195"/>
-      <c r="Q36" s="195"/>
-      <c r="R36" s="195"/>
-      <c r="S36" s="196"/>
+        <v>7.7009802493E10</v>
+      </c>
+      <c r="G36" s="194" t="s">
+        <v>774</v>
+      </c>
+      <c r="H36" s="189"/>
+      <c r="I36" s="189"/>
+      <c r="J36" s="189"/>
+      <c r="K36" s="189"/>
+      <c r="L36" s="189"/>
+      <c r="M36" s="189"/>
+      <c r="N36" s="189"/>
+      <c r="O36" s="189"/>
+      <c r="P36" s="189"/>
+      <c r="Q36" s="189"/>
+      <c r="R36" s="189"/>
+      <c r="S36" s="190"/>
     </row>
     <row r="37">
-      <c r="A37" s="189">
-        <v>46.0</v>
+      <c r="A37" s="191">
+        <v>36.0</v>
       </c>
       <c r="B37" s="133" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C37" s="133" t="s">
         <v>27</v>
@@ -43306,943 +43332,941 @@
       <c r="D37" s="133" t="s">
         <v>592</v>
       </c>
-      <c r="E37" s="190" t="s">
-        <v>756</v>
+      <c r="E37" s="209" t="s">
+        <v>771</v>
       </c>
       <c r="F37" s="135">
-        <v>7.7775223885E10</v>
-      </c>
-      <c r="G37" s="191" t="s">
+        <v>7.7775223878E10</v>
+      </c>
+      <c r="G37" s="194" t="s">
+        <v>775</v>
+      </c>
+      <c r="H37" s="196"/>
+      <c r="I37" s="196"/>
+      <c r="J37" s="196"/>
+      <c r="K37" s="196"/>
+      <c r="L37" s="196"/>
+      <c r="M37" s="196"/>
+      <c r="N37" s="196"/>
+      <c r="O37" s="196"/>
+      <c r="P37" s="196"/>
+      <c r="Q37" s="196"/>
+      <c r="R37" s="196"/>
+      <c r="S37" s="197"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="198">
+        <v>37.0</v>
+      </c>
+      <c r="B38" s="138" t="s">
+        <v>652</v>
+      </c>
+      <c r="C38" s="138" t="s">
+        <v>653</v>
+      </c>
+      <c r="D38" s="138" t="s">
+        <v>599</v>
+      </c>
+      <c r="E38" s="209" t="s">
+        <v>771</v>
+      </c>
+      <c r="F38" s="129">
+        <v>7.7711886327E10</v>
+      </c>
+      <c r="G38" s="194" t="s">
         <v>776</v>
       </c>
-      <c r="H37" s="192"/>
-      <c r="I37" s="192"/>
-      <c r="J37" s="192"/>
-      <c r="K37" s="192"/>
-      <c r="L37" s="192"/>
-      <c r="M37" s="192"/>
-      <c r="N37" s="192"/>
-      <c r="O37" s="192"/>
-      <c r="P37" s="192"/>
-      <c r="Q37" s="192"/>
-      <c r="R37" s="192"/>
-      <c r="S37" s="193"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="194">
-        <v>49.0</v>
-      </c>
-      <c r="B38" s="138" t="s">
-        <v>614</v>
-      </c>
-      <c r="C38" s="138" t="s">
-        <v>27</v>
-      </c>
-      <c r="D38" s="138" t="s">
-        <v>546</v>
-      </c>
-      <c r="E38" s="190" t="s">
-        <v>756</v>
-      </c>
-      <c r="F38" s="129">
-        <v>7.747930565E10</v>
-      </c>
-      <c r="G38" s="191" t="s">
-        <v>777</v>
-      </c>
-      <c r="H38" s="195"/>
-      <c r="I38" s="195"/>
-      <c r="J38" s="195"/>
-      <c r="K38" s="195"/>
-      <c r="L38" s="195"/>
-      <c r="M38" s="195"/>
-      <c r="N38" s="195"/>
-      <c r="O38" s="195"/>
-      <c r="P38" s="195"/>
-      <c r="Q38" s="195"/>
-      <c r="R38" s="195"/>
-      <c r="S38" s="196"/>
+      <c r="H38" s="189"/>
+      <c r="I38" s="189"/>
+      <c r="J38" s="189"/>
+      <c r="K38" s="189"/>
+      <c r="L38" s="189"/>
+      <c r="M38" s="189"/>
+      <c r="N38" s="189"/>
+      <c r="O38" s="189"/>
+      <c r="P38" s="189"/>
+      <c r="Q38" s="189"/>
+      <c r="R38" s="189"/>
+      <c r="S38" s="190"/>
     </row>
     <row r="39">
-      <c r="A39" s="189">
-        <v>45.0</v>
+      <c r="A39" s="191">
+        <v>38.0</v>
       </c>
       <c r="B39" s="133" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="C39" s="133" t="s">
         <v>27</v>
       </c>
       <c r="D39" s="133" t="s">
+        <v>635</v>
+      </c>
+      <c r="E39" s="209" t="s">
+        <v>771</v>
+      </c>
+      <c r="F39" s="135">
+        <v>7.7054627019E10</v>
+      </c>
+      <c r="G39" s="194" t="s">
+        <v>777</v>
+      </c>
+      <c r="H39" s="196"/>
+      <c r="I39" s="196"/>
+      <c r="J39" s="196"/>
+      <c r="K39" s="196"/>
+      <c r="L39" s="196"/>
+      <c r="M39" s="196"/>
+      <c r="N39" s="196"/>
+      <c r="O39" s="196"/>
+      <c r="P39" s="196"/>
+      <c r="Q39" s="196"/>
+      <c r="R39" s="196"/>
+      <c r="S39" s="197"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="198">
+        <v>39.0</v>
+      </c>
+      <c r="B40" s="138" t="s">
+        <v>637</v>
+      </c>
+      <c r="C40" s="138" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="138" t="s">
+        <v>635</v>
+      </c>
+      <c r="E40" s="209" t="s">
+        <v>771</v>
+      </c>
+      <c r="F40" s="129">
+        <v>7.747757374E10</v>
+      </c>
+      <c r="G40" s="194" t="s">
+        <v>778</v>
+      </c>
+      <c r="H40" s="189"/>
+      <c r="I40" s="189"/>
+      <c r="J40" s="189"/>
+      <c r="K40" s="189"/>
+      <c r="L40" s="189"/>
+      <c r="M40" s="189"/>
+      <c r="N40" s="189"/>
+      <c r="O40" s="189"/>
+      <c r="P40" s="189"/>
+      <c r="Q40" s="189"/>
+      <c r="R40" s="189"/>
+      <c r="S40" s="190"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="191">
+        <v>40.0</v>
+      </c>
+      <c r="B41" s="211" t="s">
+        <v>315</v>
+      </c>
+      <c r="C41" s="133" t="s">
+        <v>516</v>
+      </c>
+      <c r="D41" s="133" t="s">
+        <v>520</v>
+      </c>
+      <c r="E41" s="209" t="s">
+        <v>771</v>
+      </c>
+      <c r="F41" s="151">
+        <v>7.7772459654E10</v>
+      </c>
+      <c r="G41" s="194" t="s">
+        <v>779</v>
+      </c>
+      <c r="H41" s="196"/>
+      <c r="I41" s="196"/>
+      <c r="J41" s="196"/>
+      <c r="K41" s="196"/>
+      <c r="L41" s="196"/>
+      <c r="M41" s="196"/>
+      <c r="N41" s="196"/>
+      <c r="O41" s="196"/>
+      <c r="P41" s="196"/>
+      <c r="Q41" s="196"/>
+      <c r="R41" s="196"/>
+      <c r="S41" s="197"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="198">
+        <v>41.0</v>
+      </c>
+      <c r="B42" s="138" t="s">
+        <v>616</v>
+      </c>
+      <c r="C42" s="138" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="138" t="s">
+        <v>617</v>
+      </c>
+      <c r="E42" s="209" t="s">
+        <v>771</v>
+      </c>
+      <c r="F42" s="129">
+        <v>7.7764004E10</v>
+      </c>
+      <c r="G42" s="194" t="s">
+        <v>780</v>
+      </c>
+      <c r="H42" s="187" t="s">
+        <v>781</v>
+      </c>
+      <c r="I42" s="189"/>
+      <c r="J42" s="189"/>
+      <c r="K42" s="189"/>
+      <c r="L42" s="189"/>
+      <c r="M42" s="189"/>
+      <c r="N42" s="189"/>
+      <c r="O42" s="189"/>
+      <c r="P42" s="189"/>
+      <c r="Q42" s="189"/>
+      <c r="R42" s="189"/>
+      <c r="S42" s="190"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="191">
+        <v>42.0</v>
+      </c>
+      <c r="B43" s="211" t="s">
+        <v>621</v>
+      </c>
+      <c r="C43" s="133" t="s">
+        <v>516</v>
+      </c>
+      <c r="D43" s="133" t="s">
+        <v>517</v>
+      </c>
+      <c r="E43" s="209" t="s">
+        <v>771</v>
+      </c>
+      <c r="F43" s="135" t="s">
+        <v>623</v>
+      </c>
+      <c r="G43" s="194" t="s">
+        <v>782</v>
+      </c>
+      <c r="H43" s="196"/>
+      <c r="I43" s="196"/>
+      <c r="J43" s="196"/>
+      <c r="K43" s="196"/>
+      <c r="L43" s="196"/>
+      <c r="M43" s="196"/>
+      <c r="N43" s="196"/>
+      <c r="O43" s="196"/>
+      <c r="P43" s="196"/>
+      <c r="Q43" s="196"/>
+      <c r="R43" s="196"/>
+      <c r="S43" s="197"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="198">
+        <v>43.0</v>
+      </c>
+      <c r="B44" s="138" t="s">
+        <v>632</v>
+      </c>
+      <c r="C44" s="138" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="138" t="s">
         <v>630</v>
       </c>
-      <c r="E39" s="190" t="s">
-        <v>756</v>
-      </c>
-      <c r="F39" s="135">
+      <c r="E44" s="209" t="s">
+        <v>771</v>
+      </c>
+      <c r="F44" s="129">
+        <v>7.7710603592E10</v>
+      </c>
+      <c r="G44" s="194" t="s">
+        <v>783</v>
+      </c>
+      <c r="H44" s="189"/>
+      <c r="I44" s="189"/>
+      <c r="J44" s="189"/>
+      <c r="K44" s="189"/>
+      <c r="L44" s="189"/>
+      <c r="M44" s="189"/>
+      <c r="N44" s="189"/>
+      <c r="O44" s="189"/>
+      <c r="P44" s="189"/>
+      <c r="Q44" s="189"/>
+      <c r="R44" s="189"/>
+      <c r="S44" s="190"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="191">
+        <v>44.0</v>
+      </c>
+      <c r="B45" s="224" t="s">
+        <v>483</v>
+      </c>
+      <c r="C45" s="161" t="s">
+        <v>516</v>
+      </c>
+      <c r="D45" s="161" t="s">
+        <v>520</v>
+      </c>
+      <c r="E45" s="209" t="s">
+        <v>771</v>
+      </c>
+      <c r="F45" s="163">
+        <v>7.7719062173E10</v>
+      </c>
+      <c r="G45" s="194" t="s">
+        <v>784</v>
+      </c>
+      <c r="H45" s="196"/>
+      <c r="I45" s="196"/>
+      <c r="J45" s="196"/>
+      <c r="K45" s="196"/>
+      <c r="L45" s="196"/>
+      <c r="M45" s="196"/>
+      <c r="N45" s="196"/>
+      <c r="O45" s="196"/>
+      <c r="P45" s="196"/>
+      <c r="Q45" s="196"/>
+      <c r="R45" s="196"/>
+      <c r="S45" s="197"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="198">
+        <v>45.0</v>
+      </c>
+      <c r="B46" s="164" t="s">
+        <v>629</v>
+      </c>
+      <c r="C46" s="164" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="164" t="s">
+        <v>630</v>
+      </c>
+      <c r="E46" s="209" t="s">
+        <v>771</v>
+      </c>
+      <c r="F46" s="165">
         <v>7.710609229E9</v>
       </c>
-      <c r="G39" s="191" t="s">
-        <v>778</v>
-      </c>
-      <c r="H39" s="192"/>
-      <c r="I39" s="192"/>
-      <c r="J39" s="192"/>
-      <c r="K39" s="192"/>
-      <c r="L39" s="192"/>
-      <c r="M39" s="192"/>
-      <c r="N39" s="192"/>
-      <c r="O39" s="192"/>
-      <c r="P39" s="192"/>
-      <c r="Q39" s="192"/>
-      <c r="R39" s="192"/>
-      <c r="S39" s="193"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="194">
-        <v>37.0</v>
-      </c>
-      <c r="B40" s="138" t="s">
-        <v>652</v>
-      </c>
-      <c r="C40" s="138" t="s">
-        <v>653</v>
-      </c>
-      <c r="D40" s="138" t="s">
-        <v>599</v>
-      </c>
-      <c r="E40" s="190" t="s">
-        <v>756</v>
-      </c>
-      <c r="F40" s="129">
-        <v>7.7711886327E10</v>
-      </c>
-      <c r="G40" s="191" t="s">
-        <v>779</v>
-      </c>
-      <c r="H40" s="195"/>
-      <c r="I40" s="195"/>
-      <c r="J40" s="195"/>
-      <c r="K40" s="195"/>
-      <c r="L40" s="195"/>
-      <c r="M40" s="195"/>
-      <c r="N40" s="195"/>
-      <c r="O40" s="195"/>
-      <c r="P40" s="195"/>
-      <c r="Q40" s="195"/>
-      <c r="R40" s="195"/>
-      <c r="S40" s="196"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="189">
-        <v>39.0</v>
-      </c>
-      <c r="B41" s="133" t="s">
-        <v>637</v>
-      </c>
-      <c r="C41" s="133" t="s">
-        <v>27</v>
-      </c>
-      <c r="D41" s="133" t="s">
-        <v>635</v>
-      </c>
-      <c r="E41" s="190" t="s">
-        <v>756</v>
-      </c>
-      <c r="F41" s="151">
-        <v>7.747757374E10</v>
-      </c>
-      <c r="G41" s="191" t="s">
-        <v>780</v>
-      </c>
-      <c r="H41" s="192"/>
-      <c r="I41" s="192"/>
-      <c r="J41" s="192"/>
-      <c r="K41" s="192"/>
-      <c r="L41" s="192"/>
-      <c r="M41" s="192"/>
-      <c r="N41" s="192"/>
-      <c r="O41" s="192"/>
-      <c r="P41" s="192"/>
-      <c r="Q41" s="192"/>
-      <c r="R41" s="192"/>
-      <c r="S41" s="193"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="194">
-        <v>42.0</v>
-      </c>
-      <c r="B42" s="209" t="s">
-        <v>621</v>
-      </c>
-      <c r="C42" s="138" t="s">
-        <v>516</v>
-      </c>
-      <c r="D42" s="138" t="s">
-        <v>517</v>
-      </c>
-      <c r="E42" s="190" t="s">
-        <v>756</v>
-      </c>
-      <c r="F42" s="129" t="s">
-        <v>623</v>
-      </c>
-      <c r="G42" s="191" t="s">
-        <v>781</v>
-      </c>
-      <c r="H42" s="195"/>
-      <c r="I42" s="195"/>
-      <c r="J42" s="195"/>
-      <c r="K42" s="195"/>
-      <c r="L42" s="195"/>
-      <c r="M42" s="195"/>
-      <c r="N42" s="195"/>
-      <c r="O42" s="195"/>
-      <c r="P42" s="195"/>
-      <c r="Q42" s="195"/>
-      <c r="R42" s="195"/>
-      <c r="S42" s="196"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="189">
-        <v>36.0</v>
-      </c>
-      <c r="B43" s="133" t="s">
-        <v>641</v>
-      </c>
-      <c r="C43" s="133" t="s">
-        <v>27</v>
-      </c>
-      <c r="D43" s="133" t="s">
-        <v>592</v>
-      </c>
-      <c r="E43" s="190" t="s">
-        <v>756</v>
-      </c>
-      <c r="F43" s="135">
-        <v>7.7775223878E10</v>
-      </c>
-      <c r="G43" s="191" t="s">
-        <v>782</v>
-      </c>
-      <c r="H43" s="192"/>
-      <c r="I43" s="192"/>
-      <c r="J43" s="192"/>
-      <c r="K43" s="192"/>
-      <c r="L43" s="192"/>
-      <c r="M43" s="192"/>
-      <c r="N43" s="192"/>
-      <c r="O43" s="192"/>
-      <c r="P43" s="192"/>
-      <c r="Q43" s="192"/>
-      <c r="R43" s="192"/>
-      <c r="S43" s="193"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="194">
-        <v>10.0</v>
-      </c>
-      <c r="B44" s="138" t="s">
-        <v>538</v>
-      </c>
-      <c r="C44" s="138" t="s">
-        <v>27</v>
-      </c>
-      <c r="D44" s="138" t="s">
-        <v>539</v>
-      </c>
-      <c r="E44" s="190" t="s">
-        <v>509</v>
-      </c>
-      <c r="F44" s="129" t="s">
-        <v>541</v>
-      </c>
-      <c r="G44" s="191" t="s">
-        <v>783</v>
-      </c>
-      <c r="H44" s="199">
-        <v>8.0</v>
-      </c>
-      <c r="I44" s="195"/>
-      <c r="J44" s="195"/>
-      <c r="K44" s="195"/>
-      <c r="L44" s="195"/>
-      <c r="M44" s="195"/>
-      <c r="N44" s="195"/>
-      <c r="O44" s="195"/>
-      <c r="P44" s="195"/>
-      <c r="Q44" s="195"/>
-      <c r="R44" s="195"/>
-      <c r="S44" s="196"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="189">
-        <v>41.0</v>
-      </c>
-      <c r="B45" s="161" t="s">
-        <v>616</v>
-      </c>
-      <c r="C45" s="161" t="s">
-        <v>27</v>
-      </c>
-      <c r="D45" s="161" t="s">
-        <v>617</v>
-      </c>
-      <c r="E45" s="190" t="s">
-        <v>756</v>
-      </c>
-      <c r="F45" s="163">
-        <v>7.7764004E10</v>
-      </c>
-      <c r="G45" s="191" t="s">
-        <v>784</v>
-      </c>
-      <c r="H45" s="192"/>
-      <c r="I45" s="192"/>
-      <c r="J45" s="192"/>
-      <c r="K45" s="192"/>
-      <c r="L45" s="192"/>
-      <c r="M45" s="192"/>
-      <c r="N45" s="192"/>
-      <c r="O45" s="192"/>
-      <c r="P45" s="192"/>
-      <c r="Q45" s="192"/>
-      <c r="R45" s="192"/>
-      <c r="S45" s="193"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="194">
-        <v>50.0</v>
-      </c>
-      <c r="B46" s="222" t="s">
-        <v>624</v>
-      </c>
-      <c r="C46" s="164" t="s">
-        <v>516</v>
-      </c>
-      <c r="D46" s="164" t="s">
-        <v>517</v>
-      </c>
-      <c r="E46" s="190" t="s">
-        <v>756</v>
-      </c>
-      <c r="F46" s="165" t="s">
-        <v>626</v>
-      </c>
-      <c r="G46" s="191" t="s">
+      <c r="G46" s="194" t="s">
         <v>785</v>
       </c>
-      <c r="H46" s="195"/>
-      <c r="I46" s="195"/>
-      <c r="J46" s="195"/>
-      <c r="K46" s="195"/>
-      <c r="L46" s="195"/>
-      <c r="M46" s="195"/>
-      <c r="N46" s="195"/>
-      <c r="O46" s="195"/>
-      <c r="P46" s="195"/>
-      <c r="Q46" s="195"/>
-      <c r="R46" s="195"/>
-      <c r="S46" s="196"/>
+      <c r="H46" s="189"/>
+      <c r="I46" s="189"/>
+      <c r="J46" s="189"/>
+      <c r="K46" s="189"/>
+      <c r="L46" s="189"/>
+      <c r="M46" s="189"/>
+      <c r="N46" s="189"/>
+      <c r="O46" s="189"/>
+      <c r="P46" s="189"/>
+      <c r="Q46" s="189"/>
+      <c r="R46" s="189"/>
+      <c r="S46" s="190"/>
     </row>
     <row r="47">
-      <c r="A47" s="189">
-        <v>73.0</v>
+      <c r="A47" s="191">
+        <v>46.0</v>
       </c>
       <c r="B47" s="133" t="s">
-        <v>709</v>
+        <v>643</v>
       </c>
       <c r="C47" s="133" t="s">
         <v>27</v>
       </c>
       <c r="D47" s="133" t="s">
-        <v>710</v>
-      </c>
-      <c r="E47" s="190" t="s">
-        <v>415</v>
-      </c>
-      <c r="F47" s="135" t="s">
-        <v>712</v>
-      </c>
-      <c r="G47" s="200" t="s">
+        <v>592</v>
+      </c>
+      <c r="E47" s="209" t="s">
+        <v>771</v>
+      </c>
+      <c r="F47" s="135">
+        <v>7.7775223885E10</v>
+      </c>
+      <c r="G47" s="194" t="s">
         <v>786</v>
       </c>
-      <c r="H47" s="201"/>
-      <c r="I47" s="201"/>
-      <c r="J47" s="201"/>
-      <c r="K47" s="201"/>
-      <c r="L47" s="201"/>
-      <c r="M47" s="201"/>
-      <c r="N47" s="201"/>
-      <c r="O47" s="201"/>
-      <c r="P47" s="201"/>
-      <c r="Q47" s="201"/>
-      <c r="R47" s="201"/>
-      <c r="S47" s="202"/>
+      <c r="H47" s="196"/>
+      <c r="I47" s="196"/>
+      <c r="J47" s="196"/>
+      <c r="K47" s="196"/>
+      <c r="L47" s="196"/>
+      <c r="M47" s="196"/>
+      <c r="N47" s="196"/>
+      <c r="O47" s="196"/>
+      <c r="P47" s="196"/>
+      <c r="Q47" s="196"/>
+      <c r="R47" s="196"/>
+      <c r="S47" s="197"/>
     </row>
     <row r="48">
-      <c r="A48" s="194">
-        <v>59.0</v>
+      <c r="A48" s="198">
+        <v>47.0</v>
       </c>
       <c r="B48" s="138" t="s">
-        <v>681</v>
+        <v>619</v>
       </c>
       <c r="C48" s="138" t="s">
         <v>27</v>
       </c>
       <c r="D48" s="138" t="s">
-        <v>508</v>
-      </c>
-      <c r="E48" s="190" t="s">
+        <v>513</v>
+      </c>
+      <c r="E48" s="209" t="s">
+        <v>771</v>
+      </c>
+      <c r="F48" s="129">
+        <v>7.7711886438E10</v>
+      </c>
+      <c r="G48" s="194" t="s">
         <v>787</v>
       </c>
-      <c r="F48" s="129" t="s">
-        <v>683</v>
-      </c>
-      <c r="G48" s="191" t="s">
+      <c r="H48" s="189"/>
+      <c r="I48" s="189"/>
+      <c r="J48" s="189"/>
+      <c r="K48" s="189"/>
+      <c r="L48" s="189"/>
+      <c r="M48" s="189"/>
+      <c r="N48" s="189"/>
+      <c r="O48" s="189"/>
+      <c r="P48" s="189"/>
+      <c r="Q48" s="189"/>
+      <c r="R48" s="189"/>
+      <c r="S48" s="190"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="191">
+        <v>48.0</v>
+      </c>
+      <c r="B49" s="211" t="s">
+        <v>627</v>
+      </c>
+      <c r="C49" s="133" t="s">
+        <v>516</v>
+      </c>
+      <c r="D49" s="133" t="s">
+        <v>517</v>
+      </c>
+      <c r="E49" s="209" t="s">
+        <v>771</v>
+      </c>
+      <c r="F49" s="135">
+        <v>7.7753480121E10</v>
+      </c>
+      <c r="G49" s="194" t="s">
         <v>788</v>
       </c>
-      <c r="H48" s="195"/>
-      <c r="I48" s="195"/>
-      <c r="J48" s="195"/>
-      <c r="K48" s="195"/>
-      <c r="L48" s="195"/>
-      <c r="M48" s="195"/>
-      <c r="N48" s="195"/>
-      <c r="O48" s="195"/>
-      <c r="P48" s="195"/>
-      <c r="Q48" s="195"/>
-      <c r="R48" s="195"/>
-      <c r="S48" s="196"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="189">
-        <v>75.0</v>
-      </c>
-      <c r="B49" s="133" t="s">
-        <v>713</v>
-      </c>
-      <c r="C49" s="133" t="s">
-        <v>714</v>
-      </c>
-      <c r="D49" s="133" t="s">
-        <v>661</v>
-      </c>
-      <c r="E49" s="190" t="s">
-        <v>415</v>
-      </c>
-      <c r="F49" s="135" t="s">
-        <v>716</v>
-      </c>
-      <c r="G49" s="191" t="s">
-        <v>789</v>
-      </c>
-      <c r="H49" s="192"/>
-      <c r="I49" s="192"/>
-      <c r="J49" s="192"/>
-      <c r="K49" s="192"/>
-      <c r="L49" s="192"/>
-      <c r="M49" s="192"/>
-      <c r="N49" s="192"/>
-      <c r="O49" s="192"/>
-      <c r="P49" s="192"/>
-      <c r="Q49" s="192"/>
-      <c r="R49" s="192"/>
-      <c r="S49" s="193"/>
+      <c r="H49" s="196"/>
+      <c r="I49" s="196"/>
+      <c r="J49" s="196"/>
+      <c r="K49" s="196"/>
+      <c r="L49" s="196"/>
+      <c r="M49" s="196"/>
+      <c r="N49" s="196"/>
+      <c r="O49" s="196"/>
+      <c r="P49" s="196"/>
+      <c r="Q49" s="196"/>
+      <c r="R49" s="196"/>
+      <c r="S49" s="197"/>
     </row>
     <row r="50">
-      <c r="A50" s="194">
-        <v>34.0</v>
+      <c r="A50" s="198">
+        <v>49.0</v>
       </c>
       <c r="B50" s="138" t="s">
-        <v>639</v>
+        <v>614</v>
       </c>
       <c r="C50" s="138" t="s">
         <v>27</v>
       </c>
       <c r="D50" s="138" t="s">
-        <v>592</v>
-      </c>
-      <c r="E50" s="190" t="s">
-        <v>756</v>
+        <v>546</v>
+      </c>
+      <c r="E50" s="209" t="s">
+        <v>771</v>
       </c>
       <c r="F50" s="129">
-        <v>7.7054441706E10</v>
-      </c>
-      <c r="G50" s="191" t="s">
-        <v>790</v>
-      </c>
-      <c r="H50" s="195"/>
-      <c r="I50" s="195"/>
-      <c r="J50" s="195"/>
-      <c r="K50" s="195"/>
-      <c r="L50" s="195"/>
-      <c r="M50" s="195"/>
-      <c r="N50" s="195"/>
-      <c r="O50" s="195"/>
-      <c r="P50" s="195"/>
-      <c r="Q50" s="195"/>
-      <c r="R50" s="195"/>
-      <c r="S50" s="196"/>
+        <v>7.747930565E10</v>
+      </c>
+      <c r="G50" s="194" t="s">
+        <v>789</v>
+      </c>
+      <c r="H50" s="189"/>
+      <c r="I50" s="189"/>
+      <c r="J50" s="189"/>
+      <c r="K50" s="189"/>
+      <c r="L50" s="189"/>
+      <c r="M50" s="189"/>
+      <c r="N50" s="189"/>
+      <c r="O50" s="189"/>
+      <c r="P50" s="189"/>
+      <c r="Q50" s="189"/>
+      <c r="R50" s="189"/>
+      <c r="S50" s="190"/>
     </row>
     <row r="51">
-      <c r="A51" s="189">
-        <v>21.0</v>
-      </c>
-      <c r="B51" s="197" t="s">
-        <v>338</v>
+      <c r="A51" s="191">
+        <v>50.0</v>
+      </c>
+      <c r="B51" s="211" t="s">
+        <v>624</v>
       </c>
       <c r="C51" s="133" t="s">
         <v>516</v>
       </c>
       <c r="D51" s="133" t="s">
-        <v>520</v>
-      </c>
-      <c r="E51" s="190" t="s">
-        <v>570</v>
+        <v>517</v>
+      </c>
+      <c r="E51" s="209" t="s">
+        <v>771</v>
       </c>
       <c r="F51" s="135" t="s">
-        <v>576</v>
-      </c>
-      <c r="G51" s="200" t="s">
+        <v>626</v>
+      </c>
+      <c r="G51" s="194" t="s">
+        <v>790</v>
+      </c>
+      <c r="H51" s="196"/>
+      <c r="I51" s="196"/>
+      <c r="J51" s="196"/>
+      <c r="K51" s="196"/>
+      <c r="L51" s="196"/>
+      <c r="M51" s="196"/>
+      <c r="N51" s="196"/>
+      <c r="O51" s="196"/>
+      <c r="P51" s="196"/>
+      <c r="Q51" s="196"/>
+      <c r="R51" s="196"/>
+      <c r="S51" s="197"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="198">
+        <v>51.0</v>
+      </c>
+      <c r="B52" s="138" t="s">
+        <v>645</v>
+      </c>
+      <c r="C52" s="138" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="138" t="s">
+        <v>646</v>
+      </c>
+      <c r="E52" s="209" t="s">
+        <v>771</v>
+      </c>
+      <c r="F52" s="129">
+        <v>7.7756396005E10</v>
+      </c>
+      <c r="G52" s="194" t="s">
         <v>791</v>
       </c>
-      <c r="H51" s="201"/>
-      <c r="I51" s="201"/>
-      <c r="J51" s="201"/>
-      <c r="K51" s="201"/>
-      <c r="L51" s="201"/>
-      <c r="M51" s="201"/>
-      <c r="N51" s="201"/>
-      <c r="O51" s="201"/>
-      <c r="P51" s="201"/>
-      <c r="Q51" s="201"/>
-      <c r="R51" s="201"/>
-      <c r="S51" s="202"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="194">
-        <v>20.0</v>
-      </c>
-      <c r="B52" s="138" t="s">
-        <v>583</v>
-      </c>
-      <c r="C52" s="138" t="s">
-        <v>27</v>
-      </c>
-      <c r="D52" s="138" t="s">
-        <v>584</v>
-      </c>
-      <c r="E52" s="190" t="s">
-        <v>570</v>
-      </c>
-      <c r="F52" s="129" t="s">
-        <v>586</v>
-      </c>
-      <c r="G52" s="200" t="s">
-        <v>792</v>
-      </c>
-      <c r="H52" s="187"/>
-      <c r="I52" s="187"/>
-      <c r="J52" s="187"/>
-      <c r="K52" s="187"/>
-      <c r="L52" s="187"/>
-      <c r="M52" s="187"/>
-      <c r="N52" s="187"/>
-      <c r="O52" s="187"/>
-      <c r="P52" s="187"/>
-      <c r="Q52" s="187"/>
-      <c r="R52" s="187"/>
-      <c r="S52" s="188"/>
+      <c r="H52" s="189"/>
+      <c r="I52" s="189"/>
+      <c r="J52" s="189"/>
+      <c r="K52" s="189"/>
+      <c r="L52" s="189"/>
+      <c r="M52" s="189"/>
+      <c r="N52" s="189"/>
+      <c r="O52" s="189"/>
+      <c r="P52" s="189"/>
+      <c r="Q52" s="189"/>
+      <c r="R52" s="189"/>
+      <c r="S52" s="190"/>
     </row>
     <row r="53">
-      <c r="A53" s="189">
-        <v>24.0</v>
-      </c>
-      <c r="B53" s="197" t="s">
-        <v>295</v>
+      <c r="A53" s="191">
+        <v>52.0</v>
+      </c>
+      <c r="B53" s="211" t="s">
+        <v>678</v>
       </c>
       <c r="C53" s="133" t="s">
         <v>516</v>
       </c>
-      <c r="D53" s="133" t="s">
-        <v>520</v>
-      </c>
-      <c r="E53" s="190" t="s">
-        <v>570</v>
+      <c r="D53" s="149"/>
+      <c r="E53" s="209" t="s">
+        <v>792</v>
       </c>
       <c r="F53" s="135" t="s">
-        <v>574</v>
-      </c>
-      <c r="G53" s="200" t="s">
+        <v>680</v>
+      </c>
+      <c r="G53" s="214" t="s">
+        <v>793</v>
+      </c>
+      <c r="H53" s="215"/>
+      <c r="I53" s="215"/>
+      <c r="J53" s="215"/>
+      <c r="K53" s="215"/>
+      <c r="L53" s="215"/>
+      <c r="M53" s="215"/>
+      <c r="N53" s="215"/>
+      <c r="O53" s="215"/>
+      <c r="P53" s="215"/>
+      <c r="Q53" s="215"/>
+      <c r="R53" s="215"/>
+      <c r="S53" s="216"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="198">
+        <v>53.0</v>
+      </c>
+      <c r="B54" s="138" t="s">
+        <v>672</v>
+      </c>
+      <c r="C54" s="138" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="138" t="s">
+        <v>669</v>
+      </c>
+      <c r="E54" s="209" t="s">
         <v>792</v>
       </c>
-      <c r="H53" s="201"/>
-      <c r="I53" s="201"/>
-      <c r="J53" s="201"/>
-      <c r="K53" s="201"/>
-      <c r="L53" s="201"/>
-      <c r="M53" s="201"/>
-      <c r="N53" s="201"/>
-      <c r="O53" s="201"/>
-      <c r="P53" s="201"/>
-      <c r="Q53" s="201"/>
-      <c r="R53" s="201"/>
-      <c r="S53" s="202"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="194">
-        <v>1.0</v>
-      </c>
-      <c r="B54" s="209" t="s">
-        <v>542</v>
-      </c>
-      <c r="C54" s="138" t="s">
-        <v>516</v>
-      </c>
-      <c r="D54" s="159"/>
-      <c r="E54" s="190" t="s">
-        <v>509</v>
-      </c>
       <c r="F54" s="129" t="s">
-        <v>544</v>
-      </c>
-      <c r="G54" s="191" t="s">
-        <v>793</v>
-      </c>
-      <c r="H54" s="198">
-        <v>9.0</v>
-      </c>
-      <c r="I54" s="195"/>
-      <c r="J54" s="195"/>
-      <c r="K54" s="195"/>
-      <c r="L54" s="195"/>
-      <c r="M54" s="195"/>
-      <c r="N54" s="195"/>
-      <c r="O54" s="195"/>
-      <c r="P54" s="195"/>
-      <c r="Q54" s="195"/>
-      <c r="R54" s="195"/>
-      <c r="S54" s="196"/>
+        <v>674</v>
+      </c>
+      <c r="G54" s="214" t="s">
+        <v>794</v>
+      </c>
+      <c r="H54" s="218"/>
+      <c r="I54" s="218"/>
+      <c r="J54" s="218"/>
+      <c r="K54" s="218"/>
+      <c r="L54" s="218"/>
+      <c r="M54" s="218"/>
+      <c r="N54" s="218"/>
+      <c r="O54" s="218"/>
+      <c r="P54" s="218"/>
+      <c r="Q54" s="218"/>
+      <c r="R54" s="218"/>
+      <c r="S54" s="219"/>
     </row>
     <row r="55">
-      <c r="A55" s="189">
+      <c r="A55" s="191">
         <v>54.0</v>
       </c>
-      <c r="B55" s="197" t="s">
+      <c r="B55" s="211" t="s">
         <v>423</v>
       </c>
       <c r="C55" s="133" t="s">
         <v>516</v>
       </c>
       <c r="D55" s="149"/>
-      <c r="E55" s="190" t="s">
-        <v>747</v>
+      <c r="E55" s="209" t="s">
+        <v>792</v>
       </c>
       <c r="F55" s="135">
         <v>7.7477185969E10</v>
       </c>
-      <c r="G55" s="200" t="s">
-        <v>794</v>
-      </c>
-      <c r="H55" s="201"/>
-      <c r="I55" s="201"/>
-      <c r="J55" s="201"/>
-      <c r="K55" s="201"/>
-      <c r="L55" s="201"/>
-      <c r="M55" s="201"/>
-      <c r="N55" s="201"/>
-      <c r="O55" s="201"/>
-      <c r="P55" s="201"/>
-      <c r="Q55" s="201"/>
-      <c r="R55" s="201"/>
-      <c r="S55" s="202"/>
+      <c r="G55" s="214" t="s">
+        <v>795</v>
+      </c>
+      <c r="H55" s="215"/>
+      <c r="I55" s="215"/>
+      <c r="J55" s="215"/>
+      <c r="K55" s="215"/>
+      <c r="L55" s="215"/>
+      <c r="M55" s="215"/>
+      <c r="N55" s="215"/>
+      <c r="O55" s="215"/>
+      <c r="P55" s="215"/>
+      <c r="Q55" s="215"/>
+      <c r="R55" s="215"/>
+      <c r="S55" s="216"/>
     </row>
     <row r="56">
-      <c r="A56" s="194">
-        <v>25.0</v>
+      <c r="A56" s="198">
+        <v>55.0</v>
       </c>
       <c r="B56" s="138" t="s">
-        <v>595</v>
+        <v>664</v>
       </c>
       <c r="C56" s="138" t="s">
         <v>27</v>
       </c>
       <c r="D56" s="138" t="s">
-        <v>592</v>
-      </c>
-      <c r="E56" s="190" t="s">
-        <v>411</v>
+        <v>665</v>
+      </c>
+      <c r="E56" s="209" t="s">
+        <v>792</v>
       </c>
       <c r="F56" s="156" t="s">
-        <v>597</v>
-      </c>
-      <c r="G56" s="191" t="s">
-        <v>795</v>
-      </c>
-      <c r="H56" s="195"/>
-      <c r="I56" s="195"/>
-      <c r="J56" s="195"/>
-      <c r="K56" s="195"/>
-      <c r="L56" s="195"/>
-      <c r="M56" s="195"/>
-      <c r="N56" s="195"/>
-      <c r="O56" s="195"/>
-      <c r="P56" s="195"/>
-      <c r="Q56" s="195"/>
-      <c r="R56" s="195"/>
-      <c r="S56" s="196"/>
+        <v>667</v>
+      </c>
+      <c r="G56" s="214" t="s">
+        <v>796</v>
+      </c>
+      <c r="H56" s="218"/>
+      <c r="I56" s="218"/>
+      <c r="J56" s="218"/>
+      <c r="K56" s="218"/>
+      <c r="L56" s="218"/>
+      <c r="M56" s="218"/>
+      <c r="N56" s="218"/>
+      <c r="O56" s="218"/>
+      <c r="P56" s="218"/>
+      <c r="Q56" s="218"/>
+      <c r="R56" s="218"/>
+      <c r="S56" s="219"/>
     </row>
     <row r="57">
-      <c r="A57" s="189">
-        <v>28.0</v>
+      <c r="A57" s="191">
+        <v>56.0</v>
       </c>
       <c r="B57" s="133" t="s">
-        <v>588</v>
+        <v>660</v>
       </c>
       <c r="C57" s="133" t="s">
         <v>27</v>
       </c>
       <c r="D57" s="133" t="s">
-        <v>513</v>
-      </c>
-      <c r="E57" s="190" t="s">
-        <v>411</v>
+        <v>661</v>
+      </c>
+      <c r="E57" s="209" t="s">
+        <v>792</v>
       </c>
       <c r="F57" s="151" t="s">
-        <v>590</v>
-      </c>
-      <c r="G57" s="191" t="s">
-        <v>796</v>
-      </c>
-      <c r="H57" s="192"/>
-      <c r="I57" s="192"/>
-      <c r="J57" s="192"/>
-      <c r="K57" s="192"/>
-      <c r="L57" s="192"/>
-      <c r="M57" s="192"/>
-      <c r="N57" s="192"/>
-      <c r="O57" s="192"/>
-      <c r="P57" s="192"/>
-      <c r="Q57" s="192"/>
-      <c r="R57" s="192"/>
-      <c r="S57" s="193"/>
+        <v>663</v>
+      </c>
+      <c r="G57" s="214" t="s">
+        <v>797</v>
+      </c>
+      <c r="H57" s="215"/>
+      <c r="I57" s="215"/>
+      <c r="J57" s="215"/>
+      <c r="K57" s="215"/>
+      <c r="L57" s="215"/>
+      <c r="M57" s="215"/>
+      <c r="N57" s="215"/>
+      <c r="O57" s="215"/>
+      <c r="P57" s="215"/>
+      <c r="Q57" s="215"/>
+      <c r="R57" s="215"/>
+      <c r="S57" s="216"/>
     </row>
     <row r="58">
-      <c r="A58" s="194">
-        <v>48.0</v>
-      </c>
-      <c r="B58" s="209" t="s">
-        <v>627</v>
+      <c r="A58" s="198">
+        <v>57.0</v>
+      </c>
+      <c r="B58" s="138" t="s">
+        <v>798</v>
       </c>
       <c r="C58" s="138" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="138" t="s">
+        <v>669</v>
+      </c>
+      <c r="E58" s="209" t="s">
+        <v>792</v>
+      </c>
+      <c r="F58" s="129" t="s">
+        <v>671</v>
+      </c>
+      <c r="G58" s="214" t="s">
+        <v>799</v>
+      </c>
+      <c r="H58" s="218"/>
+      <c r="I58" s="218"/>
+      <c r="J58" s="218"/>
+      <c r="K58" s="218"/>
+      <c r="L58" s="218"/>
+      <c r="M58" s="218"/>
+      <c r="N58" s="218"/>
+      <c r="O58" s="218"/>
+      <c r="P58" s="218"/>
+      <c r="Q58" s="218"/>
+      <c r="R58" s="218"/>
+      <c r="S58" s="219"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="191">
+        <v>58.0</v>
+      </c>
+      <c r="B59" s="133" t="s">
+        <v>675</v>
+      </c>
+      <c r="C59" s="133" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59" s="133" t="s">
+        <v>539</v>
+      </c>
+      <c r="E59" s="209" t="s">
+        <v>792</v>
+      </c>
+      <c r="F59" s="135">
+        <v>7.7775223892E10</v>
+      </c>
+      <c r="G59" s="214" t="s">
+        <v>800</v>
+      </c>
+      <c r="H59" s="215"/>
+      <c r="I59" s="215"/>
+      <c r="J59" s="215"/>
+      <c r="K59" s="215"/>
+      <c r="L59" s="215"/>
+      <c r="M59" s="215"/>
+      <c r="N59" s="215"/>
+      <c r="O59" s="215"/>
+      <c r="P59" s="215"/>
+      <c r="Q59" s="215"/>
+      <c r="R59" s="215"/>
+      <c r="S59" s="216"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="198">
+        <v>59.0</v>
+      </c>
+      <c r="B60" s="138" t="s">
+        <v>681</v>
+      </c>
+      <c r="C60" s="138" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60" s="138" t="s">
+        <v>508</v>
+      </c>
+      <c r="E60" s="209" t="s">
+        <v>801</v>
+      </c>
+      <c r="F60" s="129" t="s">
+        <v>683</v>
+      </c>
+      <c r="G60" s="194" t="s">
+        <v>802</v>
+      </c>
+      <c r="H60" s="189"/>
+      <c r="I60" s="189"/>
+      <c r="J60" s="189"/>
+      <c r="K60" s="189"/>
+      <c r="L60" s="189"/>
+      <c r="M60" s="189"/>
+      <c r="N60" s="189"/>
+      <c r="O60" s="189"/>
+      <c r="P60" s="189"/>
+      <c r="Q60" s="189"/>
+      <c r="R60" s="189"/>
+      <c r="S60" s="190"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="191">
+        <v>60.0</v>
+      </c>
+      <c r="B61" s="211" t="s">
+        <v>393</v>
+      </c>
+      <c r="C61" s="133" t="s">
         <v>516</v>
       </c>
-      <c r="D58" s="138" t="s">
+      <c r="D61" s="133" t="s">
         <v>517</v>
       </c>
-      <c r="E58" s="190" t="s">
-        <v>756</v>
-      </c>
-      <c r="F58" s="129">
-        <v>7.7753480121E10</v>
-      </c>
-      <c r="G58" s="191" t="s">
-        <v>797</v>
-      </c>
-      <c r="H58" s="195"/>
-      <c r="I58" s="195"/>
-      <c r="J58" s="195"/>
-      <c r="K58" s="195"/>
-      <c r="L58" s="195"/>
-      <c r="M58" s="195"/>
-      <c r="N58" s="195"/>
-      <c r="O58" s="195"/>
-      <c r="P58" s="195"/>
-      <c r="Q58" s="195"/>
-      <c r="R58" s="195"/>
-      <c r="S58" s="196"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="189">
-        <v>44.0</v>
-      </c>
-      <c r="B59" s="197" t="s">
-        <v>483</v>
-      </c>
-      <c r="C59" s="133" t="s">
-        <v>516</v>
-      </c>
-      <c r="D59" s="133" t="s">
-        <v>520</v>
-      </c>
-      <c r="E59" s="190" t="s">
-        <v>756</v>
-      </c>
-      <c r="F59" s="135">
-        <v>7.7719062173E10</v>
-      </c>
-      <c r="G59" s="191" t="s">
-        <v>798</v>
-      </c>
-      <c r="H59" s="192"/>
-      <c r="I59" s="192"/>
-      <c r="J59" s="192"/>
-      <c r="K59" s="192"/>
-      <c r="L59" s="192"/>
-      <c r="M59" s="192"/>
-      <c r="N59" s="192"/>
-      <c r="O59" s="192"/>
-      <c r="P59" s="192"/>
-      <c r="Q59" s="192"/>
-      <c r="R59" s="192"/>
-      <c r="S59" s="193"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="194">
+      <c r="E61" s="209" t="s">
+        <v>427</v>
+      </c>
+      <c r="F61" s="135">
+        <v>7.7078750345E10</v>
+      </c>
+      <c r="G61" s="194" t="s">
+        <v>803</v>
+      </c>
+      <c r="H61" s="196"/>
+      <c r="I61" s="196"/>
+      <c r="J61" s="196"/>
+      <c r="K61" s="196"/>
+      <c r="L61" s="196"/>
+      <c r="M61" s="196"/>
+      <c r="N61" s="196"/>
+      <c r="O61" s="196"/>
+      <c r="P61" s="196"/>
+      <c r="Q61" s="196"/>
+      <c r="R61" s="196"/>
+      <c r="S61" s="197"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="198">
         <v>61.0</v>
       </c>
-      <c r="B60" s="223" t="s">
+      <c r="B62" s="225" t="s">
         <v>346</v>
-      </c>
-      <c r="C60" s="138" t="s">
-        <v>516</v>
-      </c>
-      <c r="D60" s="138" t="s">
-        <v>520</v>
-      </c>
-      <c r="E60" s="190" t="s">
-        <v>427</v>
-      </c>
-      <c r="F60" s="129">
-        <v>7.7057418708E10</v>
-      </c>
-      <c r="G60" s="191" t="s">
-        <v>799</v>
-      </c>
-      <c r="H60" s="195"/>
-      <c r="I60" s="195"/>
-      <c r="J60" s="195"/>
-      <c r="K60" s="195"/>
-      <c r="L60" s="195"/>
-      <c r="M60" s="195"/>
-      <c r="N60" s="195"/>
-      <c r="O60" s="195"/>
-      <c r="P60" s="195"/>
-      <c r="Q60" s="195"/>
-      <c r="R60" s="195"/>
-      <c r="S60" s="196"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="189">
-        <v>56.0</v>
-      </c>
-      <c r="B61" s="133" t="s">
-        <v>660</v>
-      </c>
-      <c r="C61" s="133" t="s">
-        <v>27</v>
-      </c>
-      <c r="D61" s="133" t="s">
-        <v>661</v>
-      </c>
-      <c r="E61" s="190" t="s">
-        <v>747</v>
-      </c>
-      <c r="F61" s="135" t="s">
-        <v>663</v>
-      </c>
-      <c r="G61" s="200" t="s">
-        <v>800</v>
-      </c>
-      <c r="H61" s="201"/>
-      <c r="I61" s="201"/>
-      <c r="J61" s="201"/>
-      <c r="K61" s="201"/>
-      <c r="L61" s="201"/>
-      <c r="M61" s="201"/>
-      <c r="N61" s="201"/>
-      <c r="O61" s="201"/>
-      <c r="P61" s="201"/>
-      <c r="Q61" s="201"/>
-      <c r="R61" s="201"/>
-      <c r="S61" s="202"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="194">
-        <v>74.0</v>
-      </c>
-      <c r="B62" s="209" t="s">
-        <v>414</v>
       </c>
       <c r="C62" s="138" t="s">
         <v>516</v>
       </c>
-      <c r="D62" s="138">
-        <v>0.0</v>
-      </c>
-      <c r="E62" s="190" t="s">
-        <v>415</v>
+      <c r="D62" s="138" t="s">
+        <v>520</v>
+      </c>
+      <c r="E62" s="209" t="s">
+        <v>427</v>
       </c>
       <c r="F62" s="129">
-        <v>7.776100965E10</v>
-      </c>
-      <c r="G62" s="200" t="s">
-        <v>801</v>
-      </c>
-      <c r="H62" s="187"/>
-      <c r="I62" s="187"/>
-      <c r="J62" s="187"/>
-      <c r="K62" s="187"/>
-      <c r="L62" s="187"/>
-      <c r="M62" s="187"/>
-      <c r="N62" s="187"/>
-      <c r="O62" s="187"/>
-      <c r="P62" s="187"/>
-      <c r="Q62" s="187"/>
-      <c r="R62" s="187"/>
-      <c r="S62" s="188"/>
+        <v>7.7057418708E10</v>
+      </c>
+      <c r="G62" s="194" t="s">
+        <v>804</v>
+      </c>
+      <c r="H62" s="189"/>
+      <c r="I62" s="189"/>
+      <c r="J62" s="189"/>
+      <c r="K62" s="189"/>
+      <c r="L62" s="189"/>
+      <c r="M62" s="189"/>
+      <c r="N62" s="189"/>
+      <c r="O62" s="189"/>
+      <c r="P62" s="189"/>
+      <c r="Q62" s="189"/>
+      <c r="R62" s="189"/>
+      <c r="S62" s="190"/>
     </row>
     <row r="63">
-      <c r="A63" s="189">
-        <v>76.0</v>
-      </c>
-      <c r="B63" s="197" t="s">
-        <v>720</v>
+      <c r="A63" s="191">
+        <v>62.0</v>
+      </c>
+      <c r="B63" s="133" t="s">
+        <v>705</v>
       </c>
       <c r="C63" s="133" t="s">
-        <v>516</v>
+        <v>15</v>
       </c>
       <c r="D63" s="133" t="s">
-        <v>520</v>
-      </c>
-      <c r="E63" s="190" t="s">
-        <v>415</v>
-      </c>
-      <c r="F63" s="135" t="s">
-        <v>722</v>
-      </c>
-      <c r="G63" s="200" t="s">
-        <v>802</v>
-      </c>
-      <c r="H63" s="201"/>
-      <c r="I63" s="201"/>
-      <c r="J63" s="201"/>
-      <c r="K63" s="201"/>
-      <c r="L63" s="201"/>
-      <c r="M63" s="201"/>
-      <c r="N63" s="201"/>
-      <c r="O63" s="201"/>
-      <c r="P63" s="201"/>
-      <c r="Q63" s="201"/>
-      <c r="R63" s="201"/>
-      <c r="S63" s="202"/>
+        <v>706</v>
+      </c>
+      <c r="E63" s="209" t="s">
+        <v>427</v>
+      </c>
+      <c r="F63" s="135">
+        <v>7.7057455796E10</v>
+      </c>
+      <c r="G63" s="194" t="s">
+        <v>805</v>
+      </c>
+      <c r="H63" s="196"/>
+      <c r="I63" s="196"/>
+      <c r="J63" s="196"/>
+      <c r="K63" s="196"/>
+      <c r="L63" s="196"/>
+      <c r="M63" s="196"/>
+      <c r="N63" s="196"/>
+      <c r="O63" s="196"/>
+      <c r="P63" s="196"/>
+      <c r="Q63" s="196"/>
+      <c r="R63" s="196"/>
+      <c r="S63" s="197"/>
     </row>
     <row r="64">
-      <c r="A64" s="194">
+      <c r="A64" s="198">
         <v>63.0</v>
       </c>
-      <c r="B64" s="209" t="s">
+      <c r="B64" s="208" t="s">
         <v>380</v>
       </c>
       <c r="C64" s="138" t="s">
@@ -44251,514 +44275,512 @@
       <c r="D64" s="138" t="s">
         <v>517</v>
       </c>
-      <c r="E64" s="190" t="s">
+      <c r="E64" s="209" t="s">
         <v>427</v>
       </c>
       <c r="F64" s="129">
         <v>7.7772285335E10</v>
       </c>
-      <c r="G64" s="191" t="s">
-        <v>803</v>
-      </c>
-      <c r="H64" s="195"/>
-      <c r="I64" s="195"/>
-      <c r="J64" s="195"/>
-      <c r="K64" s="195"/>
-      <c r="L64" s="195"/>
-      <c r="M64" s="195"/>
-      <c r="N64" s="195"/>
-      <c r="O64" s="195"/>
-      <c r="P64" s="195"/>
-      <c r="Q64" s="195"/>
-      <c r="R64" s="195"/>
-      <c r="S64" s="196"/>
+      <c r="G64" s="194" t="s">
+        <v>806</v>
+      </c>
+      <c r="H64" s="189"/>
+      <c r="I64" s="189"/>
+      <c r="J64" s="189"/>
+      <c r="K64" s="189"/>
+      <c r="L64" s="189"/>
+      <c r="M64" s="189"/>
+      <c r="N64" s="189"/>
+      <c r="O64" s="189"/>
+      <c r="P64" s="189"/>
+      <c r="Q64" s="189"/>
+      <c r="R64" s="189"/>
+      <c r="S64" s="190"/>
     </row>
     <row r="65">
-      <c r="A65" s="189">
-        <v>68.0</v>
-      </c>
-      <c r="B65" s="197" t="s">
-        <v>299</v>
+      <c r="A65" s="191">
+        <v>64.0</v>
+      </c>
+      <c r="B65" s="211" t="s">
+        <v>376</v>
       </c>
       <c r="C65" s="133" t="s">
         <v>516</v>
       </c>
       <c r="D65" s="133" t="s">
+        <v>517</v>
+      </c>
+      <c r="E65" s="209" t="s">
+        <v>427</v>
+      </c>
+      <c r="F65" s="135">
+        <v>7.7761023037E10</v>
+      </c>
+      <c r="G65" s="194" t="s">
+        <v>807</v>
+      </c>
+      <c r="H65" s="196"/>
+      <c r="I65" s="196"/>
+      <c r="J65" s="196"/>
+      <c r="K65" s="196"/>
+      <c r="L65" s="196"/>
+      <c r="M65" s="196"/>
+      <c r="N65" s="196"/>
+      <c r="O65" s="196"/>
+      <c r="P65" s="196"/>
+      <c r="Q65" s="196"/>
+      <c r="R65" s="196"/>
+      <c r="S65" s="197"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="198">
+        <v>65.0</v>
+      </c>
+      <c r="B66" s="138" t="s">
+        <v>698</v>
+      </c>
+      <c r="C66" s="138" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" s="138" t="s">
+        <v>699</v>
+      </c>
+      <c r="E66" s="209" t="s">
+        <v>427</v>
+      </c>
+      <c r="F66" s="129">
+        <v>7.7057454959E10</v>
+      </c>
+      <c r="G66" s="194" t="s">
+        <v>803</v>
+      </c>
+      <c r="H66" s="189"/>
+      <c r="I66" s="189"/>
+      <c r="J66" s="189"/>
+      <c r="K66" s="189"/>
+      <c r="L66" s="189"/>
+      <c r="M66" s="189"/>
+      <c r="N66" s="189"/>
+      <c r="O66" s="189"/>
+      <c r="P66" s="189"/>
+      <c r="Q66" s="189"/>
+      <c r="R66" s="189"/>
+      <c r="S66" s="190"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="191">
+        <v>66.0</v>
+      </c>
+      <c r="B67" s="211" t="s">
+        <v>342</v>
+      </c>
+      <c r="C67" s="133" t="s">
+        <v>516</v>
+      </c>
+      <c r="D67" s="133" t="s">
         <v>520</v>
       </c>
-      <c r="E65" s="190" t="s">
+      <c r="E67" s="209" t="s">
         <v>427</v>
       </c>
-      <c r="F65" s="135">
+      <c r="F67" s="135">
+        <v>7.7026615811E10</v>
+      </c>
+      <c r="G67" s="194" t="s">
+        <v>808</v>
+      </c>
+      <c r="H67" s="196"/>
+      <c r="I67" s="196"/>
+      <c r="J67" s="196"/>
+      <c r="K67" s="196"/>
+      <c r="L67" s="196"/>
+      <c r="M67" s="196"/>
+      <c r="N67" s="196"/>
+      <c r="O67" s="196"/>
+      <c r="P67" s="196"/>
+      <c r="Q67" s="196"/>
+      <c r="R67" s="196"/>
+      <c r="S67" s="197"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="198">
+        <v>67.0</v>
+      </c>
+      <c r="B68" s="138" t="s">
+        <v>688</v>
+      </c>
+      <c r="C68" s="138" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68" s="138" t="s">
+        <v>508</v>
+      </c>
+      <c r="E68" s="209" t="s">
+        <v>809</v>
+      </c>
+      <c r="F68" s="129" t="s">
+        <v>690</v>
+      </c>
+      <c r="G68" s="194" t="s">
+        <v>810</v>
+      </c>
+      <c r="H68" s="189"/>
+      <c r="I68" s="189"/>
+      <c r="J68" s="189"/>
+      <c r="K68" s="189"/>
+      <c r="L68" s="189"/>
+      <c r="M68" s="189"/>
+      <c r="N68" s="189"/>
+      <c r="O68" s="189"/>
+      <c r="P68" s="189"/>
+      <c r="Q68" s="189"/>
+      <c r="R68" s="189"/>
+      <c r="S68" s="190"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="191">
+        <v>68.0</v>
+      </c>
+      <c r="B69" s="211" t="s">
+        <v>299</v>
+      </c>
+      <c r="C69" s="133" t="s">
+        <v>516</v>
+      </c>
+      <c r="D69" s="133" t="s">
+        <v>520</v>
+      </c>
+      <c r="E69" s="209" t="s">
+        <v>427</v>
+      </c>
+      <c r="F69" s="135">
         <v>7.7761000911E10</v>
       </c>
-      <c r="G65" s="191" t="s">
+      <c r="G69" s="194" t="s">
+        <v>806</v>
+      </c>
+      <c r="H69" s="196"/>
+      <c r="I69" s="196"/>
+      <c r="J69" s="196"/>
+      <c r="K69" s="196"/>
+      <c r="L69" s="196"/>
+      <c r="M69" s="196"/>
+      <c r="N69" s="196"/>
+      <c r="O69" s="196"/>
+      <c r="P69" s="196"/>
+      <c r="Q69" s="196"/>
+      <c r="R69" s="196"/>
+      <c r="S69" s="197"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="198">
+        <v>69.0</v>
+      </c>
+      <c r="B70" s="208" t="s">
+        <v>401</v>
+      </c>
+      <c r="C70" s="138" t="s">
+        <v>516</v>
+      </c>
+      <c r="D70" s="138" t="s">
+        <v>517</v>
+      </c>
+      <c r="E70" s="209" t="s">
+        <v>427</v>
+      </c>
+      <c r="F70" s="129">
+        <v>7.702214418E10</v>
+      </c>
+      <c r="G70" s="194" t="s">
         <v>803</v>
       </c>
-      <c r="H65" s="192"/>
-      <c r="I65" s="192"/>
-      <c r="J65" s="192"/>
-      <c r="K65" s="192"/>
-      <c r="L65" s="192"/>
-      <c r="M65" s="192"/>
-      <c r="N65" s="192"/>
-      <c r="O65" s="192"/>
-      <c r="P65" s="192"/>
-      <c r="Q65" s="192"/>
-      <c r="R65" s="192"/>
-      <c r="S65" s="193"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="194">
-        <v>47.0</v>
-      </c>
-      <c r="B66" s="138" t="s">
-        <v>619</v>
-      </c>
-      <c r="C66" s="138" t="s">
+      <c r="H70" s="189"/>
+      <c r="I70" s="189"/>
+      <c r="J70" s="189"/>
+      <c r="K70" s="189"/>
+      <c r="L70" s="189"/>
+      <c r="M70" s="189"/>
+      <c r="N70" s="189"/>
+      <c r="O70" s="189"/>
+      <c r="P70" s="189"/>
+      <c r="Q70" s="189"/>
+      <c r="R70" s="189"/>
+      <c r="S70" s="190"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="191">
+        <v>70.0</v>
+      </c>
+      <c r="B71" s="133" t="s">
+        <v>701</v>
+      </c>
+      <c r="C71" s="133" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="133" t="s">
+        <v>699</v>
+      </c>
+      <c r="E71" s="209" t="s">
+        <v>427</v>
+      </c>
+      <c r="F71" s="135">
+        <v>7.7057455794E10</v>
+      </c>
+      <c r="G71" s="194" t="s">
+        <v>811</v>
+      </c>
+      <c r="H71" s="196"/>
+      <c r="I71" s="196"/>
+      <c r="J71" s="196"/>
+      <c r="K71" s="196"/>
+      <c r="L71" s="196"/>
+      <c r="M71" s="196"/>
+      <c r="N71" s="196"/>
+      <c r="O71" s="196"/>
+      <c r="P71" s="196"/>
+      <c r="Q71" s="196"/>
+      <c r="R71" s="196"/>
+      <c r="S71" s="197"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="198">
+        <v>71.0</v>
+      </c>
+      <c r="B72" s="138" t="s">
+        <v>723</v>
+      </c>
+      <c r="C72" s="138" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="138" t="s">
+        <v>724</v>
+      </c>
+      <c r="E72" s="209" t="s">
+        <v>415</v>
+      </c>
+      <c r="F72" s="226" t="s">
+        <v>726</v>
+      </c>
+      <c r="G72" s="214" t="s">
+        <v>812</v>
+      </c>
+      <c r="H72" s="218"/>
+      <c r="I72" s="218"/>
+      <c r="J72" s="218"/>
+      <c r="K72" s="218"/>
+      <c r="L72" s="218"/>
+      <c r="M72" s="218"/>
+      <c r="N72" s="218"/>
+      <c r="O72" s="218"/>
+      <c r="P72" s="218"/>
+      <c r="Q72" s="218"/>
+      <c r="R72" s="218"/>
+      <c r="S72" s="219"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="191">
+        <v>72.0</v>
+      </c>
+      <c r="B73" s="211" t="s">
+        <v>717</v>
+      </c>
+      <c r="C73" s="133" t="s">
+        <v>516</v>
+      </c>
+      <c r="D73" s="133" t="s">
+        <v>517</v>
+      </c>
+      <c r="E73" s="209" t="s">
+        <v>415</v>
+      </c>
+      <c r="F73" s="135" t="s">
+        <v>719</v>
+      </c>
+      <c r="G73" s="214" t="s">
+        <v>808</v>
+      </c>
+      <c r="H73" s="215"/>
+      <c r="I73" s="215"/>
+      <c r="J73" s="215"/>
+      <c r="K73" s="215"/>
+      <c r="L73" s="215"/>
+      <c r="M73" s="215"/>
+      <c r="N73" s="215"/>
+      <c r="O73" s="215"/>
+      <c r="P73" s="215"/>
+      <c r="Q73" s="215"/>
+      <c r="R73" s="215"/>
+      <c r="S73" s="216"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="198">
+        <v>73.0</v>
+      </c>
+      <c r="B74" s="138" t="s">
+        <v>709</v>
+      </c>
+      <c r="C74" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="138" t="s">
-        <v>513</v>
-      </c>
-      <c r="E66" s="190" t="s">
-        <v>756</v>
-      </c>
-      <c r="F66" s="129">
-        <v>7.7711886438E10</v>
-      </c>
-      <c r="G66" s="191" t="s">
-        <v>804</v>
-      </c>
-      <c r="H66" s="195"/>
-      <c r="I66" s="195"/>
-      <c r="J66" s="195"/>
-      <c r="K66" s="195"/>
-      <c r="L66" s="195"/>
-      <c r="M66" s="195"/>
-      <c r="N66" s="195"/>
-      <c r="O66" s="195"/>
-      <c r="P66" s="195"/>
-      <c r="Q66" s="195"/>
-      <c r="R66" s="195"/>
-      <c r="S66" s="196"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="189">
-        <v>53.0</v>
-      </c>
-      <c r="B67" s="133" t="s">
-        <v>672</v>
-      </c>
-      <c r="C67" s="133" t="s">
-        <v>27</v>
-      </c>
-      <c r="D67" s="133" t="s">
-        <v>669</v>
-      </c>
-      <c r="E67" s="190" t="s">
-        <v>747</v>
-      </c>
-      <c r="F67" s="135" t="s">
-        <v>674</v>
-      </c>
-      <c r="G67" s="200" t="s">
-        <v>805</v>
-      </c>
-      <c r="H67" s="201"/>
-      <c r="I67" s="201"/>
-      <c r="J67" s="201"/>
-      <c r="K67" s="201"/>
-      <c r="L67" s="201"/>
-      <c r="M67" s="201"/>
-      <c r="N67" s="201"/>
-      <c r="O67" s="201"/>
-      <c r="P67" s="201"/>
-      <c r="Q67" s="201"/>
-      <c r="R67" s="201"/>
-      <c r="S67" s="202"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="194">
-        <v>43.0</v>
-      </c>
-      <c r="B68" s="138" t="s">
-        <v>632</v>
-      </c>
-      <c r="C68" s="138" t="s">
-        <v>15</v>
-      </c>
-      <c r="D68" s="138" t="s">
-        <v>630</v>
-      </c>
-      <c r="E68" s="190" t="s">
-        <v>756</v>
-      </c>
-      <c r="F68" s="129">
-        <v>7.7710603592E10</v>
-      </c>
-      <c r="G68" s="191" t="s">
-        <v>806</v>
-      </c>
-      <c r="H68" s="195"/>
-      <c r="I68" s="195"/>
-      <c r="J68" s="195"/>
-      <c r="K68" s="195"/>
-      <c r="L68" s="195"/>
-      <c r="M68" s="195"/>
-      <c r="N68" s="195"/>
-      <c r="O68" s="195"/>
-      <c r="P68" s="195"/>
-      <c r="Q68" s="195"/>
-      <c r="R68" s="195"/>
-      <c r="S68" s="196"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="189">
-        <v>51.0</v>
-      </c>
-      <c r="B69" s="133" t="s">
-        <v>645</v>
-      </c>
-      <c r="C69" s="133" t="s">
-        <v>15</v>
-      </c>
-      <c r="D69" s="133" t="s">
-        <v>646</v>
-      </c>
-      <c r="E69" s="190" t="s">
-        <v>756</v>
-      </c>
-      <c r="F69" s="135">
-        <v>7.7756396005E10</v>
-      </c>
-      <c r="G69" s="191" t="s">
-        <v>807</v>
-      </c>
-      <c r="H69" s="192"/>
-      <c r="I69" s="192"/>
-      <c r="J69" s="192"/>
-      <c r="K69" s="192"/>
-      <c r="L69" s="192"/>
-      <c r="M69" s="192"/>
-      <c r="N69" s="192"/>
-      <c r="O69" s="192"/>
-      <c r="P69" s="192"/>
-      <c r="Q69" s="192"/>
-      <c r="R69" s="192"/>
-      <c r="S69" s="193"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="194">
-        <v>7.0</v>
-      </c>
-      <c r="B70" s="127" t="s">
-        <v>507</v>
-      </c>
-      <c r="C70" s="127" t="s">
-        <v>27</v>
-      </c>
-      <c r="D70" s="127" t="s">
-        <v>508</v>
-      </c>
-      <c r="E70" s="207" t="s">
-        <v>509</v>
-      </c>
-      <c r="F70" s="129" t="s">
-        <v>511</v>
-      </c>
-      <c r="G70" s="191" t="s">
-        <v>808</v>
-      </c>
-      <c r="H70" s="198">
-        <v>10.0</v>
-      </c>
-      <c r="I70" s="195"/>
-      <c r="J70" s="195"/>
-      <c r="K70" s="195"/>
-      <c r="L70" s="195"/>
-      <c r="M70" s="195"/>
-      <c r="N70" s="195"/>
-      <c r="O70" s="195"/>
-      <c r="P70" s="195"/>
-      <c r="Q70" s="195"/>
-      <c r="R70" s="195"/>
-      <c r="S70" s="196"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="189">
-        <v>66.0</v>
-      </c>
-      <c r="B71" s="197" t="s">
-        <v>342</v>
-      </c>
-      <c r="C71" s="133" t="s">
+      <c r="D74" s="138" t="s">
+        <v>710</v>
+      </c>
+      <c r="E74" s="209" t="s">
+        <v>415</v>
+      </c>
+      <c r="F74" s="129" t="s">
+        <v>712</v>
+      </c>
+      <c r="G74" s="214" t="s">
+        <v>813</v>
+      </c>
+      <c r="H74" s="218"/>
+      <c r="I74" s="218"/>
+      <c r="J74" s="218"/>
+      <c r="K74" s="218"/>
+      <c r="L74" s="218"/>
+      <c r="M74" s="218"/>
+      <c r="N74" s="218"/>
+      <c r="O74" s="218"/>
+      <c r="P74" s="218"/>
+      <c r="Q74" s="218"/>
+      <c r="R74" s="218"/>
+      <c r="S74" s="219"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="191">
+        <v>74.0</v>
+      </c>
+      <c r="B75" s="211" t="s">
+        <v>414</v>
+      </c>
+      <c r="C75" s="133" t="s">
         <v>516</v>
       </c>
-      <c r="D71" s="133" t="s">
+      <c r="D75" s="133">
+        <v>0.0</v>
+      </c>
+      <c r="E75" s="209" t="s">
+        <v>415</v>
+      </c>
+      <c r="F75" s="135">
+        <v>7.776100965E10</v>
+      </c>
+      <c r="G75" s="214" t="s">
+        <v>814</v>
+      </c>
+      <c r="H75" s="215"/>
+      <c r="I75" s="215"/>
+      <c r="J75" s="215"/>
+      <c r="K75" s="215"/>
+      <c r="L75" s="215"/>
+      <c r="M75" s="215"/>
+      <c r="N75" s="215"/>
+      <c r="O75" s="215"/>
+      <c r="P75" s="215"/>
+      <c r="Q75" s="215"/>
+      <c r="R75" s="215"/>
+      <c r="S75" s="216"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="198">
+        <v>75.0</v>
+      </c>
+      <c r="B76" s="138" t="s">
+        <v>713</v>
+      </c>
+      <c r="C76" s="138" t="s">
+        <v>714</v>
+      </c>
+      <c r="D76" s="138" t="s">
+        <v>661</v>
+      </c>
+      <c r="E76" s="209" t="s">
+        <v>415</v>
+      </c>
+      <c r="F76" s="156" t="s">
+        <v>716</v>
+      </c>
+      <c r="G76" s="194" t="s">
+        <v>815</v>
+      </c>
+      <c r="H76" s="189"/>
+      <c r="I76" s="189"/>
+      <c r="J76" s="189"/>
+      <c r="K76" s="189"/>
+      <c r="L76" s="189"/>
+      <c r="M76" s="189"/>
+      <c r="N76" s="189"/>
+      <c r="O76" s="189"/>
+      <c r="P76" s="189"/>
+      <c r="Q76" s="189"/>
+      <c r="R76" s="189"/>
+      <c r="S76" s="190"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="191">
+        <v>76.0</v>
+      </c>
+      <c r="B77" s="211" t="s">
+        <v>720</v>
+      </c>
+      <c r="C77" s="161" t="s">
+        <v>516</v>
+      </c>
+      <c r="D77" s="163" t="s">
         <v>520</v>
       </c>
-      <c r="E71" s="190" t="s">
-        <v>427</v>
-      </c>
-      <c r="F71" s="135">
-        <v>7.7026615811E10</v>
-      </c>
-      <c r="G71" s="191" t="s">
-        <v>809</v>
-      </c>
-      <c r="H71" s="192"/>
-      <c r="I71" s="192"/>
-      <c r="J71" s="192"/>
-      <c r="K71" s="192"/>
-      <c r="L71" s="192"/>
-      <c r="M71" s="192"/>
-      <c r="N71" s="192"/>
-      <c r="O71" s="192"/>
-      <c r="P71" s="192"/>
-      <c r="Q71" s="192"/>
-      <c r="R71" s="192"/>
-      <c r="S71" s="193"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="194">
-        <v>72.0</v>
-      </c>
-      <c r="B72" s="209" t="s">
-        <v>717</v>
-      </c>
-      <c r="C72" s="138" t="s">
-        <v>516</v>
-      </c>
-      <c r="D72" s="138" t="s">
-        <v>517</v>
-      </c>
-      <c r="E72" s="190" t="s">
+      <c r="E77" s="209" t="s">
         <v>415</v>
       </c>
-      <c r="F72" s="129" t="s">
-        <v>719</v>
-      </c>
-      <c r="G72" s="200" t="s">
-        <v>809</v>
-      </c>
-      <c r="H72" s="187"/>
-      <c r="I72" s="187"/>
-      <c r="J72" s="187"/>
-      <c r="K72" s="187"/>
-      <c r="L72" s="187"/>
-      <c r="M72" s="187"/>
-      <c r="N72" s="187"/>
-      <c r="O72" s="187"/>
-      <c r="P72" s="187"/>
-      <c r="Q72" s="187"/>
-      <c r="R72" s="187"/>
-      <c r="S72" s="188"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="189">
-        <v>57.0</v>
-      </c>
-      <c r="B73" s="133" t="s">
-        <v>810</v>
-      </c>
-      <c r="C73" s="133" t="s">
-        <v>15</v>
-      </c>
-      <c r="D73" s="133" t="s">
-        <v>669</v>
-      </c>
-      <c r="E73" s="190" t="s">
-        <v>747</v>
-      </c>
-      <c r="F73" s="135" t="s">
-        <v>671</v>
-      </c>
-      <c r="G73" s="200" t="s">
-        <v>811</v>
-      </c>
-      <c r="H73" s="201"/>
-      <c r="I73" s="201"/>
-      <c r="J73" s="201"/>
-      <c r="K73" s="201"/>
-      <c r="L73" s="201"/>
-      <c r="M73" s="201"/>
-      <c r="N73" s="201"/>
-      <c r="O73" s="201"/>
-      <c r="P73" s="201"/>
-      <c r="Q73" s="201"/>
-      <c r="R73" s="201"/>
-      <c r="S73" s="202"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="194">
-        <v>52.0</v>
-      </c>
-      <c r="B74" s="209" t="s">
-        <v>678</v>
-      </c>
-      <c r="C74" s="138" t="s">
-        <v>516</v>
-      </c>
-      <c r="D74" s="159"/>
-      <c r="E74" s="190" t="s">
-        <v>747</v>
-      </c>
-      <c r="F74" s="129" t="s">
-        <v>680</v>
-      </c>
-      <c r="G74" s="200" t="s">
-        <v>812</v>
-      </c>
-      <c r="H74" s="187"/>
-      <c r="I74" s="187"/>
-      <c r="J74" s="187"/>
-      <c r="K74" s="187"/>
-      <c r="L74" s="187"/>
-      <c r="M74" s="187"/>
-      <c r="N74" s="187"/>
-      <c r="O74" s="187"/>
-      <c r="P74" s="187"/>
-      <c r="Q74" s="187"/>
-      <c r="R74" s="187"/>
-      <c r="S74" s="188"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="189">
-        <v>29.0</v>
-      </c>
-      <c r="B75" s="133" t="s">
-        <v>813</v>
-      </c>
-      <c r="C75" s="133" t="s">
-        <v>15</v>
-      </c>
-      <c r="D75" s="133" t="s">
-        <v>603</v>
-      </c>
-      <c r="E75" s="190" t="s">
-        <v>609</v>
-      </c>
-      <c r="F75" s="135" t="s">
-        <v>608</v>
-      </c>
-      <c r="G75" s="200" t="s">
-        <v>814</v>
-      </c>
-      <c r="H75" s="201"/>
-      <c r="I75" s="201"/>
-      <c r="J75" s="201"/>
-      <c r="K75" s="201"/>
-      <c r="L75" s="201"/>
-      <c r="M75" s="201"/>
-      <c r="N75" s="201"/>
-      <c r="O75" s="201"/>
-      <c r="P75" s="201"/>
-      <c r="Q75" s="201"/>
-      <c r="R75" s="201"/>
-      <c r="S75" s="202"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="194">
-        <v>32.0</v>
-      </c>
-      <c r="B76" s="209" t="s">
-        <v>319</v>
-      </c>
-      <c r="C76" s="138" t="s">
-        <v>516</v>
-      </c>
-      <c r="D76" s="138" t="s">
-        <v>520</v>
-      </c>
-      <c r="E76" s="190" t="s">
-        <v>609</v>
-      </c>
-      <c r="F76" s="156">
-        <v>7.7057797357E10</v>
-      </c>
-      <c r="G76" s="200" t="s">
-        <v>814</v>
-      </c>
-      <c r="H76" s="187"/>
-      <c r="I76" s="187"/>
-      <c r="J76" s="187"/>
-      <c r="K76" s="187"/>
-      <c r="L76" s="187"/>
-      <c r="M76" s="187"/>
-      <c r="N76" s="187"/>
-      <c r="O76" s="187"/>
-      <c r="P76" s="187"/>
-      <c r="Q76" s="187"/>
-      <c r="R76" s="187"/>
-      <c r="S76" s="188"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="189">
-        <v>6.0</v>
-      </c>
-      <c r="B77" s="206" t="s">
-        <v>307</v>
-      </c>
-      <c r="C77" s="224" t="s">
-        <v>516</v>
-      </c>
-      <c r="D77" s="225" t="s">
-        <v>520</v>
-      </c>
-      <c r="E77" s="207" t="s">
-        <v>509</v>
-      </c>
-      <c r="F77" s="226" t="s">
-        <v>522</v>
-      </c>
-      <c r="G77" s="210" t="s">
-        <v>815</v>
-      </c>
-      <c r="H77" s="227">
-        <v>12.0</v>
-      </c>
-      <c r="I77" s="212"/>
-      <c r="J77" s="212"/>
-      <c r="K77" s="212"/>
-      <c r="L77" s="212"/>
-      <c r="M77" s="212"/>
-      <c r="N77" s="212"/>
-      <c r="O77" s="212"/>
-      <c r="P77" s="212"/>
-      <c r="Q77" s="212"/>
-      <c r="R77" s="212"/>
-      <c r="S77" s="213"/>
+      <c r="F77" s="163" t="s">
+        <v>722</v>
+      </c>
+      <c r="G77" s="214" t="s">
+        <v>816</v>
+      </c>
+      <c r="H77" s="215"/>
+      <c r="I77" s="215"/>
+      <c r="J77" s="215"/>
+      <c r="K77" s="215"/>
+      <c r="L77" s="215"/>
+      <c r="M77" s="215"/>
+      <c r="N77" s="215"/>
+      <c r="O77" s="215"/>
+      <c r="P77" s="215"/>
+      <c r="Q77" s="215"/>
+      <c r="R77" s="215"/>
+      <c r="S77" s="216"/>
     </row>
     <row r="78">
-      <c r="A78" s="228"/>
-      <c r="B78" s="229"/>
-      <c r="C78" s="230"/>
-      <c r="D78" s="230"/>
-      <c r="E78" s="231"/>
-      <c r="F78" s="232"/>
-      <c r="G78" s="233"/>
-      <c r="H78" s="233"/>
-      <c r="I78" s="233"/>
-      <c r="J78" s="233"/>
-      <c r="K78" s="234"/>
-      <c r="L78" s="234"/>
-      <c r="M78" s="234"/>
-      <c r="N78" s="234"/>
-      <c r="O78" s="233" t="s">
-        <v>816</v>
-      </c>
-      <c r="P78" s="233" t="s">
+      <c r="A78" s="227"/>
+      <c r="B78" s="228"/>
+      <c r="C78" s="229"/>
+      <c r="D78" s="229"/>
+      <c r="E78" s="230"/>
+      <c r="F78" s="231"/>
+      <c r="G78" s="232"/>
+      <c r="H78" s="232"/>
+      <c r="I78" s="232"/>
+      <c r="J78" s="232"/>
+      <c r="K78" s="233"/>
+      <c r="L78" s="233"/>
+      <c r="M78" s="233"/>
+      <c r="N78" s="233"/>
+      <c r="O78" s="232" t="s">
         <v>817</v>
       </c>
-      <c r="Q78" s="233" t="s">
+      <c r="P78" s="232" t="s">
         <v>818</v>
       </c>
-      <c r="R78" s="233" t="s">
+      <c r="Q78" s="232" t="s">
         <v>819</v>
       </c>
-      <c r="S78" s="235" t="s">
+      <c r="R78" s="232" t="s">
         <v>820</v>
+      </c>
+      <c r="S78" s="234" t="s">
+        <v>821</v>
       </c>
     </row>
   </sheetData>

--- a/Контакты Stratera.xlsx
+++ b/Контакты Stratera.xlsx
@@ -3924,7 +3924,7 @@
     <t>Сандыктау</t>
   </si>
   <si>
-    <t>Биржан Сал</t>
+    <t>Биржан Сал, Бурабай ауданы</t>
   </si>
   <si>
     <t>Зерендинский</t>

--- a/Контакты Stratera.xlsx
+++ b/Контакты Stratera.xlsx
@@ -3819,7 +3819,7 @@
     <t xml:space="preserve">Район </t>
   </si>
   <si>
-    <t xml:space="preserve">выехал </t>
+    <t>Столбец 8</t>
   </si>
   <si>
     <t>прибыл на маршрут</t>
@@ -4039,7 +4039,7 @@
     <t>Павлодарская область</t>
   </si>
   <si>
-    <t>Железинский</t>
+    <t>Железинский, Теренкольский</t>
   </si>
   <si>
     <t>Теренкольский</t>
@@ -4522,7 +4522,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="38">
     <border/>
     <border>
       <left style="thin">
@@ -4967,20 +4967,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB7E1CD"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB7E1CD"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB7E1CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB7E1CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
@@ -5039,7 +5025,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="235">
+  <cellXfs count="233">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -5574,13 +5560,10 @@
     <xf borderId="22" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="34" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="22" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="35" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="34" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -5601,7 +5584,7 @@
     <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="36" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="35" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -5619,7 +5602,7 @@
     <xf borderId="22" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="35" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="34" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="15" fillId="0" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -5631,16 +5614,13 @@
     <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="36" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="35" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="34" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="15" fillId="0" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -5658,16 +5638,16 @@
     <xf borderId="17" fillId="0" fontId="58" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="36" fillId="0" fontId="58" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="34" fillId="0" fontId="58" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="35" fillId="0" fontId="58" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="22" fillId="0" fontId="58" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="35" fillId="0" fontId="58" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="22" fillId="0" fontId="58" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="34" fillId="0" fontId="58" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="17" fillId="0" fontId="58" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -5679,7 +5659,7 @@
     <xf borderId="22" fillId="0" fontId="58" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="35" fillId="0" fontId="58" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="34" fillId="0" fontId="58" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="25" fillId="0" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -5706,13 +5686,13 @@
     <xf borderId="26" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="37" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="36" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="36" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="37" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="38" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -5827,7 +5807,7 @@
     <tableColumn name="Область" id="5"/>
     <tableColumn name="Телефон" id="6"/>
     <tableColumn name="Район " id="7"/>
-    <tableColumn name="выехал " id="8"/>
+    <tableColumn name="Столбец 8" id="8"/>
     <tableColumn name="прибыл на маршрут" id="9"/>
     <tableColumn name="вернулся " id="10"/>
     <tableColumn name="культуру" id="11"/>
@@ -42041,26 +42021,24 @@
       <c r="G2" s="187" t="s">
         <v>740</v>
       </c>
-      <c r="H2" s="188">
-        <v>9.0</v>
-      </c>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="K2" s="189"/>
-      <c r="L2" s="189"/>
-      <c r="M2" s="189"/>
-      <c r="N2" s="189"/>
-      <c r="O2" s="189"/>
-      <c r="P2" s="189"/>
-      <c r="Q2" s="189"/>
-      <c r="R2" s="189"/>
-      <c r="S2" s="190"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
+      <c r="K2" s="188"/>
+      <c r="L2" s="188"/>
+      <c r="M2" s="188"/>
+      <c r="N2" s="188"/>
+      <c r="O2" s="188"/>
+      <c r="P2" s="188"/>
+      <c r="Q2" s="188"/>
+      <c r="R2" s="188"/>
+      <c r="S2" s="189"/>
     </row>
     <row r="3">
-      <c r="A3" s="191">
+      <c r="A3" s="190">
         <v>2.0</v>
       </c>
-      <c r="B3" s="192" t="s">
+      <c r="B3" s="191" t="s">
         <v>330</v>
       </c>
       <c r="C3" s="141" t="s">
@@ -42069,48 +42047,46 @@
       <c r="D3" s="141" t="s">
         <v>520</v>
       </c>
-      <c r="E3" s="193" t="s">
+      <c r="E3" s="192" t="s">
         <v>509</v>
       </c>
       <c r="F3" s="148" t="s">
         <v>528</v>
       </c>
-      <c r="G3" s="194" t="s">
+      <c r="G3" s="193" t="s">
         <v>741</v>
       </c>
-      <c r="H3" s="195">
-        <v>8.0</v>
-      </c>
-      <c r="I3" s="196"/>
-      <c r="J3" s="196"/>
-      <c r="K3" s="196"/>
-      <c r="L3" s="196"/>
-      <c r="M3" s="196"/>
-      <c r="N3" s="195" t="s">
+      <c r="H3" s="194"/>
+      <c r="I3" s="195"/>
+      <c r="J3" s="195"/>
+      <c r="K3" s="195"/>
+      <c r="L3" s="195"/>
+      <c r="M3" s="195"/>
+      <c r="N3" s="194" t="s">
         <v>742</v>
       </c>
-      <c r="O3" s="195">
+      <c r="O3" s="194">
         <v>50.0</v>
       </c>
-      <c r="P3" s="195">
+      <c r="P3" s="194">
         <v>82.5</v>
       </c>
-      <c r="Q3" s="195">
+      <c r="Q3" s="194">
         <v>82.5</v>
       </c>
-      <c r="R3" s="195">
+      <c r="R3" s="194">
         <v>35.0</v>
       </c>
-      <c r="S3" s="197">
+      <c r="S3" s="196">
         <f>SUM(O3:R3)</f>
         <v>250</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="198">
+      <c r="A4" s="197">
         <v>3.0</v>
       </c>
-      <c r="B4" s="199" t="s">
+      <c r="B4" s="198" t="s">
         <v>236</v>
       </c>
       <c r="C4" s="127" t="s">
@@ -42119,35 +42095,33 @@
       <c r="D4" s="127" t="s">
         <v>520</v>
       </c>
-      <c r="E4" s="193" t="s">
+      <c r="E4" s="192" t="s">
         <v>509</v>
       </c>
       <c r="F4" s="145" t="s">
         <v>524</v>
       </c>
-      <c r="G4" s="200" t="s">
+      <c r="G4" s="199" t="s">
         <v>743</v>
       </c>
-      <c r="H4" s="201">
-        <v>8.0</v>
-      </c>
-      <c r="I4" s="202"/>
-      <c r="J4" s="202"/>
-      <c r="K4" s="202"/>
-      <c r="L4" s="202"/>
-      <c r="M4" s="202"/>
-      <c r="N4" s="201"/>
-      <c r="O4" s="202"/>
-      <c r="P4" s="202"/>
-      <c r="Q4" s="202"/>
-      <c r="R4" s="202"/>
-      <c r="S4" s="203"/>
+      <c r="H4" s="200"/>
+      <c r="I4" s="201"/>
+      <c r="J4" s="201"/>
+      <c r="K4" s="201"/>
+      <c r="L4" s="201"/>
+      <c r="M4" s="201"/>
+      <c r="N4" s="200"/>
+      <c r="O4" s="201"/>
+      <c r="P4" s="201"/>
+      <c r="Q4" s="201"/>
+      <c r="R4" s="201"/>
+      <c r="S4" s="202"/>
     </row>
     <row r="5">
-      <c r="A5" s="191">
+      <c r="A5" s="190">
         <v>4.0</v>
       </c>
-      <c r="B5" s="204" t="s">
+      <c r="B5" s="203" t="s">
         <v>349</v>
       </c>
       <c r="C5" s="141" t="s">
@@ -42156,35 +42130,33 @@
       <c r="D5" s="141" t="s">
         <v>520</v>
       </c>
-      <c r="E5" s="193" t="s">
+      <c r="E5" s="192" t="s">
         <v>509</v>
       </c>
       <c r="F5" s="143" t="s">
         <v>532</v>
       </c>
-      <c r="G5" s="200" t="s">
+      <c r="G5" s="199" t="s">
         <v>744</v>
       </c>
-      <c r="H5" s="205">
-        <v>7.0</v>
-      </c>
-      <c r="I5" s="206"/>
-      <c r="J5" s="206"/>
-      <c r="K5" s="206"/>
-      <c r="L5" s="206"/>
-      <c r="M5" s="206"/>
-      <c r="N5" s="206"/>
-      <c r="O5" s="206"/>
-      <c r="P5" s="206"/>
-      <c r="Q5" s="206"/>
-      <c r="R5" s="206"/>
-      <c r="S5" s="207"/>
+      <c r="H5" s="204"/>
+      <c r="I5" s="205"/>
+      <c r="J5" s="205"/>
+      <c r="K5" s="205"/>
+      <c r="L5" s="205"/>
+      <c r="M5" s="205"/>
+      <c r="N5" s="205"/>
+      <c r="O5" s="205"/>
+      <c r="P5" s="205"/>
+      <c r="Q5" s="205"/>
+      <c r="R5" s="205"/>
+      <c r="S5" s="206"/>
     </row>
     <row r="6">
-      <c r="A6" s="198">
+      <c r="A6" s="197">
         <v>5.0</v>
       </c>
-      <c r="B6" s="208" t="s">
+      <c r="B6" s="207" t="s">
         <v>745</v>
       </c>
       <c r="C6" s="138" t="s">
@@ -42193,23 +42165,21 @@
       <c r="D6" s="138" t="s">
         <v>517</v>
       </c>
-      <c r="E6" s="209" t="s">
+      <c r="E6" s="208" t="s">
         <v>509</v>
       </c>
       <c r="F6" s="129" t="s">
         <v>519</v>
       </c>
-      <c r="G6" s="194" t="s">
+      <c r="G6" s="193" t="s">
         <v>741</v>
       </c>
-      <c r="H6" s="188">
-        <v>9.0</v>
-      </c>
-      <c r="I6" s="189"/>
-      <c r="J6" s="189"/>
-      <c r="K6" s="189"/>
-      <c r="L6" s="189"/>
-      <c r="M6" s="189"/>
+      <c r="H6" s="187"/>
+      <c r="I6" s="188"/>
+      <c r="J6" s="188"/>
+      <c r="K6" s="188"/>
+      <c r="L6" s="188"/>
+      <c r="M6" s="188"/>
       <c r="N6" s="187" t="s">
         <v>746</v>
       </c>
@@ -42225,16 +42195,16 @@
       <c r="R6" s="187">
         <v>49.0</v>
       </c>
-      <c r="S6" s="190">
+      <c r="S6" s="189">
         <f>SUM(O6:R6)</f>
         <v>350</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="191">
+      <c r="A7" s="190">
         <v>6.0</v>
       </c>
-      <c r="B7" s="192" t="s">
+      <c r="B7" s="191" t="s">
         <v>307</v>
       </c>
       <c r="C7" s="141" t="s">
@@ -42243,32 +42213,30 @@
       <c r="D7" s="141" t="s">
         <v>520</v>
       </c>
-      <c r="E7" s="193" t="s">
+      <c r="E7" s="192" t="s">
         <v>509</v>
       </c>
       <c r="F7" s="148" t="s">
         <v>522</v>
       </c>
-      <c r="G7" s="200" t="s">
+      <c r="G7" s="199" t="s">
         <v>747</v>
       </c>
-      <c r="H7" s="210">
-        <v>12.0</v>
-      </c>
-      <c r="I7" s="206"/>
-      <c r="J7" s="206"/>
-      <c r="K7" s="206"/>
-      <c r="L7" s="206"/>
-      <c r="M7" s="206"/>
-      <c r="N7" s="206"/>
-      <c r="O7" s="206"/>
-      <c r="P7" s="206"/>
-      <c r="Q7" s="206"/>
-      <c r="R7" s="206"/>
-      <c r="S7" s="207"/>
+      <c r="H7" s="204"/>
+      <c r="I7" s="205"/>
+      <c r="J7" s="205"/>
+      <c r="K7" s="205"/>
+      <c r="L7" s="205"/>
+      <c r="M7" s="205"/>
+      <c r="N7" s="205"/>
+      <c r="O7" s="205"/>
+      <c r="P7" s="205"/>
+      <c r="Q7" s="205"/>
+      <c r="R7" s="205"/>
+      <c r="S7" s="206"/>
     </row>
     <row r="8">
-      <c r="A8" s="198">
+      <c r="A8" s="197">
         <v>7.0</v>
       </c>
       <c r="B8" s="127" t="s">
@@ -42280,35 +42248,33 @@
       <c r="D8" s="127" t="s">
         <v>508</v>
       </c>
-      <c r="E8" s="193" t="s">
+      <c r="E8" s="192" t="s">
         <v>509</v>
       </c>
       <c r="F8" s="129" t="s">
         <v>511</v>
       </c>
-      <c r="G8" s="194" t="s">
+      <c r="G8" s="193" t="s">
         <v>748</v>
       </c>
-      <c r="H8" s="188">
-        <v>10.0</v>
-      </c>
-      <c r="I8" s="189"/>
-      <c r="J8" s="189"/>
-      <c r="K8" s="189"/>
-      <c r="L8" s="189"/>
-      <c r="M8" s="189"/>
-      <c r="N8" s="189"/>
-      <c r="O8" s="189"/>
-      <c r="P8" s="189"/>
-      <c r="Q8" s="189"/>
-      <c r="R8" s="189"/>
-      <c r="S8" s="190"/>
+      <c r="H8" s="187"/>
+      <c r="I8" s="188"/>
+      <c r="J8" s="188"/>
+      <c r="K8" s="188"/>
+      <c r="L8" s="188"/>
+      <c r="M8" s="188"/>
+      <c r="N8" s="188"/>
+      <c r="O8" s="188"/>
+      <c r="P8" s="188"/>
+      <c r="Q8" s="188"/>
+      <c r="R8" s="188"/>
+      <c r="S8" s="189"/>
     </row>
     <row r="9">
-      <c r="A9" s="191">
+      <c r="A9" s="190">
         <v>8.0</v>
       </c>
-      <c r="B9" s="211" t="s">
+      <c r="B9" s="209" t="s">
         <v>334</v>
       </c>
       <c r="C9" s="133" t="s">
@@ -42317,35 +42283,33 @@
       <c r="D9" s="133" t="s">
         <v>520</v>
       </c>
-      <c r="E9" s="209" t="s">
+      <c r="E9" s="208" t="s">
         <v>509</v>
       </c>
       <c r="F9" s="135" t="s">
         <v>526</v>
       </c>
-      <c r="G9" s="194" t="s">
+      <c r="G9" s="193" t="s">
         <v>749</v>
       </c>
-      <c r="H9" s="195">
-        <v>6.0</v>
-      </c>
-      <c r="I9" s="196"/>
-      <c r="J9" s="196"/>
-      <c r="K9" s="196"/>
-      <c r="L9" s="196"/>
-      <c r="M9" s="196"/>
-      <c r="N9" s="196"/>
-      <c r="O9" s="196"/>
-      <c r="P9" s="196"/>
-      <c r="Q9" s="196"/>
-      <c r="R9" s="196"/>
-      <c r="S9" s="197"/>
+      <c r="H9" s="194"/>
+      <c r="I9" s="195"/>
+      <c r="J9" s="195"/>
+      <c r="K9" s="195"/>
+      <c r="L9" s="195"/>
+      <c r="M9" s="195"/>
+      <c r="N9" s="195"/>
+      <c r="O9" s="195"/>
+      <c r="P9" s="195"/>
+      <c r="Q9" s="195"/>
+      <c r="R9" s="195"/>
+      <c r="S9" s="196"/>
     </row>
     <row r="10">
-      <c r="A10" s="198">
+      <c r="A10" s="197">
         <v>9.0</v>
       </c>
-      <c r="B10" s="212" t="s">
+      <c r="B10" s="210" t="s">
         <v>326</v>
       </c>
       <c r="C10" s="127" t="s">
@@ -42354,32 +42318,30 @@
       <c r="D10" s="127" t="s">
         <v>520</v>
       </c>
-      <c r="E10" s="193" t="s">
+      <c r="E10" s="192" t="s">
         <v>509</v>
       </c>
       <c r="F10" s="145" t="s">
         <v>530</v>
       </c>
-      <c r="G10" s="194" t="s">
+      <c r="G10" s="193" t="s">
         <v>749</v>
       </c>
-      <c r="H10" s="187">
-        <v>7.0</v>
-      </c>
-      <c r="I10" s="189"/>
-      <c r="J10" s="189"/>
-      <c r="K10" s="189"/>
-      <c r="L10" s="189"/>
-      <c r="M10" s="189"/>
-      <c r="N10" s="189"/>
-      <c r="O10" s="189"/>
-      <c r="P10" s="189"/>
-      <c r="Q10" s="189"/>
-      <c r="R10" s="189"/>
-      <c r="S10" s="190"/>
+      <c r="H10" s="187"/>
+      <c r="I10" s="188"/>
+      <c r="J10" s="188"/>
+      <c r="K10" s="188"/>
+      <c r="L10" s="188"/>
+      <c r="M10" s="188"/>
+      <c r="N10" s="188"/>
+      <c r="O10" s="188"/>
+      <c r="P10" s="188"/>
+      <c r="Q10" s="188"/>
+      <c r="R10" s="188"/>
+      <c r="S10" s="189"/>
     </row>
     <row r="11">
-      <c r="A11" s="191">
+      <c r="A11" s="190">
         <v>10.0</v>
       </c>
       <c r="B11" s="133" t="s">
@@ -42391,32 +42353,30 @@
       <c r="D11" s="133" t="s">
         <v>539</v>
       </c>
-      <c r="E11" s="209" t="s">
+      <c r="E11" s="208" t="s">
         <v>509</v>
       </c>
       <c r="F11" s="135" t="s">
         <v>541</v>
       </c>
-      <c r="G11" s="194" t="s">
+      <c r="G11" s="193" t="s">
         <v>750</v>
       </c>
-      <c r="H11" s="195">
-        <v>8.0</v>
-      </c>
-      <c r="I11" s="196"/>
-      <c r="J11" s="196"/>
-      <c r="K11" s="196"/>
-      <c r="L11" s="196"/>
-      <c r="M11" s="196"/>
-      <c r="N11" s="196"/>
-      <c r="O11" s="196"/>
-      <c r="P11" s="196"/>
-      <c r="Q11" s="196"/>
-      <c r="R11" s="196"/>
-      <c r="S11" s="197"/>
+      <c r="H11" s="194"/>
+      <c r="I11" s="195"/>
+      <c r="J11" s="195"/>
+      <c r="K11" s="195"/>
+      <c r="L11" s="195"/>
+      <c r="M11" s="195"/>
+      <c r="N11" s="195"/>
+      <c r="O11" s="195"/>
+      <c r="P11" s="195"/>
+      <c r="Q11" s="195"/>
+      <c r="R11" s="195"/>
+      <c r="S11" s="196"/>
     </row>
     <row r="12">
-      <c r="A12" s="198">
+      <c r="A12" s="197">
         <v>11.0</v>
       </c>
       <c r="B12" s="138" t="s">
@@ -42428,23 +42388,21 @@
       <c r="D12" s="138" t="s">
         <v>513</v>
       </c>
-      <c r="E12" s="209" t="s">
+      <c r="E12" s="208" t="s">
         <v>509</v>
       </c>
       <c r="F12" s="129" t="s">
         <v>515</v>
       </c>
-      <c r="G12" s="194" t="s">
+      <c r="G12" s="193" t="s">
         <v>751</v>
       </c>
-      <c r="H12" s="188">
-        <v>9.0</v>
-      </c>
-      <c r="I12" s="189"/>
-      <c r="J12" s="189"/>
-      <c r="K12" s="189"/>
-      <c r="L12" s="189"/>
-      <c r="M12" s="189"/>
+      <c r="H12" s="187"/>
+      <c r="I12" s="188"/>
+      <c r="J12" s="188"/>
+      <c r="K12" s="188"/>
+      <c r="L12" s="188"/>
+      <c r="M12" s="188"/>
       <c r="N12" s="187" t="s">
         <v>752</v>
       </c>
@@ -42460,16 +42418,16 @@
       <c r="R12" s="187">
         <v>20.0</v>
       </c>
-      <c r="S12" s="190">
+      <c r="S12" s="189">
         <f>SUM(O12:R12)</f>
         <v>150</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="191">
+      <c r="A13" s="190">
         <v>12.0</v>
       </c>
-      <c r="B13" s="211" t="s">
+      <c r="B13" s="209" t="s">
         <v>359</v>
       </c>
       <c r="C13" s="133" t="s">
@@ -42478,32 +42436,30 @@
       <c r="D13" s="133" t="s">
         <v>517</v>
       </c>
-      <c r="E13" s="209" t="s">
+      <c r="E13" s="208" t="s">
         <v>419</v>
       </c>
       <c r="F13" s="135" t="s">
         <v>560</v>
       </c>
-      <c r="G13" s="194" t="s">
+      <c r="G13" s="193" t="s">
         <v>753</v>
       </c>
-      <c r="H13" s="195">
-        <v>6.0</v>
-      </c>
-      <c r="I13" s="196"/>
-      <c r="J13" s="196"/>
-      <c r="K13" s="196"/>
-      <c r="L13" s="196"/>
-      <c r="M13" s="196"/>
-      <c r="N13" s="196"/>
-      <c r="O13" s="196"/>
-      <c r="P13" s="196"/>
-      <c r="Q13" s="196"/>
-      <c r="R13" s="196"/>
-      <c r="S13" s="197"/>
+      <c r="H13" s="194"/>
+      <c r="I13" s="195"/>
+      <c r="J13" s="195"/>
+      <c r="K13" s="195"/>
+      <c r="L13" s="195"/>
+      <c r="M13" s="195"/>
+      <c r="N13" s="195"/>
+      <c r="O13" s="195"/>
+      <c r="P13" s="195"/>
+      <c r="Q13" s="195"/>
+      <c r="R13" s="195"/>
+      <c r="S13" s="196"/>
     </row>
     <row r="14">
-      <c r="A14" s="198">
+      <c r="A14" s="197">
         <v>13.0</v>
       </c>
       <c r="B14" s="138" t="s">
@@ -42515,32 +42471,30 @@
       <c r="D14" s="138" t="s">
         <v>567</v>
       </c>
-      <c r="E14" s="209" t="s">
+      <c r="E14" s="208" t="s">
         <v>419</v>
       </c>
       <c r="F14" s="129" t="s">
         <v>569</v>
       </c>
-      <c r="G14" s="194" t="s">
+      <c r="G14" s="193" t="s">
         <v>754</v>
       </c>
-      <c r="H14" s="187">
-        <v>5.0</v>
-      </c>
-      <c r="I14" s="189"/>
-      <c r="J14" s="189"/>
-      <c r="K14" s="189"/>
-      <c r="L14" s="189"/>
-      <c r="M14" s="189"/>
-      <c r="N14" s="189"/>
-      <c r="O14" s="189"/>
-      <c r="P14" s="189"/>
-      <c r="Q14" s="189"/>
-      <c r="R14" s="189"/>
-      <c r="S14" s="190"/>
+      <c r="H14" s="187"/>
+      <c r="I14" s="188"/>
+      <c r="J14" s="188"/>
+      <c r="K14" s="188"/>
+      <c r="L14" s="188"/>
+      <c r="M14" s="188"/>
+      <c r="N14" s="188"/>
+      <c r="O14" s="188"/>
+      <c r="P14" s="188"/>
+      <c r="Q14" s="188"/>
+      <c r="R14" s="188"/>
+      <c r="S14" s="189"/>
     </row>
     <row r="15">
-      <c r="A15" s="191">
+      <c r="A15" s="190">
         <v>14.0</v>
       </c>
       <c r="B15" s="133" t="s">
@@ -42552,35 +42506,33 @@
       <c r="D15" s="133" t="s">
         <v>513</v>
       </c>
-      <c r="E15" s="209" t="s">
+      <c r="E15" s="208" t="s">
         <v>419</v>
       </c>
       <c r="F15" s="135" t="s">
         <v>556</v>
       </c>
-      <c r="G15" s="194" t="s">
+      <c r="G15" s="193" t="s">
         <v>755</v>
       </c>
-      <c r="H15" s="188">
-        <v>9.0</v>
-      </c>
-      <c r="I15" s="196"/>
-      <c r="J15" s="196"/>
-      <c r="K15" s="196"/>
-      <c r="L15" s="196"/>
-      <c r="M15" s="196"/>
-      <c r="N15" s="196"/>
-      <c r="O15" s="196"/>
-      <c r="P15" s="196"/>
-      <c r="Q15" s="196"/>
-      <c r="R15" s="196"/>
-      <c r="S15" s="197"/>
+      <c r="H15" s="194"/>
+      <c r="I15" s="195"/>
+      <c r="J15" s="195"/>
+      <c r="K15" s="195"/>
+      <c r="L15" s="195"/>
+      <c r="M15" s="195"/>
+      <c r="N15" s="195"/>
+      <c r="O15" s="195"/>
+      <c r="P15" s="195"/>
+      <c r="Q15" s="195"/>
+      <c r="R15" s="195"/>
+      <c r="S15" s="196"/>
     </row>
     <row r="16">
-      <c r="A16" s="198">
+      <c r="A16" s="197">
         <v>15.0</v>
       </c>
-      <c r="B16" s="208" t="s">
+      <c r="B16" s="207" t="s">
         <v>367</v>
       </c>
       <c r="C16" s="138" t="s">
@@ -42589,35 +42541,33 @@
       <c r="D16" s="138" t="s">
         <v>517</v>
       </c>
-      <c r="E16" s="209" t="s">
+      <c r="E16" s="208" t="s">
         <v>419</v>
       </c>
       <c r="F16" s="129" t="s">
         <v>562</v>
       </c>
-      <c r="G16" s="194" t="s">
+      <c r="G16" s="193" t="s">
         <v>756</v>
       </c>
-      <c r="H16" s="188">
-        <v>9.0</v>
-      </c>
-      <c r="I16" s="189"/>
-      <c r="J16" s="189"/>
-      <c r="K16" s="189"/>
-      <c r="L16" s="189"/>
-      <c r="M16" s="189"/>
-      <c r="N16" s="189"/>
-      <c r="O16" s="189"/>
-      <c r="P16" s="189"/>
-      <c r="Q16" s="189"/>
-      <c r="R16" s="189"/>
-      <c r="S16" s="190"/>
+      <c r="H16" s="187"/>
+      <c r="I16" s="188"/>
+      <c r="J16" s="188"/>
+      <c r="K16" s="188"/>
+      <c r="L16" s="188"/>
+      <c r="M16" s="188"/>
+      <c r="N16" s="188"/>
+      <c r="O16" s="188"/>
+      <c r="P16" s="188"/>
+      <c r="Q16" s="188"/>
+      <c r="R16" s="188"/>
+      <c r="S16" s="189"/>
     </row>
     <row r="17">
-      <c r="A17" s="191">
+      <c r="A17" s="190">
         <v>16.0</v>
       </c>
-      <c r="B17" s="211" t="s">
+      <c r="B17" s="209" t="s">
         <v>418</v>
       </c>
       <c r="C17" s="141" t="s">
@@ -42626,35 +42576,33 @@
       <c r="D17" s="133" t="s">
         <v>563</v>
       </c>
-      <c r="E17" s="209" t="s">
+      <c r="E17" s="208" t="s">
         <v>419</v>
       </c>
       <c r="F17" s="135" t="s">
         <v>565</v>
       </c>
-      <c r="G17" s="194" t="s">
+      <c r="G17" s="193" t="s">
         <v>753</v>
       </c>
-      <c r="H17" s="195">
-        <v>8.0</v>
-      </c>
-      <c r="I17" s="196"/>
-      <c r="J17" s="196"/>
-      <c r="K17" s="196"/>
-      <c r="L17" s="196"/>
-      <c r="M17" s="196"/>
-      <c r="N17" s="196"/>
-      <c r="O17" s="196"/>
-      <c r="P17" s="196"/>
-      <c r="Q17" s="196"/>
-      <c r="R17" s="196"/>
-      <c r="S17" s="197"/>
+      <c r="H17" s="194"/>
+      <c r="I17" s="195"/>
+      <c r="J17" s="195"/>
+      <c r="K17" s="195"/>
+      <c r="L17" s="195"/>
+      <c r="M17" s="195"/>
+      <c r="N17" s="195"/>
+      <c r="O17" s="195"/>
+      <c r="P17" s="195"/>
+      <c r="Q17" s="195"/>
+      <c r="R17" s="195"/>
+      <c r="S17" s="196"/>
     </row>
     <row r="18">
-      <c r="A18" s="198">
+      <c r="A18" s="197">
         <v>17.0</v>
       </c>
-      <c r="B18" s="208" t="s">
+      <c r="B18" s="207" t="s">
         <v>363</v>
       </c>
       <c r="C18" s="138" t="s">
@@ -42663,30 +42611,30 @@
       <c r="D18" s="138" t="s">
         <v>517</v>
       </c>
-      <c r="E18" s="209" t="s">
+      <c r="E18" s="208" t="s">
         <v>419</v>
       </c>
       <c r="F18" s="129" t="s">
         <v>558</v>
       </c>
-      <c r="G18" s="194" t="s">
+      <c r="G18" s="193" t="s">
         <v>756</v>
       </c>
       <c r="H18" s="187"/>
-      <c r="I18" s="189"/>
-      <c r="J18" s="189"/>
-      <c r="K18" s="189"/>
-      <c r="L18" s="189"/>
-      <c r="M18" s="189"/>
-      <c r="N18" s="189"/>
-      <c r="O18" s="189"/>
-      <c r="P18" s="189"/>
-      <c r="Q18" s="189"/>
-      <c r="R18" s="189"/>
-      <c r="S18" s="190"/>
+      <c r="I18" s="188"/>
+      <c r="J18" s="188"/>
+      <c r="K18" s="188"/>
+      <c r="L18" s="188"/>
+      <c r="M18" s="188"/>
+      <c r="N18" s="188"/>
+      <c r="O18" s="188"/>
+      <c r="P18" s="188"/>
+      <c r="Q18" s="188"/>
+      <c r="R18" s="188"/>
+      <c r="S18" s="189"/>
     </row>
     <row r="19">
-      <c r="A19" s="191">
+      <c r="A19" s="190">
         <v>18.0</v>
       </c>
       <c r="B19" s="133" t="s">
@@ -42698,30 +42646,30 @@
       <c r="D19" s="133" t="s">
         <v>550</v>
       </c>
-      <c r="E19" s="209" t="s">
+      <c r="E19" s="208" t="s">
         <v>419</v>
       </c>
       <c r="F19" s="151" t="s">
         <v>552</v>
       </c>
-      <c r="G19" s="194" t="s">
+      <c r="G19" s="193" t="s">
         <v>756</v>
       </c>
-      <c r="H19" s="195"/>
-      <c r="I19" s="196"/>
-      <c r="J19" s="196"/>
-      <c r="K19" s="196"/>
-      <c r="L19" s="196"/>
-      <c r="M19" s="196"/>
-      <c r="N19" s="196"/>
-      <c r="O19" s="196"/>
-      <c r="P19" s="196"/>
-      <c r="Q19" s="196"/>
-      <c r="R19" s="196"/>
-      <c r="S19" s="197"/>
+      <c r="H19" s="194"/>
+      <c r="I19" s="195"/>
+      <c r="J19" s="195"/>
+      <c r="K19" s="195"/>
+      <c r="L19" s="195"/>
+      <c r="M19" s="195"/>
+      <c r="N19" s="195"/>
+      <c r="O19" s="195"/>
+      <c r="P19" s="195"/>
+      <c r="Q19" s="195"/>
+      <c r="R19" s="195"/>
+      <c r="S19" s="196"/>
     </row>
     <row r="20">
-      <c r="A20" s="198">
+      <c r="A20" s="197">
         <v>19.0</v>
       </c>
       <c r="B20" s="167" t="s">
@@ -42733,35 +42681,33 @@
       <c r="D20" s="138" t="s">
         <v>546</v>
       </c>
-      <c r="E20" s="209" t="s">
+      <c r="E20" s="208" t="s">
         <v>419</v>
       </c>
       <c r="F20" s="129" t="s">
         <v>548</v>
       </c>
-      <c r="G20" s="194" t="s">
+      <c r="G20" s="193" t="s">
         <v>757</v>
       </c>
-      <c r="H20" s="188">
-        <v>9.0</v>
-      </c>
-      <c r="I20" s="189"/>
-      <c r="J20" s="189"/>
-      <c r="K20" s="189"/>
-      <c r="L20" s="189"/>
-      <c r="M20" s="189"/>
-      <c r="N20" s="189"/>
-      <c r="O20" s="189"/>
-      <c r="P20" s="189"/>
-      <c r="Q20" s="189"/>
-      <c r="R20" s="189"/>
-      <c r="S20" s="190"/>
+      <c r="H20" s="187"/>
+      <c r="I20" s="188"/>
+      <c r="J20" s="188"/>
+      <c r="K20" s="188"/>
+      <c r="L20" s="188"/>
+      <c r="M20" s="188"/>
+      <c r="N20" s="188"/>
+      <c r="O20" s="188"/>
+      <c r="P20" s="188"/>
+      <c r="Q20" s="188"/>
+      <c r="R20" s="188"/>
+      <c r="S20" s="189"/>
     </row>
     <row r="21">
-      <c r="A21" s="191">
+      <c r="A21" s="190">
         <v>20.0</v>
       </c>
-      <c r="B21" s="213" t="s">
+      <c r="B21" s="211" t="s">
         <v>583</v>
       </c>
       <c r="C21" s="133" t="s">
@@ -42770,33 +42716,33 @@
       <c r="D21" s="133" t="s">
         <v>584</v>
       </c>
-      <c r="E21" s="209" t="s">
+      <c r="E21" s="208" t="s">
         <v>570</v>
       </c>
       <c r="F21" s="151" t="s">
         <v>586</v>
       </c>
-      <c r="G21" s="214" t="s">
+      <c r="G21" s="212" t="s">
         <v>758</v>
       </c>
-      <c r="H21" s="215"/>
-      <c r="I21" s="215"/>
-      <c r="J21" s="215"/>
-      <c r="K21" s="215"/>
-      <c r="L21" s="215"/>
-      <c r="M21" s="215"/>
-      <c r="N21" s="215"/>
-      <c r="O21" s="215"/>
-      <c r="P21" s="215"/>
-      <c r="Q21" s="215"/>
-      <c r="R21" s="215"/>
-      <c r="S21" s="216"/>
+      <c r="H21" s="213"/>
+      <c r="I21" s="213"/>
+      <c r="J21" s="213"/>
+      <c r="K21" s="213"/>
+      <c r="L21" s="213"/>
+      <c r="M21" s="213"/>
+      <c r="N21" s="213"/>
+      <c r="O21" s="213"/>
+      <c r="P21" s="213"/>
+      <c r="Q21" s="213"/>
+      <c r="R21" s="213"/>
+      <c r="S21" s="214"/>
     </row>
     <row r="22">
-      <c r="A22" s="198">
+      <c r="A22" s="197">
         <v>21.0</v>
       </c>
-      <c r="B22" s="208" t="s">
+      <c r="B22" s="207" t="s">
         <v>338</v>
       </c>
       <c r="C22" s="138" t="s">
@@ -42805,35 +42751,33 @@
       <c r="D22" s="138" t="s">
         <v>520</v>
       </c>
-      <c r="E22" s="209" t="s">
+      <c r="E22" s="208" t="s">
         <v>570</v>
       </c>
       <c r="F22" s="129" t="s">
         <v>576</v>
       </c>
-      <c r="G22" s="214" t="s">
+      <c r="G22" s="212" t="s">
         <v>759</v>
       </c>
-      <c r="H22" s="217">
-        <v>15.0</v>
-      </c>
-      <c r="I22" s="218"/>
-      <c r="J22" s="218"/>
-      <c r="K22" s="218"/>
-      <c r="L22" s="218"/>
-      <c r="M22" s="218"/>
-      <c r="N22" s="218"/>
-      <c r="O22" s="218"/>
-      <c r="P22" s="218"/>
-      <c r="Q22" s="218"/>
-      <c r="R22" s="218"/>
-      <c r="S22" s="219"/>
+      <c r="H22" s="215"/>
+      <c r="I22" s="216"/>
+      <c r="J22" s="216"/>
+      <c r="K22" s="216"/>
+      <c r="L22" s="216"/>
+      <c r="M22" s="216"/>
+      <c r="N22" s="216"/>
+      <c r="O22" s="216"/>
+      <c r="P22" s="216"/>
+      <c r="Q22" s="216"/>
+      <c r="R22" s="216"/>
+      <c r="S22" s="217"/>
     </row>
     <row r="23">
-      <c r="A23" s="191">
+      <c r="A23" s="190">
         <v>22.0</v>
       </c>
-      <c r="B23" s="211" t="s">
+      <c r="B23" s="209" t="s">
         <v>289</v>
       </c>
       <c r="C23" s="133" t="s">
@@ -42842,35 +42786,33 @@
       <c r="D23" s="133" t="s">
         <v>520</v>
       </c>
-      <c r="E23" s="209" t="s">
+      <c r="E23" s="208" t="s">
         <v>570</v>
       </c>
       <c r="F23" s="135" t="s">
         <v>572</v>
       </c>
-      <c r="G23" s="214" t="s">
+      <c r="G23" s="212" t="s">
         <v>760</v>
       </c>
-      <c r="H23" s="220">
-        <v>7.0</v>
-      </c>
-      <c r="I23" s="215"/>
-      <c r="J23" s="215"/>
-      <c r="K23" s="215"/>
-      <c r="L23" s="215"/>
-      <c r="M23" s="215"/>
-      <c r="N23" s="215"/>
-      <c r="O23" s="215"/>
-      <c r="P23" s="215"/>
-      <c r="Q23" s="215"/>
-      <c r="R23" s="215"/>
-      <c r="S23" s="216"/>
+      <c r="H23" s="218"/>
+      <c r="I23" s="213"/>
+      <c r="J23" s="213"/>
+      <c r="K23" s="213"/>
+      <c r="L23" s="213"/>
+      <c r="M23" s="213"/>
+      <c r="N23" s="213"/>
+      <c r="O23" s="213"/>
+      <c r="P23" s="213"/>
+      <c r="Q23" s="213"/>
+      <c r="R23" s="213"/>
+      <c r="S23" s="214"/>
     </row>
     <row r="24">
-      <c r="A24" s="198">
+      <c r="A24" s="197">
         <v>23.0</v>
       </c>
-      <c r="B24" s="208" t="s">
+      <c r="B24" s="207" t="s">
         <v>311</v>
       </c>
       <c r="C24" s="138" t="s">
@@ -42879,33 +42821,33 @@
       <c r="D24" s="138" t="s">
         <v>520</v>
       </c>
-      <c r="E24" s="209" t="s">
+      <c r="E24" s="208" t="s">
         <v>570</v>
       </c>
       <c r="F24" s="129" t="s">
         <v>578</v>
       </c>
-      <c r="G24" s="214" t="s">
+      <c r="G24" s="212" t="s">
         <v>761</v>
       </c>
-      <c r="H24" s="218"/>
-      <c r="I24" s="218"/>
-      <c r="J24" s="218"/>
-      <c r="K24" s="218"/>
-      <c r="L24" s="218"/>
-      <c r="M24" s="218"/>
-      <c r="N24" s="218"/>
-      <c r="O24" s="218"/>
-      <c r="P24" s="218"/>
-      <c r="Q24" s="218"/>
-      <c r="R24" s="218"/>
-      <c r="S24" s="219"/>
+      <c r="H24" s="216"/>
+      <c r="I24" s="216"/>
+      <c r="J24" s="216"/>
+      <c r="K24" s="216"/>
+      <c r="L24" s="216"/>
+      <c r="M24" s="216"/>
+      <c r="N24" s="216"/>
+      <c r="O24" s="216"/>
+      <c r="P24" s="216"/>
+      <c r="Q24" s="216"/>
+      <c r="R24" s="216"/>
+      <c r="S24" s="217"/>
     </row>
     <row r="25">
-      <c r="A25" s="191">
+      <c r="A25" s="190">
         <v>24.0</v>
       </c>
-      <c r="B25" s="211" t="s">
+      <c r="B25" s="209" t="s">
         <v>295</v>
       </c>
       <c r="C25" s="133" t="s">
@@ -42914,30 +42856,30 @@
       <c r="D25" s="133" t="s">
         <v>520</v>
       </c>
-      <c r="E25" s="209" t="s">
+      <c r="E25" s="208" t="s">
         <v>570</v>
       </c>
       <c r="F25" s="135" t="s">
         <v>574</v>
       </c>
-      <c r="G25" s="214" t="s">
+      <c r="G25" s="212" t="s">
         <v>758</v>
       </c>
-      <c r="H25" s="215"/>
-      <c r="I25" s="215"/>
-      <c r="J25" s="215"/>
-      <c r="K25" s="215"/>
-      <c r="L25" s="215"/>
-      <c r="M25" s="215"/>
-      <c r="N25" s="215"/>
-      <c r="O25" s="215"/>
-      <c r="P25" s="215"/>
-      <c r="Q25" s="215"/>
-      <c r="R25" s="215"/>
-      <c r="S25" s="216"/>
+      <c r="H25" s="213"/>
+      <c r="I25" s="213"/>
+      <c r="J25" s="213"/>
+      <c r="K25" s="213"/>
+      <c r="L25" s="213"/>
+      <c r="M25" s="213"/>
+      <c r="N25" s="213"/>
+      <c r="O25" s="213"/>
+      <c r="P25" s="213"/>
+      <c r="Q25" s="213"/>
+      <c r="R25" s="213"/>
+      <c r="S25" s="214"/>
     </row>
     <row r="26">
-      <c r="A26" s="198">
+      <c r="A26" s="197">
         <v>25.0</v>
       </c>
       <c r="B26" s="138" t="s">
@@ -42949,30 +42891,30 @@
       <c r="D26" s="138" t="s">
         <v>592</v>
       </c>
-      <c r="E26" s="209" t="s">
+      <c r="E26" s="208" t="s">
         <v>411</v>
       </c>
       <c r="F26" s="156" t="s">
         <v>597</v>
       </c>
-      <c r="G26" s="194" t="s">
+      <c r="G26" s="193" t="s">
         <v>762</v>
       </c>
-      <c r="H26" s="189"/>
-      <c r="I26" s="189"/>
-      <c r="J26" s="189"/>
-      <c r="K26" s="189"/>
-      <c r="L26" s="189"/>
-      <c r="M26" s="189"/>
-      <c r="N26" s="189"/>
-      <c r="O26" s="189"/>
-      <c r="P26" s="189"/>
-      <c r="Q26" s="189"/>
-      <c r="R26" s="189"/>
-      <c r="S26" s="190"/>
+      <c r="H26" s="188"/>
+      <c r="I26" s="188"/>
+      <c r="J26" s="188"/>
+      <c r="K26" s="188"/>
+      <c r="L26" s="188"/>
+      <c r="M26" s="188"/>
+      <c r="N26" s="188"/>
+      <c r="O26" s="188"/>
+      <c r="P26" s="188"/>
+      <c r="Q26" s="188"/>
+      <c r="R26" s="188"/>
+      <c r="S26" s="189"/>
     </row>
     <row r="27">
-      <c r="A27" s="191">
+      <c r="A27" s="190">
         <v>26.0</v>
       </c>
       <c r="B27" s="133" t="s">
@@ -42984,33 +42926,33 @@
       <c r="D27" s="133" t="s">
         <v>592</v>
       </c>
-      <c r="E27" s="209" t="s">
+      <c r="E27" s="208" t="s">
         <v>411</v>
       </c>
       <c r="F27" s="151" t="s">
         <v>594</v>
       </c>
-      <c r="G27" s="194" t="s">
+      <c r="G27" s="193" t="s">
         <v>763</v>
       </c>
-      <c r="H27" s="196"/>
-      <c r="I27" s="196"/>
-      <c r="J27" s="196"/>
-      <c r="K27" s="196"/>
-      <c r="L27" s="196"/>
-      <c r="M27" s="196"/>
-      <c r="N27" s="196"/>
-      <c r="O27" s="196"/>
-      <c r="P27" s="196"/>
-      <c r="Q27" s="196"/>
-      <c r="R27" s="196"/>
-      <c r="S27" s="197"/>
+      <c r="H27" s="195"/>
+      <c r="I27" s="195"/>
+      <c r="J27" s="195"/>
+      <c r="K27" s="195"/>
+      <c r="L27" s="195"/>
+      <c r="M27" s="195"/>
+      <c r="N27" s="195"/>
+      <c r="O27" s="195"/>
+      <c r="P27" s="195"/>
+      <c r="Q27" s="195"/>
+      <c r="R27" s="195"/>
+      <c r="S27" s="196"/>
     </row>
     <row r="28">
-      <c r="A28" s="198">
+      <c r="A28" s="197">
         <v>27.0</v>
       </c>
-      <c r="B28" s="208" t="s">
+      <c r="B28" s="207" t="s">
         <v>410</v>
       </c>
       <c r="C28" s="138" t="s">
@@ -43019,30 +42961,30 @@
       <c r="D28" s="138">
         <v>0.0</v>
       </c>
-      <c r="E28" s="209" t="s">
+      <c r="E28" s="208" t="s">
         <v>411</v>
       </c>
       <c r="F28" s="129">
         <v>7.7789056044E10</v>
       </c>
-      <c r="G28" s="194" t="s">
+      <c r="G28" s="193" t="s">
         <v>764</v>
       </c>
-      <c r="H28" s="189"/>
-      <c r="I28" s="189"/>
-      <c r="J28" s="189"/>
-      <c r="K28" s="189"/>
-      <c r="L28" s="189"/>
-      <c r="M28" s="189"/>
-      <c r="N28" s="189"/>
-      <c r="O28" s="189"/>
-      <c r="P28" s="189"/>
-      <c r="Q28" s="189"/>
-      <c r="R28" s="189"/>
-      <c r="S28" s="190"/>
+      <c r="H28" s="188"/>
+      <c r="I28" s="188"/>
+      <c r="J28" s="188"/>
+      <c r="K28" s="188"/>
+      <c r="L28" s="188"/>
+      <c r="M28" s="188"/>
+      <c r="N28" s="188"/>
+      <c r="O28" s="188"/>
+      <c r="P28" s="188"/>
+      <c r="Q28" s="188"/>
+      <c r="R28" s="188"/>
+      <c r="S28" s="189"/>
     </row>
     <row r="29">
-      <c r="A29" s="191">
+      <c r="A29" s="190">
         <v>28.0</v>
       </c>
       <c r="B29" s="133" t="s">
@@ -43054,30 +42996,30 @@
       <c r="D29" s="133" t="s">
         <v>513</v>
       </c>
-      <c r="E29" s="209" t="s">
+      <c r="E29" s="208" t="s">
         <v>411</v>
       </c>
       <c r="F29" s="135" t="s">
         <v>590</v>
       </c>
-      <c r="G29" s="194" t="s">
+      <c r="G29" s="193" t="s">
         <v>765</v>
       </c>
-      <c r="H29" s="196"/>
-      <c r="I29" s="196"/>
-      <c r="J29" s="196"/>
-      <c r="K29" s="196"/>
-      <c r="L29" s="196"/>
-      <c r="M29" s="196"/>
-      <c r="N29" s="196"/>
-      <c r="O29" s="196"/>
-      <c r="P29" s="196"/>
-      <c r="Q29" s="196"/>
-      <c r="R29" s="196"/>
-      <c r="S29" s="197"/>
+      <c r="H29" s="195"/>
+      <c r="I29" s="195"/>
+      <c r="J29" s="195"/>
+      <c r="K29" s="195"/>
+      <c r="L29" s="195"/>
+      <c r="M29" s="195"/>
+      <c r="N29" s="195"/>
+      <c r="O29" s="195"/>
+      <c r="P29" s="195"/>
+      <c r="Q29" s="195"/>
+      <c r="R29" s="195"/>
+      <c r="S29" s="196"/>
     </row>
     <row r="30">
-      <c r="A30" s="198">
+      <c r="A30" s="197">
         <v>29.0</v>
       </c>
       <c r="B30" s="138" t="s">
@@ -43089,30 +43031,30 @@
       <c r="D30" s="138" t="s">
         <v>603</v>
       </c>
-      <c r="E30" s="209" t="s">
+      <c r="E30" s="208" t="s">
         <v>609</v>
       </c>
       <c r="F30" s="129" t="s">
         <v>608</v>
       </c>
-      <c r="G30" s="214" t="s">
+      <c r="G30" s="212" t="s">
         <v>767</v>
       </c>
-      <c r="H30" s="218"/>
-      <c r="I30" s="218"/>
-      <c r="J30" s="218"/>
-      <c r="K30" s="218"/>
-      <c r="L30" s="218"/>
-      <c r="M30" s="218"/>
-      <c r="N30" s="218"/>
-      <c r="O30" s="218"/>
-      <c r="P30" s="218"/>
-      <c r="Q30" s="218"/>
-      <c r="R30" s="218"/>
-      <c r="S30" s="219"/>
+      <c r="H30" s="216"/>
+      <c r="I30" s="216"/>
+      <c r="J30" s="216"/>
+      <c r="K30" s="216"/>
+      <c r="L30" s="216"/>
+      <c r="M30" s="216"/>
+      <c r="N30" s="216"/>
+      <c r="O30" s="216"/>
+      <c r="P30" s="216"/>
+      <c r="Q30" s="216"/>
+      <c r="R30" s="216"/>
+      <c r="S30" s="217"/>
     </row>
     <row r="31">
-      <c r="A31" s="191">
+      <c r="A31" s="190">
         <v>30.0</v>
       </c>
       <c r="B31" s="133" t="s">
@@ -43124,30 +43066,30 @@
       <c r="D31" s="133" t="s">
         <v>603</v>
       </c>
-      <c r="E31" s="209" t="s">
+      <c r="E31" s="208" t="s">
         <v>609</v>
       </c>
       <c r="F31" s="135" t="s">
         <v>605</v>
       </c>
-      <c r="G31" s="194" t="s">
+      <c r="G31" s="193" t="s">
         <v>768</v>
       </c>
-      <c r="H31" s="196"/>
-      <c r="I31" s="196"/>
-      <c r="J31" s="196"/>
-      <c r="K31" s="196"/>
-      <c r="L31" s="196"/>
-      <c r="M31" s="196"/>
-      <c r="N31" s="196"/>
-      <c r="O31" s="196"/>
-      <c r="P31" s="196"/>
-      <c r="Q31" s="196"/>
-      <c r="R31" s="196"/>
-      <c r="S31" s="197"/>
+      <c r="H31" s="195"/>
+      <c r="I31" s="195"/>
+      <c r="J31" s="195"/>
+      <c r="K31" s="195"/>
+      <c r="L31" s="195"/>
+      <c r="M31" s="195"/>
+      <c r="N31" s="195"/>
+      <c r="O31" s="195"/>
+      <c r="P31" s="195"/>
+      <c r="Q31" s="195"/>
+      <c r="R31" s="195"/>
+      <c r="S31" s="196"/>
     </row>
     <row r="32">
-      <c r="A32" s="198">
+      <c r="A32" s="197">
         <v>31.0</v>
       </c>
       <c r="B32" s="138" t="s">
@@ -43159,33 +43101,33 @@
       <c r="D32" s="138" t="s">
         <v>599</v>
       </c>
-      <c r="E32" s="209" t="s">
+      <c r="E32" s="208" t="s">
         <v>609</v>
       </c>
       <c r="F32" s="129" t="s">
         <v>601</v>
       </c>
-      <c r="G32" s="221" t="s">
+      <c r="G32" s="219" t="s">
         <v>769</v>
       </c>
-      <c r="H32" s="222"/>
-      <c r="I32" s="222"/>
-      <c r="J32" s="222"/>
-      <c r="K32" s="222"/>
-      <c r="L32" s="222"/>
-      <c r="M32" s="222"/>
-      <c r="N32" s="222"/>
-      <c r="O32" s="222"/>
-      <c r="P32" s="222"/>
-      <c r="Q32" s="222"/>
-      <c r="R32" s="222"/>
-      <c r="S32" s="223"/>
+      <c r="H32" s="220"/>
+      <c r="I32" s="220"/>
+      <c r="J32" s="220"/>
+      <c r="K32" s="220"/>
+      <c r="L32" s="220"/>
+      <c r="M32" s="220"/>
+      <c r="N32" s="220"/>
+      <c r="O32" s="220"/>
+      <c r="P32" s="220"/>
+      <c r="Q32" s="220"/>
+      <c r="R32" s="220"/>
+      <c r="S32" s="221"/>
     </row>
     <row r="33">
-      <c r="A33" s="191">
+      <c r="A33" s="190">
         <v>32.0</v>
       </c>
-      <c r="B33" s="211" t="s">
+      <c r="B33" s="209" t="s">
         <v>319</v>
       </c>
       <c r="C33" s="133" t="s">
@@ -43194,63 +43136,63 @@
       <c r="D33" s="133" t="s">
         <v>520</v>
       </c>
-      <c r="E33" s="209" t="s">
+      <c r="E33" s="208" t="s">
         <v>609</v>
       </c>
       <c r="F33" s="135">
         <v>7.7057797357E10</v>
       </c>
-      <c r="G33" s="214" t="s">
+      <c r="G33" s="212" t="s">
         <v>767</v>
       </c>
-      <c r="H33" s="215"/>
-      <c r="I33" s="215"/>
-      <c r="J33" s="215"/>
-      <c r="K33" s="215"/>
-      <c r="L33" s="215"/>
-      <c r="M33" s="215"/>
-      <c r="N33" s="215"/>
-      <c r="O33" s="215"/>
-      <c r="P33" s="215"/>
-      <c r="Q33" s="215"/>
-      <c r="R33" s="215"/>
-      <c r="S33" s="216"/>
+      <c r="H33" s="213"/>
+      <c r="I33" s="213"/>
+      <c r="J33" s="213"/>
+      <c r="K33" s="213"/>
+      <c r="L33" s="213"/>
+      <c r="M33" s="213"/>
+      <c r="N33" s="213"/>
+      <c r="O33" s="213"/>
+      <c r="P33" s="213"/>
+      <c r="Q33" s="213"/>
+      <c r="R33" s="213"/>
+      <c r="S33" s="214"/>
     </row>
     <row r="34">
-      <c r="A34" s="198">
+      <c r="A34" s="197">
         <v>33.0</v>
       </c>
-      <c r="B34" s="208" t="s">
+      <c r="B34" s="207" t="s">
         <v>611</v>
       </c>
       <c r="C34" s="138" t="s">
         <v>516</v>
       </c>
       <c r="D34" s="159"/>
-      <c r="E34" s="209" t="s">
+      <c r="E34" s="208" t="s">
         <v>609</v>
       </c>
       <c r="F34" s="129" t="s">
         <v>613</v>
       </c>
-      <c r="G34" s="221" t="s">
+      <c r="G34" s="219" t="s">
         <v>770</v>
       </c>
-      <c r="H34" s="222"/>
-      <c r="I34" s="222"/>
-      <c r="J34" s="222"/>
-      <c r="K34" s="222"/>
-      <c r="L34" s="222"/>
-      <c r="M34" s="222"/>
-      <c r="N34" s="222"/>
-      <c r="O34" s="222"/>
-      <c r="P34" s="222"/>
-      <c r="Q34" s="222"/>
-      <c r="R34" s="222"/>
-      <c r="S34" s="223"/>
+      <c r="H34" s="220"/>
+      <c r="I34" s="220"/>
+      <c r="J34" s="220"/>
+      <c r="K34" s="220"/>
+      <c r="L34" s="220"/>
+      <c r="M34" s="220"/>
+      <c r="N34" s="220"/>
+      <c r="O34" s="220"/>
+      <c r="P34" s="220"/>
+      <c r="Q34" s="220"/>
+      <c r="R34" s="220"/>
+      <c r="S34" s="221"/>
     </row>
     <row r="35">
-      <c r="A35" s="191">
+      <c r="A35" s="190">
         <v>34.0</v>
       </c>
       <c r="B35" s="133" t="s">
@@ -43262,33 +43204,33 @@
       <c r="D35" s="133" t="s">
         <v>592</v>
       </c>
-      <c r="E35" s="209" t="s">
+      <c r="E35" s="208" t="s">
         <v>771</v>
       </c>
       <c r="F35" s="135">
         <v>7.7054441706E10</v>
       </c>
-      <c r="G35" s="194" t="s">
+      <c r="G35" s="193" t="s">
         <v>772</v>
       </c>
-      <c r="H35" s="196"/>
-      <c r="I35" s="196"/>
-      <c r="J35" s="196"/>
-      <c r="K35" s="196"/>
-      <c r="L35" s="196"/>
-      <c r="M35" s="196"/>
-      <c r="N35" s="196"/>
-      <c r="O35" s="196"/>
-      <c r="P35" s="196"/>
-      <c r="Q35" s="196"/>
-      <c r="R35" s="196"/>
-      <c r="S35" s="197"/>
+      <c r="H35" s="195"/>
+      <c r="I35" s="195"/>
+      <c r="J35" s="195"/>
+      <c r="K35" s="195"/>
+      <c r="L35" s="195"/>
+      <c r="M35" s="195"/>
+      <c r="N35" s="195"/>
+      <c r="O35" s="195"/>
+      <c r="P35" s="195"/>
+      <c r="Q35" s="195"/>
+      <c r="R35" s="195"/>
+      <c r="S35" s="196"/>
     </row>
     <row r="36">
-      <c r="A36" s="198">
+      <c r="A36" s="197">
         <v>35.0</v>
       </c>
-      <c r="B36" s="208" t="s">
+      <c r="B36" s="207" t="s">
         <v>773</v>
       </c>
       <c r="C36" s="138" t="s">
@@ -43297,30 +43239,30 @@
       <c r="D36" s="138" t="s">
         <v>658</v>
       </c>
-      <c r="E36" s="209" t="s">
+      <c r="E36" s="208" t="s">
         <v>771</v>
       </c>
       <c r="F36" s="129">
         <v>7.7009802493E10</v>
       </c>
-      <c r="G36" s="194" t="s">
+      <c r="G36" s="193" t="s">
         <v>774</v>
       </c>
-      <c r="H36" s="189"/>
-      <c r="I36" s="189"/>
-      <c r="J36" s="189"/>
-      <c r="K36" s="189"/>
-      <c r="L36" s="189"/>
-      <c r="M36" s="189"/>
-      <c r="N36" s="189"/>
-      <c r="O36" s="189"/>
-      <c r="P36" s="189"/>
-      <c r="Q36" s="189"/>
-      <c r="R36" s="189"/>
-      <c r="S36" s="190"/>
+      <c r="H36" s="188"/>
+      <c r="I36" s="188"/>
+      <c r="J36" s="188"/>
+      <c r="K36" s="188"/>
+      <c r="L36" s="188"/>
+      <c r="M36" s="188"/>
+      <c r="N36" s="188"/>
+      <c r="O36" s="188"/>
+      <c r="P36" s="188"/>
+      <c r="Q36" s="188"/>
+      <c r="R36" s="188"/>
+      <c r="S36" s="189"/>
     </row>
     <row r="37">
-      <c r="A37" s="191">
+      <c r="A37" s="190">
         <v>36.0</v>
       </c>
       <c r="B37" s="133" t="s">
@@ -43332,30 +43274,30 @@
       <c r="D37" s="133" t="s">
         <v>592</v>
       </c>
-      <c r="E37" s="209" t="s">
+      <c r="E37" s="208" t="s">
         <v>771</v>
       </c>
       <c r="F37" s="135">
         <v>7.7775223878E10</v>
       </c>
-      <c r="G37" s="194" t="s">
+      <c r="G37" s="193" t="s">
         <v>775</v>
       </c>
-      <c r="H37" s="196"/>
-      <c r="I37" s="196"/>
-      <c r="J37" s="196"/>
-      <c r="K37" s="196"/>
-      <c r="L37" s="196"/>
-      <c r="M37" s="196"/>
-      <c r="N37" s="196"/>
-      <c r="O37" s="196"/>
-      <c r="P37" s="196"/>
-      <c r="Q37" s="196"/>
-      <c r="R37" s="196"/>
-      <c r="S37" s="197"/>
+      <c r="H37" s="195"/>
+      <c r="I37" s="195"/>
+      <c r="J37" s="195"/>
+      <c r="K37" s="195"/>
+      <c r="L37" s="195"/>
+      <c r="M37" s="195"/>
+      <c r="N37" s="195"/>
+      <c r="O37" s="195"/>
+      <c r="P37" s="195"/>
+      <c r="Q37" s="195"/>
+      <c r="R37" s="195"/>
+      <c r="S37" s="196"/>
     </row>
     <row r="38">
-      <c r="A38" s="198">
+      <c r="A38" s="197">
         <v>37.0</v>
       </c>
       <c r="B38" s="138" t="s">
@@ -43367,30 +43309,30 @@
       <c r="D38" s="138" t="s">
         <v>599</v>
       </c>
-      <c r="E38" s="209" t="s">
+      <c r="E38" s="208" t="s">
         <v>771</v>
       </c>
       <c r="F38" s="129">
         <v>7.7711886327E10</v>
       </c>
-      <c r="G38" s="194" t="s">
+      <c r="G38" s="193" t="s">
         <v>776</v>
       </c>
-      <c r="H38" s="189"/>
-      <c r="I38" s="189"/>
-      <c r="J38" s="189"/>
-      <c r="K38" s="189"/>
-      <c r="L38" s="189"/>
-      <c r="M38" s="189"/>
-      <c r="N38" s="189"/>
-      <c r="O38" s="189"/>
-      <c r="P38" s="189"/>
-      <c r="Q38" s="189"/>
-      <c r="R38" s="189"/>
-      <c r="S38" s="190"/>
+      <c r="H38" s="188"/>
+      <c r="I38" s="188"/>
+      <c r="J38" s="188"/>
+      <c r="K38" s="188"/>
+      <c r="L38" s="188"/>
+      <c r="M38" s="188"/>
+      <c r="N38" s="188"/>
+      <c r="O38" s="188"/>
+      <c r="P38" s="188"/>
+      <c r="Q38" s="188"/>
+      <c r="R38" s="188"/>
+      <c r="S38" s="189"/>
     </row>
     <row r="39">
-      <c r="A39" s="191">
+      <c r="A39" s="190">
         <v>38.0</v>
       </c>
       <c r="B39" s="133" t="s">
@@ -43402,30 +43344,30 @@
       <c r="D39" s="133" t="s">
         <v>635</v>
       </c>
-      <c r="E39" s="209" t="s">
+      <c r="E39" s="208" t="s">
         <v>771</v>
       </c>
       <c r="F39" s="135">
         <v>7.7054627019E10</v>
       </c>
-      <c r="G39" s="194" t="s">
+      <c r="G39" s="193" t="s">
         <v>777</v>
       </c>
-      <c r="H39" s="196"/>
-      <c r="I39" s="196"/>
-      <c r="J39" s="196"/>
-      <c r="K39" s="196"/>
-      <c r="L39" s="196"/>
-      <c r="M39" s="196"/>
-      <c r="N39" s="196"/>
-      <c r="O39" s="196"/>
-      <c r="P39" s="196"/>
-      <c r="Q39" s="196"/>
-      <c r="R39" s="196"/>
-      <c r="S39" s="197"/>
+      <c r="H39" s="195"/>
+      <c r="I39" s="195"/>
+      <c r="J39" s="195"/>
+      <c r="K39" s="195"/>
+      <c r="L39" s="195"/>
+      <c r="M39" s="195"/>
+      <c r="N39" s="195"/>
+      <c r="O39" s="195"/>
+      <c r="P39" s="195"/>
+      <c r="Q39" s="195"/>
+      <c r="R39" s="195"/>
+      <c r="S39" s="196"/>
     </row>
     <row r="40">
-      <c r="A40" s="198">
+      <c r="A40" s="197">
         <v>39.0</v>
       </c>
       <c r="B40" s="138" t="s">
@@ -43437,33 +43379,33 @@
       <c r="D40" s="138" t="s">
         <v>635</v>
       </c>
-      <c r="E40" s="209" t="s">
+      <c r="E40" s="208" t="s">
         <v>771</v>
       </c>
       <c r="F40" s="129">
         <v>7.747757374E10</v>
       </c>
-      <c r="G40" s="194" t="s">
+      <c r="G40" s="193" t="s">
         <v>778</v>
       </c>
-      <c r="H40" s="189"/>
-      <c r="I40" s="189"/>
-      <c r="J40" s="189"/>
-      <c r="K40" s="189"/>
-      <c r="L40" s="189"/>
-      <c r="M40" s="189"/>
-      <c r="N40" s="189"/>
-      <c r="O40" s="189"/>
-      <c r="P40" s="189"/>
-      <c r="Q40" s="189"/>
-      <c r="R40" s="189"/>
-      <c r="S40" s="190"/>
+      <c r="H40" s="188"/>
+      <c r="I40" s="188"/>
+      <c r="J40" s="188"/>
+      <c r="K40" s="188"/>
+      <c r="L40" s="188"/>
+      <c r="M40" s="188"/>
+      <c r="N40" s="188"/>
+      <c r="O40" s="188"/>
+      <c r="P40" s="188"/>
+      <c r="Q40" s="188"/>
+      <c r="R40" s="188"/>
+      <c r="S40" s="189"/>
     </row>
     <row r="41">
-      <c r="A41" s="191">
+      <c r="A41" s="190">
         <v>40.0</v>
       </c>
-      <c r="B41" s="211" t="s">
+      <c r="B41" s="209" t="s">
         <v>315</v>
       </c>
       <c r="C41" s="133" t="s">
@@ -43472,30 +43414,30 @@
       <c r="D41" s="133" t="s">
         <v>520</v>
       </c>
-      <c r="E41" s="209" t="s">
+      <c r="E41" s="208" t="s">
         <v>771</v>
       </c>
       <c r="F41" s="151">
         <v>7.7772459654E10</v>
       </c>
-      <c r="G41" s="194" t="s">
+      <c r="G41" s="193" t="s">
         <v>779</v>
       </c>
-      <c r="H41" s="196"/>
-      <c r="I41" s="196"/>
-      <c r="J41" s="196"/>
-      <c r="K41" s="196"/>
-      <c r="L41" s="196"/>
-      <c r="M41" s="196"/>
-      <c r="N41" s="196"/>
-      <c r="O41" s="196"/>
-      <c r="P41" s="196"/>
-      <c r="Q41" s="196"/>
-      <c r="R41" s="196"/>
-      <c r="S41" s="197"/>
+      <c r="H41" s="195"/>
+      <c r="I41" s="195"/>
+      <c r="J41" s="195"/>
+      <c r="K41" s="195"/>
+      <c r="L41" s="195"/>
+      <c r="M41" s="195"/>
+      <c r="N41" s="195"/>
+      <c r="O41" s="195"/>
+      <c r="P41" s="195"/>
+      <c r="Q41" s="195"/>
+      <c r="R41" s="195"/>
+      <c r="S41" s="196"/>
     </row>
     <row r="42">
-      <c r="A42" s="198">
+      <c r="A42" s="197">
         <v>41.0</v>
       </c>
       <c r="B42" s="138" t="s">
@@ -43507,35 +43449,35 @@
       <c r="D42" s="138" t="s">
         <v>617</v>
       </c>
-      <c r="E42" s="209" t="s">
+      <c r="E42" s="208" t="s">
         <v>771</v>
       </c>
       <c r="F42" s="129">
         <v>7.7764004E10</v>
       </c>
-      <c r="G42" s="194" t="s">
+      <c r="G42" s="193" t="s">
         <v>780</v>
       </c>
       <c r="H42" s="187" t="s">
         <v>781</v>
       </c>
-      <c r="I42" s="189"/>
-      <c r="J42" s="189"/>
-      <c r="K42" s="189"/>
-      <c r="L42" s="189"/>
-      <c r="M42" s="189"/>
-      <c r="N42" s="189"/>
-      <c r="O42" s="189"/>
-      <c r="P42" s="189"/>
-      <c r="Q42" s="189"/>
-      <c r="R42" s="189"/>
-      <c r="S42" s="190"/>
+      <c r="I42" s="188"/>
+      <c r="J42" s="188"/>
+      <c r="K42" s="188"/>
+      <c r="L42" s="188"/>
+      <c r="M42" s="188"/>
+      <c r="N42" s="188"/>
+      <c r="O42" s="188"/>
+      <c r="P42" s="188"/>
+      <c r="Q42" s="188"/>
+      <c r="R42" s="188"/>
+      <c r="S42" s="189"/>
     </row>
     <row r="43">
-      <c r="A43" s="191">
+      <c r="A43" s="190">
         <v>42.0</v>
       </c>
-      <c r="B43" s="211" t="s">
+      <c r="B43" s="209" t="s">
         <v>621</v>
       </c>
       <c r="C43" s="133" t="s">
@@ -43544,30 +43486,30 @@
       <c r="D43" s="133" t="s">
         <v>517</v>
       </c>
-      <c r="E43" s="209" t="s">
+      <c r="E43" s="208" t="s">
         <v>771</v>
       </c>
       <c r="F43" s="135" t="s">
         <v>623</v>
       </c>
-      <c r="G43" s="194" t="s">
+      <c r="G43" s="193" t="s">
         <v>782</v>
       </c>
-      <c r="H43" s="196"/>
-      <c r="I43" s="196"/>
-      <c r="J43" s="196"/>
-      <c r="K43" s="196"/>
-      <c r="L43" s="196"/>
-      <c r="M43" s="196"/>
-      <c r="N43" s="196"/>
-      <c r="O43" s="196"/>
-      <c r="P43" s="196"/>
-      <c r="Q43" s="196"/>
-      <c r="R43" s="196"/>
-      <c r="S43" s="197"/>
+      <c r="H43" s="195"/>
+      <c r="I43" s="195"/>
+      <c r="J43" s="195"/>
+      <c r="K43" s="195"/>
+      <c r="L43" s="195"/>
+      <c r="M43" s="195"/>
+      <c r="N43" s="195"/>
+      <c r="O43" s="195"/>
+      <c r="P43" s="195"/>
+      <c r="Q43" s="195"/>
+      <c r="R43" s="195"/>
+      <c r="S43" s="196"/>
     </row>
     <row r="44">
-      <c r="A44" s="198">
+      <c r="A44" s="197">
         <v>43.0</v>
       </c>
       <c r="B44" s="138" t="s">
@@ -43579,33 +43521,33 @@
       <c r="D44" s="138" t="s">
         <v>630</v>
       </c>
-      <c r="E44" s="209" t="s">
+      <c r="E44" s="208" t="s">
         <v>771</v>
       </c>
       <c r="F44" s="129">
         <v>7.7710603592E10</v>
       </c>
-      <c r="G44" s="194" t="s">
+      <c r="G44" s="193" t="s">
         <v>783</v>
       </c>
-      <c r="H44" s="189"/>
-      <c r="I44" s="189"/>
-      <c r="J44" s="189"/>
-      <c r="K44" s="189"/>
-      <c r="L44" s="189"/>
-      <c r="M44" s="189"/>
-      <c r="N44" s="189"/>
-      <c r="O44" s="189"/>
-      <c r="P44" s="189"/>
-      <c r="Q44" s="189"/>
-      <c r="R44" s="189"/>
-      <c r="S44" s="190"/>
+      <c r="H44" s="188"/>
+      <c r="I44" s="188"/>
+      <c r="J44" s="188"/>
+      <c r="K44" s="188"/>
+      <c r="L44" s="188"/>
+      <c r="M44" s="188"/>
+      <c r="N44" s="188"/>
+      <c r="O44" s="188"/>
+      <c r="P44" s="188"/>
+      <c r="Q44" s="188"/>
+      <c r="R44" s="188"/>
+      <c r="S44" s="189"/>
     </row>
     <row r="45">
-      <c r="A45" s="191">
+      <c r="A45" s="190">
         <v>44.0</v>
       </c>
-      <c r="B45" s="224" t="s">
+      <c r="B45" s="222" t="s">
         <v>483</v>
       </c>
       <c r="C45" s="161" t="s">
@@ -43614,30 +43556,30 @@
       <c r="D45" s="161" t="s">
         <v>520</v>
       </c>
-      <c r="E45" s="209" t="s">
+      <c r="E45" s="208" t="s">
         <v>771</v>
       </c>
       <c r="F45" s="163">
         <v>7.7719062173E10</v>
       </c>
-      <c r="G45" s="194" t="s">
+      <c r="G45" s="193" t="s">
         <v>784</v>
       </c>
-      <c r="H45" s="196"/>
-      <c r="I45" s="196"/>
-      <c r="J45" s="196"/>
-      <c r="K45" s="196"/>
-      <c r="L45" s="196"/>
-      <c r="M45" s="196"/>
-      <c r="N45" s="196"/>
-      <c r="O45" s="196"/>
-      <c r="P45" s="196"/>
-      <c r="Q45" s="196"/>
-      <c r="R45" s="196"/>
-      <c r="S45" s="197"/>
+      <c r="H45" s="195"/>
+      <c r="I45" s="195"/>
+      <c r="J45" s="195"/>
+      <c r="K45" s="195"/>
+      <c r="L45" s="195"/>
+      <c r="M45" s="195"/>
+      <c r="N45" s="195"/>
+      <c r="O45" s="195"/>
+      <c r="P45" s="195"/>
+      <c r="Q45" s="195"/>
+      <c r="R45" s="195"/>
+      <c r="S45" s="196"/>
     </row>
     <row r="46">
-      <c r="A46" s="198">
+      <c r="A46" s="197">
         <v>45.0</v>
       </c>
       <c r="B46" s="164" t="s">
@@ -43649,30 +43591,30 @@
       <c r="D46" s="164" t="s">
         <v>630</v>
       </c>
-      <c r="E46" s="209" t="s">
+      <c r="E46" s="208" t="s">
         <v>771</v>
       </c>
       <c r="F46" s="165">
         <v>7.710609229E9</v>
       </c>
-      <c r="G46" s="194" t="s">
+      <c r="G46" s="193" t="s">
         <v>785</v>
       </c>
-      <c r="H46" s="189"/>
-      <c r="I46" s="189"/>
-      <c r="J46" s="189"/>
-      <c r="K46" s="189"/>
-      <c r="L46" s="189"/>
-      <c r="M46" s="189"/>
-      <c r="N46" s="189"/>
-      <c r="O46" s="189"/>
-      <c r="P46" s="189"/>
-      <c r="Q46" s="189"/>
-      <c r="R46" s="189"/>
-      <c r="S46" s="190"/>
+      <c r="H46" s="188"/>
+      <c r="I46" s="188"/>
+      <c r="J46" s="188"/>
+      <c r="K46" s="188"/>
+      <c r="L46" s="188"/>
+      <c r="M46" s="188"/>
+      <c r="N46" s="188"/>
+      <c r="O46" s="188"/>
+      <c r="P46" s="188"/>
+      <c r="Q46" s="188"/>
+      <c r="R46" s="188"/>
+      <c r="S46" s="189"/>
     </row>
     <row r="47">
-      <c r="A47" s="191">
+      <c r="A47" s="190">
         <v>46.0</v>
       </c>
       <c r="B47" s="133" t="s">
@@ -43684,30 +43626,30 @@
       <c r="D47" s="133" t="s">
         <v>592</v>
       </c>
-      <c r="E47" s="209" t="s">
+      <c r="E47" s="208" t="s">
         <v>771</v>
       </c>
       <c r="F47" s="135">
         <v>7.7775223885E10</v>
       </c>
-      <c r="G47" s="194" t="s">
+      <c r="G47" s="193" t="s">
         <v>786</v>
       </c>
-      <c r="H47" s="196"/>
-      <c r="I47" s="196"/>
-      <c r="J47" s="196"/>
-      <c r="K47" s="196"/>
-      <c r="L47" s="196"/>
-      <c r="M47" s="196"/>
-      <c r="N47" s="196"/>
-      <c r="O47" s="196"/>
-      <c r="P47" s="196"/>
-      <c r="Q47" s="196"/>
-      <c r="R47" s="196"/>
-      <c r="S47" s="197"/>
+      <c r="H47" s="195"/>
+      <c r="I47" s="195"/>
+      <c r="J47" s="195"/>
+      <c r="K47" s="195"/>
+      <c r="L47" s="195"/>
+      <c r="M47" s="195"/>
+      <c r="N47" s="195"/>
+      <c r="O47" s="195"/>
+      <c r="P47" s="195"/>
+      <c r="Q47" s="195"/>
+      <c r="R47" s="195"/>
+      <c r="S47" s="196"/>
     </row>
     <row r="48">
-      <c r="A48" s="198">
+      <c r="A48" s="197">
         <v>47.0</v>
       </c>
       <c r="B48" s="138" t="s">
@@ -43719,33 +43661,33 @@
       <c r="D48" s="138" t="s">
         <v>513</v>
       </c>
-      <c r="E48" s="209" t="s">
+      <c r="E48" s="208" t="s">
         <v>771</v>
       </c>
       <c r="F48" s="129">
         <v>7.7711886438E10</v>
       </c>
-      <c r="G48" s="194" t="s">
+      <c r="G48" s="193" t="s">
         <v>787</v>
       </c>
-      <c r="H48" s="189"/>
-      <c r="I48" s="189"/>
-      <c r="J48" s="189"/>
-      <c r="K48" s="189"/>
-      <c r="L48" s="189"/>
-      <c r="M48" s="189"/>
-      <c r="N48" s="189"/>
-      <c r="O48" s="189"/>
-      <c r="P48" s="189"/>
-      <c r="Q48" s="189"/>
-      <c r="R48" s="189"/>
-      <c r="S48" s="190"/>
+      <c r="H48" s="188"/>
+      <c r="I48" s="188"/>
+      <c r="J48" s="188"/>
+      <c r="K48" s="188"/>
+      <c r="L48" s="188"/>
+      <c r="M48" s="188"/>
+      <c r="N48" s="188"/>
+      <c r="O48" s="188"/>
+      <c r="P48" s="188"/>
+      <c r="Q48" s="188"/>
+      <c r="R48" s="188"/>
+      <c r="S48" s="189"/>
     </row>
     <row r="49">
-      <c r="A49" s="191">
+      <c r="A49" s="190">
         <v>48.0</v>
       </c>
-      <c r="B49" s="211" t="s">
+      <c r="B49" s="209" t="s">
         <v>627</v>
       </c>
       <c r="C49" s="133" t="s">
@@ -43754,30 +43696,30 @@
       <c r="D49" s="133" t="s">
         <v>517</v>
       </c>
-      <c r="E49" s="209" t="s">
+      <c r="E49" s="208" t="s">
         <v>771</v>
       </c>
       <c r="F49" s="135">
         <v>7.7753480121E10</v>
       </c>
-      <c r="G49" s="194" t="s">
+      <c r="G49" s="193" t="s">
         <v>788</v>
       </c>
-      <c r="H49" s="196"/>
-      <c r="I49" s="196"/>
-      <c r="J49" s="196"/>
-      <c r="K49" s="196"/>
-      <c r="L49" s="196"/>
-      <c r="M49" s="196"/>
-      <c r="N49" s="196"/>
-      <c r="O49" s="196"/>
-      <c r="P49" s="196"/>
-      <c r="Q49" s="196"/>
-      <c r="R49" s="196"/>
-      <c r="S49" s="197"/>
+      <c r="H49" s="195"/>
+      <c r="I49" s="195"/>
+      <c r="J49" s="195"/>
+      <c r="K49" s="195"/>
+      <c r="L49" s="195"/>
+      <c r="M49" s="195"/>
+      <c r="N49" s="195"/>
+      <c r="O49" s="195"/>
+      <c r="P49" s="195"/>
+      <c r="Q49" s="195"/>
+      <c r="R49" s="195"/>
+      <c r="S49" s="196"/>
     </row>
     <row r="50">
-      <c r="A50" s="198">
+      <c r="A50" s="197">
         <v>49.0</v>
       </c>
       <c r="B50" s="138" t="s">
@@ -43789,33 +43731,33 @@
       <c r="D50" s="138" t="s">
         <v>546</v>
       </c>
-      <c r="E50" s="209" t="s">
+      <c r="E50" s="208" t="s">
         <v>771</v>
       </c>
       <c r="F50" s="129">
         <v>7.747930565E10</v>
       </c>
-      <c r="G50" s="194" t="s">
+      <c r="G50" s="193" t="s">
         <v>789</v>
       </c>
-      <c r="H50" s="189"/>
-      <c r="I50" s="189"/>
-      <c r="J50" s="189"/>
-      <c r="K50" s="189"/>
-      <c r="L50" s="189"/>
-      <c r="M50" s="189"/>
-      <c r="N50" s="189"/>
-      <c r="O50" s="189"/>
-      <c r="P50" s="189"/>
-      <c r="Q50" s="189"/>
-      <c r="R50" s="189"/>
-      <c r="S50" s="190"/>
+      <c r="H50" s="188"/>
+      <c r="I50" s="188"/>
+      <c r="J50" s="188"/>
+      <c r="K50" s="188"/>
+      <c r="L50" s="188"/>
+      <c r="M50" s="188"/>
+      <c r="N50" s="188"/>
+      <c r="O50" s="188"/>
+      <c r="P50" s="188"/>
+      <c r="Q50" s="188"/>
+      <c r="R50" s="188"/>
+      <c r="S50" s="189"/>
     </row>
     <row r="51">
-      <c r="A51" s="191">
+      <c r="A51" s="190">
         <v>50.0</v>
       </c>
-      <c r="B51" s="211" t="s">
+      <c r="B51" s="209" t="s">
         <v>624</v>
       </c>
       <c r="C51" s="133" t="s">
@@ -43824,30 +43766,30 @@
       <c r="D51" s="133" t="s">
         <v>517</v>
       </c>
-      <c r="E51" s="209" t="s">
+      <c r="E51" s="208" t="s">
         <v>771</v>
       </c>
       <c r="F51" s="135" t="s">
         <v>626</v>
       </c>
-      <c r="G51" s="194" t="s">
+      <c r="G51" s="193" t="s">
         <v>790</v>
       </c>
-      <c r="H51" s="196"/>
-      <c r="I51" s="196"/>
-      <c r="J51" s="196"/>
-      <c r="K51" s="196"/>
-      <c r="L51" s="196"/>
-      <c r="M51" s="196"/>
-      <c r="N51" s="196"/>
-      <c r="O51" s="196"/>
-      <c r="P51" s="196"/>
-      <c r="Q51" s="196"/>
-      <c r="R51" s="196"/>
-      <c r="S51" s="197"/>
+      <c r="H51" s="195"/>
+      <c r="I51" s="195"/>
+      <c r="J51" s="195"/>
+      <c r="K51" s="195"/>
+      <c r="L51" s="195"/>
+      <c r="M51" s="195"/>
+      <c r="N51" s="195"/>
+      <c r="O51" s="195"/>
+      <c r="P51" s="195"/>
+      <c r="Q51" s="195"/>
+      <c r="R51" s="195"/>
+      <c r="S51" s="196"/>
     </row>
     <row r="52">
-      <c r="A52" s="198">
+      <c r="A52" s="197">
         <v>51.0</v>
       </c>
       <c r="B52" s="138" t="s">
@@ -43859,63 +43801,63 @@
       <c r="D52" s="138" t="s">
         <v>646</v>
       </c>
-      <c r="E52" s="209" t="s">
+      <c r="E52" s="208" t="s">
         <v>771</v>
       </c>
       <c r="F52" s="129">
         <v>7.7756396005E10</v>
       </c>
-      <c r="G52" s="194" t="s">
+      <c r="G52" s="193" t="s">
         <v>791</v>
       </c>
-      <c r="H52" s="189"/>
-      <c r="I52" s="189"/>
-      <c r="J52" s="189"/>
-      <c r="K52" s="189"/>
-      <c r="L52" s="189"/>
-      <c r="M52" s="189"/>
-      <c r="N52" s="189"/>
-      <c r="O52" s="189"/>
-      <c r="P52" s="189"/>
-      <c r="Q52" s="189"/>
-      <c r="R52" s="189"/>
-      <c r="S52" s="190"/>
+      <c r="H52" s="188"/>
+      <c r="I52" s="188"/>
+      <c r="J52" s="188"/>
+      <c r="K52" s="188"/>
+      <c r="L52" s="188"/>
+      <c r="M52" s="188"/>
+      <c r="N52" s="188"/>
+      <c r="O52" s="188"/>
+      <c r="P52" s="188"/>
+      <c r="Q52" s="188"/>
+      <c r="R52" s="188"/>
+      <c r="S52" s="189"/>
     </row>
     <row r="53">
-      <c r="A53" s="191">
+      <c r="A53" s="190">
         <v>52.0</v>
       </c>
-      <c r="B53" s="211" t="s">
+      <c r="B53" s="209" t="s">
         <v>678</v>
       </c>
       <c r="C53" s="133" t="s">
         <v>516</v>
       </c>
       <c r="D53" s="149"/>
-      <c r="E53" s="209" t="s">
+      <c r="E53" s="208" t="s">
         <v>792</v>
       </c>
       <c r="F53" s="135" t="s">
         <v>680</v>
       </c>
-      <c r="G53" s="214" t="s">
+      <c r="G53" s="212" t="s">
         <v>793</v>
       </c>
-      <c r="H53" s="215"/>
-      <c r="I53" s="215"/>
-      <c r="J53" s="215"/>
-      <c r="K53" s="215"/>
-      <c r="L53" s="215"/>
-      <c r="M53" s="215"/>
-      <c r="N53" s="215"/>
-      <c r="O53" s="215"/>
-      <c r="P53" s="215"/>
-      <c r="Q53" s="215"/>
-      <c r="R53" s="215"/>
-      <c r="S53" s="216"/>
+      <c r="H53" s="213"/>
+      <c r="I53" s="213"/>
+      <c r="J53" s="213"/>
+      <c r="K53" s="213"/>
+      <c r="L53" s="213"/>
+      <c r="M53" s="213"/>
+      <c r="N53" s="213"/>
+      <c r="O53" s="213"/>
+      <c r="P53" s="213"/>
+      <c r="Q53" s="213"/>
+      <c r="R53" s="213"/>
+      <c r="S53" s="214"/>
     </row>
     <row r="54">
-      <c r="A54" s="198">
+      <c r="A54" s="197">
         <v>53.0</v>
       </c>
       <c r="B54" s="138" t="s">
@@ -43927,63 +43869,63 @@
       <c r="D54" s="138" t="s">
         <v>669</v>
       </c>
-      <c r="E54" s="209" t="s">
+      <c r="E54" s="208" t="s">
         <v>792</v>
       </c>
       <c r="F54" s="129" t="s">
         <v>674</v>
       </c>
-      <c r="G54" s="214" t="s">
+      <c r="G54" s="212" t="s">
         <v>794</v>
       </c>
-      <c r="H54" s="218"/>
-      <c r="I54" s="218"/>
-      <c r="J54" s="218"/>
-      <c r="K54" s="218"/>
-      <c r="L54" s="218"/>
-      <c r="M54" s="218"/>
-      <c r="N54" s="218"/>
-      <c r="O54" s="218"/>
-      <c r="P54" s="218"/>
-      <c r="Q54" s="218"/>
-      <c r="R54" s="218"/>
-      <c r="S54" s="219"/>
+      <c r="H54" s="216"/>
+      <c r="I54" s="216"/>
+      <c r="J54" s="216"/>
+      <c r="K54" s="216"/>
+      <c r="L54" s="216"/>
+      <c r="M54" s="216"/>
+      <c r="N54" s="216"/>
+      <c r="O54" s="216"/>
+      <c r="P54" s="216"/>
+      <c r="Q54" s="216"/>
+      <c r="R54" s="216"/>
+      <c r="S54" s="217"/>
     </row>
     <row r="55">
-      <c r="A55" s="191">
+      <c r="A55" s="190">
         <v>54.0</v>
       </c>
-      <c r="B55" s="211" t="s">
+      <c r="B55" s="209" t="s">
         <v>423</v>
       </c>
       <c r="C55" s="133" t="s">
         <v>516</v>
       </c>
       <c r="D55" s="149"/>
-      <c r="E55" s="209" t="s">
+      <c r="E55" s="208" t="s">
         <v>792</v>
       </c>
       <c r="F55" s="135">
         <v>7.7477185969E10</v>
       </c>
-      <c r="G55" s="214" t="s">
+      <c r="G55" s="212" t="s">
         <v>795</v>
       </c>
-      <c r="H55" s="215"/>
-      <c r="I55" s="215"/>
-      <c r="J55" s="215"/>
-      <c r="K55" s="215"/>
-      <c r="L55" s="215"/>
-      <c r="M55" s="215"/>
-      <c r="N55" s="215"/>
-      <c r="O55" s="215"/>
-      <c r="P55" s="215"/>
-      <c r="Q55" s="215"/>
-      <c r="R55" s="215"/>
-      <c r="S55" s="216"/>
+      <c r="H55" s="213"/>
+      <c r="I55" s="213"/>
+      <c r="J55" s="213"/>
+      <c r="K55" s="213"/>
+      <c r="L55" s="213"/>
+      <c r="M55" s="213"/>
+      <c r="N55" s="213"/>
+      <c r="O55" s="213"/>
+      <c r="P55" s="213"/>
+      <c r="Q55" s="213"/>
+      <c r="R55" s="213"/>
+      <c r="S55" s="214"/>
     </row>
     <row r="56">
-      <c r="A56" s="198">
+      <c r="A56" s="197">
         <v>55.0</v>
       </c>
       <c r="B56" s="138" t="s">
@@ -43995,30 +43937,30 @@
       <c r="D56" s="138" t="s">
         <v>665</v>
       </c>
-      <c r="E56" s="209" t="s">
+      <c r="E56" s="208" t="s">
         <v>792</v>
       </c>
       <c r="F56" s="156" t="s">
         <v>667</v>
       </c>
-      <c r="G56" s="214" t="s">
+      <c r="G56" s="212" t="s">
         <v>796</v>
       </c>
-      <c r="H56" s="218"/>
-      <c r="I56" s="218"/>
-      <c r="J56" s="218"/>
-      <c r="K56" s="218"/>
-      <c r="L56" s="218"/>
-      <c r="M56" s="218"/>
-      <c r="N56" s="218"/>
-      <c r="O56" s="218"/>
-      <c r="P56" s="218"/>
-      <c r="Q56" s="218"/>
-      <c r="R56" s="218"/>
-      <c r="S56" s="219"/>
+      <c r="H56" s="216"/>
+      <c r="I56" s="216"/>
+      <c r="J56" s="216"/>
+      <c r="K56" s="216"/>
+      <c r="L56" s="216"/>
+      <c r="M56" s="216"/>
+      <c r="N56" s="216"/>
+      <c r="O56" s="216"/>
+      <c r="P56" s="216"/>
+      <c r="Q56" s="216"/>
+      <c r="R56" s="216"/>
+      <c r="S56" s="217"/>
     </row>
     <row r="57">
-      <c r="A57" s="191">
+      <c r="A57" s="190">
         <v>56.0</v>
       </c>
       <c r="B57" s="133" t="s">
@@ -44030,30 +43972,30 @@
       <c r="D57" s="133" t="s">
         <v>661</v>
       </c>
-      <c r="E57" s="209" t="s">
+      <c r="E57" s="208" t="s">
         <v>792</v>
       </c>
       <c r="F57" s="151" t="s">
         <v>663</v>
       </c>
-      <c r="G57" s="214" t="s">
+      <c r="G57" s="212" t="s">
         <v>797</v>
       </c>
-      <c r="H57" s="215"/>
-      <c r="I57" s="215"/>
-      <c r="J57" s="215"/>
-      <c r="K57" s="215"/>
-      <c r="L57" s="215"/>
-      <c r="M57" s="215"/>
-      <c r="N57" s="215"/>
-      <c r="O57" s="215"/>
-      <c r="P57" s="215"/>
-      <c r="Q57" s="215"/>
-      <c r="R57" s="215"/>
-      <c r="S57" s="216"/>
+      <c r="H57" s="213"/>
+      <c r="I57" s="213"/>
+      <c r="J57" s="213"/>
+      <c r="K57" s="213"/>
+      <c r="L57" s="213"/>
+      <c r="M57" s="213"/>
+      <c r="N57" s="213"/>
+      <c r="O57" s="213"/>
+      <c r="P57" s="213"/>
+      <c r="Q57" s="213"/>
+      <c r="R57" s="213"/>
+      <c r="S57" s="214"/>
     </row>
     <row r="58">
-      <c r="A58" s="198">
+      <c r="A58" s="197">
         <v>57.0</v>
       </c>
       <c r="B58" s="138" t="s">
@@ -44065,30 +44007,30 @@
       <c r="D58" s="138" t="s">
         <v>669</v>
       </c>
-      <c r="E58" s="209" t="s">
+      <c r="E58" s="208" t="s">
         <v>792</v>
       </c>
       <c r="F58" s="129" t="s">
         <v>671</v>
       </c>
-      <c r="G58" s="214" t="s">
+      <c r="G58" s="212" t="s">
         <v>799</v>
       </c>
-      <c r="H58" s="218"/>
-      <c r="I58" s="218"/>
-      <c r="J58" s="218"/>
-      <c r="K58" s="218"/>
-      <c r="L58" s="218"/>
-      <c r="M58" s="218"/>
-      <c r="N58" s="218"/>
-      <c r="O58" s="218"/>
-      <c r="P58" s="218"/>
-      <c r="Q58" s="218"/>
-      <c r="R58" s="218"/>
-      <c r="S58" s="219"/>
+      <c r="H58" s="216"/>
+      <c r="I58" s="216"/>
+      <c r="J58" s="216"/>
+      <c r="K58" s="216"/>
+      <c r="L58" s="216"/>
+      <c r="M58" s="216"/>
+      <c r="N58" s="216"/>
+      <c r="O58" s="216"/>
+      <c r="P58" s="216"/>
+      <c r="Q58" s="216"/>
+      <c r="R58" s="216"/>
+      <c r="S58" s="217"/>
     </row>
     <row r="59">
-      <c r="A59" s="191">
+      <c r="A59" s="190">
         <v>58.0</v>
       </c>
       <c r="B59" s="133" t="s">
@@ -44100,30 +44042,30 @@
       <c r="D59" s="133" t="s">
         <v>539</v>
       </c>
-      <c r="E59" s="209" t="s">
+      <c r="E59" s="208" t="s">
         <v>792</v>
       </c>
       <c r="F59" s="135">
         <v>7.7775223892E10</v>
       </c>
-      <c r="G59" s="214" t="s">
+      <c r="G59" s="212" t="s">
         <v>800</v>
       </c>
-      <c r="H59" s="215"/>
-      <c r="I59" s="215"/>
-      <c r="J59" s="215"/>
-      <c r="K59" s="215"/>
-      <c r="L59" s="215"/>
-      <c r="M59" s="215"/>
-      <c r="N59" s="215"/>
-      <c r="O59" s="215"/>
-      <c r="P59" s="215"/>
-      <c r="Q59" s="215"/>
-      <c r="R59" s="215"/>
-      <c r="S59" s="216"/>
+      <c r="H59" s="213"/>
+      <c r="I59" s="213"/>
+      <c r="J59" s="213"/>
+      <c r="K59" s="213"/>
+      <c r="L59" s="213"/>
+      <c r="M59" s="213"/>
+      <c r="N59" s="213"/>
+      <c r="O59" s="213"/>
+      <c r="P59" s="213"/>
+      <c r="Q59" s="213"/>
+      <c r="R59" s="213"/>
+      <c r="S59" s="214"/>
     </row>
     <row r="60">
-      <c r="A60" s="198">
+      <c r="A60" s="197">
         <v>59.0</v>
       </c>
       <c r="B60" s="138" t="s">
@@ -44135,33 +44077,33 @@
       <c r="D60" s="138" t="s">
         <v>508</v>
       </c>
-      <c r="E60" s="209" t="s">
+      <c r="E60" s="208" t="s">
         <v>801</v>
       </c>
       <c r="F60" s="129" t="s">
         <v>683</v>
       </c>
-      <c r="G60" s="194" t="s">
+      <c r="G60" s="193" t="s">
         <v>802</v>
       </c>
-      <c r="H60" s="189"/>
-      <c r="I60" s="189"/>
-      <c r="J60" s="189"/>
-      <c r="K60" s="189"/>
-      <c r="L60" s="189"/>
-      <c r="M60" s="189"/>
-      <c r="N60" s="189"/>
-      <c r="O60" s="189"/>
-      <c r="P60" s="189"/>
-      <c r="Q60" s="189"/>
-      <c r="R60" s="189"/>
-      <c r="S60" s="190"/>
+      <c r="H60" s="188"/>
+      <c r="I60" s="188"/>
+      <c r="J60" s="188"/>
+      <c r="K60" s="188"/>
+      <c r="L60" s="188"/>
+      <c r="M60" s="188"/>
+      <c r="N60" s="188"/>
+      <c r="O60" s="188"/>
+      <c r="P60" s="188"/>
+      <c r="Q60" s="188"/>
+      <c r="R60" s="188"/>
+      <c r="S60" s="189"/>
     </row>
     <row r="61">
-      <c r="A61" s="191">
+      <c r="A61" s="190">
         <v>60.0</v>
       </c>
-      <c r="B61" s="211" t="s">
+      <c r="B61" s="209" t="s">
         <v>393</v>
       </c>
       <c r="C61" s="133" t="s">
@@ -44170,33 +44112,33 @@
       <c r="D61" s="133" t="s">
         <v>517</v>
       </c>
-      <c r="E61" s="209" t="s">
+      <c r="E61" s="208" t="s">
         <v>427</v>
       </c>
       <c r="F61" s="135">
         <v>7.7078750345E10</v>
       </c>
-      <c r="G61" s="194" t="s">
+      <c r="G61" s="193" t="s">
         <v>803</v>
       </c>
-      <c r="H61" s="196"/>
-      <c r="I61" s="196"/>
-      <c r="J61" s="196"/>
-      <c r="K61" s="196"/>
-      <c r="L61" s="196"/>
-      <c r="M61" s="196"/>
-      <c r="N61" s="196"/>
-      <c r="O61" s="196"/>
-      <c r="P61" s="196"/>
-      <c r="Q61" s="196"/>
-      <c r="R61" s="196"/>
-      <c r="S61" s="197"/>
+      <c r="H61" s="195"/>
+      <c r="I61" s="195"/>
+      <c r="J61" s="195"/>
+      <c r="K61" s="195"/>
+      <c r="L61" s="195"/>
+      <c r="M61" s="195"/>
+      <c r="N61" s="195"/>
+      <c r="O61" s="195"/>
+      <c r="P61" s="195"/>
+      <c r="Q61" s="195"/>
+      <c r="R61" s="195"/>
+      <c r="S61" s="196"/>
     </row>
     <row r="62">
-      <c r="A62" s="198">
+      <c r="A62" s="197">
         <v>61.0</v>
       </c>
-      <c r="B62" s="225" t="s">
+      <c r="B62" s="223" t="s">
         <v>346</v>
       </c>
       <c r="C62" s="138" t="s">
@@ -44205,30 +44147,30 @@
       <c r="D62" s="138" t="s">
         <v>520</v>
       </c>
-      <c r="E62" s="209" t="s">
+      <c r="E62" s="208" t="s">
         <v>427</v>
       </c>
       <c r="F62" s="129">
         <v>7.7057418708E10</v>
       </c>
-      <c r="G62" s="194" t="s">
+      <c r="G62" s="193" t="s">
         <v>804</v>
       </c>
-      <c r="H62" s="189"/>
-      <c r="I62" s="189"/>
-      <c r="J62" s="189"/>
-      <c r="K62" s="189"/>
-      <c r="L62" s="189"/>
-      <c r="M62" s="189"/>
-      <c r="N62" s="189"/>
-      <c r="O62" s="189"/>
-      <c r="P62" s="189"/>
-      <c r="Q62" s="189"/>
-      <c r="R62" s="189"/>
-      <c r="S62" s="190"/>
+      <c r="H62" s="188"/>
+      <c r="I62" s="188"/>
+      <c r="J62" s="188"/>
+      <c r="K62" s="188"/>
+      <c r="L62" s="188"/>
+      <c r="M62" s="188"/>
+      <c r="N62" s="188"/>
+      <c r="O62" s="188"/>
+      <c r="P62" s="188"/>
+      <c r="Q62" s="188"/>
+      <c r="R62" s="188"/>
+      <c r="S62" s="189"/>
     </row>
     <row r="63">
-      <c r="A63" s="191">
+      <c r="A63" s="190">
         <v>62.0</v>
       </c>
       <c r="B63" s="133" t="s">
@@ -44240,33 +44182,33 @@
       <c r="D63" s="133" t="s">
         <v>706</v>
       </c>
-      <c r="E63" s="209" t="s">
+      <c r="E63" s="208" t="s">
         <v>427</v>
       </c>
       <c r="F63" s="135">
         <v>7.7057455796E10</v>
       </c>
-      <c r="G63" s="194" t="s">
+      <c r="G63" s="193" t="s">
         <v>805</v>
       </c>
-      <c r="H63" s="196"/>
-      <c r="I63" s="196"/>
-      <c r="J63" s="196"/>
-      <c r="K63" s="196"/>
-      <c r="L63" s="196"/>
-      <c r="M63" s="196"/>
-      <c r="N63" s="196"/>
-      <c r="O63" s="196"/>
-      <c r="P63" s="196"/>
-      <c r="Q63" s="196"/>
-      <c r="R63" s="196"/>
-      <c r="S63" s="197"/>
+      <c r="H63" s="195"/>
+      <c r="I63" s="195"/>
+      <c r="J63" s="195"/>
+      <c r="K63" s="195"/>
+      <c r="L63" s="195"/>
+      <c r="M63" s="195"/>
+      <c r="N63" s="195"/>
+      <c r="O63" s="195"/>
+      <c r="P63" s="195"/>
+      <c r="Q63" s="195"/>
+      <c r="R63" s="195"/>
+      <c r="S63" s="196"/>
     </row>
     <row r="64">
-      <c r="A64" s="198">
+      <c r="A64" s="197">
         <v>63.0</v>
       </c>
-      <c r="B64" s="208" t="s">
+      <c r="B64" s="207" t="s">
         <v>380</v>
       </c>
       <c r="C64" s="138" t="s">
@@ -44275,33 +44217,33 @@
       <c r="D64" s="138" t="s">
         <v>517</v>
       </c>
-      <c r="E64" s="209" t="s">
+      <c r="E64" s="208" t="s">
         <v>427</v>
       </c>
       <c r="F64" s="129">
         <v>7.7772285335E10</v>
       </c>
-      <c r="G64" s="194" t="s">
+      <c r="G64" s="193" t="s">
         <v>806</v>
       </c>
-      <c r="H64" s="189"/>
-      <c r="I64" s="189"/>
-      <c r="J64" s="189"/>
-      <c r="K64" s="189"/>
-      <c r="L64" s="189"/>
-      <c r="M64" s="189"/>
-      <c r="N64" s="189"/>
-      <c r="O64" s="189"/>
-      <c r="P64" s="189"/>
-      <c r="Q64" s="189"/>
-      <c r="R64" s="189"/>
-      <c r="S64" s="190"/>
+      <c r="H64" s="188"/>
+      <c r="I64" s="188"/>
+      <c r="J64" s="188"/>
+      <c r="K64" s="188"/>
+      <c r="L64" s="188"/>
+      <c r="M64" s="188"/>
+      <c r="N64" s="188"/>
+      <c r="O64" s="188"/>
+      <c r="P64" s="188"/>
+      <c r="Q64" s="188"/>
+      <c r="R64" s="188"/>
+      <c r="S64" s="189"/>
     </row>
     <row r="65">
-      <c r="A65" s="191">
+      <c r="A65" s="190">
         <v>64.0</v>
       </c>
-      <c r="B65" s="211" t="s">
+      <c r="B65" s="209" t="s">
         <v>376</v>
       </c>
       <c r="C65" s="133" t="s">
@@ -44310,30 +44252,30 @@
       <c r="D65" s="133" t="s">
         <v>517</v>
       </c>
-      <c r="E65" s="209" t="s">
+      <c r="E65" s="208" t="s">
         <v>427</v>
       </c>
       <c r="F65" s="135">
         <v>7.7761023037E10</v>
       </c>
-      <c r="G65" s="194" t="s">
+      <c r="G65" s="193" t="s">
         <v>807</v>
       </c>
-      <c r="H65" s="196"/>
-      <c r="I65" s="196"/>
-      <c r="J65" s="196"/>
-      <c r="K65" s="196"/>
-      <c r="L65" s="196"/>
-      <c r="M65" s="196"/>
-      <c r="N65" s="196"/>
-      <c r="O65" s="196"/>
-      <c r="P65" s="196"/>
-      <c r="Q65" s="196"/>
-      <c r="R65" s="196"/>
-      <c r="S65" s="197"/>
+      <c r="H65" s="195"/>
+      <c r="I65" s="195"/>
+      <c r="J65" s="195"/>
+      <c r="K65" s="195"/>
+      <c r="L65" s="195"/>
+      <c r="M65" s="195"/>
+      <c r="N65" s="195"/>
+      <c r="O65" s="195"/>
+      <c r="P65" s="195"/>
+      <c r="Q65" s="195"/>
+      <c r="R65" s="195"/>
+      <c r="S65" s="196"/>
     </row>
     <row r="66">
-      <c r="A66" s="198">
+      <c r="A66" s="197">
         <v>65.0</v>
       </c>
       <c r="B66" s="138" t="s">
@@ -44345,33 +44287,33 @@
       <c r="D66" s="138" t="s">
         <v>699</v>
       </c>
-      <c r="E66" s="209" t="s">
+      <c r="E66" s="208" t="s">
         <v>427</v>
       </c>
       <c r="F66" s="129">
         <v>7.7057454959E10</v>
       </c>
-      <c r="G66" s="194" t="s">
+      <c r="G66" s="193" t="s">
         <v>803</v>
       </c>
-      <c r="H66" s="189"/>
-      <c r="I66" s="189"/>
-      <c r="J66" s="189"/>
-      <c r="K66" s="189"/>
-      <c r="L66" s="189"/>
-      <c r="M66" s="189"/>
-      <c r="N66" s="189"/>
-      <c r="O66" s="189"/>
-      <c r="P66" s="189"/>
-      <c r="Q66" s="189"/>
-      <c r="R66" s="189"/>
-      <c r="S66" s="190"/>
+      <c r="H66" s="188"/>
+      <c r="I66" s="188"/>
+      <c r="J66" s="188"/>
+      <c r="K66" s="188"/>
+      <c r="L66" s="188"/>
+      <c r="M66" s="188"/>
+      <c r="N66" s="188"/>
+      <c r="O66" s="188"/>
+      <c r="P66" s="188"/>
+      <c r="Q66" s="188"/>
+      <c r="R66" s="188"/>
+      <c r="S66" s="189"/>
     </row>
     <row r="67">
-      <c r="A67" s="191">
+      <c r="A67" s="190">
         <v>66.0</v>
       </c>
-      <c r="B67" s="211" t="s">
+      <c r="B67" s="209" t="s">
         <v>342</v>
       </c>
       <c r="C67" s="133" t="s">
@@ -44380,30 +44322,30 @@
       <c r="D67" s="133" t="s">
         <v>520</v>
       </c>
-      <c r="E67" s="209" t="s">
+      <c r="E67" s="208" t="s">
         <v>427</v>
       </c>
       <c r="F67" s="135">
         <v>7.7026615811E10</v>
       </c>
-      <c r="G67" s="194" t="s">
+      <c r="G67" s="193" t="s">
         <v>808</v>
       </c>
-      <c r="H67" s="196"/>
-      <c r="I67" s="196"/>
-      <c r="J67" s="196"/>
-      <c r="K67" s="196"/>
-      <c r="L67" s="196"/>
-      <c r="M67" s="196"/>
-      <c r="N67" s="196"/>
-      <c r="O67" s="196"/>
-      <c r="P67" s="196"/>
-      <c r="Q67" s="196"/>
-      <c r="R67" s="196"/>
-      <c r="S67" s="197"/>
+      <c r="H67" s="195"/>
+      <c r="I67" s="195"/>
+      <c r="J67" s="195"/>
+      <c r="K67" s="195"/>
+      <c r="L67" s="195"/>
+      <c r="M67" s="195"/>
+      <c r="N67" s="195"/>
+      <c r="O67" s="195"/>
+      <c r="P67" s="195"/>
+      <c r="Q67" s="195"/>
+      <c r="R67" s="195"/>
+      <c r="S67" s="196"/>
     </row>
     <row r="68">
-      <c r="A68" s="198">
+      <c r="A68" s="197">
         <v>67.0</v>
       </c>
       <c r="B68" s="138" t="s">
@@ -44415,33 +44357,33 @@
       <c r="D68" s="138" t="s">
         <v>508</v>
       </c>
-      <c r="E68" s="209" t="s">
+      <c r="E68" s="208" t="s">
         <v>809</v>
       </c>
       <c r="F68" s="129" t="s">
         <v>690</v>
       </c>
-      <c r="G68" s="194" t="s">
+      <c r="G68" s="193" t="s">
         <v>810</v>
       </c>
-      <c r="H68" s="189"/>
-      <c r="I68" s="189"/>
-      <c r="J68" s="189"/>
-      <c r="K68" s="189"/>
-      <c r="L68" s="189"/>
-      <c r="M68" s="189"/>
-      <c r="N68" s="189"/>
-      <c r="O68" s="189"/>
-      <c r="P68" s="189"/>
-      <c r="Q68" s="189"/>
-      <c r="R68" s="189"/>
-      <c r="S68" s="190"/>
+      <c r="H68" s="188"/>
+      <c r="I68" s="188"/>
+      <c r="J68" s="188"/>
+      <c r="K68" s="188"/>
+      <c r="L68" s="188"/>
+      <c r="M68" s="188"/>
+      <c r="N68" s="188"/>
+      <c r="O68" s="188"/>
+      <c r="P68" s="188"/>
+      <c r="Q68" s="188"/>
+      <c r="R68" s="188"/>
+      <c r="S68" s="189"/>
     </row>
     <row r="69">
-      <c r="A69" s="191">
+      <c r="A69" s="190">
         <v>68.0</v>
       </c>
-      <c r="B69" s="211" t="s">
+      <c r="B69" s="209" t="s">
         <v>299</v>
       </c>
       <c r="C69" s="133" t="s">
@@ -44450,33 +44392,33 @@
       <c r="D69" s="133" t="s">
         <v>520</v>
       </c>
-      <c r="E69" s="209" t="s">
+      <c r="E69" s="208" t="s">
         <v>427</v>
       </c>
       <c r="F69" s="135">
         <v>7.7761000911E10</v>
       </c>
-      <c r="G69" s="194" t="s">
+      <c r="G69" s="193" t="s">
         <v>806</v>
       </c>
-      <c r="H69" s="196"/>
-      <c r="I69" s="196"/>
-      <c r="J69" s="196"/>
-      <c r="K69" s="196"/>
-      <c r="L69" s="196"/>
-      <c r="M69" s="196"/>
-      <c r="N69" s="196"/>
-      <c r="O69" s="196"/>
-      <c r="P69" s="196"/>
-      <c r="Q69" s="196"/>
-      <c r="R69" s="196"/>
-      <c r="S69" s="197"/>
+      <c r="H69" s="195"/>
+      <c r="I69" s="195"/>
+      <c r="J69" s="195"/>
+      <c r="K69" s="195"/>
+      <c r="L69" s="195"/>
+      <c r="M69" s="195"/>
+      <c r="N69" s="195"/>
+      <c r="O69" s="195"/>
+      <c r="P69" s="195"/>
+      <c r="Q69" s="195"/>
+      <c r="R69" s="195"/>
+      <c r="S69" s="196"/>
     </row>
     <row r="70">
-      <c r="A70" s="198">
+      <c r="A70" s="197">
         <v>69.0</v>
       </c>
-      <c r="B70" s="208" t="s">
+      <c r="B70" s="207" t="s">
         <v>401</v>
       </c>
       <c r="C70" s="138" t="s">
@@ -44485,30 +44427,30 @@
       <c r="D70" s="138" t="s">
         <v>517</v>
       </c>
-      <c r="E70" s="209" t="s">
+      <c r="E70" s="208" t="s">
         <v>427</v>
       </c>
       <c r="F70" s="129">
         <v>7.702214418E10</v>
       </c>
-      <c r="G70" s="194" t="s">
+      <c r="G70" s="193" t="s">
         <v>803</v>
       </c>
-      <c r="H70" s="189"/>
-      <c r="I70" s="189"/>
-      <c r="J70" s="189"/>
-      <c r="K70" s="189"/>
-      <c r="L70" s="189"/>
-      <c r="M70" s="189"/>
-      <c r="N70" s="189"/>
-      <c r="O70" s="189"/>
-      <c r="P70" s="189"/>
-      <c r="Q70" s="189"/>
-      <c r="R70" s="189"/>
-      <c r="S70" s="190"/>
+      <c r="H70" s="188"/>
+      <c r="I70" s="188"/>
+      <c r="J70" s="188"/>
+      <c r="K70" s="188"/>
+      <c r="L70" s="188"/>
+      <c r="M70" s="188"/>
+      <c r="N70" s="188"/>
+      <c r="O70" s="188"/>
+      <c r="P70" s="188"/>
+      <c r="Q70" s="188"/>
+      <c r="R70" s="188"/>
+      <c r="S70" s="189"/>
     </row>
     <row r="71">
-      <c r="A71" s="191">
+      <c r="A71" s="190">
         <v>70.0</v>
       </c>
       <c r="B71" s="133" t="s">
@@ -44520,30 +44462,30 @@
       <c r="D71" s="133" t="s">
         <v>699</v>
       </c>
-      <c r="E71" s="209" t="s">
+      <c r="E71" s="208" t="s">
         <v>427</v>
       </c>
       <c r="F71" s="135">
         <v>7.7057455794E10</v>
       </c>
-      <c r="G71" s="194" t="s">
+      <c r="G71" s="193" t="s">
         <v>811</v>
       </c>
-      <c r="H71" s="196"/>
-      <c r="I71" s="196"/>
-      <c r="J71" s="196"/>
-      <c r="K71" s="196"/>
-      <c r="L71" s="196"/>
-      <c r="M71" s="196"/>
-      <c r="N71" s="196"/>
-      <c r="O71" s="196"/>
-      <c r="P71" s="196"/>
-      <c r="Q71" s="196"/>
-      <c r="R71" s="196"/>
-      <c r="S71" s="197"/>
+      <c r="H71" s="195"/>
+      <c r="I71" s="195"/>
+      <c r="J71" s="195"/>
+      <c r="K71" s="195"/>
+      <c r="L71" s="195"/>
+      <c r="M71" s="195"/>
+      <c r="N71" s="195"/>
+      <c r="O71" s="195"/>
+      <c r="P71" s="195"/>
+      <c r="Q71" s="195"/>
+      <c r="R71" s="195"/>
+      <c r="S71" s="196"/>
     </row>
     <row r="72">
-      <c r="A72" s="198">
+      <c r="A72" s="197">
         <v>71.0</v>
       </c>
       <c r="B72" s="138" t="s">
@@ -44555,33 +44497,33 @@
       <c r="D72" s="138" t="s">
         <v>724</v>
       </c>
-      <c r="E72" s="209" t="s">
+      <c r="E72" s="208" t="s">
         <v>415</v>
       </c>
-      <c r="F72" s="226" t="s">
+      <c r="F72" s="224" t="s">
         <v>726</v>
       </c>
-      <c r="G72" s="214" t="s">
+      <c r="G72" s="212" t="s">
         <v>812</v>
       </c>
-      <c r="H72" s="218"/>
-      <c r="I72" s="218"/>
-      <c r="J72" s="218"/>
-      <c r="K72" s="218"/>
-      <c r="L72" s="218"/>
-      <c r="M72" s="218"/>
-      <c r="N72" s="218"/>
-      <c r="O72" s="218"/>
-      <c r="P72" s="218"/>
-      <c r="Q72" s="218"/>
-      <c r="R72" s="218"/>
-      <c r="S72" s="219"/>
+      <c r="H72" s="216"/>
+      <c r="I72" s="216"/>
+      <c r="J72" s="216"/>
+      <c r="K72" s="216"/>
+      <c r="L72" s="216"/>
+      <c r="M72" s="216"/>
+      <c r="N72" s="216"/>
+      <c r="O72" s="216"/>
+      <c r="P72" s="216"/>
+      <c r="Q72" s="216"/>
+      <c r="R72" s="216"/>
+      <c r="S72" s="217"/>
     </row>
     <row r="73">
-      <c r="A73" s="191">
+      <c r="A73" s="190">
         <v>72.0</v>
       </c>
-      <c r="B73" s="211" t="s">
+      <c r="B73" s="209" t="s">
         <v>717</v>
       </c>
       <c r="C73" s="133" t="s">
@@ -44590,30 +44532,30 @@
       <c r="D73" s="133" t="s">
         <v>517</v>
       </c>
-      <c r="E73" s="209" t="s">
+      <c r="E73" s="208" t="s">
         <v>415</v>
       </c>
       <c r="F73" s="135" t="s">
         <v>719</v>
       </c>
-      <c r="G73" s="214" t="s">
+      <c r="G73" s="212" t="s">
         <v>808</v>
       </c>
-      <c r="H73" s="215"/>
-      <c r="I73" s="215"/>
-      <c r="J73" s="215"/>
-      <c r="K73" s="215"/>
-      <c r="L73" s="215"/>
-      <c r="M73" s="215"/>
-      <c r="N73" s="215"/>
-      <c r="O73" s="215"/>
-      <c r="P73" s="215"/>
-      <c r="Q73" s="215"/>
-      <c r="R73" s="215"/>
-      <c r="S73" s="216"/>
+      <c r="H73" s="213"/>
+      <c r="I73" s="213"/>
+      <c r="J73" s="213"/>
+      <c r="K73" s="213"/>
+      <c r="L73" s="213"/>
+      <c r="M73" s="213"/>
+      <c r="N73" s="213"/>
+      <c r="O73" s="213"/>
+      <c r="P73" s="213"/>
+      <c r="Q73" s="213"/>
+      <c r="R73" s="213"/>
+      <c r="S73" s="214"/>
     </row>
     <row r="74">
-      <c r="A74" s="198">
+      <c r="A74" s="197">
         <v>73.0</v>
       </c>
       <c r="B74" s="138" t="s">
@@ -44625,33 +44567,33 @@
       <c r="D74" s="138" t="s">
         <v>710</v>
       </c>
-      <c r="E74" s="209" t="s">
+      <c r="E74" s="208" t="s">
         <v>415</v>
       </c>
       <c r="F74" s="129" t="s">
         <v>712</v>
       </c>
-      <c r="G74" s="214" t="s">
+      <c r="G74" s="212" t="s">
         <v>813</v>
       </c>
-      <c r="H74" s="218"/>
-      <c r="I74" s="218"/>
-      <c r="J74" s="218"/>
-      <c r="K74" s="218"/>
-      <c r="L74" s="218"/>
-      <c r="M74" s="218"/>
-      <c r="N74" s="218"/>
-      <c r="O74" s="218"/>
-      <c r="P74" s="218"/>
-      <c r="Q74" s="218"/>
-      <c r="R74" s="218"/>
-      <c r="S74" s="219"/>
+      <c r="H74" s="216"/>
+      <c r="I74" s="216"/>
+      <c r="J74" s="216"/>
+      <c r="K74" s="216"/>
+      <c r="L74" s="216"/>
+      <c r="M74" s="216"/>
+      <c r="N74" s="216"/>
+      <c r="O74" s="216"/>
+      <c r="P74" s="216"/>
+      <c r="Q74" s="216"/>
+      <c r="R74" s="216"/>
+      <c r="S74" s="217"/>
     </row>
     <row r="75">
-      <c r="A75" s="191">
+      <c r="A75" s="190">
         <v>74.0</v>
       </c>
-      <c r="B75" s="211" t="s">
+      <c r="B75" s="209" t="s">
         <v>414</v>
       </c>
       <c r="C75" s="133" t="s">
@@ -44660,30 +44602,30 @@
       <c r="D75" s="133">
         <v>0.0</v>
       </c>
-      <c r="E75" s="209" t="s">
+      <c r="E75" s="208" t="s">
         <v>415</v>
       </c>
       <c r="F75" s="135">
         <v>7.776100965E10</v>
       </c>
-      <c r="G75" s="214" t="s">
+      <c r="G75" s="212" t="s">
         <v>814</v>
       </c>
-      <c r="H75" s="215"/>
-      <c r="I75" s="215"/>
-      <c r="J75" s="215"/>
-      <c r="K75" s="215"/>
-      <c r="L75" s="215"/>
-      <c r="M75" s="215"/>
-      <c r="N75" s="215"/>
-      <c r="O75" s="215"/>
-      <c r="P75" s="215"/>
-      <c r="Q75" s="215"/>
-      <c r="R75" s="215"/>
-      <c r="S75" s="216"/>
+      <c r="H75" s="213"/>
+      <c r="I75" s="213"/>
+      <c r="J75" s="213"/>
+      <c r="K75" s="213"/>
+      <c r="L75" s="213"/>
+      <c r="M75" s="213"/>
+      <c r="N75" s="213"/>
+      <c r="O75" s="213"/>
+      <c r="P75" s="213"/>
+      <c r="Q75" s="213"/>
+      <c r="R75" s="213"/>
+      <c r="S75" s="214"/>
     </row>
     <row r="76">
-      <c r="A76" s="198">
+      <c r="A76" s="197">
         <v>75.0</v>
       </c>
       <c r="B76" s="138" t="s">
@@ -44695,33 +44637,33 @@
       <c r="D76" s="138" t="s">
         <v>661</v>
       </c>
-      <c r="E76" s="209" t="s">
+      <c r="E76" s="208" t="s">
         <v>415</v>
       </c>
       <c r="F76" s="156" t="s">
         <v>716</v>
       </c>
-      <c r="G76" s="194" t="s">
+      <c r="G76" s="193" t="s">
         <v>815</v>
       </c>
-      <c r="H76" s="189"/>
-      <c r="I76" s="189"/>
-      <c r="J76" s="189"/>
-      <c r="K76" s="189"/>
-      <c r="L76" s="189"/>
-      <c r="M76" s="189"/>
-      <c r="N76" s="189"/>
-      <c r="O76" s="189"/>
-      <c r="P76" s="189"/>
-      <c r="Q76" s="189"/>
-      <c r="R76" s="189"/>
-      <c r="S76" s="190"/>
+      <c r="H76" s="188"/>
+      <c r="I76" s="188"/>
+      <c r="J76" s="188"/>
+      <c r="K76" s="188"/>
+      <c r="L76" s="188"/>
+      <c r="M76" s="188"/>
+      <c r="N76" s="188"/>
+      <c r="O76" s="188"/>
+      <c r="P76" s="188"/>
+      <c r="Q76" s="188"/>
+      <c r="R76" s="188"/>
+      <c r="S76" s="189"/>
     </row>
     <row r="77">
-      <c r="A77" s="191">
+      <c r="A77" s="190">
         <v>76.0</v>
       </c>
-      <c r="B77" s="211" t="s">
+      <c r="B77" s="209" t="s">
         <v>720</v>
       </c>
       <c r="C77" s="161" t="s">
@@ -44730,56 +44672,56 @@
       <c r="D77" s="163" t="s">
         <v>520</v>
       </c>
-      <c r="E77" s="209" t="s">
+      <c r="E77" s="208" t="s">
         <v>415</v>
       </c>
       <c r="F77" s="163" t="s">
         <v>722</v>
       </c>
-      <c r="G77" s="214" t="s">
+      <c r="G77" s="212" t="s">
         <v>816</v>
       </c>
-      <c r="H77" s="215"/>
-      <c r="I77" s="215"/>
-      <c r="J77" s="215"/>
-      <c r="K77" s="215"/>
-      <c r="L77" s="215"/>
-      <c r="M77" s="215"/>
-      <c r="N77" s="215"/>
-      <c r="O77" s="215"/>
-      <c r="P77" s="215"/>
-      <c r="Q77" s="215"/>
-      <c r="R77" s="215"/>
-      <c r="S77" s="216"/>
+      <c r="H77" s="213"/>
+      <c r="I77" s="213"/>
+      <c r="J77" s="213"/>
+      <c r="K77" s="213"/>
+      <c r="L77" s="213"/>
+      <c r="M77" s="213"/>
+      <c r="N77" s="213"/>
+      <c r="O77" s="213"/>
+      <c r="P77" s="213"/>
+      <c r="Q77" s="213"/>
+      <c r="R77" s="213"/>
+      <c r="S77" s="214"/>
     </row>
     <row r="78">
-      <c r="A78" s="227"/>
-      <c r="B78" s="228"/>
-      <c r="C78" s="229"/>
-      <c r="D78" s="229"/>
-      <c r="E78" s="230"/>
-      <c r="F78" s="231"/>
-      <c r="G78" s="232"/>
-      <c r="H78" s="232"/>
-      <c r="I78" s="232"/>
-      <c r="J78" s="232"/>
-      <c r="K78" s="233"/>
-      <c r="L78" s="233"/>
-      <c r="M78" s="233"/>
-      <c r="N78" s="233"/>
-      <c r="O78" s="232" t="s">
+      <c r="A78" s="225"/>
+      <c r="B78" s="226"/>
+      <c r="C78" s="227"/>
+      <c r="D78" s="227"/>
+      <c r="E78" s="228"/>
+      <c r="F78" s="229"/>
+      <c r="G78" s="230"/>
+      <c r="H78" s="230"/>
+      <c r="I78" s="230"/>
+      <c r="J78" s="230"/>
+      <c r="K78" s="231"/>
+      <c r="L78" s="231"/>
+      <c r="M78" s="231"/>
+      <c r="N78" s="231"/>
+      <c r="O78" s="230" t="s">
         <v>817</v>
       </c>
-      <c r="P78" s="232" t="s">
+      <c r="P78" s="230" t="s">
         <v>818</v>
       </c>
-      <c r="Q78" s="232" t="s">
+      <c r="Q78" s="230" t="s">
         <v>819</v>
       </c>
-      <c r="R78" s="232" t="s">
+      <c r="R78" s="230" t="s">
         <v>820</v>
       </c>
-      <c r="S78" s="234" t="s">
+      <c r="S78" s="232" t="s">
         <v>821</v>
       </c>
     </row>

--- a/Контакты Stratera.xlsx
+++ b/Контакты Stratera.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="823">
   <si>
     <t>СКО</t>
   </si>
@@ -3909,16 +3909,19 @@
     <t xml:space="preserve">Жаксынский, Есильский </t>
   </si>
   <si>
+    <t>Осакаровский, Аршалынский</t>
+  </si>
+  <si>
+    <t>Нуринский, Абайский</t>
+  </si>
+  <si>
+    <t>Бухар жырауский</t>
+  </si>
+  <si>
+    <t>Абайский</t>
+  </si>
+  <si>
     <t>Осакаровский</t>
-  </si>
-  <si>
-    <t>Нуринский, Абайский</t>
-  </si>
-  <si>
-    <t>Бухар жырауский</t>
-  </si>
-  <si>
-    <t>Абайский</t>
   </si>
   <si>
     <t>Сандыктау</t>
@@ -42863,7 +42866,7 @@
         <v>574</v>
       </c>
       <c r="G25" s="212" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="H25" s="213"/>
       <c r="I25" s="213"/>
@@ -42898,7 +42901,7 @@
         <v>597</v>
       </c>
       <c r="G26" s="193" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H26" s="188"/>
       <c r="I26" s="188"/>
@@ -42933,7 +42936,7 @@
         <v>594</v>
       </c>
       <c r="G27" s="193" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H27" s="195"/>
       <c r="I27" s="195"/>
@@ -42968,7 +42971,7 @@
         <v>7.7789056044E10</v>
       </c>
       <c r="G28" s="193" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H28" s="188"/>
       <c r="I28" s="188"/>
@@ -43003,7 +43006,7 @@
         <v>590</v>
       </c>
       <c r="G29" s="193" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H29" s="195"/>
       <c r="I29" s="195"/>
@@ -43023,7 +43026,7 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="138" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C30" s="138" t="s">
         <v>15</v>
@@ -43038,7 +43041,7 @@
         <v>608</v>
       </c>
       <c r="G30" s="212" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H30" s="216"/>
       <c r="I30" s="216"/>
@@ -43073,7 +43076,7 @@
         <v>605</v>
       </c>
       <c r="G31" s="193" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H31" s="195"/>
       <c r="I31" s="195"/>
@@ -43108,7 +43111,7 @@
         <v>601</v>
       </c>
       <c r="G32" s="219" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H32" s="220"/>
       <c r="I32" s="220"/>
@@ -43143,7 +43146,7 @@
         <v>7.7057797357E10</v>
       </c>
       <c r="G33" s="212" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H33" s="213"/>
       <c r="I33" s="213"/>
@@ -43176,7 +43179,7 @@
         <v>613</v>
       </c>
       <c r="G34" s="219" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H34" s="220"/>
       <c r="I34" s="220"/>
@@ -43205,13 +43208,13 @@
         <v>592</v>
       </c>
       <c r="E35" s="208" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="F35" s="135">
         <v>7.7054441706E10</v>
       </c>
       <c r="G35" s="193" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H35" s="195"/>
       <c r="I35" s="195"/>
@@ -43231,7 +43234,7 @@
         <v>35.0</v>
       </c>
       <c r="B36" s="207" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C36" s="138" t="s">
         <v>516</v>
@@ -43240,13 +43243,13 @@
         <v>658</v>
       </c>
       <c r="E36" s="208" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="F36" s="129">
         <v>7.7009802493E10</v>
       </c>
       <c r="G36" s="193" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H36" s="188"/>
       <c r="I36" s="188"/>
@@ -43275,13 +43278,13 @@
         <v>592</v>
       </c>
       <c r="E37" s="208" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="F37" s="135">
         <v>7.7775223878E10</v>
       </c>
       <c r="G37" s="193" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H37" s="195"/>
       <c r="I37" s="195"/>
@@ -43310,13 +43313,13 @@
         <v>599</v>
       </c>
       <c r="E38" s="208" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="F38" s="129">
         <v>7.7711886327E10</v>
       </c>
       <c r="G38" s="193" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H38" s="188"/>
       <c r="I38" s="188"/>
@@ -43345,13 +43348,13 @@
         <v>635</v>
       </c>
       <c r="E39" s="208" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="F39" s="135">
         <v>7.7054627019E10</v>
       </c>
       <c r="G39" s="193" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H39" s="195"/>
       <c r="I39" s="195"/>
@@ -43380,13 +43383,13 @@
         <v>635</v>
       </c>
       <c r="E40" s="208" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="F40" s="129">
         <v>7.747757374E10</v>
       </c>
       <c r="G40" s="193" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H40" s="188"/>
       <c r="I40" s="188"/>
@@ -43415,13 +43418,13 @@
         <v>520</v>
       </c>
       <c r="E41" s="208" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="F41" s="151">
         <v>7.7772459654E10</v>
       </c>
       <c r="G41" s="193" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H41" s="195"/>
       <c r="I41" s="195"/>
@@ -43450,16 +43453,16 @@
         <v>617</v>
       </c>
       <c r="E42" s="208" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="F42" s="129">
         <v>7.7764004E10</v>
       </c>
       <c r="G42" s="193" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H42" s="187" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="I42" s="188"/>
       <c r="J42" s="188"/>
@@ -43487,13 +43490,13 @@
         <v>517</v>
       </c>
       <c r="E43" s="208" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="F43" s="135" t="s">
         <v>623</v>
       </c>
       <c r="G43" s="193" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H43" s="195"/>
       <c r="I43" s="195"/>
@@ -43522,13 +43525,13 @@
         <v>630</v>
       </c>
       <c r="E44" s="208" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="F44" s="129">
         <v>7.7710603592E10</v>
       </c>
       <c r="G44" s="193" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H44" s="188"/>
       <c r="I44" s="188"/>
@@ -43557,13 +43560,13 @@
         <v>520</v>
       </c>
       <c r="E45" s="208" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="F45" s="163">
         <v>7.7719062173E10</v>
       </c>
       <c r="G45" s="193" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H45" s="195"/>
       <c r="I45" s="195"/>
@@ -43592,13 +43595,13 @@
         <v>630</v>
       </c>
       <c r="E46" s="208" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="F46" s="165">
         <v>7.710609229E9</v>
       </c>
       <c r="G46" s="193" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H46" s="188"/>
       <c r="I46" s="188"/>
@@ -43627,13 +43630,13 @@
         <v>592</v>
       </c>
       <c r="E47" s="208" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="F47" s="135">
         <v>7.7775223885E10</v>
       </c>
       <c r="G47" s="193" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H47" s="195"/>
       <c r="I47" s="195"/>
@@ -43662,13 +43665,13 @@
         <v>513</v>
       </c>
       <c r="E48" s="208" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="F48" s="129">
         <v>7.7711886438E10</v>
       </c>
       <c r="G48" s="193" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H48" s="188"/>
       <c r="I48" s="188"/>
@@ -43697,13 +43700,13 @@
         <v>517</v>
       </c>
       <c r="E49" s="208" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="F49" s="135">
         <v>7.7753480121E10</v>
       </c>
       <c r="G49" s="193" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H49" s="195"/>
       <c r="I49" s="195"/>
@@ -43732,13 +43735,13 @@
         <v>546</v>
       </c>
       <c r="E50" s="208" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="F50" s="129">
         <v>7.747930565E10</v>
       </c>
       <c r="G50" s="193" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H50" s="188"/>
       <c r="I50" s="188"/>
@@ -43767,13 +43770,13 @@
         <v>517</v>
       </c>
       <c r="E51" s="208" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="F51" s="135" t="s">
         <v>626</v>
       </c>
       <c r="G51" s="193" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H51" s="195"/>
       <c r="I51" s="195"/>
@@ -43802,13 +43805,13 @@
         <v>646</v>
       </c>
       <c r="E52" s="208" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="F52" s="129">
         <v>7.7756396005E10</v>
       </c>
       <c r="G52" s="193" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H52" s="188"/>
       <c r="I52" s="188"/>
@@ -43835,13 +43838,13 @@
       </c>
       <c r="D53" s="149"/>
       <c r="E53" s="208" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="F53" s="135" t="s">
         <v>680</v>
       </c>
       <c r="G53" s="212" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H53" s="213"/>
       <c r="I53" s="213"/>
@@ -43870,13 +43873,13 @@
         <v>669</v>
       </c>
       <c r="E54" s="208" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="F54" s="129" t="s">
         <v>674</v>
       </c>
       <c r="G54" s="212" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H54" s="216"/>
       <c r="I54" s="216"/>
@@ -43903,13 +43906,13 @@
       </c>
       <c r="D55" s="149"/>
       <c r="E55" s="208" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="F55" s="135">
         <v>7.7477185969E10</v>
       </c>
       <c r="G55" s="212" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H55" s="213"/>
       <c r="I55" s="213"/>
@@ -43938,13 +43941,13 @@
         <v>665</v>
       </c>
       <c r="E56" s="208" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="F56" s="156" t="s">
         <v>667</v>
       </c>
       <c r="G56" s="212" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H56" s="216"/>
       <c r="I56" s="216"/>
@@ -43973,13 +43976,13 @@
         <v>661</v>
       </c>
       <c r="E57" s="208" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="F57" s="151" t="s">
         <v>663</v>
       </c>
       <c r="G57" s="212" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H57" s="213"/>
       <c r="I57" s="213"/>
@@ -43999,7 +44002,7 @@
         <v>57.0</v>
       </c>
       <c r="B58" s="138" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C58" s="138" t="s">
         <v>15</v>
@@ -44008,13 +44011,13 @@
         <v>669</v>
       </c>
       <c r="E58" s="208" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="F58" s="129" t="s">
         <v>671</v>
       </c>
       <c r="G58" s="212" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H58" s="216"/>
       <c r="I58" s="216"/>
@@ -44043,13 +44046,13 @@
         <v>539</v>
       </c>
       <c r="E59" s="208" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="F59" s="135">
         <v>7.7775223892E10</v>
       </c>
       <c r="G59" s="212" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H59" s="213"/>
       <c r="I59" s="213"/>
@@ -44078,13 +44081,13 @@
         <v>508</v>
       </c>
       <c r="E60" s="208" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="F60" s="129" t="s">
         <v>683</v>
       </c>
       <c r="G60" s="193" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H60" s="188"/>
       <c r="I60" s="188"/>
@@ -44119,7 +44122,7 @@
         <v>7.7078750345E10</v>
       </c>
       <c r="G61" s="193" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H61" s="195"/>
       <c r="I61" s="195"/>
@@ -44154,7 +44157,7 @@
         <v>7.7057418708E10</v>
       </c>
       <c r="G62" s="193" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="H62" s="188"/>
       <c r="I62" s="188"/>
@@ -44189,7 +44192,7 @@
         <v>7.7057455796E10</v>
       </c>
       <c r="G63" s="193" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H63" s="195"/>
       <c r="I63" s="195"/>
@@ -44224,7 +44227,7 @@
         <v>7.7772285335E10</v>
       </c>
       <c r="G64" s="193" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H64" s="188"/>
       <c r="I64" s="188"/>
@@ -44259,7 +44262,7 @@
         <v>7.7761023037E10</v>
       </c>
       <c r="G65" s="193" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H65" s="195"/>
       <c r="I65" s="195"/>
@@ -44294,7 +44297,7 @@
         <v>7.7057454959E10</v>
       </c>
       <c r="G66" s="193" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H66" s="188"/>
       <c r="I66" s="188"/>
@@ -44329,7 +44332,7 @@
         <v>7.7026615811E10</v>
       </c>
       <c r="G67" s="193" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H67" s="195"/>
       <c r="I67" s="195"/>
@@ -44358,13 +44361,13 @@
         <v>508</v>
       </c>
       <c r="E68" s="208" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F68" s="129" t="s">
         <v>690</v>
       </c>
       <c r="G68" s="193" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H68" s="188"/>
       <c r="I68" s="188"/>
@@ -44399,7 +44402,7 @@
         <v>7.7761000911E10</v>
       </c>
       <c r="G69" s="193" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H69" s="195"/>
       <c r="I69" s="195"/>
@@ -44434,7 +44437,7 @@
         <v>7.702214418E10</v>
       </c>
       <c r="G70" s="193" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H70" s="188"/>
       <c r="I70" s="188"/>
@@ -44469,7 +44472,7 @@
         <v>7.7057455794E10</v>
       </c>
       <c r="G71" s="193" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H71" s="195"/>
       <c r="I71" s="195"/>
@@ -44504,7 +44507,7 @@
         <v>726</v>
       </c>
       <c r="G72" s="212" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H72" s="216"/>
       <c r="I72" s="216"/>
@@ -44539,7 +44542,7 @@
         <v>719</v>
       </c>
       <c r="G73" s="212" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H73" s="213"/>
       <c r="I73" s="213"/>
@@ -44574,7 +44577,7 @@
         <v>712</v>
       </c>
       <c r="G74" s="212" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H74" s="216"/>
       <c r="I74" s="216"/>
@@ -44609,7 +44612,7 @@
         <v>7.776100965E10</v>
       </c>
       <c r="G75" s="212" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H75" s="213"/>
       <c r="I75" s="213"/>
@@ -44644,7 +44647,7 @@
         <v>716</v>
       </c>
       <c r="G76" s="193" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H76" s="188"/>
       <c r="I76" s="188"/>
@@ -44679,7 +44682,7 @@
         <v>722</v>
       </c>
       <c r="G77" s="212" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="H77" s="213"/>
       <c r="I77" s="213"/>
@@ -44710,19 +44713,19 @@
       <c r="M78" s="231"/>
       <c r="N78" s="231"/>
       <c r="O78" s="230" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="P78" s="230" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="Q78" s="230" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="R78" s="230" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="S78" s="232" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
   </sheetData>

--- a/Контакты Stratera.xlsx
+++ b/Контакты Stratera.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="822">
   <si>
     <t>СКО</t>
   </si>
@@ -4057,9 +4057,6 @@
     <t>Актогайский, Иртышский</t>
   </si>
   <si>
-    <t>СКО (район Магжана Жумабаева)</t>
-  </si>
-  <si>
     <t>Магжана Жумабаева</t>
   </si>
   <si>
@@ -4093,7 +4090,7 @@
     <t>Жамбылский</t>
   </si>
   <si>
-    <t>Кызылжарский, Аккайынский</t>
+    <t>Кызылжарский, Аккайынский, Магжана Жумабаева</t>
   </si>
   <si>
     <t>Тимирязевский</t>
@@ -44081,13 +44078,13 @@
         <v>508</v>
       </c>
       <c r="E60" s="208" t="s">
-        <v>802</v>
+        <v>415</v>
       </c>
       <c r="F60" s="129" t="s">
         <v>683</v>
       </c>
       <c r="G60" s="193" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H60" s="188"/>
       <c r="I60" s="188"/>
@@ -44122,7 +44119,7 @@
         <v>7.7078750345E10</v>
       </c>
       <c r="G61" s="193" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H61" s="195"/>
       <c r="I61" s="195"/>
@@ -44157,7 +44154,7 @@
         <v>7.7057418708E10</v>
       </c>
       <c r="G62" s="193" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H62" s="188"/>
       <c r="I62" s="188"/>
@@ -44192,7 +44189,7 @@
         <v>7.7057455796E10</v>
       </c>
       <c r="G63" s="193" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H63" s="195"/>
       <c r="I63" s="195"/>
@@ -44227,7 +44224,7 @@
         <v>7.7772285335E10</v>
       </c>
       <c r="G64" s="193" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H64" s="188"/>
       <c r="I64" s="188"/>
@@ -44262,7 +44259,7 @@
         <v>7.7761023037E10</v>
       </c>
       <c r="G65" s="193" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H65" s="195"/>
       <c r="I65" s="195"/>
@@ -44297,7 +44294,7 @@
         <v>7.7057454959E10</v>
       </c>
       <c r="G66" s="193" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H66" s="188"/>
       <c r="I66" s="188"/>
@@ -44332,7 +44329,7 @@
         <v>7.7026615811E10</v>
       </c>
       <c r="G67" s="193" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H67" s="195"/>
       <c r="I67" s="195"/>
@@ -44361,13 +44358,13 @@
         <v>508</v>
       </c>
       <c r="E68" s="208" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F68" s="129" t="s">
         <v>690</v>
       </c>
       <c r="G68" s="193" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H68" s="188"/>
       <c r="I68" s="188"/>
@@ -44402,7 +44399,7 @@
         <v>7.7761000911E10</v>
       </c>
       <c r="G69" s="193" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H69" s="195"/>
       <c r="I69" s="195"/>
@@ -44437,7 +44434,7 @@
         <v>7.702214418E10</v>
       </c>
       <c r="G70" s="193" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H70" s="188"/>
       <c r="I70" s="188"/>
@@ -44472,7 +44469,7 @@
         <v>7.7057455794E10</v>
       </c>
       <c r="G71" s="193" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H71" s="195"/>
       <c r="I71" s="195"/>
@@ -44507,7 +44504,7 @@
         <v>726</v>
       </c>
       <c r="G72" s="212" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H72" s="216"/>
       <c r="I72" s="216"/>
@@ -44542,7 +44539,7 @@
         <v>719</v>
       </c>
       <c r="G73" s="212" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H73" s="213"/>
       <c r="I73" s="213"/>
@@ -44577,7 +44574,7 @@
         <v>712</v>
       </c>
       <c r="G74" s="212" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H74" s="216"/>
       <c r="I74" s="216"/>
@@ -44612,7 +44609,7 @@
         <v>7.776100965E10</v>
       </c>
       <c r="G75" s="212" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H75" s="213"/>
       <c r="I75" s="213"/>
@@ -44647,7 +44644,7 @@
         <v>716</v>
       </c>
       <c r="G76" s="193" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H76" s="188"/>
       <c r="I76" s="188"/>
@@ -44682,7 +44679,7 @@
         <v>722</v>
       </c>
       <c r="G77" s="212" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H77" s="213"/>
       <c r="I77" s="213"/>
@@ -44713,19 +44710,19 @@
       <c r="M78" s="231"/>
       <c r="N78" s="231"/>
       <c r="O78" s="230" t="s">
+        <v>817</v>
+      </c>
+      <c r="P78" s="230" t="s">
         <v>818</v>
       </c>
-      <c r="P78" s="230" t="s">
+      <c r="Q78" s="230" t="s">
         <v>819</v>
       </c>
-      <c r="Q78" s="230" t="s">
+      <c r="R78" s="230" t="s">
         <v>820</v>
       </c>
-      <c r="R78" s="230" t="s">
+      <c r="S78" s="232" t="s">
         <v>821</v>
-      </c>
-      <c r="S78" s="232" t="s">
-        <v>822</v>
       </c>
     </row>
   </sheetData>

--- a/Контакты Stratera.xlsx
+++ b/Контакты Stratera.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Рабочий стол\heatmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E84C57A-A5E2-4398-A5DD-DA441A3EF4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B91EC9-3D8D-459B-8D4F-6979031E2C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2427" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2427" uniqueCount="823">
   <si>
     <t>СКО</t>
   </si>
@@ -4268,6 +4268,9 @@
   </si>
   <si>
     <t>итог</t>
+  </si>
+  <si>
+    <t>Жамбылский, Кызылжарский, Аккайынский</t>
   </si>
 </sst>
 </file>
@@ -5306,7 +5309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5758,6 +5761,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -5899,6 +5905,9 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Таблица1_2" displayName="Таблица1_2" ref="A1:S77">
   <autoFilter ref="A1:S77" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S77">
+    <sortCondition ref="E1:E77"/>
+  </sortState>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="№"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ФИО"/>
@@ -6144,7 +6153,7 @@
     <col min="7" max="7" width="81.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" ht="13.8">
       <c r="A1" s="91" t="s">
         <v>500</v>
       </c>
@@ -6203,7 +6212,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" ht="13.8">
       <c r="A2" s="142">
         <v>1</v>
       </c>
@@ -6236,7 +6245,7 @@
       <c r="R2" s="144"/>
       <c r="S2" s="145"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" ht="13.8">
       <c r="A3" s="99">
         <v>2</v>
       </c>
@@ -6284,7 +6293,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" ht="13.8">
       <c r="A4" s="94">
         <v>3</v>
       </c>
@@ -6319,7 +6328,7 @@
       <c r="R4" s="144"/>
       <c r="S4" s="145"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" ht="13.8">
       <c r="A5" s="99">
         <v>4</v>
       </c>
@@ -6354,7 +6363,7 @@
       <c r="R5" s="124"/>
       <c r="S5" s="149"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" ht="13.8">
       <c r="A6" s="94">
         <v>5</v>
       </c>
@@ -6402,7 +6411,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" ht="13.8">
       <c r="A7" s="99">
         <v>6</v>
       </c>
@@ -6437,7 +6446,7 @@
       <c r="R7" s="124"/>
       <c r="S7" s="149"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" ht="13.8">
       <c r="A8" s="94">
         <v>7</v>
       </c>
@@ -6472,7 +6481,7 @@
       <c r="R8" s="144"/>
       <c r="S8" s="145"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" ht="13.8">
       <c r="A9" s="99">
         <v>8</v>
       </c>
@@ -6507,7 +6516,7 @@
       <c r="R9" s="124"/>
       <c r="S9" s="149"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" ht="13.8">
       <c r="A10" s="94">
         <v>9</v>
       </c>
@@ -6542,7 +6551,7 @@
       <c r="R10" s="144"/>
       <c r="S10" s="145"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" ht="13.8">
       <c r="A11" s="99">
         <v>10</v>
       </c>
@@ -6577,7 +6586,7 @@
       <c r="R11" s="124"/>
       <c r="S11" s="149"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" ht="13.8">
       <c r="A12" s="94">
         <v>11</v>
       </c>
@@ -6625,7 +6634,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" ht="13.8">
       <c r="A13" s="99">
         <v>12</v>
       </c>
@@ -6660,7 +6669,7 @@
       <c r="R13" s="124"/>
       <c r="S13" s="149"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" ht="13.8">
       <c r="A14" s="94">
         <v>13</v>
       </c>
@@ -6695,7 +6704,7 @@
       <c r="R14" s="144"/>
       <c r="S14" s="145"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" ht="13.8">
       <c r="A15" s="99">
         <v>14</v>
       </c>
@@ -6730,7 +6739,7 @@
       <c r="R15" s="124"/>
       <c r="S15" s="149"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" ht="13.8">
       <c r="A16" s="94">
         <v>15</v>
       </c>
@@ -6765,7 +6774,7 @@
       <c r="R16" s="144"/>
       <c r="S16" s="145"/>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" ht="13.8">
       <c r="A17" s="99">
         <v>16</v>
       </c>
@@ -6800,7 +6809,7 @@
       <c r="R17" s="124"/>
       <c r="S17" s="149"/>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" ht="13.8">
       <c r="A18" s="94">
         <v>17</v>
       </c>
@@ -6835,7 +6844,7 @@
       <c r="R18" s="144"/>
       <c r="S18" s="145"/>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" ht="13.8">
       <c r="A19" s="99">
         <v>18</v>
       </c>
@@ -6870,7 +6879,7 @@
       <c r="R19" s="124"/>
       <c r="S19" s="149"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" ht="13.8">
       <c r="A20" s="94">
         <v>19</v>
       </c>
@@ -7080,7 +7089,7 @@
       <c r="R25" s="155"/>
       <c r="S25" s="156"/>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" ht="13.8">
       <c r="A26" s="94">
         <v>25</v>
       </c>
@@ -7115,7 +7124,7 @@
       <c r="R26" s="144"/>
       <c r="S26" s="145"/>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" ht="13.8">
       <c r="A27" s="99">
         <v>26</v>
       </c>
@@ -7150,7 +7159,7 @@
       <c r="R27" s="124"/>
       <c r="S27" s="149"/>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" ht="13.8">
       <c r="A28" s="94">
         <v>27</v>
       </c>
@@ -7185,7 +7194,7 @@
       <c r="R28" s="144"/>
       <c r="S28" s="145"/>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" ht="13.8">
       <c r="A29" s="99">
         <v>28</v>
       </c>
@@ -7255,7 +7264,7 @@
       <c r="R30" s="157"/>
       <c r="S30" s="158"/>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" ht="13.8">
       <c r="A31" s="99">
         <v>30</v>
       </c>
@@ -7393,7 +7402,7 @@
       <c r="R34" s="160"/>
       <c r="S34" s="161"/>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:19" ht="13.8">
       <c r="A35" s="99">
         <v>34</v>
       </c>
@@ -7428,7 +7437,7 @@
       <c r="R35" s="124"/>
       <c r="S35" s="149"/>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:19" ht="13.8">
       <c r="A36" s="94">
         <v>35</v>
       </c>
@@ -7463,7 +7472,7 @@
       <c r="R36" s="144"/>
       <c r="S36" s="145"/>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:19" ht="13.8">
       <c r="A37" s="99">
         <v>36</v>
       </c>
@@ -7498,7 +7507,7 @@
       <c r="R37" s="124"/>
       <c r="S37" s="149"/>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:19" ht="13.8">
       <c r="A38" s="94">
         <v>37</v>
       </c>
@@ -7533,7 +7542,7 @@
       <c r="R38" s="144"/>
       <c r="S38" s="145"/>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:19" ht="13.8">
       <c r="A39" s="99">
         <v>38</v>
       </c>
@@ -7568,7 +7577,7 @@
       <c r="R39" s="124"/>
       <c r="S39" s="149"/>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:19" ht="13.8">
       <c r="A40" s="94">
         <v>39</v>
       </c>
@@ -7603,7 +7612,7 @@
       <c r="R40" s="144"/>
       <c r="S40" s="145"/>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:19" ht="13.8">
       <c r="A41" s="99">
         <v>40</v>
       </c>
@@ -7638,7 +7647,7 @@
       <c r="R41" s="124"/>
       <c r="S41" s="149"/>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:19" ht="13.8">
       <c r="A42" s="94">
         <v>41</v>
       </c>
@@ -7675,7 +7684,7 @@
       <c r="R42" s="144"/>
       <c r="S42" s="145"/>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:19" ht="13.8">
       <c r="A43" s="99">
         <v>42</v>
       </c>
@@ -7710,7 +7719,7 @@
       <c r="R43" s="124"/>
       <c r="S43" s="149"/>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:19" ht="13.8">
       <c r="A44" s="94">
         <v>43</v>
       </c>
@@ -7745,7 +7754,7 @@
       <c r="R44" s="144"/>
       <c r="S44" s="145"/>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:19" ht="13.8">
       <c r="A45" s="99">
         <v>44</v>
       </c>
@@ -7780,7 +7789,7 @@
       <c r="R45" s="124"/>
       <c r="S45" s="149"/>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:19" ht="13.8">
       <c r="A46" s="94">
         <v>45</v>
       </c>
@@ -7815,7 +7824,7 @@
       <c r="R46" s="144"/>
       <c r="S46" s="145"/>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:19" ht="13.8">
       <c r="A47" s="99">
         <v>46</v>
       </c>
@@ -7850,7 +7859,7 @@
       <c r="R47" s="124"/>
       <c r="S47" s="149"/>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:19" ht="13.8">
       <c r="A48" s="94">
         <v>47</v>
       </c>
@@ -7885,7 +7894,7 @@
       <c r="R48" s="144"/>
       <c r="S48" s="145"/>
     </row>
-    <row r="49" spans="1:19">
+    <row r="49" spans="1:19" ht="13.8">
       <c r="A49" s="99">
         <v>48</v>
       </c>
@@ -7920,7 +7929,7 @@
       <c r="R49" s="124"/>
       <c r="S49" s="149"/>
     </row>
-    <row r="50" spans="1:19">
+    <row r="50" spans="1:19" ht="13.8">
       <c r="A50" s="94">
         <v>49</v>
       </c>
@@ -7955,7 +7964,7 @@
       <c r="R50" s="144"/>
       <c r="S50" s="145"/>
     </row>
-    <row r="51" spans="1:19">
+    <row r="51" spans="1:19" ht="13.8">
       <c r="A51" s="99">
         <v>50</v>
       </c>
@@ -7990,7 +7999,7 @@
       <c r="R51" s="124"/>
       <c r="S51" s="149"/>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" spans="1:19" ht="13.8">
       <c r="A52" s="94">
         <v>51</v>
       </c>
@@ -8266,7 +8275,7 @@
       <c r="R59" s="155"/>
       <c r="S59" s="156"/>
     </row>
-    <row r="60" spans="1:19">
+    <row r="60" spans="1:19" ht="13.8">
       <c r="A60" s="94">
         <v>59</v>
       </c>
@@ -8301,7 +8310,7 @@
       <c r="R60" s="144"/>
       <c r="S60" s="145"/>
     </row>
-    <row r="61" spans="1:19">
+    <row r="61" spans="1:19" ht="13.8">
       <c r="A61" s="99">
         <v>60</v>
       </c>
@@ -8336,7 +8345,7 @@
       <c r="R61" s="124"/>
       <c r="S61" s="149"/>
     </row>
-    <row r="62" spans="1:19">
+    <row r="62" spans="1:19" ht="13.8">
       <c r="A62" s="94">
         <v>61</v>
       </c>
@@ -8371,7 +8380,7 @@
       <c r="R62" s="144"/>
       <c r="S62" s="145"/>
     </row>
-    <row r="63" spans="1:19">
+    <row r="63" spans="1:19" ht="13.8">
       <c r="A63" s="99">
         <v>62</v>
       </c>
@@ -8406,7 +8415,7 @@
       <c r="R63" s="124"/>
       <c r="S63" s="149"/>
     </row>
-    <row r="64" spans="1:19">
+    <row r="64" spans="1:19" ht="13.8">
       <c r="A64" s="94">
         <v>63</v>
       </c>
@@ -8441,7 +8450,7 @@
       <c r="R64" s="144"/>
       <c r="S64" s="145"/>
     </row>
-    <row r="65" spans="1:19">
+    <row r="65" spans="1:19" ht="13.8">
       <c r="A65" s="99">
         <v>64</v>
       </c>
@@ -8476,7 +8485,7 @@
       <c r="R65" s="124"/>
       <c r="S65" s="149"/>
     </row>
-    <row r="66" spans="1:19">
+    <row r="66" spans="1:19" ht="13.8">
       <c r="A66" s="94">
         <v>65</v>
       </c>
@@ -8511,7 +8520,7 @@
       <c r="R66" s="144"/>
       <c r="S66" s="145"/>
     </row>
-    <row r="67" spans="1:19">
+    <row r="67" spans="1:19" ht="13.8">
       <c r="A67" s="99">
         <v>66</v>
       </c>
@@ -8546,7 +8555,7 @@
       <c r="R67" s="124"/>
       <c r="S67" s="149"/>
     </row>
-    <row r="68" spans="1:19">
+    <row r="68" spans="1:19" ht="13.8">
       <c r="A68" s="94">
         <v>67</v>
       </c>
@@ -8581,7 +8590,7 @@
       <c r="R68" s="144"/>
       <c r="S68" s="145"/>
     </row>
-    <row r="69" spans="1:19">
+    <row r="69" spans="1:19" ht="13.8">
       <c r="A69" s="99">
         <v>68</v>
       </c>
@@ -8616,7 +8625,7 @@
       <c r="R69" s="124"/>
       <c r="S69" s="149"/>
     </row>
-    <row r="70" spans="1:19">
+    <row r="70" spans="1:19" ht="13.8">
       <c r="A70" s="94">
         <v>69</v>
       </c>
@@ -8651,7 +8660,7 @@
       <c r="R70" s="144"/>
       <c r="S70" s="145"/>
     </row>
-    <row r="71" spans="1:19">
+    <row r="71" spans="1:19" ht="13.8">
       <c r="A71" s="99">
         <v>70</v>
       </c>
@@ -8826,7 +8835,7 @@
       <c r="R75" s="155"/>
       <c r="S75" s="156"/>
     </row>
-    <row r="76" spans="1:19">
+    <row r="76" spans="1:19" ht="13.8">
       <c r="A76" s="94">
         <v>75</v>
       </c>
@@ -8896,7 +8905,7 @@
       <c r="R77" s="155"/>
       <c r="S77" s="156"/>
     </row>
-    <row r="78" spans="1:19">
+    <row r="78" spans="1:19" ht="13.8">
       <c r="A78" s="165"/>
       <c r="B78" s="166"/>
       <c r="C78" s="167"/>
@@ -44863,8 +44872,8 @@
   <dimension ref="A1:S77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36:XFD36"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -44878,7 +44887,7 @@
     <col min="7" max="7" width="81.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" ht="13.8">
       <c r="A1" s="91" t="s">
         <v>500</v>
       </c>
@@ -44937,7 +44946,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" ht="13.8">
       <c r="A2" s="142">
         <v>1</v>
       </c>
@@ -44970,7 +44979,7 @@
       <c r="R2" s="144"/>
       <c r="S2" s="145"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" ht="13.8">
       <c r="A3" s="99">
         <v>2</v>
       </c>
@@ -45018,7 +45027,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" ht="13.8">
       <c r="A4" s="94">
         <v>3</v>
       </c>
@@ -45053,7 +45062,7 @@
       <c r="R4" s="144"/>
       <c r="S4" s="145"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" ht="13.8">
       <c r="A5" s="99">
         <v>4</v>
       </c>
@@ -45088,27 +45097,27 @@
       <c r="R5" s="124"/>
       <c r="S5" s="149"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" ht="13.8">
       <c r="A6" s="94">
-        <v>5</v>
-      </c>
-      <c r="B6" s="151" t="s">
-        <v>745</v>
-      </c>
-      <c r="C6" s="105" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="150" t="s">
+        <v>307</v>
+      </c>
+      <c r="C6" s="96" t="s">
         <v>516</v>
       </c>
-      <c r="D6" s="105" t="s">
-        <v>517</v>
-      </c>
-      <c r="E6" s="148" t="s">
+      <c r="D6" s="96" t="s">
+        <v>520</v>
+      </c>
+      <c r="E6" s="147" t="s">
         <v>509</v>
       </c>
       <c r="F6" s="98" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="G6" s="148" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="H6" s="144"/>
       <c r="I6" s="144"/>
@@ -45116,47 +45125,34 @@
       <c r="K6" s="144"/>
       <c r="L6" s="144"/>
       <c r="M6" s="144"/>
-      <c r="N6" s="144" t="s">
-        <v>746</v>
-      </c>
-      <c r="O6" s="144">
-        <v>70</v>
-      </c>
-      <c r="P6" s="144">
-        <v>115.5</v>
-      </c>
-      <c r="Q6" s="144">
-        <v>115.5</v>
-      </c>
-      <c r="R6" s="144">
-        <v>49</v>
-      </c>
-      <c r="S6" s="145">
-        <f>SUM(O6:R6)</f>
-        <v>350</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="N6" s="144"/>
+      <c r="O6" s="144"/>
+      <c r="P6" s="144"/>
+      <c r="Q6" s="144"/>
+      <c r="R6" s="144"/>
+      <c r="S6" s="145"/>
+    </row>
+    <row r="7" spans="1:19" ht="13.8">
       <c r="A7" s="99">
-        <v>6</v>
-      </c>
-      <c r="B7" s="146" t="s">
-        <v>307</v>
-      </c>
-      <c r="C7" s="108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="152" t="s">
+        <v>745</v>
+      </c>
+      <c r="C7" s="101" t="s">
         <v>516</v>
       </c>
-      <c r="D7" s="108" t="s">
-        <v>520</v>
-      </c>
-      <c r="E7" s="147" t="s">
+      <c r="D7" s="101" t="s">
+        <v>517</v>
+      </c>
+      <c r="E7" s="148" t="s">
         <v>509</v>
       </c>
       <c r="F7" s="103" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G7" s="148" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="H7" s="124"/>
       <c r="I7" s="124"/>
@@ -45164,14 +45160,27 @@
       <c r="K7" s="124"/>
       <c r="L7" s="124"/>
       <c r="M7" s="124"/>
-      <c r="N7" s="124"/>
-      <c r="O7" s="124"/>
-      <c r="P7" s="124"/>
-      <c r="Q7" s="124"/>
-      <c r="R7" s="124"/>
-      <c r="S7" s="149"/>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="N7" s="124" t="s">
+        <v>746</v>
+      </c>
+      <c r="O7" s="124">
+        <v>70</v>
+      </c>
+      <c r="P7" s="124">
+        <v>115.5</v>
+      </c>
+      <c r="Q7" s="124">
+        <v>115.5</v>
+      </c>
+      <c r="R7" s="124">
+        <v>49</v>
+      </c>
+      <c r="S7" s="149">
+        <f>SUM(O7:R7)</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="13.8">
       <c r="A8" s="94">
         <v>7</v>
       </c>
@@ -45206,7 +45215,7 @@
       <c r="R8" s="144"/>
       <c r="S8" s="145"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" ht="13.8">
       <c r="A9" s="99">
         <v>8</v>
       </c>
@@ -45241,7 +45250,7 @@
       <c r="R9" s="124"/>
       <c r="S9" s="149"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" ht="13.8">
       <c r="A10" s="94">
         <v>9</v>
       </c>
@@ -45276,7 +45285,7 @@
       <c r="R10" s="144"/>
       <c r="S10" s="145"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" ht="13.8">
       <c r="A11" s="99">
         <v>10</v>
       </c>
@@ -45311,7 +45320,7 @@
       <c r="R11" s="124"/>
       <c r="S11" s="149"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" ht="13.8">
       <c r="A12" s="94">
         <v>11</v>
       </c>
@@ -45359,7 +45368,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" ht="13.8">
       <c r="A13" s="99">
         <v>12</v>
       </c>
@@ -45394,7 +45403,7 @@
       <c r="R13" s="124"/>
       <c r="S13" s="149"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" ht="13.8">
       <c r="A14" s="94">
         <v>13</v>
       </c>
@@ -45429,7 +45438,7 @@
       <c r="R14" s="144"/>
       <c r="S14" s="145"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" ht="13.8">
       <c r="A15" s="99">
         <v>14</v>
       </c>
@@ -45464,7 +45473,7 @@
       <c r="R15" s="124"/>
       <c r="S15" s="149"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" ht="13.8">
       <c r="A16" s="94">
         <v>15</v>
       </c>
@@ -45499,7 +45508,7 @@
       <c r="R16" s="144"/>
       <c r="S16" s="145"/>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" ht="13.8">
       <c r="A17" s="99">
         <v>16</v>
       </c>
@@ -45534,7 +45543,7 @@
       <c r="R17" s="124"/>
       <c r="S17" s="149"/>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" ht="13.8">
       <c r="A18" s="94">
         <v>17</v>
       </c>
@@ -45569,7 +45578,7 @@
       <c r="R18" s="144"/>
       <c r="S18" s="145"/>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" ht="13.8">
       <c r="A19" s="99">
         <v>18</v>
       </c>
@@ -45604,7 +45613,7 @@
       <c r="R19" s="124"/>
       <c r="S19" s="149"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" ht="13.8">
       <c r="A20" s="94">
         <v>19</v>
       </c>
@@ -45814,7 +45823,7 @@
       <c r="R25" s="155"/>
       <c r="S25" s="156"/>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" ht="13.8">
       <c r="A26" s="94">
         <v>25</v>
       </c>
@@ -45849,7 +45858,7 @@
       <c r="R26" s="144"/>
       <c r="S26" s="145"/>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" ht="13.8">
       <c r="A27" s="99">
         <v>26</v>
       </c>
@@ -45884,7 +45893,7 @@
       <c r="R27" s="124"/>
       <c r="S27" s="149"/>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" ht="13.8">
       <c r="A28" s="94">
         <v>27</v>
       </c>
@@ -45919,7 +45928,7 @@
       <c r="R28" s="144"/>
       <c r="S28" s="145"/>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" ht="13.8">
       <c r="A29" s="99">
         <v>28</v>
       </c>
@@ -45989,7 +45998,7 @@
       <c r="R30" s="157"/>
       <c r="S30" s="158"/>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" ht="13.8">
       <c r="A31" s="99">
         <v>30</v>
       </c>
@@ -46127,7 +46136,7 @@
       <c r="R34" s="160"/>
       <c r="S34" s="161"/>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:19" ht="13.8">
       <c r="A35" s="99">
         <v>34</v>
       </c>
@@ -46162,7 +46171,7 @@
       <c r="R35" s="124"/>
       <c r="S35" s="149"/>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:19" ht="13.8">
       <c r="A36" s="99">
         <v>36</v>
       </c>
@@ -46197,7 +46206,7 @@
       <c r="R36" s="124"/>
       <c r="S36" s="149"/>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:19" ht="13.8">
       <c r="A37" s="94">
         <v>37</v>
       </c>
@@ -46232,7 +46241,7 @@
       <c r="R37" s="144"/>
       <c r="S37" s="145"/>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:19" ht="13.8">
       <c r="A38" s="99">
         <v>38</v>
       </c>
@@ -46267,7 +46276,7 @@
       <c r="R38" s="124"/>
       <c r="S38" s="149"/>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:19" ht="13.8">
       <c r="A39" s="94">
         <v>39</v>
       </c>
@@ -46302,7 +46311,7 @@
       <c r="R39" s="144"/>
       <c r="S39" s="145"/>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:19" ht="13.8">
       <c r="A40" s="99">
         <v>40</v>
       </c>
@@ -46337,7 +46346,7 @@
       <c r="R40" s="124"/>
       <c r="S40" s="149"/>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:19" ht="13.8">
       <c r="A41" s="94">
         <v>41</v>
       </c>
@@ -46374,7 +46383,7 @@
       <c r="R41" s="144"/>
       <c r="S41" s="145"/>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:19" ht="13.8">
       <c r="A42" s="99">
         <v>42</v>
       </c>
@@ -46409,7 +46418,7 @@
       <c r="R42" s="124"/>
       <c r="S42" s="149"/>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:19" ht="13.8">
       <c r="A43" s="94">
         <v>43</v>
       </c>
@@ -46444,7 +46453,7 @@
       <c r="R43" s="144"/>
       <c r="S43" s="145"/>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:19" ht="13.8">
       <c r="A44" s="99">
         <v>44</v>
       </c>
@@ -46479,7 +46488,7 @@
       <c r="R44" s="124"/>
       <c r="S44" s="149"/>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:19" ht="13.8">
       <c r="A45" s="94">
         <v>45</v>
       </c>
@@ -46514,7 +46523,7 @@
       <c r="R45" s="144"/>
       <c r="S45" s="145"/>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:19" ht="13.8">
       <c r="A46" s="99">
         <v>46</v>
       </c>
@@ -46549,7 +46558,7 @@
       <c r="R46" s="124"/>
       <c r="S46" s="149"/>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:19" ht="13.8">
       <c r="A47" s="94">
         <v>47</v>
       </c>
@@ -46584,7 +46593,7 @@
       <c r="R47" s="144"/>
       <c r="S47" s="145"/>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:19" ht="13.8">
       <c r="A48" s="99">
         <v>48</v>
       </c>
@@ -46619,7 +46628,7 @@
       <c r="R48" s="124"/>
       <c r="S48" s="149"/>
     </row>
-    <row r="49" spans="1:19">
+    <row r="49" spans="1:19" ht="13.8">
       <c r="A49" s="94">
         <v>49</v>
       </c>
@@ -46654,7 +46663,7 @@
       <c r="R49" s="144"/>
       <c r="S49" s="145"/>
     </row>
-    <row r="50" spans="1:19">
+    <row r="50" spans="1:19" ht="13.8">
       <c r="A50" s="99">
         <v>50</v>
       </c>
@@ -46689,7 +46698,7 @@
       <c r="R50" s="124"/>
       <c r="S50" s="149"/>
     </row>
-    <row r="51" spans="1:19">
+    <row r="51" spans="1:19" ht="13.8">
       <c r="A51" s="94">
         <v>51</v>
       </c>
@@ -46965,27 +46974,27 @@
       <c r="R58" s="155"/>
       <c r="S58" s="156"/>
     </row>
-    <row r="59" spans="1:19">
+    <row r="59" spans="1:19" ht="13.8">
       <c r="A59" s="94">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B59" s="105" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="C59" s="105" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D59" s="105" t="s">
         <v>508</v>
       </c>
       <c r="E59" s="148" t="s">
-        <v>415</v>
+        <v>809</v>
       </c>
       <c r="F59" s="98" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="G59" s="148" t="s">
-        <v>802</v>
+        <v>810</v>
       </c>
       <c r="H59" s="144"/>
       <c r="I59" s="144"/>
@@ -47000,7 +47009,7 @@
       <c r="R59" s="144"/>
       <c r="S59" s="145"/>
     </row>
-    <row r="60" spans="1:19">
+    <row r="60" spans="1:19" ht="13.8">
       <c r="A60" s="99">
         <v>60</v>
       </c>
@@ -47035,7 +47044,7 @@
       <c r="R60" s="124"/>
       <c r="S60" s="149"/>
     </row>
-    <row r="61" spans="1:19">
+    <row r="61" spans="1:19" ht="13.8">
       <c r="A61" s="94">
         <v>61</v>
       </c>
@@ -47070,7 +47079,7 @@
       <c r="R61" s="144"/>
       <c r="S61" s="145"/>
     </row>
-    <row r="62" spans="1:19">
+    <row r="62" spans="1:19" ht="13.8">
       <c r="A62" s="99">
         <v>62</v>
       </c>
@@ -47105,7 +47114,7 @@
       <c r="R62" s="124"/>
       <c r="S62" s="149"/>
     </row>
-    <row r="63" spans="1:19">
+    <row r="63" spans="1:19" ht="13.8">
       <c r="A63" s="94">
         <v>63</v>
       </c>
@@ -47140,7 +47149,7 @@
       <c r="R63" s="144"/>
       <c r="S63" s="145"/>
     </row>
-    <row r="64" spans="1:19">
+    <row r="64" spans="1:19" ht="13.8">
       <c r="A64" s="99">
         <v>64</v>
       </c>
@@ -47175,7 +47184,7 @@
       <c r="R64" s="124"/>
       <c r="S64" s="149"/>
     </row>
-    <row r="65" spans="1:19">
+    <row r="65" spans="1:19" ht="13.8">
       <c r="A65" s="94">
         <v>65</v>
       </c>
@@ -47210,7 +47219,7 @@
       <c r="R65" s="144"/>
       <c r="S65" s="145"/>
     </row>
-    <row r="66" spans="1:19">
+    <row r="66" spans="1:19" ht="13.8">
       <c r="A66" s="99">
         <v>66</v>
       </c>
@@ -47245,27 +47254,27 @@
       <c r="R66" s="124"/>
       <c r="S66" s="149"/>
     </row>
-    <row r="67" spans="1:19">
+    <row r="67" spans="1:19" ht="13.8">
       <c r="A67" s="94">
-        <v>67</v>
-      </c>
-      <c r="B67" s="105" t="s">
-        <v>688</v>
+        <v>68</v>
+      </c>
+      <c r="B67" s="151" t="s">
+        <v>299</v>
       </c>
       <c r="C67" s="105" t="s">
-        <v>20</v>
+        <v>516</v>
       </c>
       <c r="D67" s="105" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="E67" s="148" t="s">
-        <v>809</v>
-      </c>
-      <c r="F67" s="98" t="s">
-        <v>690</v>
+        <v>427</v>
+      </c>
+      <c r="F67" s="98">
+        <v>77761000911</v>
       </c>
       <c r="G67" s="148" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="H67" s="144"/>
       <c r="I67" s="144"/>
@@ -47280,27 +47289,27 @@
       <c r="R67" s="144"/>
       <c r="S67" s="145"/>
     </row>
-    <row r="68" spans="1:19">
+    <row r="68" spans="1:19" ht="13.8">
       <c r="A68" s="99">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B68" s="152" t="s">
-        <v>299</v>
+        <v>401</v>
       </c>
       <c r="C68" s="101" t="s">
         <v>516</v>
       </c>
       <c r="D68" s="101" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E68" s="148" t="s">
         <v>427</v>
       </c>
       <c r="F68" s="103">
-        <v>77761000911</v>
+        <v>77022144180</v>
       </c>
       <c r="G68" s="148" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="H68" s="124"/>
       <c r="I68" s="124"/>
@@ -47315,27 +47324,27 @@
       <c r="R68" s="124"/>
       <c r="S68" s="149"/>
     </row>
-    <row r="69" spans="1:19">
+    <row r="69" spans="1:19" ht="13.8">
       <c r="A69" s="94">
-        <v>69</v>
-      </c>
-      <c r="B69" s="151" t="s">
-        <v>401</v>
+        <v>70</v>
+      </c>
+      <c r="B69" s="105" t="s">
+        <v>701</v>
       </c>
       <c r="C69" s="105" t="s">
-        <v>516</v>
+        <v>15</v>
       </c>
       <c r="D69" s="105" t="s">
-        <v>517</v>
+        <v>699</v>
       </c>
       <c r="E69" s="148" t="s">
         <v>427</v>
       </c>
       <c r="F69" s="98">
-        <v>77022144180</v>
+        <v>77057455794</v>
       </c>
       <c r="G69" s="148" t="s">
-        <v>803</v>
+        <v>811</v>
       </c>
       <c r="H69" s="144"/>
       <c r="I69" s="144"/>
@@ -47350,75 +47359,75 @@
       <c r="R69" s="144"/>
       <c r="S69" s="145"/>
     </row>
-    <row r="70" spans="1:19">
+    <row r="70" spans="1:19" ht="14.4">
       <c r="A70" s="99">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B70" s="101" t="s">
-        <v>701</v>
+        <v>723</v>
       </c>
       <c r="C70" s="101" t="s">
         <v>15</v>
       </c>
       <c r="D70" s="101" t="s">
-        <v>699</v>
+        <v>724</v>
       </c>
       <c r="E70" s="148" t="s">
-        <v>427</v>
-      </c>
-      <c r="F70" s="103">
-        <v>77057455794</v>
-      </c>
-      <c r="G70" s="148" t="s">
-        <v>811</v>
-      </c>
-      <c r="H70" s="124"/>
-      <c r="I70" s="124"/>
-      <c r="J70" s="124"/>
-      <c r="K70" s="124"/>
-      <c r="L70" s="124"/>
-      <c r="M70" s="124"/>
-      <c r="N70" s="124"/>
-      <c r="O70" s="124"/>
-      <c r="P70" s="124"/>
-      <c r="Q70" s="124"/>
-      <c r="R70" s="124"/>
-      <c r="S70" s="149"/>
+        <v>415</v>
+      </c>
+      <c r="F70" s="181" t="s">
+        <v>726</v>
+      </c>
+      <c r="G70" s="154" t="s">
+        <v>822</v>
+      </c>
+      <c r="H70" s="155"/>
+      <c r="I70" s="155"/>
+      <c r="J70" s="155"/>
+      <c r="K70" s="155"/>
+      <c r="L70" s="155"/>
+      <c r="M70" s="155"/>
+      <c r="N70" s="155"/>
+      <c r="O70" s="155"/>
+      <c r="P70" s="155"/>
+      <c r="Q70" s="155"/>
+      <c r="R70" s="155"/>
+      <c r="S70" s="156"/>
     </row>
     <row r="71" spans="1:19" ht="15.75" customHeight="1">
       <c r="A71" s="94">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B71" s="105" t="s">
-        <v>723</v>
+        <v>681</v>
       </c>
       <c r="C71" s="105" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D71" s="105" t="s">
-        <v>724</v>
+        <v>508</v>
       </c>
       <c r="E71" s="148" t="s">
         <v>415</v>
       </c>
-      <c r="F71" s="164" t="s">
-        <v>726</v>
-      </c>
-      <c r="G71" s="154" t="s">
-        <v>812</v>
-      </c>
-      <c r="H71" s="157"/>
-      <c r="I71" s="157"/>
-      <c r="J71" s="157"/>
-      <c r="K71" s="157"/>
-      <c r="L71" s="157"/>
-      <c r="M71" s="157"/>
-      <c r="N71" s="157"/>
-      <c r="O71" s="157"/>
-      <c r="P71" s="157"/>
-      <c r="Q71" s="157"/>
-      <c r="R71" s="157"/>
-      <c r="S71" s="158"/>
+      <c r="F71" s="98" t="s">
+        <v>683</v>
+      </c>
+      <c r="G71" s="148" t="s">
+        <v>802</v>
+      </c>
+      <c r="H71" s="144"/>
+      <c r="I71" s="144"/>
+      <c r="J71" s="144"/>
+      <c r="K71" s="144"/>
+      <c r="L71" s="144"/>
+      <c r="M71" s="144"/>
+      <c r="N71" s="144"/>
+      <c r="O71" s="144"/>
+      <c r="P71" s="144"/>
+      <c r="Q71" s="144"/>
+      <c r="R71" s="144"/>
+      <c r="S71" s="145"/>
     </row>
     <row r="72" spans="1:19" ht="15.75" customHeight="1">
       <c r="A72" s="99">
@@ -47525,7 +47534,7 @@
       <c r="R74" s="155"/>
       <c r="S74" s="156"/>
     </row>
-    <row r="75" spans="1:19">
+    <row r="75" spans="1:19" ht="13.8">
       <c r="A75" s="94">
         <v>75</v>
       </c>
@@ -47595,7 +47604,7 @@
       <c r="R76" s="155"/>
       <c r="S76" s="156"/>
     </row>
-    <row r="77" spans="1:19">
+    <row r="77" spans="1:19" ht="13.8">
       <c r="A77" s="165"/>
       <c r="B77" s="166"/>
       <c r="C77" s="167"/>

--- a/Контакты Stratera.xlsx
+++ b/Контакты Stratera.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Рабочий стол\heatmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B91EC9-3D8D-459B-8D4F-6979031E2C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998223F0-6FDA-4268-B01D-3664C9EE65FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="13596" windowHeight="9300" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Менеджеры по продажам район (2)" sheetId="5" r:id="rId1"/>
@@ -22,14 +22,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Менеджеры по продажам'!$A$1:$H$83</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Менеджеры по продажам район (2)'!$A$1:$S$78</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Менеджеры по продажам районы'!$A$1:$S$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Менеджеры по продажам районы'!$A$1:$S$76</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2427" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2422" uniqueCount="824">
   <si>
     <t>СКО</t>
   </si>
@@ -4271,6 +4271,9 @@
   </si>
   <si>
     <t>Жамбылский, Кызылжарский, Аккайынский</t>
+  </si>
+  <si>
+    <t>Актогайский, Иртышский, Железинский</t>
   </si>
 </sst>
 </file>
@@ -5740,6 +5743,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5761,9 +5767,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -5903,10 +5906,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Таблица1_2" displayName="Таблица1_2" ref="A1:S77">
-  <autoFilter ref="A1:S77" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S77">
-    <sortCondition ref="E1:E77"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Таблица1_2" displayName="Таблица1_2" ref="A1:S76">
+  <autoFilter ref="A1:S76" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S76">
+    <sortCondition ref="E1:E76"/>
   </sortState>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="№"/>
@@ -11087,10 +11090,10 @@
       <c r="Z57" s="11"/>
     </row>
     <row r="58" spans="1:26" ht="13.8">
-      <c r="A58" s="172" t="s">
+      <c r="A58" s="173" t="s">
         <v>202</v>
       </c>
-      <c r="B58" s="173"/>
+      <c r="B58" s="174"/>
       <c r="C58" s="27" t="s">
         <v>2</v>
       </c>
@@ -12277,12 +12280,12 @@
       <c r="Z92" s="11"/>
     </row>
     <row r="93" spans="1:26" ht="13.8">
-      <c r="A93" s="174" t="s">
+      <c r="A93" s="175" t="s">
         <v>288</v>
       </c>
-      <c r="B93" s="175"/>
-      <c r="C93" s="175"/>
-      <c r="D93" s="173"/>
+      <c r="B93" s="176"/>
+      <c r="C93" s="176"/>
+      <c r="D93" s="174"/>
       <c r="E93" s="13"/>
       <c r="F93" s="9"/>
       <c r="G93" s="9"/>
@@ -13060,12 +13063,12 @@
       <c r="Z111" s="11"/>
     </row>
     <row r="112" spans="1:26" ht="13.8">
-      <c r="A112" s="176" t="s">
+      <c r="A112" s="177" t="s">
         <v>358</v>
       </c>
-      <c r="B112" s="175"/>
-      <c r="C112" s="175"/>
-      <c r="D112" s="173"/>
+      <c r="B112" s="176"/>
+      <c r="C112" s="176"/>
+      <c r="D112" s="174"/>
       <c r="E112" s="13"/>
       <c r="F112" s="9"/>
       <c r="G112" s="9"/>
@@ -13422,12 +13425,12 @@
       <c r="Z120" s="11"/>
     </row>
     <row r="121" spans="1:26" ht="13.8">
-      <c r="A121" s="174" t="s">
+      <c r="A121" s="175" t="s">
         <v>392</v>
       </c>
-      <c r="B121" s="175"/>
-      <c r="C121" s="175"/>
-      <c r="D121" s="173"/>
+      <c r="B121" s="176"/>
+      <c r="C121" s="176"/>
+      <c r="D121" s="174"/>
       <c r="E121" s="13"/>
       <c r="F121" s="9"/>
       <c r="G121" s="9"/>
@@ -39111,10 +39114,10 @@
       <c r="E57" s="65"/>
     </row>
     <row r="58" spans="1:5" ht="15.6">
-      <c r="A58" s="177" t="s">
+      <c r="A58" s="178" t="s">
         <v>202</v>
       </c>
-      <c r="B58" s="173"/>
+      <c r="B58" s="174"/>
       <c r="C58" s="77" t="s">
         <v>2</v>
       </c>
@@ -39531,12 +39534,12 @@
       <c r="D92" s="62"/>
     </row>
     <row r="93" spans="1:5" ht="13.2">
-      <c r="A93" s="178" t="s">
+      <c r="A93" s="179" t="s">
         <v>481</v>
       </c>
-      <c r="B93" s="175"/>
-      <c r="C93" s="175"/>
-      <c r="D93" s="173"/>
+      <c r="B93" s="176"/>
+      <c r="C93" s="176"/>
+      <c r="D93" s="174"/>
     </row>
     <row r="94" spans="1:5" ht="13.2">
       <c r="A94" s="62" t="s">
@@ -39829,12 +39832,12 @@
       </c>
     </row>
     <row r="111" spans="1:5" ht="13.2">
-      <c r="A111" s="179" t="s">
+      <c r="A111" s="180" t="s">
         <v>484</v>
       </c>
-      <c r="B111" s="180"/>
-      <c r="C111" s="180"/>
-      <c r="D111" s="180"/>
+      <c r="B111" s="181"/>
+      <c r="C111" s="181"/>
+      <c r="D111" s="181"/>
     </row>
     <row r="112" spans="1:5" ht="13.2">
       <c r="A112" s="62" t="s">
@@ -44869,11 +44872,11 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S77"/>
+  <dimension ref="A1:S76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G70" sqref="G70"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -46069,79 +46072,79 @@
       <c r="S32" s="161"/>
     </row>
     <row r="33" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A33" s="99">
-        <v>32</v>
-      </c>
-      <c r="B33" s="152" t="s">
-        <v>319</v>
-      </c>
-      <c r="C33" s="101" t="s">
+      <c r="A33" s="94">
+        <v>33</v>
+      </c>
+      <c r="B33" s="151" t="s">
+        <v>611</v>
+      </c>
+      <c r="C33" s="105" t="s">
         <v>516</v>
       </c>
-      <c r="D33" s="101" t="s">
-        <v>520</v>
-      </c>
+      <c r="D33" s="105"/>
       <c r="E33" s="148" t="s">
         <v>609</v>
       </c>
-      <c r="F33" s="103">
-        <v>77057797357</v>
-      </c>
-      <c r="G33" s="154" t="s">
-        <v>768</v>
-      </c>
-      <c r="H33" s="155"/>
-      <c r="I33" s="155"/>
-      <c r="J33" s="155"/>
-      <c r="K33" s="155"/>
-      <c r="L33" s="155"/>
-      <c r="M33" s="155"/>
-      <c r="N33" s="155"/>
-      <c r="O33" s="155"/>
-      <c r="P33" s="155"/>
-      <c r="Q33" s="155"/>
-      <c r="R33" s="155"/>
-      <c r="S33" s="156"/>
-    </row>
-    <row r="34" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A34" s="94">
-        <v>33</v>
-      </c>
-      <c r="B34" s="151" t="s">
-        <v>611</v>
-      </c>
-      <c r="C34" s="105" t="s">
-        <v>516</v>
-      </c>
-      <c r="D34" s="105"/>
+      <c r="F33" s="98" t="s">
+        <v>613</v>
+      </c>
+      <c r="G33" s="159" t="s">
+        <v>771</v>
+      </c>
+      <c r="H33" s="160"/>
+      <c r="I33" s="160"/>
+      <c r="J33" s="160"/>
+      <c r="K33" s="160"/>
+      <c r="L33" s="160"/>
+      <c r="M33" s="160"/>
+      <c r="N33" s="160"/>
+      <c r="O33" s="160"/>
+      <c r="P33" s="160"/>
+      <c r="Q33" s="160"/>
+      <c r="R33" s="160"/>
+      <c r="S33" s="161"/>
+    </row>
+    <row r="34" spans="1:19" ht="13.8">
+      <c r="A34" s="99">
+        <v>34</v>
+      </c>
+      <c r="B34" s="101" t="s">
+        <v>639</v>
+      </c>
+      <c r="C34" s="101" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="101" t="s">
+        <v>592</v>
+      </c>
       <c r="E34" s="148" t="s">
-        <v>609</v>
-      </c>
-      <c r="F34" s="98" t="s">
-        <v>613</v>
-      </c>
-      <c r="G34" s="159" t="s">
-        <v>771</v>
-      </c>
-      <c r="H34" s="160"/>
-      <c r="I34" s="160"/>
-      <c r="J34" s="160"/>
-      <c r="K34" s="160"/>
-      <c r="L34" s="160"/>
-      <c r="M34" s="160"/>
-      <c r="N34" s="160"/>
-      <c r="O34" s="160"/>
-      <c r="P34" s="160"/>
-      <c r="Q34" s="160"/>
-      <c r="R34" s="160"/>
-      <c r="S34" s="161"/>
+        <v>772</v>
+      </c>
+      <c r="F34" s="103">
+        <v>77054441706</v>
+      </c>
+      <c r="G34" s="148" t="s">
+        <v>773</v>
+      </c>
+      <c r="H34" s="124"/>
+      <c r="I34" s="124"/>
+      <c r="J34" s="124"/>
+      <c r="K34" s="124"/>
+      <c r="L34" s="124"/>
+      <c r="M34" s="124"/>
+      <c r="N34" s="124"/>
+      <c r="O34" s="124"/>
+      <c r="P34" s="124"/>
+      <c r="Q34" s="124"/>
+      <c r="R34" s="124"/>
+      <c r="S34" s="149"/>
     </row>
     <row r="35" spans="1:19" ht="13.8">
       <c r="A35" s="99">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35" s="101" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C35" s="101" t="s">
         <v>27</v>
@@ -46153,10 +46156,10 @@
         <v>772</v>
       </c>
       <c r="F35" s="103">
-        <v>77054441706</v>
+        <v>77775223878</v>
       </c>
       <c r="G35" s="148" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="H35" s="124"/>
       <c r="I35" s="124"/>
@@ -46172,1477 +46175,1442 @@
       <c r="S35" s="149"/>
     </row>
     <row r="36" spans="1:19" ht="13.8">
-      <c r="A36" s="99">
-        <v>36</v>
-      </c>
-      <c r="B36" s="101" t="s">
-        <v>641</v>
-      </c>
-      <c r="C36" s="101" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="101" t="s">
-        <v>592</v>
+      <c r="A36" s="94">
+        <v>37</v>
+      </c>
+      <c r="B36" s="105" t="s">
+        <v>652</v>
+      </c>
+      <c r="C36" s="105" t="s">
+        <v>653</v>
+      </c>
+      <c r="D36" s="105" t="s">
+        <v>599</v>
       </c>
       <c r="E36" s="148" t="s">
         <v>772</v>
       </c>
-      <c r="F36" s="103">
-        <v>77775223878</v>
+      <c r="F36" s="98">
+        <v>77711886327</v>
       </c>
       <c r="G36" s="148" t="s">
-        <v>776</v>
-      </c>
-      <c r="H36" s="124"/>
-      <c r="I36" s="124"/>
-      <c r="J36" s="124"/>
-      <c r="K36" s="124"/>
-      <c r="L36" s="124"/>
-      <c r="M36" s="124"/>
-      <c r="N36" s="124"/>
-      <c r="O36" s="124"/>
-      <c r="P36" s="124"/>
-      <c r="Q36" s="124"/>
-      <c r="R36" s="124"/>
-      <c r="S36" s="149"/>
+        <v>777</v>
+      </c>
+      <c r="H36" s="144"/>
+      <c r="I36" s="144"/>
+      <c r="J36" s="144"/>
+      <c r="K36" s="144"/>
+      <c r="L36" s="144"/>
+      <c r="M36" s="144"/>
+      <c r="N36" s="144"/>
+      <c r="O36" s="144"/>
+      <c r="P36" s="144"/>
+      <c r="Q36" s="144"/>
+      <c r="R36" s="144"/>
+      <c r="S36" s="145"/>
     </row>
     <row r="37" spans="1:19" ht="13.8">
-      <c r="A37" s="94">
-        <v>37</v>
-      </c>
-      <c r="B37" s="105" t="s">
-        <v>652</v>
-      </c>
-      <c r="C37" s="105" t="s">
-        <v>653</v>
-      </c>
-      <c r="D37" s="105" t="s">
-        <v>599</v>
+      <c r="A37" s="99">
+        <v>38</v>
+      </c>
+      <c r="B37" s="101" t="s">
+        <v>634</v>
+      </c>
+      <c r="C37" s="101" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="101" t="s">
+        <v>635</v>
       </c>
       <c r="E37" s="148" t="s">
         <v>772</v>
       </c>
-      <c r="F37" s="98">
-        <v>77711886327</v>
+      <c r="F37" s="103">
+        <v>77054627019</v>
       </c>
       <c r="G37" s="148" t="s">
-        <v>777</v>
-      </c>
-      <c r="H37" s="144"/>
-      <c r="I37" s="144"/>
-      <c r="J37" s="144"/>
-      <c r="K37" s="144"/>
-      <c r="L37" s="144"/>
-      <c r="M37" s="144"/>
-      <c r="N37" s="144"/>
-      <c r="O37" s="144"/>
-      <c r="P37" s="144"/>
-      <c r="Q37" s="144"/>
-      <c r="R37" s="144"/>
-      <c r="S37" s="145"/>
+        <v>778</v>
+      </c>
+      <c r="H37" s="124"/>
+      <c r="I37" s="124"/>
+      <c r="J37" s="124"/>
+      <c r="K37" s="124"/>
+      <c r="L37" s="124"/>
+      <c r="M37" s="124"/>
+      <c r="N37" s="124"/>
+      <c r="O37" s="124"/>
+      <c r="P37" s="124"/>
+      <c r="Q37" s="124"/>
+      <c r="R37" s="124"/>
+      <c r="S37" s="149"/>
     </row>
     <row r="38" spans="1:19" ht="13.8">
-      <c r="A38" s="99">
-        <v>38</v>
-      </c>
-      <c r="B38" s="101" t="s">
-        <v>634</v>
-      </c>
-      <c r="C38" s="101" t="s">
+      <c r="A38" s="94">
+        <v>39</v>
+      </c>
+      <c r="B38" s="105" t="s">
+        <v>637</v>
+      </c>
+      <c r="C38" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="D38" s="101" t="s">
+      <c r="D38" s="105" t="s">
         <v>635</v>
       </c>
       <c r="E38" s="148" t="s">
         <v>772</v>
       </c>
-      <c r="F38" s="103">
-        <v>77054627019</v>
+      <c r="F38" s="98">
+        <v>77477573740</v>
       </c>
       <c r="G38" s="148" t="s">
-        <v>778</v>
-      </c>
-      <c r="H38" s="124"/>
-      <c r="I38" s="124"/>
-      <c r="J38" s="124"/>
-      <c r="K38" s="124"/>
-      <c r="L38" s="124"/>
-      <c r="M38" s="124"/>
-      <c r="N38" s="124"/>
-      <c r="O38" s="124"/>
-      <c r="P38" s="124"/>
-      <c r="Q38" s="124"/>
-      <c r="R38" s="124"/>
-      <c r="S38" s="149"/>
+        <v>779</v>
+      </c>
+      <c r="H38" s="144"/>
+      <c r="I38" s="144"/>
+      <c r="J38" s="144"/>
+      <c r="K38" s="144"/>
+      <c r="L38" s="144"/>
+      <c r="M38" s="144"/>
+      <c r="N38" s="144"/>
+      <c r="O38" s="144"/>
+      <c r="P38" s="144"/>
+      <c r="Q38" s="144"/>
+      <c r="R38" s="144"/>
+      <c r="S38" s="145"/>
     </row>
     <row r="39" spans="1:19" ht="13.8">
-      <c r="A39" s="94">
-        <v>39</v>
-      </c>
-      <c r="B39" s="105" t="s">
-        <v>637</v>
-      </c>
-      <c r="C39" s="105" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" s="105" t="s">
-        <v>635</v>
+      <c r="A39" s="99">
+        <v>40</v>
+      </c>
+      <c r="B39" s="152" t="s">
+        <v>315</v>
+      </c>
+      <c r="C39" s="101" t="s">
+        <v>516</v>
+      </c>
+      <c r="D39" s="101" t="s">
+        <v>520</v>
       </c>
       <c r="E39" s="148" t="s">
         <v>772</v>
       </c>
-      <c r="F39" s="98">
-        <v>77477573740</v>
+      <c r="F39" s="110">
+        <v>77772459654</v>
       </c>
       <c r="G39" s="148" t="s">
-        <v>779</v>
-      </c>
-      <c r="H39" s="144"/>
-      <c r="I39" s="144"/>
-      <c r="J39" s="144"/>
-      <c r="K39" s="144"/>
-      <c r="L39" s="144"/>
-      <c r="M39" s="144"/>
-      <c r="N39" s="144"/>
-      <c r="O39" s="144"/>
-      <c r="P39" s="144"/>
-      <c r="Q39" s="144"/>
-      <c r="R39" s="144"/>
-      <c r="S39" s="145"/>
+        <v>780</v>
+      </c>
+      <c r="H39" s="124"/>
+      <c r="I39" s="124"/>
+      <c r="J39" s="124"/>
+      <c r="K39" s="124"/>
+      <c r="L39" s="124"/>
+      <c r="M39" s="124"/>
+      <c r="N39" s="124"/>
+      <c r="O39" s="124"/>
+      <c r="P39" s="124"/>
+      <c r="Q39" s="124"/>
+      <c r="R39" s="124"/>
+      <c r="S39" s="149"/>
     </row>
     <row r="40" spans="1:19" ht="13.8">
-      <c r="A40" s="99">
-        <v>40</v>
-      </c>
-      <c r="B40" s="152" t="s">
-        <v>315</v>
-      </c>
-      <c r="C40" s="101" t="s">
-        <v>516</v>
-      </c>
-      <c r="D40" s="101" t="s">
-        <v>520</v>
+      <c r="A40" s="94">
+        <v>41</v>
+      </c>
+      <c r="B40" s="105" t="s">
+        <v>616</v>
+      </c>
+      <c r="C40" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="105" t="s">
+        <v>617</v>
       </c>
       <c r="E40" s="148" t="s">
         <v>772</v>
       </c>
-      <c r="F40" s="110">
-        <v>77772459654</v>
+      <c r="F40" s="98">
+        <v>77764004000</v>
       </c>
       <c r="G40" s="148" t="s">
-        <v>780</v>
-      </c>
-      <c r="H40" s="124"/>
-      <c r="I40" s="124"/>
-      <c r="J40" s="124"/>
-      <c r="K40" s="124"/>
-      <c r="L40" s="124"/>
-      <c r="M40" s="124"/>
-      <c r="N40" s="124"/>
-      <c r="O40" s="124"/>
-      <c r="P40" s="124"/>
-      <c r="Q40" s="124"/>
-      <c r="R40" s="124"/>
-      <c r="S40" s="149"/>
+        <v>781</v>
+      </c>
+      <c r="H40" s="144" t="s">
+        <v>782</v>
+      </c>
+      <c r="I40" s="144"/>
+      <c r="J40" s="144"/>
+      <c r="K40" s="144"/>
+      <c r="L40" s="144"/>
+      <c r="M40" s="144"/>
+      <c r="N40" s="144"/>
+      <c r="O40" s="144"/>
+      <c r="P40" s="144"/>
+      <c r="Q40" s="144"/>
+      <c r="R40" s="144"/>
+      <c r="S40" s="145"/>
     </row>
     <row r="41" spans="1:19" ht="13.8">
-      <c r="A41" s="94">
-        <v>41</v>
-      </c>
-      <c r="B41" s="105" t="s">
-        <v>616</v>
-      </c>
-      <c r="C41" s="105" t="s">
-        <v>27</v>
-      </c>
-      <c r="D41" s="105" t="s">
-        <v>617</v>
+      <c r="A41" s="99">
+        <v>42</v>
+      </c>
+      <c r="B41" s="152" t="s">
+        <v>621</v>
+      </c>
+      <c r="C41" s="101" t="s">
+        <v>516</v>
+      </c>
+      <c r="D41" s="101" t="s">
+        <v>517</v>
       </c>
       <c r="E41" s="148" t="s">
         <v>772</v>
       </c>
-      <c r="F41" s="98">
-        <v>77764004000</v>
+      <c r="F41" s="103" t="s">
+        <v>623</v>
       </c>
       <c r="G41" s="148" t="s">
-        <v>781</v>
-      </c>
-      <c r="H41" s="144" t="s">
-        <v>782</v>
-      </c>
-      <c r="I41" s="144"/>
-      <c r="J41" s="144"/>
-      <c r="K41" s="144"/>
-      <c r="L41" s="144"/>
-      <c r="M41" s="144"/>
-      <c r="N41" s="144"/>
-      <c r="O41" s="144"/>
-      <c r="P41" s="144"/>
-      <c r="Q41" s="144"/>
-      <c r="R41" s="144"/>
-      <c r="S41" s="145"/>
+        <v>783</v>
+      </c>
+      <c r="H41" s="124"/>
+      <c r="I41" s="124"/>
+      <c r="J41" s="124"/>
+      <c r="K41" s="124"/>
+      <c r="L41" s="124"/>
+      <c r="M41" s="124"/>
+      <c r="N41" s="124"/>
+      <c r="O41" s="124"/>
+      <c r="P41" s="124"/>
+      <c r="Q41" s="124"/>
+      <c r="R41" s="124"/>
+      <c r="S41" s="149"/>
     </row>
     <row r="42" spans="1:19" ht="13.8">
-      <c r="A42" s="99">
-        <v>42</v>
-      </c>
-      <c r="B42" s="152" t="s">
-        <v>621</v>
-      </c>
-      <c r="C42" s="101" t="s">
-        <v>516</v>
-      </c>
-      <c r="D42" s="101" t="s">
-        <v>517</v>
+      <c r="A42" s="94">
+        <v>43</v>
+      </c>
+      <c r="B42" s="105" t="s">
+        <v>632</v>
+      </c>
+      <c r="C42" s="105" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="105" t="s">
+        <v>630</v>
       </c>
       <c r="E42" s="148" t="s">
         <v>772</v>
       </c>
-      <c r="F42" s="103" t="s">
-        <v>623</v>
+      <c r="F42" s="98">
+        <v>77710603592</v>
       </c>
       <c r="G42" s="148" t="s">
-        <v>783</v>
-      </c>
-      <c r="H42" s="124"/>
-      <c r="I42" s="124"/>
-      <c r="J42" s="124"/>
-      <c r="K42" s="124"/>
-      <c r="L42" s="124"/>
-      <c r="M42" s="124"/>
-      <c r="N42" s="124"/>
-      <c r="O42" s="124"/>
-      <c r="P42" s="124"/>
-      <c r="Q42" s="124"/>
-      <c r="R42" s="124"/>
-      <c r="S42" s="149"/>
+        <v>784</v>
+      </c>
+      <c r="H42" s="144"/>
+      <c r="I42" s="144"/>
+      <c r="J42" s="144"/>
+      <c r="K42" s="144"/>
+      <c r="L42" s="144"/>
+      <c r="M42" s="144"/>
+      <c r="N42" s="144"/>
+      <c r="O42" s="144"/>
+      <c r="P42" s="144"/>
+      <c r="Q42" s="144"/>
+      <c r="R42" s="144"/>
+      <c r="S42" s="145"/>
     </row>
     <row r="43" spans="1:19" ht="13.8">
-      <c r="A43" s="94">
-        <v>43</v>
-      </c>
-      <c r="B43" s="105" t="s">
-        <v>632</v>
-      </c>
-      <c r="C43" s="105" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="105" t="s">
-        <v>630</v>
+      <c r="A43" s="99">
+        <v>44</v>
+      </c>
+      <c r="B43" s="162" t="s">
+        <v>483</v>
+      </c>
+      <c r="C43" s="122" t="s">
+        <v>516</v>
+      </c>
+      <c r="D43" s="122" t="s">
+        <v>520</v>
       </c>
       <c r="E43" s="148" t="s">
         <v>772</v>
       </c>
-      <c r="F43" s="98">
-        <v>77710603592</v>
+      <c r="F43" s="124">
+        <v>77719062173</v>
       </c>
       <c r="G43" s="148" t="s">
-        <v>784</v>
-      </c>
-      <c r="H43" s="144"/>
-      <c r="I43" s="144"/>
-      <c r="J43" s="144"/>
-      <c r="K43" s="144"/>
-      <c r="L43" s="144"/>
-      <c r="M43" s="144"/>
-      <c r="N43" s="144"/>
-      <c r="O43" s="144"/>
-      <c r="P43" s="144"/>
-      <c r="Q43" s="144"/>
-      <c r="R43" s="144"/>
-      <c r="S43" s="145"/>
+        <v>785</v>
+      </c>
+      <c r="H43" s="124"/>
+      <c r="I43" s="124"/>
+      <c r="J43" s="124"/>
+      <c r="K43" s="124"/>
+      <c r="L43" s="124"/>
+      <c r="M43" s="124"/>
+      <c r="N43" s="124"/>
+      <c r="O43" s="124"/>
+      <c r="P43" s="124"/>
+      <c r="Q43" s="124"/>
+      <c r="R43" s="124"/>
+      <c r="S43" s="149"/>
     </row>
     <row r="44" spans="1:19" ht="13.8">
-      <c r="A44" s="99">
-        <v>44</v>
-      </c>
-      <c r="B44" s="162" t="s">
-        <v>483</v>
-      </c>
-      <c r="C44" s="122" t="s">
-        <v>516</v>
-      </c>
-      <c r="D44" s="122" t="s">
-        <v>520</v>
+      <c r="A44" s="94">
+        <v>45</v>
+      </c>
+      <c r="B44" s="125" t="s">
+        <v>629</v>
+      </c>
+      <c r="C44" s="125" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="125" t="s">
+        <v>630</v>
       </c>
       <c r="E44" s="148" t="s">
         <v>772</v>
       </c>
-      <c r="F44" s="124">
-        <v>77719062173</v>
+      <c r="F44" s="126">
+        <v>7710609229</v>
       </c>
       <c r="G44" s="148" t="s">
-        <v>785</v>
-      </c>
-      <c r="H44" s="124"/>
-      <c r="I44" s="124"/>
-      <c r="J44" s="124"/>
-      <c r="K44" s="124"/>
-      <c r="L44" s="124"/>
-      <c r="M44" s="124"/>
-      <c r="N44" s="124"/>
-      <c r="O44" s="124"/>
-      <c r="P44" s="124"/>
-      <c r="Q44" s="124"/>
-      <c r="R44" s="124"/>
-      <c r="S44" s="149"/>
+        <v>786</v>
+      </c>
+      <c r="H44" s="144"/>
+      <c r="I44" s="144"/>
+      <c r="J44" s="144"/>
+      <c r="K44" s="144"/>
+      <c r="L44" s="144"/>
+      <c r="M44" s="144"/>
+      <c r="N44" s="144"/>
+      <c r="O44" s="144"/>
+      <c r="P44" s="144"/>
+      <c r="Q44" s="144"/>
+      <c r="R44" s="144"/>
+      <c r="S44" s="145"/>
     </row>
     <row r="45" spans="1:19" ht="13.8">
-      <c r="A45" s="94">
-        <v>45</v>
-      </c>
-      <c r="B45" s="125" t="s">
-        <v>629</v>
-      </c>
-      <c r="C45" s="125" t="s">
+      <c r="A45" s="99">
+        <v>46</v>
+      </c>
+      <c r="B45" s="101" t="s">
+        <v>643</v>
+      </c>
+      <c r="C45" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="125" t="s">
-        <v>630</v>
+      <c r="D45" s="101" t="s">
+        <v>592</v>
       </c>
       <c r="E45" s="148" t="s">
         <v>772</v>
       </c>
-      <c r="F45" s="126">
-        <v>7710609229</v>
+      <c r="F45" s="103">
+        <v>77775223885</v>
       </c>
       <c r="G45" s="148" t="s">
-        <v>786</v>
-      </c>
-      <c r="H45" s="144"/>
-      <c r="I45" s="144"/>
-      <c r="J45" s="144"/>
-      <c r="K45" s="144"/>
-      <c r="L45" s="144"/>
-      <c r="M45" s="144"/>
-      <c r="N45" s="144"/>
-      <c r="O45" s="144"/>
-      <c r="P45" s="144"/>
-      <c r="Q45" s="144"/>
-      <c r="R45" s="144"/>
-      <c r="S45" s="145"/>
+        <v>787</v>
+      </c>
+      <c r="H45" s="124"/>
+      <c r="I45" s="124"/>
+      <c r="J45" s="124"/>
+      <c r="K45" s="124"/>
+      <c r="L45" s="124"/>
+      <c r="M45" s="124"/>
+      <c r="N45" s="124"/>
+      <c r="O45" s="124"/>
+      <c r="P45" s="124"/>
+      <c r="Q45" s="124"/>
+      <c r="R45" s="124"/>
+      <c r="S45" s="149"/>
     </row>
     <row r="46" spans="1:19" ht="13.8">
-      <c r="A46" s="99">
-        <v>46</v>
-      </c>
-      <c r="B46" s="101" t="s">
-        <v>643</v>
-      </c>
-      <c r="C46" s="101" t="s">
+      <c r="A46" s="94">
+        <v>47</v>
+      </c>
+      <c r="B46" s="105" t="s">
+        <v>619</v>
+      </c>
+      <c r="C46" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="D46" s="101" t="s">
-        <v>592</v>
+      <c r="D46" s="105" t="s">
+        <v>513</v>
       </c>
       <c r="E46" s="148" t="s">
         <v>772</v>
       </c>
-      <c r="F46" s="103">
-        <v>77775223885</v>
+      <c r="F46" s="98">
+        <v>77711886438</v>
       </c>
       <c r="G46" s="148" t="s">
-        <v>787</v>
-      </c>
-      <c r="H46" s="124"/>
-      <c r="I46" s="124"/>
-      <c r="J46" s="124"/>
-      <c r="K46" s="124"/>
-      <c r="L46" s="124"/>
-      <c r="M46" s="124"/>
-      <c r="N46" s="124"/>
-      <c r="O46" s="124"/>
-      <c r="P46" s="124"/>
-      <c r="Q46" s="124"/>
-      <c r="R46" s="124"/>
-      <c r="S46" s="149"/>
+        <v>788</v>
+      </c>
+      <c r="H46" s="144"/>
+      <c r="I46" s="144"/>
+      <c r="J46" s="144"/>
+      <c r="K46" s="144"/>
+      <c r="L46" s="144"/>
+      <c r="M46" s="144"/>
+      <c r="N46" s="144"/>
+      <c r="O46" s="144"/>
+      <c r="P46" s="144"/>
+      <c r="Q46" s="144"/>
+      <c r="R46" s="144"/>
+      <c r="S46" s="145"/>
     </row>
     <row r="47" spans="1:19" ht="13.8">
-      <c r="A47" s="94">
-        <v>47</v>
-      </c>
-      <c r="B47" s="105" t="s">
-        <v>619</v>
-      </c>
-      <c r="C47" s="105" t="s">
-        <v>27</v>
-      </c>
-      <c r="D47" s="105" t="s">
-        <v>513</v>
+      <c r="A47" s="99">
+        <v>48</v>
+      </c>
+      <c r="B47" s="152" t="s">
+        <v>627</v>
+      </c>
+      <c r="C47" s="101" t="s">
+        <v>516</v>
+      </c>
+      <c r="D47" s="101" t="s">
+        <v>517</v>
       </c>
       <c r="E47" s="148" t="s">
         <v>772</v>
       </c>
-      <c r="F47" s="98">
-        <v>77711886438</v>
+      <c r="F47" s="103">
+        <v>77753480121</v>
       </c>
       <c r="G47" s="148" t="s">
-        <v>788</v>
-      </c>
-      <c r="H47" s="144"/>
-      <c r="I47" s="144"/>
-      <c r="J47" s="144"/>
-      <c r="K47" s="144"/>
-      <c r="L47" s="144"/>
-      <c r="M47" s="144"/>
-      <c r="N47" s="144"/>
-      <c r="O47" s="144"/>
-      <c r="P47" s="144"/>
-      <c r="Q47" s="144"/>
-      <c r="R47" s="144"/>
-      <c r="S47" s="145"/>
+        <v>789</v>
+      </c>
+      <c r="H47" s="124"/>
+      <c r="I47" s="124"/>
+      <c r="J47" s="124"/>
+      <c r="K47" s="124"/>
+      <c r="L47" s="124"/>
+      <c r="M47" s="124"/>
+      <c r="N47" s="124"/>
+      <c r="O47" s="124"/>
+      <c r="P47" s="124"/>
+      <c r="Q47" s="124"/>
+      <c r="R47" s="124"/>
+      <c r="S47" s="149"/>
     </row>
     <row r="48" spans="1:19" ht="13.8">
-      <c r="A48" s="99">
-        <v>48</v>
-      </c>
-      <c r="B48" s="152" t="s">
-        <v>627</v>
-      </c>
-      <c r="C48" s="101" t="s">
-        <v>516</v>
-      </c>
-      <c r="D48" s="101" t="s">
-        <v>517</v>
+      <c r="A48" s="94">
+        <v>49</v>
+      </c>
+      <c r="B48" s="105" t="s">
+        <v>614</v>
+      </c>
+      <c r="C48" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" s="105" t="s">
+        <v>546</v>
       </c>
       <c r="E48" s="148" t="s">
         <v>772</v>
       </c>
-      <c r="F48" s="103">
-        <v>77753480121</v>
+      <c r="F48" s="98">
+        <v>77479305650</v>
       </c>
       <c r="G48" s="148" t="s">
-        <v>789</v>
-      </c>
-      <c r="H48" s="124"/>
-      <c r="I48" s="124"/>
-      <c r="J48" s="124"/>
-      <c r="K48" s="124"/>
-      <c r="L48" s="124"/>
-      <c r="M48" s="124"/>
-      <c r="N48" s="124"/>
-      <c r="O48" s="124"/>
-      <c r="P48" s="124"/>
-      <c r="Q48" s="124"/>
-      <c r="R48" s="124"/>
-      <c r="S48" s="149"/>
+        <v>790</v>
+      </c>
+      <c r="H48" s="144"/>
+      <c r="I48" s="144"/>
+      <c r="J48" s="144"/>
+      <c r="K48" s="144"/>
+      <c r="L48" s="144"/>
+      <c r="M48" s="144"/>
+      <c r="N48" s="144"/>
+      <c r="O48" s="144"/>
+      <c r="P48" s="144"/>
+      <c r="Q48" s="144"/>
+      <c r="R48" s="144"/>
+      <c r="S48" s="145"/>
     </row>
     <row r="49" spans="1:19" ht="13.8">
-      <c r="A49" s="94">
-        <v>49</v>
-      </c>
-      <c r="B49" s="105" t="s">
-        <v>614</v>
-      </c>
-      <c r="C49" s="105" t="s">
-        <v>27</v>
-      </c>
-      <c r="D49" s="105" t="s">
-        <v>546</v>
+      <c r="A49" s="99">
+        <v>50</v>
+      </c>
+      <c r="B49" s="152" t="s">
+        <v>624</v>
+      </c>
+      <c r="C49" s="101" t="s">
+        <v>516</v>
+      </c>
+      <c r="D49" s="101" t="s">
+        <v>517</v>
       </c>
       <c r="E49" s="148" t="s">
         <v>772</v>
       </c>
-      <c r="F49" s="98">
-        <v>77479305650</v>
+      <c r="F49" s="103" t="s">
+        <v>626</v>
       </c>
       <c r="G49" s="148" t="s">
-        <v>790</v>
-      </c>
-      <c r="H49" s="144"/>
-      <c r="I49" s="144"/>
-      <c r="J49" s="144"/>
-      <c r="K49" s="144"/>
-      <c r="L49" s="144"/>
-      <c r="M49" s="144"/>
-      <c r="N49" s="144"/>
-      <c r="O49" s="144"/>
-      <c r="P49" s="144"/>
-      <c r="Q49" s="144"/>
-      <c r="R49" s="144"/>
-      <c r="S49" s="145"/>
+        <v>791</v>
+      </c>
+      <c r="H49" s="124"/>
+      <c r="I49" s="124"/>
+      <c r="J49" s="124"/>
+      <c r="K49" s="124"/>
+      <c r="L49" s="124"/>
+      <c r="M49" s="124"/>
+      <c r="N49" s="124"/>
+      <c r="O49" s="124"/>
+      <c r="P49" s="124"/>
+      <c r="Q49" s="124"/>
+      <c r="R49" s="124"/>
+      <c r="S49" s="149"/>
     </row>
     <row r="50" spans="1:19" ht="13.8">
-      <c r="A50" s="99">
-        <v>50</v>
-      </c>
-      <c r="B50" s="152" t="s">
-        <v>624</v>
-      </c>
-      <c r="C50" s="101" t="s">
-        <v>516</v>
-      </c>
-      <c r="D50" s="101" t="s">
-        <v>517</v>
+      <c r="A50" s="94">
+        <v>51</v>
+      </c>
+      <c r="B50" s="105" t="s">
+        <v>645</v>
+      </c>
+      <c r="C50" s="105" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="105" t="s">
+        <v>646</v>
       </c>
       <c r="E50" s="148" t="s">
         <v>772</v>
       </c>
-      <c r="F50" s="103" t="s">
-        <v>626</v>
+      <c r="F50" s="98">
+        <v>77756396005</v>
       </c>
       <c r="G50" s="148" t="s">
-        <v>791</v>
-      </c>
-      <c r="H50" s="124"/>
-      <c r="I50" s="124"/>
-      <c r="J50" s="124"/>
-      <c r="K50" s="124"/>
-      <c r="L50" s="124"/>
-      <c r="M50" s="124"/>
-      <c r="N50" s="124"/>
-      <c r="O50" s="124"/>
-      <c r="P50" s="124"/>
-      <c r="Q50" s="124"/>
-      <c r="R50" s="124"/>
-      <c r="S50" s="149"/>
-    </row>
-    <row r="51" spans="1:19" ht="13.8">
-      <c r="A51" s="94">
-        <v>51</v>
-      </c>
-      <c r="B51" s="105" t="s">
-        <v>645</v>
-      </c>
-      <c r="C51" s="105" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51" s="105" t="s">
-        <v>646</v>
-      </c>
+        <v>792</v>
+      </c>
+      <c r="H50" s="144"/>
+      <c r="I50" s="144"/>
+      <c r="J50" s="144"/>
+      <c r="K50" s="144"/>
+      <c r="L50" s="144"/>
+      <c r="M50" s="144"/>
+      <c r="N50" s="144"/>
+      <c r="O50" s="144"/>
+      <c r="P50" s="144"/>
+      <c r="Q50" s="144"/>
+      <c r="R50" s="144"/>
+      <c r="S50" s="145"/>
+    </row>
+    <row r="51" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A51" s="99">
+        <v>52</v>
+      </c>
+      <c r="B51" s="152" t="s">
+        <v>678</v>
+      </c>
+      <c r="C51" s="101" t="s">
+        <v>516</v>
+      </c>
+      <c r="D51" s="101"/>
       <c r="E51" s="148" t="s">
-        <v>772</v>
-      </c>
-      <c r="F51" s="98">
-        <v>77756396005</v>
-      </c>
-      <c r="G51" s="148" t="s">
-        <v>792</v>
-      </c>
-      <c r="H51" s="144"/>
-      <c r="I51" s="144"/>
-      <c r="J51" s="144"/>
-      <c r="K51" s="144"/>
-      <c r="L51" s="144"/>
-      <c r="M51" s="144"/>
-      <c r="N51" s="144"/>
-      <c r="O51" s="144"/>
-      <c r="P51" s="144"/>
-      <c r="Q51" s="144"/>
-      <c r="R51" s="144"/>
-      <c r="S51" s="145"/>
+        <v>793</v>
+      </c>
+      <c r="F51" s="103" t="s">
+        <v>680</v>
+      </c>
+      <c r="G51" s="154" t="s">
+        <v>794</v>
+      </c>
+      <c r="H51" s="155"/>
+      <c r="I51" s="155"/>
+      <c r="J51" s="155"/>
+      <c r="K51" s="155"/>
+      <c r="L51" s="155"/>
+      <c r="M51" s="155"/>
+      <c r="N51" s="155"/>
+      <c r="O51" s="155"/>
+      <c r="P51" s="155"/>
+      <c r="Q51" s="155"/>
+      <c r="R51" s="155"/>
+      <c r="S51" s="156"/>
     </row>
     <row r="52" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A52" s="99">
-        <v>52</v>
-      </c>
-      <c r="B52" s="152" t="s">
-        <v>678</v>
-      </c>
-      <c r="C52" s="101" t="s">
-        <v>516</v>
-      </c>
-      <c r="D52" s="101"/>
+      <c r="A52" s="94">
+        <v>53</v>
+      </c>
+      <c r="B52" s="105" t="s">
+        <v>672</v>
+      </c>
+      <c r="C52" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" s="105" t="s">
+        <v>669</v>
+      </c>
       <c r="E52" s="148" t="s">
         <v>793</v>
       </c>
-      <c r="F52" s="103" t="s">
-        <v>680</v>
+      <c r="F52" s="98" t="s">
+        <v>674</v>
       </c>
       <c r="G52" s="154" t="s">
-        <v>794</v>
-      </c>
-      <c r="H52" s="155"/>
-      <c r="I52" s="155"/>
-      <c r="J52" s="155"/>
-      <c r="K52" s="155"/>
-      <c r="L52" s="155"/>
-      <c r="M52" s="155"/>
-      <c r="N52" s="155"/>
-      <c r="O52" s="155"/>
-      <c r="P52" s="155"/>
-      <c r="Q52" s="155"/>
-      <c r="R52" s="155"/>
-      <c r="S52" s="156"/>
+        <v>795</v>
+      </c>
+      <c r="H52" s="157"/>
+      <c r="I52" s="157"/>
+      <c r="J52" s="157"/>
+      <c r="K52" s="157"/>
+      <c r="L52" s="157"/>
+      <c r="M52" s="157"/>
+      <c r="N52" s="157"/>
+      <c r="O52" s="157"/>
+      <c r="P52" s="157"/>
+      <c r="Q52" s="157"/>
+      <c r="R52" s="157"/>
+      <c r="S52" s="158"/>
     </row>
     <row r="53" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A53" s="94">
-        <v>53</v>
-      </c>
-      <c r="B53" s="105" t="s">
-        <v>672</v>
-      </c>
-      <c r="C53" s="105" t="s">
-        <v>27</v>
-      </c>
-      <c r="D53" s="105" t="s">
-        <v>669</v>
-      </c>
+      <c r="A53" s="99">
+        <v>54</v>
+      </c>
+      <c r="B53" s="152" t="s">
+        <v>423</v>
+      </c>
+      <c r="C53" s="101" t="s">
+        <v>516</v>
+      </c>
+      <c r="D53" s="101"/>
       <c r="E53" s="148" t="s">
         <v>793</v>
       </c>
-      <c r="F53" s="98" t="s">
-        <v>674</v>
+      <c r="F53" s="103">
+        <v>77477185969</v>
       </c>
       <c r="G53" s="154" t="s">
-        <v>795</v>
-      </c>
-      <c r="H53" s="157"/>
-      <c r="I53" s="157"/>
-      <c r="J53" s="157"/>
-      <c r="K53" s="157"/>
-      <c r="L53" s="157"/>
-      <c r="M53" s="157"/>
-      <c r="N53" s="157"/>
-      <c r="O53" s="157"/>
-      <c r="P53" s="157"/>
-      <c r="Q53" s="157"/>
-      <c r="R53" s="157"/>
-      <c r="S53" s="158"/>
+        <v>796</v>
+      </c>
+      <c r="H53" s="155"/>
+      <c r="I53" s="155"/>
+      <c r="J53" s="155"/>
+      <c r="K53" s="155"/>
+      <c r="L53" s="155"/>
+      <c r="M53" s="155"/>
+      <c r="N53" s="155"/>
+      <c r="O53" s="155"/>
+      <c r="P53" s="155"/>
+      <c r="Q53" s="155"/>
+      <c r="R53" s="155"/>
+      <c r="S53" s="156"/>
     </row>
     <row r="54" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A54" s="99">
-        <v>54</v>
-      </c>
-      <c r="B54" s="152" t="s">
-        <v>423</v>
-      </c>
-      <c r="C54" s="101" t="s">
-        <v>516</v>
-      </c>
-      <c r="D54" s="101"/>
+      <c r="A54" s="94">
+        <v>55</v>
+      </c>
+      <c r="B54" s="105" t="s">
+        <v>664</v>
+      </c>
+      <c r="C54" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="105" t="s">
+        <v>665</v>
+      </c>
       <c r="E54" s="148" t="s">
         <v>793</v>
       </c>
-      <c r="F54" s="103">
-        <v>77477185969</v>
+      <c r="F54" s="118" t="s">
+        <v>667</v>
       </c>
       <c r="G54" s="154" t="s">
-        <v>796</v>
-      </c>
-      <c r="H54" s="155"/>
-      <c r="I54" s="155"/>
-      <c r="J54" s="155"/>
-      <c r="K54" s="155"/>
-      <c r="L54" s="155"/>
-      <c r="M54" s="155"/>
-      <c r="N54" s="155"/>
-      <c r="O54" s="155"/>
-      <c r="P54" s="155"/>
-      <c r="Q54" s="155"/>
-      <c r="R54" s="155"/>
-      <c r="S54" s="156"/>
+        <v>797</v>
+      </c>
+      <c r="H54" s="157"/>
+      <c r="I54" s="157"/>
+      <c r="J54" s="157"/>
+      <c r="K54" s="157"/>
+      <c r="L54" s="157"/>
+      <c r="M54" s="157"/>
+      <c r="N54" s="157"/>
+      <c r="O54" s="157"/>
+      <c r="P54" s="157"/>
+      <c r="Q54" s="157"/>
+      <c r="R54" s="157"/>
+      <c r="S54" s="158"/>
     </row>
     <row r="55" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A55" s="94">
-        <v>55</v>
-      </c>
-      <c r="B55" s="105" t="s">
-        <v>664</v>
-      </c>
-      <c r="C55" s="105" t="s">
+      <c r="A55" s="99">
+        <v>56</v>
+      </c>
+      <c r="B55" s="101" t="s">
+        <v>660</v>
+      </c>
+      <c r="C55" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="D55" s="105" t="s">
-        <v>665</v>
+      <c r="D55" s="101" t="s">
+        <v>661</v>
       </c>
       <c r="E55" s="148" t="s">
         <v>793</v>
       </c>
-      <c r="F55" s="118" t="s">
-        <v>667</v>
+      <c r="F55" s="110" t="s">
+        <v>663</v>
       </c>
       <c r="G55" s="154" t="s">
-        <v>797</v>
-      </c>
-      <c r="H55" s="157"/>
-      <c r="I55" s="157"/>
-      <c r="J55" s="157"/>
-      <c r="K55" s="157"/>
-      <c r="L55" s="157"/>
-      <c r="M55" s="157"/>
-      <c r="N55" s="157"/>
-      <c r="O55" s="157"/>
-      <c r="P55" s="157"/>
-      <c r="Q55" s="157"/>
-      <c r="R55" s="157"/>
-      <c r="S55" s="158"/>
+        <v>798</v>
+      </c>
+      <c r="H55" s="155"/>
+      <c r="I55" s="155"/>
+      <c r="J55" s="155"/>
+      <c r="K55" s="155"/>
+      <c r="L55" s="155"/>
+      <c r="M55" s="155"/>
+      <c r="N55" s="155"/>
+      <c r="O55" s="155"/>
+      <c r="P55" s="155"/>
+      <c r="Q55" s="155"/>
+      <c r="R55" s="155"/>
+      <c r="S55" s="156"/>
     </row>
     <row r="56" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A56" s="99">
-        <v>56</v>
-      </c>
-      <c r="B56" s="101" t="s">
-        <v>660</v>
-      </c>
-      <c r="C56" s="101" t="s">
-        <v>27</v>
-      </c>
-      <c r="D56" s="101" t="s">
-        <v>661</v>
+      <c r="A56" s="94">
+        <v>57</v>
+      </c>
+      <c r="B56" s="105" t="s">
+        <v>799</v>
+      </c>
+      <c r="C56" s="105" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="105" t="s">
+        <v>669</v>
       </c>
       <c r="E56" s="148" t="s">
         <v>793</v>
       </c>
-      <c r="F56" s="110" t="s">
-        <v>663</v>
+      <c r="F56" s="98" t="s">
+        <v>671</v>
       </c>
       <c r="G56" s="154" t="s">
-        <v>798</v>
-      </c>
-      <c r="H56" s="155"/>
-      <c r="I56" s="155"/>
-      <c r="J56" s="155"/>
-      <c r="K56" s="155"/>
-      <c r="L56" s="155"/>
-      <c r="M56" s="155"/>
-      <c r="N56" s="155"/>
-      <c r="O56" s="155"/>
-      <c r="P56" s="155"/>
-      <c r="Q56" s="155"/>
-      <c r="R56" s="155"/>
-      <c r="S56" s="156"/>
+        <v>800</v>
+      </c>
+      <c r="H56" s="157"/>
+      <c r="I56" s="157"/>
+      <c r="J56" s="157"/>
+      <c r="K56" s="157"/>
+      <c r="L56" s="157"/>
+      <c r="M56" s="157"/>
+      <c r="N56" s="157"/>
+      <c r="O56" s="157"/>
+      <c r="P56" s="157"/>
+      <c r="Q56" s="157"/>
+      <c r="R56" s="157"/>
+      <c r="S56" s="158"/>
     </row>
     <row r="57" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A57" s="94">
-        <v>57</v>
-      </c>
-      <c r="B57" s="105" t="s">
-        <v>799</v>
-      </c>
-      <c r="C57" s="105" t="s">
-        <v>15</v>
-      </c>
-      <c r="D57" s="105" t="s">
-        <v>669</v>
+      <c r="A57" s="99">
+        <v>58</v>
+      </c>
+      <c r="B57" s="101" t="s">
+        <v>675</v>
+      </c>
+      <c r="C57" s="101" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" s="101" t="s">
+        <v>539</v>
       </c>
       <c r="E57" s="148" t="s">
         <v>793</v>
       </c>
-      <c r="F57" s="98" t="s">
-        <v>671</v>
+      <c r="F57" s="103">
+        <v>77775223892</v>
       </c>
       <c r="G57" s="154" t="s">
-        <v>800</v>
-      </c>
-      <c r="H57" s="157"/>
-      <c r="I57" s="157"/>
-      <c r="J57" s="157"/>
-      <c r="K57" s="157"/>
-      <c r="L57" s="157"/>
-      <c r="M57" s="157"/>
-      <c r="N57" s="157"/>
-      <c r="O57" s="157"/>
-      <c r="P57" s="157"/>
-      <c r="Q57" s="157"/>
-      <c r="R57" s="157"/>
-      <c r="S57" s="158"/>
-    </row>
-    <row r="58" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A58" s="99">
-        <v>58</v>
-      </c>
-      <c r="B58" s="101" t="s">
-        <v>675</v>
-      </c>
-      <c r="C58" s="101" t="s">
-        <v>27</v>
-      </c>
-      <c r="D58" s="101" t="s">
-        <v>539</v>
+        <v>823</v>
+      </c>
+      <c r="H57" s="155"/>
+      <c r="I57" s="155"/>
+      <c r="J57" s="155"/>
+      <c r="K57" s="155"/>
+      <c r="L57" s="155"/>
+      <c r="M57" s="155"/>
+      <c r="N57" s="155"/>
+      <c r="O57" s="155"/>
+      <c r="P57" s="155"/>
+      <c r="Q57" s="155"/>
+      <c r="R57" s="155"/>
+      <c r="S57" s="156"/>
+    </row>
+    <row r="58" spans="1:19" ht="13.8">
+      <c r="A58" s="94">
+        <v>67</v>
+      </c>
+      <c r="B58" s="105" t="s">
+        <v>688</v>
+      </c>
+      <c r="C58" s="105" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="105" t="s">
+        <v>508</v>
       </c>
       <c r="E58" s="148" t="s">
-        <v>793</v>
-      </c>
-      <c r="F58" s="103">
-        <v>77775223892</v>
-      </c>
-      <c r="G58" s="154" t="s">
-        <v>801</v>
-      </c>
-      <c r="H58" s="155"/>
-      <c r="I58" s="155"/>
-      <c r="J58" s="155"/>
-      <c r="K58" s="155"/>
-      <c r="L58" s="155"/>
-      <c r="M58" s="155"/>
-      <c r="N58" s="155"/>
-      <c r="O58" s="155"/>
-      <c r="P58" s="155"/>
-      <c r="Q58" s="155"/>
-      <c r="R58" s="155"/>
-      <c r="S58" s="156"/>
+        <v>809</v>
+      </c>
+      <c r="F58" s="98" t="s">
+        <v>690</v>
+      </c>
+      <c r="G58" s="148" t="s">
+        <v>810</v>
+      </c>
+      <c r="H58" s="144"/>
+      <c r="I58" s="144"/>
+      <c r="J58" s="144"/>
+      <c r="K58" s="144"/>
+      <c r="L58" s="144"/>
+      <c r="M58" s="144"/>
+      <c r="N58" s="144"/>
+      <c r="O58" s="144"/>
+      <c r="P58" s="144"/>
+      <c r="Q58" s="144"/>
+      <c r="R58" s="144"/>
+      <c r="S58" s="145"/>
     </row>
     <row r="59" spans="1:19" ht="13.8">
-      <c r="A59" s="94">
-        <v>67</v>
-      </c>
-      <c r="B59" s="105" t="s">
-        <v>688</v>
-      </c>
-      <c r="C59" s="105" t="s">
-        <v>20</v>
-      </c>
-      <c r="D59" s="105" t="s">
-        <v>508</v>
+      <c r="A59" s="99">
+        <v>60</v>
+      </c>
+      <c r="B59" s="152" t="s">
+        <v>393</v>
+      </c>
+      <c r="C59" s="101" t="s">
+        <v>516</v>
+      </c>
+      <c r="D59" s="101" t="s">
+        <v>517</v>
       </c>
       <c r="E59" s="148" t="s">
-        <v>809</v>
-      </c>
-      <c r="F59" s="98" t="s">
-        <v>690</v>
+        <v>427</v>
+      </c>
+      <c r="F59" s="103">
+        <v>77078750345</v>
       </c>
       <c r="G59" s="148" t="s">
-        <v>810</v>
-      </c>
-      <c r="H59" s="144"/>
-      <c r="I59" s="144"/>
-      <c r="J59" s="144"/>
-      <c r="K59" s="144"/>
-      <c r="L59" s="144"/>
-      <c r="M59" s="144"/>
-      <c r="N59" s="144"/>
-      <c r="O59" s="144"/>
-      <c r="P59" s="144"/>
-      <c r="Q59" s="144"/>
-      <c r="R59" s="144"/>
-      <c r="S59" s="145"/>
+        <v>803</v>
+      </c>
+      <c r="H59" s="124"/>
+      <c r="I59" s="124"/>
+      <c r="J59" s="124"/>
+      <c r="K59" s="124"/>
+      <c r="L59" s="124"/>
+      <c r="M59" s="124"/>
+      <c r="N59" s="124"/>
+      <c r="O59" s="124"/>
+      <c r="P59" s="124"/>
+      <c r="Q59" s="124"/>
+      <c r="R59" s="124"/>
+      <c r="S59" s="149"/>
     </row>
     <row r="60" spans="1:19" ht="13.8">
-      <c r="A60" s="99">
-        <v>60</v>
-      </c>
-      <c r="B60" s="152" t="s">
-        <v>393</v>
-      </c>
-      <c r="C60" s="101" t="s">
+      <c r="A60" s="94">
+        <v>61</v>
+      </c>
+      <c r="B60" s="163" t="s">
+        <v>346</v>
+      </c>
+      <c r="C60" s="105" t="s">
         <v>516</v>
       </c>
-      <c r="D60" s="101" t="s">
-        <v>517</v>
+      <c r="D60" s="105" t="s">
+        <v>520</v>
       </c>
       <c r="E60" s="148" t="s">
         <v>427</v>
       </c>
-      <c r="F60" s="103">
-        <v>77078750345</v>
+      <c r="F60" s="98">
+        <v>77057418708</v>
       </c>
       <c r="G60" s="148" t="s">
-        <v>803</v>
-      </c>
-      <c r="H60" s="124"/>
-      <c r="I60" s="124"/>
-      <c r="J60" s="124"/>
-      <c r="K60" s="124"/>
-      <c r="L60" s="124"/>
-      <c r="M60" s="124"/>
-      <c r="N60" s="124"/>
-      <c r="O60" s="124"/>
-      <c r="P60" s="124"/>
-      <c r="Q60" s="124"/>
-      <c r="R60" s="124"/>
-      <c r="S60" s="149"/>
+        <v>804</v>
+      </c>
+      <c r="H60" s="144"/>
+      <c r="I60" s="144"/>
+      <c r="J60" s="144"/>
+      <c r="K60" s="144"/>
+      <c r="L60" s="144"/>
+      <c r="M60" s="144"/>
+      <c r="N60" s="144"/>
+      <c r="O60" s="144"/>
+      <c r="P60" s="144"/>
+      <c r="Q60" s="144"/>
+      <c r="R60" s="144"/>
+      <c r="S60" s="145"/>
     </row>
     <row r="61" spans="1:19" ht="13.8">
-      <c r="A61" s="94">
-        <v>61</v>
-      </c>
-      <c r="B61" s="163" t="s">
-        <v>346</v>
-      </c>
-      <c r="C61" s="105" t="s">
-        <v>516</v>
-      </c>
-      <c r="D61" s="105" t="s">
-        <v>520</v>
+      <c r="A61" s="99">
+        <v>62</v>
+      </c>
+      <c r="B61" s="101" t="s">
+        <v>705</v>
+      </c>
+      <c r="C61" s="101" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" s="101" t="s">
+        <v>706</v>
       </c>
       <c r="E61" s="148" t="s">
         <v>427</v>
       </c>
-      <c r="F61" s="98">
-        <v>77057418708</v>
+      <c r="F61" s="103">
+        <v>77057455796</v>
       </c>
       <c r="G61" s="148" t="s">
-        <v>804</v>
-      </c>
-      <c r="H61" s="144"/>
-      <c r="I61" s="144"/>
-      <c r="J61" s="144"/>
-      <c r="K61" s="144"/>
-      <c r="L61" s="144"/>
-      <c r="M61" s="144"/>
-      <c r="N61" s="144"/>
-      <c r="O61" s="144"/>
-      <c r="P61" s="144"/>
-      <c r="Q61" s="144"/>
-      <c r="R61" s="144"/>
-      <c r="S61" s="145"/>
+        <v>805</v>
+      </c>
+      <c r="H61" s="124"/>
+      <c r="I61" s="124"/>
+      <c r="J61" s="124"/>
+      <c r="K61" s="124"/>
+      <c r="L61" s="124"/>
+      <c r="M61" s="124"/>
+      <c r="N61" s="124"/>
+      <c r="O61" s="124"/>
+      <c r="P61" s="124"/>
+      <c r="Q61" s="124"/>
+      <c r="R61" s="124"/>
+      <c r="S61" s="149"/>
     </row>
     <row r="62" spans="1:19" ht="13.8">
-      <c r="A62" s="99">
-        <v>62</v>
-      </c>
-      <c r="B62" s="101" t="s">
-        <v>705</v>
-      </c>
-      <c r="C62" s="101" t="s">
-        <v>15</v>
-      </c>
-      <c r="D62" s="101" t="s">
-        <v>706</v>
+      <c r="A62" s="94">
+        <v>63</v>
+      </c>
+      <c r="B62" s="151" t="s">
+        <v>380</v>
+      </c>
+      <c r="C62" s="105" t="s">
+        <v>516</v>
+      </c>
+      <c r="D62" s="105" t="s">
+        <v>517</v>
       </c>
       <c r="E62" s="148" t="s">
         <v>427</v>
       </c>
-      <c r="F62" s="103">
-        <v>77057455796</v>
+      <c r="F62" s="98">
+        <v>77772285335</v>
       </c>
       <c r="G62" s="148" t="s">
-        <v>805</v>
-      </c>
-      <c r="H62" s="124"/>
-      <c r="I62" s="124"/>
-      <c r="J62" s="124"/>
-      <c r="K62" s="124"/>
-      <c r="L62" s="124"/>
-      <c r="M62" s="124"/>
-      <c r="N62" s="124"/>
-      <c r="O62" s="124"/>
-      <c r="P62" s="124"/>
-      <c r="Q62" s="124"/>
-      <c r="R62" s="124"/>
-      <c r="S62" s="149"/>
+        <v>806</v>
+      </c>
+      <c r="H62" s="144"/>
+      <c r="I62" s="144"/>
+      <c r="J62" s="144"/>
+      <c r="K62" s="144"/>
+      <c r="L62" s="144"/>
+      <c r="M62" s="144"/>
+      <c r="N62" s="144"/>
+      <c r="O62" s="144"/>
+      <c r="P62" s="144"/>
+      <c r="Q62" s="144"/>
+      <c r="R62" s="144"/>
+      <c r="S62" s="145"/>
     </row>
     <row r="63" spans="1:19" ht="13.8">
-      <c r="A63" s="94">
-        <v>63</v>
-      </c>
-      <c r="B63" s="151" t="s">
-        <v>380</v>
-      </c>
-      <c r="C63" s="105" t="s">
+      <c r="A63" s="99">
+        <v>64</v>
+      </c>
+      <c r="B63" s="152" t="s">
+        <v>376</v>
+      </c>
+      <c r="C63" s="101" t="s">
         <v>516</v>
       </c>
-      <c r="D63" s="105" t="s">
+      <c r="D63" s="101" t="s">
         <v>517</v>
       </c>
       <c r="E63" s="148" t="s">
         <v>427</v>
       </c>
-      <c r="F63" s="98">
-        <v>77772285335</v>
+      <c r="F63" s="103">
+        <v>77761023037</v>
       </c>
       <c r="G63" s="148" t="s">
-        <v>806</v>
-      </c>
-      <c r="H63" s="144"/>
-      <c r="I63" s="144"/>
-      <c r="J63" s="144"/>
-      <c r="K63" s="144"/>
-      <c r="L63" s="144"/>
-      <c r="M63" s="144"/>
-      <c r="N63" s="144"/>
-      <c r="O63" s="144"/>
-      <c r="P63" s="144"/>
-      <c r="Q63" s="144"/>
-      <c r="R63" s="144"/>
-      <c r="S63" s="145"/>
+        <v>807</v>
+      </c>
+      <c r="H63" s="124"/>
+      <c r="I63" s="124"/>
+      <c r="J63" s="124"/>
+      <c r="K63" s="124"/>
+      <c r="L63" s="124"/>
+      <c r="M63" s="124"/>
+      <c r="N63" s="124"/>
+      <c r="O63" s="124"/>
+      <c r="P63" s="124"/>
+      <c r="Q63" s="124"/>
+      <c r="R63" s="124"/>
+      <c r="S63" s="149"/>
     </row>
     <row r="64" spans="1:19" ht="13.8">
-      <c r="A64" s="99">
-        <v>64</v>
-      </c>
-      <c r="B64" s="152" t="s">
-        <v>376</v>
-      </c>
-      <c r="C64" s="101" t="s">
-        <v>516</v>
-      </c>
-      <c r="D64" s="101" t="s">
-        <v>517</v>
+      <c r="A64" s="94">
+        <v>65</v>
+      </c>
+      <c r="B64" s="105" t="s">
+        <v>698</v>
+      </c>
+      <c r="C64" s="105" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" s="105" t="s">
+        <v>699</v>
       </c>
       <c r="E64" s="148" t="s">
         <v>427</v>
       </c>
-      <c r="F64" s="103">
-        <v>77761023037</v>
+      <c r="F64" s="98">
+        <v>77057454959</v>
       </c>
       <c r="G64" s="148" t="s">
-        <v>807</v>
-      </c>
-      <c r="H64" s="124"/>
-      <c r="I64" s="124"/>
-      <c r="J64" s="124"/>
-      <c r="K64" s="124"/>
-      <c r="L64" s="124"/>
-      <c r="M64" s="124"/>
-      <c r="N64" s="124"/>
-      <c r="O64" s="124"/>
-      <c r="P64" s="124"/>
-      <c r="Q64" s="124"/>
-      <c r="R64" s="124"/>
-      <c r="S64" s="149"/>
+        <v>803</v>
+      </c>
+      <c r="H64" s="144"/>
+      <c r="I64" s="144"/>
+      <c r="J64" s="144"/>
+      <c r="K64" s="144"/>
+      <c r="L64" s="144"/>
+      <c r="M64" s="144"/>
+      <c r="N64" s="144"/>
+      <c r="O64" s="144"/>
+      <c r="P64" s="144"/>
+      <c r="Q64" s="144"/>
+      <c r="R64" s="144"/>
+      <c r="S64" s="145"/>
     </row>
     <row r="65" spans="1:19" ht="13.8">
-      <c r="A65" s="94">
-        <v>65</v>
-      </c>
-      <c r="B65" s="105" t="s">
-        <v>698</v>
-      </c>
-      <c r="C65" s="105" t="s">
-        <v>15</v>
-      </c>
-      <c r="D65" s="105" t="s">
-        <v>699</v>
+      <c r="A65" s="99">
+        <v>66</v>
+      </c>
+      <c r="B65" s="152" t="s">
+        <v>342</v>
+      </c>
+      <c r="C65" s="101" t="s">
+        <v>516</v>
+      </c>
+      <c r="D65" s="101" t="s">
+        <v>520</v>
       </c>
       <c r="E65" s="148" t="s">
         <v>427</v>
       </c>
-      <c r="F65" s="98">
-        <v>77057454959</v>
+      <c r="F65" s="103">
+        <v>77026615811</v>
       </c>
       <c r="G65" s="148" t="s">
-        <v>803</v>
-      </c>
-      <c r="H65" s="144"/>
-      <c r="I65" s="144"/>
-      <c r="J65" s="144"/>
-      <c r="K65" s="144"/>
-      <c r="L65" s="144"/>
-      <c r="M65" s="144"/>
-      <c r="N65" s="144"/>
-      <c r="O65" s="144"/>
-      <c r="P65" s="144"/>
-      <c r="Q65" s="144"/>
-      <c r="R65" s="144"/>
-      <c r="S65" s="145"/>
+        <v>808</v>
+      </c>
+      <c r="H65" s="124"/>
+      <c r="I65" s="124"/>
+      <c r="J65" s="124"/>
+      <c r="K65" s="124"/>
+      <c r="L65" s="124"/>
+      <c r="M65" s="124"/>
+      <c r="N65" s="124"/>
+      <c r="O65" s="124"/>
+      <c r="P65" s="124"/>
+      <c r="Q65" s="124"/>
+      <c r="R65" s="124"/>
+      <c r="S65" s="149"/>
     </row>
     <row r="66" spans="1:19" ht="13.8">
-      <c r="A66" s="99">
-        <v>66</v>
-      </c>
-      <c r="B66" s="152" t="s">
-        <v>342</v>
-      </c>
-      <c r="C66" s="101" t="s">
+      <c r="A66" s="94">
+        <v>68</v>
+      </c>
+      <c r="B66" s="151" t="s">
+        <v>299</v>
+      </c>
+      <c r="C66" s="105" t="s">
         <v>516</v>
       </c>
-      <c r="D66" s="101" t="s">
+      <c r="D66" s="105" t="s">
         <v>520</v>
       </c>
       <c r="E66" s="148" t="s">
         <v>427</v>
       </c>
-      <c r="F66" s="103">
-        <v>77026615811</v>
+      <c r="F66" s="98">
+        <v>77761000911</v>
       </c>
       <c r="G66" s="148" t="s">
-        <v>808</v>
-      </c>
-      <c r="H66" s="124"/>
-      <c r="I66" s="124"/>
-      <c r="J66" s="124"/>
-      <c r="K66" s="124"/>
-      <c r="L66" s="124"/>
-      <c r="M66" s="124"/>
-      <c r="N66" s="124"/>
-      <c r="O66" s="124"/>
-      <c r="P66" s="124"/>
-      <c r="Q66" s="124"/>
-      <c r="R66" s="124"/>
-      <c r="S66" s="149"/>
+        <v>806</v>
+      </c>
+      <c r="H66" s="144"/>
+      <c r="I66" s="144"/>
+      <c r="J66" s="144"/>
+      <c r="K66" s="144"/>
+      <c r="L66" s="144"/>
+      <c r="M66" s="144"/>
+      <c r="N66" s="144"/>
+      <c r="O66" s="144"/>
+      <c r="P66" s="144"/>
+      <c r="Q66" s="144"/>
+      <c r="R66" s="144"/>
+      <c r="S66" s="145"/>
     </row>
     <row r="67" spans="1:19" ht="13.8">
-      <c r="A67" s="94">
-        <v>68</v>
-      </c>
-      <c r="B67" s="151" t="s">
-        <v>299</v>
-      </c>
-      <c r="C67" s="105" t="s">
+      <c r="A67" s="99">
+        <v>69</v>
+      </c>
+      <c r="B67" s="152" t="s">
+        <v>401</v>
+      </c>
+      <c r="C67" s="101" t="s">
         <v>516</v>
       </c>
-      <c r="D67" s="105" t="s">
-        <v>520</v>
+      <c r="D67" s="101" t="s">
+        <v>517</v>
       </c>
       <c r="E67" s="148" t="s">
         <v>427</v>
       </c>
-      <c r="F67" s="98">
-        <v>77761000911</v>
+      <c r="F67" s="103">
+        <v>77022144180</v>
       </c>
       <c r="G67" s="148" t="s">
-        <v>806</v>
-      </c>
-      <c r="H67" s="144"/>
-      <c r="I67" s="144"/>
-      <c r="J67" s="144"/>
-      <c r="K67" s="144"/>
-      <c r="L67" s="144"/>
-      <c r="M67" s="144"/>
-      <c r="N67" s="144"/>
-      <c r="O67" s="144"/>
-      <c r="P67" s="144"/>
-      <c r="Q67" s="144"/>
-      <c r="R67" s="144"/>
-      <c r="S67" s="145"/>
+        <v>803</v>
+      </c>
+      <c r="H67" s="124"/>
+      <c r="I67" s="124"/>
+      <c r="J67" s="124"/>
+      <c r="K67" s="124"/>
+      <c r="L67" s="124"/>
+      <c r="M67" s="124"/>
+      <c r="N67" s="124"/>
+      <c r="O67" s="124"/>
+      <c r="P67" s="124"/>
+      <c r="Q67" s="124"/>
+      <c r="R67" s="124"/>
+      <c r="S67" s="149"/>
     </row>
     <row r="68" spans="1:19" ht="13.8">
-      <c r="A68" s="99">
-        <v>69</v>
-      </c>
-      <c r="B68" s="152" t="s">
-        <v>401</v>
-      </c>
-      <c r="C68" s="101" t="s">
-        <v>516</v>
-      </c>
-      <c r="D68" s="101" t="s">
-        <v>517</v>
+      <c r="A68" s="94">
+        <v>70</v>
+      </c>
+      <c r="B68" s="105" t="s">
+        <v>701</v>
+      </c>
+      <c r="C68" s="105" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="105" t="s">
+        <v>699</v>
       </c>
       <c r="E68" s="148" t="s">
         <v>427</v>
       </c>
-      <c r="F68" s="103">
-        <v>77022144180</v>
+      <c r="F68" s="98">
+        <v>77057455794</v>
       </c>
       <c r="G68" s="148" t="s">
-        <v>803</v>
-      </c>
-      <c r="H68" s="124"/>
-      <c r="I68" s="124"/>
-      <c r="J68" s="124"/>
-      <c r="K68" s="124"/>
-      <c r="L68" s="124"/>
-      <c r="M68" s="124"/>
-      <c r="N68" s="124"/>
-      <c r="O68" s="124"/>
-      <c r="P68" s="124"/>
-      <c r="Q68" s="124"/>
-      <c r="R68" s="124"/>
-      <c r="S68" s="149"/>
-    </row>
-    <row r="69" spans="1:19" ht="13.8">
-      <c r="A69" s="94">
-        <v>70</v>
-      </c>
-      <c r="B69" s="105" t="s">
-        <v>701</v>
-      </c>
-      <c r="C69" s="105" t="s">
+        <v>811</v>
+      </c>
+      <c r="H68" s="144"/>
+      <c r="I68" s="144"/>
+      <c r="J68" s="144"/>
+      <c r="K68" s="144"/>
+      <c r="L68" s="144"/>
+      <c r="M68" s="144"/>
+      <c r="N68" s="144"/>
+      <c r="O68" s="144"/>
+      <c r="P68" s="144"/>
+      <c r="Q68" s="144"/>
+      <c r="R68" s="144"/>
+      <c r="S68" s="145"/>
+    </row>
+    <row r="69" spans="1:19" ht="14.4">
+      <c r="A69" s="99">
+        <v>71</v>
+      </c>
+      <c r="B69" s="101" t="s">
+        <v>723</v>
+      </c>
+      <c r="C69" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="D69" s="105" t="s">
-        <v>699</v>
+      <c r="D69" s="101" t="s">
+        <v>724</v>
       </c>
       <c r="E69" s="148" t="s">
-        <v>427</v>
-      </c>
-      <c r="F69" s="98">
-        <v>77057455794</v>
-      </c>
-      <c r="G69" s="148" t="s">
-        <v>811</v>
-      </c>
-      <c r="H69" s="144"/>
-      <c r="I69" s="144"/>
-      <c r="J69" s="144"/>
-      <c r="K69" s="144"/>
-      <c r="L69" s="144"/>
-      <c r="M69" s="144"/>
-      <c r="N69" s="144"/>
-      <c r="O69" s="144"/>
-      <c r="P69" s="144"/>
-      <c r="Q69" s="144"/>
-      <c r="R69" s="144"/>
-      <c r="S69" s="145"/>
-    </row>
-    <row r="70" spans="1:19" ht="14.4">
-      <c r="A70" s="99">
-        <v>71</v>
-      </c>
-      <c r="B70" s="101" t="s">
-        <v>723</v>
-      </c>
-      <c r="C70" s="101" t="s">
-        <v>15</v>
-      </c>
-      <c r="D70" s="101" t="s">
-        <v>724</v>
+        <v>415</v>
+      </c>
+      <c r="F69" s="172" t="s">
+        <v>726</v>
+      </c>
+      <c r="G69" s="154" t="s">
+        <v>822</v>
+      </c>
+      <c r="H69" s="155"/>
+      <c r="I69" s="155"/>
+      <c r="J69" s="155"/>
+      <c r="K69" s="155"/>
+      <c r="L69" s="155"/>
+      <c r="M69" s="155"/>
+      <c r="N69" s="155"/>
+      <c r="O69" s="155"/>
+      <c r="P69" s="155"/>
+      <c r="Q69" s="155"/>
+      <c r="R69" s="155"/>
+      <c r="S69" s="156"/>
+    </row>
+    <row r="70" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A70" s="94">
+        <v>59</v>
+      </c>
+      <c r="B70" s="105" t="s">
+        <v>681</v>
+      </c>
+      <c r="C70" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="D70" s="105" t="s">
+        <v>508</v>
       </c>
       <c r="E70" s="148" t="s">
         <v>415</v>
       </c>
-      <c r="F70" s="181" t="s">
-        <v>726</v>
-      </c>
-      <c r="G70" s="154" t="s">
-        <v>822</v>
-      </c>
-      <c r="H70" s="155"/>
-      <c r="I70" s="155"/>
-      <c r="J70" s="155"/>
-      <c r="K70" s="155"/>
-      <c r="L70" s="155"/>
-      <c r="M70" s="155"/>
-      <c r="N70" s="155"/>
-      <c r="O70" s="155"/>
-      <c r="P70" s="155"/>
-      <c r="Q70" s="155"/>
-      <c r="R70" s="155"/>
-      <c r="S70" s="156"/>
+      <c r="F70" s="98" t="s">
+        <v>683</v>
+      </c>
+      <c r="G70" s="148" t="s">
+        <v>802</v>
+      </c>
+      <c r="H70" s="144"/>
+      <c r="I70" s="144"/>
+      <c r="J70" s="144"/>
+      <c r="K70" s="144"/>
+      <c r="L70" s="144"/>
+      <c r="M70" s="144"/>
+      <c r="N70" s="144"/>
+      <c r="O70" s="144"/>
+      <c r="P70" s="144"/>
+      <c r="Q70" s="144"/>
+      <c r="R70" s="144"/>
+      <c r="S70" s="145"/>
     </row>
     <row r="71" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A71" s="94">
-        <v>59</v>
-      </c>
-      <c r="B71" s="105" t="s">
-        <v>681</v>
-      </c>
-      <c r="C71" s="105" t="s">
-        <v>27</v>
-      </c>
-      <c r="D71" s="105" t="s">
-        <v>508</v>
+      <c r="A71" s="99">
+        <v>72</v>
+      </c>
+      <c r="B71" s="152" t="s">
+        <v>717</v>
+      </c>
+      <c r="C71" s="101" t="s">
+        <v>516</v>
+      </c>
+      <c r="D71" s="101" t="s">
+        <v>517</v>
       </c>
       <c r="E71" s="148" t="s">
         <v>415</v>
       </c>
-      <c r="F71" s="98" t="s">
-        <v>683</v>
-      </c>
-      <c r="G71" s="148" t="s">
-        <v>802</v>
-      </c>
-      <c r="H71" s="144"/>
-      <c r="I71" s="144"/>
-      <c r="J71" s="144"/>
-      <c r="K71" s="144"/>
-      <c r="L71" s="144"/>
-      <c r="M71" s="144"/>
-      <c r="N71" s="144"/>
-      <c r="O71" s="144"/>
-      <c r="P71" s="144"/>
-      <c r="Q71" s="144"/>
-      <c r="R71" s="144"/>
-      <c r="S71" s="145"/>
+      <c r="F71" s="103" t="s">
+        <v>719</v>
+      </c>
+      <c r="G71" s="154" t="s">
+        <v>808</v>
+      </c>
+      <c r="H71" s="155"/>
+      <c r="I71" s="155"/>
+      <c r="J71" s="155"/>
+      <c r="K71" s="155"/>
+      <c r="L71" s="155"/>
+      <c r="M71" s="155"/>
+      <c r="N71" s="155"/>
+      <c r="O71" s="155"/>
+      <c r="P71" s="155"/>
+      <c r="Q71" s="155"/>
+      <c r="R71" s="155"/>
+      <c r="S71" s="156"/>
     </row>
     <row r="72" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A72" s="99">
-        <v>72</v>
-      </c>
-      <c r="B72" s="152" t="s">
-        <v>717</v>
-      </c>
-      <c r="C72" s="101" t="s">
-        <v>516</v>
-      </c>
-      <c r="D72" s="101" t="s">
-        <v>517</v>
+      <c r="A72" s="94">
+        <v>73</v>
+      </c>
+      <c r="B72" s="105" t="s">
+        <v>709</v>
+      </c>
+      <c r="C72" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="D72" s="105" t="s">
+        <v>710</v>
       </c>
       <c r="E72" s="148" t="s">
         <v>415</v>
       </c>
-      <c r="F72" s="103" t="s">
-        <v>719</v>
+      <c r="F72" s="98" t="s">
+        <v>712</v>
       </c>
       <c r="G72" s="154" t="s">
-        <v>808</v>
-      </c>
-      <c r="H72" s="155"/>
-      <c r="I72" s="155"/>
-      <c r="J72" s="155"/>
-      <c r="K72" s="155"/>
-      <c r="L72" s="155"/>
-      <c r="M72" s="155"/>
-      <c r="N72" s="155"/>
-      <c r="O72" s="155"/>
-      <c r="P72" s="155"/>
-      <c r="Q72" s="155"/>
-      <c r="R72" s="155"/>
-      <c r="S72" s="156"/>
+        <v>813</v>
+      </c>
+      <c r="H72" s="157"/>
+      <c r="I72" s="157"/>
+      <c r="J72" s="157"/>
+      <c r="K72" s="157"/>
+      <c r="L72" s="157"/>
+      <c r="M72" s="157"/>
+      <c r="N72" s="157"/>
+      <c r="O72" s="157"/>
+      <c r="P72" s="157"/>
+      <c r="Q72" s="157"/>
+      <c r="R72" s="157"/>
+      <c r="S72" s="158"/>
     </row>
     <row r="73" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A73" s="94">
-        <v>73</v>
-      </c>
-      <c r="B73" s="105" t="s">
-        <v>709</v>
-      </c>
-      <c r="C73" s="105" t="s">
-        <v>27</v>
-      </c>
-      <c r="D73" s="105" t="s">
-        <v>710</v>
+      <c r="A73" s="99">
+        <v>74</v>
+      </c>
+      <c r="B73" s="152" t="s">
+        <v>414</v>
+      </c>
+      <c r="C73" s="101" t="s">
+        <v>516</v>
+      </c>
+      <c r="D73" s="101">
+        <v>0</v>
       </c>
       <c r="E73" s="148" t="s">
         <v>415</v>
       </c>
-      <c r="F73" s="98" t="s">
-        <v>712</v>
+      <c r="F73" s="103">
+        <v>77761009650</v>
       </c>
       <c r="G73" s="154" t="s">
-        <v>813</v>
-      </c>
-      <c r="H73" s="157"/>
-      <c r="I73" s="157"/>
-      <c r="J73" s="157"/>
-      <c r="K73" s="157"/>
-      <c r="L73" s="157"/>
-      <c r="M73" s="157"/>
-      <c r="N73" s="157"/>
-      <c r="O73" s="157"/>
-      <c r="P73" s="157"/>
-      <c r="Q73" s="157"/>
-      <c r="R73" s="157"/>
-      <c r="S73" s="158"/>
-    </row>
-    <row r="74" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A74" s="99">
-        <v>74</v>
-      </c>
-      <c r="B74" s="152" t="s">
-        <v>414</v>
-      </c>
-      <c r="C74" s="101" t="s">
-        <v>516</v>
-      </c>
-      <c r="D74" s="101">
-        <v>0</v>
+        <v>814</v>
+      </c>
+      <c r="H73" s="155"/>
+      <c r="I73" s="155"/>
+      <c r="J73" s="155"/>
+      <c r="K73" s="155"/>
+      <c r="L73" s="155"/>
+      <c r="M73" s="155"/>
+      <c r="N73" s="155"/>
+      <c r="O73" s="155"/>
+      <c r="P73" s="155"/>
+      <c r="Q73" s="155"/>
+      <c r="R73" s="155"/>
+      <c r="S73" s="156"/>
+    </row>
+    <row r="74" spans="1:19" ht="13.8">
+      <c r="A74" s="94">
+        <v>75</v>
+      </c>
+      <c r="B74" s="105" t="s">
+        <v>713</v>
+      </c>
+      <c r="C74" s="105" t="s">
+        <v>714</v>
+      </c>
+      <c r="D74" s="105" t="s">
+        <v>661</v>
       </c>
       <c r="E74" s="148" t="s">
         <v>415</v>
       </c>
-      <c r="F74" s="103">
-        <v>77761009650</v>
-      </c>
-      <c r="G74" s="154" t="s">
-        <v>814</v>
-      </c>
-      <c r="H74" s="155"/>
-      <c r="I74" s="155"/>
-      <c r="J74" s="155"/>
-      <c r="K74" s="155"/>
-      <c r="L74" s="155"/>
-      <c r="M74" s="155"/>
-      <c r="N74" s="155"/>
-      <c r="O74" s="155"/>
-      <c r="P74" s="155"/>
-      <c r="Q74" s="155"/>
-      <c r="R74" s="155"/>
-      <c r="S74" s="156"/>
-    </row>
-    <row r="75" spans="1:19" ht="13.8">
-      <c r="A75" s="94">
-        <v>75</v>
-      </c>
-      <c r="B75" s="105" t="s">
-        <v>713</v>
-      </c>
-      <c r="C75" s="105" t="s">
-        <v>714</v>
-      </c>
-      <c r="D75" s="105" t="s">
-        <v>661</v>
+      <c r="F74" s="118" t="s">
+        <v>716</v>
+      </c>
+      <c r="G74" s="148" t="s">
+        <v>815</v>
+      </c>
+      <c r="H74" s="144"/>
+      <c r="I74" s="144"/>
+      <c r="J74" s="144"/>
+      <c r="K74" s="144"/>
+      <c r="L74" s="144"/>
+      <c r="M74" s="144"/>
+      <c r="N74" s="144"/>
+      <c r="O74" s="144"/>
+      <c r="P74" s="144"/>
+      <c r="Q74" s="144"/>
+      <c r="R74" s="144"/>
+      <c r="S74" s="145"/>
+    </row>
+    <row r="75" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A75" s="99">
+        <v>76</v>
+      </c>
+      <c r="B75" s="152" t="s">
+        <v>720</v>
+      </c>
+      <c r="C75" s="122" t="s">
+        <v>516</v>
+      </c>
+      <c r="D75" s="124" t="s">
+        <v>520</v>
       </c>
       <c r="E75" s="148" t="s">
         <v>415</v>
       </c>
-      <c r="F75" s="118" t="s">
-        <v>716</v>
-      </c>
-      <c r="G75" s="148" t="s">
-        <v>815</v>
-      </c>
-      <c r="H75" s="144"/>
-      <c r="I75" s="144"/>
-      <c r="J75" s="144"/>
-      <c r="K75" s="144"/>
-      <c r="L75" s="144"/>
-      <c r="M75" s="144"/>
-      <c r="N75" s="144"/>
-      <c r="O75" s="144"/>
-      <c r="P75" s="144"/>
-      <c r="Q75" s="144"/>
-      <c r="R75" s="144"/>
-      <c r="S75" s="145"/>
-    </row>
-    <row r="76" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A76" s="99">
-        <v>76</v>
-      </c>
-      <c r="B76" s="152" t="s">
-        <v>720</v>
-      </c>
-      <c r="C76" s="122" t="s">
-        <v>516</v>
-      </c>
-      <c r="D76" s="124" t="s">
-        <v>520</v>
-      </c>
-      <c r="E76" s="148" t="s">
-        <v>415</v>
-      </c>
-      <c r="F76" s="124" t="s">
+      <c r="F75" s="124" t="s">
         <v>722</v>
       </c>
-      <c r="G76" s="154" t="s">
+      <c r="G75" s="154" t="s">
         <v>816</v>
       </c>
-      <c r="H76" s="155"/>
-      <c r="I76" s="155"/>
-      <c r="J76" s="155"/>
-      <c r="K76" s="155"/>
-      <c r="L76" s="155"/>
-      <c r="M76" s="155"/>
-      <c r="N76" s="155"/>
-      <c r="O76" s="155"/>
-      <c r="P76" s="155"/>
-      <c r="Q76" s="155"/>
-      <c r="R76" s="155"/>
-      <c r="S76" s="156"/>
-    </row>
-    <row r="77" spans="1:19" ht="13.8">
-      <c r="A77" s="165"/>
-      <c r="B77" s="166"/>
-      <c r="C77" s="167"/>
-      <c r="D77" s="167"/>
-      <c r="E77" s="168"/>
-      <c r="F77" s="169"/>
-      <c r="G77" s="170"/>
-      <c r="H77" s="170"/>
-      <c r="I77" s="170"/>
-      <c r="J77" s="170"/>
-      <c r="K77" s="170"/>
-      <c r="L77" s="170"/>
-      <c r="M77" s="170"/>
-      <c r="N77" s="170"/>
-      <c r="O77" s="170" t="s">
+      <c r="H75" s="155"/>
+      <c r="I75" s="155"/>
+      <c r="J75" s="155"/>
+      <c r="K75" s="155"/>
+      <c r="L75" s="155"/>
+      <c r="M75" s="155"/>
+      <c r="N75" s="155"/>
+      <c r="O75" s="155"/>
+      <c r="P75" s="155"/>
+      <c r="Q75" s="155"/>
+      <c r="R75" s="155"/>
+      <c r="S75" s="156"/>
+    </row>
+    <row r="76" spans="1:19" ht="13.8">
+      <c r="A76" s="165"/>
+      <c r="B76" s="166"/>
+      <c r="C76" s="167"/>
+      <c r="D76" s="167"/>
+      <c r="E76" s="168"/>
+      <c r="F76" s="169"/>
+      <c r="G76" s="170"/>
+      <c r="H76" s="170"/>
+      <c r="I76" s="170"/>
+      <c r="J76" s="170"/>
+      <c r="K76" s="170"/>
+      <c r="L76" s="170"/>
+      <c r="M76" s="170"/>
+      <c r="N76" s="170"/>
+      <c r="O76" s="170" t="s">
         <v>817</v>
       </c>
-      <c r="P77" s="170" t="s">
+      <c r="P76" s="170" t="s">
         <v>818</v>
       </c>
-      <c r="Q77" s="170" t="s">
+      <c r="Q76" s="170" t="s">
         <v>819</v>
       </c>
-      <c r="R77" s="170" t="s">
+      <c r="R76" s="170" t="s">
         <v>820</v>
       </c>
-      <c r="S77" s="171" t="s">
+      <c r="S76" s="171" t="s">
         <v>821</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H1:H988">
+  <conditionalFormatting sqref="H1:H987">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A77" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A76" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>AND(ISNUMBER(A2),(NOT(OR(NOT(ISERROR(DATEVALUE(A2))), AND(ISNUMBER(A2), LEFT(CELL("format", A2))="D")))))</formula1>
     </dataValidation>
   </dataValidations>

--- a/Контакты Stratera.xlsx
+++ b/Контакты Stratera.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Рабочий стол\heatmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998223F0-6FDA-4268-B01D-3664C9EE65FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037FB93D-E008-45D4-8F5A-0F45EB66FDBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="13596" windowHeight="9300" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2820" yWindow="2820" windowWidth="13440" windowHeight="9300" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Менеджеры по продажам район (2)" sheetId="5" r:id="rId1"/>
@@ -22,14 +22,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Менеджеры по продажам'!$A$1:$H$83</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Менеджеры по продажам район (2)'!$A$1:$S$78</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Менеджеры по продажам районы'!$A$1:$S$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Менеджеры по продажам районы'!$A$1:$S$74</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2422" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2411" uniqueCount="826">
   <si>
     <t>СКО</t>
   </si>
@@ -4274,6 +4274,23 @@
   </si>
   <si>
     <t>Актогайский, Иртышский, Железинский</t>
+  </si>
+  <si>
+    <t>Алтай, Катон Карагай, Улкен нарын, Бородулихинский, Самарский, Ұлан ауданы</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Мендыгаринский, Сарыкольский, Узункольский, Костанайский, Алтынсаринский, Карасу, Аркалыкский, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Житикаринский</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -5312,7 +5329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5767,6 +5784,18 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -5906,10 +5935,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Таблица1_2" displayName="Таблица1_2" ref="A1:S76">
-  <autoFilter ref="A1:S76" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S76">
-    <sortCondition ref="E1:E76"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Таблица1_2" displayName="Таблица1_2" ref="A1:S74">
+  <autoFilter ref="A1:S74" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S74">
+    <sortCondition ref="B1:B74"/>
   </sortState>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="№"/>
@@ -44872,11 +44901,11 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S76"/>
+  <dimension ref="A1:S74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33:XFD33"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -44951,23 +44980,25 @@
     </row>
     <row r="2" spans="1:19" ht="13.8">
       <c r="A2" s="142">
-        <v>1</v>
-      </c>
-      <c r="B2" s="143" t="s">
-        <v>542</v>
+        <v>34</v>
+      </c>
+      <c r="B2" s="144" t="s">
+        <v>639</v>
       </c>
       <c r="C2" s="144" t="s">
-        <v>516</v>
-      </c>
-      <c r="D2" s="144"/>
+        <v>27</v>
+      </c>
+      <c r="D2" s="144" t="s">
+        <v>592</v>
+      </c>
       <c r="E2" s="144" t="s">
-        <v>509</v>
-      </c>
-      <c r="F2" s="144" t="s">
-        <v>544</v>
+        <v>772</v>
+      </c>
+      <c r="F2" s="144">
+        <v>77054441706</v>
       </c>
       <c r="G2" s="144" t="s">
-        <v>740</v>
+        <v>825</v>
       </c>
       <c r="H2" s="144"/>
       <c r="I2" s="144"/>
@@ -44982,75 +45013,62 @@
       <c r="R2" s="144"/>
       <c r="S2" s="145"/>
     </row>
-    <row r="3" spans="1:19" ht="13.8">
+    <row r="3" spans="1:19" ht="14.4">
       <c r="A3" s="99">
-        <v>2</v>
-      </c>
-      <c r="B3" s="146" t="s">
-        <v>330</v>
-      </c>
-      <c r="C3" s="108" t="s">
-        <v>516</v>
-      </c>
-      <c r="D3" s="108" t="s">
-        <v>520</v>
-      </c>
-      <c r="E3" s="147" t="s">
-        <v>509</v>
-      </c>
-      <c r="F3" s="103" t="s">
-        <v>528</v>
-      </c>
-      <c r="G3" s="148" t="s">
-        <v>741</v>
-      </c>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="124"/>
-      <c r="M3" s="124"/>
-      <c r="N3" s="124" t="s">
-        <v>742</v>
-      </c>
-      <c r="O3" s="124">
-        <v>50</v>
-      </c>
-      <c r="P3" s="124">
-        <v>82.5</v>
-      </c>
-      <c r="Q3" s="124">
-        <v>82.5</v>
-      </c>
-      <c r="R3" s="124">
-        <v>35</v>
-      </c>
-      <c r="S3" s="149">
-        <f>SUM(O3:R3)</f>
-        <v>250</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="B3" s="101" t="s">
+        <v>723</v>
+      </c>
+      <c r="C3" s="101" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="101" t="s">
+        <v>724</v>
+      </c>
+      <c r="E3" s="148" t="s">
+        <v>415</v>
+      </c>
+      <c r="F3" s="172" t="s">
+        <v>726</v>
+      </c>
+      <c r="G3" s="154" t="s">
+        <v>822</v>
+      </c>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="155"/>
+      <c r="M3" s="155"/>
+      <c r="N3" s="155"/>
+      <c r="O3" s="155"/>
+      <c r="P3" s="155"/>
+      <c r="Q3" s="155"/>
+      <c r="R3" s="155"/>
+      <c r="S3" s="156"/>
     </row>
     <row r="4" spans="1:19" ht="13.8">
       <c r="A4" s="94">
-        <v>3</v>
-      </c>
-      <c r="B4" s="150" t="s">
-        <v>236</v>
-      </c>
-      <c r="C4" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="151" t="s">
+        <v>359</v>
+      </c>
+      <c r="C4" s="105" t="s">
         <v>516</v>
       </c>
-      <c r="D4" s="96" t="s">
-        <v>520</v>
-      </c>
-      <c r="E4" s="147" t="s">
-        <v>509</v>
+      <c r="D4" s="105" t="s">
+        <v>517</v>
+      </c>
+      <c r="E4" s="148" t="s">
+        <v>419</v>
       </c>
       <c r="F4" s="98" t="s">
-        <v>524</v>
+        <v>560</v>
       </c>
       <c r="G4" s="148" t="s">
-        <v>743</v>
+        <v>753</v>
       </c>
       <c r="H4" s="144"/>
       <c r="I4" s="144"/>
@@ -45067,25 +45085,25 @@
     </row>
     <row r="5" spans="1:19" ht="13.8">
       <c r="A5" s="99">
-        <v>4</v>
-      </c>
-      <c r="B5" s="146" t="s">
-        <v>349</v>
-      </c>
-      <c r="C5" s="108" t="s">
-        <v>516</v>
-      </c>
-      <c r="D5" s="108" t="s">
-        <v>520</v>
-      </c>
-      <c r="E5" s="147" t="s">
-        <v>509</v>
-      </c>
-      <c r="F5" s="110" t="s">
-        <v>532</v>
+        <v>36</v>
+      </c>
+      <c r="B5" s="101" t="s">
+        <v>641</v>
+      </c>
+      <c r="C5" s="101" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="101" t="s">
+        <v>592</v>
+      </c>
+      <c r="E5" s="148" t="s">
+        <v>772</v>
+      </c>
+      <c r="F5" s="110">
+        <v>77775223878</v>
       </c>
       <c r="G5" s="148" t="s">
-        <v>744</v>
+        <v>776</v>
       </c>
       <c r="H5" s="124"/>
       <c r="I5" s="124"/>
@@ -45100,62 +45118,62 @@
       <c r="R5" s="124"/>
       <c r="S5" s="149"/>
     </row>
-    <row r="6" spans="1:19" ht="13.8">
+    <row r="6" spans="1:19" ht="14.4">
       <c r="A6" s="94">
-        <v>6</v>
-      </c>
-      <c r="B6" s="150" t="s">
-        <v>307</v>
-      </c>
-      <c r="C6" s="96" t="s">
-        <v>516</v>
-      </c>
-      <c r="D6" s="96" t="s">
-        <v>520</v>
-      </c>
-      <c r="E6" s="147" t="s">
-        <v>509</v>
+        <v>20</v>
+      </c>
+      <c r="B6" s="105" t="s">
+        <v>583</v>
+      </c>
+      <c r="C6" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="105" t="s">
+        <v>584</v>
+      </c>
+      <c r="E6" s="148" t="s">
+        <v>570</v>
       </c>
       <c r="F6" s="98" t="s">
-        <v>522</v>
-      </c>
-      <c r="G6" s="148" t="s">
-        <v>747</v>
-      </c>
-      <c r="H6" s="144"/>
-      <c r="I6" s="144"/>
-      <c r="J6" s="144"/>
-      <c r="K6" s="144"/>
-      <c r="L6" s="144"/>
-      <c r="M6" s="144"/>
-      <c r="N6" s="144"/>
-      <c r="O6" s="144"/>
-      <c r="P6" s="144"/>
-      <c r="Q6" s="144"/>
-      <c r="R6" s="144"/>
-      <c r="S6" s="145"/>
+        <v>586</v>
+      </c>
+      <c r="G6" s="154" t="s">
+        <v>758</v>
+      </c>
+      <c r="H6" s="157"/>
+      <c r="I6" s="157"/>
+      <c r="J6" s="157"/>
+      <c r="K6" s="157"/>
+      <c r="L6" s="157"/>
+      <c r="M6" s="157"/>
+      <c r="N6" s="157"/>
+      <c r="O6" s="157"/>
+      <c r="P6" s="157"/>
+      <c r="Q6" s="157"/>
+      <c r="R6" s="157"/>
+      <c r="S6" s="158"/>
     </row>
     <row r="7" spans="1:19" ht="13.8">
       <c r="A7" s="99">
-        <v>5</v>
-      </c>
-      <c r="B7" s="152" t="s">
-        <v>745</v>
+        <v>37</v>
+      </c>
+      <c r="B7" s="101" t="s">
+        <v>652</v>
       </c>
       <c r="C7" s="101" t="s">
-        <v>516</v>
+        <v>653</v>
       </c>
       <c r="D7" s="101" t="s">
-        <v>517</v>
+        <v>599</v>
       </c>
       <c r="E7" s="148" t="s">
-        <v>509</v>
-      </c>
-      <c r="F7" s="103" t="s">
-        <v>519</v>
+        <v>772</v>
+      </c>
+      <c r="F7" s="103">
+        <v>77711886327</v>
       </c>
       <c r="G7" s="148" t="s">
-        <v>741</v>
+        <v>777</v>
       </c>
       <c r="H7" s="124"/>
       <c r="I7" s="124"/>
@@ -45163,47 +45181,34 @@
       <c r="K7" s="124"/>
       <c r="L7" s="124"/>
       <c r="M7" s="124"/>
-      <c r="N7" s="124" t="s">
-        <v>746</v>
-      </c>
-      <c r="O7" s="124">
-        <v>70</v>
-      </c>
-      <c r="P7" s="124">
-        <v>115.5</v>
-      </c>
-      <c r="Q7" s="124">
-        <v>115.5</v>
-      </c>
-      <c r="R7" s="124">
-        <v>49</v>
-      </c>
-      <c r="S7" s="149">
-        <f>SUM(O7:R7)</f>
-        <v>350</v>
-      </c>
+      <c r="N7" s="124"/>
+      <c r="O7" s="124"/>
+      <c r="P7" s="124"/>
+      <c r="Q7" s="124"/>
+      <c r="R7" s="124"/>
+      <c r="S7" s="149"/>
     </row>
     <row r="8" spans="1:19" ht="13.8">
       <c r="A8" s="94">
-        <v>7</v>
-      </c>
-      <c r="B8" s="96" t="s">
-        <v>507</v>
-      </c>
-      <c r="C8" s="96" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="105" t="s">
+        <v>634</v>
+      </c>
+      <c r="C8" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="96" t="s">
-        <v>508</v>
-      </c>
-      <c r="E8" s="147" t="s">
-        <v>509</v>
-      </c>
-      <c r="F8" s="98" t="s">
-        <v>511</v>
+      <c r="D8" s="105" t="s">
+        <v>635</v>
+      </c>
+      <c r="E8" s="148" t="s">
+        <v>772</v>
+      </c>
+      <c r="F8" s="98">
+        <v>77054627019</v>
       </c>
       <c r="G8" s="148" t="s">
-        <v>748</v>
+        <v>778</v>
       </c>
       <c r="H8" s="144"/>
       <c r="I8" s="144"/>
@@ -45220,25 +45225,23 @@
     </row>
     <row r="9" spans="1:19" ht="13.8">
       <c r="A9" s="99">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B9" s="152" t="s">
-        <v>334</v>
+        <v>542</v>
       </c>
       <c r="C9" s="101" t="s">
         <v>516</v>
       </c>
-      <c r="D9" s="101" t="s">
-        <v>520</v>
-      </c>
+      <c r="D9" s="101"/>
       <c r="E9" s="148" t="s">
         <v>509</v>
       </c>
       <c r="F9" s="103" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="G9" s="148" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="H9" s="124"/>
       <c r="I9" s="124"/>
@@ -45253,62 +45256,60 @@
       <c r="R9" s="124"/>
       <c r="S9" s="149"/>
     </row>
-    <row r="10" spans="1:19" ht="13.8">
+    <row r="10" spans="1:19" ht="14.4">
       <c r="A10" s="94">
-        <v>9</v>
-      </c>
-      <c r="B10" s="150" t="s">
-        <v>326</v>
-      </c>
-      <c r="C10" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="151" t="s">
+        <v>678</v>
+      </c>
+      <c r="C10" s="105" t="s">
         <v>516</v>
       </c>
-      <c r="D10" s="96" t="s">
-        <v>520</v>
-      </c>
-      <c r="E10" s="147" t="s">
-        <v>509</v>
+      <c r="D10" s="105"/>
+      <c r="E10" s="148" t="s">
+        <v>793</v>
       </c>
       <c r="F10" s="98" t="s">
-        <v>530</v>
-      </c>
-      <c r="G10" s="148" t="s">
-        <v>749</v>
-      </c>
-      <c r="H10" s="144"/>
-      <c r="I10" s="144"/>
-      <c r="J10" s="144"/>
-      <c r="K10" s="144"/>
-      <c r="L10" s="144"/>
-      <c r="M10" s="144"/>
-      <c r="N10" s="144"/>
-      <c r="O10" s="144"/>
-      <c r="P10" s="144"/>
-      <c r="Q10" s="144"/>
-      <c r="R10" s="144"/>
-      <c r="S10" s="145"/>
+        <v>680</v>
+      </c>
+      <c r="G10" s="154" t="s">
+        <v>794</v>
+      </c>
+      <c r="H10" s="157"/>
+      <c r="I10" s="157"/>
+      <c r="J10" s="157"/>
+      <c r="K10" s="157"/>
+      <c r="L10" s="157"/>
+      <c r="M10" s="157"/>
+      <c r="N10" s="157"/>
+      <c r="O10" s="157"/>
+      <c r="P10" s="157"/>
+      <c r="Q10" s="157"/>
+      <c r="R10" s="157"/>
+      <c r="S10" s="158"/>
     </row>
     <row r="11" spans="1:19" ht="13.8">
       <c r="A11" s="99">
-        <v>10</v>
-      </c>
-      <c r="B11" s="101" t="s">
-        <v>538</v>
+        <v>60</v>
+      </c>
+      <c r="B11" s="152" t="s">
+        <v>393</v>
       </c>
       <c r="C11" s="101" t="s">
-        <v>27</v>
+        <v>516</v>
       </c>
       <c r="D11" s="101" t="s">
-        <v>539</v>
+        <v>517</v>
       </c>
       <c r="E11" s="148" t="s">
-        <v>509</v>
-      </c>
-      <c r="F11" s="103" t="s">
-        <v>541</v>
+        <v>427</v>
+      </c>
+      <c r="F11" s="103">
+        <v>77078750345</v>
       </c>
       <c r="G11" s="148" t="s">
-        <v>750</v>
+        <v>803</v>
       </c>
       <c r="H11" s="124"/>
       <c r="I11" s="124"/>
@@ -45325,25 +45326,25 @@
     </row>
     <row r="12" spans="1:19" ht="13.8">
       <c r="A12" s="94">
-        <v>11</v>
-      </c>
-      <c r="B12" s="105" t="s">
-        <v>512</v>
-      </c>
-      <c r="C12" s="105" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="105" t="s">
-        <v>513</v>
-      </c>
-      <c r="E12" s="148" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="150" t="s">
+        <v>330</v>
+      </c>
+      <c r="C12" s="96" t="s">
+        <v>516</v>
+      </c>
+      <c r="D12" s="96" t="s">
+        <v>520</v>
+      </c>
+      <c r="E12" s="147" t="s">
         <v>509</v>
       </c>
       <c r="F12" s="98" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="G12" s="148" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="H12" s="144"/>
       <c r="I12" s="144"/>
@@ -45352,46 +45353,46 @@
       <c r="L12" s="144"/>
       <c r="M12" s="144"/>
       <c r="N12" s="144" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="O12" s="144">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="P12" s="144">
-        <v>50</v>
+        <v>82.5</v>
       </c>
       <c r="Q12" s="144">
-        <v>50</v>
+        <v>82.5</v>
       </c>
       <c r="R12" s="144">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="S12" s="145">
         <f>SUM(O12:R12)</f>
-        <v>150</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="13.8">
       <c r="A13" s="99">
-        <v>12</v>
-      </c>
-      <c r="B13" s="152" t="s">
-        <v>359</v>
+        <v>61</v>
+      </c>
+      <c r="B13" s="182" t="s">
+        <v>346</v>
       </c>
       <c r="C13" s="101" t="s">
         <v>516</v>
       </c>
       <c r="D13" s="101" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E13" s="148" t="s">
-        <v>419</v>
-      </c>
-      <c r="F13" s="103" t="s">
-        <v>560</v>
+        <v>427</v>
+      </c>
+      <c r="F13" s="103">
+        <v>77057418708</v>
       </c>
       <c r="G13" s="148" t="s">
-        <v>753</v>
+        <v>804</v>
       </c>
       <c r="H13" s="124"/>
       <c r="I13" s="124"/>
@@ -45408,25 +45409,25 @@
     </row>
     <row r="14" spans="1:19" ht="13.8">
       <c r="A14" s="94">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="B14" s="105" t="s">
-        <v>566</v>
+        <v>681</v>
       </c>
       <c r="C14" s="105" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="105" t="s">
-        <v>567</v>
+        <v>508</v>
       </c>
       <c r="E14" s="148" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F14" s="98" t="s">
-        <v>569</v>
+        <v>683</v>
       </c>
       <c r="G14" s="148" t="s">
-        <v>754</v>
+        <v>802</v>
       </c>
       <c r="H14" s="144"/>
       <c r="I14" s="144"/>
@@ -45443,25 +45444,25 @@
     </row>
     <row r="15" spans="1:19" ht="13.8">
       <c r="A15" s="99">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="101" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="C15" s="101" t="s">
-        <v>554</v>
+        <v>27</v>
       </c>
       <c r="D15" s="101" t="s">
-        <v>513</v>
+        <v>567</v>
       </c>
       <c r="E15" s="148" t="s">
         <v>419</v>
       </c>
       <c r="F15" s="103" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="G15" s="148" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H15" s="124"/>
       <c r="I15" s="124"/>
@@ -45478,25 +45479,25 @@
     </row>
     <row r="16" spans="1:19" ht="13.8">
       <c r="A16" s="94">
-        <v>15</v>
-      </c>
-      <c r="B16" s="151" t="s">
-        <v>367</v>
+        <v>39</v>
+      </c>
+      <c r="B16" s="105" t="s">
+        <v>637</v>
       </c>
       <c r="C16" s="105" t="s">
-        <v>516</v>
+        <v>27</v>
       </c>
       <c r="D16" s="105" t="s">
-        <v>517</v>
+        <v>635</v>
       </c>
       <c r="E16" s="148" t="s">
-        <v>419</v>
-      </c>
-      <c r="F16" s="98" t="s">
-        <v>562</v>
+        <v>772</v>
+      </c>
+      <c r="F16" s="98">
+        <v>77477573740</v>
       </c>
       <c r="G16" s="148" t="s">
-        <v>756</v>
+        <v>779</v>
       </c>
       <c r="H16" s="144"/>
       <c r="I16" s="144"/>
@@ -45513,25 +45514,25 @@
     </row>
     <row r="17" spans="1:19" ht="13.8">
       <c r="A17" s="99">
-        <v>16</v>
-      </c>
-      <c r="B17" s="152" t="s">
-        <v>418</v>
-      </c>
-      <c r="C17" s="108" t="s">
-        <v>516</v>
+        <v>14</v>
+      </c>
+      <c r="B17" s="101" t="s">
+        <v>553</v>
+      </c>
+      <c r="C17" s="101" t="s">
+        <v>554</v>
       </c>
       <c r="D17" s="101" t="s">
-        <v>563</v>
+        <v>513</v>
       </c>
       <c r="E17" s="148" t="s">
         <v>419</v>
       </c>
       <c r="F17" s="103" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="G17" s="148" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="H17" s="124"/>
       <c r="I17" s="124"/>
@@ -45546,97 +45547,97 @@
       <c r="R17" s="124"/>
       <c r="S17" s="149"/>
     </row>
-    <row r="18" spans="1:19" ht="13.8">
+    <row r="18" spans="1:19" ht="14.4">
       <c r="A18" s="94">
-        <v>17</v>
-      </c>
-      <c r="B18" s="151" t="s">
-        <v>363</v>
+        <v>53</v>
+      </c>
+      <c r="B18" s="105" t="s">
+        <v>672</v>
       </c>
       <c r="C18" s="105" t="s">
-        <v>516</v>
+        <v>27</v>
       </c>
       <c r="D18" s="105" t="s">
-        <v>517</v>
+        <v>669</v>
       </c>
       <c r="E18" s="148" t="s">
-        <v>419</v>
+        <v>793</v>
       </c>
       <c r="F18" s="98" t="s">
-        <v>558</v>
-      </c>
-      <c r="G18" s="148" t="s">
-        <v>756</v>
-      </c>
-      <c r="H18" s="144"/>
-      <c r="I18" s="144"/>
-      <c r="J18" s="144"/>
-      <c r="K18" s="144"/>
-      <c r="L18" s="144"/>
-      <c r="M18" s="144"/>
-      <c r="N18" s="144"/>
-      <c r="O18" s="144"/>
-      <c r="P18" s="144"/>
-      <c r="Q18" s="144"/>
-      <c r="R18" s="144"/>
-      <c r="S18" s="145"/>
-    </row>
-    <row r="19" spans="1:19" ht="13.8">
+        <v>674</v>
+      </c>
+      <c r="G18" s="154" t="s">
+        <v>795</v>
+      </c>
+      <c r="H18" s="157"/>
+      <c r="I18" s="157"/>
+      <c r="J18" s="157"/>
+      <c r="K18" s="157"/>
+      <c r="L18" s="157"/>
+      <c r="M18" s="157"/>
+      <c r="N18" s="157"/>
+      <c r="O18" s="157"/>
+      <c r="P18" s="157"/>
+      <c r="Q18" s="157"/>
+      <c r="R18" s="157"/>
+      <c r="S18" s="158"/>
+    </row>
+    <row r="19" spans="1:19" ht="14.4">
       <c r="A19" s="99">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B19" s="101" t="s">
-        <v>549</v>
+        <v>767</v>
       </c>
       <c r="C19" s="101" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="101" t="s">
-        <v>550</v>
+        <v>603</v>
       </c>
       <c r="E19" s="148" t="s">
-        <v>419</v>
+        <v>609</v>
       </c>
       <c r="F19" s="110" t="s">
-        <v>552</v>
-      </c>
-      <c r="G19" s="148" t="s">
-        <v>756</v>
-      </c>
-      <c r="H19" s="124"/>
-      <c r="I19" s="124"/>
-      <c r="J19" s="124"/>
-      <c r="K19" s="124"/>
-      <c r="L19" s="124"/>
-      <c r="M19" s="124"/>
-      <c r="N19" s="124"/>
-      <c r="O19" s="124"/>
-      <c r="P19" s="124"/>
-      <c r="Q19" s="124"/>
-      <c r="R19" s="124"/>
-      <c r="S19" s="149"/>
+        <v>608</v>
+      </c>
+      <c r="G19" s="154" t="s">
+        <v>768</v>
+      </c>
+      <c r="H19" s="155"/>
+      <c r="I19" s="155"/>
+      <c r="J19" s="155"/>
+      <c r="K19" s="155"/>
+      <c r="L19" s="155"/>
+      <c r="M19" s="155"/>
+      <c r="N19" s="155"/>
+      <c r="O19" s="155"/>
+      <c r="P19" s="155"/>
+      <c r="Q19" s="155"/>
+      <c r="R19" s="155"/>
+      <c r="S19" s="156"/>
     </row>
     <row r="20" spans="1:19" ht="13.8">
       <c r="A20" s="94">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B20" s="128" t="s">
-        <v>545</v>
+        <v>595</v>
       </c>
       <c r="C20" s="105" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="105" t="s">
-        <v>546</v>
+        <v>592</v>
       </c>
       <c r="E20" s="148" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="F20" s="98" t="s">
-        <v>548</v>
+        <v>597</v>
       </c>
       <c r="G20" s="148" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="H20" s="144"/>
       <c r="I20" s="144"/>
@@ -45653,25 +45654,25 @@
     </row>
     <row r="21" spans="1:19" ht="15.75" customHeight="1">
       <c r="A21" s="99">
-        <v>20</v>
-      </c>
-      <c r="B21" s="153" t="s">
-        <v>583</v>
+        <v>72</v>
+      </c>
+      <c r="B21" s="183" t="s">
+        <v>717</v>
       </c>
       <c r="C21" s="101" t="s">
-        <v>27</v>
+        <v>516</v>
       </c>
       <c r="D21" s="101" t="s">
-        <v>584</v>
+        <v>517</v>
       </c>
       <c r="E21" s="148" t="s">
-        <v>570</v>
+        <v>415</v>
       </c>
       <c r="F21" s="110" t="s">
-        <v>586</v>
+        <v>719</v>
       </c>
       <c r="G21" s="154" t="s">
-        <v>758</v>
+        <v>808</v>
       </c>
       <c r="H21" s="155"/>
       <c r="I21" s="155"/>
@@ -45688,10 +45689,10 @@
     </row>
     <row r="22" spans="1:19" ht="15.75" customHeight="1">
       <c r="A22" s="94">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B22" s="151" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="C22" s="105" t="s">
         <v>516</v>
@@ -45700,153 +45701,155 @@
         <v>520</v>
       </c>
       <c r="E22" s="148" t="s">
-        <v>570</v>
-      </c>
-      <c r="F22" s="98" t="s">
-        <v>576</v>
-      </c>
-      <c r="G22" s="154" t="s">
-        <v>759</v>
-      </c>
-      <c r="H22" s="157"/>
-      <c r="I22" s="157"/>
-      <c r="J22" s="157"/>
-      <c r="K22" s="157"/>
-      <c r="L22" s="157"/>
-      <c r="M22" s="157"/>
-      <c r="N22" s="157"/>
-      <c r="O22" s="157"/>
-      <c r="P22" s="157"/>
-      <c r="Q22" s="157"/>
-      <c r="R22" s="157"/>
-      <c r="S22" s="158"/>
+        <v>772</v>
+      </c>
+      <c r="F22" s="98">
+        <v>77772459654</v>
+      </c>
+      <c r="G22" s="148" t="s">
+        <v>780</v>
+      </c>
+      <c r="H22" s="144"/>
+      <c r="I22" s="144"/>
+      <c r="J22" s="144"/>
+      <c r="K22" s="144"/>
+      <c r="L22" s="144"/>
+      <c r="M22" s="144"/>
+      <c r="N22" s="144"/>
+      <c r="O22" s="144"/>
+      <c r="P22" s="144"/>
+      <c r="Q22" s="144"/>
+      <c r="R22" s="144"/>
+      <c r="S22" s="145"/>
     </row>
     <row r="23" spans="1:19" ht="15.75" customHeight="1">
       <c r="A23" s="99">
-        <v>22</v>
-      </c>
-      <c r="B23" s="152" t="s">
-        <v>289</v>
+        <v>30</v>
+      </c>
+      <c r="B23" s="101" t="s">
+        <v>602</v>
       </c>
       <c r="C23" s="101" t="s">
-        <v>516</v>
+        <v>15</v>
       </c>
       <c r="D23" s="101" t="s">
-        <v>520</v>
+        <v>603</v>
       </c>
       <c r="E23" s="148" t="s">
-        <v>570</v>
+        <v>609</v>
       </c>
       <c r="F23" s="103" t="s">
-        <v>572</v>
-      </c>
-      <c r="G23" s="154" t="s">
-        <v>760</v>
-      </c>
-      <c r="H23" s="155"/>
-      <c r="I23" s="155"/>
-      <c r="J23" s="155"/>
-      <c r="K23" s="155"/>
-      <c r="L23" s="155"/>
-      <c r="M23" s="155"/>
-      <c r="N23" s="155"/>
-      <c r="O23" s="155"/>
-      <c r="P23" s="155"/>
-      <c r="Q23" s="155"/>
-      <c r="R23" s="155"/>
-      <c r="S23" s="156"/>
+        <v>605</v>
+      </c>
+      <c r="G23" s="148" t="s">
+        <v>769</v>
+      </c>
+      <c r="H23" s="124"/>
+      <c r="I23" s="124"/>
+      <c r="J23" s="124"/>
+      <c r="K23" s="124"/>
+      <c r="L23" s="124"/>
+      <c r="M23" s="124"/>
+      <c r="N23" s="124"/>
+      <c r="O23" s="124"/>
+      <c r="P23" s="124"/>
+      <c r="Q23" s="124"/>
+      <c r="R23" s="124"/>
+      <c r="S23" s="149"/>
     </row>
     <row r="24" spans="1:19" ht="15.75" customHeight="1">
       <c r="A24" s="94">
-        <v>23</v>
-      </c>
-      <c r="B24" s="151" t="s">
-        <v>311</v>
+        <v>41</v>
+      </c>
+      <c r="B24" s="105" t="s">
+        <v>616</v>
       </c>
       <c r="C24" s="105" t="s">
-        <v>516</v>
+        <v>27</v>
       </c>
       <c r="D24" s="105" t="s">
-        <v>520</v>
+        <v>617</v>
       </c>
       <c r="E24" s="148" t="s">
-        <v>570</v>
-      </c>
-      <c r="F24" s="98" t="s">
-        <v>578</v>
-      </c>
-      <c r="G24" s="154" t="s">
-        <v>761</v>
-      </c>
-      <c r="H24" s="157"/>
-      <c r="I24" s="157"/>
-      <c r="J24" s="157"/>
-      <c r="K24" s="157"/>
-      <c r="L24" s="157"/>
-      <c r="M24" s="157"/>
-      <c r="N24" s="157"/>
-      <c r="O24" s="157"/>
-      <c r="P24" s="157"/>
-      <c r="Q24" s="157"/>
-      <c r="R24" s="157"/>
-      <c r="S24" s="158"/>
+        <v>772</v>
+      </c>
+      <c r="F24" s="98">
+        <v>77764004000</v>
+      </c>
+      <c r="G24" s="148" t="s">
+        <v>781</v>
+      </c>
+      <c r="H24" s="144" t="s">
+        <v>782</v>
+      </c>
+      <c r="I24" s="144"/>
+      <c r="J24" s="144"/>
+      <c r="K24" s="144"/>
+      <c r="L24" s="144"/>
+      <c r="M24" s="144"/>
+      <c r="N24" s="144"/>
+      <c r="O24" s="144"/>
+      <c r="P24" s="144"/>
+      <c r="Q24" s="144"/>
+      <c r="R24" s="144"/>
+      <c r="S24" s="145"/>
     </row>
     <row r="25" spans="1:19" ht="15.75" customHeight="1">
       <c r="A25" s="99">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B25" s="152" t="s">
-        <v>295</v>
+        <v>621</v>
       </c>
       <c r="C25" s="101" t="s">
         <v>516</v>
       </c>
       <c r="D25" s="101" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E25" s="148" t="s">
-        <v>570</v>
+        <v>772</v>
       </c>
       <c r="F25" s="103" t="s">
-        <v>574</v>
-      </c>
-      <c r="G25" s="154" t="s">
-        <v>762</v>
-      </c>
-      <c r="H25" s="155"/>
-      <c r="I25" s="155"/>
-      <c r="J25" s="155"/>
-      <c r="K25" s="155"/>
-      <c r="L25" s="155"/>
-      <c r="M25" s="155"/>
-      <c r="N25" s="155"/>
-      <c r="O25" s="155"/>
-      <c r="P25" s="155"/>
-      <c r="Q25" s="155"/>
-      <c r="R25" s="155"/>
-      <c r="S25" s="156"/>
+        <v>623</v>
+      </c>
+      <c r="G25" s="148" t="s">
+        <v>783</v>
+      </c>
+      <c r="H25" s="124"/>
+      <c r="I25" s="124"/>
+      <c r="J25" s="124"/>
+      <c r="K25" s="124"/>
+      <c r="L25" s="124"/>
+      <c r="M25" s="124"/>
+      <c r="N25" s="124"/>
+      <c r="O25" s="124"/>
+      <c r="P25" s="124"/>
+      <c r="Q25" s="124"/>
+      <c r="R25" s="124"/>
+      <c r="S25" s="149"/>
     </row>
     <row r="26" spans="1:19" ht="13.8">
       <c r="A26" s="94">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B26" s="105" t="s">
-        <v>595</v>
+        <v>632</v>
       </c>
       <c r="C26" s="105" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D26" s="105" t="s">
-        <v>592</v>
+        <v>630</v>
       </c>
       <c r="E26" s="148" t="s">
-        <v>411</v>
-      </c>
-      <c r="F26" s="118" t="s">
-        <v>597</v>
+        <v>772</v>
+      </c>
+      <c r="F26" s="118">
+        <v>77710603592</v>
       </c>
       <c r="G26" s="148" t="s">
-        <v>763</v>
+        <v>784</v>
       </c>
       <c r="H26" s="144"/>
       <c r="I26" s="144"/>
@@ -45863,25 +45866,25 @@
     </row>
     <row r="27" spans="1:19" ht="13.8">
       <c r="A27" s="99">
-        <v>26</v>
-      </c>
-      <c r="B27" s="101" t="s">
-        <v>591</v>
+        <v>15</v>
+      </c>
+      <c r="B27" s="152" t="s">
+        <v>367</v>
       </c>
       <c r="C27" s="101" t="s">
-        <v>27</v>
+        <v>516</v>
       </c>
       <c r="D27" s="101" t="s">
-        <v>592</v>
+        <v>517</v>
       </c>
       <c r="E27" s="148" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="F27" s="110" t="s">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="G27" s="148" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="H27" s="124"/>
       <c r="I27" s="124"/>
@@ -45898,25 +45901,25 @@
     </row>
     <row r="28" spans="1:19" ht="13.8">
       <c r="A28" s="94">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B28" s="151" t="s">
-        <v>410</v>
+        <v>483</v>
       </c>
       <c r="C28" s="105" t="s">
         <v>516</v>
       </c>
-      <c r="D28" s="105">
-        <v>0</v>
+      <c r="D28" s="105" t="s">
+        <v>520</v>
       </c>
       <c r="E28" s="148" t="s">
-        <v>411</v>
+        <v>772</v>
       </c>
       <c r="F28" s="98">
-        <v>77789056044</v>
+        <v>77719062173</v>
       </c>
       <c r="G28" s="148" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="H28" s="144"/>
       <c r="I28" s="144"/>
@@ -45931,200 +45934,200 @@
       <c r="R28" s="144"/>
       <c r="S28" s="145"/>
     </row>
-    <row r="29" spans="1:19" ht="13.8">
+    <row r="29" spans="1:19" ht="14.4">
       <c r="A29" s="99">
-        <v>28</v>
-      </c>
-      <c r="B29" s="101" t="s">
-        <v>588</v>
+        <v>54</v>
+      </c>
+      <c r="B29" s="152" t="s">
+        <v>423</v>
       </c>
       <c r="C29" s="101" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="101" t="s">
-        <v>513</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="D29" s="101"/>
       <c r="E29" s="148" t="s">
-        <v>411</v>
-      </c>
-      <c r="F29" s="103" t="s">
-        <v>590</v>
-      </c>
-      <c r="G29" s="148" t="s">
-        <v>766</v>
-      </c>
-      <c r="H29" s="124"/>
-      <c r="I29" s="124"/>
-      <c r="J29" s="124"/>
-      <c r="K29" s="124"/>
-      <c r="L29" s="124"/>
-      <c r="M29" s="124"/>
-      <c r="N29" s="124"/>
-      <c r="O29" s="124"/>
-      <c r="P29" s="124"/>
-      <c r="Q29" s="124"/>
-      <c r="R29" s="124"/>
-      <c r="S29" s="149"/>
+        <v>793</v>
+      </c>
+      <c r="F29" s="103">
+        <v>77477185969</v>
+      </c>
+      <c r="G29" s="154" t="s">
+        <v>796</v>
+      </c>
+      <c r="H29" s="155"/>
+      <c r="I29" s="155"/>
+      <c r="J29" s="155"/>
+      <c r="K29" s="155"/>
+      <c r="L29" s="155"/>
+      <c r="M29" s="155"/>
+      <c r="N29" s="155"/>
+      <c r="O29" s="155"/>
+      <c r="P29" s="155"/>
+      <c r="Q29" s="155"/>
+      <c r="R29" s="155"/>
+      <c r="S29" s="156"/>
     </row>
     <row r="30" spans="1:19" ht="15.75" customHeight="1">
       <c r="A30" s="94">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B30" s="105" t="s">
-        <v>767</v>
+        <v>591</v>
       </c>
       <c r="C30" s="105" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D30" s="105" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="E30" s="148" t="s">
-        <v>609</v>
+        <v>411</v>
       </c>
       <c r="F30" s="98" t="s">
-        <v>608</v>
-      </c>
-      <c r="G30" s="154" t="s">
-        <v>768</v>
-      </c>
-      <c r="H30" s="157"/>
-      <c r="I30" s="157"/>
-      <c r="J30" s="157"/>
-      <c r="K30" s="157"/>
-      <c r="L30" s="157"/>
-      <c r="M30" s="157"/>
-      <c r="N30" s="157"/>
-      <c r="O30" s="157"/>
-      <c r="P30" s="157"/>
-      <c r="Q30" s="157"/>
-      <c r="R30" s="157"/>
-      <c r="S30" s="158"/>
-    </row>
-    <row r="31" spans="1:19" ht="13.8">
+        <v>594</v>
+      </c>
+      <c r="G30" s="148" t="s">
+        <v>764</v>
+      </c>
+      <c r="H30" s="144"/>
+      <c r="I30" s="144"/>
+      <c r="J30" s="144"/>
+      <c r="K30" s="144"/>
+      <c r="L30" s="144"/>
+      <c r="M30" s="144"/>
+      <c r="N30" s="144"/>
+      <c r="O30" s="144"/>
+      <c r="P30" s="144"/>
+      <c r="Q30" s="144"/>
+      <c r="R30" s="144"/>
+      <c r="S30" s="145"/>
+    </row>
+    <row r="31" spans="1:19" ht="14.4">
       <c r="A31" s="99">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="101" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C31" s="101" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D31" s="101" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="E31" s="148" t="s">
         <v>609</v>
       </c>
       <c r="F31" s="103" t="s">
-        <v>605</v>
-      </c>
-      <c r="G31" s="148" t="s">
-        <v>769</v>
-      </c>
-      <c r="H31" s="124"/>
-      <c r="I31" s="124"/>
-      <c r="J31" s="124"/>
-      <c r="K31" s="124"/>
-      <c r="L31" s="124"/>
-      <c r="M31" s="124"/>
-      <c r="N31" s="124"/>
-      <c r="O31" s="124"/>
-      <c r="P31" s="124"/>
-      <c r="Q31" s="124"/>
-      <c r="R31" s="124"/>
-      <c r="S31" s="149"/>
+        <v>601</v>
+      </c>
+      <c r="G31" s="159" t="s">
+        <v>824</v>
+      </c>
+      <c r="H31" s="184"/>
+      <c r="I31" s="184"/>
+      <c r="J31" s="184"/>
+      <c r="K31" s="184"/>
+      <c r="L31" s="184"/>
+      <c r="M31" s="184"/>
+      <c r="N31" s="184"/>
+      <c r="O31" s="184"/>
+      <c r="P31" s="184"/>
+      <c r="Q31" s="184"/>
+      <c r="R31" s="184"/>
+      <c r="S31" s="185"/>
     </row>
     <row r="32" spans="1:19" ht="15.75" customHeight="1">
       <c r="A32" s="94">
-        <v>31</v>
-      </c>
-      <c r="B32" s="105" t="s">
-        <v>598</v>
-      </c>
-      <c r="C32" s="105" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="105" t="s">
-        <v>599</v>
-      </c>
-      <c r="E32" s="148" t="s">
-        <v>609</v>
+        <v>3</v>
+      </c>
+      <c r="B32" s="150" t="s">
+        <v>236</v>
+      </c>
+      <c r="C32" s="96" t="s">
+        <v>516</v>
+      </c>
+      <c r="D32" s="96" t="s">
+        <v>520</v>
+      </c>
+      <c r="E32" s="147" t="s">
+        <v>509</v>
       </c>
       <c r="F32" s="98" t="s">
-        <v>601</v>
-      </c>
-      <c r="G32" s="159" t="s">
-        <v>770</v>
-      </c>
-      <c r="H32" s="160"/>
-      <c r="I32" s="160"/>
-      <c r="J32" s="160"/>
-      <c r="K32" s="160"/>
-      <c r="L32" s="160"/>
-      <c r="M32" s="160"/>
-      <c r="N32" s="160"/>
-      <c r="O32" s="160"/>
-      <c r="P32" s="160"/>
-      <c r="Q32" s="160"/>
-      <c r="R32" s="160"/>
-      <c r="S32" s="161"/>
+        <v>524</v>
+      </c>
+      <c r="G32" s="148" t="s">
+        <v>743</v>
+      </c>
+      <c r="H32" s="144"/>
+      <c r="I32" s="144"/>
+      <c r="J32" s="144"/>
+      <c r="K32" s="144"/>
+      <c r="L32" s="144"/>
+      <c r="M32" s="144"/>
+      <c r="N32" s="144"/>
+      <c r="O32" s="144"/>
+      <c r="P32" s="144"/>
+      <c r="Q32" s="144"/>
+      <c r="R32" s="144"/>
+      <c r="S32" s="145"/>
     </row>
     <row r="33" spans="1:19" ht="15.75" customHeight="1">
       <c r="A33" s="94">
-        <v>33</v>
-      </c>
-      <c r="B33" s="151" t="s">
-        <v>611</v>
-      </c>
-      <c r="C33" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="150" t="s">
+        <v>349</v>
+      </c>
+      <c r="C33" s="96" t="s">
         <v>516</v>
       </c>
-      <c r="D33" s="105"/>
-      <c r="E33" s="148" t="s">
-        <v>609</v>
+      <c r="D33" s="96" t="s">
+        <v>520</v>
+      </c>
+      <c r="E33" s="147" t="s">
+        <v>509</v>
       </c>
       <c r="F33" s="98" t="s">
-        <v>613</v>
-      </c>
-      <c r="G33" s="159" t="s">
-        <v>771</v>
-      </c>
-      <c r="H33" s="160"/>
-      <c r="I33" s="160"/>
-      <c r="J33" s="160"/>
-      <c r="K33" s="160"/>
-      <c r="L33" s="160"/>
-      <c r="M33" s="160"/>
-      <c r="N33" s="160"/>
-      <c r="O33" s="160"/>
-      <c r="P33" s="160"/>
-      <c r="Q33" s="160"/>
-      <c r="R33" s="160"/>
-      <c r="S33" s="161"/>
+        <v>532</v>
+      </c>
+      <c r="G33" s="148" t="s">
+        <v>744</v>
+      </c>
+      <c r="H33" s="144"/>
+      <c r="I33" s="144"/>
+      <c r="J33" s="144"/>
+      <c r="K33" s="144"/>
+      <c r="L33" s="144"/>
+      <c r="M33" s="144"/>
+      <c r="N33" s="144"/>
+      <c r="O33" s="144"/>
+      <c r="P33" s="144"/>
+      <c r="Q33" s="144"/>
+      <c r="R33" s="144"/>
+      <c r="S33" s="145"/>
     </row>
     <row r="34" spans="1:19" ht="13.8">
       <c r="A34" s="99">
-        <v>34</v>
-      </c>
-      <c r="B34" s="101" t="s">
-        <v>639</v>
+        <v>27</v>
+      </c>
+      <c r="B34" s="152" t="s">
+        <v>410</v>
       </c>
       <c r="C34" s="101" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="101" t="s">
-        <v>592</v>
+        <v>516</v>
+      </c>
+      <c r="D34" s="101">
+        <v>0</v>
       </c>
       <c r="E34" s="148" t="s">
-        <v>772</v>
+        <v>411</v>
       </c>
       <c r="F34" s="103">
-        <v>77054441706</v>
+        <v>77789056044</v>
       </c>
       <c r="G34" s="148" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="H34" s="124"/>
       <c r="I34" s="124"/>
@@ -46141,25 +46144,25 @@
     </row>
     <row r="35" spans="1:19" ht="13.8">
       <c r="A35" s="99">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B35" s="101" t="s">
-        <v>641</v>
+        <v>588</v>
       </c>
       <c r="C35" s="101" t="s">
         <v>27</v>
       </c>
       <c r="D35" s="101" t="s">
-        <v>592</v>
+        <v>513</v>
       </c>
       <c r="E35" s="148" t="s">
-        <v>772</v>
-      </c>
-      <c r="F35" s="103">
-        <v>77775223878</v>
+        <v>411</v>
+      </c>
+      <c r="F35" s="103" t="s">
+        <v>590</v>
       </c>
       <c r="G35" s="148" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="H35" s="124"/>
       <c r="I35" s="124"/>
@@ -46176,25 +46179,25 @@
     </row>
     <row r="36" spans="1:19" ht="13.8">
       <c r="A36" s="94">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="B36" s="105" t="s">
-        <v>652</v>
+        <v>705</v>
       </c>
       <c r="C36" s="105" t="s">
-        <v>653</v>
+        <v>15</v>
       </c>
       <c r="D36" s="105" t="s">
-        <v>599</v>
+        <v>706</v>
       </c>
       <c r="E36" s="148" t="s">
-        <v>772</v>
+        <v>427</v>
       </c>
       <c r="F36" s="98">
-        <v>77711886327</v>
+        <v>77057455796</v>
       </c>
       <c r="G36" s="148" t="s">
-        <v>777</v>
+        <v>805</v>
       </c>
       <c r="H36" s="144"/>
       <c r="I36" s="144"/>
@@ -46209,62 +46212,62 @@
       <c r="R36" s="144"/>
       <c r="S36" s="145"/>
     </row>
-    <row r="37" spans="1:19" ht="13.8">
+    <row r="37" spans="1:19" ht="14.4">
       <c r="A37" s="99">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B37" s="101" t="s">
-        <v>634</v>
+        <v>664</v>
       </c>
       <c r="C37" s="101" t="s">
         <v>27</v>
       </c>
       <c r="D37" s="101" t="s">
-        <v>635</v>
+        <v>665</v>
       </c>
       <c r="E37" s="148" t="s">
-        <v>772</v>
-      </c>
-      <c r="F37" s="103">
-        <v>77054627019</v>
-      </c>
-      <c r="G37" s="148" t="s">
-        <v>778</v>
-      </c>
-      <c r="H37" s="124"/>
-      <c r="I37" s="124"/>
-      <c r="J37" s="124"/>
-      <c r="K37" s="124"/>
-      <c r="L37" s="124"/>
-      <c r="M37" s="124"/>
-      <c r="N37" s="124"/>
-      <c r="O37" s="124"/>
-      <c r="P37" s="124"/>
-      <c r="Q37" s="124"/>
-      <c r="R37" s="124"/>
-      <c r="S37" s="149"/>
+        <v>793</v>
+      </c>
+      <c r="F37" s="103" t="s">
+        <v>667</v>
+      </c>
+      <c r="G37" s="154" t="s">
+        <v>797</v>
+      </c>
+      <c r="H37" s="155"/>
+      <c r="I37" s="155"/>
+      <c r="J37" s="155"/>
+      <c r="K37" s="155"/>
+      <c r="L37" s="155"/>
+      <c r="M37" s="155"/>
+      <c r="N37" s="155"/>
+      <c r="O37" s="155"/>
+      <c r="P37" s="155"/>
+      <c r="Q37" s="155"/>
+      <c r="R37" s="155"/>
+      <c r="S37" s="156"/>
     </row>
     <row r="38" spans="1:19" ht="13.8">
       <c r="A38" s="94">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B38" s="105" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="C38" s="105" t="s">
         <v>27</v>
       </c>
       <c r="D38" s="105" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="E38" s="148" t="s">
         <v>772</v>
       </c>
       <c r="F38" s="98">
-        <v>77477573740</v>
+        <v>7710609229</v>
       </c>
       <c r="G38" s="148" t="s">
-        <v>779</v>
+        <v>786</v>
       </c>
       <c r="H38" s="144"/>
       <c r="I38" s="144"/>
@@ -46281,25 +46284,25 @@
     </row>
     <row r="39" spans="1:19" ht="13.8">
       <c r="A39" s="99">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="B39" s="152" t="s">
-        <v>315</v>
+        <v>380</v>
       </c>
       <c r="C39" s="101" t="s">
         <v>516</v>
       </c>
       <c r="D39" s="101" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E39" s="148" t="s">
-        <v>772</v>
+        <v>427</v>
       </c>
       <c r="F39" s="110">
-        <v>77772459654</v>
+        <v>77772285335</v>
       </c>
       <c r="G39" s="148" t="s">
-        <v>780</v>
+        <v>806</v>
       </c>
       <c r="H39" s="124"/>
       <c r="I39" s="124"/>
@@ -46316,29 +46319,27 @@
     </row>
     <row r="40" spans="1:19" ht="13.8">
       <c r="A40" s="94">
-        <v>41</v>
-      </c>
-      <c r="B40" s="105" t="s">
-        <v>616</v>
-      </c>
-      <c r="C40" s="105" t="s">
-        <v>27</v>
-      </c>
-      <c r="D40" s="105" t="s">
-        <v>617</v>
-      </c>
-      <c r="E40" s="148" t="s">
-        <v>772</v>
-      </c>
-      <c r="F40" s="98">
-        <v>77764004000</v>
+        <v>6</v>
+      </c>
+      <c r="B40" s="150" t="s">
+        <v>307</v>
+      </c>
+      <c r="C40" s="96" t="s">
+        <v>516</v>
+      </c>
+      <c r="D40" s="96" t="s">
+        <v>520</v>
+      </c>
+      <c r="E40" s="147" t="s">
+        <v>509</v>
+      </c>
+      <c r="F40" s="98" t="s">
+        <v>522</v>
       </c>
       <c r="G40" s="148" t="s">
-        <v>781</v>
-      </c>
-      <c r="H40" s="144" t="s">
-        <v>782</v>
-      </c>
+        <v>747</v>
+      </c>
+      <c r="H40" s="144"/>
       <c r="I40" s="144"/>
       <c r="J40" s="144"/>
       <c r="K40" s="144"/>
@@ -46352,96 +46353,109 @@
       <c r="S40" s="145"/>
     </row>
     <row r="41" spans="1:19" ht="13.8">
-      <c r="A41" s="99">
-        <v>42</v>
-      </c>
-      <c r="B41" s="152" t="s">
-        <v>621</v>
-      </c>
-      <c r="C41" s="101" t="s">
+      <c r="A41" s="94">
+        <v>5</v>
+      </c>
+      <c r="B41" s="151" t="s">
+        <v>745</v>
+      </c>
+      <c r="C41" s="105" t="s">
         <v>516</v>
       </c>
-      <c r="D41" s="101" t="s">
+      <c r="D41" s="105" t="s">
         <v>517</v>
       </c>
       <c r="E41" s="148" t="s">
-        <v>772</v>
-      </c>
-      <c r="F41" s="103" t="s">
-        <v>623</v>
+        <v>509</v>
+      </c>
+      <c r="F41" s="98" t="s">
+        <v>519</v>
       </c>
       <c r="G41" s="148" t="s">
-        <v>783</v>
-      </c>
-      <c r="H41" s="124"/>
-      <c r="I41" s="124"/>
-      <c r="J41" s="124"/>
-      <c r="K41" s="124"/>
-      <c r="L41" s="124"/>
-      <c r="M41" s="124"/>
-      <c r="N41" s="124"/>
-      <c r="O41" s="124"/>
-      <c r="P41" s="124"/>
-      <c r="Q41" s="124"/>
-      <c r="R41" s="124"/>
-      <c r="S41" s="149"/>
+        <v>741</v>
+      </c>
+      <c r="H41" s="144"/>
+      <c r="I41" s="144"/>
+      <c r="J41" s="144"/>
+      <c r="K41" s="144"/>
+      <c r="L41" s="144"/>
+      <c r="M41" s="144"/>
+      <c r="N41" s="144" t="s">
+        <v>746</v>
+      </c>
+      <c r="O41" s="144">
+        <v>70</v>
+      </c>
+      <c r="P41" s="144">
+        <v>115.5</v>
+      </c>
+      <c r="Q41" s="144">
+        <v>115.5</v>
+      </c>
+      <c r="R41" s="144">
+        <v>49</v>
+      </c>
+      <c r="S41" s="145">
+        <f>SUM(O41:R41)</f>
+        <v>350</v>
+      </c>
     </row>
     <row r="42" spans="1:19" ht="13.8">
-      <c r="A42" s="94">
-        <v>43</v>
-      </c>
-      <c r="B42" s="105" t="s">
-        <v>632</v>
-      </c>
-      <c r="C42" s="105" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="105" t="s">
-        <v>630</v>
+      <c r="A42" s="99">
+        <v>47</v>
+      </c>
+      <c r="B42" s="122" t="s">
+        <v>619</v>
+      </c>
+      <c r="C42" s="122" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="122" t="s">
+        <v>513</v>
       </c>
       <c r="E42" s="148" t="s">
         <v>772</v>
       </c>
-      <c r="F42" s="98">
-        <v>77710603592</v>
+      <c r="F42" s="124">
+        <v>77711886438</v>
       </c>
       <c r="G42" s="148" t="s">
-        <v>784</v>
-      </c>
-      <c r="H42" s="144"/>
-      <c r="I42" s="144"/>
-      <c r="J42" s="144"/>
-      <c r="K42" s="144"/>
-      <c r="L42" s="144"/>
-      <c r="M42" s="144"/>
-      <c r="N42" s="144"/>
-      <c r="O42" s="144"/>
-      <c r="P42" s="144"/>
-      <c r="Q42" s="144"/>
-      <c r="R42" s="144"/>
-      <c r="S42" s="145"/>
+        <v>788</v>
+      </c>
+      <c r="H42" s="124"/>
+      <c r="I42" s="124"/>
+      <c r="J42" s="124"/>
+      <c r="K42" s="124"/>
+      <c r="L42" s="124"/>
+      <c r="M42" s="124"/>
+      <c r="N42" s="124"/>
+      <c r="O42" s="124"/>
+      <c r="P42" s="124"/>
+      <c r="Q42" s="124"/>
+      <c r="R42" s="124"/>
+      <c r="S42" s="149"/>
     </row>
     <row r="43" spans="1:19" ht="13.8">
       <c r="A43" s="99">
-        <v>44</v>
-      </c>
-      <c r="B43" s="162" t="s">
-        <v>483</v>
-      </c>
-      <c r="C43" s="122" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" s="152" t="s">
+        <v>376</v>
+      </c>
+      <c r="C43" s="101" t="s">
         <v>516</v>
       </c>
-      <c r="D43" s="122" t="s">
-        <v>520</v>
+      <c r="D43" s="101" t="s">
+        <v>517</v>
       </c>
       <c r="E43" s="148" t="s">
-        <v>772</v>
-      </c>
-      <c r="F43" s="124">
-        <v>77719062173</v>
+        <v>427</v>
+      </c>
+      <c r="F43" s="103">
+        <v>77761023037</v>
       </c>
       <c r="G43" s="148" t="s">
-        <v>785</v>
+        <v>807</v>
       </c>
       <c r="H43" s="124"/>
       <c r="I43" s="124"/>
@@ -46456,62 +46470,60 @@
       <c r="R43" s="124"/>
       <c r="S43" s="149"/>
     </row>
-    <row r="44" spans="1:19" ht="13.8">
+    <row r="44" spans="1:19" ht="14.4">
       <c r="A44" s="94">
-        <v>45</v>
-      </c>
-      <c r="B44" s="125" t="s">
-        <v>629</v>
-      </c>
-      <c r="C44" s="125" t="s">
-        <v>27</v>
-      </c>
-      <c r="D44" s="125" t="s">
-        <v>630</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B44" s="151" t="s">
+        <v>611</v>
+      </c>
+      <c r="C44" s="105" t="s">
+        <v>516</v>
+      </c>
+      <c r="D44" s="105"/>
       <c r="E44" s="148" t="s">
-        <v>772</v>
-      </c>
-      <c r="F44" s="126">
-        <v>7710609229</v>
-      </c>
-      <c r="G44" s="148" t="s">
-        <v>786</v>
-      </c>
-      <c r="H44" s="144"/>
-      <c r="I44" s="144"/>
-      <c r="J44" s="144"/>
-      <c r="K44" s="144"/>
-      <c r="L44" s="144"/>
-      <c r="M44" s="144"/>
-      <c r="N44" s="144"/>
-      <c r="O44" s="144"/>
-      <c r="P44" s="144"/>
-      <c r="Q44" s="144"/>
-      <c r="R44" s="144"/>
-      <c r="S44" s="145"/>
+        <v>609</v>
+      </c>
+      <c r="F44" s="98" t="s">
+        <v>613</v>
+      </c>
+      <c r="G44" s="159" t="s">
+        <v>771</v>
+      </c>
+      <c r="H44" s="160"/>
+      <c r="I44" s="160"/>
+      <c r="J44" s="160"/>
+      <c r="K44" s="160"/>
+      <c r="L44" s="160"/>
+      <c r="M44" s="160"/>
+      <c r="N44" s="160"/>
+      <c r="O44" s="160"/>
+      <c r="P44" s="160"/>
+      <c r="Q44" s="160"/>
+      <c r="R44" s="160"/>
+      <c r="S44" s="161"/>
     </row>
     <row r="45" spans="1:19" ht="13.8">
       <c r="A45" s="99">
-        <v>46</v>
-      </c>
-      <c r="B45" s="101" t="s">
-        <v>643</v>
-      </c>
-      <c r="C45" s="101" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="108" t="s">
+        <v>507</v>
+      </c>
+      <c r="C45" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="101" t="s">
-        <v>592</v>
-      </c>
-      <c r="E45" s="148" t="s">
-        <v>772</v>
-      </c>
-      <c r="F45" s="103">
-        <v>77775223885</v>
+      <c r="D45" s="108" t="s">
+        <v>508</v>
+      </c>
+      <c r="E45" s="147" t="s">
+        <v>509</v>
+      </c>
+      <c r="F45" s="103" t="s">
+        <v>511</v>
       </c>
       <c r="G45" s="148" t="s">
-        <v>787</v>
+        <v>748</v>
       </c>
       <c r="H45" s="124"/>
       <c r="I45" s="124"/>
@@ -46528,25 +46540,25 @@
     </row>
     <row r="46" spans="1:19" ht="13.8">
       <c r="A46" s="94">
-        <v>47</v>
-      </c>
-      <c r="B46" s="105" t="s">
-        <v>619</v>
+        <v>48</v>
+      </c>
+      <c r="B46" s="151" t="s">
+        <v>627</v>
       </c>
       <c r="C46" s="105" t="s">
-        <v>27</v>
+        <v>516</v>
       </c>
       <c r="D46" s="105" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="E46" s="148" t="s">
         <v>772</v>
       </c>
       <c r="F46" s="98">
-        <v>77711886438</v>
+        <v>77753480121</v>
       </c>
       <c r="G46" s="148" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H46" s="144"/>
       <c r="I46" s="144"/>
@@ -46561,62 +46573,62 @@
       <c r="R46" s="144"/>
       <c r="S46" s="145"/>
     </row>
-    <row r="47" spans="1:19" ht="13.8">
+    <row r="47" spans="1:19" ht="14.4">
       <c r="A47" s="99">
-        <v>48</v>
-      </c>
-      <c r="B47" s="152" t="s">
-        <v>627</v>
+        <v>73</v>
+      </c>
+      <c r="B47" s="101" t="s">
+        <v>709</v>
       </c>
       <c r="C47" s="101" t="s">
-        <v>516</v>
+        <v>27</v>
       </c>
       <c r="D47" s="101" t="s">
-        <v>517</v>
+        <v>710</v>
       </c>
       <c r="E47" s="148" t="s">
-        <v>772</v>
-      </c>
-      <c r="F47" s="103">
-        <v>77753480121</v>
-      </c>
-      <c r="G47" s="148" t="s">
-        <v>789</v>
-      </c>
-      <c r="H47" s="124"/>
-      <c r="I47" s="124"/>
-      <c r="J47" s="124"/>
-      <c r="K47" s="124"/>
-      <c r="L47" s="124"/>
-      <c r="M47" s="124"/>
-      <c r="N47" s="124"/>
-      <c r="O47" s="124"/>
-      <c r="P47" s="124"/>
-      <c r="Q47" s="124"/>
-      <c r="R47" s="124"/>
-      <c r="S47" s="149"/>
+        <v>415</v>
+      </c>
+      <c r="F47" s="103" t="s">
+        <v>712</v>
+      </c>
+      <c r="G47" s="154" t="s">
+        <v>813</v>
+      </c>
+      <c r="H47" s="155"/>
+      <c r="I47" s="155"/>
+      <c r="J47" s="155"/>
+      <c r="K47" s="155"/>
+      <c r="L47" s="155"/>
+      <c r="M47" s="155"/>
+      <c r="N47" s="155"/>
+      <c r="O47" s="155"/>
+      <c r="P47" s="155"/>
+      <c r="Q47" s="155"/>
+      <c r="R47" s="155"/>
+      <c r="S47" s="156"/>
     </row>
     <row r="48" spans="1:19" ht="13.8">
       <c r="A48" s="94">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B48" s="105" t="s">
-        <v>614</v>
+        <v>698</v>
       </c>
       <c r="C48" s="105" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D48" s="105" t="s">
-        <v>546</v>
+        <v>699</v>
       </c>
       <c r="E48" s="148" t="s">
-        <v>772</v>
+        <v>427</v>
       </c>
       <c r="F48" s="98">
-        <v>77479305650</v>
+        <v>77057454959</v>
       </c>
       <c r="G48" s="148" t="s">
-        <v>790</v>
+        <v>803</v>
       </c>
       <c r="H48" s="144"/>
       <c r="I48" s="144"/>
@@ -46631,27 +46643,27 @@
       <c r="R48" s="144"/>
       <c r="S48" s="145"/>
     </row>
-    <row r="49" spans="1:19" ht="13.8">
+    <row r="49" spans="1:19" ht="15.75" customHeight="1">
       <c r="A49" s="99">
-        <v>50</v>
-      </c>
-      <c r="B49" s="152" t="s">
-        <v>624</v>
+        <v>49</v>
+      </c>
+      <c r="B49" s="101" t="s">
+        <v>614</v>
       </c>
       <c r="C49" s="101" t="s">
-        <v>516</v>
+        <v>27</v>
       </c>
       <c r="D49" s="101" t="s">
-        <v>517</v>
+        <v>546</v>
       </c>
       <c r="E49" s="148" t="s">
         <v>772</v>
       </c>
-      <c r="F49" s="103" t="s">
-        <v>626</v>
+      <c r="F49" s="103">
+        <v>77479305650</v>
       </c>
       <c r="G49" s="148" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H49" s="124"/>
       <c r="I49" s="124"/>
@@ -46666,60 +46678,62 @@
       <c r="R49" s="124"/>
       <c r="S49" s="149"/>
     </row>
-    <row r="50" spans="1:19" ht="13.8">
+    <row r="50" spans="1:19" ht="15.75" customHeight="1">
       <c r="A50" s="94">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50" s="105" t="s">
-        <v>645</v>
+        <v>660</v>
       </c>
       <c r="C50" s="105" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D50" s="105" t="s">
-        <v>646</v>
+        <v>661</v>
       </c>
       <c r="E50" s="148" t="s">
-        <v>772</v>
-      </c>
-      <c r="F50" s="98">
-        <v>77756396005</v>
-      </c>
-      <c r="G50" s="148" t="s">
-        <v>792</v>
-      </c>
-      <c r="H50" s="144"/>
-      <c r="I50" s="144"/>
-      <c r="J50" s="144"/>
-      <c r="K50" s="144"/>
-      <c r="L50" s="144"/>
-      <c r="M50" s="144"/>
-      <c r="N50" s="144"/>
-      <c r="O50" s="144"/>
-      <c r="P50" s="144"/>
-      <c r="Q50" s="144"/>
-      <c r="R50" s="144"/>
-      <c r="S50" s="145"/>
+        <v>793</v>
+      </c>
+      <c r="F50" s="98" t="s">
+        <v>663</v>
+      </c>
+      <c r="G50" s="154" t="s">
+        <v>798</v>
+      </c>
+      <c r="H50" s="157"/>
+      <c r="I50" s="157"/>
+      <c r="J50" s="157"/>
+      <c r="K50" s="157"/>
+      <c r="L50" s="157"/>
+      <c r="M50" s="157"/>
+      <c r="N50" s="157"/>
+      <c r="O50" s="157"/>
+      <c r="P50" s="157"/>
+      <c r="Q50" s="157"/>
+      <c r="R50" s="157"/>
+      <c r="S50" s="158"/>
     </row>
     <row r="51" spans="1:19" ht="15.75" customHeight="1">
       <c r="A51" s="99">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="B51" s="152" t="s">
-        <v>678</v>
+        <v>414</v>
       </c>
       <c r="C51" s="101" t="s">
         <v>516</v>
       </c>
-      <c r="D51" s="101"/>
+      <c r="D51" s="101">
+        <v>0</v>
+      </c>
       <c r="E51" s="148" t="s">
-        <v>793</v>
-      </c>
-      <c r="F51" s="103" t="s">
-        <v>680</v>
+        <v>415</v>
+      </c>
+      <c r="F51" s="103">
+        <v>77761009650</v>
       </c>
       <c r="G51" s="154" t="s">
-        <v>794</v>
+        <v>814</v>
       </c>
       <c r="H51" s="155"/>
       <c r="I51" s="155"/>
@@ -46736,13 +46750,13 @@
     </row>
     <row r="52" spans="1:19" ht="15.75" customHeight="1">
       <c r="A52" s="94">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52" s="105" t="s">
-        <v>672</v>
+        <v>799</v>
       </c>
       <c r="C52" s="105" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D52" s="105" t="s">
         <v>669</v>
@@ -46750,11 +46764,11 @@
       <c r="E52" s="148" t="s">
         <v>793</v>
       </c>
-      <c r="F52" s="98" t="s">
-        <v>674</v>
+      <c r="F52" s="118" t="s">
+        <v>671</v>
       </c>
       <c r="G52" s="154" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="H52" s="157"/>
       <c r="I52" s="157"/>
@@ -46771,93 +46785,95 @@
     </row>
     <row r="53" spans="1:19" ht="15.75" customHeight="1">
       <c r="A53" s="99">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B53" s="152" t="s">
-        <v>423</v>
+        <v>342</v>
       </c>
       <c r="C53" s="101" t="s">
         <v>516</v>
       </c>
-      <c r="D53" s="101"/>
+      <c r="D53" s="101" t="s">
+        <v>520</v>
+      </c>
       <c r="E53" s="148" t="s">
-        <v>793</v>
-      </c>
-      <c r="F53" s="103">
-        <v>77477185969</v>
-      </c>
-      <c r="G53" s="154" t="s">
-        <v>796</v>
-      </c>
-      <c r="H53" s="155"/>
-      <c r="I53" s="155"/>
-      <c r="J53" s="155"/>
-      <c r="K53" s="155"/>
-      <c r="L53" s="155"/>
-      <c r="M53" s="155"/>
-      <c r="N53" s="155"/>
-      <c r="O53" s="155"/>
-      <c r="P53" s="155"/>
-      <c r="Q53" s="155"/>
-      <c r="R53" s="155"/>
-      <c r="S53" s="156"/>
+        <v>427</v>
+      </c>
+      <c r="F53" s="110">
+        <v>77026615811</v>
+      </c>
+      <c r="G53" s="148" t="s">
+        <v>808</v>
+      </c>
+      <c r="H53" s="124"/>
+      <c r="I53" s="124"/>
+      <c r="J53" s="124"/>
+      <c r="K53" s="124"/>
+      <c r="L53" s="124"/>
+      <c r="M53" s="124"/>
+      <c r="N53" s="124"/>
+      <c r="O53" s="124"/>
+      <c r="P53" s="124"/>
+      <c r="Q53" s="124"/>
+      <c r="R53" s="124"/>
+      <c r="S53" s="149"/>
     </row>
     <row r="54" spans="1:19" ht="15.75" customHeight="1">
       <c r="A54" s="94">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="B54" s="105" t="s">
-        <v>664</v>
+        <v>713</v>
       </c>
       <c r="C54" s="105" t="s">
-        <v>27</v>
+        <v>714</v>
       </c>
       <c r="D54" s="105" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="E54" s="148" t="s">
-        <v>793</v>
-      </c>
-      <c r="F54" s="118" t="s">
-        <v>667</v>
-      </c>
-      <c r="G54" s="154" t="s">
-        <v>797</v>
-      </c>
-      <c r="H54" s="157"/>
-      <c r="I54" s="157"/>
-      <c r="J54" s="157"/>
-      <c r="K54" s="157"/>
-      <c r="L54" s="157"/>
-      <c r="M54" s="157"/>
-      <c r="N54" s="157"/>
-      <c r="O54" s="157"/>
-      <c r="P54" s="157"/>
-      <c r="Q54" s="157"/>
-      <c r="R54" s="157"/>
-      <c r="S54" s="158"/>
+        <v>415</v>
+      </c>
+      <c r="F54" s="98" t="s">
+        <v>716</v>
+      </c>
+      <c r="G54" s="148" t="s">
+        <v>815</v>
+      </c>
+      <c r="H54" s="144"/>
+      <c r="I54" s="144"/>
+      <c r="J54" s="144"/>
+      <c r="K54" s="144"/>
+      <c r="L54" s="144"/>
+      <c r="M54" s="144"/>
+      <c r="N54" s="144"/>
+      <c r="O54" s="144"/>
+      <c r="P54" s="144"/>
+      <c r="Q54" s="144"/>
+      <c r="R54" s="144"/>
+      <c r="S54" s="145"/>
     </row>
     <row r="55" spans="1:19" ht="15.75" customHeight="1">
       <c r="A55" s="99">
-        <v>56</v>
-      </c>
-      <c r="B55" s="101" t="s">
-        <v>660</v>
+        <v>21</v>
+      </c>
+      <c r="B55" s="152" t="s">
+        <v>338</v>
       </c>
       <c r="C55" s="101" t="s">
-        <v>27</v>
+        <v>516</v>
       </c>
       <c r="D55" s="101" t="s">
-        <v>661</v>
+        <v>520</v>
       </c>
       <c r="E55" s="148" t="s">
-        <v>793</v>
-      </c>
-      <c r="F55" s="110" t="s">
-        <v>663</v>
+        <v>570</v>
+      </c>
+      <c r="F55" s="103" t="s">
+        <v>576</v>
       </c>
       <c r="G55" s="154" t="s">
-        <v>798</v>
+        <v>759</v>
       </c>
       <c r="H55" s="155"/>
       <c r="I55" s="155"/>
@@ -46872,42 +46888,42 @@
       <c r="R55" s="155"/>
       <c r="S55" s="156"/>
     </row>
-    <row r="56" spans="1:19" ht="15.75" customHeight="1">
+    <row r="56" spans="1:19" ht="13.8">
       <c r="A56" s="94">
-        <v>57</v>
-      </c>
-      <c r="B56" s="105" t="s">
-        <v>799</v>
+        <v>50</v>
+      </c>
+      <c r="B56" s="151" t="s">
+        <v>624</v>
       </c>
       <c r="C56" s="105" t="s">
-        <v>15</v>
+        <v>516</v>
       </c>
       <c r="D56" s="105" t="s">
-        <v>669</v>
+        <v>517</v>
       </c>
       <c r="E56" s="148" t="s">
-        <v>793</v>
+        <v>772</v>
       </c>
       <c r="F56" s="98" t="s">
-        <v>671</v>
-      </c>
-      <c r="G56" s="154" t="s">
-        <v>800</v>
-      </c>
-      <c r="H56" s="157"/>
-      <c r="I56" s="157"/>
-      <c r="J56" s="157"/>
-      <c r="K56" s="157"/>
-      <c r="L56" s="157"/>
-      <c r="M56" s="157"/>
-      <c r="N56" s="157"/>
-      <c r="O56" s="157"/>
-      <c r="P56" s="157"/>
-      <c r="Q56" s="157"/>
-      <c r="R56" s="157"/>
-      <c r="S56" s="158"/>
-    </row>
-    <row r="57" spans="1:19" ht="15.75" customHeight="1">
+        <v>626</v>
+      </c>
+      <c r="G56" s="148" t="s">
+        <v>791</v>
+      </c>
+      <c r="H56" s="144"/>
+      <c r="I56" s="144"/>
+      <c r="J56" s="144"/>
+      <c r="K56" s="144"/>
+      <c r="L56" s="144"/>
+      <c r="M56" s="144"/>
+      <c r="N56" s="144"/>
+      <c r="O56" s="144"/>
+      <c r="P56" s="144"/>
+      <c r="Q56" s="144"/>
+      <c r="R56" s="144"/>
+      <c r="S56" s="145"/>
+    </row>
+    <row r="57" spans="1:19" ht="14.4">
       <c r="A57" s="99">
         <v>58</v>
       </c>
@@ -46944,25 +46960,25 @@
     </row>
     <row r="58" spans="1:19" ht="13.8">
       <c r="A58" s="94">
-        <v>67</v>
-      </c>
-      <c r="B58" s="105" t="s">
-        <v>688</v>
+        <v>17</v>
+      </c>
+      <c r="B58" s="151" t="s">
+        <v>363</v>
       </c>
       <c r="C58" s="105" t="s">
-        <v>20</v>
+        <v>516</v>
       </c>
       <c r="D58" s="105" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="E58" s="148" t="s">
-        <v>809</v>
+        <v>419</v>
       </c>
       <c r="F58" s="98" t="s">
-        <v>690</v>
+        <v>558</v>
       </c>
       <c r="G58" s="148" t="s">
-        <v>810</v>
+        <v>756</v>
       </c>
       <c r="H58" s="144"/>
       <c r="I58" s="144"/>
@@ -46977,47 +46993,47 @@
       <c r="R58" s="144"/>
       <c r="S58" s="145"/>
     </row>
-    <row r="59" spans="1:19" ht="13.8">
+    <row r="59" spans="1:19" ht="14.4">
       <c r="A59" s="99">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="B59" s="152" t="s">
-        <v>393</v>
+        <v>289</v>
       </c>
       <c r="C59" s="101" t="s">
         <v>516</v>
       </c>
       <c r="D59" s="101" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E59" s="148" t="s">
-        <v>427</v>
-      </c>
-      <c r="F59" s="103">
-        <v>77078750345</v>
-      </c>
-      <c r="G59" s="148" t="s">
-        <v>803</v>
-      </c>
-      <c r="H59" s="124"/>
-      <c r="I59" s="124"/>
-      <c r="J59" s="124"/>
-      <c r="K59" s="124"/>
-      <c r="L59" s="124"/>
-      <c r="M59" s="124"/>
-      <c r="N59" s="124"/>
-      <c r="O59" s="124"/>
-      <c r="P59" s="124"/>
-      <c r="Q59" s="124"/>
-      <c r="R59" s="124"/>
-      <c r="S59" s="149"/>
+        <v>570</v>
+      </c>
+      <c r="F59" s="103" t="s">
+        <v>572</v>
+      </c>
+      <c r="G59" s="154" t="s">
+        <v>760</v>
+      </c>
+      <c r="H59" s="155"/>
+      <c r="I59" s="155"/>
+      <c r="J59" s="155"/>
+      <c r="K59" s="155"/>
+      <c r="L59" s="155"/>
+      <c r="M59" s="155"/>
+      <c r="N59" s="155"/>
+      <c r="O59" s="155"/>
+      <c r="P59" s="155"/>
+      <c r="Q59" s="155"/>
+      <c r="R59" s="155"/>
+      <c r="S59" s="156"/>
     </row>
     <row r="60" spans="1:19" ht="13.8">
       <c r="A60" s="94">
-        <v>61</v>
-      </c>
-      <c r="B60" s="163" t="s">
-        <v>346</v>
+        <v>8</v>
+      </c>
+      <c r="B60" s="151" t="s">
+        <v>334</v>
       </c>
       <c r="C60" s="105" t="s">
         <v>516</v>
@@ -47026,13 +47042,13 @@
         <v>520</v>
       </c>
       <c r="E60" s="148" t="s">
-        <v>427</v>
-      </c>
-      <c r="F60" s="98">
-        <v>77057418708</v>
+        <v>509</v>
+      </c>
+      <c r="F60" s="98" t="s">
+        <v>526</v>
       </c>
       <c r="G60" s="148" t="s">
-        <v>804</v>
+        <v>749</v>
       </c>
       <c r="H60" s="144"/>
       <c r="I60" s="144"/>
@@ -47049,25 +47065,25 @@
     </row>
     <row r="61" spans="1:19" ht="13.8">
       <c r="A61" s="99">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B61" s="101" t="s">
-        <v>705</v>
+        <v>645</v>
       </c>
       <c r="C61" s="101" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="101" t="s">
-        <v>706</v>
+        <v>646</v>
       </c>
       <c r="E61" s="148" t="s">
-        <v>427</v>
+        <v>772</v>
       </c>
       <c r="F61" s="103">
-        <v>77057455796</v>
+        <v>77756396005</v>
       </c>
       <c r="G61" s="148" t="s">
-        <v>805</v>
+        <v>792</v>
       </c>
       <c r="H61" s="124"/>
       <c r="I61" s="124"/>
@@ -47084,25 +47100,25 @@
     </row>
     <row r="62" spans="1:19" ht="13.8">
       <c r="A62" s="94">
-        <v>63</v>
-      </c>
-      <c r="B62" s="151" t="s">
-        <v>380</v>
-      </c>
-      <c r="C62" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="150" t="s">
+        <v>326</v>
+      </c>
+      <c r="C62" s="96" t="s">
         <v>516</v>
       </c>
-      <c r="D62" s="105" t="s">
-        <v>517</v>
-      </c>
-      <c r="E62" s="148" t="s">
-        <v>427</v>
-      </c>
-      <c r="F62" s="98">
-        <v>77772285335</v>
+      <c r="D62" s="96" t="s">
+        <v>520</v>
+      </c>
+      <c r="E62" s="147" t="s">
+        <v>509</v>
+      </c>
+      <c r="F62" s="98" t="s">
+        <v>530</v>
       </c>
       <c r="G62" s="148" t="s">
-        <v>806</v>
+        <v>749</v>
       </c>
       <c r="H62" s="144"/>
       <c r="I62" s="144"/>
@@ -47119,25 +47135,25 @@
     </row>
     <row r="63" spans="1:19" ht="13.8">
       <c r="A63" s="99">
-        <v>64</v>
-      </c>
-      <c r="B63" s="152" t="s">
-        <v>376</v>
+        <v>18</v>
+      </c>
+      <c r="B63" s="101" t="s">
+        <v>549</v>
       </c>
       <c r="C63" s="101" t="s">
-        <v>516</v>
+        <v>15</v>
       </c>
       <c r="D63" s="101" t="s">
-        <v>517</v>
+        <v>550</v>
       </c>
       <c r="E63" s="148" t="s">
-        <v>427</v>
-      </c>
-      <c r="F63" s="103">
-        <v>77761023037</v>
+        <v>419</v>
+      </c>
+      <c r="F63" s="103" t="s">
+        <v>552</v>
       </c>
       <c r="G63" s="148" t="s">
-        <v>807</v>
+        <v>756</v>
       </c>
       <c r="H63" s="124"/>
       <c r="I63" s="124"/>
@@ -47154,25 +47170,25 @@
     </row>
     <row r="64" spans="1:19" ht="13.8">
       <c r="A64" s="94">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="B64" s="105" t="s">
-        <v>698</v>
+        <v>545</v>
       </c>
       <c r="C64" s="105" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D64" s="105" t="s">
-        <v>699</v>
+        <v>546</v>
       </c>
       <c r="E64" s="148" t="s">
-        <v>427</v>
-      </c>
-      <c r="F64" s="98">
-        <v>77057454959</v>
+        <v>419</v>
+      </c>
+      <c r="F64" s="98" t="s">
+        <v>548</v>
       </c>
       <c r="G64" s="148" t="s">
-        <v>803</v>
+        <v>757</v>
       </c>
       <c r="H64" s="144"/>
       <c r="I64" s="144"/>
@@ -47189,25 +47205,25 @@
     </row>
     <row r="65" spans="1:19" ht="13.8">
       <c r="A65" s="99">
-        <v>66</v>
-      </c>
-      <c r="B65" s="152" t="s">
-        <v>342</v>
+        <v>67</v>
+      </c>
+      <c r="B65" s="101" t="s">
+        <v>688</v>
       </c>
       <c r="C65" s="101" t="s">
-        <v>516</v>
+        <v>20</v>
       </c>
       <c r="D65" s="101" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="E65" s="148" t="s">
-        <v>427</v>
-      </c>
-      <c r="F65" s="103">
-        <v>77026615811</v>
+        <v>809</v>
+      </c>
+      <c r="F65" s="103" t="s">
+        <v>690</v>
       </c>
       <c r="G65" s="148" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="H65" s="124"/>
       <c r="I65" s="124"/>
@@ -47257,62 +47273,62 @@
       <c r="R66" s="144"/>
       <c r="S66" s="145"/>
     </row>
-    <row r="67" spans="1:19" ht="13.8">
+    <row r="67" spans="1:19" ht="14.4">
       <c r="A67" s="99">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B67" s="152" t="s">
-        <v>401</v>
+        <v>720</v>
       </c>
       <c r="C67" s="101" t="s">
         <v>516</v>
       </c>
       <c r="D67" s="101" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E67" s="148" t="s">
-        <v>427</v>
-      </c>
-      <c r="F67" s="103">
-        <v>77022144180</v>
-      </c>
-      <c r="G67" s="148" t="s">
-        <v>803</v>
-      </c>
-      <c r="H67" s="124"/>
-      <c r="I67" s="124"/>
-      <c r="J67" s="124"/>
-      <c r="K67" s="124"/>
-      <c r="L67" s="124"/>
-      <c r="M67" s="124"/>
-      <c r="N67" s="124"/>
-      <c r="O67" s="124"/>
-      <c r="P67" s="124"/>
-      <c r="Q67" s="124"/>
-      <c r="R67" s="124"/>
-      <c r="S67" s="149"/>
-    </row>
-    <row r="68" spans="1:19" ht="13.8">
+        <v>415</v>
+      </c>
+      <c r="F67" s="103" t="s">
+        <v>722</v>
+      </c>
+      <c r="G67" s="154" t="s">
+        <v>816</v>
+      </c>
+      <c r="H67" s="155"/>
+      <c r="I67" s="155"/>
+      <c r="J67" s="155"/>
+      <c r="K67" s="155"/>
+      <c r="L67" s="155"/>
+      <c r="M67" s="155"/>
+      <c r="N67" s="155"/>
+      <c r="O67" s="155"/>
+      <c r="P67" s="155"/>
+      <c r="Q67" s="155"/>
+      <c r="R67" s="155"/>
+      <c r="S67" s="156"/>
+    </row>
+    <row r="68" spans="1:19" ht="15.75" customHeight="1">
       <c r="A68" s="94">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="B68" s="105" t="s">
-        <v>701</v>
+        <v>538</v>
       </c>
       <c r="C68" s="105" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D68" s="105" t="s">
-        <v>699</v>
+        <v>539</v>
       </c>
       <c r="E68" s="148" t="s">
-        <v>427</v>
-      </c>
-      <c r="F68" s="98">
-        <v>77057455794</v>
+        <v>509</v>
+      </c>
+      <c r="F68" s="98" t="s">
+        <v>541</v>
       </c>
       <c r="G68" s="148" t="s">
-        <v>811</v>
+        <v>750</v>
       </c>
       <c r="H68" s="144"/>
       <c r="I68" s="144"/>
@@ -47327,27 +47343,27 @@
       <c r="R68" s="144"/>
       <c r="S68" s="145"/>
     </row>
-    <row r="69" spans="1:19" ht="14.4">
+    <row r="69" spans="1:19" ht="15.75" customHeight="1">
       <c r="A69" s="99">
-        <v>71</v>
-      </c>
-      <c r="B69" s="101" t="s">
-        <v>723</v>
+        <v>23</v>
+      </c>
+      <c r="B69" s="152" t="s">
+        <v>311</v>
       </c>
       <c r="C69" s="101" t="s">
-        <v>15</v>
+        <v>516</v>
       </c>
       <c r="D69" s="101" t="s">
-        <v>724</v>
+        <v>520</v>
       </c>
       <c r="E69" s="148" t="s">
-        <v>415</v>
-      </c>
-      <c r="F69" s="172" t="s">
-        <v>726</v>
+        <v>570</v>
+      </c>
+      <c r="F69" s="103" t="s">
+        <v>578</v>
       </c>
       <c r="G69" s="154" t="s">
-        <v>822</v>
+        <v>761</v>
       </c>
       <c r="H69" s="155"/>
       <c r="I69" s="155"/>
@@ -47364,25 +47380,25 @@
     </row>
     <row r="70" spans="1:19" ht="15.75" customHeight="1">
       <c r="A70" s="94">
-        <v>59</v>
-      </c>
-      <c r="B70" s="105" t="s">
-        <v>681</v>
+        <v>69</v>
+      </c>
+      <c r="B70" s="151" t="s">
+        <v>401</v>
       </c>
       <c r="C70" s="105" t="s">
-        <v>27</v>
+        <v>516</v>
       </c>
       <c r="D70" s="105" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="E70" s="148" t="s">
-        <v>415</v>
-      </c>
-      <c r="F70" s="98" t="s">
-        <v>683</v>
+        <v>427</v>
+      </c>
+      <c r="F70" s="98">
+        <v>77022144180</v>
       </c>
       <c r="G70" s="148" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H70" s="144"/>
       <c r="I70" s="144"/>
@@ -47399,95 +47415,108 @@
     </row>
     <row r="71" spans="1:19" ht="15.75" customHeight="1">
       <c r="A71" s="99">
-        <v>72</v>
-      </c>
-      <c r="B71" s="152" t="s">
-        <v>717</v>
+        <v>70</v>
+      </c>
+      <c r="B71" s="101" t="s">
+        <v>701</v>
       </c>
       <c r="C71" s="101" t="s">
-        <v>516</v>
+        <v>15</v>
       </c>
       <c r="D71" s="101" t="s">
-        <v>517</v>
+        <v>699</v>
       </c>
       <c r="E71" s="148" t="s">
-        <v>415</v>
-      </c>
-      <c r="F71" s="103" t="s">
-        <v>719</v>
-      </c>
-      <c r="G71" s="154" t="s">
-        <v>808</v>
-      </c>
-      <c r="H71" s="155"/>
-      <c r="I71" s="155"/>
-      <c r="J71" s="155"/>
-      <c r="K71" s="155"/>
-      <c r="L71" s="155"/>
-      <c r="M71" s="155"/>
-      <c r="N71" s="155"/>
-      <c r="O71" s="155"/>
-      <c r="P71" s="155"/>
-      <c r="Q71" s="155"/>
-      <c r="R71" s="155"/>
-      <c r="S71" s="156"/>
-    </row>
-    <row r="72" spans="1:19" ht="15.75" customHeight="1">
+        <v>427</v>
+      </c>
+      <c r="F71" s="103">
+        <v>77057455794</v>
+      </c>
+      <c r="G71" s="148" t="s">
+        <v>811</v>
+      </c>
+      <c r="H71" s="124"/>
+      <c r="I71" s="124"/>
+      <c r="J71" s="124"/>
+      <c r="K71" s="124"/>
+      <c r="L71" s="124"/>
+      <c r="M71" s="124"/>
+      <c r="N71" s="124"/>
+      <c r="O71" s="124"/>
+      <c r="P71" s="124"/>
+      <c r="Q71" s="124"/>
+      <c r="R71" s="124"/>
+      <c r="S71" s="149"/>
+    </row>
+    <row r="72" spans="1:19" ht="13.8">
       <c r="A72" s="94">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="B72" s="105" t="s">
-        <v>709</v>
+        <v>512</v>
       </c>
       <c r="C72" s="105" t="s">
         <v>27</v>
       </c>
       <c r="D72" s="105" t="s">
-        <v>710</v>
+        <v>513</v>
       </c>
       <c r="E72" s="148" t="s">
-        <v>415</v>
-      </c>
-      <c r="F72" s="98" t="s">
-        <v>712</v>
-      </c>
-      <c r="G72" s="154" t="s">
-        <v>813</v>
-      </c>
-      <c r="H72" s="157"/>
-      <c r="I72" s="157"/>
-      <c r="J72" s="157"/>
-      <c r="K72" s="157"/>
-      <c r="L72" s="157"/>
-      <c r="M72" s="157"/>
-      <c r="N72" s="157"/>
-      <c r="O72" s="157"/>
-      <c r="P72" s="157"/>
-      <c r="Q72" s="157"/>
-      <c r="R72" s="157"/>
-      <c r="S72" s="158"/>
+        <v>509</v>
+      </c>
+      <c r="F72" s="118" t="s">
+        <v>515</v>
+      </c>
+      <c r="G72" s="148" t="s">
+        <v>751</v>
+      </c>
+      <c r="H72" s="144"/>
+      <c r="I72" s="144"/>
+      <c r="J72" s="144"/>
+      <c r="K72" s="144"/>
+      <c r="L72" s="144"/>
+      <c r="M72" s="144"/>
+      <c r="N72" s="144" t="s">
+        <v>752</v>
+      </c>
+      <c r="O72" s="144">
+        <v>30</v>
+      </c>
+      <c r="P72" s="144">
+        <v>50</v>
+      </c>
+      <c r="Q72" s="144">
+        <v>50</v>
+      </c>
+      <c r="R72" s="144">
+        <v>20</v>
+      </c>
+      <c r="S72" s="145">
+        <f>SUM(O72:R72)</f>
+        <v>150</v>
+      </c>
     </row>
     <row r="73" spans="1:19" ht="15.75" customHeight="1">
       <c r="A73" s="99">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="B73" s="152" t="s">
-        <v>414</v>
-      </c>
-      <c r="C73" s="101" t="s">
+        <v>295</v>
+      </c>
+      <c r="C73" s="122" t="s">
         <v>516</v>
       </c>
-      <c r="D73" s="101">
-        <v>0</v>
+      <c r="D73" s="124" t="s">
+        <v>520</v>
       </c>
       <c r="E73" s="148" t="s">
-        <v>415</v>
-      </c>
-      <c r="F73" s="103">
-        <v>77761009650</v>
+        <v>570</v>
+      </c>
+      <c r="F73" s="124" t="s">
+        <v>574</v>
       </c>
       <c r="G73" s="154" t="s">
-        <v>814</v>
+        <v>762</v>
       </c>
       <c r="H73" s="155"/>
       <c r="I73" s="155"/>
@@ -47503,114 +47532,44 @@
       <c r="S73" s="156"/>
     </row>
     <row r="74" spans="1:19" ht="13.8">
-      <c r="A74" s="94">
-        <v>75</v>
-      </c>
-      <c r="B74" s="105" t="s">
-        <v>713</v>
-      </c>
-      <c r="C74" s="105" t="s">
-        <v>714</v>
-      </c>
-      <c r="D74" s="105" t="s">
-        <v>661</v>
-      </c>
-      <c r="E74" s="148" t="s">
-        <v>415</v>
-      </c>
-      <c r="F74" s="118" t="s">
-        <v>716</v>
-      </c>
-      <c r="G74" s="148" t="s">
-        <v>815</v>
-      </c>
-      <c r="H74" s="144"/>
-      <c r="I74" s="144"/>
-      <c r="J74" s="144"/>
-      <c r="K74" s="144"/>
-      <c r="L74" s="144"/>
-      <c r="M74" s="144"/>
-      <c r="N74" s="144"/>
-      <c r="O74" s="144"/>
-      <c r="P74" s="144"/>
-      <c r="Q74" s="144"/>
-      <c r="R74" s="144"/>
-      <c r="S74" s="145"/>
-    </row>
-    <row r="75" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A75" s="99">
-        <v>76</v>
-      </c>
-      <c r="B75" s="152" t="s">
-        <v>720</v>
-      </c>
-      <c r="C75" s="122" t="s">
-        <v>516</v>
-      </c>
-      <c r="D75" s="124" t="s">
-        <v>520</v>
-      </c>
-      <c r="E75" s="148" t="s">
-        <v>415</v>
-      </c>
-      <c r="F75" s="124" t="s">
-        <v>722</v>
-      </c>
-      <c r="G75" s="154" t="s">
-        <v>816</v>
-      </c>
-      <c r="H75" s="155"/>
-      <c r="I75" s="155"/>
-      <c r="J75" s="155"/>
-      <c r="K75" s="155"/>
-      <c r="L75" s="155"/>
-      <c r="M75" s="155"/>
-      <c r="N75" s="155"/>
-      <c r="O75" s="155"/>
-      <c r="P75" s="155"/>
-      <c r="Q75" s="155"/>
-      <c r="R75" s="155"/>
-      <c r="S75" s="156"/>
-    </row>
-    <row r="76" spans="1:19" ht="13.8">
-      <c r="A76" s="165"/>
-      <c r="B76" s="166"/>
-      <c r="C76" s="167"/>
-      <c r="D76" s="167"/>
-      <c r="E76" s="168"/>
-      <c r="F76" s="169"/>
-      <c r="G76" s="170"/>
-      <c r="H76" s="170"/>
-      <c r="I76" s="170"/>
-      <c r="J76" s="170"/>
-      <c r="K76" s="170"/>
-      <c r="L76" s="170"/>
-      <c r="M76" s="170"/>
-      <c r="N76" s="170"/>
-      <c r="O76" s="170" t="s">
+      <c r="A74" s="165"/>
+      <c r="B74" s="166"/>
+      <c r="C74" s="167"/>
+      <c r="D74" s="167"/>
+      <c r="E74" s="168"/>
+      <c r="F74" s="169"/>
+      <c r="G74" s="170"/>
+      <c r="H74" s="170"/>
+      <c r="I74" s="170"/>
+      <c r="J74" s="170"/>
+      <c r="K74" s="170"/>
+      <c r="L74" s="170"/>
+      <c r="M74" s="170"/>
+      <c r="N74" s="170"/>
+      <c r="O74" s="170" t="s">
         <v>817</v>
       </c>
-      <c r="P76" s="170" t="s">
+      <c r="P74" s="170" t="s">
         <v>818</v>
       </c>
-      <c r="Q76" s="170" t="s">
+      <c r="Q74" s="170" t="s">
         <v>819</v>
       </c>
-      <c r="R76" s="170" t="s">
+      <c r="R74" s="170" t="s">
         <v>820</v>
       </c>
-      <c r="S76" s="171" t="s">
+      <c r="S74" s="171" t="s">
         <v>821</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H1:H987">
+  <conditionalFormatting sqref="H1:H985">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A76" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A74" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>AND(ISNUMBER(A2),(NOT(OR(NOT(ISERROR(DATEVALUE(A2))), AND(ISNUMBER(A2), LEFT(CELL("format", A2))="D")))))</formula1>
     </dataValidation>
   </dataValidations>

--- a/Контакты Stratera.xlsx
+++ b/Контакты Stratera.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Рабочий стол\heatmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037FB93D-E008-45D4-8F5A-0F45EB66FDBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428145FB-F21A-4054-96E5-56323968182F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2820" yWindow="2820" windowWidth="13440" windowHeight="9300" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Контакты Stratera.xlsx
+++ b/Контакты Stratera.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Рабочий стол\heatmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428145FB-F21A-4054-96E5-56323968182F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13977D6-6FFD-4966-B9F9-60368E61CA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="2820" windowWidth="13440" windowHeight="9300" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Менеджеры по продажам район (2)" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2411" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2411" uniqueCount="832">
   <si>
     <t>СКО</t>
   </si>
@@ -4279,8 +4279,17 @@
     <t>Алтай, Катон Карагай, Улкен нарын, Бородулихинский, Самарский, Ұлан ауданы</t>
   </si>
   <si>
+    <t>Карабалыкский, Федоровский, Алтынсаринский, Карасуский, Костанайский, Беимбета Майлина, Мендыгаринский</t>
+  </si>
+  <si>
+    <t>Денисовский, Мендыгаринский, Аркалыкский, Тарановский</t>
+  </si>
+  <si>
+    <t>Карабалыкский, Костанайский, Камыстинский, Мендыкаринский, Узункольский, Денисовский</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Мендыгаринский, Сарыкольский, Узункольский, Костанайский, Алтынсаринский, Карасу, Аркалыкский, </t>
+      <t xml:space="preserve">Мендыгаринский, Узункольский, Костанайский, Алтынсаринский, Карасу, Аркалыкский, </t>
     </r>
     <r>
       <rPr>
@@ -4291,6 +4300,15 @@
       </rPr>
       <t>Житикаринский</t>
     </r>
+  </si>
+  <si>
+    <t>Карасуский,Сарыкольский</t>
+  </si>
+  <si>
+    <t>Беимбета Майлина, Алтынсаринский, Денисовский, Камыстинский, Сарыкольский, Костанайский</t>
+  </si>
+  <si>
+    <t>Костанайский, Мендыгаринский, Алтынсаринский</t>
   </si>
 </sst>
 </file>
@@ -5329,7 +5347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5763,6 +5781,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5784,18 +5811,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -5938,7 +5953,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Таблица1_2" displayName="Таблица1_2" ref="A1:S74">
   <autoFilter ref="A1:S74" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S74">
-    <sortCondition ref="B1:B74"/>
+    <sortCondition ref="E1:E74"/>
   </sortState>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="№"/>
@@ -11119,10 +11134,10 @@
       <c r="Z57" s="11"/>
     </row>
     <row r="58" spans="1:26" ht="13.8">
-      <c r="A58" s="173" t="s">
+      <c r="A58" s="176" t="s">
         <v>202</v>
       </c>
-      <c r="B58" s="174"/>
+      <c r="B58" s="177"/>
       <c r="C58" s="27" t="s">
         <v>2</v>
       </c>
@@ -12309,12 +12324,12 @@
       <c r="Z92" s="11"/>
     </row>
     <row r="93" spans="1:26" ht="13.8">
-      <c r="A93" s="175" t="s">
+      <c r="A93" s="178" t="s">
         <v>288</v>
       </c>
-      <c r="B93" s="176"/>
-      <c r="C93" s="176"/>
-      <c r="D93" s="174"/>
+      <c r="B93" s="179"/>
+      <c r="C93" s="179"/>
+      <c r="D93" s="177"/>
       <c r="E93" s="13"/>
       <c r="F93" s="9"/>
       <c r="G93" s="9"/>
@@ -13092,12 +13107,12 @@
       <c r="Z111" s="11"/>
     </row>
     <row r="112" spans="1:26" ht="13.8">
-      <c r="A112" s="177" t="s">
+      <c r="A112" s="180" t="s">
         <v>358</v>
       </c>
-      <c r="B112" s="176"/>
-      <c r="C112" s="176"/>
-      <c r="D112" s="174"/>
+      <c r="B112" s="179"/>
+      <c r="C112" s="179"/>
+      <c r="D112" s="177"/>
       <c r="E112" s="13"/>
       <c r="F112" s="9"/>
       <c r="G112" s="9"/>
@@ -13454,12 +13469,12 @@
       <c r="Z120" s="11"/>
     </row>
     <row r="121" spans="1:26" ht="13.8">
-      <c r="A121" s="175" t="s">
+      <c r="A121" s="178" t="s">
         <v>392</v>
       </c>
-      <c r="B121" s="176"/>
-      <c r="C121" s="176"/>
-      <c r="D121" s="174"/>
+      <c r="B121" s="179"/>
+      <c r="C121" s="179"/>
+      <c r="D121" s="177"/>
       <c r="E121" s="13"/>
       <c r="F121" s="9"/>
       <c r="G121" s="9"/>
@@ -39143,10 +39158,10 @@
       <c r="E57" s="65"/>
     </row>
     <row r="58" spans="1:5" ht="15.6">
-      <c r="A58" s="178" t="s">
+      <c r="A58" s="181" t="s">
         <v>202</v>
       </c>
-      <c r="B58" s="174"/>
+      <c r="B58" s="177"/>
       <c r="C58" s="77" t="s">
         <v>2</v>
       </c>
@@ -39563,12 +39578,12 @@
       <c r="D92" s="62"/>
     </row>
     <row r="93" spans="1:5" ht="13.2">
-      <c r="A93" s="179" t="s">
+      <c r="A93" s="182" t="s">
         <v>481</v>
       </c>
-      <c r="B93" s="176"/>
-      <c r="C93" s="176"/>
-      <c r="D93" s="174"/>
+      <c r="B93" s="179"/>
+      <c r="C93" s="179"/>
+      <c r="D93" s="177"/>
     </row>
     <row r="94" spans="1:5" ht="13.2">
       <c r="A94" s="62" t="s">
@@ -39861,12 +39876,12 @@
       </c>
     </row>
     <row r="111" spans="1:5" ht="13.2">
-      <c r="A111" s="180" t="s">
+      <c r="A111" s="183" t="s">
         <v>484</v>
       </c>
-      <c r="B111" s="181"/>
-      <c r="C111" s="181"/>
-      <c r="D111" s="181"/>
+      <c r="B111" s="184"/>
+      <c r="C111" s="184"/>
+      <c r="D111" s="184"/>
     </row>
     <row r="112" spans="1:5" ht="13.2">
       <c r="A112" s="62" t="s">
@@ -44903,9 +44918,9 @@
   </sheetPr>
   <dimension ref="A1:S74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="112" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -44916,7 +44931,7 @@
     <col min="4" max="4" width="19.33203125" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="25.88671875" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="81.88671875" customWidth="1"/>
+    <col min="7" max="7" width="98.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="13.8">
@@ -44980,25 +44995,23 @@
     </row>
     <row r="2" spans="1:19" ht="13.8">
       <c r="A2" s="142">
-        <v>34</v>
-      </c>
-      <c r="B2" s="144" t="s">
-        <v>639</v>
+        <v>1</v>
+      </c>
+      <c r="B2" s="143" t="s">
+        <v>542</v>
       </c>
       <c r="C2" s="144" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="144" t="s">
-        <v>592</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="D2" s="144"/>
       <c r="E2" s="144" t="s">
-        <v>772</v>
-      </c>
-      <c r="F2" s="144">
-        <v>77054441706</v>
+        <v>509</v>
+      </c>
+      <c r="F2" s="144" t="s">
+        <v>544</v>
       </c>
       <c r="G2" s="144" t="s">
-        <v>825</v>
+        <v>740</v>
       </c>
       <c r="H2" s="144"/>
       <c r="I2" s="144"/>
@@ -45013,62 +45026,75 @@
       <c r="R2" s="144"/>
       <c r="S2" s="145"/>
     </row>
-    <row r="3" spans="1:19" ht="14.4">
+    <row r="3" spans="1:19" ht="13.8">
       <c r="A3" s="99">
-        <v>71</v>
-      </c>
-      <c r="B3" s="101" t="s">
-        <v>723</v>
-      </c>
-      <c r="C3" s="101" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="101" t="s">
-        <v>724</v>
-      </c>
-      <c r="E3" s="148" t="s">
-        <v>415</v>
-      </c>
-      <c r="F3" s="172" t="s">
-        <v>726</v>
-      </c>
-      <c r="G3" s="154" t="s">
-        <v>822</v>
-      </c>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="155"/>
-      <c r="L3" s="155"/>
-      <c r="M3" s="155"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="155"/>
-      <c r="P3" s="155"/>
-      <c r="Q3" s="155"/>
-      <c r="R3" s="155"/>
-      <c r="S3" s="156"/>
+        <v>2</v>
+      </c>
+      <c r="B3" s="146" t="s">
+        <v>330</v>
+      </c>
+      <c r="C3" s="108" t="s">
+        <v>516</v>
+      </c>
+      <c r="D3" s="108" t="s">
+        <v>520</v>
+      </c>
+      <c r="E3" s="147" t="s">
+        <v>509</v>
+      </c>
+      <c r="F3" s="103" t="s">
+        <v>528</v>
+      </c>
+      <c r="G3" s="148" t="s">
+        <v>741</v>
+      </c>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="124" t="s">
+        <v>742</v>
+      </c>
+      <c r="O3" s="124">
+        <v>50</v>
+      </c>
+      <c r="P3" s="124">
+        <v>82.5</v>
+      </c>
+      <c r="Q3" s="124">
+        <v>82.5</v>
+      </c>
+      <c r="R3" s="124">
+        <v>35</v>
+      </c>
+      <c r="S3" s="149">
+        <f>SUM(O3:R3)</f>
+        <v>250</v>
+      </c>
     </row>
     <row r="4" spans="1:19" ht="13.8">
       <c r="A4" s="94">
-        <v>12</v>
-      </c>
-      <c r="B4" s="151" t="s">
-        <v>359</v>
-      </c>
-      <c r="C4" s="105" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="150" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" s="96" t="s">
         <v>516</v>
       </c>
-      <c r="D4" s="105" t="s">
-        <v>517</v>
-      </c>
-      <c r="E4" s="148" t="s">
-        <v>419</v>
+      <c r="D4" s="96" t="s">
+        <v>520</v>
+      </c>
+      <c r="E4" s="147" t="s">
+        <v>509</v>
       </c>
       <c r="F4" s="98" t="s">
-        <v>560</v>
+        <v>524</v>
       </c>
       <c r="G4" s="148" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="H4" s="144"/>
       <c r="I4" s="144"/>
@@ -45085,25 +45111,25 @@
     </row>
     <row r="5" spans="1:19" ht="13.8">
       <c r="A5" s="99">
-        <v>36</v>
-      </c>
-      <c r="B5" s="101" t="s">
-        <v>641</v>
-      </c>
-      <c r="C5" s="101" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="101" t="s">
-        <v>592</v>
-      </c>
-      <c r="E5" s="148" t="s">
-        <v>772</v>
-      </c>
-      <c r="F5" s="110">
-        <v>77775223878</v>
+        <v>4</v>
+      </c>
+      <c r="B5" s="146" t="s">
+        <v>349</v>
+      </c>
+      <c r="C5" s="108" t="s">
+        <v>516</v>
+      </c>
+      <c r="D5" s="108" t="s">
+        <v>520</v>
+      </c>
+      <c r="E5" s="147" t="s">
+        <v>509</v>
+      </c>
+      <c r="F5" s="110" t="s">
+        <v>532</v>
       </c>
       <c r="G5" s="148" t="s">
-        <v>776</v>
+        <v>744</v>
       </c>
       <c r="H5" s="124"/>
       <c r="I5" s="124"/>
@@ -45118,62 +45144,62 @@
       <c r="R5" s="124"/>
       <c r="S5" s="149"/>
     </row>
-    <row r="6" spans="1:19" ht="14.4">
+    <row r="6" spans="1:19" ht="13.8">
       <c r="A6" s="94">
-        <v>20</v>
-      </c>
-      <c r="B6" s="105" t="s">
-        <v>583</v>
-      </c>
-      <c r="C6" s="105" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="105" t="s">
-        <v>584</v>
-      </c>
-      <c r="E6" s="148" t="s">
-        <v>570</v>
+        <v>6</v>
+      </c>
+      <c r="B6" s="150" t="s">
+        <v>307</v>
+      </c>
+      <c r="C6" s="96" t="s">
+        <v>516</v>
+      </c>
+      <c r="D6" s="96" t="s">
+        <v>520</v>
+      </c>
+      <c r="E6" s="147" t="s">
+        <v>509</v>
       </c>
       <c r="F6" s="98" t="s">
-        <v>586</v>
-      </c>
-      <c r="G6" s="154" t="s">
-        <v>758</v>
-      </c>
-      <c r="H6" s="157"/>
-      <c r="I6" s="157"/>
-      <c r="J6" s="157"/>
-      <c r="K6" s="157"/>
-      <c r="L6" s="157"/>
-      <c r="M6" s="157"/>
-      <c r="N6" s="157"/>
-      <c r="O6" s="157"/>
-      <c r="P6" s="157"/>
-      <c r="Q6" s="157"/>
-      <c r="R6" s="157"/>
-      <c r="S6" s="158"/>
+        <v>522</v>
+      </c>
+      <c r="G6" s="148" t="s">
+        <v>747</v>
+      </c>
+      <c r="H6" s="144"/>
+      <c r="I6" s="144"/>
+      <c r="J6" s="144"/>
+      <c r="K6" s="144"/>
+      <c r="L6" s="144"/>
+      <c r="M6" s="144"/>
+      <c r="N6" s="144"/>
+      <c r="O6" s="144"/>
+      <c r="P6" s="144"/>
+      <c r="Q6" s="144"/>
+      <c r="R6" s="144"/>
+      <c r="S6" s="145"/>
     </row>
     <row r="7" spans="1:19" ht="13.8">
       <c r="A7" s="99">
-        <v>37</v>
-      </c>
-      <c r="B7" s="101" t="s">
-        <v>652</v>
+        <v>5</v>
+      </c>
+      <c r="B7" s="152" t="s">
+        <v>745</v>
       </c>
       <c r="C7" s="101" t="s">
-        <v>653</v>
+        <v>516</v>
       </c>
       <c r="D7" s="101" t="s">
-        <v>599</v>
+        <v>517</v>
       </c>
       <c r="E7" s="148" t="s">
-        <v>772</v>
-      </c>
-      <c r="F7" s="103">
-        <v>77711886327</v>
+        <v>509</v>
+      </c>
+      <c r="F7" s="103" t="s">
+        <v>519</v>
       </c>
       <c r="G7" s="148" t="s">
-        <v>777</v>
+        <v>741</v>
       </c>
       <c r="H7" s="124"/>
       <c r="I7" s="124"/>
@@ -45181,34 +45207,47 @@
       <c r="K7" s="124"/>
       <c r="L7" s="124"/>
       <c r="M7" s="124"/>
-      <c r="N7" s="124"/>
-      <c r="O7" s="124"/>
-      <c r="P7" s="124"/>
-      <c r="Q7" s="124"/>
-      <c r="R7" s="124"/>
-      <c r="S7" s="149"/>
+      <c r="N7" s="124" t="s">
+        <v>746</v>
+      </c>
+      <c r="O7" s="124">
+        <v>70</v>
+      </c>
+      <c r="P7" s="124">
+        <v>115.5</v>
+      </c>
+      <c r="Q7" s="124">
+        <v>115.5</v>
+      </c>
+      <c r="R7" s="124">
+        <v>49</v>
+      </c>
+      <c r="S7" s="149">
+        <f>SUM(O7:R7)</f>
+        <v>350</v>
+      </c>
     </row>
     <row r="8" spans="1:19" ht="13.8">
       <c r="A8" s="94">
-        <v>38</v>
-      </c>
-      <c r="B8" s="105" t="s">
-        <v>634</v>
-      </c>
-      <c r="C8" s="105" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="96" t="s">
+        <v>507</v>
+      </c>
+      <c r="C8" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="105" t="s">
-        <v>635</v>
-      </c>
-      <c r="E8" s="148" t="s">
-        <v>772</v>
-      </c>
-      <c r="F8" s="98">
-        <v>77054627019</v>
+      <c r="D8" s="96" t="s">
+        <v>508</v>
+      </c>
+      <c r="E8" s="147" t="s">
+        <v>509</v>
+      </c>
+      <c r="F8" s="98" t="s">
+        <v>511</v>
       </c>
       <c r="G8" s="148" t="s">
-        <v>778</v>
+        <v>748</v>
       </c>
       <c r="H8" s="144"/>
       <c r="I8" s="144"/>
@@ -45225,23 +45264,25 @@
     </row>
     <row r="9" spans="1:19" ht="13.8">
       <c r="A9" s="99">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B9" s="152" t="s">
-        <v>542</v>
+        <v>334</v>
       </c>
       <c r="C9" s="101" t="s">
         <v>516</v>
       </c>
-      <c r="D9" s="101"/>
+      <c r="D9" s="101" t="s">
+        <v>520</v>
+      </c>
       <c r="E9" s="148" t="s">
         <v>509</v>
       </c>
       <c r="F9" s="103" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
       <c r="G9" s="148" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="H9" s="124"/>
       <c r="I9" s="124"/>
@@ -45256,60 +45297,62 @@
       <c r="R9" s="124"/>
       <c r="S9" s="149"/>
     </row>
-    <row r="10" spans="1:19" ht="14.4">
+    <row r="10" spans="1:19" ht="13.8">
       <c r="A10" s="94">
-        <v>52</v>
-      </c>
-      <c r="B10" s="151" t="s">
-        <v>678</v>
-      </c>
-      <c r="C10" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="150" t="s">
+        <v>326</v>
+      </c>
+      <c r="C10" s="96" t="s">
         <v>516</v>
       </c>
-      <c r="D10" s="105"/>
-      <c r="E10" s="148" t="s">
-        <v>793</v>
+      <c r="D10" s="96" t="s">
+        <v>520</v>
+      </c>
+      <c r="E10" s="147" t="s">
+        <v>509</v>
       </c>
       <c r="F10" s="98" t="s">
-        <v>680</v>
-      </c>
-      <c r="G10" s="154" t="s">
-        <v>794</v>
-      </c>
-      <c r="H10" s="157"/>
-      <c r="I10" s="157"/>
-      <c r="J10" s="157"/>
-      <c r="K10" s="157"/>
-      <c r="L10" s="157"/>
-      <c r="M10" s="157"/>
-      <c r="N10" s="157"/>
-      <c r="O10" s="157"/>
-      <c r="P10" s="157"/>
-      <c r="Q10" s="157"/>
-      <c r="R10" s="157"/>
-      <c r="S10" s="158"/>
+        <v>530</v>
+      </c>
+      <c r="G10" s="148" t="s">
+        <v>749</v>
+      </c>
+      <c r="H10" s="144"/>
+      <c r="I10" s="144"/>
+      <c r="J10" s="144"/>
+      <c r="K10" s="144"/>
+      <c r="L10" s="144"/>
+      <c r="M10" s="144"/>
+      <c r="N10" s="144"/>
+      <c r="O10" s="144"/>
+      <c r="P10" s="144"/>
+      <c r="Q10" s="144"/>
+      <c r="R10" s="144"/>
+      <c r="S10" s="145"/>
     </row>
     <row r="11" spans="1:19" ht="13.8">
       <c r="A11" s="99">
-        <v>60</v>
-      </c>
-      <c r="B11" s="152" t="s">
-        <v>393</v>
+        <v>10</v>
+      </c>
+      <c r="B11" s="101" t="s">
+        <v>538</v>
       </c>
       <c r="C11" s="101" t="s">
-        <v>516</v>
+        <v>27</v>
       </c>
       <c r="D11" s="101" t="s">
-        <v>517</v>
+        <v>539</v>
       </c>
       <c r="E11" s="148" t="s">
-        <v>427</v>
-      </c>
-      <c r="F11" s="103">
-        <v>77078750345</v>
+        <v>509</v>
+      </c>
+      <c r="F11" s="103" t="s">
+        <v>541</v>
       </c>
       <c r="G11" s="148" t="s">
-        <v>803</v>
+        <v>750</v>
       </c>
       <c r="H11" s="124"/>
       <c r="I11" s="124"/>
@@ -45326,25 +45369,25 @@
     </row>
     <row r="12" spans="1:19" ht="13.8">
       <c r="A12" s="94">
-        <v>2</v>
-      </c>
-      <c r="B12" s="150" t="s">
-        <v>330</v>
-      </c>
-      <c r="C12" s="96" t="s">
-        <v>516</v>
-      </c>
-      <c r="D12" s="96" t="s">
-        <v>520</v>
-      </c>
-      <c r="E12" s="147" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="105" t="s">
+        <v>512</v>
+      </c>
+      <c r="C12" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="105" t="s">
+        <v>513</v>
+      </c>
+      <c r="E12" s="148" t="s">
         <v>509</v>
       </c>
       <c r="F12" s="98" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="G12" s="148" t="s">
-        <v>741</v>
+        <v>751</v>
       </c>
       <c r="H12" s="144"/>
       <c r="I12" s="144"/>
@@ -45353,46 +45396,46 @@
       <c r="L12" s="144"/>
       <c r="M12" s="144"/>
       <c r="N12" s="144" t="s">
-        <v>742</v>
+        <v>752</v>
       </c>
       <c r="O12" s="144">
+        <v>30</v>
+      </c>
+      <c r="P12" s="144">
         <v>50</v>
       </c>
-      <c r="P12" s="144">
-        <v>82.5</v>
-      </c>
       <c r="Q12" s="144">
-        <v>82.5</v>
+        <v>50</v>
       </c>
       <c r="R12" s="144">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="S12" s="145">
         <f>SUM(O12:R12)</f>
-        <v>250</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="13.8">
       <c r="A13" s="99">
-        <v>61</v>
-      </c>
-      <c r="B13" s="182" t="s">
-        <v>346</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="152" t="s">
+        <v>359</v>
       </c>
       <c r="C13" s="101" t="s">
         <v>516</v>
       </c>
       <c r="D13" s="101" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E13" s="148" t="s">
-        <v>427</v>
-      </c>
-      <c r="F13" s="103">
-        <v>77057418708</v>
+        <v>419</v>
+      </c>
+      <c r="F13" s="103" t="s">
+        <v>560</v>
       </c>
       <c r="G13" s="148" t="s">
-        <v>804</v>
+        <v>753</v>
       </c>
       <c r="H13" s="124"/>
       <c r="I13" s="124"/>
@@ -45409,25 +45452,25 @@
     </row>
     <row r="14" spans="1:19" ht="13.8">
       <c r="A14" s="94">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="B14" s="105" t="s">
-        <v>681</v>
+        <v>566</v>
       </c>
       <c r="C14" s="105" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="105" t="s">
-        <v>508</v>
+        <v>567</v>
       </c>
       <c r="E14" s="148" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="F14" s="98" t="s">
-        <v>683</v>
+        <v>569</v>
       </c>
       <c r="G14" s="148" t="s">
-        <v>802</v>
+        <v>754</v>
       </c>
       <c r="H14" s="144"/>
       <c r="I14" s="144"/>
@@ -45444,25 +45487,25 @@
     </row>
     <row r="15" spans="1:19" ht="13.8">
       <c r="A15" s="99">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="101" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="C15" s="101" t="s">
-        <v>27</v>
+        <v>554</v>
       </c>
       <c r="D15" s="101" t="s">
-        <v>567</v>
+        <v>513</v>
       </c>
       <c r="E15" s="148" t="s">
         <v>419</v>
       </c>
       <c r="F15" s="103" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="G15" s="148" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H15" s="124"/>
       <c r="I15" s="124"/>
@@ -45479,25 +45522,25 @@
     </row>
     <row r="16" spans="1:19" ht="13.8">
       <c r="A16" s="94">
-        <v>39</v>
-      </c>
-      <c r="B16" s="105" t="s">
-        <v>637</v>
+        <v>15</v>
+      </c>
+      <c r="B16" s="151" t="s">
+        <v>367</v>
       </c>
       <c r="C16" s="105" t="s">
-        <v>27</v>
+        <v>516</v>
       </c>
       <c r="D16" s="105" t="s">
-        <v>635</v>
+        <v>517</v>
       </c>
       <c r="E16" s="148" t="s">
-        <v>772</v>
-      </c>
-      <c r="F16" s="98">
-        <v>77477573740</v>
+        <v>419</v>
+      </c>
+      <c r="F16" s="98" t="s">
+        <v>562</v>
       </c>
       <c r="G16" s="148" t="s">
-        <v>779</v>
+        <v>756</v>
       </c>
       <c r="H16" s="144"/>
       <c r="I16" s="144"/>
@@ -45514,25 +45557,25 @@
     </row>
     <row r="17" spans="1:19" ht="13.8">
       <c r="A17" s="99">
-        <v>14</v>
-      </c>
-      <c r="B17" s="101" t="s">
-        <v>553</v>
+        <v>17</v>
+      </c>
+      <c r="B17" s="152" t="s">
+        <v>363</v>
       </c>
       <c r="C17" s="101" t="s">
-        <v>554</v>
+        <v>516</v>
       </c>
       <c r="D17" s="101" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="E17" s="148" t="s">
         <v>419</v>
       </c>
       <c r="F17" s="103" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="G17" s="148" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H17" s="124"/>
       <c r="I17" s="124"/>
@@ -45547,132 +45590,132 @@
       <c r="R17" s="124"/>
       <c r="S17" s="149"/>
     </row>
-    <row r="18" spans="1:19" ht="14.4">
+    <row r="18" spans="1:19" ht="13.8">
       <c r="A18" s="94">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B18" s="105" t="s">
-        <v>672</v>
+        <v>549</v>
       </c>
       <c r="C18" s="105" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="105" t="s">
+        <v>550</v>
+      </c>
+      <c r="E18" s="148" t="s">
+        <v>419</v>
+      </c>
+      <c r="F18" s="98" t="s">
+        <v>552</v>
+      </c>
+      <c r="G18" s="148" t="s">
+        <v>756</v>
+      </c>
+      <c r="H18" s="144"/>
+      <c r="I18" s="144"/>
+      <c r="J18" s="144"/>
+      <c r="K18" s="144"/>
+      <c r="L18" s="144"/>
+      <c r="M18" s="144"/>
+      <c r="N18" s="144"/>
+      <c r="O18" s="144"/>
+      <c r="P18" s="144"/>
+      <c r="Q18" s="144"/>
+      <c r="R18" s="144"/>
+      <c r="S18" s="145"/>
+    </row>
+    <row r="19" spans="1:19" ht="13.8">
+      <c r="A19" s="99">
+        <v>19</v>
+      </c>
+      <c r="B19" s="101" t="s">
+        <v>545</v>
+      </c>
+      <c r="C19" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="105" t="s">
-        <v>669</v>
-      </c>
-      <c r="E18" s="148" t="s">
-        <v>793</v>
-      </c>
-      <c r="F18" s="98" t="s">
-        <v>674</v>
-      </c>
-      <c r="G18" s="154" t="s">
-        <v>795</v>
-      </c>
-      <c r="H18" s="157"/>
-      <c r="I18" s="157"/>
-      <c r="J18" s="157"/>
-      <c r="K18" s="157"/>
-      <c r="L18" s="157"/>
-      <c r="M18" s="157"/>
-      <c r="N18" s="157"/>
-      <c r="O18" s="157"/>
-      <c r="P18" s="157"/>
-      <c r="Q18" s="157"/>
-      <c r="R18" s="157"/>
-      <c r="S18" s="158"/>
-    </row>
-    <row r="19" spans="1:19" ht="14.4">
-      <c r="A19" s="99">
-        <v>29</v>
-      </c>
-      <c r="B19" s="101" t="s">
-        <v>767</v>
-      </c>
-      <c r="C19" s="101" t="s">
-        <v>15</v>
-      </c>
       <c r="D19" s="101" t="s">
-        <v>603</v>
+        <v>546</v>
       </c>
       <c r="E19" s="148" t="s">
-        <v>609</v>
+        <v>419</v>
       </c>
       <c r="F19" s="110" t="s">
-        <v>608</v>
-      </c>
-      <c r="G19" s="154" t="s">
-        <v>768</v>
-      </c>
-      <c r="H19" s="155"/>
-      <c r="I19" s="155"/>
-      <c r="J19" s="155"/>
-      <c r="K19" s="155"/>
-      <c r="L19" s="155"/>
-      <c r="M19" s="155"/>
-      <c r="N19" s="155"/>
-      <c r="O19" s="155"/>
-      <c r="P19" s="155"/>
-      <c r="Q19" s="155"/>
-      <c r="R19" s="155"/>
-      <c r="S19" s="156"/>
-    </row>
-    <row r="20" spans="1:19" ht="13.8">
+        <v>548</v>
+      </c>
+      <c r="G19" s="148" t="s">
+        <v>757</v>
+      </c>
+      <c r="H19" s="124"/>
+      <c r="I19" s="124"/>
+      <c r="J19" s="124"/>
+      <c r="K19" s="124"/>
+      <c r="L19" s="124"/>
+      <c r="M19" s="124"/>
+      <c r="N19" s="124"/>
+      <c r="O19" s="124"/>
+      <c r="P19" s="124"/>
+      <c r="Q19" s="124"/>
+      <c r="R19" s="124"/>
+      <c r="S19" s="149"/>
+    </row>
+    <row r="20" spans="1:19" ht="14.4">
       <c r="A20" s="94">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B20" s="128" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="C20" s="105" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="105" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="E20" s="148" t="s">
-        <v>411</v>
+        <v>570</v>
       </c>
       <c r="F20" s="98" t="s">
-        <v>597</v>
-      </c>
-      <c r="G20" s="148" t="s">
-        <v>763</v>
-      </c>
-      <c r="H20" s="144"/>
-      <c r="I20" s="144"/>
-      <c r="J20" s="144"/>
-      <c r="K20" s="144"/>
-      <c r="L20" s="144"/>
-      <c r="M20" s="144"/>
-      <c r="N20" s="144"/>
-      <c r="O20" s="144"/>
-      <c r="P20" s="144"/>
-      <c r="Q20" s="144"/>
-      <c r="R20" s="144"/>
-      <c r="S20" s="145"/>
+        <v>586</v>
+      </c>
+      <c r="G20" s="154" t="s">
+        <v>758</v>
+      </c>
+      <c r="H20" s="157"/>
+      <c r="I20" s="157"/>
+      <c r="J20" s="157"/>
+      <c r="K20" s="157"/>
+      <c r="L20" s="157"/>
+      <c r="M20" s="157"/>
+      <c r="N20" s="157"/>
+      <c r="O20" s="157"/>
+      <c r="P20" s="157"/>
+      <c r="Q20" s="157"/>
+      <c r="R20" s="157"/>
+      <c r="S20" s="158"/>
     </row>
     <row r="21" spans="1:19" ht="15.75" customHeight="1">
       <c r="A21" s="99">
-        <v>72</v>
-      </c>
-      <c r="B21" s="183" t="s">
-        <v>717</v>
+        <v>21</v>
+      </c>
+      <c r="B21" s="173" t="s">
+        <v>338</v>
       </c>
       <c r="C21" s="101" t="s">
         <v>516</v>
       </c>
       <c r="D21" s="101" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E21" s="148" t="s">
-        <v>415</v>
+        <v>570</v>
       </c>
       <c r="F21" s="110" t="s">
-        <v>719</v>
+        <v>576</v>
       </c>
       <c r="G21" s="154" t="s">
-        <v>808</v>
+        <v>759</v>
       </c>
       <c r="H21" s="155"/>
       <c r="I21" s="155"/>
@@ -45689,10 +45732,10 @@
     </row>
     <row r="22" spans="1:19" ht="15.75" customHeight="1">
       <c r="A22" s="94">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B22" s="151" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="C22" s="105" t="s">
         <v>516</v>
@@ -45701,120 +45744,118 @@
         <v>520</v>
       </c>
       <c r="E22" s="148" t="s">
-        <v>772</v>
-      </c>
-      <c r="F22" s="98">
-        <v>77772459654</v>
-      </c>
-      <c r="G22" s="148" t="s">
-        <v>780</v>
-      </c>
-      <c r="H22" s="144"/>
-      <c r="I22" s="144"/>
-      <c r="J22" s="144"/>
-      <c r="K22" s="144"/>
-      <c r="L22" s="144"/>
-      <c r="M22" s="144"/>
-      <c r="N22" s="144"/>
-      <c r="O22" s="144"/>
-      <c r="P22" s="144"/>
-      <c r="Q22" s="144"/>
-      <c r="R22" s="144"/>
-      <c r="S22" s="145"/>
+        <v>570</v>
+      </c>
+      <c r="F22" s="98" t="s">
+        <v>572</v>
+      </c>
+      <c r="G22" s="154" t="s">
+        <v>760</v>
+      </c>
+      <c r="H22" s="157"/>
+      <c r="I22" s="157"/>
+      <c r="J22" s="157"/>
+      <c r="K22" s="157"/>
+      <c r="L22" s="157"/>
+      <c r="M22" s="157"/>
+      <c r="N22" s="157"/>
+      <c r="O22" s="157"/>
+      <c r="P22" s="157"/>
+      <c r="Q22" s="157"/>
+      <c r="R22" s="157"/>
+      <c r="S22" s="158"/>
     </row>
     <row r="23" spans="1:19" ht="15.75" customHeight="1">
       <c r="A23" s="99">
-        <v>30</v>
-      </c>
-      <c r="B23" s="101" t="s">
-        <v>602</v>
+        <v>23</v>
+      </c>
+      <c r="B23" s="152" t="s">
+        <v>311</v>
       </c>
       <c r="C23" s="101" t="s">
-        <v>15</v>
+        <v>516</v>
       </c>
       <c r="D23" s="101" t="s">
-        <v>603</v>
+        <v>520</v>
       </c>
       <c r="E23" s="148" t="s">
-        <v>609</v>
+        <v>570</v>
       </c>
       <c r="F23" s="103" t="s">
-        <v>605</v>
-      </c>
-      <c r="G23" s="148" t="s">
-        <v>769</v>
-      </c>
-      <c r="H23" s="124"/>
-      <c r="I23" s="124"/>
-      <c r="J23" s="124"/>
-      <c r="K23" s="124"/>
-      <c r="L23" s="124"/>
-      <c r="M23" s="124"/>
-      <c r="N23" s="124"/>
-      <c r="O23" s="124"/>
-      <c r="P23" s="124"/>
-      <c r="Q23" s="124"/>
-      <c r="R23" s="124"/>
-      <c r="S23" s="149"/>
+        <v>578</v>
+      </c>
+      <c r="G23" s="154" t="s">
+        <v>761</v>
+      </c>
+      <c r="H23" s="155"/>
+      <c r="I23" s="155"/>
+      <c r="J23" s="155"/>
+      <c r="K23" s="155"/>
+      <c r="L23" s="155"/>
+      <c r="M23" s="155"/>
+      <c r="N23" s="155"/>
+      <c r="O23" s="155"/>
+      <c r="P23" s="155"/>
+      <c r="Q23" s="155"/>
+      <c r="R23" s="155"/>
+      <c r="S23" s="156"/>
     </row>
     <row r="24" spans="1:19" ht="15.75" customHeight="1">
       <c r="A24" s="94">
-        <v>41</v>
-      </c>
-      <c r="B24" s="105" t="s">
-        <v>616</v>
+        <v>24</v>
+      </c>
+      <c r="B24" s="151" t="s">
+        <v>295</v>
       </c>
       <c r="C24" s="105" t="s">
-        <v>27</v>
+        <v>516</v>
       </c>
       <c r="D24" s="105" t="s">
-        <v>617</v>
+        <v>520</v>
       </c>
       <c r="E24" s="148" t="s">
-        <v>772</v>
-      </c>
-      <c r="F24" s="98">
-        <v>77764004000</v>
-      </c>
-      <c r="G24" s="148" t="s">
-        <v>781</v>
-      </c>
-      <c r="H24" s="144" t="s">
-        <v>782</v>
-      </c>
-      <c r="I24" s="144"/>
-      <c r="J24" s="144"/>
-      <c r="K24" s="144"/>
-      <c r="L24" s="144"/>
-      <c r="M24" s="144"/>
-      <c r="N24" s="144"/>
-      <c r="O24" s="144"/>
-      <c r="P24" s="144"/>
-      <c r="Q24" s="144"/>
-      <c r="R24" s="144"/>
-      <c r="S24" s="145"/>
+        <v>570</v>
+      </c>
+      <c r="F24" s="98" t="s">
+        <v>574</v>
+      </c>
+      <c r="G24" s="154" t="s">
+        <v>762</v>
+      </c>
+      <c r="H24" s="157"/>
+      <c r="I24" s="157"/>
+      <c r="J24" s="157"/>
+      <c r="K24" s="157"/>
+      <c r="L24" s="157"/>
+      <c r="M24" s="157"/>
+      <c r="N24" s="157"/>
+      <c r="O24" s="157"/>
+      <c r="P24" s="157"/>
+      <c r="Q24" s="157"/>
+      <c r="R24" s="157"/>
+      <c r="S24" s="158"/>
     </row>
     <row r="25" spans="1:19" ht="15.75" customHeight="1">
       <c r="A25" s="99">
-        <v>42</v>
-      </c>
-      <c r="B25" s="152" t="s">
-        <v>621</v>
+        <v>25</v>
+      </c>
+      <c r="B25" s="101" t="s">
+        <v>595</v>
       </c>
       <c r="C25" s="101" t="s">
-        <v>516</v>
+        <v>27</v>
       </c>
       <c r="D25" s="101" t="s">
-        <v>517</v>
+        <v>592</v>
       </c>
       <c r="E25" s="148" t="s">
-        <v>772</v>
+        <v>411</v>
       </c>
       <c r="F25" s="103" t="s">
-        <v>623</v>
+        <v>597</v>
       </c>
       <c r="G25" s="148" t="s">
-        <v>783</v>
+        <v>763</v>
       </c>
       <c r="H25" s="124"/>
       <c r="I25" s="124"/>
@@ -45831,25 +45872,25 @@
     </row>
     <row r="26" spans="1:19" ht="13.8">
       <c r="A26" s="94">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B26" s="105" t="s">
-        <v>632</v>
+        <v>591</v>
       </c>
       <c r="C26" s="105" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D26" s="105" t="s">
-        <v>630</v>
+        <v>592</v>
       </c>
       <c r="E26" s="148" t="s">
-        <v>772</v>
-      </c>
-      <c r="F26" s="118">
-        <v>77710603592</v>
+        <v>411</v>
+      </c>
+      <c r="F26" s="118" t="s">
+        <v>594</v>
       </c>
       <c r="G26" s="148" t="s">
-        <v>784</v>
+        <v>764</v>
       </c>
       <c r="H26" s="144"/>
       <c r="I26" s="144"/>
@@ -45866,25 +45907,25 @@
     </row>
     <row r="27" spans="1:19" ht="13.8">
       <c r="A27" s="99">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B27" s="152" t="s">
-        <v>367</v>
+        <v>410</v>
       </c>
       <c r="C27" s="101" t="s">
         <v>516</v>
       </c>
-      <c r="D27" s="101" t="s">
-        <v>517</v>
+      <c r="D27" s="101">
+        <v>0</v>
       </c>
       <c r="E27" s="148" t="s">
-        <v>419</v>
-      </c>
-      <c r="F27" s="110" t="s">
-        <v>562</v>
+        <v>411</v>
+      </c>
+      <c r="F27" s="110">
+        <v>77789056044</v>
       </c>
       <c r="G27" s="148" t="s">
-        <v>756</v>
+        <v>765</v>
       </c>
       <c r="H27" s="124"/>
       <c r="I27" s="124"/>
@@ -45901,25 +45942,25 @@
     </row>
     <row r="28" spans="1:19" ht="13.8">
       <c r="A28" s="94">
-        <v>44</v>
-      </c>
-      <c r="B28" s="151" t="s">
-        <v>483</v>
+        <v>28</v>
+      </c>
+      <c r="B28" s="105" t="s">
+        <v>588</v>
       </c>
       <c r="C28" s="105" t="s">
-        <v>516</v>
+        <v>27</v>
       </c>
       <c r="D28" s="105" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="E28" s="148" t="s">
-        <v>772</v>
-      </c>
-      <c r="F28" s="98">
-        <v>77719062173</v>
+        <v>411</v>
+      </c>
+      <c r="F28" s="98" t="s">
+        <v>590</v>
       </c>
       <c r="G28" s="148" t="s">
-        <v>785</v>
+        <v>766</v>
       </c>
       <c r="H28" s="144"/>
       <c r="I28" s="144"/>
@@ -45936,23 +45977,25 @@
     </row>
     <row r="29" spans="1:19" ht="14.4">
       <c r="A29" s="99">
-        <v>54</v>
-      </c>
-      <c r="B29" s="152" t="s">
-        <v>423</v>
+        <v>29</v>
+      </c>
+      <c r="B29" s="101" t="s">
+        <v>767</v>
       </c>
       <c r="C29" s="101" t="s">
-        <v>516</v>
-      </c>
-      <c r="D29" s="101"/>
+        <v>15</v>
+      </c>
+      <c r="D29" s="101" t="s">
+        <v>603</v>
+      </c>
       <c r="E29" s="148" t="s">
-        <v>793</v>
-      </c>
-      <c r="F29" s="103">
-        <v>77477185969</v>
+        <v>609</v>
+      </c>
+      <c r="F29" s="103" t="s">
+        <v>608</v>
       </c>
       <c r="G29" s="154" t="s">
-        <v>796</v>
+        <v>768</v>
       </c>
       <c r="H29" s="155"/>
       <c r="I29" s="155"/>
@@ -45969,25 +46012,25 @@
     </row>
     <row r="30" spans="1:19" ht="15.75" customHeight="1">
       <c r="A30" s="94">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B30" s="105" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="C30" s="105" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D30" s="105" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="E30" s="148" t="s">
-        <v>411</v>
+        <v>609</v>
       </c>
       <c r="F30" s="98" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="G30" s="148" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="H30" s="144"/>
       <c r="I30" s="144"/>
@@ -46024,75 +46067,73 @@
       <c r="G31" s="159" t="s">
         <v>824</v>
       </c>
-      <c r="H31" s="184"/>
-      <c r="I31" s="184"/>
-      <c r="J31" s="184"/>
-      <c r="K31" s="184"/>
-      <c r="L31" s="184"/>
-      <c r="M31" s="184"/>
-      <c r="N31" s="184"/>
-      <c r="O31" s="184"/>
-      <c r="P31" s="184"/>
-      <c r="Q31" s="184"/>
-      <c r="R31" s="184"/>
-      <c r="S31" s="185"/>
+      <c r="H31" s="174"/>
+      <c r="I31" s="174"/>
+      <c r="J31" s="174"/>
+      <c r="K31" s="174"/>
+      <c r="L31" s="174"/>
+      <c r="M31" s="174"/>
+      <c r="N31" s="174"/>
+      <c r="O31" s="174"/>
+      <c r="P31" s="174"/>
+      <c r="Q31" s="174"/>
+      <c r="R31" s="174"/>
+      <c r="S31" s="175"/>
     </row>
     <row r="32" spans="1:19" ht="15.75" customHeight="1">
       <c r="A32" s="94">
-        <v>3</v>
-      </c>
-      <c r="B32" s="150" t="s">
-        <v>236</v>
-      </c>
-      <c r="C32" s="96" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="151" t="s">
+        <v>611</v>
+      </c>
+      <c r="C32" s="105" t="s">
         <v>516</v>
       </c>
-      <c r="D32" s="96" t="s">
-        <v>520</v>
-      </c>
-      <c r="E32" s="147" t="s">
-        <v>509</v>
+      <c r="D32" s="105"/>
+      <c r="E32" s="148" t="s">
+        <v>609</v>
       </c>
       <c r="F32" s="98" t="s">
-        <v>524</v>
-      </c>
-      <c r="G32" s="148" t="s">
-        <v>743</v>
-      </c>
-      <c r="H32" s="144"/>
-      <c r="I32" s="144"/>
-      <c r="J32" s="144"/>
-      <c r="K32" s="144"/>
-      <c r="L32" s="144"/>
-      <c r="M32" s="144"/>
-      <c r="N32" s="144"/>
-      <c r="O32" s="144"/>
-      <c r="P32" s="144"/>
-      <c r="Q32" s="144"/>
-      <c r="R32" s="144"/>
-      <c r="S32" s="145"/>
+        <v>613</v>
+      </c>
+      <c r="G32" s="159" t="s">
+        <v>771</v>
+      </c>
+      <c r="H32" s="160"/>
+      <c r="I32" s="160"/>
+      <c r="J32" s="160"/>
+      <c r="K32" s="160"/>
+      <c r="L32" s="160"/>
+      <c r="M32" s="160"/>
+      <c r="N32" s="160"/>
+      <c r="O32" s="160"/>
+      <c r="P32" s="160"/>
+      <c r="Q32" s="160"/>
+      <c r="R32" s="160"/>
+      <c r="S32" s="161"/>
     </row>
     <row r="33" spans="1:19" ht="15.75" customHeight="1">
       <c r="A33" s="94">
-        <v>4</v>
-      </c>
-      <c r="B33" s="150" t="s">
-        <v>349</v>
-      </c>
-      <c r="C33" s="96" t="s">
-        <v>516</v>
-      </c>
-      <c r="D33" s="96" t="s">
-        <v>520</v>
-      </c>
-      <c r="E33" s="147" t="s">
-        <v>509</v>
-      </c>
-      <c r="F33" s="98" t="s">
-        <v>532</v>
+        <v>34</v>
+      </c>
+      <c r="B33" s="105" t="s">
+        <v>639</v>
+      </c>
+      <c r="C33" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="105" t="s">
+        <v>592</v>
+      </c>
+      <c r="E33" s="148" t="s">
+        <v>772</v>
+      </c>
+      <c r="F33" s="98">
+        <v>77054441706</v>
       </c>
       <c r="G33" s="148" t="s">
-        <v>744</v>
+        <v>828</v>
       </c>
       <c r="H33" s="144"/>
       <c r="I33" s="144"/>
@@ -46109,25 +46150,25 @@
     </row>
     <row r="34" spans="1:19" ht="13.8">
       <c r="A34" s="99">
+        <v>36</v>
+      </c>
+      <c r="B34" s="101" t="s">
+        <v>641</v>
+      </c>
+      <c r="C34" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="152" t="s">
-        <v>410</v>
-      </c>
-      <c r="C34" s="101" t="s">
-        <v>516</v>
-      </c>
-      <c r="D34" s="101">
-        <v>0</v>
+      <c r="D34" s="101" t="s">
+        <v>592</v>
       </c>
       <c r="E34" s="148" t="s">
-        <v>411</v>
+        <v>772</v>
       </c>
       <c r="F34" s="103">
-        <v>77789056044</v>
+        <v>77775223878</v>
       </c>
       <c r="G34" s="148" t="s">
-        <v>765</v>
+        <v>829</v>
       </c>
       <c r="H34" s="124"/>
       <c r="I34" s="124"/>
@@ -46144,25 +46185,25 @@
     </row>
     <row r="35" spans="1:19" ht="13.8">
       <c r="A35" s="99">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B35" s="101" t="s">
-        <v>588</v>
+        <v>652</v>
       </c>
       <c r="C35" s="101" t="s">
-        <v>27</v>
+        <v>653</v>
       </c>
       <c r="D35" s="101" t="s">
-        <v>513</v>
+        <v>599</v>
       </c>
       <c r="E35" s="148" t="s">
-        <v>411</v>
-      </c>
-      <c r="F35" s="103" t="s">
-        <v>590</v>
+        <v>772</v>
+      </c>
+      <c r="F35" s="103">
+        <v>77711886327</v>
       </c>
       <c r="G35" s="148" t="s">
-        <v>766</v>
+        <v>825</v>
       </c>
       <c r="H35" s="124"/>
       <c r="I35" s="124"/>
@@ -46179,25 +46220,25 @@
     </row>
     <row r="36" spans="1:19" ht="13.8">
       <c r="A36" s="94">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="B36" s="105" t="s">
-        <v>705</v>
+        <v>634</v>
       </c>
       <c r="C36" s="105" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D36" s="105" t="s">
-        <v>706</v>
+        <v>635</v>
       </c>
       <c r="E36" s="148" t="s">
-        <v>427</v>
+        <v>772</v>
       </c>
       <c r="F36" s="98">
-        <v>77057455796</v>
+        <v>77054627019</v>
       </c>
       <c r="G36" s="148" t="s">
-        <v>805</v>
+        <v>826</v>
       </c>
       <c r="H36" s="144"/>
       <c r="I36" s="144"/>
@@ -46212,62 +46253,62 @@
       <c r="R36" s="144"/>
       <c r="S36" s="145"/>
     </row>
-    <row r="37" spans="1:19" ht="14.4">
+    <row r="37" spans="1:19" ht="13.8">
       <c r="A37" s="99">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B37" s="101" t="s">
-        <v>664</v>
+        <v>637</v>
       </c>
       <c r="C37" s="101" t="s">
         <v>27</v>
       </c>
       <c r="D37" s="101" t="s">
-        <v>665</v>
+        <v>635</v>
       </c>
       <c r="E37" s="148" t="s">
-        <v>793</v>
-      </c>
-      <c r="F37" s="103" t="s">
-        <v>667</v>
-      </c>
-      <c r="G37" s="154" t="s">
-        <v>797</v>
-      </c>
-      <c r="H37" s="155"/>
-      <c r="I37" s="155"/>
-      <c r="J37" s="155"/>
-      <c r="K37" s="155"/>
-      <c r="L37" s="155"/>
-      <c r="M37" s="155"/>
-      <c r="N37" s="155"/>
-      <c r="O37" s="155"/>
-      <c r="P37" s="155"/>
-      <c r="Q37" s="155"/>
-      <c r="R37" s="155"/>
-      <c r="S37" s="156"/>
+        <v>772</v>
+      </c>
+      <c r="F37" s="103">
+        <v>77477573740</v>
+      </c>
+      <c r="G37" s="148" t="s">
+        <v>829</v>
+      </c>
+      <c r="H37" s="124"/>
+      <c r="I37" s="124"/>
+      <c r="J37" s="124"/>
+      <c r="K37" s="124"/>
+      <c r="L37" s="124"/>
+      <c r="M37" s="124"/>
+      <c r="N37" s="124"/>
+      <c r="O37" s="124"/>
+      <c r="P37" s="124"/>
+      <c r="Q37" s="124"/>
+      <c r="R37" s="124"/>
+      <c r="S37" s="149"/>
     </row>
     <row r="38" spans="1:19" ht="13.8">
       <c r="A38" s="94">
-        <v>45</v>
-      </c>
-      <c r="B38" s="105" t="s">
-        <v>629</v>
+        <v>40</v>
+      </c>
+      <c r="B38" s="151" t="s">
+        <v>315</v>
       </c>
       <c r="C38" s="105" t="s">
-        <v>27</v>
+        <v>516</v>
       </c>
       <c r="D38" s="105" t="s">
-        <v>630</v>
+        <v>520</v>
       </c>
       <c r="E38" s="148" t="s">
         <v>772</v>
       </c>
       <c r="F38" s="98">
-        <v>7710609229</v>
+        <v>77772459654</v>
       </c>
       <c r="G38" s="148" t="s">
-        <v>786</v>
+        <v>830</v>
       </c>
       <c r="H38" s="144"/>
       <c r="I38" s="144"/>
@@ -46284,27 +46325,29 @@
     </row>
     <row r="39" spans="1:19" ht="13.8">
       <c r="A39" s="99">
-        <v>63</v>
-      </c>
-      <c r="B39" s="152" t="s">
-        <v>380</v>
+        <v>41</v>
+      </c>
+      <c r="B39" s="101" t="s">
+        <v>616</v>
       </c>
       <c r="C39" s="101" t="s">
-        <v>516</v>
+        <v>27</v>
       </c>
       <c r="D39" s="101" t="s">
-        <v>517</v>
+        <v>617</v>
       </c>
       <c r="E39" s="148" t="s">
-        <v>427</v>
+        <v>772</v>
       </c>
       <c r="F39" s="110">
-        <v>77772285335</v>
+        <v>77764004000</v>
       </c>
       <c r="G39" s="148" t="s">
-        <v>806</v>
-      </c>
-      <c r="H39" s="124"/>
+        <v>781</v>
+      </c>
+      <c r="H39" s="124" t="s">
+        <v>782</v>
+      </c>
       <c r="I39" s="124"/>
       <c r="J39" s="124"/>
       <c r="K39" s="124"/>
@@ -46319,25 +46362,25 @@
     </row>
     <row r="40" spans="1:19" ht="13.8">
       <c r="A40" s="94">
-        <v>6</v>
-      </c>
-      <c r="B40" s="150" t="s">
-        <v>307</v>
-      </c>
-      <c r="C40" s="96" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="151" t="s">
+        <v>621</v>
+      </c>
+      <c r="C40" s="105" t="s">
         <v>516</v>
       </c>
-      <c r="D40" s="96" t="s">
-        <v>520</v>
-      </c>
-      <c r="E40" s="147" t="s">
-        <v>509</v>
+      <c r="D40" s="105" t="s">
+        <v>517</v>
+      </c>
+      <c r="E40" s="148" t="s">
+        <v>772</v>
       </c>
       <c r="F40" s="98" t="s">
-        <v>522</v>
+        <v>623</v>
       </c>
       <c r="G40" s="148" t="s">
-        <v>747</v>
+        <v>783</v>
       </c>
       <c r="H40" s="144"/>
       <c r="I40" s="144"/>
@@ -46354,25 +46397,25 @@
     </row>
     <row r="41" spans="1:19" ht="13.8">
       <c r="A41" s="94">
-        <v>5</v>
-      </c>
-      <c r="B41" s="151" t="s">
-        <v>745</v>
+        <v>43</v>
+      </c>
+      <c r="B41" s="105" t="s">
+        <v>632</v>
       </c>
       <c r="C41" s="105" t="s">
-        <v>516</v>
+        <v>15</v>
       </c>
       <c r="D41" s="105" t="s">
-        <v>517</v>
+        <v>630</v>
       </c>
       <c r="E41" s="148" t="s">
-        <v>509</v>
-      </c>
-      <c r="F41" s="98" t="s">
-        <v>519</v>
+        <v>772</v>
+      </c>
+      <c r="F41" s="98">
+        <v>77710603592</v>
       </c>
       <c r="G41" s="148" t="s">
-        <v>741</v>
+        <v>784</v>
       </c>
       <c r="H41" s="144"/>
       <c r="I41" s="144"/>
@@ -46380,47 +46423,34 @@
       <c r="K41" s="144"/>
       <c r="L41" s="144"/>
       <c r="M41" s="144"/>
-      <c r="N41" s="144" t="s">
-        <v>746</v>
-      </c>
-      <c r="O41" s="144">
-        <v>70</v>
-      </c>
-      <c r="P41" s="144">
-        <v>115.5</v>
-      </c>
-      <c r="Q41" s="144">
-        <v>115.5</v>
-      </c>
-      <c r="R41" s="144">
-        <v>49</v>
-      </c>
-      <c r="S41" s="145">
-        <f>SUM(O41:R41)</f>
-        <v>350</v>
-      </c>
+      <c r="N41" s="144"/>
+      <c r="O41" s="144"/>
+      <c r="P41" s="144"/>
+      <c r="Q41" s="144"/>
+      <c r="R41" s="144"/>
+      <c r="S41" s="145"/>
     </row>
     <row r="42" spans="1:19" ht="13.8">
       <c r="A42" s="99">
-        <v>47</v>
-      </c>
-      <c r="B42" s="122" t="s">
-        <v>619</v>
+        <v>44</v>
+      </c>
+      <c r="B42" s="162" t="s">
+        <v>483</v>
       </c>
       <c r="C42" s="122" t="s">
-        <v>27</v>
+        <v>516</v>
       </c>
       <c r="D42" s="122" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="E42" s="148" t="s">
         <v>772</v>
       </c>
       <c r="F42" s="124">
-        <v>77711886438</v>
+        <v>77719062173</v>
       </c>
       <c r="G42" s="148" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="H42" s="124"/>
       <c r="I42" s="124"/>
@@ -46437,25 +46467,25 @@
     </row>
     <row r="43" spans="1:19" ht="13.8">
       <c r="A43" s="99">
-        <v>64</v>
-      </c>
-      <c r="B43" s="152" t="s">
-        <v>376</v>
+        <v>45</v>
+      </c>
+      <c r="B43" s="101" t="s">
+        <v>629</v>
       </c>
       <c r="C43" s="101" t="s">
-        <v>516</v>
+        <v>27</v>
       </c>
       <c r="D43" s="101" t="s">
-        <v>517</v>
+        <v>630</v>
       </c>
       <c r="E43" s="148" t="s">
-        <v>427</v>
+        <v>772</v>
       </c>
       <c r="F43" s="103">
-        <v>77761023037</v>
+        <v>7710609229</v>
       </c>
       <c r="G43" s="148" t="s">
-        <v>807</v>
+        <v>786</v>
       </c>
       <c r="H43" s="124"/>
       <c r="I43" s="124"/>
@@ -46470,60 +46500,62 @@
       <c r="R43" s="124"/>
       <c r="S43" s="149"/>
     </row>
-    <row r="44" spans="1:19" ht="14.4">
+    <row r="44" spans="1:19" ht="13.8">
       <c r="A44" s="94">
-        <v>33</v>
-      </c>
-      <c r="B44" s="151" t="s">
-        <v>611</v>
+        <v>47</v>
+      </c>
+      <c r="B44" s="105" t="s">
+        <v>619</v>
       </c>
       <c r="C44" s="105" t="s">
-        <v>516</v>
-      </c>
-      <c r="D44" s="105"/>
+        <v>27</v>
+      </c>
+      <c r="D44" s="105" t="s">
+        <v>513</v>
+      </c>
       <c r="E44" s="148" t="s">
-        <v>609</v>
-      </c>
-      <c r="F44" s="98" t="s">
-        <v>613</v>
-      </c>
-      <c r="G44" s="159" t="s">
-        <v>771</v>
-      </c>
-      <c r="H44" s="160"/>
-      <c r="I44" s="160"/>
-      <c r="J44" s="160"/>
-      <c r="K44" s="160"/>
-      <c r="L44" s="160"/>
-      <c r="M44" s="160"/>
-      <c r="N44" s="160"/>
-      <c r="O44" s="160"/>
-      <c r="P44" s="160"/>
-      <c r="Q44" s="160"/>
-      <c r="R44" s="160"/>
-      <c r="S44" s="161"/>
+        <v>772</v>
+      </c>
+      <c r="F44" s="98">
+        <v>77711886438</v>
+      </c>
+      <c r="G44" s="148" t="s">
+        <v>788</v>
+      </c>
+      <c r="H44" s="144"/>
+      <c r="I44" s="144"/>
+      <c r="J44" s="144"/>
+      <c r="K44" s="144"/>
+      <c r="L44" s="144"/>
+      <c r="M44" s="144"/>
+      <c r="N44" s="144"/>
+      <c r="O44" s="144"/>
+      <c r="P44" s="144"/>
+      <c r="Q44" s="144"/>
+      <c r="R44" s="144"/>
+      <c r="S44" s="145"/>
     </row>
     <row r="45" spans="1:19" ht="13.8">
       <c r="A45" s="99">
-        <v>7</v>
-      </c>
-      <c r="B45" s="108" t="s">
-        <v>507</v>
-      </c>
-      <c r="C45" s="108" t="s">
-        <v>27</v>
-      </c>
-      <c r="D45" s="108" t="s">
-        <v>508</v>
-      </c>
-      <c r="E45" s="147" t="s">
-        <v>509</v>
-      </c>
-      <c r="F45" s="103" t="s">
-        <v>511</v>
+        <v>48</v>
+      </c>
+      <c r="B45" s="152" t="s">
+        <v>627</v>
+      </c>
+      <c r="C45" s="101" t="s">
+        <v>516</v>
+      </c>
+      <c r="D45" s="101" t="s">
+        <v>517</v>
+      </c>
+      <c r="E45" s="148" t="s">
+        <v>772</v>
+      </c>
+      <c r="F45" s="103">
+        <v>77753480121</v>
       </c>
       <c r="G45" s="148" t="s">
-        <v>748</v>
+        <v>789</v>
       </c>
       <c r="H45" s="124"/>
       <c r="I45" s="124"/>
@@ -46540,25 +46572,25 @@
     </row>
     <row r="46" spans="1:19" ht="13.8">
       <c r="A46" s="94">
-        <v>48</v>
-      </c>
-      <c r="B46" s="151" t="s">
-        <v>627</v>
+        <v>49</v>
+      </c>
+      <c r="B46" s="105" t="s">
+        <v>614</v>
       </c>
       <c r="C46" s="105" t="s">
-        <v>516</v>
+        <v>27</v>
       </c>
       <c r="D46" s="105" t="s">
-        <v>517</v>
+        <v>546</v>
       </c>
       <c r="E46" s="148" t="s">
         <v>772</v>
       </c>
       <c r="F46" s="98">
-        <v>77753480121</v>
+        <v>77479305650</v>
       </c>
       <c r="G46" s="148" t="s">
-        <v>789</v>
+        <v>827</v>
       </c>
       <c r="H46" s="144"/>
       <c r="I46" s="144"/>
@@ -46573,62 +46605,62 @@
       <c r="R46" s="144"/>
       <c r="S46" s="145"/>
     </row>
-    <row r="47" spans="1:19" ht="14.4">
+    <row r="47" spans="1:19" ht="13.8">
       <c r="A47" s="99">
-        <v>73</v>
-      </c>
-      <c r="B47" s="101" t="s">
-        <v>709</v>
+        <v>50</v>
+      </c>
+      <c r="B47" s="152" t="s">
+        <v>624</v>
       </c>
       <c r="C47" s="101" t="s">
-        <v>27</v>
+        <v>516</v>
       </c>
       <c r="D47" s="101" t="s">
-        <v>710</v>
+        <v>517</v>
       </c>
       <c r="E47" s="148" t="s">
-        <v>415</v>
+        <v>772</v>
       </c>
       <c r="F47" s="103" t="s">
-        <v>712</v>
-      </c>
-      <c r="G47" s="154" t="s">
-        <v>813</v>
-      </c>
-      <c r="H47" s="155"/>
-      <c r="I47" s="155"/>
-      <c r="J47" s="155"/>
-      <c r="K47" s="155"/>
-      <c r="L47" s="155"/>
-      <c r="M47" s="155"/>
-      <c r="N47" s="155"/>
-      <c r="O47" s="155"/>
-      <c r="P47" s="155"/>
-      <c r="Q47" s="155"/>
-      <c r="R47" s="155"/>
-      <c r="S47" s="156"/>
+        <v>626</v>
+      </c>
+      <c r="G47" s="148" t="s">
+        <v>831</v>
+      </c>
+      <c r="H47" s="124"/>
+      <c r="I47" s="124"/>
+      <c r="J47" s="124"/>
+      <c r="K47" s="124"/>
+      <c r="L47" s="124"/>
+      <c r="M47" s="124"/>
+      <c r="N47" s="124"/>
+      <c r="O47" s="124"/>
+      <c r="P47" s="124"/>
+      <c r="Q47" s="124"/>
+      <c r="R47" s="124"/>
+      <c r="S47" s="149"/>
     </row>
     <row r="48" spans="1:19" ht="13.8">
       <c r="A48" s="94">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B48" s="105" t="s">
-        <v>698</v>
+        <v>645</v>
       </c>
       <c r="C48" s="105" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="105" t="s">
-        <v>699</v>
+        <v>646</v>
       </c>
       <c r="E48" s="148" t="s">
-        <v>427</v>
+        <v>772</v>
       </c>
       <c r="F48" s="98">
-        <v>77057454959</v>
+        <v>77756396005</v>
       </c>
       <c r="G48" s="148" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
       <c r="H48" s="144"/>
       <c r="I48" s="144"/>
@@ -46645,60 +46677,58 @@
     </row>
     <row r="49" spans="1:19" ht="15.75" customHeight="1">
       <c r="A49" s="99">
-        <v>49</v>
-      </c>
-      <c r="B49" s="101" t="s">
-        <v>614</v>
+        <v>52</v>
+      </c>
+      <c r="B49" s="152" t="s">
+        <v>678</v>
       </c>
       <c r="C49" s="101" t="s">
-        <v>27</v>
-      </c>
-      <c r="D49" s="101" t="s">
-        <v>546</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="D49" s="101"/>
       <c r="E49" s="148" t="s">
-        <v>772</v>
-      </c>
-      <c r="F49" s="103">
-        <v>77479305650</v>
-      </c>
-      <c r="G49" s="148" t="s">
-        <v>790</v>
-      </c>
-      <c r="H49" s="124"/>
-      <c r="I49" s="124"/>
-      <c r="J49" s="124"/>
-      <c r="K49" s="124"/>
-      <c r="L49" s="124"/>
-      <c r="M49" s="124"/>
-      <c r="N49" s="124"/>
-      <c r="O49" s="124"/>
-      <c r="P49" s="124"/>
-      <c r="Q49" s="124"/>
-      <c r="R49" s="124"/>
-      <c r="S49" s="149"/>
+        <v>793</v>
+      </c>
+      <c r="F49" s="103" t="s">
+        <v>680</v>
+      </c>
+      <c r="G49" s="154" t="s">
+        <v>794</v>
+      </c>
+      <c r="H49" s="155"/>
+      <c r="I49" s="155"/>
+      <c r="J49" s="155"/>
+      <c r="K49" s="155"/>
+      <c r="L49" s="155"/>
+      <c r="M49" s="155"/>
+      <c r="N49" s="155"/>
+      <c r="O49" s="155"/>
+      <c r="P49" s="155"/>
+      <c r="Q49" s="155"/>
+      <c r="R49" s="155"/>
+      <c r="S49" s="156"/>
     </row>
     <row r="50" spans="1:19" ht="15.75" customHeight="1">
       <c r="A50" s="94">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B50" s="105" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="C50" s="105" t="s">
         <v>27</v>
       </c>
       <c r="D50" s="105" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="E50" s="148" t="s">
         <v>793</v>
       </c>
       <c r="F50" s="98" t="s">
-        <v>663</v>
+        <v>674</v>
       </c>
       <c r="G50" s="154" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="H50" s="157"/>
       <c r="I50" s="157"/>
@@ -46715,25 +46745,23 @@
     </row>
     <row r="51" spans="1:19" ht="15.75" customHeight="1">
       <c r="A51" s="99">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B51" s="152" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="C51" s="101" t="s">
         <v>516</v>
       </c>
-      <c r="D51" s="101">
-        <v>0</v>
-      </c>
+      <c r="D51" s="101"/>
       <c r="E51" s="148" t="s">
-        <v>415</v>
+        <v>793</v>
       </c>
       <c r="F51" s="103">
-        <v>77761009650</v>
+        <v>77477185969</v>
       </c>
       <c r="G51" s="154" t="s">
-        <v>814</v>
+        <v>796</v>
       </c>
       <c r="H51" s="155"/>
       <c r="I51" s="155"/>
@@ -46750,25 +46778,25 @@
     </row>
     <row r="52" spans="1:19" ht="15.75" customHeight="1">
       <c r="A52" s="94">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B52" s="105" t="s">
-        <v>799</v>
+        <v>664</v>
       </c>
       <c r="C52" s="105" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D52" s="105" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="E52" s="148" t="s">
         <v>793</v>
       </c>
       <c r="F52" s="118" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="G52" s="154" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="H52" s="157"/>
       <c r="I52" s="157"/>
@@ -46785,95 +46813,95 @@
     </row>
     <row r="53" spans="1:19" ht="15.75" customHeight="1">
       <c r="A53" s="99">
-        <v>66</v>
-      </c>
-      <c r="B53" s="152" t="s">
-        <v>342</v>
+        <v>56</v>
+      </c>
+      <c r="B53" s="101" t="s">
+        <v>660</v>
       </c>
       <c r="C53" s="101" t="s">
-        <v>516</v>
+        <v>27</v>
       </c>
       <c r="D53" s="101" t="s">
-        <v>520</v>
+        <v>661</v>
       </c>
       <c r="E53" s="148" t="s">
-        <v>427</v>
-      </c>
-      <c r="F53" s="110">
-        <v>77026615811</v>
-      </c>
-      <c r="G53" s="148" t="s">
-        <v>808</v>
-      </c>
-      <c r="H53" s="124"/>
-      <c r="I53" s="124"/>
-      <c r="J53" s="124"/>
-      <c r="K53" s="124"/>
-      <c r="L53" s="124"/>
-      <c r="M53" s="124"/>
-      <c r="N53" s="124"/>
-      <c r="O53" s="124"/>
-      <c r="P53" s="124"/>
-      <c r="Q53" s="124"/>
-      <c r="R53" s="124"/>
-      <c r="S53" s="149"/>
+        <v>793</v>
+      </c>
+      <c r="F53" s="110" t="s">
+        <v>663</v>
+      </c>
+      <c r="G53" s="154" t="s">
+        <v>798</v>
+      </c>
+      <c r="H53" s="155"/>
+      <c r="I53" s="155"/>
+      <c r="J53" s="155"/>
+      <c r="K53" s="155"/>
+      <c r="L53" s="155"/>
+      <c r="M53" s="155"/>
+      <c r="N53" s="155"/>
+      <c r="O53" s="155"/>
+      <c r="P53" s="155"/>
+      <c r="Q53" s="155"/>
+      <c r="R53" s="155"/>
+      <c r="S53" s="156"/>
     </row>
     <row r="54" spans="1:19" ht="15.75" customHeight="1">
       <c r="A54" s="94">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B54" s="105" t="s">
-        <v>713</v>
+        <v>799</v>
       </c>
       <c r="C54" s="105" t="s">
-        <v>714</v>
+        <v>15</v>
       </c>
       <c r="D54" s="105" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="E54" s="148" t="s">
-        <v>415</v>
+        <v>793</v>
       </c>
       <c r="F54" s="98" t="s">
-        <v>716</v>
-      </c>
-      <c r="G54" s="148" t="s">
-        <v>815</v>
-      </c>
-      <c r="H54" s="144"/>
-      <c r="I54" s="144"/>
-      <c r="J54" s="144"/>
-      <c r="K54" s="144"/>
-      <c r="L54" s="144"/>
-      <c r="M54" s="144"/>
-      <c r="N54" s="144"/>
-      <c r="O54" s="144"/>
-      <c r="P54" s="144"/>
-      <c r="Q54" s="144"/>
-      <c r="R54" s="144"/>
-      <c r="S54" s="145"/>
+        <v>671</v>
+      </c>
+      <c r="G54" s="154" t="s">
+        <v>800</v>
+      </c>
+      <c r="H54" s="157"/>
+      <c r="I54" s="157"/>
+      <c r="J54" s="157"/>
+      <c r="K54" s="157"/>
+      <c r="L54" s="157"/>
+      <c r="M54" s="157"/>
+      <c r="N54" s="157"/>
+      <c r="O54" s="157"/>
+      <c r="P54" s="157"/>
+      <c r="Q54" s="157"/>
+      <c r="R54" s="157"/>
+      <c r="S54" s="158"/>
     </row>
     <row r="55" spans="1:19" ht="15.75" customHeight="1">
       <c r="A55" s="99">
-        <v>21</v>
-      </c>
-      <c r="B55" s="152" t="s">
-        <v>338</v>
+        <v>58</v>
+      </c>
+      <c r="B55" s="101" t="s">
+        <v>675</v>
       </c>
       <c r="C55" s="101" t="s">
-        <v>516</v>
+        <v>27</v>
       </c>
       <c r="D55" s="101" t="s">
-        <v>520</v>
+        <v>539</v>
       </c>
       <c r="E55" s="148" t="s">
-        <v>570</v>
-      </c>
-      <c r="F55" s="103" t="s">
-        <v>576</v>
+        <v>793</v>
+      </c>
+      <c r="F55" s="103">
+        <v>77775223892</v>
       </c>
       <c r="G55" s="154" t="s">
-        <v>759</v>
+        <v>823</v>
       </c>
       <c r="H55" s="155"/>
       <c r="I55" s="155"/>
@@ -46890,25 +46918,25 @@
     </row>
     <row r="56" spans="1:19" ht="13.8">
       <c r="A56" s="94">
-        <v>50</v>
-      </c>
-      <c r="B56" s="151" t="s">
-        <v>624</v>
+        <v>67</v>
+      </c>
+      <c r="B56" s="105" t="s">
+        <v>688</v>
       </c>
       <c r="C56" s="105" t="s">
-        <v>516</v>
+        <v>20</v>
       </c>
       <c r="D56" s="105" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="E56" s="148" t="s">
-        <v>772</v>
+        <v>809</v>
       </c>
       <c r="F56" s="98" t="s">
-        <v>626</v>
+        <v>690</v>
       </c>
       <c r="G56" s="148" t="s">
-        <v>791</v>
+        <v>810</v>
       </c>
       <c r="H56" s="144"/>
       <c r="I56" s="144"/>
@@ -46923,62 +46951,62 @@
       <c r="R56" s="144"/>
       <c r="S56" s="145"/>
     </row>
-    <row r="57" spans="1:19" ht="14.4">
+    <row r="57" spans="1:19" ht="13.8">
       <c r="A57" s="99">
-        <v>58</v>
-      </c>
-      <c r="B57" s="101" t="s">
-        <v>675</v>
+        <v>60</v>
+      </c>
+      <c r="B57" s="152" t="s">
+        <v>393</v>
       </c>
       <c r="C57" s="101" t="s">
-        <v>27</v>
+        <v>516</v>
       </c>
       <c r="D57" s="101" t="s">
-        <v>539</v>
+        <v>517</v>
       </c>
       <c r="E57" s="148" t="s">
-        <v>793</v>
+        <v>427</v>
       </c>
       <c r="F57" s="103">
-        <v>77775223892</v>
-      </c>
-      <c r="G57" s="154" t="s">
-        <v>823</v>
-      </c>
-      <c r="H57" s="155"/>
-      <c r="I57" s="155"/>
-      <c r="J57" s="155"/>
-      <c r="K57" s="155"/>
-      <c r="L57" s="155"/>
-      <c r="M57" s="155"/>
-      <c r="N57" s="155"/>
-      <c r="O57" s="155"/>
-      <c r="P57" s="155"/>
-      <c r="Q57" s="155"/>
-      <c r="R57" s="155"/>
-      <c r="S57" s="156"/>
+        <v>77078750345</v>
+      </c>
+      <c r="G57" s="148" t="s">
+        <v>803</v>
+      </c>
+      <c r="H57" s="124"/>
+      <c r="I57" s="124"/>
+      <c r="J57" s="124"/>
+      <c r="K57" s="124"/>
+      <c r="L57" s="124"/>
+      <c r="M57" s="124"/>
+      <c r="N57" s="124"/>
+      <c r="O57" s="124"/>
+      <c r="P57" s="124"/>
+      <c r="Q57" s="124"/>
+      <c r="R57" s="124"/>
+      <c r="S57" s="149"/>
     </row>
     <row r="58" spans="1:19" ht="13.8">
       <c r="A58" s="94">
-        <v>17</v>
-      </c>
-      <c r="B58" s="151" t="s">
-        <v>363</v>
+        <v>61</v>
+      </c>
+      <c r="B58" s="163" t="s">
+        <v>346</v>
       </c>
       <c r="C58" s="105" t="s">
         <v>516</v>
       </c>
       <c r="D58" s="105" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E58" s="148" t="s">
-        <v>419</v>
-      </c>
-      <c r="F58" s="98" t="s">
-        <v>558</v>
+        <v>427</v>
+      </c>
+      <c r="F58" s="98">
+        <v>77057418708</v>
       </c>
       <c r="G58" s="148" t="s">
-        <v>756</v>
+        <v>804</v>
       </c>
       <c r="H58" s="144"/>
       <c r="I58" s="144"/>
@@ -46993,62 +47021,62 @@
       <c r="R58" s="144"/>
       <c r="S58" s="145"/>
     </row>
-    <row r="59" spans="1:19" ht="14.4">
+    <row r="59" spans="1:19" ht="13.8">
       <c r="A59" s="99">
-        <v>22</v>
-      </c>
-      <c r="B59" s="152" t="s">
-        <v>289</v>
+        <v>62</v>
+      </c>
+      <c r="B59" s="101" t="s">
+        <v>705</v>
       </c>
       <c r="C59" s="101" t="s">
-        <v>516</v>
+        <v>15</v>
       </c>
       <c r="D59" s="101" t="s">
-        <v>520</v>
+        <v>706</v>
       </c>
       <c r="E59" s="148" t="s">
-        <v>570</v>
-      </c>
-      <c r="F59" s="103" t="s">
-        <v>572</v>
-      </c>
-      <c r="G59" s="154" t="s">
-        <v>760</v>
-      </c>
-      <c r="H59" s="155"/>
-      <c r="I59" s="155"/>
-      <c r="J59" s="155"/>
-      <c r="K59" s="155"/>
-      <c r="L59" s="155"/>
-      <c r="M59" s="155"/>
-      <c r="N59" s="155"/>
-      <c r="O59" s="155"/>
-      <c r="P59" s="155"/>
-      <c r="Q59" s="155"/>
-      <c r="R59" s="155"/>
-      <c r="S59" s="156"/>
+        <v>427</v>
+      </c>
+      <c r="F59" s="103">
+        <v>77057455796</v>
+      </c>
+      <c r="G59" s="148" t="s">
+        <v>805</v>
+      </c>
+      <c r="H59" s="124"/>
+      <c r="I59" s="124"/>
+      <c r="J59" s="124"/>
+      <c r="K59" s="124"/>
+      <c r="L59" s="124"/>
+      <c r="M59" s="124"/>
+      <c r="N59" s="124"/>
+      <c r="O59" s="124"/>
+      <c r="P59" s="124"/>
+      <c r="Q59" s="124"/>
+      <c r="R59" s="124"/>
+      <c r="S59" s="149"/>
     </row>
     <row r="60" spans="1:19" ht="13.8">
       <c r="A60" s="94">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="B60" s="151" t="s">
-        <v>334</v>
+        <v>380</v>
       </c>
       <c r="C60" s="105" t="s">
         <v>516</v>
       </c>
       <c r="D60" s="105" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E60" s="148" t="s">
-        <v>509</v>
-      </c>
-      <c r="F60" s="98" t="s">
-        <v>526</v>
+        <v>427</v>
+      </c>
+      <c r="F60" s="98">
+        <v>77772285335</v>
       </c>
       <c r="G60" s="148" t="s">
-        <v>749</v>
+        <v>806</v>
       </c>
       <c r="H60" s="144"/>
       <c r="I60" s="144"/>
@@ -47065,25 +47093,25 @@
     </row>
     <row r="61" spans="1:19" ht="13.8">
       <c r="A61" s="99">
-        <v>51</v>
-      </c>
-      <c r="B61" s="101" t="s">
-        <v>645</v>
+        <v>64</v>
+      </c>
+      <c r="B61" s="152" t="s">
+        <v>376</v>
       </c>
       <c r="C61" s="101" t="s">
-        <v>15</v>
+        <v>516</v>
       </c>
       <c r="D61" s="101" t="s">
-        <v>646</v>
+        <v>517</v>
       </c>
       <c r="E61" s="148" t="s">
-        <v>772</v>
+        <v>427</v>
       </c>
       <c r="F61" s="103">
-        <v>77756396005</v>
+        <v>77761023037</v>
       </c>
       <c r="G61" s="148" t="s">
-        <v>792</v>
+        <v>807</v>
       </c>
       <c r="H61" s="124"/>
       <c r="I61" s="124"/>
@@ -47100,25 +47128,25 @@
     </row>
     <row r="62" spans="1:19" ht="13.8">
       <c r="A62" s="94">
-        <v>9</v>
-      </c>
-      <c r="B62" s="150" t="s">
-        <v>326</v>
-      </c>
-      <c r="C62" s="96" t="s">
-        <v>516</v>
-      </c>
-      <c r="D62" s="96" t="s">
-        <v>520</v>
-      </c>
-      <c r="E62" s="147" t="s">
-        <v>509</v>
-      </c>
-      <c r="F62" s="98" t="s">
-        <v>530</v>
+        <v>65</v>
+      </c>
+      <c r="B62" s="105" t="s">
+        <v>698</v>
+      </c>
+      <c r="C62" s="105" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="105" t="s">
+        <v>699</v>
+      </c>
+      <c r="E62" s="148" t="s">
+        <v>427</v>
+      </c>
+      <c r="F62" s="98">
+        <v>77057454959</v>
       </c>
       <c r="G62" s="148" t="s">
-        <v>749</v>
+        <v>803</v>
       </c>
       <c r="H62" s="144"/>
       <c r="I62" s="144"/>
@@ -47135,25 +47163,25 @@
     </row>
     <row r="63" spans="1:19" ht="13.8">
       <c r="A63" s="99">
-        <v>18</v>
-      </c>
-      <c r="B63" s="101" t="s">
-        <v>549</v>
+        <v>66</v>
+      </c>
+      <c r="B63" s="152" t="s">
+        <v>342</v>
       </c>
       <c r="C63" s="101" t="s">
-        <v>15</v>
+        <v>516</v>
       </c>
       <c r="D63" s="101" t="s">
-        <v>550</v>
+        <v>520</v>
       </c>
       <c r="E63" s="148" t="s">
-        <v>419</v>
-      </c>
-      <c r="F63" s="103" t="s">
-        <v>552</v>
+        <v>427</v>
+      </c>
+      <c r="F63" s="103">
+        <v>77026615811</v>
       </c>
       <c r="G63" s="148" t="s">
-        <v>756</v>
+        <v>808</v>
       </c>
       <c r="H63" s="124"/>
       <c r="I63" s="124"/>
@@ -47170,25 +47198,25 @@
     </row>
     <row r="64" spans="1:19" ht="13.8">
       <c r="A64" s="94">
-        <v>19</v>
-      </c>
-      <c r="B64" s="105" t="s">
-        <v>545</v>
+        <v>68</v>
+      </c>
+      <c r="B64" s="151" t="s">
+        <v>299</v>
       </c>
       <c r="C64" s="105" t="s">
-        <v>27</v>
+        <v>516</v>
       </c>
       <c r="D64" s="105" t="s">
-        <v>546</v>
+        <v>520</v>
       </c>
       <c r="E64" s="148" t="s">
-        <v>419</v>
-      </c>
-      <c r="F64" s="98" t="s">
-        <v>548</v>
+        <v>427</v>
+      </c>
+      <c r="F64" s="98">
+        <v>77761000911</v>
       </c>
       <c r="G64" s="148" t="s">
-        <v>757</v>
+        <v>806</v>
       </c>
       <c r="H64" s="144"/>
       <c r="I64" s="144"/>
@@ -47205,25 +47233,25 @@
     </row>
     <row r="65" spans="1:19" ht="13.8">
       <c r="A65" s="99">
-        <v>67</v>
-      </c>
-      <c r="B65" s="101" t="s">
-        <v>688</v>
+        <v>69</v>
+      </c>
+      <c r="B65" s="152" t="s">
+        <v>401</v>
       </c>
       <c r="C65" s="101" t="s">
-        <v>20</v>
+        <v>516</v>
       </c>
       <c r="D65" s="101" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="E65" s="148" t="s">
-        <v>809</v>
-      </c>
-      <c r="F65" s="103" t="s">
-        <v>690</v>
+        <v>427</v>
+      </c>
+      <c r="F65" s="103">
+        <v>77022144180</v>
       </c>
       <c r="G65" s="148" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="H65" s="124"/>
       <c r="I65" s="124"/>
@@ -47240,25 +47268,25 @@
     </row>
     <row r="66" spans="1:19" ht="13.8">
       <c r="A66" s="94">
-        <v>68</v>
-      </c>
-      <c r="B66" s="151" t="s">
-        <v>299</v>
+        <v>70</v>
+      </c>
+      <c r="B66" s="105" t="s">
+        <v>701</v>
       </c>
       <c r="C66" s="105" t="s">
-        <v>516</v>
+        <v>15</v>
       </c>
       <c r="D66" s="105" t="s">
-        <v>520</v>
+        <v>699</v>
       </c>
       <c r="E66" s="148" t="s">
         <v>427</v>
       </c>
       <c r="F66" s="98">
-        <v>77761000911</v>
+        <v>77057455794</v>
       </c>
       <c r="G66" s="148" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="H66" s="144"/>
       <c r="I66" s="144"/>
@@ -47275,25 +47303,25 @@
     </row>
     <row r="67" spans="1:19" ht="14.4">
       <c r="A67" s="99">
-        <v>76</v>
-      </c>
-      <c r="B67" s="152" t="s">
-        <v>720</v>
+        <v>71</v>
+      </c>
+      <c r="B67" s="101" t="s">
+        <v>723</v>
       </c>
       <c r="C67" s="101" t="s">
-        <v>516</v>
+        <v>15</v>
       </c>
       <c r="D67" s="101" t="s">
-        <v>520</v>
+        <v>724</v>
       </c>
       <c r="E67" s="148" t="s">
         <v>415</v>
       </c>
-      <c r="F67" s="103" t="s">
-        <v>722</v>
+      <c r="F67" s="172" t="s">
+        <v>726</v>
       </c>
       <c r="G67" s="154" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
       <c r="H67" s="155"/>
       <c r="I67" s="155"/>
@@ -47310,25 +47338,25 @@
     </row>
     <row r="68" spans="1:19" ht="15.75" customHeight="1">
       <c r="A68" s="94">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B68" s="105" t="s">
-        <v>538</v>
+        <v>681</v>
       </c>
       <c r="C68" s="105" t="s">
         <v>27</v>
       </c>
       <c r="D68" s="105" t="s">
-        <v>539</v>
+        <v>508</v>
       </c>
       <c r="E68" s="148" t="s">
-        <v>509</v>
+        <v>415</v>
       </c>
       <c r="F68" s="98" t="s">
-        <v>541</v>
+        <v>683</v>
       </c>
       <c r="G68" s="148" t="s">
-        <v>750</v>
+        <v>802</v>
       </c>
       <c r="H68" s="144"/>
       <c r="I68" s="144"/>
@@ -47345,25 +47373,25 @@
     </row>
     <row r="69" spans="1:19" ht="15.75" customHeight="1">
       <c r="A69" s="99">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="B69" s="152" t="s">
-        <v>311</v>
+        <v>717</v>
       </c>
       <c r="C69" s="101" t="s">
         <v>516</v>
       </c>
       <c r="D69" s="101" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E69" s="148" t="s">
-        <v>570</v>
+        <v>415</v>
       </c>
       <c r="F69" s="103" t="s">
-        <v>578</v>
+        <v>719</v>
       </c>
       <c r="G69" s="154" t="s">
-        <v>761</v>
+        <v>808</v>
       </c>
       <c r="H69" s="155"/>
       <c r="I69" s="155"/>
@@ -47380,95 +47408,95 @@
     </row>
     <row r="70" spans="1:19" ht="15.75" customHeight="1">
       <c r="A70" s="94">
-        <v>69</v>
-      </c>
-      <c r="B70" s="151" t="s">
-        <v>401</v>
+        <v>73</v>
+      </c>
+      <c r="B70" s="105" t="s">
+        <v>709</v>
       </c>
       <c r="C70" s="105" t="s">
-        <v>516</v>
+        <v>27</v>
       </c>
       <c r="D70" s="105" t="s">
-        <v>517</v>
+        <v>710</v>
       </c>
       <c r="E70" s="148" t="s">
-        <v>427</v>
-      </c>
-      <c r="F70" s="98">
-        <v>77022144180</v>
-      </c>
-      <c r="G70" s="148" t="s">
-        <v>803</v>
-      </c>
-      <c r="H70" s="144"/>
-      <c r="I70" s="144"/>
-      <c r="J70" s="144"/>
-      <c r="K70" s="144"/>
-      <c r="L70" s="144"/>
-      <c r="M70" s="144"/>
-      <c r="N70" s="144"/>
-      <c r="O70" s="144"/>
-      <c r="P70" s="144"/>
-      <c r="Q70" s="144"/>
-      <c r="R70" s="144"/>
-      <c r="S70" s="145"/>
+        <v>415</v>
+      </c>
+      <c r="F70" s="98" t="s">
+        <v>712</v>
+      </c>
+      <c r="G70" s="154" t="s">
+        <v>813</v>
+      </c>
+      <c r="H70" s="157"/>
+      <c r="I70" s="157"/>
+      <c r="J70" s="157"/>
+      <c r="K70" s="157"/>
+      <c r="L70" s="157"/>
+      <c r="M70" s="157"/>
+      <c r="N70" s="157"/>
+      <c r="O70" s="157"/>
+      <c r="P70" s="157"/>
+      <c r="Q70" s="157"/>
+      <c r="R70" s="157"/>
+      <c r="S70" s="158"/>
     </row>
     <row r="71" spans="1:19" ht="15.75" customHeight="1">
       <c r="A71" s="99">
-        <v>70</v>
-      </c>
-      <c r="B71" s="101" t="s">
-        <v>701</v>
+        <v>74</v>
+      </c>
+      <c r="B71" s="152" t="s">
+        <v>414</v>
       </c>
       <c r="C71" s="101" t="s">
-        <v>15</v>
-      </c>
-      <c r="D71" s="101" t="s">
-        <v>699</v>
+        <v>516</v>
+      </c>
+      <c r="D71" s="101">
+        <v>0</v>
       </c>
       <c r="E71" s="148" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="F71" s="103">
-        <v>77057455794</v>
-      </c>
-      <c r="G71" s="148" t="s">
-        <v>811</v>
-      </c>
-      <c r="H71" s="124"/>
-      <c r="I71" s="124"/>
-      <c r="J71" s="124"/>
-      <c r="K71" s="124"/>
-      <c r="L71" s="124"/>
-      <c r="M71" s="124"/>
-      <c r="N71" s="124"/>
-      <c r="O71" s="124"/>
-      <c r="P71" s="124"/>
-      <c r="Q71" s="124"/>
-      <c r="R71" s="124"/>
-      <c r="S71" s="149"/>
+        <v>77761009650</v>
+      </c>
+      <c r="G71" s="154" t="s">
+        <v>814</v>
+      </c>
+      <c r="H71" s="155"/>
+      <c r="I71" s="155"/>
+      <c r="J71" s="155"/>
+      <c r="K71" s="155"/>
+      <c r="L71" s="155"/>
+      <c r="M71" s="155"/>
+      <c r="N71" s="155"/>
+      <c r="O71" s="155"/>
+      <c r="P71" s="155"/>
+      <c r="Q71" s="155"/>
+      <c r="R71" s="155"/>
+      <c r="S71" s="156"/>
     </row>
     <row r="72" spans="1:19" ht="13.8">
       <c r="A72" s="94">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="B72" s="105" t="s">
-        <v>512</v>
+        <v>713</v>
       </c>
       <c r="C72" s="105" t="s">
-        <v>27</v>
+        <v>714</v>
       </c>
       <c r="D72" s="105" t="s">
-        <v>513</v>
+        <v>661</v>
       </c>
       <c r="E72" s="148" t="s">
-        <v>509</v>
+        <v>415</v>
       </c>
       <c r="F72" s="118" t="s">
-        <v>515</v>
+        <v>716</v>
       </c>
       <c r="G72" s="148" t="s">
-        <v>751</v>
+        <v>815</v>
       </c>
       <c r="H72" s="144"/>
       <c r="I72" s="144"/>
@@ -47476,32 +47504,19 @@
       <c r="K72" s="144"/>
       <c r="L72" s="144"/>
       <c r="M72" s="144"/>
-      <c r="N72" s="144" t="s">
-        <v>752</v>
-      </c>
-      <c r="O72" s="144">
-        <v>30</v>
-      </c>
-      <c r="P72" s="144">
-        <v>50</v>
-      </c>
-      <c r="Q72" s="144">
-        <v>50</v>
-      </c>
-      <c r="R72" s="144">
-        <v>20</v>
-      </c>
-      <c r="S72" s="145">
-        <f>SUM(O72:R72)</f>
-        <v>150</v>
-      </c>
+      <c r="N72" s="144"/>
+      <c r="O72" s="144"/>
+      <c r="P72" s="144"/>
+      <c r="Q72" s="144"/>
+      <c r="R72" s="144"/>
+      <c r="S72" s="145"/>
     </row>
     <row r="73" spans="1:19" ht="15.75" customHeight="1">
       <c r="A73" s="99">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="B73" s="152" t="s">
-        <v>295</v>
+        <v>720</v>
       </c>
       <c r="C73" s="122" t="s">
         <v>516</v>
@@ -47510,13 +47525,13 @@
         <v>520</v>
       </c>
       <c r="E73" s="148" t="s">
-        <v>570</v>
+        <v>415</v>
       </c>
       <c r="F73" s="124" t="s">
-        <v>574</v>
+        <v>722</v>
       </c>
       <c r="G73" s="154" t="s">
-        <v>762</v>
+        <v>816</v>
       </c>
       <c r="H73" s="155"/>
       <c r="I73" s="155"/>

--- a/Контакты Stratera.xlsx
+++ b/Контакты Stratera.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Рабочий стол\heatmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13977D6-6FFD-4966-B9F9-60368E61CA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395D8631-D408-44B3-B01A-C8DCF9C6782C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="13440" windowHeight="9300" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Менеджеры по продажам район (2)" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2411" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2411" uniqueCount="833">
   <si>
     <t>СКО</t>
   </si>
@@ -4309,6 +4309,9 @@
   </si>
   <si>
     <t>Костанайский, Мендыгаринский, Алтынсаринский</t>
+  </si>
+  <si>
+    <t>Карасуский, Сарыкольский, Алтынсаринский</t>
   </si>
 </sst>
 </file>
@@ -12775,7 +12778,7 @@
       <c r="Y103" s="11"/>
       <c r="Z103" s="11"/>
     </row>
-    <row r="104" spans="1:26" ht="27.6">
+    <row r="104" spans="1:26" ht="41.4">
       <c r="A104" s="9" t="s">
         <v>330</v>
       </c>
@@ -12986,7 +12989,7 @@
       <c r="Y108" s="11"/>
       <c r="Z108" s="11"/>
     </row>
-    <row r="109" spans="1:26" ht="27.6">
+    <row r="109" spans="1:26" ht="41.4">
       <c r="A109" s="9" t="s">
         <v>349</v>
       </c>
@@ -44919,8 +44922,8 @@
   <dimension ref="A1:S74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="112" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -46168,7 +46171,7 @@
         <v>77775223878</v>
       </c>
       <c r="G34" s="148" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="H34" s="124"/>
       <c r="I34" s="124"/>

--- a/Контакты Stratera.xlsx
+++ b/Контакты Stratera.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Рабочий стол\heatmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395D8631-D408-44B3-B01A-C8DCF9C6782C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FFFA11-965E-4075-9950-A7DBD61E583E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="13440" windowHeight="9300" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Менеджеры по продажам район (2)" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2411" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2411" uniqueCount="834">
   <si>
     <t>СКО</t>
   </si>
@@ -4312,6 +4312,9 @@
   </si>
   <si>
     <t>Карасуский, Сарыкольский, Алтынсаринский</t>
+  </si>
+  <si>
+    <t>Костанайский, Аулиекольский, Алтынсаринский, Амангельдинский</t>
   </si>
 </sst>
 </file>
@@ -12778,7 +12781,7 @@
       <c r="Y103" s="11"/>
       <c r="Z103" s="11"/>
     </row>
-    <row r="104" spans="1:26" ht="41.4">
+    <row r="104" spans="1:26" ht="27.6">
       <c r="A104" s="9" t="s">
         <v>330</v>
       </c>
@@ -12989,7 +12992,7 @@
       <c r="Y108" s="11"/>
       <c r="Z108" s="11"/>
     </row>
-    <row r="109" spans="1:26" ht="41.4">
+    <row r="109" spans="1:26" ht="27.6">
       <c r="A109" s="9" t="s">
         <v>349</v>
       </c>
@@ -44921,9 +44924,9 @@
   </sheetPr>
   <dimension ref="A1:S74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="112" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="73" zoomScaleNormal="112" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -44934,7 +44937,7 @@
     <col min="4" max="4" width="19.33203125" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="25.88671875" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="98.88671875" customWidth="1"/>
+    <col min="7" max="7" width="107.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="13.8">
@@ -46346,7 +46349,7 @@
         <v>77764004000</v>
       </c>
       <c r="G39" s="148" t="s">
-        <v>781</v>
+        <v>833</v>
       </c>
       <c r="H39" s="124" t="s">
         <v>782</v>

--- a/Контакты Stratera.xlsx
+++ b/Контакты Stratera.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Рабочий стол\heatmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FFFA11-965E-4075-9950-A7DBD61E583E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F891EE4-64AB-4784-A35E-611239E206C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2820" yWindow="2820" windowWidth="13440" windowHeight="9300" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Менеджеры по продажам район (2)" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2411" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2411" uniqueCount="835">
   <si>
     <t>СКО</t>
   </si>
@@ -4315,6 +4315,9 @@
   </si>
   <si>
     <t>Костанайский, Аулиекольский, Алтынсаринский, Амангельдинский</t>
+  </si>
+  <si>
+    <t>Бескарагайский, Бородулихинский, Глубоковский</t>
   </si>
 </sst>
 </file>
@@ -12781,7 +12784,7 @@
       <c r="Y103" s="11"/>
       <c r="Z103" s="11"/>
     </row>
-    <row r="104" spans="1:26" ht="27.6">
+    <row r="104" spans="1:26" ht="41.4">
       <c r="A104" s="9" t="s">
         <v>330</v>
       </c>
@@ -12992,7 +12995,7 @@
       <c r="Y108" s="11"/>
       <c r="Z108" s="11"/>
     </row>
-    <row r="109" spans="1:26" ht="27.6">
+    <row r="109" spans="1:26" ht="41.4">
       <c r="A109" s="9" t="s">
         <v>349</v>
       </c>
@@ -44924,9 +44927,9 @@
   </sheetPr>
   <dimension ref="A1:S74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="73" zoomScaleNormal="112" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="73" zoomScaleNormal="112" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -46036,7 +46039,7 @@
         <v>605</v>
       </c>
       <c r="G30" s="148" t="s">
-        <v>769</v>
+        <v>834</v>
       </c>
       <c r="H30" s="144"/>
       <c r="I30" s="144"/>

--- a/Контакты Stratera.xlsx
+++ b/Контакты Stratera.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Рабочий стол\heatmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F891EE4-64AB-4784-A35E-611239E206C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16AD8C99-71B2-4E2A-ABA6-FEA26DA1F76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="2820" windowWidth="13440" windowHeight="9300" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Менеджеры по продажам район (2)" sheetId="5" r:id="rId1"/>
@@ -22,14 +22,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Менеджеры по продажам'!$A$1:$H$83</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Менеджеры по продажам район (2)'!$A$1:$S$78</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Менеджеры по продажам районы'!$A$1:$S$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Менеджеры по продажам районы'!$A$1:$S$73</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2411" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2404" uniqueCount="836">
   <si>
     <t>СКО</t>
   </si>
@@ -4318,6 +4318,9 @@
   </si>
   <si>
     <t>Бескарагайский, Бородулихинский, Глубоковский</t>
+  </si>
+  <si>
+    <t>Сарыкольский , Узункольский, Аулиекольский</t>
   </si>
 </sst>
 </file>
@@ -5959,10 +5962,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Таблица1_2" displayName="Таблица1_2" ref="A1:S74">
-  <autoFilter ref="A1:S74" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S74">
-    <sortCondition ref="E1:E74"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Таблица1_2" displayName="Таблица1_2" ref="A1:S73">
+  <autoFilter ref="A1:S73" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S73">
+    <sortCondition ref="E1:E73"/>
   </sortState>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="№"/>
@@ -44925,11 +44928,11 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S74"/>
+  <dimension ref="A1:S73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="73" zoomScaleNormal="112" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="112" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -45036,1148 +45039,1135 @@
       <c r="S2" s="145"/>
     </row>
     <row r="3" spans="1:19" ht="13.8">
-      <c r="A3" s="99">
-        <v>2</v>
-      </c>
-      <c r="B3" s="146" t="s">
-        <v>330</v>
-      </c>
-      <c r="C3" s="108" t="s">
+      <c r="A3" s="94">
+        <v>3</v>
+      </c>
+      <c r="B3" s="150" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="96" t="s">
         <v>516</v>
       </c>
-      <c r="D3" s="108" t="s">
+      <c r="D3" s="96" t="s">
         <v>520</v>
       </c>
       <c r="E3" s="147" t="s">
         <v>509</v>
       </c>
-      <c r="F3" s="103" t="s">
-        <v>528</v>
+      <c r="F3" s="98" t="s">
+        <v>524</v>
       </c>
       <c r="G3" s="148" t="s">
-        <v>741</v>
-      </c>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="124"/>
-      <c r="M3" s="124"/>
-      <c r="N3" s="124" t="s">
-        <v>742</v>
-      </c>
-      <c r="O3" s="124">
-        <v>50</v>
-      </c>
-      <c r="P3" s="124">
-        <v>82.5</v>
-      </c>
-      <c r="Q3" s="124">
-        <v>82.5</v>
-      </c>
-      <c r="R3" s="124">
-        <v>35</v>
-      </c>
-      <c r="S3" s="149">
-        <f>SUM(O3:R3)</f>
-        <v>250</v>
-      </c>
+        <v>743</v>
+      </c>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="144"/>
+      <c r="L3" s="144"/>
+      <c r="M3" s="144"/>
+      <c r="N3" s="144"/>
+      <c r="O3" s="144"/>
+      <c r="P3" s="144"/>
+      <c r="Q3" s="144"/>
+      <c r="R3" s="144"/>
+      <c r="S3" s="145"/>
     </row>
     <row r="4" spans="1:19" ht="13.8">
-      <c r="A4" s="94">
-        <v>3</v>
-      </c>
-      <c r="B4" s="150" t="s">
-        <v>236</v>
-      </c>
-      <c r="C4" s="96" t="s">
+      <c r="A4" s="99">
+        <v>4</v>
+      </c>
+      <c r="B4" s="146" t="s">
+        <v>349</v>
+      </c>
+      <c r="C4" s="108" t="s">
         <v>516</v>
       </c>
-      <c r="D4" s="96" t="s">
+      <c r="D4" s="108" t="s">
         <v>520</v>
       </c>
       <c r="E4" s="147" t="s">
         <v>509</v>
       </c>
-      <c r="F4" s="98" t="s">
-        <v>524</v>
+      <c r="F4" s="110" t="s">
+        <v>532</v>
       </c>
       <c r="G4" s="148" t="s">
-        <v>743</v>
-      </c>
-      <c r="H4" s="144"/>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144"/>
-      <c r="K4" s="144"/>
-      <c r="L4" s="144"/>
-      <c r="M4" s="144"/>
-      <c r="N4" s="144"/>
-      <c r="O4" s="144"/>
-      <c r="P4" s="144"/>
-      <c r="Q4" s="144"/>
-      <c r="R4" s="144"/>
-      <c r="S4" s="145"/>
+        <v>744</v>
+      </c>
+      <c r="H4" s="124"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="124"/>
+      <c r="K4" s="124"/>
+      <c r="L4" s="124"/>
+      <c r="M4" s="124"/>
+      <c r="N4" s="124"/>
+      <c r="O4" s="124"/>
+      <c r="P4" s="124"/>
+      <c r="Q4" s="124"/>
+      <c r="R4" s="124"/>
+      <c r="S4" s="149"/>
     </row>
     <row r="5" spans="1:19" ht="13.8">
-      <c r="A5" s="99">
-        <v>4</v>
-      </c>
-      <c r="B5" s="146" t="s">
-        <v>349</v>
-      </c>
-      <c r="C5" s="108" t="s">
+      <c r="A5" s="94">
+        <v>6</v>
+      </c>
+      <c r="B5" s="150" t="s">
+        <v>307</v>
+      </c>
+      <c r="C5" s="96" t="s">
         <v>516</v>
       </c>
-      <c r="D5" s="108" t="s">
+      <c r="D5" s="96" t="s">
         <v>520</v>
       </c>
       <c r="E5" s="147" t="s">
         <v>509</v>
       </c>
-      <c r="F5" s="110" t="s">
-        <v>532</v>
+      <c r="F5" s="98" t="s">
+        <v>522</v>
       </c>
       <c r="G5" s="148" t="s">
-        <v>744</v>
-      </c>
-      <c r="H5" s="124"/>
-      <c r="I5" s="124"/>
-      <c r="J5" s="124"/>
-      <c r="K5" s="124"/>
-      <c r="L5" s="124"/>
-      <c r="M5" s="124"/>
-      <c r="N5" s="124"/>
-      <c r="O5" s="124"/>
-      <c r="P5" s="124"/>
-      <c r="Q5" s="124"/>
-      <c r="R5" s="124"/>
-      <c r="S5" s="149"/>
+        <v>747</v>
+      </c>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="144"/>
+      <c r="K5" s="144"/>
+      <c r="L5" s="144"/>
+      <c r="M5" s="144"/>
+      <c r="N5" s="144"/>
+      <c r="O5" s="144"/>
+      <c r="P5" s="144"/>
+      <c r="Q5" s="144"/>
+      <c r="R5" s="144"/>
+      <c r="S5" s="145"/>
     </row>
     <row r="6" spans="1:19" ht="13.8">
-      <c r="A6" s="94">
-        <v>6</v>
-      </c>
-      <c r="B6" s="150" t="s">
-        <v>307</v>
-      </c>
-      <c r="C6" s="96" t="s">
+      <c r="A6" s="99">
+        <v>5</v>
+      </c>
+      <c r="B6" s="152" t="s">
+        <v>745</v>
+      </c>
+      <c r="C6" s="101" t="s">
         <v>516</v>
       </c>
-      <c r="D6" s="96" t="s">
+      <c r="D6" s="101" t="s">
+        <v>517</v>
+      </c>
+      <c r="E6" s="148" t="s">
+        <v>509</v>
+      </c>
+      <c r="F6" s="103" t="s">
+        <v>519</v>
+      </c>
+      <c r="G6" s="148" t="s">
+        <v>741</v>
+      </c>
+      <c r="H6" s="124"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="124"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="124"/>
+      <c r="M6" s="124"/>
+      <c r="N6" s="124" t="s">
+        <v>746</v>
+      </c>
+      <c r="O6" s="124">
+        <v>70</v>
+      </c>
+      <c r="P6" s="124">
+        <v>115.5</v>
+      </c>
+      <c r="Q6" s="124">
+        <v>115.5</v>
+      </c>
+      <c r="R6" s="124">
+        <v>49</v>
+      </c>
+      <c r="S6" s="149">
+        <f>SUM(O6:R6)</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="13.8">
+      <c r="A7" s="94">
+        <v>7</v>
+      </c>
+      <c r="B7" s="96" t="s">
+        <v>507</v>
+      </c>
+      <c r="C7" s="96" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="96" t="s">
+        <v>508</v>
+      </c>
+      <c r="E7" s="147" t="s">
+        <v>509</v>
+      </c>
+      <c r="F7" s="98" t="s">
+        <v>511</v>
+      </c>
+      <c r="G7" s="148" t="s">
+        <v>748</v>
+      </c>
+      <c r="H7" s="144"/>
+      <c r="I7" s="144"/>
+      <c r="J7" s="144"/>
+      <c r="K7" s="144"/>
+      <c r="L7" s="144"/>
+      <c r="M7" s="144"/>
+      <c r="N7" s="144"/>
+      <c r="O7" s="144"/>
+      <c r="P7" s="144"/>
+      <c r="Q7" s="144"/>
+      <c r="R7" s="144"/>
+      <c r="S7" s="145"/>
+    </row>
+    <row r="8" spans="1:19" ht="13.8">
+      <c r="A8" s="99">
+        <v>8</v>
+      </c>
+      <c r="B8" s="152" t="s">
+        <v>334</v>
+      </c>
+      <c r="C8" s="101" t="s">
+        <v>516</v>
+      </c>
+      <c r="D8" s="101" t="s">
         <v>520</v>
       </c>
-      <c r="E6" s="147" t="s">
+      <c r="E8" s="148" t="s">
         <v>509</v>
       </c>
-      <c r="F6" s="98" t="s">
-        <v>522</v>
-      </c>
-      <c r="G6" s="148" t="s">
-        <v>747</v>
-      </c>
-      <c r="H6" s="144"/>
-      <c r="I6" s="144"/>
-      <c r="J6" s="144"/>
-      <c r="K6" s="144"/>
-      <c r="L6" s="144"/>
-      <c r="M6" s="144"/>
-      <c r="N6" s="144"/>
-      <c r="O6" s="144"/>
-      <c r="P6" s="144"/>
-      <c r="Q6" s="144"/>
-      <c r="R6" s="144"/>
-      <c r="S6" s="145"/>
-    </row>
-    <row r="7" spans="1:19" ht="13.8">
-      <c r="A7" s="99">
-        <v>5</v>
-      </c>
-      <c r="B7" s="152" t="s">
-        <v>745</v>
-      </c>
-      <c r="C7" s="101" t="s">
+      <c r="F8" s="103" t="s">
+        <v>526</v>
+      </c>
+      <c r="G8" s="148" t="s">
+        <v>749</v>
+      </c>
+      <c r="H8" s="124"/>
+      <c r="I8" s="124"/>
+      <c r="J8" s="124"/>
+      <c r="K8" s="124"/>
+      <c r="L8" s="124"/>
+      <c r="M8" s="124"/>
+      <c r="N8" s="124"/>
+      <c r="O8" s="124"/>
+      <c r="P8" s="124"/>
+      <c r="Q8" s="124"/>
+      <c r="R8" s="124"/>
+      <c r="S8" s="149"/>
+    </row>
+    <row r="9" spans="1:19" ht="13.8">
+      <c r="A9" s="94">
+        <v>9</v>
+      </c>
+      <c r="B9" s="150" t="s">
+        <v>326</v>
+      </c>
+      <c r="C9" s="96" t="s">
         <v>516</v>
       </c>
-      <c r="D7" s="101" t="s">
-        <v>517</v>
-      </c>
-      <c r="E7" s="148" t="s">
+      <c r="D9" s="96" t="s">
+        <v>520</v>
+      </c>
+      <c r="E9" s="147" t="s">
         <v>509</v>
       </c>
-      <c r="F7" s="103" t="s">
-        <v>519</v>
-      </c>
-      <c r="G7" s="148" t="s">
-        <v>741</v>
-      </c>
-      <c r="H7" s="124"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="124"/>
-      <c r="M7" s="124"/>
-      <c r="N7" s="124" t="s">
-        <v>746</v>
-      </c>
-      <c r="O7" s="124">
-        <v>70</v>
-      </c>
-      <c r="P7" s="124">
-        <v>115.5</v>
-      </c>
-      <c r="Q7" s="124">
-        <v>115.5</v>
-      </c>
-      <c r="R7" s="124">
-        <v>49</v>
-      </c>
-      <c r="S7" s="149">
-        <f>SUM(O7:R7)</f>
-        <v>350</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="13.8">
-      <c r="A8" s="94">
-        <v>7</v>
-      </c>
-      <c r="B8" s="96" t="s">
-        <v>507</v>
-      </c>
-      <c r="C8" s="96" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="96" t="s">
-        <v>508</v>
-      </c>
-      <c r="E8" s="147" t="s">
-        <v>509</v>
-      </c>
-      <c r="F8" s="98" t="s">
-        <v>511</v>
-      </c>
-      <c r="G8" s="148" t="s">
-        <v>748</v>
-      </c>
-      <c r="H8" s="144"/>
-      <c r="I8" s="144"/>
-      <c r="J8" s="144"/>
-      <c r="K8" s="144"/>
-      <c r="L8" s="144"/>
-      <c r="M8" s="144"/>
-      <c r="N8" s="144"/>
-      <c r="O8" s="144"/>
-      <c r="P8" s="144"/>
-      <c r="Q8" s="144"/>
-      <c r="R8" s="144"/>
-      <c r="S8" s="145"/>
-    </row>
-    <row r="9" spans="1:19" ht="13.8">
-      <c r="A9" s="99">
-        <v>8</v>
-      </c>
-      <c r="B9" s="152" t="s">
-        <v>334</v>
-      </c>
-      <c r="C9" s="101" t="s">
-        <v>516</v>
-      </c>
-      <c r="D9" s="101" t="s">
-        <v>520</v>
-      </c>
-      <c r="E9" s="148" t="s">
-        <v>509</v>
-      </c>
-      <c r="F9" s="103" t="s">
-        <v>526</v>
+      <c r="F9" s="98" t="s">
+        <v>530</v>
       </c>
       <c r="G9" s="148" t="s">
         <v>749</v>
       </c>
-      <c r="H9" s="124"/>
-      <c r="I9" s="124"/>
-      <c r="J9" s="124"/>
-      <c r="K9" s="124"/>
-      <c r="L9" s="124"/>
-      <c r="M9" s="124"/>
-      <c r="N9" s="124"/>
-      <c r="O9" s="124"/>
-      <c r="P9" s="124"/>
-      <c r="Q9" s="124"/>
-      <c r="R9" s="124"/>
-      <c r="S9" s="149"/>
+      <c r="H9" s="144"/>
+      <c r="I9" s="144"/>
+      <c r="J9" s="144"/>
+      <c r="K9" s="144"/>
+      <c r="L9" s="144"/>
+      <c r="M9" s="144"/>
+      <c r="N9" s="144"/>
+      <c r="O9" s="144"/>
+      <c r="P9" s="144"/>
+      <c r="Q9" s="144"/>
+      <c r="R9" s="144"/>
+      <c r="S9" s="145"/>
     </row>
     <row r="10" spans="1:19" ht="13.8">
-      <c r="A10" s="94">
-        <v>9</v>
-      </c>
-      <c r="B10" s="150" t="s">
-        <v>326</v>
-      </c>
-      <c r="C10" s="96" t="s">
-        <v>516</v>
-      </c>
-      <c r="D10" s="96" t="s">
-        <v>520</v>
-      </c>
-      <c r="E10" s="147" t="s">
+      <c r="A10" s="99">
+        <v>10</v>
+      </c>
+      <c r="B10" s="101" t="s">
+        <v>538</v>
+      </c>
+      <c r="C10" s="101" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="101" t="s">
+        <v>539</v>
+      </c>
+      <c r="E10" s="148" t="s">
         <v>509</v>
       </c>
-      <c r="F10" s="98" t="s">
-        <v>530</v>
+      <c r="F10" s="103" t="s">
+        <v>541</v>
       </c>
       <c r="G10" s="148" t="s">
-        <v>749</v>
-      </c>
-      <c r="H10" s="144"/>
-      <c r="I10" s="144"/>
-      <c r="J10" s="144"/>
-      <c r="K10" s="144"/>
-      <c r="L10" s="144"/>
-      <c r="M10" s="144"/>
-      <c r="N10" s="144"/>
-      <c r="O10" s="144"/>
-      <c r="P10" s="144"/>
-      <c r="Q10" s="144"/>
-      <c r="R10" s="144"/>
-      <c r="S10" s="145"/>
+        <v>750</v>
+      </c>
+      <c r="H10" s="124"/>
+      <c r="I10" s="124"/>
+      <c r="J10" s="124"/>
+      <c r="K10" s="124"/>
+      <c r="L10" s="124"/>
+      <c r="M10" s="124"/>
+      <c r="N10" s="124"/>
+      <c r="O10" s="124"/>
+      <c r="P10" s="124"/>
+      <c r="Q10" s="124"/>
+      <c r="R10" s="124"/>
+      <c r="S10" s="149"/>
     </row>
     <row r="11" spans="1:19" ht="13.8">
-      <c r="A11" s="99">
-        <v>10</v>
-      </c>
-      <c r="B11" s="101" t="s">
-        <v>538</v>
-      </c>
-      <c r="C11" s="101" t="s">
+      <c r="A11" s="94">
+        <v>11</v>
+      </c>
+      <c r="B11" s="105" t="s">
+        <v>512</v>
+      </c>
+      <c r="C11" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="101" t="s">
-        <v>539</v>
+      <c r="D11" s="105" t="s">
+        <v>513</v>
       </c>
       <c r="E11" s="148" t="s">
         <v>509</v>
       </c>
-      <c r="F11" s="103" t="s">
-        <v>541</v>
+      <c r="F11" s="98" t="s">
+        <v>515</v>
       </c>
       <c r="G11" s="148" t="s">
-        <v>750</v>
-      </c>
-      <c r="H11" s="124"/>
-      <c r="I11" s="124"/>
-      <c r="J11" s="124"/>
-      <c r="K11" s="124"/>
-      <c r="L11" s="124"/>
-      <c r="M11" s="124"/>
-      <c r="N11" s="124"/>
-      <c r="O11" s="124"/>
-      <c r="P11" s="124"/>
-      <c r="Q11" s="124"/>
-      <c r="R11" s="124"/>
-      <c r="S11" s="149"/>
+        <v>751</v>
+      </c>
+      <c r="H11" s="144"/>
+      <c r="I11" s="144"/>
+      <c r="J11" s="144"/>
+      <c r="K11" s="144"/>
+      <c r="L11" s="144"/>
+      <c r="M11" s="144"/>
+      <c r="N11" s="144" t="s">
+        <v>752</v>
+      </c>
+      <c r="O11" s="144">
+        <v>30</v>
+      </c>
+      <c r="P11" s="144">
+        <v>50</v>
+      </c>
+      <c r="Q11" s="144">
+        <v>50</v>
+      </c>
+      <c r="R11" s="144">
+        <v>20</v>
+      </c>
+      <c r="S11" s="145">
+        <f>SUM(O11:R11)</f>
+        <v>150</v>
+      </c>
     </row>
     <row r="12" spans="1:19" ht="13.8">
-      <c r="A12" s="94">
-        <v>11</v>
-      </c>
-      <c r="B12" s="105" t="s">
-        <v>512</v>
-      </c>
-      <c r="C12" s="105" t="s">
+      <c r="A12" s="99">
+        <v>12</v>
+      </c>
+      <c r="B12" s="152" t="s">
+        <v>359</v>
+      </c>
+      <c r="C12" s="101" t="s">
+        <v>516</v>
+      </c>
+      <c r="D12" s="101" t="s">
+        <v>517</v>
+      </c>
+      <c r="E12" s="148" t="s">
+        <v>419</v>
+      </c>
+      <c r="F12" s="103" t="s">
+        <v>560</v>
+      </c>
+      <c r="G12" s="148" t="s">
+        <v>753</v>
+      </c>
+      <c r="H12" s="124"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="124"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="124"/>
+      <c r="M12" s="124"/>
+      <c r="N12" s="124"/>
+      <c r="O12" s="124"/>
+      <c r="P12" s="124"/>
+      <c r="Q12" s="124"/>
+      <c r="R12" s="124"/>
+      <c r="S12" s="149"/>
+    </row>
+    <row r="13" spans="1:19" ht="13.8">
+      <c r="A13" s="94">
+        <v>13</v>
+      </c>
+      <c r="B13" s="105" t="s">
+        <v>566</v>
+      </c>
+      <c r="C13" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="105" t="s">
-        <v>513</v>
-      </c>
-      <c r="E12" s="148" t="s">
-        <v>509</v>
-      </c>
-      <c r="F12" s="98" t="s">
-        <v>515</v>
-      </c>
-      <c r="G12" s="148" t="s">
-        <v>751</v>
-      </c>
-      <c r="H12" s="144"/>
-      <c r="I12" s="144"/>
-      <c r="J12" s="144"/>
-      <c r="K12" s="144"/>
-      <c r="L12" s="144"/>
-      <c r="M12" s="144"/>
-      <c r="N12" s="144" t="s">
-        <v>752</v>
-      </c>
-      <c r="O12" s="144">
-        <v>30</v>
-      </c>
-      <c r="P12" s="144">
-        <v>50</v>
-      </c>
-      <c r="Q12" s="144">
-        <v>50</v>
-      </c>
-      <c r="R12" s="144">
-        <v>20</v>
-      </c>
-      <c r="S12" s="145">
-        <f>SUM(O12:R12)</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="13.8">
-      <c r="A13" s="99">
-        <v>12</v>
-      </c>
-      <c r="B13" s="152" t="s">
-        <v>359</v>
-      </c>
-      <c r="C13" s="101" t="s">
-        <v>516</v>
-      </c>
-      <c r="D13" s="101" t="s">
-        <v>517</v>
+      <c r="D13" s="105" t="s">
+        <v>567</v>
       </c>
       <c r="E13" s="148" t="s">
         <v>419</v>
       </c>
-      <c r="F13" s="103" t="s">
-        <v>560</v>
+      <c r="F13" s="98" t="s">
+        <v>569</v>
       </c>
       <c r="G13" s="148" t="s">
-        <v>753</v>
-      </c>
-      <c r="H13" s="124"/>
-      <c r="I13" s="124"/>
-      <c r="J13" s="124"/>
-      <c r="K13" s="124"/>
-      <c r="L13" s="124"/>
-      <c r="M13" s="124"/>
-      <c r="N13" s="124"/>
-      <c r="O13" s="124"/>
-      <c r="P13" s="124"/>
-      <c r="Q13" s="124"/>
-      <c r="R13" s="124"/>
-      <c r="S13" s="149"/>
+        <v>754</v>
+      </c>
+      <c r="H13" s="144"/>
+      <c r="I13" s="144"/>
+      <c r="J13" s="144"/>
+      <c r="K13" s="144"/>
+      <c r="L13" s="144"/>
+      <c r="M13" s="144"/>
+      <c r="N13" s="144"/>
+      <c r="O13" s="144"/>
+      <c r="P13" s="144"/>
+      <c r="Q13" s="144"/>
+      <c r="R13" s="144"/>
+      <c r="S13" s="145"/>
     </row>
     <row r="14" spans="1:19" ht="13.8">
-      <c r="A14" s="94">
-        <v>13</v>
-      </c>
-      <c r="B14" s="105" t="s">
-        <v>566</v>
-      </c>
-      <c r="C14" s="105" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="105" t="s">
-        <v>567</v>
+      <c r="A14" s="99">
+        <v>14</v>
+      </c>
+      <c r="B14" s="101" t="s">
+        <v>553</v>
+      </c>
+      <c r="C14" s="101" t="s">
+        <v>554</v>
+      </c>
+      <c r="D14" s="101" t="s">
+        <v>513</v>
       </c>
       <c r="E14" s="148" t="s">
         <v>419</v>
       </c>
-      <c r="F14" s="98" t="s">
-        <v>569</v>
+      <c r="F14" s="103" t="s">
+        <v>556</v>
       </c>
       <c r="G14" s="148" t="s">
-        <v>754</v>
-      </c>
-      <c r="H14" s="144"/>
-      <c r="I14" s="144"/>
-      <c r="J14" s="144"/>
-      <c r="K14" s="144"/>
-      <c r="L14" s="144"/>
-      <c r="M14" s="144"/>
-      <c r="N14" s="144"/>
-      <c r="O14" s="144"/>
-      <c r="P14" s="144"/>
-      <c r="Q14" s="144"/>
-      <c r="R14" s="144"/>
-      <c r="S14" s="145"/>
+        <v>755</v>
+      </c>
+      <c r="H14" s="124"/>
+      <c r="I14" s="124"/>
+      <c r="J14" s="124"/>
+      <c r="K14" s="124"/>
+      <c r="L14" s="124"/>
+      <c r="M14" s="124"/>
+      <c r="N14" s="124"/>
+      <c r="O14" s="124"/>
+      <c r="P14" s="124"/>
+      <c r="Q14" s="124"/>
+      <c r="R14" s="124"/>
+      <c r="S14" s="149"/>
     </row>
     <row r="15" spans="1:19" ht="13.8">
-      <c r="A15" s="99">
-        <v>14</v>
-      </c>
-      <c r="B15" s="101" t="s">
-        <v>553</v>
-      </c>
-      <c r="C15" s="101" t="s">
-        <v>554</v>
-      </c>
-      <c r="D15" s="101" t="s">
-        <v>513</v>
+      <c r="A15" s="94">
+        <v>15</v>
+      </c>
+      <c r="B15" s="151" t="s">
+        <v>367</v>
+      </c>
+      <c r="C15" s="105" t="s">
+        <v>516</v>
+      </c>
+      <c r="D15" s="105" t="s">
+        <v>517</v>
       </c>
       <c r="E15" s="148" t="s">
         <v>419</v>
       </c>
-      <c r="F15" s="103" t="s">
-        <v>556</v>
+      <c r="F15" s="98" t="s">
+        <v>562</v>
       </c>
       <c r="G15" s="148" t="s">
-        <v>755</v>
-      </c>
-      <c r="H15" s="124"/>
-      <c r="I15" s="124"/>
-      <c r="J15" s="124"/>
-      <c r="K15" s="124"/>
-      <c r="L15" s="124"/>
-      <c r="M15" s="124"/>
-      <c r="N15" s="124"/>
-      <c r="O15" s="124"/>
-      <c r="P15" s="124"/>
-      <c r="Q15" s="124"/>
-      <c r="R15" s="124"/>
-      <c r="S15" s="149"/>
+        <v>756</v>
+      </c>
+      <c r="H15" s="144"/>
+      <c r="I15" s="144"/>
+      <c r="J15" s="144"/>
+      <c r="K15" s="144"/>
+      <c r="L15" s="144"/>
+      <c r="M15" s="144"/>
+      <c r="N15" s="144"/>
+      <c r="O15" s="144"/>
+      <c r="P15" s="144"/>
+      <c r="Q15" s="144"/>
+      <c r="R15" s="144"/>
+      <c r="S15" s="145"/>
     </row>
     <row r="16" spans="1:19" ht="13.8">
-      <c r="A16" s="94">
-        <v>15</v>
-      </c>
-      <c r="B16" s="151" t="s">
-        <v>367</v>
-      </c>
-      <c r="C16" s="105" t="s">
+      <c r="A16" s="99">
+        <v>17</v>
+      </c>
+      <c r="B16" s="152" t="s">
+        <v>363</v>
+      </c>
+      <c r="C16" s="101" t="s">
         <v>516</v>
       </c>
-      <c r="D16" s="105" t="s">
+      <c r="D16" s="101" t="s">
         <v>517</v>
       </c>
       <c r="E16" s="148" t="s">
         <v>419</v>
       </c>
-      <c r="F16" s="98" t="s">
-        <v>562</v>
+      <c r="F16" s="103" t="s">
+        <v>558</v>
       </c>
       <c r="G16" s="148" t="s">
         <v>756</v>
       </c>
-      <c r="H16" s="144"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="144"/>
-      <c r="K16" s="144"/>
-      <c r="L16" s="144"/>
-      <c r="M16" s="144"/>
-      <c r="N16" s="144"/>
-      <c r="O16" s="144"/>
-      <c r="P16" s="144"/>
-      <c r="Q16" s="144"/>
-      <c r="R16" s="144"/>
-      <c r="S16" s="145"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="124"/>
+      <c r="J16" s="124"/>
+      <c r="K16" s="124"/>
+      <c r="L16" s="124"/>
+      <c r="M16" s="124"/>
+      <c r="N16" s="124"/>
+      <c r="O16" s="124"/>
+      <c r="P16" s="124"/>
+      <c r="Q16" s="124"/>
+      <c r="R16" s="124"/>
+      <c r="S16" s="149"/>
     </row>
     <row r="17" spans="1:19" ht="13.8">
-      <c r="A17" s="99">
-        <v>17</v>
-      </c>
-      <c r="B17" s="152" t="s">
-        <v>363</v>
-      </c>
-      <c r="C17" s="101" t="s">
-        <v>516</v>
-      </c>
-      <c r="D17" s="101" t="s">
-        <v>517</v>
+      <c r="A17" s="94">
+        <v>18</v>
+      </c>
+      <c r="B17" s="105" t="s">
+        <v>549</v>
+      </c>
+      <c r="C17" s="105" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="105" t="s">
+        <v>550</v>
       </c>
       <c r="E17" s="148" t="s">
         <v>419</v>
       </c>
-      <c r="F17" s="103" t="s">
-        <v>558</v>
+      <c r="F17" s="98" t="s">
+        <v>552</v>
       </c>
       <c r="G17" s="148" t="s">
         <v>756</v>
       </c>
-      <c r="H17" s="124"/>
-      <c r="I17" s="124"/>
-      <c r="J17" s="124"/>
-      <c r="K17" s="124"/>
-      <c r="L17" s="124"/>
-      <c r="M17" s="124"/>
-      <c r="N17" s="124"/>
-      <c r="O17" s="124"/>
-      <c r="P17" s="124"/>
-      <c r="Q17" s="124"/>
-      <c r="R17" s="124"/>
-      <c r="S17" s="149"/>
+      <c r="H17" s="144"/>
+      <c r="I17" s="144"/>
+      <c r="J17" s="144"/>
+      <c r="K17" s="144"/>
+      <c r="L17" s="144"/>
+      <c r="M17" s="144"/>
+      <c r="N17" s="144"/>
+      <c r="O17" s="144"/>
+      <c r="P17" s="144"/>
+      <c r="Q17" s="144"/>
+      <c r="R17" s="144"/>
+      <c r="S17" s="145"/>
     </row>
     <row r="18" spans="1:19" ht="13.8">
-      <c r="A18" s="94">
-        <v>18</v>
-      </c>
-      <c r="B18" s="105" t="s">
-        <v>549</v>
-      </c>
-      <c r="C18" s="105" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="105" t="s">
-        <v>550</v>
+      <c r="A18" s="99">
+        <v>19</v>
+      </c>
+      <c r="B18" s="101" t="s">
+        <v>545</v>
+      </c>
+      <c r="C18" s="101" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="101" t="s">
+        <v>546</v>
       </c>
       <c r="E18" s="148" t="s">
         <v>419</v>
       </c>
-      <c r="F18" s="98" t="s">
-        <v>552</v>
+      <c r="F18" s="110" t="s">
+        <v>548</v>
       </c>
       <c r="G18" s="148" t="s">
-        <v>756</v>
-      </c>
-      <c r="H18" s="144"/>
-      <c r="I18" s="144"/>
-      <c r="J18" s="144"/>
-      <c r="K18" s="144"/>
-      <c r="L18" s="144"/>
-      <c r="M18" s="144"/>
-      <c r="N18" s="144"/>
-      <c r="O18" s="144"/>
-      <c r="P18" s="144"/>
-      <c r="Q18" s="144"/>
-      <c r="R18" s="144"/>
-      <c r="S18" s="145"/>
-    </row>
-    <row r="19" spans="1:19" ht="13.8">
-      <c r="A19" s="99">
-        <v>19</v>
-      </c>
-      <c r="B19" s="101" t="s">
-        <v>545</v>
-      </c>
-      <c r="C19" s="101" t="s">
+        <v>757</v>
+      </c>
+      <c r="H18" s="124"/>
+      <c r="I18" s="124"/>
+      <c r="J18" s="124"/>
+      <c r="K18" s="124"/>
+      <c r="L18" s="124"/>
+      <c r="M18" s="124"/>
+      <c r="N18" s="124"/>
+      <c r="O18" s="124"/>
+      <c r="P18" s="124"/>
+      <c r="Q18" s="124"/>
+      <c r="R18" s="124"/>
+      <c r="S18" s="149"/>
+    </row>
+    <row r="19" spans="1:19" ht="14.4">
+      <c r="A19" s="94">
+        <v>20</v>
+      </c>
+      <c r="B19" s="128" t="s">
+        <v>583</v>
+      </c>
+      <c r="C19" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="101" t="s">
-        <v>546</v>
+      <c r="D19" s="105" t="s">
+        <v>584</v>
       </c>
       <c r="E19" s="148" t="s">
-        <v>419</v>
-      </c>
-      <c r="F19" s="110" t="s">
-        <v>548</v>
-      </c>
-      <c r="G19" s="148" t="s">
-        <v>757</v>
-      </c>
-      <c r="H19" s="124"/>
-      <c r="I19" s="124"/>
-      <c r="J19" s="124"/>
-      <c r="K19" s="124"/>
-      <c r="L19" s="124"/>
-      <c r="M19" s="124"/>
-      <c r="N19" s="124"/>
-      <c r="O19" s="124"/>
-      <c r="P19" s="124"/>
-      <c r="Q19" s="124"/>
-      <c r="R19" s="124"/>
-      <c r="S19" s="149"/>
-    </row>
-    <row r="20" spans="1:19" ht="14.4">
-      <c r="A20" s="94">
-        <v>20</v>
-      </c>
-      <c r="B20" s="128" t="s">
-        <v>583</v>
-      </c>
-      <c r="C20" s="105" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="105" t="s">
-        <v>584</v>
+        <v>570</v>
+      </c>
+      <c r="F19" s="98" t="s">
+        <v>586</v>
+      </c>
+      <c r="G19" s="154" t="s">
+        <v>758</v>
+      </c>
+      <c r="H19" s="157"/>
+      <c r="I19" s="157"/>
+      <c r="J19" s="157"/>
+      <c r="K19" s="157"/>
+      <c r="L19" s="157"/>
+      <c r="M19" s="157"/>
+      <c r="N19" s="157"/>
+      <c r="O19" s="157"/>
+      <c r="P19" s="157"/>
+      <c r="Q19" s="157"/>
+      <c r="R19" s="157"/>
+      <c r="S19" s="158"/>
+    </row>
+    <row r="20" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A20" s="99">
+        <v>21</v>
+      </c>
+      <c r="B20" s="173" t="s">
+        <v>338</v>
+      </c>
+      <c r="C20" s="101" t="s">
+        <v>516</v>
+      </c>
+      <c r="D20" s="101" t="s">
+        <v>520</v>
       </c>
       <c r="E20" s="148" t="s">
         <v>570</v>
       </c>
-      <c r="F20" s="98" t="s">
-        <v>586</v>
+      <c r="F20" s="110" t="s">
+        <v>576</v>
       </c>
       <c r="G20" s="154" t="s">
-        <v>758</v>
-      </c>
-      <c r="H20" s="157"/>
-      <c r="I20" s="157"/>
-      <c r="J20" s="157"/>
-      <c r="K20" s="157"/>
-      <c r="L20" s="157"/>
-      <c r="M20" s="157"/>
-      <c r="N20" s="157"/>
-      <c r="O20" s="157"/>
-      <c r="P20" s="157"/>
-      <c r="Q20" s="157"/>
-      <c r="R20" s="157"/>
-      <c r="S20" s="158"/>
+        <v>759</v>
+      </c>
+      <c r="H20" s="155"/>
+      <c r="I20" s="155"/>
+      <c r="J20" s="155"/>
+      <c r="K20" s="155"/>
+      <c r="L20" s="155"/>
+      <c r="M20" s="155"/>
+      <c r="N20" s="155"/>
+      <c r="O20" s="155"/>
+      <c r="P20" s="155"/>
+      <c r="Q20" s="155"/>
+      <c r="R20" s="155"/>
+      <c r="S20" s="156"/>
     </row>
     <row r="21" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A21" s="99">
-        <v>21</v>
-      </c>
-      <c r="B21" s="173" t="s">
-        <v>338</v>
-      </c>
-      <c r="C21" s="101" t="s">
+      <c r="A21" s="94">
+        <v>22</v>
+      </c>
+      <c r="B21" s="151" t="s">
+        <v>289</v>
+      </c>
+      <c r="C21" s="105" t="s">
         <v>516</v>
       </c>
-      <c r="D21" s="101" t="s">
+      <c r="D21" s="105" t="s">
         <v>520</v>
       </c>
       <c r="E21" s="148" t="s">
         <v>570</v>
       </c>
-      <c r="F21" s="110" t="s">
-        <v>576</v>
+      <c r="F21" s="98" t="s">
+        <v>572</v>
       </c>
       <c r="G21" s="154" t="s">
-        <v>759</v>
-      </c>
-      <c r="H21" s="155"/>
-      <c r="I21" s="155"/>
-      <c r="J21" s="155"/>
-      <c r="K21" s="155"/>
-      <c r="L21" s="155"/>
-      <c r="M21" s="155"/>
-      <c r="N21" s="155"/>
-      <c r="O21" s="155"/>
-      <c r="P21" s="155"/>
-      <c r="Q21" s="155"/>
-      <c r="R21" s="155"/>
-      <c r="S21" s="156"/>
+        <v>760</v>
+      </c>
+      <c r="H21" s="157"/>
+      <c r="I21" s="157"/>
+      <c r="J21" s="157"/>
+      <c r="K21" s="157"/>
+      <c r="L21" s="157"/>
+      <c r="M21" s="157"/>
+      <c r="N21" s="157"/>
+      <c r="O21" s="157"/>
+      <c r="P21" s="157"/>
+      <c r="Q21" s="157"/>
+      <c r="R21" s="157"/>
+      <c r="S21" s="158"/>
     </row>
     <row r="22" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A22" s="94">
-        <v>22</v>
-      </c>
-      <c r="B22" s="151" t="s">
-        <v>289</v>
-      </c>
-      <c r="C22" s="105" t="s">
+      <c r="A22" s="99">
+        <v>23</v>
+      </c>
+      <c r="B22" s="152" t="s">
+        <v>311</v>
+      </c>
+      <c r="C22" s="101" t="s">
         <v>516</v>
       </c>
-      <c r="D22" s="105" t="s">
+      <c r="D22" s="101" t="s">
         <v>520</v>
       </c>
       <c r="E22" s="148" t="s">
         <v>570</v>
       </c>
-      <c r="F22" s="98" t="s">
-        <v>572</v>
+      <c r="F22" s="103" t="s">
+        <v>578</v>
       </c>
       <c r="G22" s="154" t="s">
-        <v>760</v>
-      </c>
-      <c r="H22" s="157"/>
-      <c r="I22" s="157"/>
-      <c r="J22" s="157"/>
-      <c r="K22" s="157"/>
-      <c r="L22" s="157"/>
-      <c r="M22" s="157"/>
-      <c r="N22" s="157"/>
-      <c r="O22" s="157"/>
-      <c r="P22" s="157"/>
-      <c r="Q22" s="157"/>
-      <c r="R22" s="157"/>
-      <c r="S22" s="158"/>
+        <v>761</v>
+      </c>
+      <c r="H22" s="155"/>
+      <c r="I22" s="155"/>
+      <c r="J22" s="155"/>
+      <c r="K22" s="155"/>
+      <c r="L22" s="155"/>
+      <c r="M22" s="155"/>
+      <c r="N22" s="155"/>
+      <c r="O22" s="155"/>
+      <c r="P22" s="155"/>
+      <c r="Q22" s="155"/>
+      <c r="R22" s="155"/>
+      <c r="S22" s="156"/>
     </row>
     <row r="23" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A23" s="99">
-        <v>23</v>
-      </c>
-      <c r="B23" s="152" t="s">
-        <v>311</v>
-      </c>
-      <c r="C23" s="101" t="s">
+      <c r="A23" s="94">
+        <v>24</v>
+      </c>
+      <c r="B23" s="151" t="s">
+        <v>295</v>
+      </c>
+      <c r="C23" s="105" t="s">
         <v>516</v>
       </c>
-      <c r="D23" s="101" t="s">
+      <c r="D23" s="105" t="s">
         <v>520</v>
       </c>
       <c r="E23" s="148" t="s">
         <v>570</v>
       </c>
-      <c r="F23" s="103" t="s">
-        <v>578</v>
+      <c r="F23" s="98" t="s">
+        <v>574</v>
       </c>
       <c r="G23" s="154" t="s">
-        <v>761</v>
-      </c>
-      <c r="H23" s="155"/>
-      <c r="I23" s="155"/>
-      <c r="J23" s="155"/>
-      <c r="K23" s="155"/>
-      <c r="L23" s="155"/>
-      <c r="M23" s="155"/>
-      <c r="N23" s="155"/>
-      <c r="O23" s="155"/>
-      <c r="P23" s="155"/>
-      <c r="Q23" s="155"/>
-      <c r="R23" s="155"/>
-      <c r="S23" s="156"/>
+        <v>762</v>
+      </c>
+      <c r="H23" s="157"/>
+      <c r="I23" s="157"/>
+      <c r="J23" s="157"/>
+      <c r="K23" s="157"/>
+      <c r="L23" s="157"/>
+      <c r="M23" s="157"/>
+      <c r="N23" s="157"/>
+      <c r="O23" s="157"/>
+      <c r="P23" s="157"/>
+      <c r="Q23" s="157"/>
+      <c r="R23" s="157"/>
+      <c r="S23" s="158"/>
     </row>
     <row r="24" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A24" s="94">
-        <v>24</v>
-      </c>
-      <c r="B24" s="151" t="s">
-        <v>295</v>
-      </c>
-      <c r="C24" s="105" t="s">
-        <v>516</v>
-      </c>
-      <c r="D24" s="105" t="s">
-        <v>520</v>
+      <c r="A24" s="99">
+        <v>25</v>
+      </c>
+      <c r="B24" s="101" t="s">
+        <v>595</v>
+      </c>
+      <c r="C24" s="101" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="101" t="s">
+        <v>592</v>
       </c>
       <c r="E24" s="148" t="s">
-        <v>570</v>
-      </c>
-      <c r="F24" s="98" t="s">
-        <v>574</v>
-      </c>
-      <c r="G24" s="154" t="s">
-        <v>762</v>
-      </c>
-      <c r="H24" s="157"/>
-      <c r="I24" s="157"/>
-      <c r="J24" s="157"/>
-      <c r="K24" s="157"/>
-      <c r="L24" s="157"/>
-      <c r="M24" s="157"/>
-      <c r="N24" s="157"/>
-      <c r="O24" s="157"/>
-      <c r="P24" s="157"/>
-      <c r="Q24" s="157"/>
-      <c r="R24" s="157"/>
-      <c r="S24" s="158"/>
-    </row>
-    <row r="25" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A25" s="99">
-        <v>25</v>
-      </c>
-      <c r="B25" s="101" t="s">
-        <v>595</v>
-      </c>
-      <c r="C25" s="101" t="s">
+        <v>411</v>
+      </c>
+      <c r="F24" s="103" t="s">
+        <v>597</v>
+      </c>
+      <c r="G24" s="148" t="s">
+        <v>763</v>
+      </c>
+      <c r="H24" s="124"/>
+      <c r="I24" s="124"/>
+      <c r="J24" s="124"/>
+      <c r="K24" s="124"/>
+      <c r="L24" s="124"/>
+      <c r="M24" s="124"/>
+      <c r="N24" s="124"/>
+      <c r="O24" s="124"/>
+      <c r="P24" s="124"/>
+      <c r="Q24" s="124"/>
+      <c r="R24" s="124"/>
+      <c r="S24" s="149"/>
+    </row>
+    <row r="25" spans="1:19" ht="13.8">
+      <c r="A25" s="94">
+        <v>26</v>
+      </c>
+      <c r="B25" s="105" t="s">
+        <v>591</v>
+      </c>
+      <c r="C25" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="101" t="s">
+      <c r="D25" s="105" t="s">
         <v>592</v>
       </c>
       <c r="E25" s="148" t="s">
         <v>411</v>
       </c>
-      <c r="F25" s="103" t="s">
-        <v>597</v>
+      <c r="F25" s="118" t="s">
+        <v>594</v>
       </c>
       <c r="G25" s="148" t="s">
-        <v>763</v>
-      </c>
-      <c r="H25" s="124"/>
-      <c r="I25" s="124"/>
-      <c r="J25" s="124"/>
-      <c r="K25" s="124"/>
-      <c r="L25" s="124"/>
-      <c r="M25" s="124"/>
-      <c r="N25" s="124"/>
-      <c r="O25" s="124"/>
-      <c r="P25" s="124"/>
-      <c r="Q25" s="124"/>
-      <c r="R25" s="124"/>
-      <c r="S25" s="149"/>
+        <v>764</v>
+      </c>
+      <c r="H25" s="144"/>
+      <c r="I25" s="144"/>
+      <c r="J25" s="144"/>
+      <c r="K25" s="144"/>
+      <c r="L25" s="144"/>
+      <c r="M25" s="144"/>
+      <c r="N25" s="144"/>
+      <c r="O25" s="144"/>
+      <c r="P25" s="144"/>
+      <c r="Q25" s="144"/>
+      <c r="R25" s="144"/>
+      <c r="S25" s="145"/>
     </row>
     <row r="26" spans="1:19" ht="13.8">
-      <c r="A26" s="94">
-        <v>26</v>
-      </c>
-      <c r="B26" s="105" t="s">
-        <v>591</v>
-      </c>
-      <c r="C26" s="105" t="s">
+      <c r="A26" s="99">
         <v>27</v>
       </c>
-      <c r="D26" s="105" t="s">
-        <v>592</v>
+      <c r="B26" s="152" t="s">
+        <v>410</v>
+      </c>
+      <c r="C26" s="101" t="s">
+        <v>516</v>
+      </c>
+      <c r="D26" s="101">
+        <v>0</v>
       </c>
       <c r="E26" s="148" t="s">
         <v>411</v>
       </c>
-      <c r="F26" s="118" t="s">
-        <v>594</v>
+      <c r="F26" s="110">
+        <v>77789056044</v>
       </c>
       <c r="G26" s="148" t="s">
-        <v>764</v>
-      </c>
-      <c r="H26" s="144"/>
-      <c r="I26" s="144"/>
-      <c r="J26" s="144"/>
-      <c r="K26" s="144"/>
-      <c r="L26" s="144"/>
-      <c r="M26" s="144"/>
-      <c r="N26" s="144"/>
-      <c r="O26" s="144"/>
-      <c r="P26" s="144"/>
-      <c r="Q26" s="144"/>
-      <c r="R26" s="144"/>
-      <c r="S26" s="145"/>
+        <v>765</v>
+      </c>
+      <c r="H26" s="124"/>
+      <c r="I26" s="124"/>
+      <c r="J26" s="124"/>
+      <c r="K26" s="124"/>
+      <c r="L26" s="124"/>
+      <c r="M26" s="124"/>
+      <c r="N26" s="124"/>
+      <c r="O26" s="124"/>
+      <c r="P26" s="124"/>
+      <c r="Q26" s="124"/>
+      <c r="R26" s="124"/>
+      <c r="S26" s="149"/>
     </row>
     <row r="27" spans="1:19" ht="13.8">
-      <c r="A27" s="99">
+      <c r="A27" s="94">
+        <v>28</v>
+      </c>
+      <c r="B27" s="105" t="s">
+        <v>588</v>
+      </c>
+      <c r="C27" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="152" t="s">
-        <v>410</v>
-      </c>
-      <c r="C27" s="101" t="s">
-        <v>516</v>
-      </c>
-      <c r="D27" s="101">
-        <v>0</v>
+      <c r="D27" s="105" t="s">
+        <v>513</v>
       </c>
       <c r="E27" s="148" t="s">
         <v>411</v>
       </c>
-      <c r="F27" s="110">
-        <v>77789056044</v>
+      <c r="F27" s="98" t="s">
+        <v>590</v>
       </c>
       <c r="G27" s="148" t="s">
-        <v>765</v>
-      </c>
-      <c r="H27" s="124"/>
-      <c r="I27" s="124"/>
-      <c r="J27" s="124"/>
-      <c r="K27" s="124"/>
-      <c r="L27" s="124"/>
-      <c r="M27" s="124"/>
-      <c r="N27" s="124"/>
-      <c r="O27" s="124"/>
-      <c r="P27" s="124"/>
-      <c r="Q27" s="124"/>
-      <c r="R27" s="124"/>
-      <c r="S27" s="149"/>
-    </row>
-    <row r="28" spans="1:19" ht="13.8">
-      <c r="A28" s="94">
-        <v>28</v>
-      </c>
-      <c r="B28" s="105" t="s">
-        <v>588</v>
-      </c>
-      <c r="C28" s="105" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="105" t="s">
-        <v>513</v>
+        <v>766</v>
+      </c>
+      <c r="H27" s="144"/>
+      <c r="I27" s="144"/>
+      <c r="J27" s="144"/>
+      <c r="K27" s="144"/>
+      <c r="L27" s="144"/>
+      <c r="M27" s="144"/>
+      <c r="N27" s="144"/>
+      <c r="O27" s="144"/>
+      <c r="P27" s="144"/>
+      <c r="Q27" s="144"/>
+      <c r="R27" s="144"/>
+      <c r="S27" s="145"/>
+    </row>
+    <row r="28" spans="1:19" ht="14.4">
+      <c r="A28" s="99">
+        <v>29</v>
+      </c>
+      <c r="B28" s="101" t="s">
+        <v>767</v>
+      </c>
+      <c r="C28" s="101" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="101" t="s">
+        <v>603</v>
       </c>
       <c r="E28" s="148" t="s">
-        <v>411</v>
-      </c>
-      <c r="F28" s="98" t="s">
-        <v>590</v>
-      </c>
-      <c r="G28" s="148" t="s">
-        <v>766</v>
-      </c>
-      <c r="H28" s="144"/>
-      <c r="I28" s="144"/>
-      <c r="J28" s="144"/>
-      <c r="K28" s="144"/>
-      <c r="L28" s="144"/>
-      <c r="M28" s="144"/>
-      <c r="N28" s="144"/>
-      <c r="O28" s="144"/>
-      <c r="P28" s="144"/>
-      <c r="Q28" s="144"/>
-      <c r="R28" s="144"/>
-      <c r="S28" s="145"/>
-    </row>
-    <row r="29" spans="1:19" ht="14.4">
-      <c r="A29" s="99">
-        <v>29</v>
-      </c>
-      <c r="B29" s="101" t="s">
-        <v>767</v>
-      </c>
-      <c r="C29" s="101" t="s">
+        <v>609</v>
+      </c>
+      <c r="F28" s="103" t="s">
+        <v>608</v>
+      </c>
+      <c r="G28" s="154" t="s">
+        <v>768</v>
+      </c>
+      <c r="H28" s="155"/>
+      <c r="I28" s="155"/>
+      <c r="J28" s="155"/>
+      <c r="K28" s="155"/>
+      <c r="L28" s="155"/>
+      <c r="M28" s="155"/>
+      <c r="N28" s="155"/>
+      <c r="O28" s="155"/>
+      <c r="P28" s="155"/>
+      <c r="Q28" s="155"/>
+      <c r="R28" s="155"/>
+      <c r="S28" s="156"/>
+    </row>
+    <row r="29" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A29" s="94">
+        <v>30</v>
+      </c>
+      <c r="B29" s="105" t="s">
+        <v>602</v>
+      </c>
+      <c r="C29" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="101" t="s">
+      <c r="D29" s="105" t="s">
         <v>603</v>
       </c>
       <c r="E29" s="148" t="s">
         <v>609</v>
       </c>
-      <c r="F29" s="103" t="s">
-        <v>608</v>
-      </c>
-      <c r="G29" s="154" t="s">
-        <v>768</v>
-      </c>
-      <c r="H29" s="155"/>
-      <c r="I29" s="155"/>
-      <c r="J29" s="155"/>
-      <c r="K29" s="155"/>
-      <c r="L29" s="155"/>
-      <c r="M29" s="155"/>
-      <c r="N29" s="155"/>
-      <c r="O29" s="155"/>
-      <c r="P29" s="155"/>
-      <c r="Q29" s="155"/>
-      <c r="R29" s="155"/>
-      <c r="S29" s="156"/>
-    </row>
-    <row r="30" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A30" s="94">
-        <v>30</v>
-      </c>
-      <c r="B30" s="105" t="s">
-        <v>602</v>
-      </c>
-      <c r="C30" s="105" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="105" t="s">
-        <v>603</v>
+      <c r="F29" s="98" t="s">
+        <v>605</v>
+      </c>
+      <c r="G29" s="148" t="s">
+        <v>834</v>
+      </c>
+      <c r="H29" s="144"/>
+      <c r="I29" s="144"/>
+      <c r="J29" s="144"/>
+      <c r="K29" s="144"/>
+      <c r="L29" s="144"/>
+      <c r="M29" s="144"/>
+      <c r="N29" s="144"/>
+      <c r="O29" s="144"/>
+      <c r="P29" s="144"/>
+      <c r="Q29" s="144"/>
+      <c r="R29" s="144"/>
+      <c r="S29" s="145"/>
+    </row>
+    <row r="30" spans="1:19" ht="14.4">
+      <c r="A30" s="99">
+        <v>31</v>
+      </c>
+      <c r="B30" s="101" t="s">
+        <v>598</v>
+      </c>
+      <c r="C30" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="101" t="s">
+        <v>599</v>
       </c>
       <c r="E30" s="148" t="s">
         <v>609</v>
       </c>
-      <c r="F30" s="98" t="s">
-        <v>605</v>
-      </c>
-      <c r="G30" s="148" t="s">
-        <v>834</v>
-      </c>
-      <c r="H30" s="144"/>
-      <c r="I30" s="144"/>
-      <c r="J30" s="144"/>
-      <c r="K30" s="144"/>
-      <c r="L30" s="144"/>
-      <c r="M30" s="144"/>
-      <c r="N30" s="144"/>
-      <c r="O30" s="144"/>
-      <c r="P30" s="144"/>
-      <c r="Q30" s="144"/>
-      <c r="R30" s="144"/>
-      <c r="S30" s="145"/>
-    </row>
-    <row r="31" spans="1:19" ht="14.4">
-      <c r="A31" s="99">
-        <v>31</v>
-      </c>
-      <c r="B31" s="101" t="s">
-        <v>598</v>
-      </c>
-      <c r="C31" s="101" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="101" t="s">
-        <v>599</v>
-      </c>
+      <c r="F30" s="103" t="s">
+        <v>601</v>
+      </c>
+      <c r="G30" s="159" t="s">
+        <v>824</v>
+      </c>
+      <c r="H30" s="174"/>
+      <c r="I30" s="174"/>
+      <c r="J30" s="174"/>
+      <c r="K30" s="174"/>
+      <c r="L30" s="174"/>
+      <c r="M30" s="174"/>
+      <c r="N30" s="174"/>
+      <c r="O30" s="174"/>
+      <c r="P30" s="174"/>
+      <c r="Q30" s="174"/>
+      <c r="R30" s="174"/>
+      <c r="S30" s="175"/>
+    </row>
+    <row r="31" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A31" s="94">
+        <v>33</v>
+      </c>
+      <c r="B31" s="151" t="s">
+        <v>611</v>
+      </c>
+      <c r="C31" s="105" t="s">
+        <v>516</v>
+      </c>
+      <c r="D31" s="105"/>
       <c r="E31" s="148" t="s">
         <v>609</v>
       </c>
-      <c r="F31" s="103" t="s">
-        <v>601</v>
+      <c r="F31" s="98" t="s">
+        <v>613</v>
       </c>
       <c r="G31" s="159" t="s">
-        <v>824</v>
-      </c>
-      <c r="H31" s="174"/>
-      <c r="I31" s="174"/>
-      <c r="J31" s="174"/>
-      <c r="K31" s="174"/>
-      <c r="L31" s="174"/>
-      <c r="M31" s="174"/>
-      <c r="N31" s="174"/>
-      <c r="O31" s="174"/>
-      <c r="P31" s="174"/>
-      <c r="Q31" s="174"/>
-      <c r="R31" s="174"/>
-      <c r="S31" s="175"/>
+        <v>771</v>
+      </c>
+      <c r="H31" s="160"/>
+      <c r="I31" s="160"/>
+      <c r="J31" s="160"/>
+      <c r="K31" s="160"/>
+      <c r="L31" s="160"/>
+      <c r="M31" s="160"/>
+      <c r="N31" s="160"/>
+      <c r="O31" s="160"/>
+      <c r="P31" s="160"/>
+      <c r="Q31" s="160"/>
+      <c r="R31" s="160"/>
+      <c r="S31" s="161"/>
     </row>
     <row r="32" spans="1:19" ht="15.75" customHeight="1">
       <c r="A32" s="94">
-        <v>33</v>
-      </c>
-      <c r="B32" s="151" t="s">
-        <v>611</v>
+        <v>34</v>
+      </c>
+      <c r="B32" s="105" t="s">
+        <v>639</v>
       </c>
       <c r="C32" s="105" t="s">
-        <v>516</v>
-      </c>
-      <c r="D32" s="105"/>
+        <v>27</v>
+      </c>
+      <c r="D32" s="105" t="s">
+        <v>592</v>
+      </c>
       <c r="E32" s="148" t="s">
-        <v>609</v>
-      </c>
-      <c r="F32" s="98" t="s">
-        <v>613</v>
-      </c>
-      <c r="G32" s="159" t="s">
-        <v>771</v>
-      </c>
-      <c r="H32" s="160"/>
-      <c r="I32" s="160"/>
-      <c r="J32" s="160"/>
-      <c r="K32" s="160"/>
-      <c r="L32" s="160"/>
-      <c r="M32" s="160"/>
-      <c r="N32" s="160"/>
-      <c r="O32" s="160"/>
-      <c r="P32" s="160"/>
-      <c r="Q32" s="160"/>
-      <c r="R32" s="160"/>
-      <c r="S32" s="161"/>
-    </row>
-    <row r="33" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A33" s="94">
-        <v>34</v>
-      </c>
-      <c r="B33" s="105" t="s">
-        <v>639</v>
-      </c>
-      <c r="C33" s="105" t="s">
+        <v>772</v>
+      </c>
+      <c r="F32" s="98">
+        <v>77054441706</v>
+      </c>
+      <c r="G32" s="148" t="s">
+        <v>828</v>
+      </c>
+      <c r="H32" s="144"/>
+      <c r="I32" s="144"/>
+      <c r="J32" s="144"/>
+      <c r="K32" s="144"/>
+      <c r="L32" s="144"/>
+      <c r="M32" s="144"/>
+      <c r="N32" s="144"/>
+      <c r="O32" s="144"/>
+      <c r="P32" s="144"/>
+      <c r="Q32" s="144"/>
+      <c r="R32" s="144"/>
+      <c r="S32" s="145"/>
+    </row>
+    <row r="33" spans="1:19" ht="13.8">
+      <c r="A33" s="99">
+        <v>36</v>
+      </c>
+      <c r="B33" s="101" t="s">
+        <v>641</v>
+      </c>
+      <c r="C33" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="105" t="s">
+      <c r="D33" s="101" t="s">
         <v>592</v>
       </c>
       <c r="E33" s="148" t="s">
         <v>772</v>
       </c>
-      <c r="F33" s="98">
-        <v>77054441706</v>
+      <c r="F33" s="103">
+        <v>77775223878</v>
       </c>
       <c r="G33" s="148" t="s">
-        <v>828</v>
-      </c>
-      <c r="H33" s="144"/>
-      <c r="I33" s="144"/>
-      <c r="J33" s="144"/>
-      <c r="K33" s="144"/>
-      <c r="L33" s="144"/>
-      <c r="M33" s="144"/>
-      <c r="N33" s="144"/>
-      <c r="O33" s="144"/>
-      <c r="P33" s="144"/>
-      <c r="Q33" s="144"/>
-      <c r="R33" s="144"/>
-      <c r="S33" s="145"/>
+        <v>832</v>
+      </c>
+      <c r="H33" s="124"/>
+      <c r="I33" s="124"/>
+      <c r="J33" s="124"/>
+      <c r="K33" s="124"/>
+      <c r="L33" s="124"/>
+      <c r="M33" s="124"/>
+      <c r="N33" s="124"/>
+      <c r="O33" s="124"/>
+      <c r="P33" s="124"/>
+      <c r="Q33" s="124"/>
+      <c r="R33" s="124"/>
+      <c r="S33" s="149"/>
     </row>
     <row r="34" spans="1:19" ht="13.8">
       <c r="A34" s="99">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" s="101" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="C34" s="101" t="s">
-        <v>27</v>
+        <v>653</v>
       </c>
       <c r="D34" s="101" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="E34" s="148" t="s">
         <v>772</v>
       </c>
       <c r="F34" s="103">
-        <v>77775223878</v>
+        <v>77711886327</v>
       </c>
       <c r="G34" s="148" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="H34" s="124"/>
       <c r="I34" s="124"/>
@@ -46193,203 +46183,203 @@
       <c r="S34" s="149"/>
     </row>
     <row r="35" spans="1:19" ht="13.8">
-      <c r="A35" s="99">
-        <v>37</v>
-      </c>
-      <c r="B35" s="101" t="s">
-        <v>652</v>
-      </c>
-      <c r="C35" s="101" t="s">
-        <v>653</v>
-      </c>
-      <c r="D35" s="101" t="s">
-        <v>599</v>
+      <c r="A35" s="94">
+        <v>38</v>
+      </c>
+      <c r="B35" s="105" t="s">
+        <v>634</v>
+      </c>
+      <c r="C35" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="105" t="s">
+        <v>635</v>
       </c>
       <c r="E35" s="148" t="s">
         <v>772</v>
       </c>
-      <c r="F35" s="103">
-        <v>77711886327</v>
+      <c r="F35" s="98">
+        <v>77054627019</v>
       </c>
       <c r="G35" s="148" t="s">
-        <v>825</v>
-      </c>
-      <c r="H35" s="124"/>
-      <c r="I35" s="124"/>
-      <c r="J35" s="124"/>
-      <c r="K35" s="124"/>
-      <c r="L35" s="124"/>
-      <c r="M35" s="124"/>
-      <c r="N35" s="124"/>
-      <c r="O35" s="124"/>
-      <c r="P35" s="124"/>
-      <c r="Q35" s="124"/>
-      <c r="R35" s="124"/>
-      <c r="S35" s="149"/>
+        <v>826</v>
+      </c>
+      <c r="H35" s="144"/>
+      <c r="I35" s="144"/>
+      <c r="J35" s="144"/>
+      <c r="K35" s="144"/>
+      <c r="L35" s="144"/>
+      <c r="M35" s="144"/>
+      <c r="N35" s="144"/>
+      <c r="O35" s="144"/>
+      <c r="P35" s="144"/>
+      <c r="Q35" s="144"/>
+      <c r="R35" s="144"/>
+      <c r="S35" s="145"/>
     </row>
     <row r="36" spans="1:19" ht="13.8">
-      <c r="A36" s="94">
-        <v>38</v>
-      </c>
-      <c r="B36" s="105" t="s">
-        <v>634</v>
-      </c>
-      <c r="C36" s="105" t="s">
+      <c r="A36" s="99">
+        <v>39</v>
+      </c>
+      <c r="B36" s="101" t="s">
+        <v>637</v>
+      </c>
+      <c r="C36" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="105" t="s">
+      <c r="D36" s="101" t="s">
         <v>635</v>
       </c>
       <c r="E36" s="148" t="s">
         <v>772</v>
       </c>
-      <c r="F36" s="98">
-        <v>77054627019</v>
+      <c r="F36" s="103">
+        <v>77477573740</v>
       </c>
       <c r="G36" s="148" t="s">
-        <v>826</v>
-      </c>
-      <c r="H36" s="144"/>
-      <c r="I36" s="144"/>
-      <c r="J36" s="144"/>
-      <c r="K36" s="144"/>
-      <c r="L36" s="144"/>
-      <c r="M36" s="144"/>
-      <c r="N36" s="144"/>
-      <c r="O36" s="144"/>
-      <c r="P36" s="144"/>
-      <c r="Q36" s="144"/>
-      <c r="R36" s="144"/>
-      <c r="S36" s="145"/>
+        <v>829</v>
+      </c>
+      <c r="H36" s="124"/>
+      <c r="I36" s="124"/>
+      <c r="J36" s="124"/>
+      <c r="K36" s="124"/>
+      <c r="L36" s="124"/>
+      <c r="M36" s="124"/>
+      <c r="N36" s="124"/>
+      <c r="O36" s="124"/>
+      <c r="P36" s="124"/>
+      <c r="Q36" s="124"/>
+      <c r="R36" s="124"/>
+      <c r="S36" s="149"/>
     </row>
     <row r="37" spans="1:19" ht="13.8">
-      <c r="A37" s="99">
-        <v>39</v>
-      </c>
-      <c r="B37" s="101" t="s">
-        <v>637</v>
-      </c>
-      <c r="C37" s="101" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" s="101" t="s">
-        <v>635</v>
+      <c r="A37" s="94">
+        <v>40</v>
+      </c>
+      <c r="B37" s="151" t="s">
+        <v>315</v>
+      </c>
+      <c r="C37" s="105" t="s">
+        <v>516</v>
+      </c>
+      <c r="D37" s="105" t="s">
+        <v>520</v>
       </c>
       <c r="E37" s="148" t="s">
         <v>772</v>
       </c>
-      <c r="F37" s="103">
-        <v>77477573740</v>
+      <c r="F37" s="98">
+        <v>77772459654</v>
       </c>
       <c r="G37" s="148" t="s">
-        <v>829</v>
-      </c>
-      <c r="H37" s="124"/>
-      <c r="I37" s="124"/>
-      <c r="J37" s="124"/>
-      <c r="K37" s="124"/>
-      <c r="L37" s="124"/>
-      <c r="M37" s="124"/>
-      <c r="N37" s="124"/>
-      <c r="O37" s="124"/>
-      <c r="P37" s="124"/>
-      <c r="Q37" s="124"/>
-      <c r="R37" s="124"/>
-      <c r="S37" s="149"/>
+        <v>830</v>
+      </c>
+      <c r="H37" s="144"/>
+      <c r="I37" s="144"/>
+      <c r="J37" s="144"/>
+      <c r="K37" s="144"/>
+      <c r="L37" s="144"/>
+      <c r="M37" s="144"/>
+      <c r="N37" s="144"/>
+      <c r="O37" s="144"/>
+      <c r="P37" s="144"/>
+      <c r="Q37" s="144"/>
+      <c r="R37" s="144"/>
+      <c r="S37" s="145"/>
     </row>
     <row r="38" spans="1:19" ht="13.8">
-      <c r="A38" s="94">
-        <v>40</v>
-      </c>
-      <c r="B38" s="151" t="s">
-        <v>315</v>
-      </c>
-      <c r="C38" s="105" t="s">
-        <v>516</v>
-      </c>
-      <c r="D38" s="105" t="s">
-        <v>520</v>
+      <c r="A38" s="99">
+        <v>41</v>
+      </c>
+      <c r="B38" s="101" t="s">
+        <v>616</v>
+      </c>
+      <c r="C38" s="101" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="101" t="s">
+        <v>617</v>
       </c>
       <c r="E38" s="148" t="s">
         <v>772</v>
       </c>
-      <c r="F38" s="98">
-        <v>77772459654</v>
+      <c r="F38" s="110">
+        <v>77764004000</v>
       </c>
       <c r="G38" s="148" t="s">
-        <v>830</v>
-      </c>
-      <c r="H38" s="144"/>
-      <c r="I38" s="144"/>
-      <c r="J38" s="144"/>
-      <c r="K38" s="144"/>
-      <c r="L38" s="144"/>
-      <c r="M38" s="144"/>
-      <c r="N38" s="144"/>
-      <c r="O38" s="144"/>
-      <c r="P38" s="144"/>
-      <c r="Q38" s="144"/>
-      <c r="R38" s="144"/>
-      <c r="S38" s="145"/>
+        <v>833</v>
+      </c>
+      <c r="H38" s="124" t="s">
+        <v>782</v>
+      </c>
+      <c r="I38" s="124"/>
+      <c r="J38" s="124"/>
+      <c r="K38" s="124"/>
+      <c r="L38" s="124"/>
+      <c r="M38" s="124"/>
+      <c r="N38" s="124"/>
+      <c r="O38" s="124"/>
+      <c r="P38" s="124"/>
+      <c r="Q38" s="124"/>
+      <c r="R38" s="124"/>
+      <c r="S38" s="149"/>
     </row>
     <row r="39" spans="1:19" ht="13.8">
-      <c r="A39" s="99">
-        <v>41</v>
-      </c>
-      <c r="B39" s="101" t="s">
-        <v>616</v>
-      </c>
-      <c r="C39" s="101" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" s="101" t="s">
-        <v>617</v>
+      <c r="A39" s="94">
+        <v>42</v>
+      </c>
+      <c r="B39" s="151" t="s">
+        <v>621</v>
+      </c>
+      <c r="C39" s="105" t="s">
+        <v>516</v>
+      </c>
+      <c r="D39" s="105" t="s">
+        <v>517</v>
       </c>
       <c r="E39" s="148" t="s">
         <v>772</v>
       </c>
-      <c r="F39" s="110">
-        <v>77764004000</v>
+      <c r="F39" s="98" t="s">
+        <v>623</v>
       </c>
       <c r="G39" s="148" t="s">
-        <v>833</v>
-      </c>
-      <c r="H39" s="124" t="s">
-        <v>782</v>
-      </c>
-      <c r="I39" s="124"/>
-      <c r="J39" s="124"/>
-      <c r="K39" s="124"/>
-      <c r="L39" s="124"/>
-      <c r="M39" s="124"/>
-      <c r="N39" s="124"/>
-      <c r="O39" s="124"/>
-      <c r="P39" s="124"/>
-      <c r="Q39" s="124"/>
-      <c r="R39" s="124"/>
-      <c r="S39" s="149"/>
+        <v>783</v>
+      </c>
+      <c r="H39" s="144"/>
+      <c r="I39" s="144"/>
+      <c r="J39" s="144"/>
+      <c r="K39" s="144"/>
+      <c r="L39" s="144"/>
+      <c r="M39" s="144"/>
+      <c r="N39" s="144"/>
+      <c r="O39" s="144"/>
+      <c r="P39" s="144"/>
+      <c r="Q39" s="144"/>
+      <c r="R39" s="144"/>
+      <c r="S39" s="145"/>
     </row>
     <row r="40" spans="1:19" ht="13.8">
       <c r="A40" s="94">
-        <v>42</v>
-      </c>
-      <c r="B40" s="151" t="s">
-        <v>621</v>
+        <v>43</v>
+      </c>
+      <c r="B40" s="105" t="s">
+        <v>632</v>
       </c>
       <c r="C40" s="105" t="s">
-        <v>516</v>
+        <v>15</v>
       </c>
       <c r="D40" s="105" t="s">
-        <v>517</v>
+        <v>630</v>
       </c>
       <c r="E40" s="148" t="s">
         <v>772</v>
       </c>
-      <c r="F40" s="98" t="s">
-        <v>623</v>
+      <c r="F40" s="98">
+        <v>77710603592</v>
       </c>
       <c r="G40" s="148" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H40" s="144"/>
       <c r="I40" s="144"/>
@@ -46405,61 +46395,61 @@
       <c r="S40" s="145"/>
     </row>
     <row r="41" spans="1:19" ht="13.8">
-      <c r="A41" s="94">
-        <v>43</v>
-      </c>
-      <c r="B41" s="105" t="s">
-        <v>632</v>
-      </c>
-      <c r="C41" s="105" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41" s="105" t="s">
-        <v>630</v>
+      <c r="A41" s="99">
+        <v>44</v>
+      </c>
+      <c r="B41" s="162" t="s">
+        <v>483</v>
+      </c>
+      <c r="C41" s="122" t="s">
+        <v>516</v>
+      </c>
+      <c r="D41" s="122" t="s">
+        <v>520</v>
       </c>
       <c r="E41" s="148" t="s">
         <v>772</v>
       </c>
-      <c r="F41" s="98">
-        <v>77710603592</v>
+      <c r="F41" s="124">
+        <v>77719062173</v>
       </c>
       <c r="G41" s="148" t="s">
-        <v>784</v>
-      </c>
-      <c r="H41" s="144"/>
-      <c r="I41" s="144"/>
-      <c r="J41" s="144"/>
-      <c r="K41" s="144"/>
-      <c r="L41" s="144"/>
-      <c r="M41" s="144"/>
-      <c r="N41" s="144"/>
-      <c r="O41" s="144"/>
-      <c r="P41" s="144"/>
-      <c r="Q41" s="144"/>
-      <c r="R41" s="144"/>
-      <c r="S41" s="145"/>
+        <v>785</v>
+      </c>
+      <c r="H41" s="124"/>
+      <c r="I41" s="124"/>
+      <c r="J41" s="124"/>
+      <c r="K41" s="124"/>
+      <c r="L41" s="124"/>
+      <c r="M41" s="124"/>
+      <c r="N41" s="124"/>
+      <c r="O41" s="124"/>
+      <c r="P41" s="124"/>
+      <c r="Q41" s="124"/>
+      <c r="R41" s="124"/>
+      <c r="S41" s="149"/>
     </row>
     <row r="42" spans="1:19" ht="13.8">
       <c r="A42" s="99">
-        <v>44</v>
-      </c>
-      <c r="B42" s="162" t="s">
-        <v>483</v>
-      </c>
-      <c r="C42" s="122" t="s">
-        <v>516</v>
-      </c>
-      <c r="D42" s="122" t="s">
-        <v>520</v>
+        <v>45</v>
+      </c>
+      <c r="B42" s="101" t="s">
+        <v>629</v>
+      </c>
+      <c r="C42" s="101" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="101" t="s">
+        <v>630</v>
       </c>
       <c r="E42" s="148" t="s">
         <v>772</v>
       </c>
-      <c r="F42" s="124">
-        <v>77719062173</v>
+      <c r="F42" s="103">
+        <v>7710609229</v>
       </c>
       <c r="G42" s="148" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H42" s="124"/>
       <c r="I42" s="124"/>
@@ -46475,1125 +46465,1090 @@
       <c r="S42" s="149"/>
     </row>
     <row r="43" spans="1:19" ht="13.8">
-      <c r="A43" s="99">
-        <v>45</v>
-      </c>
-      <c r="B43" s="101" t="s">
-        <v>629</v>
-      </c>
-      <c r="C43" s="101" t="s">
+      <c r="A43" s="94">
+        <v>47</v>
+      </c>
+      <c r="B43" s="105" t="s">
+        <v>619</v>
+      </c>
+      <c r="C43" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="D43" s="101" t="s">
-        <v>630</v>
+      <c r="D43" s="105" t="s">
+        <v>513</v>
       </c>
       <c r="E43" s="148" t="s">
         <v>772</v>
       </c>
-      <c r="F43" s="103">
-        <v>7710609229</v>
+      <c r="F43" s="98">
+        <v>77711886438</v>
       </c>
       <c r="G43" s="148" t="s">
-        <v>786</v>
-      </c>
-      <c r="H43" s="124"/>
-      <c r="I43" s="124"/>
-      <c r="J43" s="124"/>
-      <c r="K43" s="124"/>
-      <c r="L43" s="124"/>
-      <c r="M43" s="124"/>
-      <c r="N43" s="124"/>
-      <c r="O43" s="124"/>
-      <c r="P43" s="124"/>
-      <c r="Q43" s="124"/>
-      <c r="R43" s="124"/>
-      <c r="S43" s="149"/>
+        <v>788</v>
+      </c>
+      <c r="H43" s="144"/>
+      <c r="I43" s="144"/>
+      <c r="J43" s="144"/>
+      <c r="K43" s="144"/>
+      <c r="L43" s="144"/>
+      <c r="M43" s="144"/>
+      <c r="N43" s="144"/>
+      <c r="O43" s="144"/>
+      <c r="P43" s="144"/>
+      <c r="Q43" s="144"/>
+      <c r="R43" s="144"/>
+      <c r="S43" s="145"/>
     </row>
     <row r="44" spans="1:19" ht="13.8">
-      <c r="A44" s="94">
-        <v>47</v>
-      </c>
-      <c r="B44" s="105" t="s">
-        <v>619</v>
-      </c>
-      <c r="C44" s="105" t="s">
-        <v>27</v>
-      </c>
-      <c r="D44" s="105" t="s">
-        <v>513</v>
+      <c r="A44" s="99">
+        <v>48</v>
+      </c>
+      <c r="B44" s="152" t="s">
+        <v>627</v>
+      </c>
+      <c r="C44" s="101" t="s">
+        <v>516</v>
+      </c>
+      <c r="D44" s="101" t="s">
+        <v>517</v>
       </c>
       <c r="E44" s="148" t="s">
         <v>772</v>
       </c>
-      <c r="F44" s="98">
-        <v>77711886438</v>
+      <c r="F44" s="103">
+        <v>77753480121</v>
       </c>
       <c r="G44" s="148" t="s">
-        <v>788</v>
-      </c>
-      <c r="H44" s="144"/>
-      <c r="I44" s="144"/>
-      <c r="J44" s="144"/>
-      <c r="K44" s="144"/>
-      <c r="L44" s="144"/>
-      <c r="M44" s="144"/>
-      <c r="N44" s="144"/>
-      <c r="O44" s="144"/>
-      <c r="P44" s="144"/>
-      <c r="Q44" s="144"/>
-      <c r="R44" s="144"/>
-      <c r="S44" s="145"/>
+        <v>835</v>
+      </c>
+      <c r="H44" s="124"/>
+      <c r="I44" s="124"/>
+      <c r="J44" s="124"/>
+      <c r="K44" s="124"/>
+      <c r="L44" s="124"/>
+      <c r="M44" s="124"/>
+      <c r="N44" s="124"/>
+      <c r="O44" s="124"/>
+      <c r="P44" s="124"/>
+      <c r="Q44" s="124"/>
+      <c r="R44" s="124"/>
+      <c r="S44" s="149"/>
     </row>
     <row r="45" spans="1:19" ht="13.8">
-      <c r="A45" s="99">
-        <v>48</v>
-      </c>
-      <c r="B45" s="152" t="s">
-        <v>627</v>
-      </c>
-      <c r="C45" s="101" t="s">
-        <v>516</v>
-      </c>
-      <c r="D45" s="101" t="s">
-        <v>517</v>
+      <c r="A45" s="94">
+        <v>49</v>
+      </c>
+      <c r="B45" s="105" t="s">
+        <v>614</v>
+      </c>
+      <c r="C45" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="105" t="s">
+        <v>546</v>
       </c>
       <c r="E45" s="148" t="s">
         <v>772</v>
       </c>
-      <c r="F45" s="103">
-        <v>77753480121</v>
+      <c r="F45" s="98">
+        <v>77479305650</v>
       </c>
       <c r="G45" s="148" t="s">
-        <v>789</v>
-      </c>
-      <c r="H45" s="124"/>
-      <c r="I45" s="124"/>
-      <c r="J45" s="124"/>
-      <c r="K45" s="124"/>
-      <c r="L45" s="124"/>
-      <c r="M45" s="124"/>
-      <c r="N45" s="124"/>
-      <c r="O45" s="124"/>
-      <c r="P45" s="124"/>
-      <c r="Q45" s="124"/>
-      <c r="R45" s="124"/>
-      <c r="S45" s="149"/>
+        <v>827</v>
+      </c>
+      <c r="H45" s="144"/>
+      <c r="I45" s="144"/>
+      <c r="J45" s="144"/>
+      <c r="K45" s="144"/>
+      <c r="L45" s="144"/>
+      <c r="M45" s="144"/>
+      <c r="N45" s="144"/>
+      <c r="O45" s="144"/>
+      <c r="P45" s="144"/>
+      <c r="Q45" s="144"/>
+      <c r="R45" s="144"/>
+      <c r="S45" s="145"/>
     </row>
     <row r="46" spans="1:19" ht="13.8">
-      <c r="A46" s="94">
-        <v>49</v>
-      </c>
-      <c r="B46" s="105" t="s">
-        <v>614</v>
-      </c>
-      <c r="C46" s="105" t="s">
-        <v>27</v>
-      </c>
-      <c r="D46" s="105" t="s">
-        <v>546</v>
+      <c r="A46" s="99">
+        <v>50</v>
+      </c>
+      <c r="B46" s="152" t="s">
+        <v>624</v>
+      </c>
+      <c r="C46" s="101" t="s">
+        <v>516</v>
+      </c>
+      <c r="D46" s="101" t="s">
+        <v>517</v>
       </c>
       <c r="E46" s="148" t="s">
         <v>772</v>
       </c>
-      <c r="F46" s="98">
-        <v>77479305650</v>
+      <c r="F46" s="103" t="s">
+        <v>626</v>
       </c>
       <c r="G46" s="148" t="s">
-        <v>827</v>
-      </c>
-      <c r="H46" s="144"/>
-      <c r="I46" s="144"/>
-      <c r="J46" s="144"/>
-      <c r="K46" s="144"/>
-      <c r="L46" s="144"/>
-      <c r="M46" s="144"/>
-      <c r="N46" s="144"/>
-      <c r="O46" s="144"/>
-      <c r="P46" s="144"/>
-      <c r="Q46" s="144"/>
-      <c r="R46" s="144"/>
-      <c r="S46" s="145"/>
+        <v>831</v>
+      </c>
+      <c r="H46" s="124"/>
+      <c r="I46" s="124"/>
+      <c r="J46" s="124"/>
+      <c r="K46" s="124"/>
+      <c r="L46" s="124"/>
+      <c r="M46" s="124"/>
+      <c r="N46" s="124"/>
+      <c r="O46" s="124"/>
+      <c r="P46" s="124"/>
+      <c r="Q46" s="124"/>
+      <c r="R46" s="124"/>
+      <c r="S46" s="149"/>
     </row>
     <row r="47" spans="1:19" ht="13.8">
-      <c r="A47" s="99">
-        <v>50</v>
-      </c>
-      <c r="B47" s="152" t="s">
-        <v>624</v>
-      </c>
-      <c r="C47" s="101" t="s">
-        <v>516</v>
-      </c>
-      <c r="D47" s="101" t="s">
-        <v>517</v>
+      <c r="A47" s="94">
+        <v>51</v>
+      </c>
+      <c r="B47" s="105" t="s">
+        <v>645</v>
+      </c>
+      <c r="C47" s="105" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="105" t="s">
+        <v>646</v>
       </c>
       <c r="E47" s="148" t="s">
         <v>772</v>
       </c>
-      <c r="F47" s="103" t="s">
-        <v>626</v>
+      <c r="F47" s="98">
+        <v>77756396005</v>
       </c>
       <c r="G47" s="148" t="s">
-        <v>831</v>
-      </c>
-      <c r="H47" s="124"/>
-      <c r="I47" s="124"/>
-      <c r="J47" s="124"/>
-      <c r="K47" s="124"/>
-      <c r="L47" s="124"/>
-      <c r="M47" s="124"/>
-      <c r="N47" s="124"/>
-      <c r="O47" s="124"/>
-      <c r="P47" s="124"/>
-      <c r="Q47" s="124"/>
-      <c r="R47" s="124"/>
-      <c r="S47" s="149"/>
-    </row>
-    <row r="48" spans="1:19" ht="13.8">
-      <c r="A48" s="94">
-        <v>51</v>
-      </c>
-      <c r="B48" s="105" t="s">
-        <v>645</v>
-      </c>
-      <c r="C48" s="105" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" s="105" t="s">
-        <v>646</v>
-      </c>
+        <v>792</v>
+      </c>
+      <c r="H47" s="144"/>
+      <c r="I47" s="144"/>
+      <c r="J47" s="144"/>
+      <c r="K47" s="144"/>
+      <c r="L47" s="144"/>
+      <c r="M47" s="144"/>
+      <c r="N47" s="144"/>
+      <c r="O47" s="144"/>
+      <c r="P47" s="144"/>
+      <c r="Q47" s="144"/>
+      <c r="R47" s="144"/>
+      <c r="S47" s="145"/>
+    </row>
+    <row r="48" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A48" s="99">
+        <v>52</v>
+      </c>
+      <c r="B48" s="152" t="s">
+        <v>678</v>
+      </c>
+      <c r="C48" s="101" t="s">
+        <v>516</v>
+      </c>
+      <c r="D48" s="101"/>
       <c r="E48" s="148" t="s">
-        <v>772</v>
-      </c>
-      <c r="F48" s="98">
-        <v>77756396005</v>
-      </c>
-      <c r="G48" s="148" t="s">
-        <v>792</v>
-      </c>
-      <c r="H48" s="144"/>
-      <c r="I48" s="144"/>
-      <c r="J48" s="144"/>
-      <c r="K48" s="144"/>
-      <c r="L48" s="144"/>
-      <c r="M48" s="144"/>
-      <c r="N48" s="144"/>
-      <c r="O48" s="144"/>
-      <c r="P48" s="144"/>
-      <c r="Q48" s="144"/>
-      <c r="R48" s="144"/>
-      <c r="S48" s="145"/>
+        <v>793</v>
+      </c>
+      <c r="F48" s="103" t="s">
+        <v>680</v>
+      </c>
+      <c r="G48" s="154" t="s">
+        <v>794</v>
+      </c>
+      <c r="H48" s="155"/>
+      <c r="I48" s="155"/>
+      <c r="J48" s="155"/>
+      <c r="K48" s="155"/>
+      <c r="L48" s="155"/>
+      <c r="M48" s="155"/>
+      <c r="N48" s="155"/>
+      <c r="O48" s="155"/>
+      <c r="P48" s="155"/>
+      <c r="Q48" s="155"/>
+      <c r="R48" s="155"/>
+      <c r="S48" s="156"/>
     </row>
     <row r="49" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A49" s="99">
-        <v>52</v>
-      </c>
-      <c r="B49" s="152" t="s">
-        <v>678</v>
-      </c>
-      <c r="C49" s="101" t="s">
-        <v>516</v>
-      </c>
-      <c r="D49" s="101"/>
+      <c r="A49" s="94">
+        <v>53</v>
+      </c>
+      <c r="B49" s="105" t="s">
+        <v>672</v>
+      </c>
+      <c r="C49" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="105" t="s">
+        <v>669</v>
+      </c>
       <c r="E49" s="148" t="s">
         <v>793</v>
       </c>
-      <c r="F49" s="103" t="s">
-        <v>680</v>
+      <c r="F49" s="98" t="s">
+        <v>674</v>
       </c>
       <c r="G49" s="154" t="s">
-        <v>794</v>
-      </c>
-      <c r="H49" s="155"/>
-      <c r="I49" s="155"/>
-      <c r="J49" s="155"/>
-      <c r="K49" s="155"/>
-      <c r="L49" s="155"/>
-      <c r="M49" s="155"/>
-      <c r="N49" s="155"/>
-      <c r="O49" s="155"/>
-      <c r="P49" s="155"/>
-      <c r="Q49" s="155"/>
-      <c r="R49" s="155"/>
-      <c r="S49" s="156"/>
+        <v>795</v>
+      </c>
+      <c r="H49" s="157"/>
+      <c r="I49" s="157"/>
+      <c r="J49" s="157"/>
+      <c r="K49" s="157"/>
+      <c r="L49" s="157"/>
+      <c r="M49" s="157"/>
+      <c r="N49" s="157"/>
+      <c r="O49" s="157"/>
+      <c r="P49" s="157"/>
+      <c r="Q49" s="157"/>
+      <c r="R49" s="157"/>
+      <c r="S49" s="158"/>
     </row>
     <row r="50" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A50" s="94">
-        <v>53</v>
-      </c>
-      <c r="B50" s="105" t="s">
-        <v>672</v>
-      </c>
-      <c r="C50" s="105" t="s">
-        <v>27</v>
-      </c>
-      <c r="D50" s="105" t="s">
-        <v>669</v>
-      </c>
+      <c r="A50" s="99">
+        <v>54</v>
+      </c>
+      <c r="B50" s="152" t="s">
+        <v>423</v>
+      </c>
+      <c r="C50" s="101" t="s">
+        <v>516</v>
+      </c>
+      <c r="D50" s="101"/>
       <c r="E50" s="148" t="s">
         <v>793</v>
       </c>
-      <c r="F50" s="98" t="s">
-        <v>674</v>
+      <c r="F50" s="103">
+        <v>77477185969</v>
       </c>
       <c r="G50" s="154" t="s">
-        <v>795</v>
-      </c>
-      <c r="H50" s="157"/>
-      <c r="I50" s="157"/>
-      <c r="J50" s="157"/>
-      <c r="K50" s="157"/>
-      <c r="L50" s="157"/>
-      <c r="M50" s="157"/>
-      <c r="N50" s="157"/>
-      <c r="O50" s="157"/>
-      <c r="P50" s="157"/>
-      <c r="Q50" s="157"/>
-      <c r="R50" s="157"/>
-      <c r="S50" s="158"/>
+        <v>796</v>
+      </c>
+      <c r="H50" s="155"/>
+      <c r="I50" s="155"/>
+      <c r="J50" s="155"/>
+      <c r="K50" s="155"/>
+      <c r="L50" s="155"/>
+      <c r="M50" s="155"/>
+      <c r="N50" s="155"/>
+      <c r="O50" s="155"/>
+      <c r="P50" s="155"/>
+      <c r="Q50" s="155"/>
+      <c r="R50" s="155"/>
+      <c r="S50" s="156"/>
     </row>
     <row r="51" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A51" s="99">
-        <v>54</v>
-      </c>
-      <c r="B51" s="152" t="s">
-        <v>423</v>
-      </c>
-      <c r="C51" s="101" t="s">
-        <v>516</v>
-      </c>
-      <c r="D51" s="101"/>
+      <c r="A51" s="94">
+        <v>55</v>
+      </c>
+      <c r="B51" s="105" t="s">
+        <v>664</v>
+      </c>
+      <c r="C51" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="105" t="s">
+        <v>665</v>
+      </c>
       <c r="E51" s="148" t="s">
         <v>793</v>
       </c>
-      <c r="F51" s="103">
-        <v>77477185969</v>
+      <c r="F51" s="118" t="s">
+        <v>667</v>
       </c>
       <c r="G51" s="154" t="s">
-        <v>796</v>
-      </c>
-      <c r="H51" s="155"/>
-      <c r="I51" s="155"/>
-      <c r="J51" s="155"/>
-      <c r="K51" s="155"/>
-      <c r="L51" s="155"/>
-      <c r="M51" s="155"/>
-      <c r="N51" s="155"/>
-      <c r="O51" s="155"/>
-      <c r="P51" s="155"/>
-      <c r="Q51" s="155"/>
-      <c r="R51" s="155"/>
-      <c r="S51" s="156"/>
+        <v>797</v>
+      </c>
+      <c r="H51" s="157"/>
+      <c r="I51" s="157"/>
+      <c r="J51" s="157"/>
+      <c r="K51" s="157"/>
+      <c r="L51" s="157"/>
+      <c r="M51" s="157"/>
+      <c r="N51" s="157"/>
+      <c r="O51" s="157"/>
+      <c r="P51" s="157"/>
+      <c r="Q51" s="157"/>
+      <c r="R51" s="157"/>
+      <c r="S51" s="158"/>
     </row>
     <row r="52" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A52" s="94">
-        <v>55</v>
-      </c>
-      <c r="B52" s="105" t="s">
-        <v>664</v>
-      </c>
-      <c r="C52" s="105" t="s">
+      <c r="A52" s="99">
+        <v>56</v>
+      </c>
+      <c r="B52" s="101" t="s">
+        <v>660</v>
+      </c>
+      <c r="C52" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="D52" s="105" t="s">
-        <v>665</v>
+      <c r="D52" s="101" t="s">
+        <v>661</v>
       </c>
       <c r="E52" s="148" t="s">
         <v>793</v>
       </c>
-      <c r="F52" s="118" t="s">
-        <v>667</v>
+      <c r="F52" s="110" t="s">
+        <v>663</v>
       </c>
       <c r="G52" s="154" t="s">
-        <v>797</v>
-      </c>
-      <c r="H52" s="157"/>
-      <c r="I52" s="157"/>
-      <c r="J52" s="157"/>
-      <c r="K52" s="157"/>
-      <c r="L52" s="157"/>
-      <c r="M52" s="157"/>
-      <c r="N52" s="157"/>
-      <c r="O52" s="157"/>
-      <c r="P52" s="157"/>
-      <c r="Q52" s="157"/>
-      <c r="R52" s="157"/>
-      <c r="S52" s="158"/>
+        <v>798</v>
+      </c>
+      <c r="H52" s="155"/>
+      <c r="I52" s="155"/>
+      <c r="J52" s="155"/>
+      <c r="K52" s="155"/>
+      <c r="L52" s="155"/>
+      <c r="M52" s="155"/>
+      <c r="N52" s="155"/>
+      <c r="O52" s="155"/>
+      <c r="P52" s="155"/>
+      <c r="Q52" s="155"/>
+      <c r="R52" s="155"/>
+      <c r="S52" s="156"/>
     </row>
     <row r="53" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A53" s="99">
-        <v>56</v>
-      </c>
-      <c r="B53" s="101" t="s">
-        <v>660</v>
-      </c>
-      <c r="C53" s="101" t="s">
-        <v>27</v>
-      </c>
-      <c r="D53" s="101" t="s">
-        <v>661</v>
+      <c r="A53" s="94">
+        <v>57</v>
+      </c>
+      <c r="B53" s="105" t="s">
+        <v>799</v>
+      </c>
+      <c r="C53" s="105" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="105" t="s">
+        <v>669</v>
       </c>
       <c r="E53" s="148" t="s">
         <v>793</v>
       </c>
-      <c r="F53" s="110" t="s">
-        <v>663</v>
+      <c r="F53" s="98" t="s">
+        <v>671</v>
       </c>
       <c r="G53" s="154" t="s">
-        <v>798</v>
-      </c>
-      <c r="H53" s="155"/>
-      <c r="I53" s="155"/>
-      <c r="J53" s="155"/>
-      <c r="K53" s="155"/>
-      <c r="L53" s="155"/>
-      <c r="M53" s="155"/>
-      <c r="N53" s="155"/>
-      <c r="O53" s="155"/>
-      <c r="P53" s="155"/>
-      <c r="Q53" s="155"/>
-      <c r="R53" s="155"/>
-      <c r="S53" s="156"/>
+        <v>800</v>
+      </c>
+      <c r="H53" s="157"/>
+      <c r="I53" s="157"/>
+      <c r="J53" s="157"/>
+      <c r="K53" s="157"/>
+      <c r="L53" s="157"/>
+      <c r="M53" s="157"/>
+      <c r="N53" s="157"/>
+      <c r="O53" s="157"/>
+      <c r="P53" s="157"/>
+      <c r="Q53" s="157"/>
+      <c r="R53" s="157"/>
+      <c r="S53" s="158"/>
     </row>
     <row r="54" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A54" s="94">
-        <v>57</v>
-      </c>
-      <c r="B54" s="105" t="s">
-        <v>799</v>
-      </c>
-      <c r="C54" s="105" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54" s="105" t="s">
-        <v>669</v>
+      <c r="A54" s="99">
+        <v>58</v>
+      </c>
+      <c r="B54" s="101" t="s">
+        <v>675</v>
+      </c>
+      <c r="C54" s="101" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="101" t="s">
+        <v>539</v>
       </c>
       <c r="E54" s="148" t="s">
         <v>793</v>
       </c>
-      <c r="F54" s="98" t="s">
-        <v>671</v>
+      <c r="F54" s="103">
+        <v>77775223892</v>
       </c>
       <c r="G54" s="154" t="s">
-        <v>800</v>
-      </c>
-      <c r="H54" s="157"/>
-      <c r="I54" s="157"/>
-      <c r="J54" s="157"/>
-      <c r="K54" s="157"/>
-      <c r="L54" s="157"/>
-      <c r="M54" s="157"/>
-      <c r="N54" s="157"/>
-      <c r="O54" s="157"/>
-      <c r="P54" s="157"/>
-      <c r="Q54" s="157"/>
-      <c r="R54" s="157"/>
-      <c r="S54" s="158"/>
-    </row>
-    <row r="55" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A55" s="99">
-        <v>58</v>
-      </c>
-      <c r="B55" s="101" t="s">
-        <v>675</v>
-      </c>
-      <c r="C55" s="101" t="s">
-        <v>27</v>
-      </c>
-      <c r="D55" s="101" t="s">
-        <v>539</v>
+        <v>823</v>
+      </c>
+      <c r="H54" s="155"/>
+      <c r="I54" s="155"/>
+      <c r="J54" s="155"/>
+      <c r="K54" s="155"/>
+      <c r="L54" s="155"/>
+      <c r="M54" s="155"/>
+      <c r="N54" s="155"/>
+      <c r="O54" s="155"/>
+      <c r="P54" s="155"/>
+      <c r="Q54" s="155"/>
+      <c r="R54" s="155"/>
+      <c r="S54" s="156"/>
+    </row>
+    <row r="55" spans="1:19" ht="13.8">
+      <c r="A55" s="94">
+        <v>67</v>
+      </c>
+      <c r="B55" s="105" t="s">
+        <v>688</v>
+      </c>
+      <c r="C55" s="105" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="105" t="s">
+        <v>508</v>
       </c>
       <c r="E55" s="148" t="s">
-        <v>793</v>
-      </c>
-      <c r="F55" s="103">
-        <v>77775223892</v>
-      </c>
-      <c r="G55" s="154" t="s">
-        <v>823</v>
-      </c>
-      <c r="H55" s="155"/>
-      <c r="I55" s="155"/>
-      <c r="J55" s="155"/>
-      <c r="K55" s="155"/>
-      <c r="L55" s="155"/>
-      <c r="M55" s="155"/>
-      <c r="N55" s="155"/>
-      <c r="O55" s="155"/>
-      <c r="P55" s="155"/>
-      <c r="Q55" s="155"/>
-      <c r="R55" s="155"/>
-      <c r="S55" s="156"/>
+        <v>809</v>
+      </c>
+      <c r="F55" s="98" t="s">
+        <v>690</v>
+      </c>
+      <c r="G55" s="148" t="s">
+        <v>810</v>
+      </c>
+      <c r="H55" s="144"/>
+      <c r="I55" s="144"/>
+      <c r="J55" s="144"/>
+      <c r="K55" s="144"/>
+      <c r="L55" s="144"/>
+      <c r="M55" s="144"/>
+      <c r="N55" s="144"/>
+      <c r="O55" s="144"/>
+      <c r="P55" s="144"/>
+      <c r="Q55" s="144"/>
+      <c r="R55" s="144"/>
+      <c r="S55" s="145"/>
     </row>
     <row r="56" spans="1:19" ht="13.8">
-      <c r="A56" s="94">
-        <v>67</v>
-      </c>
-      <c r="B56" s="105" t="s">
-        <v>688</v>
-      </c>
-      <c r="C56" s="105" t="s">
-        <v>20</v>
-      </c>
-      <c r="D56" s="105" t="s">
-        <v>508</v>
+      <c r="A56" s="99">
+        <v>60</v>
+      </c>
+      <c r="B56" s="152" t="s">
+        <v>393</v>
+      </c>
+      <c r="C56" s="101" t="s">
+        <v>516</v>
+      </c>
+      <c r="D56" s="101" t="s">
+        <v>517</v>
       </c>
       <c r="E56" s="148" t="s">
-        <v>809</v>
-      </c>
-      <c r="F56" s="98" t="s">
-        <v>690</v>
+        <v>427</v>
+      </c>
+      <c r="F56" s="103">
+        <v>77078750345</v>
       </c>
       <c r="G56" s="148" t="s">
-        <v>810</v>
-      </c>
-      <c r="H56" s="144"/>
-      <c r="I56" s="144"/>
-      <c r="J56" s="144"/>
-      <c r="K56" s="144"/>
-      <c r="L56" s="144"/>
-      <c r="M56" s="144"/>
-      <c r="N56" s="144"/>
-      <c r="O56" s="144"/>
-      <c r="P56" s="144"/>
-      <c r="Q56" s="144"/>
-      <c r="R56" s="144"/>
-      <c r="S56" s="145"/>
+        <v>803</v>
+      </c>
+      <c r="H56" s="124"/>
+      <c r="I56" s="124"/>
+      <c r="J56" s="124"/>
+      <c r="K56" s="124"/>
+      <c r="L56" s="124"/>
+      <c r="M56" s="124"/>
+      <c r="N56" s="124"/>
+      <c r="O56" s="124"/>
+      <c r="P56" s="124"/>
+      <c r="Q56" s="124"/>
+      <c r="R56" s="124"/>
+      <c r="S56" s="149"/>
     </row>
     <row r="57" spans="1:19" ht="13.8">
-      <c r="A57" s="99">
-        <v>60</v>
-      </c>
-      <c r="B57" s="152" t="s">
-        <v>393</v>
-      </c>
-      <c r="C57" s="101" t="s">
+      <c r="A57" s="94">
+        <v>61</v>
+      </c>
+      <c r="B57" s="163" t="s">
+        <v>346</v>
+      </c>
+      <c r="C57" s="105" t="s">
         <v>516</v>
       </c>
-      <c r="D57" s="101" t="s">
-        <v>517</v>
+      <c r="D57" s="105" t="s">
+        <v>520</v>
       </c>
       <c r="E57" s="148" t="s">
         <v>427</v>
       </c>
-      <c r="F57" s="103">
-        <v>77078750345</v>
+      <c r="F57" s="98">
+        <v>77057418708</v>
       </c>
       <c r="G57" s="148" t="s">
-        <v>803</v>
-      </c>
-      <c r="H57" s="124"/>
-      <c r="I57" s="124"/>
-      <c r="J57" s="124"/>
-      <c r="K57" s="124"/>
-      <c r="L57" s="124"/>
-      <c r="M57" s="124"/>
-      <c r="N57" s="124"/>
-      <c r="O57" s="124"/>
-      <c r="P57" s="124"/>
-      <c r="Q57" s="124"/>
-      <c r="R57" s="124"/>
-      <c r="S57" s="149"/>
+        <v>804</v>
+      </c>
+      <c r="H57" s="144"/>
+      <c r="I57" s="144"/>
+      <c r="J57" s="144"/>
+      <c r="K57" s="144"/>
+      <c r="L57" s="144"/>
+      <c r="M57" s="144"/>
+      <c r="N57" s="144"/>
+      <c r="O57" s="144"/>
+      <c r="P57" s="144"/>
+      <c r="Q57" s="144"/>
+      <c r="R57" s="144"/>
+      <c r="S57" s="145"/>
     </row>
     <row r="58" spans="1:19" ht="13.8">
-      <c r="A58" s="94">
-        <v>61</v>
-      </c>
-      <c r="B58" s="163" t="s">
-        <v>346</v>
-      </c>
-      <c r="C58" s="105" t="s">
-        <v>516</v>
-      </c>
-      <c r="D58" s="105" t="s">
-        <v>520</v>
+      <c r="A58" s="99">
+        <v>62</v>
+      </c>
+      <c r="B58" s="101" t="s">
+        <v>705</v>
+      </c>
+      <c r="C58" s="101" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="101" t="s">
+        <v>706</v>
       </c>
       <c r="E58" s="148" t="s">
         <v>427</v>
       </c>
-      <c r="F58" s="98">
-        <v>77057418708</v>
+      <c r="F58" s="103">
+        <v>77057455796</v>
       </c>
       <c r="G58" s="148" t="s">
-        <v>804</v>
-      </c>
-      <c r="H58" s="144"/>
-      <c r="I58" s="144"/>
-      <c r="J58" s="144"/>
-      <c r="K58" s="144"/>
-      <c r="L58" s="144"/>
-      <c r="M58" s="144"/>
-      <c r="N58" s="144"/>
-      <c r="O58" s="144"/>
-      <c r="P58" s="144"/>
-      <c r="Q58" s="144"/>
-      <c r="R58" s="144"/>
-      <c r="S58" s="145"/>
+        <v>805</v>
+      </c>
+      <c r="H58" s="124"/>
+      <c r="I58" s="124"/>
+      <c r="J58" s="124"/>
+      <c r="K58" s="124"/>
+      <c r="L58" s="124"/>
+      <c r="M58" s="124"/>
+      <c r="N58" s="124"/>
+      <c r="O58" s="124"/>
+      <c r="P58" s="124"/>
+      <c r="Q58" s="124"/>
+      <c r="R58" s="124"/>
+      <c r="S58" s="149"/>
     </row>
     <row r="59" spans="1:19" ht="13.8">
-      <c r="A59" s="99">
-        <v>62</v>
-      </c>
-      <c r="B59" s="101" t="s">
-        <v>705</v>
-      </c>
-      <c r="C59" s="101" t="s">
-        <v>15</v>
-      </c>
-      <c r="D59" s="101" t="s">
-        <v>706</v>
+      <c r="A59" s="94">
+        <v>63</v>
+      </c>
+      <c r="B59" s="151" t="s">
+        <v>380</v>
+      </c>
+      <c r="C59" s="105" t="s">
+        <v>516</v>
+      </c>
+      <c r="D59" s="105" t="s">
+        <v>517</v>
       </c>
       <c r="E59" s="148" t="s">
         <v>427</v>
       </c>
-      <c r="F59" s="103">
-        <v>77057455796</v>
+      <c r="F59" s="98">
+        <v>77772285335</v>
       </c>
       <c r="G59" s="148" t="s">
-        <v>805</v>
-      </c>
-      <c r="H59" s="124"/>
-      <c r="I59" s="124"/>
-      <c r="J59" s="124"/>
-      <c r="K59" s="124"/>
-      <c r="L59" s="124"/>
-      <c r="M59" s="124"/>
-      <c r="N59" s="124"/>
-      <c r="O59" s="124"/>
-      <c r="P59" s="124"/>
-      <c r="Q59" s="124"/>
-      <c r="R59" s="124"/>
-      <c r="S59" s="149"/>
+        <v>806</v>
+      </c>
+      <c r="H59" s="144"/>
+      <c r="I59" s="144"/>
+      <c r="J59" s="144"/>
+      <c r="K59" s="144"/>
+      <c r="L59" s="144"/>
+      <c r="M59" s="144"/>
+      <c r="N59" s="144"/>
+      <c r="O59" s="144"/>
+      <c r="P59" s="144"/>
+      <c r="Q59" s="144"/>
+      <c r="R59" s="144"/>
+      <c r="S59" s="145"/>
     </row>
     <row r="60" spans="1:19" ht="13.8">
-      <c r="A60" s="94">
-        <v>63</v>
-      </c>
-      <c r="B60" s="151" t="s">
-        <v>380</v>
-      </c>
-      <c r="C60" s="105" t="s">
+      <c r="A60" s="99">
+        <v>64</v>
+      </c>
+      <c r="B60" s="152" t="s">
+        <v>376</v>
+      </c>
+      <c r="C60" s="101" t="s">
         <v>516</v>
       </c>
-      <c r="D60" s="105" t="s">
+      <c r="D60" s="101" t="s">
         <v>517</v>
       </c>
       <c r="E60" s="148" t="s">
         <v>427</v>
       </c>
-      <c r="F60" s="98">
-        <v>77772285335</v>
+      <c r="F60" s="103">
+        <v>77761023037</v>
       </c>
       <c r="G60" s="148" t="s">
-        <v>806</v>
-      </c>
-      <c r="H60" s="144"/>
-      <c r="I60" s="144"/>
-      <c r="J60" s="144"/>
-      <c r="K60" s="144"/>
-      <c r="L60" s="144"/>
-      <c r="M60" s="144"/>
-      <c r="N60" s="144"/>
-      <c r="O60" s="144"/>
-      <c r="P60" s="144"/>
-      <c r="Q60" s="144"/>
-      <c r="R60" s="144"/>
-      <c r="S60" s="145"/>
+        <v>807</v>
+      </c>
+      <c r="H60" s="124"/>
+      <c r="I60" s="124"/>
+      <c r="J60" s="124"/>
+      <c r="K60" s="124"/>
+      <c r="L60" s="124"/>
+      <c r="M60" s="124"/>
+      <c r="N60" s="124"/>
+      <c r="O60" s="124"/>
+      <c r="P60" s="124"/>
+      <c r="Q60" s="124"/>
+      <c r="R60" s="124"/>
+      <c r="S60" s="149"/>
     </row>
     <row r="61" spans="1:19" ht="13.8">
-      <c r="A61" s="99">
-        <v>64</v>
-      </c>
-      <c r="B61" s="152" t="s">
-        <v>376</v>
-      </c>
-      <c r="C61" s="101" t="s">
-        <v>516</v>
-      </c>
-      <c r="D61" s="101" t="s">
-        <v>517</v>
+      <c r="A61" s="94">
+        <v>65</v>
+      </c>
+      <c r="B61" s="105" t="s">
+        <v>698</v>
+      </c>
+      <c r="C61" s="105" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" s="105" t="s">
+        <v>699</v>
       </c>
       <c r="E61" s="148" t="s">
         <v>427</v>
       </c>
-      <c r="F61" s="103">
-        <v>77761023037</v>
+      <c r="F61" s="98">
+        <v>77057454959</v>
       </c>
       <c r="G61" s="148" t="s">
-        <v>807</v>
-      </c>
-      <c r="H61" s="124"/>
-      <c r="I61" s="124"/>
-      <c r="J61" s="124"/>
-      <c r="K61" s="124"/>
-      <c r="L61" s="124"/>
-      <c r="M61" s="124"/>
-      <c r="N61" s="124"/>
-      <c r="O61" s="124"/>
-      <c r="P61" s="124"/>
-      <c r="Q61" s="124"/>
-      <c r="R61" s="124"/>
-      <c r="S61" s="149"/>
+        <v>803</v>
+      </c>
+      <c r="H61" s="144"/>
+      <c r="I61" s="144"/>
+      <c r="J61" s="144"/>
+      <c r="K61" s="144"/>
+      <c r="L61" s="144"/>
+      <c r="M61" s="144"/>
+      <c r="N61" s="144"/>
+      <c r="O61" s="144"/>
+      <c r="P61" s="144"/>
+      <c r="Q61" s="144"/>
+      <c r="R61" s="144"/>
+      <c r="S61" s="145"/>
     </row>
     <row r="62" spans="1:19" ht="13.8">
-      <c r="A62" s="94">
-        <v>65</v>
-      </c>
-      <c r="B62" s="105" t="s">
-        <v>698</v>
-      </c>
-      <c r="C62" s="105" t="s">
-        <v>15</v>
-      </c>
-      <c r="D62" s="105" t="s">
-        <v>699</v>
+      <c r="A62" s="99">
+        <v>66</v>
+      </c>
+      <c r="B62" s="152" t="s">
+        <v>342</v>
+      </c>
+      <c r="C62" s="101" t="s">
+        <v>516</v>
+      </c>
+      <c r="D62" s="101" t="s">
+        <v>520</v>
       </c>
       <c r="E62" s="148" t="s">
         <v>427</v>
       </c>
-      <c r="F62" s="98">
-        <v>77057454959</v>
+      <c r="F62" s="103">
+        <v>77026615811</v>
       </c>
       <c r="G62" s="148" t="s">
-        <v>803</v>
-      </c>
-      <c r="H62" s="144"/>
-      <c r="I62" s="144"/>
-      <c r="J62" s="144"/>
-      <c r="K62" s="144"/>
-      <c r="L62" s="144"/>
-      <c r="M62" s="144"/>
-      <c r="N62" s="144"/>
-      <c r="O62" s="144"/>
-      <c r="P62" s="144"/>
-      <c r="Q62" s="144"/>
-      <c r="R62" s="144"/>
-      <c r="S62" s="145"/>
+        <v>808</v>
+      </c>
+      <c r="H62" s="124"/>
+      <c r="I62" s="124"/>
+      <c r="J62" s="124"/>
+      <c r="K62" s="124"/>
+      <c r="L62" s="124"/>
+      <c r="M62" s="124"/>
+      <c r="N62" s="124"/>
+      <c r="O62" s="124"/>
+      <c r="P62" s="124"/>
+      <c r="Q62" s="124"/>
+      <c r="R62" s="124"/>
+      <c r="S62" s="149"/>
     </row>
     <row r="63" spans="1:19" ht="13.8">
-      <c r="A63" s="99">
-        <v>66</v>
-      </c>
-      <c r="B63" s="152" t="s">
-        <v>342</v>
-      </c>
-      <c r="C63" s="101" t="s">
+      <c r="A63" s="94">
+        <v>68</v>
+      </c>
+      <c r="B63" s="151" t="s">
+        <v>299</v>
+      </c>
+      <c r="C63" s="105" t="s">
         <v>516</v>
       </c>
-      <c r="D63" s="101" t="s">
+      <c r="D63" s="105" t="s">
         <v>520</v>
       </c>
       <c r="E63" s="148" t="s">
         <v>427</v>
       </c>
-      <c r="F63" s="103">
-        <v>77026615811</v>
+      <c r="F63" s="98">
+        <v>77761000911</v>
       </c>
       <c r="G63" s="148" t="s">
-        <v>808</v>
-      </c>
-      <c r="H63" s="124"/>
-      <c r="I63" s="124"/>
-      <c r="J63" s="124"/>
-      <c r="K63" s="124"/>
-      <c r="L63" s="124"/>
-      <c r="M63" s="124"/>
-      <c r="N63" s="124"/>
-      <c r="O63" s="124"/>
-      <c r="P63" s="124"/>
-      <c r="Q63" s="124"/>
-      <c r="R63" s="124"/>
-      <c r="S63" s="149"/>
+        <v>806</v>
+      </c>
+      <c r="H63" s="144"/>
+      <c r="I63" s="144"/>
+      <c r="J63" s="144"/>
+      <c r="K63" s="144"/>
+      <c r="L63" s="144"/>
+      <c r="M63" s="144"/>
+      <c r="N63" s="144"/>
+      <c r="O63" s="144"/>
+      <c r="P63" s="144"/>
+      <c r="Q63" s="144"/>
+      <c r="R63" s="144"/>
+      <c r="S63" s="145"/>
     </row>
     <row r="64" spans="1:19" ht="13.8">
-      <c r="A64" s="94">
-        <v>68</v>
-      </c>
-      <c r="B64" s="151" t="s">
-        <v>299</v>
-      </c>
-      <c r="C64" s="105" t="s">
+      <c r="A64" s="99">
+        <v>69</v>
+      </c>
+      <c r="B64" s="152" t="s">
+        <v>401</v>
+      </c>
+      <c r="C64" s="101" t="s">
         <v>516</v>
       </c>
-      <c r="D64" s="105" t="s">
-        <v>520</v>
+      <c r="D64" s="101" t="s">
+        <v>517</v>
       </c>
       <c r="E64" s="148" t="s">
         <v>427</v>
       </c>
-      <c r="F64" s="98">
-        <v>77761000911</v>
+      <c r="F64" s="103">
+        <v>77022144180</v>
       </c>
       <c r="G64" s="148" t="s">
-        <v>806</v>
-      </c>
-      <c r="H64" s="144"/>
-      <c r="I64" s="144"/>
-      <c r="J64" s="144"/>
-      <c r="K64" s="144"/>
-      <c r="L64" s="144"/>
-      <c r="M64" s="144"/>
-      <c r="N64" s="144"/>
-      <c r="O64" s="144"/>
-      <c r="P64" s="144"/>
-      <c r="Q64" s="144"/>
-      <c r="R64" s="144"/>
-      <c r="S64" s="145"/>
+        <v>803</v>
+      </c>
+      <c r="H64" s="124"/>
+      <c r="I64" s="124"/>
+      <c r="J64" s="124"/>
+      <c r="K64" s="124"/>
+      <c r="L64" s="124"/>
+      <c r="M64" s="124"/>
+      <c r="N64" s="124"/>
+      <c r="O64" s="124"/>
+      <c r="P64" s="124"/>
+      <c r="Q64" s="124"/>
+      <c r="R64" s="124"/>
+      <c r="S64" s="149"/>
     </row>
     <row r="65" spans="1:19" ht="13.8">
-      <c r="A65" s="99">
-        <v>69</v>
-      </c>
-      <c r="B65" s="152" t="s">
-        <v>401</v>
-      </c>
-      <c r="C65" s="101" t="s">
-        <v>516</v>
-      </c>
-      <c r="D65" s="101" t="s">
-        <v>517</v>
+      <c r="A65" s="94">
+        <v>70</v>
+      </c>
+      <c r="B65" s="105" t="s">
+        <v>701</v>
+      </c>
+      <c r="C65" s="105" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" s="105" t="s">
+        <v>699</v>
       </c>
       <c r="E65" s="148" t="s">
         <v>427</v>
       </c>
-      <c r="F65" s="103">
-        <v>77022144180</v>
+      <c r="F65" s="98">
+        <v>77057455794</v>
       </c>
       <c r="G65" s="148" t="s">
-        <v>803</v>
-      </c>
-      <c r="H65" s="124"/>
-      <c r="I65" s="124"/>
-      <c r="J65" s="124"/>
-      <c r="K65" s="124"/>
-      <c r="L65" s="124"/>
-      <c r="M65" s="124"/>
-      <c r="N65" s="124"/>
-      <c r="O65" s="124"/>
-      <c r="P65" s="124"/>
-      <c r="Q65" s="124"/>
-      <c r="R65" s="124"/>
-      <c r="S65" s="149"/>
-    </row>
-    <row r="66" spans="1:19" ht="13.8">
-      <c r="A66" s="94">
-        <v>70</v>
-      </c>
-      <c r="B66" s="105" t="s">
-        <v>701</v>
-      </c>
-      <c r="C66" s="105" t="s">
+        <v>811</v>
+      </c>
+      <c r="H65" s="144"/>
+      <c r="I65" s="144"/>
+      <c r="J65" s="144"/>
+      <c r="K65" s="144"/>
+      <c r="L65" s="144"/>
+      <c r="M65" s="144"/>
+      <c r="N65" s="144"/>
+      <c r="O65" s="144"/>
+      <c r="P65" s="144"/>
+      <c r="Q65" s="144"/>
+      <c r="R65" s="144"/>
+      <c r="S65" s="145"/>
+    </row>
+    <row r="66" spans="1:19" ht="14.4">
+      <c r="A66" s="99">
+        <v>71</v>
+      </c>
+      <c r="B66" s="101" t="s">
+        <v>723</v>
+      </c>
+      <c r="C66" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="D66" s="105" t="s">
-        <v>699</v>
+      <c r="D66" s="101" t="s">
+        <v>724</v>
       </c>
       <c r="E66" s="148" t="s">
-        <v>427</v>
-      </c>
-      <c r="F66" s="98">
-        <v>77057455794</v>
-      </c>
-      <c r="G66" s="148" t="s">
-        <v>811</v>
-      </c>
-      <c r="H66" s="144"/>
-      <c r="I66" s="144"/>
-      <c r="J66" s="144"/>
-      <c r="K66" s="144"/>
-      <c r="L66" s="144"/>
-      <c r="M66" s="144"/>
-      <c r="N66" s="144"/>
-      <c r="O66" s="144"/>
-      <c r="P66" s="144"/>
-      <c r="Q66" s="144"/>
-      <c r="R66" s="144"/>
-      <c r="S66" s="145"/>
-    </row>
-    <row r="67" spans="1:19" ht="14.4">
-      <c r="A67" s="99">
-        <v>71</v>
-      </c>
-      <c r="B67" s="101" t="s">
-        <v>723</v>
-      </c>
-      <c r="C67" s="101" t="s">
-        <v>15</v>
-      </c>
-      <c r="D67" s="101" t="s">
-        <v>724</v>
+        <v>415</v>
+      </c>
+      <c r="F66" s="172" t="s">
+        <v>726</v>
+      </c>
+      <c r="G66" s="154" t="s">
+        <v>822</v>
+      </c>
+      <c r="H66" s="155"/>
+      <c r="I66" s="155"/>
+      <c r="J66" s="155"/>
+      <c r="K66" s="155"/>
+      <c r="L66" s="155"/>
+      <c r="M66" s="155"/>
+      <c r="N66" s="155"/>
+      <c r="O66" s="155"/>
+      <c r="P66" s="155"/>
+      <c r="Q66" s="155"/>
+      <c r="R66" s="155"/>
+      <c r="S66" s="156"/>
+    </row>
+    <row r="67" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A67" s="94">
+        <v>59</v>
+      </c>
+      <c r="B67" s="105" t="s">
+        <v>681</v>
+      </c>
+      <c r="C67" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="D67" s="105" t="s">
+        <v>508</v>
       </c>
       <c r="E67" s="148" t="s">
         <v>415</v>
       </c>
-      <c r="F67" s="172" t="s">
-        <v>726</v>
-      </c>
-      <c r="G67" s="154" t="s">
-        <v>822</v>
-      </c>
-      <c r="H67" s="155"/>
-      <c r="I67" s="155"/>
-      <c r="J67" s="155"/>
-      <c r="K67" s="155"/>
-      <c r="L67" s="155"/>
-      <c r="M67" s="155"/>
-      <c r="N67" s="155"/>
-      <c r="O67" s="155"/>
-      <c r="P67" s="155"/>
-      <c r="Q67" s="155"/>
-      <c r="R67" s="155"/>
-      <c r="S67" s="156"/>
+      <c r="F67" s="98" t="s">
+        <v>683</v>
+      </c>
+      <c r="G67" s="148" t="s">
+        <v>802</v>
+      </c>
+      <c r="H67" s="144"/>
+      <c r="I67" s="144"/>
+      <c r="J67" s="144"/>
+      <c r="K67" s="144"/>
+      <c r="L67" s="144"/>
+      <c r="M67" s="144"/>
+      <c r="N67" s="144"/>
+      <c r="O67" s="144"/>
+      <c r="P67" s="144"/>
+      <c r="Q67" s="144"/>
+      <c r="R67" s="144"/>
+      <c r="S67" s="145"/>
     </row>
     <row r="68" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A68" s="94">
-        <v>59</v>
-      </c>
-      <c r="B68" s="105" t="s">
-        <v>681</v>
-      </c>
-      <c r="C68" s="105" t="s">
-        <v>27</v>
-      </c>
-      <c r="D68" s="105" t="s">
-        <v>508</v>
+      <c r="A68" s="99">
+        <v>72</v>
+      </c>
+      <c r="B68" s="152" t="s">
+        <v>717</v>
+      </c>
+      <c r="C68" s="101" t="s">
+        <v>516</v>
+      </c>
+      <c r="D68" s="101" t="s">
+        <v>517</v>
       </c>
       <c r="E68" s="148" t="s">
         <v>415</v>
       </c>
-      <c r="F68" s="98" t="s">
-        <v>683</v>
-      </c>
-      <c r="G68" s="148" t="s">
-        <v>802</v>
-      </c>
-      <c r="H68" s="144"/>
-      <c r="I68" s="144"/>
-      <c r="J68" s="144"/>
-      <c r="K68" s="144"/>
-      <c r="L68" s="144"/>
-      <c r="M68" s="144"/>
-      <c r="N68" s="144"/>
-      <c r="O68" s="144"/>
-      <c r="P68" s="144"/>
-      <c r="Q68" s="144"/>
-      <c r="R68" s="144"/>
-      <c r="S68" s="145"/>
+      <c r="F68" s="103" t="s">
+        <v>719</v>
+      </c>
+      <c r="G68" s="154" t="s">
+        <v>808</v>
+      </c>
+      <c r="H68" s="155"/>
+      <c r="I68" s="155"/>
+      <c r="J68" s="155"/>
+      <c r="K68" s="155"/>
+      <c r="L68" s="155"/>
+      <c r="M68" s="155"/>
+      <c r="N68" s="155"/>
+      <c r="O68" s="155"/>
+      <c r="P68" s="155"/>
+      <c r="Q68" s="155"/>
+      <c r="R68" s="155"/>
+      <c r="S68" s="156"/>
     </row>
     <row r="69" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A69" s="99">
-        <v>72</v>
-      </c>
-      <c r="B69" s="152" t="s">
-        <v>717</v>
-      </c>
-      <c r="C69" s="101" t="s">
-        <v>516</v>
-      </c>
-      <c r="D69" s="101" t="s">
-        <v>517</v>
+      <c r="A69" s="94">
+        <v>73</v>
+      </c>
+      <c r="B69" s="105" t="s">
+        <v>709</v>
+      </c>
+      <c r="C69" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="D69" s="105" t="s">
+        <v>710</v>
       </c>
       <c r="E69" s="148" t="s">
         <v>415</v>
       </c>
-      <c r="F69" s="103" t="s">
-        <v>719</v>
+      <c r="F69" s="98" t="s">
+        <v>712</v>
       </c>
       <c r="G69" s="154" t="s">
-        <v>808</v>
-      </c>
-      <c r="H69" s="155"/>
-      <c r="I69" s="155"/>
-      <c r="J69" s="155"/>
-      <c r="K69" s="155"/>
-      <c r="L69" s="155"/>
-      <c r="M69" s="155"/>
-      <c r="N69" s="155"/>
-      <c r="O69" s="155"/>
-      <c r="P69" s="155"/>
-      <c r="Q69" s="155"/>
-      <c r="R69" s="155"/>
-      <c r="S69" s="156"/>
+        <v>813</v>
+      </c>
+      <c r="H69" s="157"/>
+      <c r="I69" s="157"/>
+      <c r="J69" s="157"/>
+      <c r="K69" s="157"/>
+      <c r="L69" s="157"/>
+      <c r="M69" s="157"/>
+      <c r="N69" s="157"/>
+      <c r="O69" s="157"/>
+      <c r="P69" s="157"/>
+      <c r="Q69" s="157"/>
+      <c r="R69" s="157"/>
+      <c r="S69" s="158"/>
     </row>
     <row r="70" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A70" s="94">
-        <v>73</v>
-      </c>
-      <c r="B70" s="105" t="s">
-        <v>709</v>
-      </c>
-      <c r="C70" s="105" t="s">
-        <v>27</v>
-      </c>
-      <c r="D70" s="105" t="s">
-        <v>710</v>
+      <c r="A70" s="99">
+        <v>74</v>
+      </c>
+      <c r="B70" s="152" t="s">
+        <v>414</v>
+      </c>
+      <c r="C70" s="101" t="s">
+        <v>516</v>
+      </c>
+      <c r="D70" s="101">
+        <v>0</v>
       </c>
       <c r="E70" s="148" t="s">
         <v>415</v>
       </c>
-      <c r="F70" s="98" t="s">
-        <v>712</v>
+      <c r="F70" s="103">
+        <v>77761009650</v>
       </c>
       <c r="G70" s="154" t="s">
-        <v>813</v>
-      </c>
-      <c r="H70" s="157"/>
-      <c r="I70" s="157"/>
-      <c r="J70" s="157"/>
-      <c r="K70" s="157"/>
-      <c r="L70" s="157"/>
-      <c r="M70" s="157"/>
-      <c r="N70" s="157"/>
-      <c r="O70" s="157"/>
-      <c r="P70" s="157"/>
-      <c r="Q70" s="157"/>
-      <c r="R70" s="157"/>
-      <c r="S70" s="158"/>
-    </row>
-    <row r="71" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A71" s="99">
-        <v>74</v>
-      </c>
-      <c r="B71" s="152" t="s">
-        <v>414</v>
-      </c>
-      <c r="C71" s="101" t="s">
-        <v>516</v>
-      </c>
-      <c r="D71" s="101">
-        <v>0</v>
+        <v>814</v>
+      </c>
+      <c r="H70" s="155"/>
+      <c r="I70" s="155"/>
+      <c r="J70" s="155"/>
+      <c r="K70" s="155"/>
+      <c r="L70" s="155"/>
+      <c r="M70" s="155"/>
+      <c r="N70" s="155"/>
+      <c r="O70" s="155"/>
+      <c r="P70" s="155"/>
+      <c r="Q70" s="155"/>
+      <c r="R70" s="155"/>
+      <c r="S70" s="156"/>
+    </row>
+    <row r="71" spans="1:19" ht="13.8">
+      <c r="A71" s="94">
+        <v>75</v>
+      </c>
+      <c r="B71" s="105" t="s">
+        <v>713</v>
+      </c>
+      <c r="C71" s="105" t="s">
+        <v>714</v>
+      </c>
+      <c r="D71" s="105" t="s">
+        <v>661</v>
       </c>
       <c r="E71" s="148" t="s">
         <v>415</v>
       </c>
-      <c r="F71" s="103">
-        <v>77761009650</v>
-      </c>
-      <c r="G71" s="154" t="s">
-        <v>814</v>
-      </c>
-      <c r="H71" s="155"/>
-      <c r="I71" s="155"/>
-      <c r="J71" s="155"/>
-      <c r="K71" s="155"/>
-      <c r="L71" s="155"/>
-      <c r="M71" s="155"/>
-      <c r="N71" s="155"/>
-      <c r="O71" s="155"/>
-      <c r="P71" s="155"/>
-      <c r="Q71" s="155"/>
-      <c r="R71" s="155"/>
-      <c r="S71" s="156"/>
-    </row>
-    <row r="72" spans="1:19" ht="13.8">
-      <c r="A72" s="94">
-        <v>75</v>
-      </c>
-      <c r="B72" s="105" t="s">
-        <v>713</v>
-      </c>
-      <c r="C72" s="105" t="s">
-        <v>714</v>
-      </c>
-      <c r="D72" s="105" t="s">
-        <v>661</v>
+      <c r="F71" s="118" t="s">
+        <v>716</v>
+      </c>
+      <c r="G71" s="148" t="s">
+        <v>815</v>
+      </c>
+      <c r="H71" s="144"/>
+      <c r="I71" s="144"/>
+      <c r="J71" s="144"/>
+      <c r="K71" s="144"/>
+      <c r="L71" s="144"/>
+      <c r="M71" s="144"/>
+      <c r="N71" s="144"/>
+      <c r="O71" s="144"/>
+      <c r="P71" s="144"/>
+      <c r="Q71" s="144"/>
+      <c r="R71" s="144"/>
+      <c r="S71" s="145"/>
+    </row>
+    <row r="72" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A72" s="99">
+        <v>76</v>
+      </c>
+      <c r="B72" s="152" t="s">
+        <v>720</v>
+      </c>
+      <c r="C72" s="122" t="s">
+        <v>516</v>
+      </c>
+      <c r="D72" s="124" t="s">
+        <v>520</v>
       </c>
       <c r="E72" s="148" t="s">
         <v>415</v>
       </c>
-      <c r="F72" s="118" t="s">
-        <v>716</v>
-      </c>
-      <c r="G72" s="148" t="s">
-        <v>815</v>
-      </c>
-      <c r="H72" s="144"/>
-      <c r="I72" s="144"/>
-      <c r="J72" s="144"/>
-      <c r="K72" s="144"/>
-      <c r="L72" s="144"/>
-      <c r="M72" s="144"/>
-      <c r="N72" s="144"/>
-      <c r="O72" s="144"/>
-      <c r="P72" s="144"/>
-      <c r="Q72" s="144"/>
-      <c r="R72" s="144"/>
-      <c r="S72" s="145"/>
-    </row>
-    <row r="73" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A73" s="99">
-        <v>76</v>
-      </c>
-      <c r="B73" s="152" t="s">
-        <v>720</v>
-      </c>
-      <c r="C73" s="122" t="s">
-        <v>516</v>
-      </c>
-      <c r="D73" s="124" t="s">
-        <v>520</v>
-      </c>
-      <c r="E73" s="148" t="s">
-        <v>415</v>
-      </c>
-      <c r="F73" s="124" t="s">
+      <c r="F72" s="124" t="s">
         <v>722</v>
       </c>
-      <c r="G73" s="154" t="s">
+      <c r="G72" s="154" t="s">
         <v>816</v>
       </c>
-      <c r="H73" s="155"/>
-      <c r="I73" s="155"/>
-      <c r="J73" s="155"/>
-      <c r="K73" s="155"/>
-      <c r="L73" s="155"/>
-      <c r="M73" s="155"/>
-      <c r="N73" s="155"/>
-      <c r="O73" s="155"/>
-      <c r="P73" s="155"/>
-      <c r="Q73" s="155"/>
-      <c r="R73" s="155"/>
-      <c r="S73" s="156"/>
-    </row>
-    <row r="74" spans="1:19" ht="13.8">
-      <c r="A74" s="165"/>
-      <c r="B74" s="166"/>
-      <c r="C74" s="167"/>
-      <c r="D74" s="167"/>
-      <c r="E74" s="168"/>
-      <c r="F74" s="169"/>
-      <c r="G74" s="170"/>
-      <c r="H74" s="170"/>
-      <c r="I74" s="170"/>
-      <c r="J74" s="170"/>
-      <c r="K74" s="170"/>
-      <c r="L74" s="170"/>
-      <c r="M74" s="170"/>
-      <c r="N74" s="170"/>
-      <c r="O74" s="170" t="s">
+      <c r="H72" s="155"/>
+      <c r="I72" s="155"/>
+      <c r="J72" s="155"/>
+      <c r="K72" s="155"/>
+      <c r="L72" s="155"/>
+      <c r="M72" s="155"/>
+      <c r="N72" s="155"/>
+      <c r="O72" s="155"/>
+      <c r="P72" s="155"/>
+      <c r="Q72" s="155"/>
+      <c r="R72" s="155"/>
+      <c r="S72" s="156"/>
+    </row>
+    <row r="73" spans="1:19" ht="13.8">
+      <c r="A73" s="165"/>
+      <c r="B73" s="166"/>
+      <c r="C73" s="167"/>
+      <c r="D73" s="167"/>
+      <c r="E73" s="168"/>
+      <c r="F73" s="169"/>
+      <c r="G73" s="170"/>
+      <c r="H73" s="170"/>
+      <c r="I73" s="170"/>
+      <c r="J73" s="170"/>
+      <c r="K73" s="170"/>
+      <c r="L73" s="170"/>
+      <c r="M73" s="170"/>
+      <c r="N73" s="170"/>
+      <c r="O73" s="170" t="s">
         <v>817</v>
       </c>
-      <c r="P74" s="170" t="s">
+      <c r="P73" s="170" t="s">
         <v>818</v>
       </c>
-      <c r="Q74" s="170" t="s">
+      <c r="Q73" s="170" t="s">
         <v>819</v>
       </c>
-      <c r="R74" s="170" t="s">
+      <c r="R73" s="170" t="s">
         <v>820</v>
       </c>
-      <c r="S74" s="171" t="s">
+      <c r="S73" s="171" t="s">
         <v>821</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H1:H985">
+  <conditionalFormatting sqref="H1:H984">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A74" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A73" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>AND(ISNUMBER(A2),(NOT(OR(NOT(ISERROR(DATEVALUE(A2))), AND(ISNUMBER(A2), LEFT(CELL("format", A2))="D")))))</formula1>
     </dataValidation>
   </dataValidations>

--- a/Контакты Stratera.xlsx
+++ b/Контакты Stratera.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Рабочий стол\heatmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16AD8C99-71B2-4E2A-ABA6-FEA26DA1F76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99917E90-236D-4AB2-9E04-DEDFC59308C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Контакты Stratera.xlsx
+++ b/Контакты Stratera.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Рабочий стол\heatmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99917E90-236D-4AB2-9E04-DEDFC59308C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2374A6D-C5A1-482C-A7E0-E596CE3CFDD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2472" yWindow="2472" windowWidth="13440" windowHeight="9300" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Менеджеры по продажам район (2)" sheetId="5" r:id="rId1"/>
@@ -22,14 +22,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Менеджеры по продажам'!$A$1:$H$83</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Менеджеры по продажам район (2)'!$A$1:$S$78</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Менеджеры по продажам районы'!$A$1:$S$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Менеджеры по продажам районы'!$A$1:$S$71</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2404" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2392" uniqueCount="836">
   <si>
     <t>СКО</t>
   </si>
@@ -5790,9 +5790,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5823,6 +5820,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -5962,10 +5962,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Таблица1_2" displayName="Таблица1_2" ref="A1:S73">
-  <autoFilter ref="A1:S73" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S73">
-    <sortCondition ref="E1:E73"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Таблица1_2" displayName="Таблица1_2" ref="A1:S71">
+  <autoFilter ref="A1:S71" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S71">
+    <sortCondition ref="B1:B71"/>
   </sortState>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="№"/>
@@ -11146,10 +11146,10 @@
       <c r="Z57" s="11"/>
     </row>
     <row r="58" spans="1:26" ht="13.8">
-      <c r="A58" s="176" t="s">
+      <c r="A58" s="175" t="s">
         <v>202</v>
       </c>
-      <c r="B58" s="177"/>
+      <c r="B58" s="176"/>
       <c r="C58" s="27" t="s">
         <v>2</v>
       </c>
@@ -12336,12 +12336,12 @@
       <c r="Z92" s="11"/>
     </row>
     <row r="93" spans="1:26" ht="13.8">
-      <c r="A93" s="178" t="s">
+      <c r="A93" s="177" t="s">
         <v>288</v>
       </c>
-      <c r="B93" s="179"/>
-      <c r="C93" s="179"/>
-      <c r="D93" s="177"/>
+      <c r="B93" s="178"/>
+      <c r="C93" s="178"/>
+      <c r="D93" s="176"/>
       <c r="E93" s="13"/>
       <c r="F93" s="9"/>
       <c r="G93" s="9"/>
@@ -13119,12 +13119,12 @@
       <c r="Z111" s="11"/>
     </row>
     <row r="112" spans="1:26" ht="13.8">
-      <c r="A112" s="180" t="s">
+      <c r="A112" s="179" t="s">
         <v>358</v>
       </c>
-      <c r="B112" s="179"/>
-      <c r="C112" s="179"/>
-      <c r="D112" s="177"/>
+      <c r="B112" s="178"/>
+      <c r="C112" s="178"/>
+      <c r="D112" s="176"/>
       <c r="E112" s="13"/>
       <c r="F112" s="9"/>
       <c r="G112" s="9"/>
@@ -13481,12 +13481,12 @@
       <c r="Z120" s="11"/>
     </row>
     <row r="121" spans="1:26" ht="13.8">
-      <c r="A121" s="178" t="s">
+      <c r="A121" s="177" t="s">
         <v>392</v>
       </c>
-      <c r="B121" s="179"/>
-      <c r="C121" s="179"/>
-      <c r="D121" s="177"/>
+      <c r="B121" s="178"/>
+      <c r="C121" s="178"/>
+      <c r="D121" s="176"/>
       <c r="E121" s="13"/>
       <c r="F121" s="9"/>
       <c r="G121" s="9"/>
@@ -39170,10 +39170,10 @@
       <c r="E57" s="65"/>
     </row>
     <row r="58" spans="1:5" ht="15.6">
-      <c r="A58" s="181" t="s">
+      <c r="A58" s="180" t="s">
         <v>202</v>
       </c>
-      <c r="B58" s="177"/>
+      <c r="B58" s="176"/>
       <c r="C58" s="77" t="s">
         <v>2</v>
       </c>
@@ -39590,12 +39590,12 @@
       <c r="D92" s="62"/>
     </row>
     <row r="93" spans="1:5" ht="13.2">
-      <c r="A93" s="182" t="s">
+      <c r="A93" s="181" t="s">
         <v>481</v>
       </c>
-      <c r="B93" s="179"/>
-      <c r="C93" s="179"/>
-      <c r="D93" s="177"/>
+      <c r="B93" s="178"/>
+      <c r="C93" s="178"/>
+      <c r="D93" s="176"/>
     </row>
     <row r="94" spans="1:5" ht="13.2">
       <c r="A94" s="62" t="s">
@@ -39888,12 +39888,12 @@
       </c>
     </row>
     <row r="111" spans="1:5" ht="13.2">
-      <c r="A111" s="183" t="s">
+      <c r="A111" s="182" t="s">
         <v>484</v>
       </c>
-      <c r="B111" s="184"/>
-      <c r="C111" s="184"/>
-      <c r="D111" s="184"/>
+      <c r="B111" s="183"/>
+      <c r="C111" s="183"/>
+      <c r="D111" s="183"/>
     </row>
     <row r="112" spans="1:5" ht="13.2">
       <c r="A112" s="62" t="s">
@@ -44928,11 +44928,11 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S73"/>
+  <dimension ref="A1:S71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="112" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A67" sqref="A67:XFD67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -45007,23 +45007,25 @@
     </row>
     <row r="2" spans="1:19" ht="13.8">
       <c r="A2" s="142">
-        <v>1</v>
-      </c>
-      <c r="B2" s="143" t="s">
-        <v>542</v>
+        <v>34</v>
+      </c>
+      <c r="B2" s="144" t="s">
+        <v>639</v>
       </c>
       <c r="C2" s="144" t="s">
-        <v>516</v>
-      </c>
-      <c r="D2" s="144"/>
+        <v>27</v>
+      </c>
+      <c r="D2" s="144" t="s">
+        <v>592</v>
+      </c>
       <c r="E2" s="144" t="s">
-        <v>509</v>
-      </c>
-      <c r="F2" s="144" t="s">
-        <v>544</v>
+        <v>772</v>
+      </c>
+      <c r="F2" s="144">
+        <v>77054441706</v>
       </c>
       <c r="G2" s="144" t="s">
-        <v>740</v>
+        <v>828</v>
       </c>
       <c r="H2" s="144"/>
       <c r="I2" s="144"/>
@@ -45038,62 +45040,62 @@
       <c r="R2" s="144"/>
       <c r="S2" s="145"/>
     </row>
-    <row r="3" spans="1:19" ht="13.8">
+    <row r="3" spans="1:19" ht="14.4">
       <c r="A3" s="94">
-        <v>3</v>
-      </c>
-      <c r="B3" s="150" t="s">
-        <v>236</v>
-      </c>
-      <c r="C3" s="96" t="s">
-        <v>516</v>
-      </c>
-      <c r="D3" s="96" t="s">
-        <v>520</v>
-      </c>
-      <c r="E3" s="147" t="s">
-        <v>509</v>
-      </c>
-      <c r="F3" s="98" t="s">
-        <v>524</v>
-      </c>
-      <c r="G3" s="148" t="s">
-        <v>743</v>
-      </c>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="144"/>
-      <c r="L3" s="144"/>
-      <c r="M3" s="144"/>
-      <c r="N3" s="144"/>
-      <c r="O3" s="144"/>
-      <c r="P3" s="144"/>
-      <c r="Q3" s="144"/>
-      <c r="R3" s="144"/>
-      <c r="S3" s="145"/>
+        <v>71</v>
+      </c>
+      <c r="B3" s="105" t="s">
+        <v>723</v>
+      </c>
+      <c r="C3" s="105" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="105" t="s">
+        <v>724</v>
+      </c>
+      <c r="E3" s="148" t="s">
+        <v>415</v>
+      </c>
+      <c r="F3" s="164" t="s">
+        <v>726</v>
+      </c>
+      <c r="G3" s="154" t="s">
+        <v>822</v>
+      </c>
+      <c r="H3" s="157"/>
+      <c r="I3" s="157"/>
+      <c r="J3" s="157"/>
+      <c r="K3" s="157"/>
+      <c r="L3" s="157"/>
+      <c r="M3" s="157"/>
+      <c r="N3" s="157"/>
+      <c r="O3" s="157"/>
+      <c r="P3" s="157"/>
+      <c r="Q3" s="157"/>
+      <c r="R3" s="157"/>
+      <c r="S3" s="158"/>
     </row>
     <row r="4" spans="1:19" ht="13.8">
       <c r="A4" s="99">
-        <v>4</v>
-      </c>
-      <c r="B4" s="146" t="s">
-        <v>349</v>
-      </c>
-      <c r="C4" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="152" t="s">
+        <v>359</v>
+      </c>
+      <c r="C4" s="101" t="s">
         <v>516</v>
       </c>
-      <c r="D4" s="108" t="s">
-        <v>520</v>
-      </c>
-      <c r="E4" s="147" t="s">
-        <v>509</v>
+      <c r="D4" s="101" t="s">
+        <v>517</v>
+      </c>
+      <c r="E4" s="148" t="s">
+        <v>419</v>
       </c>
       <c r="F4" s="110" t="s">
-        <v>532</v>
+        <v>560</v>
       </c>
       <c r="G4" s="148" t="s">
-        <v>744</v>
+        <v>753</v>
       </c>
       <c r="H4" s="124"/>
       <c r="I4" s="124"/>
@@ -45110,25 +45112,25 @@
     </row>
     <row r="5" spans="1:19" ht="13.8">
       <c r="A5" s="94">
-        <v>6</v>
-      </c>
-      <c r="B5" s="150" t="s">
-        <v>307</v>
-      </c>
-      <c r="C5" s="96" t="s">
-        <v>516</v>
-      </c>
-      <c r="D5" s="96" t="s">
-        <v>520</v>
-      </c>
-      <c r="E5" s="147" t="s">
-        <v>509</v>
-      </c>
-      <c r="F5" s="98" t="s">
-        <v>522</v>
+        <v>36</v>
+      </c>
+      <c r="B5" s="105" t="s">
+        <v>641</v>
+      </c>
+      <c r="C5" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="105" t="s">
+        <v>592</v>
+      </c>
+      <c r="E5" s="148" t="s">
+        <v>772</v>
+      </c>
+      <c r="F5" s="98">
+        <v>77775223878</v>
       </c>
       <c r="G5" s="148" t="s">
-        <v>747</v>
+        <v>832</v>
       </c>
       <c r="H5" s="144"/>
       <c r="I5" s="144"/>
@@ -45143,75 +45145,62 @@
       <c r="R5" s="144"/>
       <c r="S5" s="145"/>
     </row>
-    <row r="6" spans="1:19" ht="13.8">
+    <row r="6" spans="1:19" ht="14.4">
       <c r="A6" s="99">
-        <v>5</v>
-      </c>
-      <c r="B6" s="152" t="s">
-        <v>745</v>
+        <v>20</v>
+      </c>
+      <c r="B6" s="101" t="s">
+        <v>583</v>
       </c>
       <c r="C6" s="101" t="s">
-        <v>516</v>
+        <v>27</v>
       </c>
       <c r="D6" s="101" t="s">
-        <v>517</v>
+        <v>584</v>
       </c>
       <c r="E6" s="148" t="s">
-        <v>509</v>
+        <v>570</v>
       </c>
       <c r="F6" s="103" t="s">
-        <v>519</v>
-      </c>
-      <c r="G6" s="148" t="s">
-        <v>741</v>
-      </c>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
-      <c r="L6" s="124"/>
-      <c r="M6" s="124"/>
-      <c r="N6" s="124" t="s">
-        <v>746</v>
-      </c>
-      <c r="O6" s="124">
-        <v>70</v>
-      </c>
-      <c r="P6" s="124">
-        <v>115.5</v>
-      </c>
-      <c r="Q6" s="124">
-        <v>115.5</v>
-      </c>
-      <c r="R6" s="124">
-        <v>49</v>
-      </c>
-      <c r="S6" s="149">
-        <f>SUM(O6:R6)</f>
-        <v>350</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="G6" s="154" t="s">
+        <v>758</v>
+      </c>
+      <c r="H6" s="155"/>
+      <c r="I6" s="155"/>
+      <c r="J6" s="155"/>
+      <c r="K6" s="155"/>
+      <c r="L6" s="155"/>
+      <c r="M6" s="155"/>
+      <c r="N6" s="155"/>
+      <c r="O6" s="155"/>
+      <c r="P6" s="155"/>
+      <c r="Q6" s="155"/>
+      <c r="R6" s="155"/>
+      <c r="S6" s="156"/>
     </row>
     <row r="7" spans="1:19" ht="13.8">
       <c r="A7" s="94">
-        <v>7</v>
-      </c>
-      <c r="B7" s="96" t="s">
-        <v>507</v>
-      </c>
-      <c r="C7" s="96" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="96" t="s">
-        <v>508</v>
-      </c>
-      <c r="E7" s="147" t="s">
-        <v>509</v>
-      </c>
-      <c r="F7" s="98" t="s">
-        <v>511</v>
+        <v>37</v>
+      </c>
+      <c r="B7" s="105" t="s">
+        <v>652</v>
+      </c>
+      <c r="C7" s="105" t="s">
+        <v>653</v>
+      </c>
+      <c r="D7" s="105" t="s">
+        <v>599</v>
+      </c>
+      <c r="E7" s="148" t="s">
+        <v>772</v>
+      </c>
+      <c r="F7" s="98">
+        <v>77711886327</v>
       </c>
       <c r="G7" s="148" t="s">
-        <v>748</v>
+        <v>825</v>
       </c>
       <c r="H7" s="144"/>
       <c r="I7" s="144"/>
@@ -45228,25 +45217,25 @@
     </row>
     <row r="8" spans="1:19" ht="13.8">
       <c r="A8" s="99">
-        <v>8</v>
-      </c>
-      <c r="B8" s="152" t="s">
-        <v>334</v>
+        <v>38</v>
+      </c>
+      <c r="B8" s="101" t="s">
+        <v>634</v>
       </c>
       <c r="C8" s="101" t="s">
-        <v>516</v>
+        <v>27</v>
       </c>
       <c r="D8" s="101" t="s">
-        <v>520</v>
+        <v>635</v>
       </c>
       <c r="E8" s="148" t="s">
-        <v>509</v>
-      </c>
-      <c r="F8" s="103" t="s">
-        <v>526</v>
+        <v>772</v>
+      </c>
+      <c r="F8" s="103">
+        <v>77054627019</v>
       </c>
       <c r="G8" s="148" t="s">
-        <v>749</v>
+        <v>826</v>
       </c>
       <c r="H8" s="124"/>
       <c r="I8" s="124"/>
@@ -45263,25 +45252,23 @@
     </row>
     <row r="9" spans="1:19" ht="13.8">
       <c r="A9" s="94">
-        <v>9</v>
-      </c>
-      <c r="B9" s="150" t="s">
-        <v>326</v>
-      </c>
-      <c r="C9" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="151" t="s">
+        <v>542</v>
+      </c>
+      <c r="C9" s="105" t="s">
         <v>516</v>
       </c>
-      <c r="D9" s="96" t="s">
-        <v>520</v>
-      </c>
-      <c r="E9" s="147" t="s">
+      <c r="D9" s="105"/>
+      <c r="E9" s="148" t="s">
         <v>509</v>
       </c>
       <c r="F9" s="98" t="s">
-        <v>530</v>
+        <v>544</v>
       </c>
       <c r="G9" s="148" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="H9" s="144"/>
       <c r="I9" s="144"/>
@@ -45296,62 +45283,60 @@
       <c r="R9" s="144"/>
       <c r="S9" s="145"/>
     </row>
-    <row r="10" spans="1:19" ht="13.8">
+    <row r="10" spans="1:19" ht="14.4">
       <c r="A10" s="99">
-        <v>10</v>
-      </c>
-      <c r="B10" s="101" t="s">
-        <v>538</v>
+        <v>52</v>
+      </c>
+      <c r="B10" s="152" t="s">
+        <v>678</v>
       </c>
       <c r="C10" s="101" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="101" t="s">
-        <v>539</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="D10" s="101"/>
       <c r="E10" s="148" t="s">
-        <v>509</v>
+        <v>793</v>
       </c>
       <c r="F10" s="103" t="s">
-        <v>541</v>
-      </c>
-      <c r="G10" s="148" t="s">
-        <v>750</v>
-      </c>
-      <c r="H10" s="124"/>
-      <c r="I10" s="124"/>
-      <c r="J10" s="124"/>
-      <c r="K10" s="124"/>
-      <c r="L10" s="124"/>
-      <c r="M10" s="124"/>
-      <c r="N10" s="124"/>
-      <c r="O10" s="124"/>
-      <c r="P10" s="124"/>
-      <c r="Q10" s="124"/>
-      <c r="R10" s="124"/>
-      <c r="S10" s="149"/>
+        <v>680</v>
+      </c>
+      <c r="G10" s="154" t="s">
+        <v>794</v>
+      </c>
+      <c r="H10" s="155"/>
+      <c r="I10" s="155"/>
+      <c r="J10" s="155"/>
+      <c r="K10" s="155"/>
+      <c r="L10" s="155"/>
+      <c r="M10" s="155"/>
+      <c r="N10" s="155"/>
+      <c r="O10" s="155"/>
+      <c r="P10" s="155"/>
+      <c r="Q10" s="155"/>
+      <c r="R10" s="155"/>
+      <c r="S10" s="156"/>
     </row>
     <row r="11" spans="1:19" ht="13.8">
       <c r="A11" s="94">
-        <v>11</v>
-      </c>
-      <c r="B11" s="105" t="s">
-        <v>512</v>
+        <v>60</v>
+      </c>
+      <c r="B11" s="151" t="s">
+        <v>393</v>
       </c>
       <c r="C11" s="105" t="s">
-        <v>27</v>
+        <v>516</v>
       </c>
       <c r="D11" s="105" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="E11" s="148" t="s">
-        <v>509</v>
-      </c>
-      <c r="F11" s="98" t="s">
-        <v>515</v>
+        <v>427</v>
+      </c>
+      <c r="F11" s="98">
+        <v>77078750345</v>
       </c>
       <c r="G11" s="148" t="s">
-        <v>751</v>
+        <v>803</v>
       </c>
       <c r="H11" s="144"/>
       <c r="I11" s="144"/>
@@ -45359,47 +45344,34 @@
       <c r="K11" s="144"/>
       <c r="L11" s="144"/>
       <c r="M11" s="144"/>
-      <c r="N11" s="144" t="s">
-        <v>752</v>
-      </c>
-      <c r="O11" s="144">
-        <v>30</v>
-      </c>
-      <c r="P11" s="144">
-        <v>50</v>
-      </c>
-      <c r="Q11" s="144">
-        <v>50</v>
-      </c>
-      <c r="R11" s="144">
-        <v>20</v>
-      </c>
-      <c r="S11" s="145">
-        <f>SUM(O11:R11)</f>
-        <v>150</v>
-      </c>
+      <c r="N11" s="144"/>
+      <c r="O11" s="144"/>
+      <c r="P11" s="144"/>
+      <c r="Q11" s="144"/>
+      <c r="R11" s="144"/>
+      <c r="S11" s="145"/>
     </row>
     <row r="12" spans="1:19" ht="13.8">
       <c r="A12" s="99">
-        <v>12</v>
-      </c>
-      <c r="B12" s="152" t="s">
-        <v>359</v>
+        <v>61</v>
+      </c>
+      <c r="B12" s="184" t="s">
+        <v>346</v>
       </c>
       <c r="C12" s="101" t="s">
         <v>516</v>
       </c>
       <c r="D12" s="101" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E12" s="148" t="s">
-        <v>419</v>
-      </c>
-      <c r="F12" s="103" t="s">
-        <v>560</v>
+        <v>427</v>
+      </c>
+      <c r="F12" s="103">
+        <v>77057418708</v>
       </c>
       <c r="G12" s="148" t="s">
-        <v>753</v>
+        <v>804</v>
       </c>
       <c r="H12" s="124"/>
       <c r="I12" s="124"/>
@@ -45416,25 +45388,25 @@
     </row>
     <row r="13" spans="1:19" ht="13.8">
       <c r="A13" s="94">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="B13" s="105" t="s">
-        <v>566</v>
+        <v>681</v>
       </c>
       <c r="C13" s="105" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="105" t="s">
-        <v>567</v>
+        <v>508</v>
       </c>
       <c r="E13" s="148" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F13" s="98" t="s">
-        <v>569</v>
+        <v>683</v>
       </c>
       <c r="G13" s="148" t="s">
-        <v>754</v>
+        <v>802</v>
       </c>
       <c r="H13" s="144"/>
       <c r="I13" s="144"/>
@@ -45451,25 +45423,25 @@
     </row>
     <row r="14" spans="1:19" ht="13.8">
       <c r="A14" s="99">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="101" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="C14" s="101" t="s">
-        <v>554</v>
+        <v>27</v>
       </c>
       <c r="D14" s="101" t="s">
-        <v>513</v>
+        <v>567</v>
       </c>
       <c r="E14" s="148" t="s">
         <v>419</v>
       </c>
       <c r="F14" s="103" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="G14" s="148" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H14" s="124"/>
       <c r="I14" s="124"/>
@@ -45486,25 +45458,25 @@
     </row>
     <row r="15" spans="1:19" ht="13.8">
       <c r="A15" s="94">
-        <v>15</v>
-      </c>
-      <c r="B15" s="151" t="s">
-        <v>367</v>
+        <v>39</v>
+      </c>
+      <c r="B15" s="105" t="s">
+        <v>637</v>
       </c>
       <c r="C15" s="105" t="s">
-        <v>516</v>
+        <v>27</v>
       </c>
       <c r="D15" s="105" t="s">
-        <v>517</v>
+        <v>635</v>
       </c>
       <c r="E15" s="148" t="s">
-        <v>419</v>
-      </c>
-      <c r="F15" s="98" t="s">
-        <v>562</v>
+        <v>772</v>
+      </c>
+      <c r="F15" s="98">
+        <v>77477573740</v>
       </c>
       <c r="G15" s="148" t="s">
-        <v>756</v>
+        <v>829</v>
       </c>
       <c r="H15" s="144"/>
       <c r="I15" s="144"/>
@@ -45521,25 +45493,25 @@
     </row>
     <row r="16" spans="1:19" ht="13.8">
       <c r="A16" s="99">
-        <v>17</v>
-      </c>
-      <c r="B16" s="152" t="s">
-        <v>363</v>
+        <v>14</v>
+      </c>
+      <c r="B16" s="101" t="s">
+        <v>553</v>
       </c>
       <c r="C16" s="101" t="s">
-        <v>516</v>
+        <v>554</v>
       </c>
       <c r="D16" s="101" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="E16" s="148" t="s">
         <v>419</v>
       </c>
       <c r="F16" s="103" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G16" s="148" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H16" s="124"/>
       <c r="I16" s="124"/>
@@ -45554,132 +45526,132 @@
       <c r="R16" s="124"/>
       <c r="S16" s="149"/>
     </row>
-    <row r="17" spans="1:19" ht="13.8">
+    <row r="17" spans="1:19" ht="14.4">
       <c r="A17" s="94">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="B17" s="105" t="s">
-        <v>549</v>
+        <v>672</v>
       </c>
       <c r="C17" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="105" t="s">
+        <v>669</v>
+      </c>
+      <c r="E17" s="148" t="s">
+        <v>793</v>
+      </c>
+      <c r="F17" s="98" t="s">
+        <v>674</v>
+      </c>
+      <c r="G17" s="154" t="s">
+        <v>795</v>
+      </c>
+      <c r="H17" s="157"/>
+      <c r="I17" s="157"/>
+      <c r="J17" s="157"/>
+      <c r="K17" s="157"/>
+      <c r="L17" s="157"/>
+      <c r="M17" s="157"/>
+      <c r="N17" s="157"/>
+      <c r="O17" s="157"/>
+      <c r="P17" s="157"/>
+      <c r="Q17" s="157"/>
+      <c r="R17" s="157"/>
+      <c r="S17" s="158"/>
+    </row>
+    <row r="18" spans="1:19" ht="14.4">
+      <c r="A18" s="99">
+        <v>29</v>
+      </c>
+      <c r="B18" s="101" t="s">
+        <v>767</v>
+      </c>
+      <c r="C18" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="105" t="s">
-        <v>550</v>
-      </c>
-      <c r="E17" s="148" t="s">
-        <v>419</v>
-      </c>
-      <c r="F17" s="98" t="s">
-        <v>552</v>
-      </c>
-      <c r="G17" s="148" t="s">
-        <v>756</v>
-      </c>
-      <c r="H17" s="144"/>
-      <c r="I17" s="144"/>
-      <c r="J17" s="144"/>
-      <c r="K17" s="144"/>
-      <c r="L17" s="144"/>
-      <c r="M17" s="144"/>
-      <c r="N17" s="144"/>
-      <c r="O17" s="144"/>
-      <c r="P17" s="144"/>
-      <c r="Q17" s="144"/>
-      <c r="R17" s="144"/>
-      <c r="S17" s="145"/>
-    </row>
-    <row r="18" spans="1:19" ht="13.8">
-      <c r="A18" s="99">
-        <v>19</v>
-      </c>
-      <c r="B18" s="101" t="s">
-        <v>545</v>
-      </c>
-      <c r="C18" s="101" t="s">
-        <v>27</v>
-      </c>
       <c r="D18" s="101" t="s">
-        <v>546</v>
+        <v>603</v>
       </c>
       <c r="E18" s="148" t="s">
-        <v>419</v>
+        <v>609</v>
       </c>
       <c r="F18" s="110" t="s">
-        <v>548</v>
-      </c>
-      <c r="G18" s="148" t="s">
-        <v>757</v>
-      </c>
-      <c r="H18" s="124"/>
-      <c r="I18" s="124"/>
-      <c r="J18" s="124"/>
-      <c r="K18" s="124"/>
-      <c r="L18" s="124"/>
-      <c r="M18" s="124"/>
-      <c r="N18" s="124"/>
-      <c r="O18" s="124"/>
-      <c r="P18" s="124"/>
-      <c r="Q18" s="124"/>
-      <c r="R18" s="124"/>
-      <c r="S18" s="149"/>
-    </row>
-    <row r="19" spans="1:19" ht="14.4">
+        <v>608</v>
+      </c>
+      <c r="G18" s="154" t="s">
+        <v>768</v>
+      </c>
+      <c r="H18" s="155"/>
+      <c r="I18" s="155"/>
+      <c r="J18" s="155"/>
+      <c r="K18" s="155"/>
+      <c r="L18" s="155"/>
+      <c r="M18" s="155"/>
+      <c r="N18" s="155"/>
+      <c r="O18" s="155"/>
+      <c r="P18" s="155"/>
+      <c r="Q18" s="155"/>
+      <c r="R18" s="155"/>
+      <c r="S18" s="156"/>
+    </row>
+    <row r="19" spans="1:19" ht="13.8">
       <c r="A19" s="94">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19" s="128" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="C19" s="105" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="105" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="E19" s="148" t="s">
-        <v>570</v>
+        <v>411</v>
       </c>
       <c r="F19" s="98" t="s">
-        <v>586</v>
-      </c>
-      <c r="G19" s="154" t="s">
-        <v>758</v>
-      </c>
-      <c r="H19" s="157"/>
-      <c r="I19" s="157"/>
-      <c r="J19" s="157"/>
-      <c r="K19" s="157"/>
-      <c r="L19" s="157"/>
-      <c r="M19" s="157"/>
-      <c r="N19" s="157"/>
-      <c r="O19" s="157"/>
-      <c r="P19" s="157"/>
-      <c r="Q19" s="157"/>
-      <c r="R19" s="157"/>
-      <c r="S19" s="158"/>
+        <v>597</v>
+      </c>
+      <c r="G19" s="148" t="s">
+        <v>763</v>
+      </c>
+      <c r="H19" s="144"/>
+      <c r="I19" s="144"/>
+      <c r="J19" s="144"/>
+      <c r="K19" s="144"/>
+      <c r="L19" s="144"/>
+      <c r="M19" s="144"/>
+      <c r="N19" s="144"/>
+      <c r="O19" s="144"/>
+      <c r="P19" s="144"/>
+      <c r="Q19" s="144"/>
+      <c r="R19" s="144"/>
+      <c r="S19" s="145"/>
     </row>
     <row r="20" spans="1:19" ht="15.75" customHeight="1">
       <c r="A20" s="99">
-        <v>21</v>
-      </c>
-      <c r="B20" s="173" t="s">
-        <v>338</v>
+        <v>72</v>
+      </c>
+      <c r="B20" s="172" t="s">
+        <v>717</v>
       </c>
       <c r="C20" s="101" t="s">
         <v>516</v>
       </c>
       <c r="D20" s="101" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E20" s="148" t="s">
-        <v>570</v>
+        <v>415</v>
       </c>
       <c r="F20" s="110" t="s">
-        <v>576</v>
+        <v>719</v>
       </c>
       <c r="G20" s="154" t="s">
-        <v>759</v>
+        <v>808</v>
       </c>
       <c r="H20" s="155"/>
       <c r="I20" s="155"/>
@@ -45696,10 +45668,10 @@
     </row>
     <row r="21" spans="1:19" ht="15.75" customHeight="1">
       <c r="A21" s="94">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B21" s="151" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="C21" s="105" t="s">
         <v>516</v>
@@ -45708,118 +45680,120 @@
         <v>520</v>
       </c>
       <c r="E21" s="148" t="s">
-        <v>570</v>
-      </c>
-      <c r="F21" s="98" t="s">
-        <v>572</v>
-      </c>
-      <c r="G21" s="154" t="s">
-        <v>760</v>
-      </c>
-      <c r="H21" s="157"/>
-      <c r="I21" s="157"/>
-      <c r="J21" s="157"/>
-      <c r="K21" s="157"/>
-      <c r="L21" s="157"/>
-      <c r="M21" s="157"/>
-      <c r="N21" s="157"/>
-      <c r="O21" s="157"/>
-      <c r="P21" s="157"/>
-      <c r="Q21" s="157"/>
-      <c r="R21" s="157"/>
-      <c r="S21" s="158"/>
+        <v>772</v>
+      </c>
+      <c r="F21" s="98">
+        <v>77772459654</v>
+      </c>
+      <c r="G21" s="148" t="s">
+        <v>830</v>
+      </c>
+      <c r="H21" s="144"/>
+      <c r="I21" s="144"/>
+      <c r="J21" s="144"/>
+      <c r="K21" s="144"/>
+      <c r="L21" s="144"/>
+      <c r="M21" s="144"/>
+      <c r="N21" s="144"/>
+      <c r="O21" s="144"/>
+      <c r="P21" s="144"/>
+      <c r="Q21" s="144"/>
+      <c r="R21" s="144"/>
+      <c r="S21" s="145"/>
     </row>
     <row r="22" spans="1:19" ht="15.75" customHeight="1">
       <c r="A22" s="99">
-        <v>23</v>
-      </c>
-      <c r="B22" s="152" t="s">
-        <v>311</v>
+        <v>30</v>
+      </c>
+      <c r="B22" s="101" t="s">
+        <v>602</v>
       </c>
       <c r="C22" s="101" t="s">
-        <v>516</v>
+        <v>15</v>
       </c>
       <c r="D22" s="101" t="s">
-        <v>520</v>
+        <v>603</v>
       </c>
       <c r="E22" s="148" t="s">
-        <v>570</v>
+        <v>609</v>
       </c>
       <c r="F22" s="103" t="s">
-        <v>578</v>
-      </c>
-      <c r="G22" s="154" t="s">
-        <v>761</v>
-      </c>
-      <c r="H22" s="155"/>
-      <c r="I22" s="155"/>
-      <c r="J22" s="155"/>
-      <c r="K22" s="155"/>
-      <c r="L22" s="155"/>
-      <c r="M22" s="155"/>
-      <c r="N22" s="155"/>
-      <c r="O22" s="155"/>
-      <c r="P22" s="155"/>
-      <c r="Q22" s="155"/>
-      <c r="R22" s="155"/>
-      <c r="S22" s="156"/>
+        <v>605</v>
+      </c>
+      <c r="G22" s="148" t="s">
+        <v>834</v>
+      </c>
+      <c r="H22" s="124"/>
+      <c r="I22" s="124"/>
+      <c r="J22" s="124"/>
+      <c r="K22" s="124"/>
+      <c r="L22" s="124"/>
+      <c r="M22" s="124"/>
+      <c r="N22" s="124"/>
+      <c r="O22" s="124"/>
+      <c r="P22" s="124"/>
+      <c r="Q22" s="124"/>
+      <c r="R22" s="124"/>
+      <c r="S22" s="149"/>
     </row>
     <row r="23" spans="1:19" ht="15.75" customHeight="1">
       <c r="A23" s="94">
-        <v>24</v>
-      </c>
-      <c r="B23" s="151" t="s">
-        <v>295</v>
+        <v>41</v>
+      </c>
+      <c r="B23" s="105" t="s">
+        <v>616</v>
       </c>
       <c r="C23" s="105" t="s">
-        <v>516</v>
+        <v>27</v>
       </c>
       <c r="D23" s="105" t="s">
-        <v>520</v>
+        <v>617</v>
       </c>
       <c r="E23" s="148" t="s">
-        <v>570</v>
-      </c>
-      <c r="F23" s="98" t="s">
-        <v>574</v>
-      </c>
-      <c r="G23" s="154" t="s">
-        <v>762</v>
-      </c>
-      <c r="H23" s="157"/>
-      <c r="I23" s="157"/>
-      <c r="J23" s="157"/>
-      <c r="K23" s="157"/>
-      <c r="L23" s="157"/>
-      <c r="M23" s="157"/>
-      <c r="N23" s="157"/>
-      <c r="O23" s="157"/>
-      <c r="P23" s="157"/>
-      <c r="Q23" s="157"/>
-      <c r="R23" s="157"/>
-      <c r="S23" s="158"/>
+        <v>772</v>
+      </c>
+      <c r="F23" s="98">
+        <v>77764004000</v>
+      </c>
+      <c r="G23" s="148" t="s">
+        <v>833</v>
+      </c>
+      <c r="H23" s="144" t="s">
+        <v>782</v>
+      </c>
+      <c r="I23" s="144"/>
+      <c r="J23" s="144"/>
+      <c r="K23" s="144"/>
+      <c r="L23" s="144"/>
+      <c r="M23" s="144"/>
+      <c r="N23" s="144"/>
+      <c r="O23" s="144"/>
+      <c r="P23" s="144"/>
+      <c r="Q23" s="144"/>
+      <c r="R23" s="144"/>
+      <c r="S23" s="145"/>
     </row>
     <row r="24" spans="1:19" ht="15.75" customHeight="1">
       <c r="A24" s="99">
-        <v>25</v>
-      </c>
-      <c r="B24" s="101" t="s">
-        <v>595</v>
+        <v>42</v>
+      </c>
+      <c r="B24" s="152" t="s">
+        <v>621</v>
       </c>
       <c r="C24" s="101" t="s">
-        <v>27</v>
+        <v>516</v>
       </c>
       <c r="D24" s="101" t="s">
-        <v>592</v>
+        <v>517</v>
       </c>
       <c r="E24" s="148" t="s">
-        <v>411</v>
+        <v>772</v>
       </c>
       <c r="F24" s="103" t="s">
-        <v>597</v>
+        <v>623</v>
       </c>
       <c r="G24" s="148" t="s">
-        <v>763</v>
+        <v>783</v>
       </c>
       <c r="H24" s="124"/>
       <c r="I24" s="124"/>
@@ -45836,25 +45810,25 @@
     </row>
     <row r="25" spans="1:19" ht="13.8">
       <c r="A25" s="94">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B25" s="105" t="s">
-        <v>591</v>
+        <v>632</v>
       </c>
       <c r="C25" s="105" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D25" s="105" t="s">
-        <v>592</v>
+        <v>630</v>
       </c>
       <c r="E25" s="148" t="s">
-        <v>411</v>
-      </c>
-      <c r="F25" s="118" t="s">
-        <v>594</v>
+        <v>772</v>
+      </c>
+      <c r="F25" s="118">
+        <v>77710603592</v>
       </c>
       <c r="G25" s="148" t="s">
-        <v>764</v>
+        <v>784</v>
       </c>
       <c r="H25" s="144"/>
       <c r="I25" s="144"/>
@@ -45871,25 +45845,25 @@
     </row>
     <row r="26" spans="1:19" ht="13.8">
       <c r="A26" s="99">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B26" s="152" t="s">
-        <v>410</v>
+        <v>367</v>
       </c>
       <c r="C26" s="101" t="s">
         <v>516</v>
       </c>
-      <c r="D26" s="101">
-        <v>0</v>
+      <c r="D26" s="101" t="s">
+        <v>517</v>
       </c>
       <c r="E26" s="148" t="s">
-        <v>411</v>
-      </c>
-      <c r="F26" s="110">
-        <v>77789056044</v>
+        <v>419</v>
+      </c>
+      <c r="F26" s="110" t="s">
+        <v>562</v>
       </c>
       <c r="G26" s="148" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="H26" s="124"/>
       <c r="I26" s="124"/>
@@ -45906,25 +45880,25 @@
     </row>
     <row r="27" spans="1:19" ht="13.8">
       <c r="A27" s="94">
-        <v>28</v>
-      </c>
-      <c r="B27" s="105" t="s">
-        <v>588</v>
+        <v>44</v>
+      </c>
+      <c r="B27" s="151" t="s">
+        <v>483</v>
       </c>
       <c r="C27" s="105" t="s">
-        <v>27</v>
+        <v>516</v>
       </c>
       <c r="D27" s="105" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="E27" s="148" t="s">
-        <v>411</v>
-      </c>
-      <c r="F27" s="98" t="s">
-        <v>590</v>
+        <v>772</v>
+      </c>
+      <c r="F27" s="98">
+        <v>77719062173</v>
       </c>
       <c r="G27" s="148" t="s">
-        <v>766</v>
+        <v>785</v>
       </c>
       <c r="H27" s="144"/>
       <c r="I27" s="144"/>
@@ -45941,25 +45915,23 @@
     </row>
     <row r="28" spans="1:19" ht="14.4">
       <c r="A28" s="99">
-        <v>29</v>
-      </c>
-      <c r="B28" s="101" t="s">
-        <v>767</v>
+        <v>54</v>
+      </c>
+      <c r="B28" s="152" t="s">
+        <v>423</v>
       </c>
       <c r="C28" s="101" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="101" t="s">
-        <v>603</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="D28" s="101"/>
       <c r="E28" s="148" t="s">
-        <v>609</v>
-      </c>
-      <c r="F28" s="103" t="s">
-        <v>608</v>
+        <v>793</v>
+      </c>
+      <c r="F28" s="103">
+        <v>77477185969</v>
       </c>
       <c r="G28" s="154" t="s">
-        <v>768</v>
+        <v>796</v>
       </c>
       <c r="H28" s="155"/>
       <c r="I28" s="155"/>
@@ -45976,25 +45948,25 @@
     </row>
     <row r="29" spans="1:19" ht="15.75" customHeight="1">
       <c r="A29" s="94">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B29" s="105" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="C29" s="105" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D29" s="105" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="E29" s="148" t="s">
-        <v>609</v>
+        <v>411</v>
       </c>
       <c r="F29" s="98" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="G29" s="148" t="s">
-        <v>834</v>
+        <v>764</v>
       </c>
       <c r="H29" s="144"/>
       <c r="I29" s="144"/>
@@ -46031,73 +46003,75 @@
       <c r="G30" s="159" t="s">
         <v>824</v>
       </c>
-      <c r="H30" s="174"/>
-      <c r="I30" s="174"/>
-      <c r="J30" s="174"/>
-      <c r="K30" s="174"/>
-      <c r="L30" s="174"/>
-      <c r="M30" s="174"/>
-      <c r="N30" s="174"/>
-      <c r="O30" s="174"/>
-      <c r="P30" s="174"/>
-      <c r="Q30" s="174"/>
-      <c r="R30" s="174"/>
-      <c r="S30" s="175"/>
+      <c r="H30" s="173"/>
+      <c r="I30" s="173"/>
+      <c r="J30" s="173"/>
+      <c r="K30" s="173"/>
+      <c r="L30" s="173"/>
+      <c r="M30" s="173"/>
+      <c r="N30" s="173"/>
+      <c r="O30" s="173"/>
+      <c r="P30" s="173"/>
+      <c r="Q30" s="173"/>
+      <c r="R30" s="173"/>
+      <c r="S30" s="174"/>
     </row>
     <row r="31" spans="1:19" ht="15.75" customHeight="1">
       <c r="A31" s="94">
-        <v>33</v>
-      </c>
-      <c r="B31" s="151" t="s">
-        <v>611</v>
-      </c>
-      <c r="C31" s="105" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="150" t="s">
+        <v>236</v>
+      </c>
+      <c r="C31" s="96" t="s">
         <v>516</v>
       </c>
-      <c r="D31" s="105"/>
-      <c r="E31" s="148" t="s">
-        <v>609</v>
+      <c r="D31" s="96" t="s">
+        <v>520</v>
+      </c>
+      <c r="E31" s="147" t="s">
+        <v>509</v>
       </c>
       <c r="F31" s="98" t="s">
-        <v>613</v>
-      </c>
-      <c r="G31" s="159" t="s">
-        <v>771</v>
-      </c>
-      <c r="H31" s="160"/>
-      <c r="I31" s="160"/>
-      <c r="J31" s="160"/>
-      <c r="K31" s="160"/>
-      <c r="L31" s="160"/>
-      <c r="M31" s="160"/>
-      <c r="N31" s="160"/>
-      <c r="O31" s="160"/>
-      <c r="P31" s="160"/>
-      <c r="Q31" s="160"/>
-      <c r="R31" s="160"/>
-      <c r="S31" s="161"/>
+        <v>524</v>
+      </c>
+      <c r="G31" s="148" t="s">
+        <v>743</v>
+      </c>
+      <c r="H31" s="144"/>
+      <c r="I31" s="144"/>
+      <c r="J31" s="144"/>
+      <c r="K31" s="144"/>
+      <c r="L31" s="144"/>
+      <c r="M31" s="144"/>
+      <c r="N31" s="144"/>
+      <c r="O31" s="144"/>
+      <c r="P31" s="144"/>
+      <c r="Q31" s="144"/>
+      <c r="R31" s="144"/>
+      <c r="S31" s="145"/>
     </row>
     <row r="32" spans="1:19" ht="15.75" customHeight="1">
       <c r="A32" s="94">
-        <v>34</v>
-      </c>
-      <c r="B32" s="105" t="s">
-        <v>639</v>
-      </c>
-      <c r="C32" s="105" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="105" t="s">
-        <v>592</v>
-      </c>
-      <c r="E32" s="148" t="s">
-        <v>772</v>
-      </c>
-      <c r="F32" s="98">
-        <v>77054441706</v>
+        <v>4</v>
+      </c>
+      <c r="B32" s="150" t="s">
+        <v>349</v>
+      </c>
+      <c r="C32" s="96" t="s">
+        <v>516</v>
+      </c>
+      <c r="D32" s="96" t="s">
+        <v>520</v>
+      </c>
+      <c r="E32" s="147" t="s">
+        <v>509</v>
+      </c>
+      <c r="F32" s="98" t="s">
+        <v>532</v>
       </c>
       <c r="G32" s="148" t="s">
-        <v>828</v>
+        <v>744</v>
       </c>
       <c r="H32" s="144"/>
       <c r="I32" s="144"/>
@@ -46114,25 +46088,25 @@
     </row>
     <row r="33" spans="1:19" ht="13.8">
       <c r="A33" s="99">
-        <v>36</v>
-      </c>
-      <c r="B33" s="101" t="s">
-        <v>641</v>
+        <v>27</v>
+      </c>
+      <c r="B33" s="152" t="s">
+        <v>410</v>
       </c>
       <c r="C33" s="101" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" s="101" t="s">
-        <v>592</v>
+        <v>516</v>
+      </c>
+      <c r="D33" s="101">
+        <v>0</v>
       </c>
       <c r="E33" s="148" t="s">
-        <v>772</v>
+        <v>411</v>
       </c>
       <c r="F33" s="103">
-        <v>77775223878</v>
+        <v>77789056044</v>
       </c>
       <c r="G33" s="148" t="s">
-        <v>832</v>
+        <v>765</v>
       </c>
       <c r="H33" s="124"/>
       <c r="I33" s="124"/>
@@ -46149,25 +46123,25 @@
     </row>
     <row r="34" spans="1:19" ht="13.8">
       <c r="A34" s="99">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B34" s="101" t="s">
-        <v>652</v>
+        <v>588</v>
       </c>
       <c r="C34" s="101" t="s">
-        <v>653</v>
+        <v>27</v>
       </c>
       <c r="D34" s="101" t="s">
-        <v>599</v>
+        <v>513</v>
       </c>
       <c r="E34" s="148" t="s">
-        <v>772</v>
-      </c>
-      <c r="F34" s="103">
-        <v>77711886327</v>
+        <v>411</v>
+      </c>
+      <c r="F34" s="103" t="s">
+        <v>590</v>
       </c>
       <c r="G34" s="148" t="s">
-        <v>825</v>
+        <v>766</v>
       </c>
       <c r="H34" s="124"/>
       <c r="I34" s="124"/>
@@ -46184,25 +46158,25 @@
     </row>
     <row r="35" spans="1:19" ht="13.8">
       <c r="A35" s="94">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="B35" s="105" t="s">
-        <v>634</v>
+        <v>705</v>
       </c>
       <c r="C35" s="105" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D35" s="105" t="s">
-        <v>635</v>
+        <v>706</v>
       </c>
       <c r="E35" s="148" t="s">
-        <v>772</v>
+        <v>427</v>
       </c>
       <c r="F35" s="98">
-        <v>77054627019</v>
+        <v>77057455796</v>
       </c>
       <c r="G35" s="148" t="s">
-        <v>826</v>
+        <v>805</v>
       </c>
       <c r="H35" s="144"/>
       <c r="I35" s="144"/>
@@ -46217,62 +46191,62 @@
       <c r="R35" s="144"/>
       <c r="S35" s="145"/>
     </row>
-    <row r="36" spans="1:19" ht="13.8">
+    <row r="36" spans="1:19" ht="14.4">
       <c r="A36" s="99">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B36" s="101" t="s">
-        <v>637</v>
+        <v>664</v>
       </c>
       <c r="C36" s="101" t="s">
         <v>27</v>
       </c>
       <c r="D36" s="101" t="s">
-        <v>635</v>
+        <v>665</v>
       </c>
       <c r="E36" s="148" t="s">
-        <v>772</v>
-      </c>
-      <c r="F36" s="103">
-        <v>77477573740</v>
-      </c>
-      <c r="G36" s="148" t="s">
-        <v>829</v>
-      </c>
-      <c r="H36" s="124"/>
-      <c r="I36" s="124"/>
-      <c r="J36" s="124"/>
-      <c r="K36" s="124"/>
-      <c r="L36" s="124"/>
-      <c r="M36" s="124"/>
-      <c r="N36" s="124"/>
-      <c r="O36" s="124"/>
-      <c r="P36" s="124"/>
-      <c r="Q36" s="124"/>
-      <c r="R36" s="124"/>
-      <c r="S36" s="149"/>
+        <v>793</v>
+      </c>
+      <c r="F36" s="103" t="s">
+        <v>667</v>
+      </c>
+      <c r="G36" s="154" t="s">
+        <v>797</v>
+      </c>
+      <c r="H36" s="155"/>
+      <c r="I36" s="155"/>
+      <c r="J36" s="155"/>
+      <c r="K36" s="155"/>
+      <c r="L36" s="155"/>
+      <c r="M36" s="155"/>
+      <c r="N36" s="155"/>
+      <c r="O36" s="155"/>
+      <c r="P36" s="155"/>
+      <c r="Q36" s="155"/>
+      <c r="R36" s="155"/>
+      <c r="S36" s="156"/>
     </row>
     <row r="37" spans="1:19" ht="13.8">
       <c r="A37" s="94">
-        <v>40</v>
-      </c>
-      <c r="B37" s="151" t="s">
-        <v>315</v>
+        <v>45</v>
+      </c>
+      <c r="B37" s="105" t="s">
+        <v>629</v>
       </c>
       <c r="C37" s="105" t="s">
-        <v>516</v>
+        <v>27</v>
       </c>
       <c r="D37" s="105" t="s">
-        <v>520</v>
+        <v>630</v>
       </c>
       <c r="E37" s="148" t="s">
         <v>772</v>
       </c>
       <c r="F37" s="98">
-        <v>77772459654</v>
+        <v>7710609229</v>
       </c>
       <c r="G37" s="148" t="s">
-        <v>830</v>
+        <v>786</v>
       </c>
       <c r="H37" s="144"/>
       <c r="I37" s="144"/>
@@ -46289,29 +46263,27 @@
     </row>
     <row r="38" spans="1:19" ht="13.8">
       <c r="A38" s="99">
-        <v>41</v>
-      </c>
-      <c r="B38" s="101" t="s">
-        <v>616</v>
+        <v>63</v>
+      </c>
+      <c r="B38" s="152" t="s">
+        <v>380</v>
       </c>
       <c r="C38" s="101" t="s">
-        <v>27</v>
+        <v>516</v>
       </c>
       <c r="D38" s="101" t="s">
-        <v>617</v>
+        <v>517</v>
       </c>
       <c r="E38" s="148" t="s">
-        <v>772</v>
+        <v>427</v>
       </c>
       <c r="F38" s="110">
-        <v>77764004000</v>
+        <v>77772285335</v>
       </c>
       <c r="G38" s="148" t="s">
-        <v>833</v>
-      </c>
-      <c r="H38" s="124" t="s">
-        <v>782</v>
-      </c>
+        <v>806</v>
+      </c>
+      <c r="H38" s="124"/>
       <c r="I38" s="124"/>
       <c r="J38" s="124"/>
       <c r="K38" s="124"/>
@@ -46326,25 +46298,25 @@
     </row>
     <row r="39" spans="1:19" ht="13.8">
       <c r="A39" s="94">
-        <v>42</v>
-      </c>
-      <c r="B39" s="151" t="s">
-        <v>621</v>
-      </c>
-      <c r="C39" s="105" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="150" t="s">
+        <v>307</v>
+      </c>
+      <c r="C39" s="96" t="s">
         <v>516</v>
       </c>
-      <c r="D39" s="105" t="s">
-        <v>517</v>
-      </c>
-      <c r="E39" s="148" t="s">
-        <v>772</v>
+      <c r="D39" s="96" t="s">
+        <v>520</v>
+      </c>
+      <c r="E39" s="147" t="s">
+        <v>509</v>
       </c>
       <c r="F39" s="98" t="s">
-        <v>623</v>
+        <v>522</v>
       </c>
       <c r="G39" s="148" t="s">
-        <v>783</v>
+        <v>747</v>
       </c>
       <c r="H39" s="144"/>
       <c r="I39" s="144"/>
@@ -46361,25 +46333,25 @@
     </row>
     <row r="40" spans="1:19" ht="13.8">
       <c r="A40" s="94">
-        <v>43</v>
-      </c>
-      <c r="B40" s="105" t="s">
-        <v>632</v>
+        <v>5</v>
+      </c>
+      <c r="B40" s="151" t="s">
+        <v>745</v>
       </c>
       <c r="C40" s="105" t="s">
-        <v>15</v>
+        <v>516</v>
       </c>
       <c r="D40" s="105" t="s">
-        <v>630</v>
+        <v>517</v>
       </c>
       <c r="E40" s="148" t="s">
-        <v>772</v>
-      </c>
-      <c r="F40" s="98">
-        <v>77710603592</v>
+        <v>509</v>
+      </c>
+      <c r="F40" s="98" t="s">
+        <v>519</v>
       </c>
       <c r="G40" s="148" t="s">
-        <v>784</v>
+        <v>741</v>
       </c>
       <c r="H40" s="144"/>
       <c r="I40" s="144"/>
@@ -46387,34 +46359,47 @@
       <c r="K40" s="144"/>
       <c r="L40" s="144"/>
       <c r="M40" s="144"/>
-      <c r="N40" s="144"/>
-      <c r="O40" s="144"/>
-      <c r="P40" s="144"/>
-      <c r="Q40" s="144"/>
-      <c r="R40" s="144"/>
-      <c r="S40" s="145"/>
+      <c r="N40" s="144" t="s">
+        <v>746</v>
+      </c>
+      <c r="O40" s="144">
+        <v>70</v>
+      </c>
+      <c r="P40" s="144">
+        <v>115.5</v>
+      </c>
+      <c r="Q40" s="144">
+        <v>115.5</v>
+      </c>
+      <c r="R40" s="144">
+        <v>49</v>
+      </c>
+      <c r="S40" s="145">
+        <f>SUM(O40:R40)</f>
+        <v>350</v>
+      </c>
     </row>
     <row r="41" spans="1:19" ht="13.8">
       <c r="A41" s="99">
-        <v>44</v>
-      </c>
-      <c r="B41" s="162" t="s">
-        <v>483</v>
+        <v>47</v>
+      </c>
+      <c r="B41" s="122" t="s">
+        <v>619</v>
       </c>
       <c r="C41" s="122" t="s">
-        <v>516</v>
+        <v>27</v>
       </c>
       <c r="D41" s="122" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="E41" s="148" t="s">
         <v>772</v>
       </c>
       <c r="F41" s="124">
-        <v>77719062173</v>
+        <v>77711886438</v>
       </c>
       <c r="G41" s="148" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="H41" s="124"/>
       <c r="I41" s="124"/>
@@ -46431,25 +46416,25 @@
     </row>
     <row r="42" spans="1:19" ht="13.8">
       <c r="A42" s="99">
-        <v>45</v>
-      </c>
-      <c r="B42" s="101" t="s">
-        <v>629</v>
+        <v>64</v>
+      </c>
+      <c r="B42" s="152" t="s">
+        <v>376</v>
       </c>
       <c r="C42" s="101" t="s">
-        <v>27</v>
+        <v>516</v>
       </c>
       <c r="D42" s="101" t="s">
-        <v>630</v>
+        <v>517</v>
       </c>
       <c r="E42" s="148" t="s">
-        <v>772</v>
+        <v>427</v>
       </c>
       <c r="F42" s="103">
-        <v>7710609229</v>
+        <v>77761023037</v>
       </c>
       <c r="G42" s="148" t="s">
-        <v>786</v>
+        <v>807</v>
       </c>
       <c r="H42" s="124"/>
       <c r="I42" s="124"/>
@@ -46464,62 +46449,60 @@
       <c r="R42" s="124"/>
       <c r="S42" s="149"/>
     </row>
-    <row r="43" spans="1:19" ht="13.8">
+    <row r="43" spans="1:19" ht="14.4">
       <c r="A43" s="94">
-        <v>47</v>
-      </c>
-      <c r="B43" s="105" t="s">
-        <v>619</v>
+        <v>33</v>
+      </c>
+      <c r="B43" s="151" t="s">
+        <v>611</v>
       </c>
       <c r="C43" s="105" t="s">
-        <v>27</v>
-      </c>
-      <c r="D43" s="105" t="s">
-        <v>513</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="D43" s="105"/>
       <c r="E43" s="148" t="s">
-        <v>772</v>
-      </c>
-      <c r="F43" s="98">
-        <v>77711886438</v>
-      </c>
-      <c r="G43" s="148" t="s">
-        <v>788</v>
-      </c>
-      <c r="H43" s="144"/>
-      <c r="I43" s="144"/>
-      <c r="J43" s="144"/>
-      <c r="K43" s="144"/>
-      <c r="L43" s="144"/>
-      <c r="M43" s="144"/>
-      <c r="N43" s="144"/>
-      <c r="O43" s="144"/>
-      <c r="P43" s="144"/>
-      <c r="Q43" s="144"/>
-      <c r="R43" s="144"/>
-      <c r="S43" s="145"/>
+        <v>609</v>
+      </c>
+      <c r="F43" s="98" t="s">
+        <v>613</v>
+      </c>
+      <c r="G43" s="159" t="s">
+        <v>771</v>
+      </c>
+      <c r="H43" s="160"/>
+      <c r="I43" s="160"/>
+      <c r="J43" s="160"/>
+      <c r="K43" s="160"/>
+      <c r="L43" s="160"/>
+      <c r="M43" s="160"/>
+      <c r="N43" s="160"/>
+      <c r="O43" s="160"/>
+      <c r="P43" s="160"/>
+      <c r="Q43" s="160"/>
+      <c r="R43" s="160"/>
+      <c r="S43" s="161"/>
     </row>
     <row r="44" spans="1:19" ht="13.8">
       <c r="A44" s="99">
-        <v>48</v>
-      </c>
-      <c r="B44" s="152" t="s">
-        <v>627</v>
-      </c>
-      <c r="C44" s="101" t="s">
-        <v>516</v>
-      </c>
-      <c r="D44" s="101" t="s">
-        <v>517</v>
-      </c>
-      <c r="E44" s="148" t="s">
-        <v>772</v>
-      </c>
-      <c r="F44" s="103">
-        <v>77753480121</v>
+        <v>7</v>
+      </c>
+      <c r="B44" s="108" t="s">
+        <v>507</v>
+      </c>
+      <c r="C44" s="108" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="108" t="s">
+        <v>508</v>
+      </c>
+      <c r="E44" s="147" t="s">
+        <v>509</v>
+      </c>
+      <c r="F44" s="103" t="s">
+        <v>511</v>
       </c>
       <c r="G44" s="148" t="s">
-        <v>835</v>
+        <v>748</v>
       </c>
       <c r="H44" s="124"/>
       <c r="I44" s="124"/>
@@ -46536,25 +46519,25 @@
     </row>
     <row r="45" spans="1:19" ht="13.8">
       <c r="A45" s="94">
-        <v>49</v>
-      </c>
-      <c r="B45" s="105" t="s">
-        <v>614</v>
+        <v>48</v>
+      </c>
+      <c r="B45" s="151" t="s">
+        <v>627</v>
       </c>
       <c r="C45" s="105" t="s">
-        <v>27</v>
+        <v>516</v>
       </c>
       <c r="D45" s="105" t="s">
-        <v>546</v>
+        <v>517</v>
       </c>
       <c r="E45" s="148" t="s">
         <v>772</v>
       </c>
       <c r="F45" s="98">
-        <v>77479305650</v>
+        <v>77753480121</v>
       </c>
       <c r="G45" s="148" t="s">
-        <v>827</v>
+        <v>835</v>
       </c>
       <c r="H45" s="144"/>
       <c r="I45" s="144"/>
@@ -46569,62 +46552,62 @@
       <c r="R45" s="144"/>
       <c r="S45" s="145"/>
     </row>
-    <row r="46" spans="1:19" ht="13.8">
+    <row r="46" spans="1:19" ht="14.4">
       <c r="A46" s="99">
-        <v>50</v>
-      </c>
-      <c r="B46" s="152" t="s">
-        <v>624</v>
+        <v>73</v>
+      </c>
+      <c r="B46" s="101" t="s">
+        <v>709</v>
       </c>
       <c r="C46" s="101" t="s">
-        <v>516</v>
+        <v>27</v>
       </c>
       <c r="D46" s="101" t="s">
-        <v>517</v>
+        <v>710</v>
       </c>
       <c r="E46" s="148" t="s">
-        <v>772</v>
+        <v>415</v>
       </c>
       <c r="F46" s="103" t="s">
-        <v>626</v>
-      </c>
-      <c r="G46" s="148" t="s">
-        <v>831</v>
-      </c>
-      <c r="H46" s="124"/>
-      <c r="I46" s="124"/>
-      <c r="J46" s="124"/>
-      <c r="K46" s="124"/>
-      <c r="L46" s="124"/>
-      <c r="M46" s="124"/>
-      <c r="N46" s="124"/>
-      <c r="O46" s="124"/>
-      <c r="P46" s="124"/>
-      <c r="Q46" s="124"/>
-      <c r="R46" s="124"/>
-      <c r="S46" s="149"/>
+        <v>712</v>
+      </c>
+      <c r="G46" s="154" t="s">
+        <v>813</v>
+      </c>
+      <c r="H46" s="155"/>
+      <c r="I46" s="155"/>
+      <c r="J46" s="155"/>
+      <c r="K46" s="155"/>
+      <c r="L46" s="155"/>
+      <c r="M46" s="155"/>
+      <c r="N46" s="155"/>
+      <c r="O46" s="155"/>
+      <c r="P46" s="155"/>
+      <c r="Q46" s="155"/>
+      <c r="R46" s="155"/>
+      <c r="S46" s="156"/>
     </row>
     <row r="47" spans="1:19" ht="13.8">
       <c r="A47" s="94">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B47" s="105" t="s">
-        <v>645</v>
+        <v>698</v>
       </c>
       <c r="C47" s="105" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="105" t="s">
-        <v>646</v>
+        <v>699</v>
       </c>
       <c r="E47" s="148" t="s">
-        <v>772</v>
+        <v>427</v>
       </c>
       <c r="F47" s="98">
-        <v>77756396005</v>
+        <v>77057454959</v>
       </c>
       <c r="G47" s="148" t="s">
-        <v>792</v>
+        <v>803</v>
       </c>
       <c r="H47" s="144"/>
       <c r="I47" s="144"/>
@@ -46641,58 +46624,60 @@
     </row>
     <row r="48" spans="1:19" ht="15.75" customHeight="1">
       <c r="A48" s="99">
-        <v>52</v>
-      </c>
-      <c r="B48" s="152" t="s">
-        <v>678</v>
+        <v>49</v>
+      </c>
+      <c r="B48" s="101" t="s">
+        <v>614</v>
       </c>
       <c r="C48" s="101" t="s">
-        <v>516</v>
-      </c>
-      <c r="D48" s="101"/>
+        <v>27</v>
+      </c>
+      <c r="D48" s="101" t="s">
+        <v>546</v>
+      </c>
       <c r="E48" s="148" t="s">
-        <v>793</v>
-      </c>
-      <c r="F48" s="103" t="s">
-        <v>680</v>
-      </c>
-      <c r="G48" s="154" t="s">
-        <v>794</v>
-      </c>
-      <c r="H48" s="155"/>
-      <c r="I48" s="155"/>
-      <c r="J48" s="155"/>
-      <c r="K48" s="155"/>
-      <c r="L48" s="155"/>
-      <c r="M48" s="155"/>
-      <c r="N48" s="155"/>
-      <c r="O48" s="155"/>
-      <c r="P48" s="155"/>
-      <c r="Q48" s="155"/>
-      <c r="R48" s="155"/>
-      <c r="S48" s="156"/>
+        <v>772</v>
+      </c>
+      <c r="F48" s="103">
+        <v>77479305650</v>
+      </c>
+      <c r="G48" s="148" t="s">
+        <v>827</v>
+      </c>
+      <c r="H48" s="124"/>
+      <c r="I48" s="124"/>
+      <c r="J48" s="124"/>
+      <c r="K48" s="124"/>
+      <c r="L48" s="124"/>
+      <c r="M48" s="124"/>
+      <c r="N48" s="124"/>
+      <c r="O48" s="124"/>
+      <c r="P48" s="124"/>
+      <c r="Q48" s="124"/>
+      <c r="R48" s="124"/>
+      <c r="S48" s="149"/>
     </row>
     <row r="49" spans="1:19" ht="15.75" customHeight="1">
       <c r="A49" s="94">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49" s="105" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="C49" s="105" t="s">
         <v>27</v>
       </c>
       <c r="D49" s="105" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="E49" s="148" t="s">
         <v>793</v>
       </c>
       <c r="F49" s="98" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="G49" s="154" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="H49" s="157"/>
       <c r="I49" s="157"/>
@@ -46709,23 +46694,25 @@
     </row>
     <row r="50" spans="1:19" ht="15.75" customHeight="1">
       <c r="A50" s="99">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="B50" s="152" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="C50" s="101" t="s">
         <v>516</v>
       </c>
-      <c r="D50" s="101"/>
+      <c r="D50" s="101">
+        <v>0</v>
+      </c>
       <c r="E50" s="148" t="s">
-        <v>793</v>
+        <v>415</v>
       </c>
       <c r="F50" s="103">
-        <v>77477185969</v>
+        <v>77761009650</v>
       </c>
       <c r="G50" s="154" t="s">
-        <v>796</v>
+        <v>814</v>
       </c>
       <c r="H50" s="155"/>
       <c r="I50" s="155"/>
@@ -46742,25 +46729,25 @@
     </row>
     <row r="51" spans="1:19" ht="15.75" customHeight="1">
       <c r="A51" s="94">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B51" s="105" t="s">
-        <v>664</v>
+        <v>799</v>
       </c>
       <c r="C51" s="105" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D51" s="105" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="E51" s="148" t="s">
         <v>793</v>
       </c>
       <c r="F51" s="118" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="G51" s="154" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="H51" s="157"/>
       <c r="I51" s="157"/>
@@ -46777,95 +46764,95 @@
     </row>
     <row r="52" spans="1:19" ht="15.75" customHeight="1">
       <c r="A52" s="99">
-        <v>56</v>
-      </c>
-      <c r="B52" s="101" t="s">
-        <v>660</v>
+        <v>66</v>
+      </c>
+      <c r="B52" s="152" t="s">
+        <v>342</v>
       </c>
       <c r="C52" s="101" t="s">
-        <v>27</v>
+        <v>516</v>
       </c>
       <c r="D52" s="101" t="s">
-        <v>661</v>
+        <v>520</v>
       </c>
       <c r="E52" s="148" t="s">
-        <v>793</v>
-      </c>
-      <c r="F52" s="110" t="s">
-        <v>663</v>
-      </c>
-      <c r="G52" s="154" t="s">
-        <v>798</v>
-      </c>
-      <c r="H52" s="155"/>
-      <c r="I52" s="155"/>
-      <c r="J52" s="155"/>
-      <c r="K52" s="155"/>
-      <c r="L52" s="155"/>
-      <c r="M52" s="155"/>
-      <c r="N52" s="155"/>
-      <c r="O52" s="155"/>
-      <c r="P52" s="155"/>
-      <c r="Q52" s="155"/>
-      <c r="R52" s="155"/>
-      <c r="S52" s="156"/>
+        <v>427</v>
+      </c>
+      <c r="F52" s="110">
+        <v>77026615811</v>
+      </c>
+      <c r="G52" s="148" t="s">
+        <v>808</v>
+      </c>
+      <c r="H52" s="124"/>
+      <c r="I52" s="124"/>
+      <c r="J52" s="124"/>
+      <c r="K52" s="124"/>
+      <c r="L52" s="124"/>
+      <c r="M52" s="124"/>
+      <c r="N52" s="124"/>
+      <c r="O52" s="124"/>
+      <c r="P52" s="124"/>
+      <c r="Q52" s="124"/>
+      <c r="R52" s="124"/>
+      <c r="S52" s="149"/>
     </row>
     <row r="53" spans="1:19" ht="15.75" customHeight="1">
       <c r="A53" s="94">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B53" s="105" t="s">
-        <v>799</v>
+        <v>713</v>
       </c>
       <c r="C53" s="105" t="s">
-        <v>15</v>
+        <v>714</v>
       </c>
       <c r="D53" s="105" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="E53" s="148" t="s">
-        <v>793</v>
+        <v>415</v>
       </c>
       <c r="F53" s="98" t="s">
-        <v>671</v>
-      </c>
-      <c r="G53" s="154" t="s">
-        <v>800</v>
-      </c>
-      <c r="H53" s="157"/>
-      <c r="I53" s="157"/>
-      <c r="J53" s="157"/>
-      <c r="K53" s="157"/>
-      <c r="L53" s="157"/>
-      <c r="M53" s="157"/>
-      <c r="N53" s="157"/>
-      <c r="O53" s="157"/>
-      <c r="P53" s="157"/>
-      <c r="Q53" s="157"/>
-      <c r="R53" s="157"/>
-      <c r="S53" s="158"/>
+        <v>716</v>
+      </c>
+      <c r="G53" s="148" t="s">
+        <v>815</v>
+      </c>
+      <c r="H53" s="144"/>
+      <c r="I53" s="144"/>
+      <c r="J53" s="144"/>
+      <c r="K53" s="144"/>
+      <c r="L53" s="144"/>
+      <c r="M53" s="144"/>
+      <c r="N53" s="144"/>
+      <c r="O53" s="144"/>
+      <c r="P53" s="144"/>
+      <c r="Q53" s="144"/>
+      <c r="R53" s="144"/>
+      <c r="S53" s="145"/>
     </row>
     <row r="54" spans="1:19" ht="15.75" customHeight="1">
       <c r="A54" s="99">
-        <v>58</v>
-      </c>
-      <c r="B54" s="101" t="s">
-        <v>675</v>
+        <v>21</v>
+      </c>
+      <c r="B54" s="152" t="s">
+        <v>338</v>
       </c>
       <c r="C54" s="101" t="s">
-        <v>27</v>
+        <v>516</v>
       </c>
       <c r="D54" s="101" t="s">
-        <v>539</v>
+        <v>520</v>
       </c>
       <c r="E54" s="148" t="s">
-        <v>793</v>
-      </c>
-      <c r="F54" s="103">
-        <v>77775223892</v>
+        <v>570</v>
+      </c>
+      <c r="F54" s="103" t="s">
+        <v>576</v>
       </c>
       <c r="G54" s="154" t="s">
-        <v>823</v>
+        <v>759</v>
       </c>
       <c r="H54" s="155"/>
       <c r="I54" s="155"/>
@@ -46882,25 +46869,25 @@
     </row>
     <row r="55" spans="1:19" ht="13.8">
       <c r="A55" s="94">
-        <v>67</v>
-      </c>
-      <c r="B55" s="105" t="s">
-        <v>688</v>
+        <v>50</v>
+      </c>
+      <c r="B55" s="151" t="s">
+        <v>624</v>
       </c>
       <c r="C55" s="105" t="s">
-        <v>20</v>
+        <v>516</v>
       </c>
       <c r="D55" s="105" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="E55" s="148" t="s">
-        <v>809</v>
+        <v>772</v>
       </c>
       <c r="F55" s="98" t="s">
-        <v>690</v>
+        <v>626</v>
       </c>
       <c r="G55" s="148" t="s">
-        <v>810</v>
+        <v>831</v>
       </c>
       <c r="H55" s="144"/>
       <c r="I55" s="144"/>
@@ -46915,62 +46902,62 @@
       <c r="R55" s="144"/>
       <c r="S55" s="145"/>
     </row>
-    <row r="56" spans="1:19" ht="13.8">
+    <row r="56" spans="1:19" ht="14.4">
       <c r="A56" s="99">
-        <v>60</v>
-      </c>
-      <c r="B56" s="152" t="s">
-        <v>393</v>
+        <v>58</v>
+      </c>
+      <c r="B56" s="101" t="s">
+        <v>675</v>
       </c>
       <c r="C56" s="101" t="s">
-        <v>516</v>
+        <v>27</v>
       </c>
       <c r="D56" s="101" t="s">
-        <v>517</v>
+        <v>539</v>
       </c>
       <c r="E56" s="148" t="s">
-        <v>427</v>
+        <v>793</v>
       </c>
       <c r="F56" s="103">
-        <v>77078750345</v>
-      </c>
-      <c r="G56" s="148" t="s">
-        <v>803</v>
-      </c>
-      <c r="H56" s="124"/>
-      <c r="I56" s="124"/>
-      <c r="J56" s="124"/>
-      <c r="K56" s="124"/>
-      <c r="L56" s="124"/>
-      <c r="M56" s="124"/>
-      <c r="N56" s="124"/>
-      <c r="O56" s="124"/>
-      <c r="P56" s="124"/>
-      <c r="Q56" s="124"/>
-      <c r="R56" s="124"/>
-      <c r="S56" s="149"/>
+        <v>77775223892</v>
+      </c>
+      <c r="G56" s="154" t="s">
+        <v>823</v>
+      </c>
+      <c r="H56" s="155"/>
+      <c r="I56" s="155"/>
+      <c r="J56" s="155"/>
+      <c r="K56" s="155"/>
+      <c r="L56" s="155"/>
+      <c r="M56" s="155"/>
+      <c r="N56" s="155"/>
+      <c r="O56" s="155"/>
+      <c r="P56" s="155"/>
+      <c r="Q56" s="155"/>
+      <c r="R56" s="155"/>
+      <c r="S56" s="156"/>
     </row>
     <row r="57" spans="1:19" ht="13.8">
       <c r="A57" s="94">
-        <v>61</v>
-      </c>
-      <c r="B57" s="163" t="s">
-        <v>346</v>
+        <v>17</v>
+      </c>
+      <c r="B57" s="151" t="s">
+        <v>363</v>
       </c>
       <c r="C57" s="105" t="s">
         <v>516</v>
       </c>
       <c r="D57" s="105" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E57" s="148" t="s">
-        <v>427</v>
-      </c>
-      <c r="F57" s="98">
-        <v>77057418708</v>
+        <v>419</v>
+      </c>
+      <c r="F57" s="98" t="s">
+        <v>558</v>
       </c>
       <c r="G57" s="148" t="s">
-        <v>804</v>
+        <v>756</v>
       </c>
       <c r="H57" s="144"/>
       <c r="I57" s="144"/>
@@ -46985,62 +46972,62 @@
       <c r="R57" s="144"/>
       <c r="S57" s="145"/>
     </row>
-    <row r="58" spans="1:19" ht="13.8">
+    <row r="58" spans="1:19" ht="14.4">
       <c r="A58" s="99">
-        <v>62</v>
-      </c>
-      <c r="B58" s="101" t="s">
-        <v>705</v>
+        <v>22</v>
+      </c>
+      <c r="B58" s="152" t="s">
+        <v>289</v>
       </c>
       <c r="C58" s="101" t="s">
-        <v>15</v>
+        <v>516</v>
       </c>
       <c r="D58" s="101" t="s">
-        <v>706</v>
+        <v>520</v>
       </c>
       <c r="E58" s="148" t="s">
-        <v>427</v>
-      </c>
-      <c r="F58" s="103">
-        <v>77057455796</v>
-      </c>
-      <c r="G58" s="148" t="s">
-        <v>805</v>
-      </c>
-      <c r="H58" s="124"/>
-      <c r="I58" s="124"/>
-      <c r="J58" s="124"/>
-      <c r="K58" s="124"/>
-      <c r="L58" s="124"/>
-      <c r="M58" s="124"/>
-      <c r="N58" s="124"/>
-      <c r="O58" s="124"/>
-      <c r="P58" s="124"/>
-      <c r="Q58" s="124"/>
-      <c r="R58" s="124"/>
-      <c r="S58" s="149"/>
+        <v>570</v>
+      </c>
+      <c r="F58" s="103" t="s">
+        <v>572</v>
+      </c>
+      <c r="G58" s="154" t="s">
+        <v>760</v>
+      </c>
+      <c r="H58" s="155"/>
+      <c r="I58" s="155"/>
+      <c r="J58" s="155"/>
+      <c r="K58" s="155"/>
+      <c r="L58" s="155"/>
+      <c r="M58" s="155"/>
+      <c r="N58" s="155"/>
+      <c r="O58" s="155"/>
+      <c r="P58" s="155"/>
+      <c r="Q58" s="155"/>
+      <c r="R58" s="155"/>
+      <c r="S58" s="156"/>
     </row>
     <row r="59" spans="1:19" ht="13.8">
       <c r="A59" s="94">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="B59" s="151" t="s">
-        <v>380</v>
+        <v>334</v>
       </c>
       <c r="C59" s="105" t="s">
         <v>516</v>
       </c>
       <c r="D59" s="105" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E59" s="148" t="s">
-        <v>427</v>
-      </c>
-      <c r="F59" s="98">
-        <v>77772285335</v>
+        <v>509</v>
+      </c>
+      <c r="F59" s="98" t="s">
+        <v>526</v>
       </c>
       <c r="G59" s="148" t="s">
-        <v>806</v>
+        <v>749</v>
       </c>
       <c r="H59" s="144"/>
       <c r="I59" s="144"/>
@@ -47057,25 +47044,25 @@
     </row>
     <row r="60" spans="1:19" ht="13.8">
       <c r="A60" s="99">
-        <v>64</v>
-      </c>
-      <c r="B60" s="152" t="s">
-        <v>376</v>
+        <v>51</v>
+      </c>
+      <c r="B60" s="101" t="s">
+        <v>645</v>
       </c>
       <c r="C60" s="101" t="s">
-        <v>516</v>
+        <v>15</v>
       </c>
       <c r="D60" s="101" t="s">
-        <v>517</v>
+        <v>646</v>
       </c>
       <c r="E60" s="148" t="s">
-        <v>427</v>
+        <v>772</v>
       </c>
       <c r="F60" s="103">
-        <v>77761023037</v>
+        <v>77756396005</v>
       </c>
       <c r="G60" s="148" t="s">
-        <v>807</v>
+        <v>792</v>
       </c>
       <c r="H60" s="124"/>
       <c r="I60" s="124"/>
@@ -47092,25 +47079,25 @@
     </row>
     <row r="61" spans="1:19" ht="13.8">
       <c r="A61" s="94">
-        <v>65</v>
-      </c>
-      <c r="B61" s="105" t="s">
-        <v>698</v>
-      </c>
-      <c r="C61" s="105" t="s">
-        <v>15</v>
-      </c>
-      <c r="D61" s="105" t="s">
-        <v>699</v>
-      </c>
-      <c r="E61" s="148" t="s">
-        <v>427</v>
-      </c>
-      <c r="F61" s="98">
-        <v>77057454959</v>
+        <v>9</v>
+      </c>
+      <c r="B61" s="150" t="s">
+        <v>326</v>
+      </c>
+      <c r="C61" s="96" t="s">
+        <v>516</v>
+      </c>
+      <c r="D61" s="96" t="s">
+        <v>520</v>
+      </c>
+      <c r="E61" s="147" t="s">
+        <v>509</v>
+      </c>
+      <c r="F61" s="98" t="s">
+        <v>530</v>
       </c>
       <c r="G61" s="148" t="s">
-        <v>803</v>
+        <v>749</v>
       </c>
       <c r="H61" s="144"/>
       <c r="I61" s="144"/>
@@ -47127,25 +47114,25 @@
     </row>
     <row r="62" spans="1:19" ht="13.8">
       <c r="A62" s="99">
-        <v>66</v>
-      </c>
-      <c r="B62" s="152" t="s">
-        <v>342</v>
+        <v>18</v>
+      </c>
+      <c r="B62" s="101" t="s">
+        <v>549</v>
       </c>
       <c r="C62" s="101" t="s">
-        <v>516</v>
+        <v>15</v>
       </c>
       <c r="D62" s="101" t="s">
-        <v>520</v>
+        <v>550</v>
       </c>
       <c r="E62" s="148" t="s">
-        <v>427</v>
-      </c>
-      <c r="F62" s="103">
-        <v>77026615811</v>
+        <v>419</v>
+      </c>
+      <c r="F62" s="103" t="s">
+        <v>552</v>
       </c>
       <c r="G62" s="148" t="s">
-        <v>808</v>
+        <v>756</v>
       </c>
       <c r="H62" s="124"/>
       <c r="I62" s="124"/>
@@ -47162,25 +47149,25 @@
     </row>
     <row r="63" spans="1:19" ht="13.8">
       <c r="A63" s="94">
-        <v>68</v>
-      </c>
-      <c r="B63" s="151" t="s">
-        <v>299</v>
+        <v>19</v>
+      </c>
+      <c r="B63" s="105" t="s">
+        <v>545</v>
       </c>
       <c r="C63" s="105" t="s">
-        <v>516</v>
+        <v>27</v>
       </c>
       <c r="D63" s="105" t="s">
-        <v>520</v>
+        <v>546</v>
       </c>
       <c r="E63" s="148" t="s">
-        <v>427</v>
-      </c>
-      <c r="F63" s="98">
-        <v>77761000911</v>
+        <v>419</v>
+      </c>
+      <c r="F63" s="98" t="s">
+        <v>548</v>
       </c>
       <c r="G63" s="148" t="s">
-        <v>806</v>
+        <v>757</v>
       </c>
       <c r="H63" s="144"/>
       <c r="I63" s="144"/>
@@ -47197,25 +47184,25 @@
     </row>
     <row r="64" spans="1:19" ht="13.8">
       <c r="A64" s="99">
-        <v>69</v>
-      </c>
-      <c r="B64" s="152" t="s">
-        <v>401</v>
+        <v>67</v>
+      </c>
+      <c r="B64" s="101" t="s">
+        <v>688</v>
       </c>
       <c r="C64" s="101" t="s">
-        <v>516</v>
+        <v>20</v>
       </c>
       <c r="D64" s="101" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="E64" s="148" t="s">
-        <v>427</v>
-      </c>
-      <c r="F64" s="103">
-        <v>77022144180</v>
+        <v>809</v>
+      </c>
+      <c r="F64" s="103" t="s">
+        <v>690</v>
       </c>
       <c r="G64" s="148" t="s">
-        <v>803</v>
+        <v>810</v>
       </c>
       <c r="H64" s="124"/>
       <c r="I64" s="124"/>
@@ -47232,25 +47219,25 @@
     </row>
     <row r="65" spans="1:19" ht="13.8">
       <c r="A65" s="94">
-        <v>70</v>
-      </c>
-      <c r="B65" s="105" t="s">
-        <v>701</v>
+        <v>68</v>
+      </c>
+      <c r="B65" s="151" t="s">
+        <v>299</v>
       </c>
       <c r="C65" s="105" t="s">
-        <v>15</v>
+        <v>516</v>
       </c>
       <c r="D65" s="105" t="s">
-        <v>699</v>
+        <v>520</v>
       </c>
       <c r="E65" s="148" t="s">
         <v>427</v>
       </c>
       <c r="F65" s="98">
-        <v>77057455794</v>
+        <v>77761000911</v>
       </c>
       <c r="G65" s="148" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="H65" s="144"/>
       <c r="I65" s="144"/>
@@ -47265,62 +47252,62 @@
       <c r="R65" s="144"/>
       <c r="S65" s="145"/>
     </row>
-    <row r="66" spans="1:19" ht="14.4">
-      <c r="A66" s="99">
-        <v>71</v>
-      </c>
-      <c r="B66" s="101" t="s">
-        <v>723</v>
-      </c>
-      <c r="C66" s="101" t="s">
-        <v>15</v>
-      </c>
-      <c r="D66" s="101" t="s">
-        <v>724</v>
+    <row r="66" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A66" s="94">
+        <v>10</v>
+      </c>
+      <c r="B66" s="105" t="s">
+        <v>538</v>
+      </c>
+      <c r="C66" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="D66" s="105" t="s">
+        <v>539</v>
       </c>
       <c r="E66" s="148" t="s">
-        <v>415</v>
-      </c>
-      <c r="F66" s="172" t="s">
-        <v>726</v>
-      </c>
-      <c r="G66" s="154" t="s">
-        <v>822</v>
-      </c>
-      <c r="H66" s="155"/>
-      <c r="I66" s="155"/>
-      <c r="J66" s="155"/>
-      <c r="K66" s="155"/>
-      <c r="L66" s="155"/>
-      <c r="M66" s="155"/>
-      <c r="N66" s="155"/>
-      <c r="O66" s="155"/>
-      <c r="P66" s="155"/>
-      <c r="Q66" s="155"/>
-      <c r="R66" s="155"/>
-      <c r="S66" s="156"/>
+        <v>509</v>
+      </c>
+      <c r="F66" s="98" t="s">
+        <v>541</v>
+      </c>
+      <c r="G66" s="148" t="s">
+        <v>750</v>
+      </c>
+      <c r="H66" s="144"/>
+      <c r="I66" s="144"/>
+      <c r="J66" s="144"/>
+      <c r="K66" s="144"/>
+      <c r="L66" s="144"/>
+      <c r="M66" s="144"/>
+      <c r="N66" s="144"/>
+      <c r="O66" s="144"/>
+      <c r="P66" s="144"/>
+      <c r="Q66" s="144"/>
+      <c r="R66" s="144"/>
+      <c r="S66" s="145"/>
     </row>
     <row r="67" spans="1:19" ht="15.75" customHeight="1">
       <c r="A67" s="94">
-        <v>59</v>
-      </c>
-      <c r="B67" s="105" t="s">
-        <v>681</v>
+        <v>69</v>
+      </c>
+      <c r="B67" s="151" t="s">
+        <v>401</v>
       </c>
       <c r="C67" s="105" t="s">
-        <v>27</v>
+        <v>516</v>
       </c>
       <c r="D67" s="105" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="E67" s="148" t="s">
-        <v>415</v>
-      </c>
-      <c r="F67" s="98" t="s">
-        <v>683</v>
+        <v>427</v>
+      </c>
+      <c r="F67" s="98">
+        <v>77022144180</v>
       </c>
       <c r="G67" s="148" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H67" s="144"/>
       <c r="I67" s="144"/>
@@ -47337,95 +47324,108 @@
     </row>
     <row r="68" spans="1:19" ht="15.75" customHeight="1">
       <c r="A68" s="99">
-        <v>72</v>
-      </c>
-      <c r="B68" s="152" t="s">
-        <v>717</v>
+        <v>70</v>
+      </c>
+      <c r="B68" s="101" t="s">
+        <v>701</v>
       </c>
       <c r="C68" s="101" t="s">
-        <v>516</v>
+        <v>15</v>
       </c>
       <c r="D68" s="101" t="s">
-        <v>517</v>
+        <v>699</v>
       </c>
       <c r="E68" s="148" t="s">
-        <v>415</v>
-      </c>
-      <c r="F68" s="103" t="s">
-        <v>719</v>
-      </c>
-      <c r="G68" s="154" t="s">
-        <v>808</v>
-      </c>
-      <c r="H68" s="155"/>
-      <c r="I68" s="155"/>
-      <c r="J68" s="155"/>
-      <c r="K68" s="155"/>
-      <c r="L68" s="155"/>
-      <c r="M68" s="155"/>
-      <c r="N68" s="155"/>
-      <c r="O68" s="155"/>
-      <c r="P68" s="155"/>
-      <c r="Q68" s="155"/>
-      <c r="R68" s="155"/>
-      <c r="S68" s="156"/>
-    </row>
-    <row r="69" spans="1:19" ht="15.75" customHeight="1">
+        <v>427</v>
+      </c>
+      <c r="F68" s="103">
+        <v>77057455794</v>
+      </c>
+      <c r="G68" s="148" t="s">
+        <v>811</v>
+      </c>
+      <c r="H68" s="124"/>
+      <c r="I68" s="124"/>
+      <c r="J68" s="124"/>
+      <c r="K68" s="124"/>
+      <c r="L68" s="124"/>
+      <c r="M68" s="124"/>
+      <c r="N68" s="124"/>
+      <c r="O68" s="124"/>
+      <c r="P68" s="124"/>
+      <c r="Q68" s="124"/>
+      <c r="R68" s="124"/>
+      <c r="S68" s="149"/>
+    </row>
+    <row r="69" spans="1:19" ht="13.8">
       <c r="A69" s="94">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="B69" s="105" t="s">
-        <v>709</v>
+        <v>512</v>
       </c>
       <c r="C69" s="105" t="s">
         <v>27</v>
       </c>
       <c r="D69" s="105" t="s">
-        <v>710</v>
+        <v>513</v>
       </c>
       <c r="E69" s="148" t="s">
-        <v>415</v>
-      </c>
-      <c r="F69" s="98" t="s">
-        <v>712</v>
-      </c>
-      <c r="G69" s="154" t="s">
-        <v>813</v>
-      </c>
-      <c r="H69" s="157"/>
-      <c r="I69" s="157"/>
-      <c r="J69" s="157"/>
-      <c r="K69" s="157"/>
-      <c r="L69" s="157"/>
-      <c r="M69" s="157"/>
-      <c r="N69" s="157"/>
-      <c r="O69" s="157"/>
-      <c r="P69" s="157"/>
-      <c r="Q69" s="157"/>
-      <c r="R69" s="157"/>
-      <c r="S69" s="158"/>
+        <v>509</v>
+      </c>
+      <c r="F69" s="118" t="s">
+        <v>515</v>
+      </c>
+      <c r="G69" s="148" t="s">
+        <v>751</v>
+      </c>
+      <c r="H69" s="144"/>
+      <c r="I69" s="144"/>
+      <c r="J69" s="144"/>
+      <c r="K69" s="144"/>
+      <c r="L69" s="144"/>
+      <c r="M69" s="144"/>
+      <c r="N69" s="144" t="s">
+        <v>752</v>
+      </c>
+      <c r="O69" s="144">
+        <v>30</v>
+      </c>
+      <c r="P69" s="144">
+        <v>50</v>
+      </c>
+      <c r="Q69" s="144">
+        <v>50</v>
+      </c>
+      <c r="R69" s="144">
+        <v>20</v>
+      </c>
+      <c r="S69" s="145">
+        <f>SUM(O69:R69)</f>
+        <v>150</v>
+      </c>
     </row>
     <row r="70" spans="1:19" ht="15.75" customHeight="1">
       <c r="A70" s="99">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="B70" s="152" t="s">
-        <v>414</v>
-      </c>
-      <c r="C70" s="101" t="s">
+        <v>295</v>
+      </c>
+      <c r="C70" s="122" t="s">
         <v>516</v>
       </c>
-      <c r="D70" s="101">
-        <v>0</v>
+      <c r="D70" s="124" t="s">
+        <v>520</v>
       </c>
       <c r="E70" s="148" t="s">
-        <v>415</v>
-      </c>
-      <c r="F70" s="103">
-        <v>77761009650</v>
+        <v>570</v>
+      </c>
+      <c r="F70" s="124" t="s">
+        <v>574</v>
       </c>
       <c r="G70" s="154" t="s">
-        <v>814</v>
+        <v>762</v>
       </c>
       <c r="H70" s="155"/>
       <c r="I70" s="155"/>
@@ -47441,114 +47441,44 @@
       <c r="S70" s="156"/>
     </row>
     <row r="71" spans="1:19" ht="13.8">
-      <c r="A71" s="94">
-        <v>75</v>
-      </c>
-      <c r="B71" s="105" t="s">
-        <v>713</v>
-      </c>
-      <c r="C71" s="105" t="s">
-        <v>714</v>
-      </c>
-      <c r="D71" s="105" t="s">
-        <v>661</v>
-      </c>
-      <c r="E71" s="148" t="s">
-        <v>415</v>
-      </c>
-      <c r="F71" s="118" t="s">
-        <v>716</v>
-      </c>
-      <c r="G71" s="148" t="s">
-        <v>815</v>
-      </c>
-      <c r="H71" s="144"/>
-      <c r="I71" s="144"/>
-      <c r="J71" s="144"/>
-      <c r="K71" s="144"/>
-      <c r="L71" s="144"/>
-      <c r="M71" s="144"/>
-      <c r="N71" s="144"/>
-      <c r="O71" s="144"/>
-      <c r="P71" s="144"/>
-      <c r="Q71" s="144"/>
-      <c r="R71" s="144"/>
-      <c r="S71" s="145"/>
-    </row>
-    <row r="72" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A72" s="99">
-        <v>76</v>
-      </c>
-      <c r="B72" s="152" t="s">
-        <v>720</v>
-      </c>
-      <c r="C72" s="122" t="s">
-        <v>516</v>
-      </c>
-      <c r="D72" s="124" t="s">
-        <v>520</v>
-      </c>
-      <c r="E72" s="148" t="s">
-        <v>415</v>
-      </c>
-      <c r="F72" s="124" t="s">
-        <v>722</v>
-      </c>
-      <c r="G72" s="154" t="s">
-        <v>816</v>
-      </c>
-      <c r="H72" s="155"/>
-      <c r="I72" s="155"/>
-      <c r="J72" s="155"/>
-      <c r="K72" s="155"/>
-      <c r="L72" s="155"/>
-      <c r="M72" s="155"/>
-      <c r="N72" s="155"/>
-      <c r="O72" s="155"/>
-      <c r="P72" s="155"/>
-      <c r="Q72" s="155"/>
-      <c r="R72" s="155"/>
-      <c r="S72" s="156"/>
-    </row>
-    <row r="73" spans="1:19" ht="13.8">
-      <c r="A73" s="165"/>
-      <c r="B73" s="166"/>
-      <c r="C73" s="167"/>
-      <c r="D73" s="167"/>
-      <c r="E73" s="168"/>
-      <c r="F73" s="169"/>
-      <c r="G73" s="170"/>
-      <c r="H73" s="170"/>
-      <c r="I73" s="170"/>
-      <c r="J73" s="170"/>
-      <c r="K73" s="170"/>
-      <c r="L73" s="170"/>
-      <c r="M73" s="170"/>
-      <c r="N73" s="170"/>
-      <c r="O73" s="170" t="s">
+      <c r="A71" s="165"/>
+      <c r="B71" s="166"/>
+      <c r="C71" s="167"/>
+      <c r="D71" s="167"/>
+      <c r="E71" s="168"/>
+      <c r="F71" s="169"/>
+      <c r="G71" s="170"/>
+      <c r="H71" s="170"/>
+      <c r="I71" s="170"/>
+      <c r="J71" s="170"/>
+      <c r="K71" s="170"/>
+      <c r="L71" s="170"/>
+      <c r="M71" s="170"/>
+      <c r="N71" s="170"/>
+      <c r="O71" s="170" t="s">
         <v>817</v>
       </c>
-      <c r="P73" s="170" t="s">
+      <c r="P71" s="170" t="s">
         <v>818</v>
       </c>
-      <c r="Q73" s="170" t="s">
+      <c r="Q71" s="170" t="s">
         <v>819</v>
       </c>
-      <c r="R73" s="170" t="s">
+      <c r="R71" s="170" t="s">
         <v>820</v>
       </c>
-      <c r="S73" s="171" t="s">
+      <c r="S71" s="171" t="s">
         <v>821</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H1:H984">
+  <conditionalFormatting sqref="H1:H982">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A73" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A71" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>AND(ISNUMBER(A2),(NOT(OR(NOT(ISERROR(DATEVALUE(A2))), AND(ISNUMBER(A2), LEFT(CELL("format", A2))="D")))))</formula1>
     </dataValidation>
   </dataValidations>

--- a/Контакты Stratera.xlsx
+++ b/Контакты Stratera.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Рабочий стол\heatmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2374A6D-C5A1-482C-A7E0-E596CE3CFDD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3754832B-2B6F-453F-8901-C3A293D5A85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2472" yWindow="2472" windowWidth="13440" windowHeight="9300" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1428" yWindow="1428" windowWidth="13440" windowHeight="9300" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Менеджеры по продажам район (2)" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2392" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2392" uniqueCount="838">
   <si>
     <t>СКО</t>
   </si>
@@ -4321,6 +4321,12 @@
   </si>
   <si>
     <t>Сарыкольский , Узункольский, Аулиекольский</t>
+  </si>
+  <si>
+    <t>Уалихановский, Бурабай ауданы</t>
+  </si>
+  <si>
+    <t>Уалихановский, Зерендинский</t>
   </si>
 </sst>
 </file>
@@ -5799,6 +5805,9 @@
     <xf numFmtId="0" fontId="58" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5820,9 +5829,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -5965,7 +5971,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Таблица1_2" displayName="Таблица1_2" ref="A1:S71">
   <autoFilter ref="A1:S71" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S71">
-    <sortCondition ref="B1:B71"/>
+    <sortCondition ref="E1:E71"/>
   </sortState>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="№"/>
@@ -11146,10 +11152,10 @@
       <c r="Z57" s="11"/>
     </row>
     <row r="58" spans="1:26" ht="13.8">
-      <c r="A58" s="175" t="s">
+      <c r="A58" s="176" t="s">
         <v>202</v>
       </c>
-      <c r="B58" s="176"/>
+      <c r="B58" s="177"/>
       <c r="C58" s="27" t="s">
         <v>2</v>
       </c>
@@ -12336,12 +12342,12 @@
       <c r="Z92" s="11"/>
     </row>
     <row r="93" spans="1:26" ht="13.8">
-      <c r="A93" s="177" t="s">
+      <c r="A93" s="178" t="s">
         <v>288</v>
       </c>
-      <c r="B93" s="178"/>
-      <c r="C93" s="178"/>
-      <c r="D93" s="176"/>
+      <c r="B93" s="179"/>
+      <c r="C93" s="179"/>
+      <c r="D93" s="177"/>
       <c r="E93" s="13"/>
       <c r="F93" s="9"/>
       <c r="G93" s="9"/>
@@ -13119,12 +13125,12 @@
       <c r="Z111" s="11"/>
     </row>
     <row r="112" spans="1:26" ht="13.8">
-      <c r="A112" s="179" t="s">
+      <c r="A112" s="180" t="s">
         <v>358</v>
       </c>
-      <c r="B112" s="178"/>
-      <c r="C112" s="178"/>
-      <c r="D112" s="176"/>
+      <c r="B112" s="179"/>
+      <c r="C112" s="179"/>
+      <c r="D112" s="177"/>
       <c r="E112" s="13"/>
       <c r="F112" s="9"/>
       <c r="G112" s="9"/>
@@ -13481,12 +13487,12 @@
       <c r="Z120" s="11"/>
     </row>
     <row r="121" spans="1:26" ht="13.8">
-      <c r="A121" s="177" t="s">
+      <c r="A121" s="178" t="s">
         <v>392</v>
       </c>
-      <c r="B121" s="178"/>
-      <c r="C121" s="178"/>
-      <c r="D121" s="176"/>
+      <c r="B121" s="179"/>
+      <c r="C121" s="179"/>
+      <c r="D121" s="177"/>
       <c r="E121" s="13"/>
       <c r="F121" s="9"/>
       <c r="G121" s="9"/>
@@ -39170,10 +39176,10 @@
       <c r="E57" s="65"/>
     </row>
     <row r="58" spans="1:5" ht="15.6">
-      <c r="A58" s="180" t="s">
+      <c r="A58" s="181" t="s">
         <v>202</v>
       </c>
-      <c r="B58" s="176"/>
+      <c r="B58" s="177"/>
       <c r="C58" s="77" t="s">
         <v>2</v>
       </c>
@@ -39590,12 +39596,12 @@
       <c r="D92" s="62"/>
     </row>
     <row r="93" spans="1:5" ht="13.2">
-      <c r="A93" s="181" t="s">
+      <c r="A93" s="182" t="s">
         <v>481</v>
       </c>
-      <c r="B93" s="178"/>
-      <c r="C93" s="178"/>
-      <c r="D93" s="176"/>
+      <c r="B93" s="179"/>
+      <c r="C93" s="179"/>
+      <c r="D93" s="177"/>
     </row>
     <row r="94" spans="1:5" ht="13.2">
       <c r="A94" s="62" t="s">
@@ -39888,12 +39894,12 @@
       </c>
     </row>
     <row r="111" spans="1:5" ht="13.2">
-      <c r="A111" s="182" t="s">
+      <c r="A111" s="183" t="s">
         <v>484</v>
       </c>
-      <c r="B111" s="183"/>
-      <c r="C111" s="183"/>
-      <c r="D111" s="183"/>
+      <c r="B111" s="184"/>
+      <c r="C111" s="184"/>
+      <c r="D111" s="184"/>
     </row>
     <row r="112" spans="1:5" ht="13.2">
       <c r="A112" s="62" t="s">
@@ -44930,9 +44936,9 @@
   </sheetPr>
   <dimension ref="A1:S71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="112" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A67" sqref="A67:XFD67"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="73" zoomScaleNormal="112" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -45007,25 +45013,23 @@
     </row>
     <row r="2" spans="1:19" ht="13.8">
       <c r="A2" s="142">
-        <v>34</v>
-      </c>
-      <c r="B2" s="144" t="s">
-        <v>639</v>
+        <v>1</v>
+      </c>
+      <c r="B2" s="143" t="s">
+        <v>542</v>
       </c>
       <c r="C2" s="144" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="144" t="s">
-        <v>592</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="D2" s="144"/>
       <c r="E2" s="144" t="s">
-        <v>772</v>
-      </c>
-      <c r="F2" s="144">
-        <v>77054441706</v>
+        <v>509</v>
+      </c>
+      <c r="F2" s="144" t="s">
+        <v>544</v>
       </c>
       <c r="G2" s="144" t="s">
-        <v>828</v>
+        <v>740</v>
       </c>
       <c r="H2" s="144"/>
       <c r="I2" s="144"/>
@@ -45040,62 +45044,62 @@
       <c r="R2" s="144"/>
       <c r="S2" s="145"/>
     </row>
-    <row r="3" spans="1:19" ht="14.4">
+    <row r="3" spans="1:19" ht="13.8">
       <c r="A3" s="94">
-        <v>71</v>
-      </c>
-      <c r="B3" s="105" t="s">
-        <v>723</v>
-      </c>
-      <c r="C3" s="105" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="105" t="s">
-        <v>724</v>
-      </c>
-      <c r="E3" s="148" t="s">
-        <v>415</v>
-      </c>
-      <c r="F3" s="164" t="s">
-        <v>726</v>
-      </c>
-      <c r="G3" s="154" t="s">
-        <v>822</v>
-      </c>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="157"/>
-      <c r="K3" s="157"/>
-      <c r="L3" s="157"/>
-      <c r="M3" s="157"/>
-      <c r="N3" s="157"/>
-      <c r="O3" s="157"/>
-      <c r="P3" s="157"/>
-      <c r="Q3" s="157"/>
-      <c r="R3" s="157"/>
-      <c r="S3" s="158"/>
+        <v>3</v>
+      </c>
+      <c r="B3" s="150" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="96" t="s">
+        <v>516</v>
+      </c>
+      <c r="D3" s="96" t="s">
+        <v>520</v>
+      </c>
+      <c r="E3" s="147" t="s">
+        <v>509</v>
+      </c>
+      <c r="F3" s="98" t="s">
+        <v>524</v>
+      </c>
+      <c r="G3" s="148" t="s">
+        <v>743</v>
+      </c>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="144"/>
+      <c r="L3" s="144"/>
+      <c r="M3" s="144"/>
+      <c r="N3" s="144"/>
+      <c r="O3" s="144"/>
+      <c r="P3" s="144"/>
+      <c r="Q3" s="144"/>
+      <c r="R3" s="144"/>
+      <c r="S3" s="145"/>
     </row>
     <row r="4" spans="1:19" ht="13.8">
       <c r="A4" s="99">
-        <v>12</v>
-      </c>
-      <c r="B4" s="152" t="s">
-        <v>359</v>
-      </c>
-      <c r="C4" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="146" t="s">
+        <v>349</v>
+      </c>
+      <c r="C4" s="108" t="s">
         <v>516</v>
       </c>
-      <c r="D4" s="101" t="s">
-        <v>517</v>
-      </c>
-      <c r="E4" s="148" t="s">
-        <v>419</v>
+      <c r="D4" s="108" t="s">
+        <v>520</v>
+      </c>
+      <c r="E4" s="147" t="s">
+        <v>509</v>
       </c>
       <c r="F4" s="110" t="s">
-        <v>560</v>
+        <v>532</v>
       </c>
       <c r="G4" s="148" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="H4" s="124"/>
       <c r="I4" s="124"/>
@@ -45112,25 +45116,25 @@
     </row>
     <row r="5" spans="1:19" ht="13.8">
       <c r="A5" s="94">
-        <v>36</v>
-      </c>
-      <c r="B5" s="105" t="s">
-        <v>641</v>
-      </c>
-      <c r="C5" s="105" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="105" t="s">
-        <v>592</v>
-      </c>
-      <c r="E5" s="148" t="s">
-        <v>772</v>
-      </c>
-      <c r="F5" s="98">
-        <v>77775223878</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="150" t="s">
+        <v>307</v>
+      </c>
+      <c r="C5" s="96" t="s">
+        <v>516</v>
+      </c>
+      <c r="D5" s="96" t="s">
+        <v>520</v>
+      </c>
+      <c r="E5" s="147" t="s">
+        <v>509</v>
+      </c>
+      <c r="F5" s="98" t="s">
+        <v>522</v>
       </c>
       <c r="G5" s="148" t="s">
-        <v>832</v>
+        <v>747</v>
       </c>
       <c r="H5" s="144"/>
       <c r="I5" s="144"/>
@@ -45145,62 +45149,75 @@
       <c r="R5" s="144"/>
       <c r="S5" s="145"/>
     </row>
-    <row r="6" spans="1:19" ht="14.4">
+    <row r="6" spans="1:19" ht="13.8">
       <c r="A6" s="99">
-        <v>20</v>
-      </c>
-      <c r="B6" s="101" t="s">
-        <v>583</v>
+        <v>5</v>
+      </c>
+      <c r="B6" s="152" t="s">
+        <v>745</v>
       </c>
       <c r="C6" s="101" t="s">
-        <v>27</v>
+        <v>516</v>
       </c>
       <c r="D6" s="101" t="s">
-        <v>584</v>
+        <v>517</v>
       </c>
       <c r="E6" s="148" t="s">
-        <v>570</v>
+        <v>509</v>
       </c>
       <c r="F6" s="103" t="s">
-        <v>586</v>
-      </c>
-      <c r="G6" s="154" t="s">
-        <v>758</v>
-      </c>
-      <c r="H6" s="155"/>
-      <c r="I6" s="155"/>
-      <c r="J6" s="155"/>
-      <c r="K6" s="155"/>
-      <c r="L6" s="155"/>
-      <c r="M6" s="155"/>
-      <c r="N6" s="155"/>
-      <c r="O6" s="155"/>
-      <c r="P6" s="155"/>
-      <c r="Q6" s="155"/>
-      <c r="R6" s="155"/>
-      <c r="S6" s="156"/>
+        <v>519</v>
+      </c>
+      <c r="G6" s="148" t="s">
+        <v>741</v>
+      </c>
+      <c r="H6" s="124"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="124"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="124"/>
+      <c r="M6" s="124"/>
+      <c r="N6" s="124" t="s">
+        <v>746</v>
+      </c>
+      <c r="O6" s="124">
+        <v>70</v>
+      </c>
+      <c r="P6" s="124">
+        <v>115.5</v>
+      </c>
+      <c r="Q6" s="124">
+        <v>115.5</v>
+      </c>
+      <c r="R6" s="124">
+        <v>49</v>
+      </c>
+      <c r="S6" s="149">
+        <f>SUM(O6:R6)</f>
+        <v>350</v>
+      </c>
     </row>
     <row r="7" spans="1:19" ht="13.8">
       <c r="A7" s="94">
-        <v>37</v>
-      </c>
-      <c r="B7" s="105" t="s">
-        <v>652</v>
-      </c>
-      <c r="C7" s="105" t="s">
-        <v>653</v>
-      </c>
-      <c r="D7" s="105" t="s">
-        <v>599</v>
-      </c>
-      <c r="E7" s="148" t="s">
-        <v>772</v>
-      </c>
-      <c r="F7" s="98">
-        <v>77711886327</v>
+        <v>7</v>
+      </c>
+      <c r="B7" s="96" t="s">
+        <v>507</v>
+      </c>
+      <c r="C7" s="96" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="96" t="s">
+        <v>508</v>
+      </c>
+      <c r="E7" s="147" t="s">
+        <v>509</v>
+      </c>
+      <c r="F7" s="98" t="s">
+        <v>511</v>
       </c>
       <c r="G7" s="148" t="s">
-        <v>825</v>
+        <v>748</v>
       </c>
       <c r="H7" s="144"/>
       <c r="I7" s="144"/>
@@ -45217,25 +45234,25 @@
     </row>
     <row r="8" spans="1:19" ht="13.8">
       <c r="A8" s="99">
-        <v>38</v>
-      </c>
-      <c r="B8" s="101" t="s">
-        <v>634</v>
+        <v>8</v>
+      </c>
+      <c r="B8" s="152" t="s">
+        <v>334</v>
       </c>
       <c r="C8" s="101" t="s">
-        <v>27</v>
+        <v>516</v>
       </c>
       <c r="D8" s="101" t="s">
-        <v>635</v>
+        <v>520</v>
       </c>
       <c r="E8" s="148" t="s">
-        <v>772</v>
-      </c>
-      <c r="F8" s="103">
-        <v>77054627019</v>
+        <v>509</v>
+      </c>
+      <c r="F8" s="103" t="s">
+        <v>526</v>
       </c>
       <c r="G8" s="148" t="s">
-        <v>826</v>
+        <v>749</v>
       </c>
       <c r="H8" s="124"/>
       <c r="I8" s="124"/>
@@ -45252,23 +45269,25 @@
     </row>
     <row r="9" spans="1:19" ht="13.8">
       <c r="A9" s="94">
-        <v>1</v>
-      </c>
-      <c r="B9" s="151" t="s">
-        <v>542</v>
-      </c>
-      <c r="C9" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="150" t="s">
+        <v>326</v>
+      </c>
+      <c r="C9" s="96" t="s">
         <v>516</v>
       </c>
-      <c r="D9" s="105"/>
-      <c r="E9" s="148" t="s">
+      <c r="D9" s="96" t="s">
+        <v>520</v>
+      </c>
+      <c r="E9" s="147" t="s">
         <v>509</v>
       </c>
       <c r="F9" s="98" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="G9" s="148" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="H9" s="144"/>
       <c r="I9" s="144"/>
@@ -45283,60 +45302,62 @@
       <c r="R9" s="144"/>
       <c r="S9" s="145"/>
     </row>
-    <row r="10" spans="1:19" ht="14.4">
+    <row r="10" spans="1:19" ht="13.8">
       <c r="A10" s="99">
-        <v>52</v>
-      </c>
-      <c r="B10" s="152" t="s">
-        <v>678</v>
+        <v>10</v>
+      </c>
+      <c r="B10" s="101" t="s">
+        <v>538</v>
       </c>
       <c r="C10" s="101" t="s">
-        <v>516</v>
-      </c>
-      <c r="D10" s="101"/>
+        <v>27</v>
+      </c>
+      <c r="D10" s="101" t="s">
+        <v>539</v>
+      </c>
       <c r="E10" s="148" t="s">
-        <v>793</v>
+        <v>509</v>
       </c>
       <c r="F10" s="103" t="s">
-        <v>680</v>
-      </c>
-      <c r="G10" s="154" t="s">
-        <v>794</v>
-      </c>
-      <c r="H10" s="155"/>
-      <c r="I10" s="155"/>
-      <c r="J10" s="155"/>
-      <c r="K10" s="155"/>
-      <c r="L10" s="155"/>
-      <c r="M10" s="155"/>
-      <c r="N10" s="155"/>
-      <c r="O10" s="155"/>
-      <c r="P10" s="155"/>
-      <c r="Q10" s="155"/>
-      <c r="R10" s="155"/>
-      <c r="S10" s="156"/>
+        <v>541</v>
+      </c>
+      <c r="G10" s="148" t="s">
+        <v>750</v>
+      </c>
+      <c r="H10" s="124"/>
+      <c r="I10" s="124"/>
+      <c r="J10" s="124"/>
+      <c r="K10" s="124"/>
+      <c r="L10" s="124"/>
+      <c r="M10" s="124"/>
+      <c r="N10" s="124"/>
+      <c r="O10" s="124"/>
+      <c r="P10" s="124"/>
+      <c r="Q10" s="124"/>
+      <c r="R10" s="124"/>
+      <c r="S10" s="149"/>
     </row>
     <row r="11" spans="1:19" ht="13.8">
       <c r="A11" s="94">
-        <v>60</v>
-      </c>
-      <c r="B11" s="151" t="s">
-        <v>393</v>
+        <v>11</v>
+      </c>
+      <c r="B11" s="105" t="s">
+        <v>512</v>
       </c>
       <c r="C11" s="105" t="s">
-        <v>516</v>
+        <v>27</v>
       </c>
       <c r="D11" s="105" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="E11" s="148" t="s">
-        <v>427</v>
-      </c>
-      <c r="F11" s="98">
-        <v>77078750345</v>
+        <v>509</v>
+      </c>
+      <c r="F11" s="98" t="s">
+        <v>515</v>
       </c>
       <c r="G11" s="148" t="s">
-        <v>803</v>
+        <v>751</v>
       </c>
       <c r="H11" s="144"/>
       <c r="I11" s="144"/>
@@ -45344,34 +45365,47 @@
       <c r="K11" s="144"/>
       <c r="L11" s="144"/>
       <c r="M11" s="144"/>
-      <c r="N11" s="144"/>
-      <c r="O11" s="144"/>
-      <c r="P11" s="144"/>
-      <c r="Q11" s="144"/>
-      <c r="R11" s="144"/>
-      <c r="S11" s="145"/>
+      <c r="N11" s="144" t="s">
+        <v>752</v>
+      </c>
+      <c r="O11" s="144">
+        <v>30</v>
+      </c>
+      <c r="P11" s="144">
+        <v>50</v>
+      </c>
+      <c r="Q11" s="144">
+        <v>50</v>
+      </c>
+      <c r="R11" s="144">
+        <v>20</v>
+      </c>
+      <c r="S11" s="145">
+        <f>SUM(O11:R11)</f>
+        <v>150</v>
+      </c>
     </row>
     <row r="12" spans="1:19" ht="13.8">
       <c r="A12" s="99">
-        <v>61</v>
-      </c>
-      <c r="B12" s="184" t="s">
-        <v>346</v>
+        <v>12</v>
+      </c>
+      <c r="B12" s="152" t="s">
+        <v>359</v>
       </c>
       <c r="C12" s="101" t="s">
         <v>516</v>
       </c>
       <c r="D12" s="101" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E12" s="148" t="s">
-        <v>427</v>
-      </c>
-      <c r="F12" s="103">
-        <v>77057418708</v>
+        <v>419</v>
+      </c>
+      <c r="F12" s="103" t="s">
+        <v>560</v>
       </c>
       <c r="G12" s="148" t="s">
-        <v>804</v>
+        <v>753</v>
       </c>
       <c r="H12" s="124"/>
       <c r="I12" s="124"/>
@@ -45388,25 +45422,25 @@
     </row>
     <row r="13" spans="1:19" ht="13.8">
       <c r="A13" s="94">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="B13" s="105" t="s">
-        <v>681</v>
+        <v>566</v>
       </c>
       <c r="C13" s="105" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="105" t="s">
-        <v>508</v>
+        <v>567</v>
       </c>
       <c r="E13" s="148" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="F13" s="98" t="s">
-        <v>683</v>
+        <v>569</v>
       </c>
       <c r="G13" s="148" t="s">
-        <v>802</v>
+        <v>754</v>
       </c>
       <c r="H13" s="144"/>
       <c r="I13" s="144"/>
@@ -45423,25 +45457,25 @@
     </row>
     <row r="14" spans="1:19" ht="13.8">
       <c r="A14" s="99">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="101" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="C14" s="101" t="s">
-        <v>27</v>
+        <v>554</v>
       </c>
       <c r="D14" s="101" t="s">
-        <v>567</v>
+        <v>513</v>
       </c>
       <c r="E14" s="148" t="s">
         <v>419</v>
       </c>
       <c r="F14" s="103" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="G14" s="148" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H14" s="124"/>
       <c r="I14" s="124"/>
@@ -45458,25 +45492,25 @@
     </row>
     <row r="15" spans="1:19" ht="13.8">
       <c r="A15" s="94">
-        <v>39</v>
-      </c>
-      <c r="B15" s="105" t="s">
-        <v>637</v>
+        <v>15</v>
+      </c>
+      <c r="B15" s="151" t="s">
+        <v>367</v>
       </c>
       <c r="C15" s="105" t="s">
-        <v>27</v>
+        <v>516</v>
       </c>
       <c r="D15" s="105" t="s">
-        <v>635</v>
+        <v>517</v>
       </c>
       <c r="E15" s="148" t="s">
-        <v>772</v>
-      </c>
-      <c r="F15" s="98">
-        <v>77477573740</v>
+        <v>419</v>
+      </c>
+      <c r="F15" s="98" t="s">
+        <v>562</v>
       </c>
       <c r="G15" s="148" t="s">
-        <v>829</v>
+        <v>756</v>
       </c>
       <c r="H15" s="144"/>
       <c r="I15" s="144"/>
@@ -45493,25 +45527,25 @@
     </row>
     <row r="16" spans="1:19" ht="13.8">
       <c r="A16" s="99">
-        <v>14</v>
-      </c>
-      <c r="B16" s="101" t="s">
-        <v>553</v>
+        <v>17</v>
+      </c>
+      <c r="B16" s="152" t="s">
+        <v>363</v>
       </c>
       <c r="C16" s="101" t="s">
-        <v>554</v>
+        <v>516</v>
       </c>
       <c r="D16" s="101" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="E16" s="148" t="s">
         <v>419</v>
       </c>
       <c r="F16" s="103" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="G16" s="148" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H16" s="124"/>
       <c r="I16" s="124"/>
@@ -45526,132 +45560,132 @@
       <c r="R16" s="124"/>
       <c r="S16" s="149"/>
     </row>
-    <row r="17" spans="1:19" ht="14.4">
+    <row r="17" spans="1:19" ht="13.8">
       <c r="A17" s="94">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B17" s="105" t="s">
-        <v>672</v>
+        <v>549</v>
       </c>
       <c r="C17" s="105" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="105" t="s">
+        <v>550</v>
+      </c>
+      <c r="E17" s="148" t="s">
+        <v>419</v>
+      </c>
+      <c r="F17" s="98" t="s">
+        <v>552</v>
+      </c>
+      <c r="G17" s="148" t="s">
+        <v>756</v>
+      </c>
+      <c r="H17" s="144"/>
+      <c r="I17" s="144"/>
+      <c r="J17" s="144"/>
+      <c r="K17" s="144"/>
+      <c r="L17" s="144"/>
+      <c r="M17" s="144"/>
+      <c r="N17" s="144"/>
+      <c r="O17" s="144"/>
+      <c r="P17" s="144"/>
+      <c r="Q17" s="144"/>
+      <c r="R17" s="144"/>
+      <c r="S17" s="145"/>
+    </row>
+    <row r="18" spans="1:19" ht="13.8">
+      <c r="A18" s="99">
+        <v>19</v>
+      </c>
+      <c r="B18" s="101" t="s">
+        <v>545</v>
+      </c>
+      <c r="C18" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="105" t="s">
-        <v>669</v>
-      </c>
-      <c r="E17" s="148" t="s">
-        <v>793</v>
-      </c>
-      <c r="F17" s="98" t="s">
-        <v>674</v>
-      </c>
-      <c r="G17" s="154" t="s">
-        <v>795</v>
-      </c>
-      <c r="H17" s="157"/>
-      <c r="I17" s="157"/>
-      <c r="J17" s="157"/>
-      <c r="K17" s="157"/>
-      <c r="L17" s="157"/>
-      <c r="M17" s="157"/>
-      <c r="N17" s="157"/>
-      <c r="O17" s="157"/>
-      <c r="P17" s="157"/>
-      <c r="Q17" s="157"/>
-      <c r="R17" s="157"/>
-      <c r="S17" s="158"/>
-    </row>
-    <row r="18" spans="1:19" ht="14.4">
-      <c r="A18" s="99">
-        <v>29</v>
-      </c>
-      <c r="B18" s="101" t="s">
-        <v>767</v>
-      </c>
-      <c r="C18" s="101" t="s">
-        <v>15</v>
-      </c>
       <c r="D18" s="101" t="s">
-        <v>603</v>
+        <v>546</v>
       </c>
       <c r="E18" s="148" t="s">
-        <v>609</v>
+        <v>419</v>
       </c>
       <c r="F18" s="110" t="s">
-        <v>608</v>
-      </c>
-      <c r="G18" s="154" t="s">
-        <v>768</v>
-      </c>
-      <c r="H18" s="155"/>
-      <c r="I18" s="155"/>
-      <c r="J18" s="155"/>
-      <c r="K18" s="155"/>
-      <c r="L18" s="155"/>
-      <c r="M18" s="155"/>
-      <c r="N18" s="155"/>
-      <c r="O18" s="155"/>
-      <c r="P18" s="155"/>
-      <c r="Q18" s="155"/>
-      <c r="R18" s="155"/>
-      <c r="S18" s="156"/>
-    </row>
-    <row r="19" spans="1:19" ht="13.8">
+        <v>548</v>
+      </c>
+      <c r="G18" s="148" t="s">
+        <v>757</v>
+      </c>
+      <c r="H18" s="124"/>
+      <c r="I18" s="124"/>
+      <c r="J18" s="124"/>
+      <c r="K18" s="124"/>
+      <c r="L18" s="124"/>
+      <c r="M18" s="124"/>
+      <c r="N18" s="124"/>
+      <c r="O18" s="124"/>
+      <c r="P18" s="124"/>
+      <c r="Q18" s="124"/>
+      <c r="R18" s="124"/>
+      <c r="S18" s="149"/>
+    </row>
+    <row r="19" spans="1:19" ht="14.4">
       <c r="A19" s="94">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B19" s="128" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="C19" s="105" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="105" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="E19" s="148" t="s">
-        <v>411</v>
+        <v>570</v>
       </c>
       <c r="F19" s="98" t="s">
-        <v>597</v>
-      </c>
-      <c r="G19" s="148" t="s">
-        <v>763</v>
-      </c>
-      <c r="H19" s="144"/>
-      <c r="I19" s="144"/>
-      <c r="J19" s="144"/>
-      <c r="K19" s="144"/>
-      <c r="L19" s="144"/>
-      <c r="M19" s="144"/>
-      <c r="N19" s="144"/>
-      <c r="O19" s="144"/>
-      <c r="P19" s="144"/>
-      <c r="Q19" s="144"/>
-      <c r="R19" s="144"/>
-      <c r="S19" s="145"/>
+        <v>586</v>
+      </c>
+      <c r="G19" s="154" t="s">
+        <v>758</v>
+      </c>
+      <c r="H19" s="157"/>
+      <c r="I19" s="157"/>
+      <c r="J19" s="157"/>
+      <c r="K19" s="157"/>
+      <c r="L19" s="157"/>
+      <c r="M19" s="157"/>
+      <c r="N19" s="157"/>
+      <c r="O19" s="157"/>
+      <c r="P19" s="157"/>
+      <c r="Q19" s="157"/>
+      <c r="R19" s="157"/>
+      <c r="S19" s="158"/>
     </row>
     <row r="20" spans="1:19" ht="15.75" customHeight="1">
       <c r="A20" s="99">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="B20" s="172" t="s">
-        <v>717</v>
+        <v>338</v>
       </c>
       <c r="C20" s="101" t="s">
         <v>516</v>
       </c>
       <c r="D20" s="101" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E20" s="148" t="s">
-        <v>415</v>
+        <v>570</v>
       </c>
       <c r="F20" s="110" t="s">
-        <v>719</v>
+        <v>576</v>
       </c>
       <c r="G20" s="154" t="s">
-        <v>808</v>
+        <v>759</v>
       </c>
       <c r="H20" s="155"/>
       <c r="I20" s="155"/>
@@ -45668,10 +45702,10 @@
     </row>
     <row r="21" spans="1:19" ht="15.75" customHeight="1">
       <c r="A21" s="94">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B21" s="151" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="C21" s="105" t="s">
         <v>516</v>
@@ -45680,87 +45714,85 @@
         <v>520</v>
       </c>
       <c r="E21" s="148" t="s">
-        <v>772</v>
-      </c>
-      <c r="F21" s="98">
-        <v>77772459654</v>
-      </c>
-      <c r="G21" s="148" t="s">
-        <v>830</v>
-      </c>
-      <c r="H21" s="144"/>
-      <c r="I21" s="144"/>
-      <c r="J21" s="144"/>
-      <c r="K21" s="144"/>
-      <c r="L21" s="144"/>
-      <c r="M21" s="144"/>
-      <c r="N21" s="144"/>
-      <c r="O21" s="144"/>
-      <c r="P21" s="144"/>
-      <c r="Q21" s="144"/>
-      <c r="R21" s="144"/>
-      <c r="S21" s="145"/>
+        <v>570</v>
+      </c>
+      <c r="F21" s="98" t="s">
+        <v>572</v>
+      </c>
+      <c r="G21" s="154" t="s">
+        <v>760</v>
+      </c>
+      <c r="H21" s="157"/>
+      <c r="I21" s="157"/>
+      <c r="J21" s="157"/>
+      <c r="K21" s="157"/>
+      <c r="L21" s="157"/>
+      <c r="M21" s="157"/>
+      <c r="N21" s="157"/>
+      <c r="O21" s="157"/>
+      <c r="P21" s="157"/>
+      <c r="Q21" s="157"/>
+      <c r="R21" s="157"/>
+      <c r="S21" s="158"/>
     </row>
     <row r="22" spans="1:19" ht="15.75" customHeight="1">
       <c r="A22" s="99">
-        <v>30</v>
-      </c>
-      <c r="B22" s="101" t="s">
-        <v>602</v>
+        <v>24</v>
+      </c>
+      <c r="B22" s="152" t="s">
+        <v>295</v>
       </c>
       <c r="C22" s="101" t="s">
-        <v>15</v>
+        <v>516</v>
       </c>
       <c r="D22" s="101" t="s">
-        <v>603</v>
+        <v>520</v>
       </c>
       <c r="E22" s="148" t="s">
-        <v>609</v>
+        <v>570</v>
       </c>
       <c r="F22" s="103" t="s">
-        <v>605</v>
-      </c>
-      <c r="G22" s="148" t="s">
-        <v>834</v>
-      </c>
-      <c r="H22" s="124"/>
-      <c r="I22" s="124"/>
-      <c r="J22" s="124"/>
-      <c r="K22" s="124"/>
-      <c r="L22" s="124"/>
-      <c r="M22" s="124"/>
-      <c r="N22" s="124"/>
-      <c r="O22" s="124"/>
-      <c r="P22" s="124"/>
-      <c r="Q22" s="124"/>
-      <c r="R22" s="124"/>
-      <c r="S22" s="149"/>
+        <v>574</v>
+      </c>
+      <c r="G22" s="154" t="s">
+        <v>762</v>
+      </c>
+      <c r="H22" s="155"/>
+      <c r="I22" s="155"/>
+      <c r="J22" s="155"/>
+      <c r="K22" s="155"/>
+      <c r="L22" s="155"/>
+      <c r="M22" s="155"/>
+      <c r="N22" s="155"/>
+      <c r="O22" s="155"/>
+      <c r="P22" s="155"/>
+      <c r="Q22" s="155"/>
+      <c r="R22" s="155"/>
+      <c r="S22" s="156"/>
     </row>
     <row r="23" spans="1:19" ht="15.75" customHeight="1">
       <c r="A23" s="94">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B23" s="105" t="s">
-        <v>616</v>
+        <v>595</v>
       </c>
       <c r="C23" s="105" t="s">
         <v>27</v>
       </c>
       <c r="D23" s="105" t="s">
-        <v>617</v>
+        <v>592</v>
       </c>
       <c r="E23" s="148" t="s">
-        <v>772</v>
-      </c>
-      <c r="F23" s="98">
-        <v>77764004000</v>
+        <v>411</v>
+      </c>
+      <c r="F23" s="98" t="s">
+        <v>597</v>
       </c>
       <c r="G23" s="148" t="s">
-        <v>833</v>
-      </c>
-      <c r="H23" s="144" t="s">
-        <v>782</v>
-      </c>
+        <v>763</v>
+      </c>
+      <c r="H23" s="144"/>
       <c r="I23" s="144"/>
       <c r="J23" s="144"/>
       <c r="K23" s="144"/>
@@ -45775,25 +45807,25 @@
     </row>
     <row r="24" spans="1:19" ht="15.75" customHeight="1">
       <c r="A24" s="99">
-        <v>42</v>
-      </c>
-      <c r="B24" s="152" t="s">
-        <v>621</v>
+        <v>26</v>
+      </c>
+      <c r="B24" s="101" t="s">
+        <v>591</v>
       </c>
       <c r="C24" s="101" t="s">
-        <v>516</v>
+        <v>27</v>
       </c>
       <c r="D24" s="101" t="s">
-        <v>517</v>
+        <v>592</v>
       </c>
       <c r="E24" s="148" t="s">
-        <v>772</v>
+        <v>411</v>
       </c>
       <c r="F24" s="103" t="s">
-        <v>623</v>
+        <v>594</v>
       </c>
       <c r="G24" s="148" t="s">
-        <v>783</v>
+        <v>764</v>
       </c>
       <c r="H24" s="124"/>
       <c r="I24" s="124"/>
@@ -45810,25 +45842,25 @@
     </row>
     <row r="25" spans="1:19" ht="13.8">
       <c r="A25" s="94">
-        <v>43</v>
-      </c>
-      <c r="B25" s="105" t="s">
-        <v>632</v>
+        <v>27</v>
+      </c>
+      <c r="B25" s="151" t="s">
+        <v>410</v>
       </c>
       <c r="C25" s="105" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="105" t="s">
-        <v>630</v>
+        <v>516</v>
+      </c>
+      <c r="D25" s="105">
+        <v>0</v>
       </c>
       <c r="E25" s="148" t="s">
-        <v>772</v>
+        <v>411</v>
       </c>
       <c r="F25" s="118">
-        <v>77710603592</v>
+        <v>77789056044</v>
       </c>
       <c r="G25" s="148" t="s">
-        <v>784</v>
+        <v>765</v>
       </c>
       <c r="H25" s="144"/>
       <c r="I25" s="144"/>
@@ -45845,25 +45877,25 @@
     </row>
     <row r="26" spans="1:19" ht="13.8">
       <c r="A26" s="99">
-        <v>15</v>
-      </c>
-      <c r="B26" s="152" t="s">
-        <v>367</v>
+        <v>28</v>
+      </c>
+      <c r="B26" s="101" t="s">
+        <v>588</v>
       </c>
       <c r="C26" s="101" t="s">
-        <v>516</v>
+        <v>27</v>
       </c>
       <c r="D26" s="101" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="E26" s="148" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="F26" s="110" t="s">
-        <v>562</v>
+        <v>590</v>
       </c>
       <c r="G26" s="148" t="s">
-        <v>756</v>
+        <v>766</v>
       </c>
       <c r="H26" s="124"/>
       <c r="I26" s="124"/>
@@ -45878,130 +45910,130 @@
       <c r="R26" s="124"/>
       <c r="S26" s="149"/>
     </row>
-    <row r="27" spans="1:19" ht="13.8">
+    <row r="27" spans="1:19" ht="14.4">
       <c r="A27" s="94">
-        <v>44</v>
-      </c>
-      <c r="B27" s="151" t="s">
-        <v>483</v>
+        <v>29</v>
+      </c>
+      <c r="B27" s="105" t="s">
+        <v>767</v>
       </c>
       <c r="C27" s="105" t="s">
-        <v>516</v>
+        <v>15</v>
       </c>
       <c r="D27" s="105" t="s">
-        <v>520</v>
+        <v>603</v>
       </c>
       <c r="E27" s="148" t="s">
-        <v>772</v>
-      </c>
-      <c r="F27" s="98">
-        <v>77719062173</v>
-      </c>
-      <c r="G27" s="148" t="s">
-        <v>785</v>
-      </c>
-      <c r="H27" s="144"/>
-      <c r="I27" s="144"/>
-      <c r="J27" s="144"/>
-      <c r="K27" s="144"/>
-      <c r="L27" s="144"/>
-      <c r="M27" s="144"/>
-      <c r="N27" s="144"/>
-      <c r="O27" s="144"/>
-      <c r="P27" s="144"/>
-      <c r="Q27" s="144"/>
-      <c r="R27" s="144"/>
-      <c r="S27" s="145"/>
-    </row>
-    <row r="28" spans="1:19" ht="14.4">
+        <v>609</v>
+      </c>
+      <c r="F27" s="98" t="s">
+        <v>608</v>
+      </c>
+      <c r="G27" s="154" t="s">
+        <v>768</v>
+      </c>
+      <c r="H27" s="157"/>
+      <c r="I27" s="157"/>
+      <c r="J27" s="157"/>
+      <c r="K27" s="157"/>
+      <c r="L27" s="157"/>
+      <c r="M27" s="157"/>
+      <c r="N27" s="157"/>
+      <c r="O27" s="157"/>
+      <c r="P27" s="157"/>
+      <c r="Q27" s="157"/>
+      <c r="R27" s="157"/>
+      <c r="S27" s="158"/>
+    </row>
+    <row r="28" spans="1:19" ht="13.8">
       <c r="A28" s="99">
-        <v>54</v>
-      </c>
-      <c r="B28" s="152" t="s">
-        <v>423</v>
+        <v>30</v>
+      </c>
+      <c r="B28" s="101" t="s">
+        <v>602</v>
       </c>
       <c r="C28" s="101" t="s">
-        <v>516</v>
-      </c>
-      <c r="D28" s="101"/>
+        <v>15</v>
+      </c>
+      <c r="D28" s="101" t="s">
+        <v>603</v>
+      </c>
       <c r="E28" s="148" t="s">
-        <v>793</v>
-      </c>
-      <c r="F28" s="103">
-        <v>77477185969</v>
-      </c>
-      <c r="G28" s="154" t="s">
-        <v>796</v>
-      </c>
-      <c r="H28" s="155"/>
-      <c r="I28" s="155"/>
-      <c r="J28" s="155"/>
-      <c r="K28" s="155"/>
-      <c r="L28" s="155"/>
-      <c r="M28" s="155"/>
-      <c r="N28" s="155"/>
-      <c r="O28" s="155"/>
-      <c r="P28" s="155"/>
-      <c r="Q28" s="155"/>
-      <c r="R28" s="155"/>
-      <c r="S28" s="156"/>
+        <v>609</v>
+      </c>
+      <c r="F28" s="103" t="s">
+        <v>605</v>
+      </c>
+      <c r="G28" s="148" t="s">
+        <v>834</v>
+      </c>
+      <c r="H28" s="124"/>
+      <c r="I28" s="124"/>
+      <c r="J28" s="124"/>
+      <c r="K28" s="124"/>
+      <c r="L28" s="124"/>
+      <c r="M28" s="124"/>
+      <c r="N28" s="124"/>
+      <c r="O28" s="124"/>
+      <c r="P28" s="124"/>
+      <c r="Q28" s="124"/>
+      <c r="R28" s="124"/>
+      <c r="S28" s="149"/>
     </row>
     <row r="29" spans="1:19" ht="15.75" customHeight="1">
       <c r="A29" s="94">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B29" s="105" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="C29" s="105" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D29" s="105" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="E29" s="148" t="s">
-        <v>411</v>
+        <v>609</v>
       </c>
       <c r="F29" s="98" t="s">
-        <v>594</v>
-      </c>
-      <c r="G29" s="148" t="s">
-        <v>764</v>
-      </c>
-      <c r="H29" s="144"/>
-      <c r="I29" s="144"/>
-      <c r="J29" s="144"/>
-      <c r="K29" s="144"/>
-      <c r="L29" s="144"/>
-      <c r="M29" s="144"/>
-      <c r="N29" s="144"/>
-      <c r="O29" s="144"/>
-      <c r="P29" s="144"/>
-      <c r="Q29" s="144"/>
-      <c r="R29" s="144"/>
-      <c r="S29" s="145"/>
+        <v>601</v>
+      </c>
+      <c r="G29" s="159" t="s">
+        <v>824</v>
+      </c>
+      <c r="H29" s="160"/>
+      <c r="I29" s="160"/>
+      <c r="J29" s="160"/>
+      <c r="K29" s="160"/>
+      <c r="L29" s="160"/>
+      <c r="M29" s="160"/>
+      <c r="N29" s="160"/>
+      <c r="O29" s="160"/>
+      <c r="P29" s="160"/>
+      <c r="Q29" s="160"/>
+      <c r="R29" s="160"/>
+      <c r="S29" s="161"/>
     </row>
     <row r="30" spans="1:19" ht="14.4">
       <c r="A30" s="99">
-        <v>31</v>
-      </c>
-      <c r="B30" s="101" t="s">
-        <v>598</v>
+        <v>33</v>
+      </c>
+      <c r="B30" s="152" t="s">
+        <v>611</v>
       </c>
       <c r="C30" s="101" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="101" t="s">
-        <v>599</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="D30" s="101"/>
       <c r="E30" s="148" t="s">
         <v>609</v>
       </c>
       <c r="F30" s="103" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="G30" s="159" t="s">
-        <v>824</v>
+        <v>771</v>
       </c>
       <c r="H30" s="173"/>
       <c r="I30" s="173"/>
@@ -46018,25 +46050,25 @@
     </row>
     <row r="31" spans="1:19" ht="15.75" customHeight="1">
       <c r="A31" s="94">
-        <v>3</v>
-      </c>
-      <c r="B31" s="150" t="s">
-        <v>236</v>
-      </c>
-      <c r="C31" s="96" t="s">
-        <v>516</v>
-      </c>
-      <c r="D31" s="96" t="s">
-        <v>520</v>
-      </c>
-      <c r="E31" s="147" t="s">
-        <v>509</v>
-      </c>
-      <c r="F31" s="98" t="s">
-        <v>524</v>
+        <v>34</v>
+      </c>
+      <c r="B31" s="105" t="s">
+        <v>639</v>
+      </c>
+      <c r="C31" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="105" t="s">
+        <v>592</v>
+      </c>
+      <c r="E31" s="148" t="s">
+        <v>772</v>
+      </c>
+      <c r="F31" s="98">
+        <v>77054441706</v>
       </c>
       <c r="G31" s="148" t="s">
-        <v>743</v>
+        <v>828</v>
       </c>
       <c r="H31" s="144"/>
       <c r="I31" s="144"/>
@@ -46053,25 +46085,25 @@
     </row>
     <row r="32" spans="1:19" ht="15.75" customHeight="1">
       <c r="A32" s="94">
-        <v>4</v>
-      </c>
-      <c r="B32" s="150" t="s">
-        <v>349</v>
-      </c>
-      <c r="C32" s="96" t="s">
-        <v>516</v>
-      </c>
-      <c r="D32" s="96" t="s">
-        <v>520</v>
-      </c>
-      <c r="E32" s="147" t="s">
-        <v>509</v>
-      </c>
-      <c r="F32" s="98" t="s">
-        <v>532</v>
+        <v>36</v>
+      </c>
+      <c r="B32" s="105" t="s">
+        <v>641</v>
+      </c>
+      <c r="C32" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="105" t="s">
+        <v>592</v>
+      </c>
+      <c r="E32" s="148" t="s">
+        <v>772</v>
+      </c>
+      <c r="F32" s="98">
+        <v>77775223878</v>
       </c>
       <c r="G32" s="148" t="s">
-        <v>744</v>
+        <v>832</v>
       </c>
       <c r="H32" s="144"/>
       <c r="I32" s="144"/>
@@ -46088,25 +46120,25 @@
     </row>
     <row r="33" spans="1:19" ht="13.8">
       <c r="A33" s="99">
-        <v>27</v>
-      </c>
-      <c r="B33" s="152" t="s">
-        <v>410</v>
+        <v>37</v>
+      </c>
+      <c r="B33" s="101" t="s">
+        <v>652</v>
       </c>
       <c r="C33" s="101" t="s">
-        <v>516</v>
-      </c>
-      <c r="D33" s="101">
-        <v>0</v>
+        <v>653</v>
+      </c>
+      <c r="D33" s="101" t="s">
+        <v>599</v>
       </c>
       <c r="E33" s="148" t="s">
-        <v>411</v>
+        <v>772</v>
       </c>
       <c r="F33" s="103">
-        <v>77789056044</v>
+        <v>77711886327</v>
       </c>
       <c r="G33" s="148" t="s">
-        <v>765</v>
+        <v>825</v>
       </c>
       <c r="H33" s="124"/>
       <c r="I33" s="124"/>
@@ -46123,25 +46155,25 @@
     </row>
     <row r="34" spans="1:19" ht="13.8">
       <c r="A34" s="99">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B34" s="101" t="s">
-        <v>588</v>
+        <v>634</v>
       </c>
       <c r="C34" s="101" t="s">
         <v>27</v>
       </c>
       <c r="D34" s="101" t="s">
-        <v>513</v>
+        <v>635</v>
       </c>
       <c r="E34" s="148" t="s">
-        <v>411</v>
-      </c>
-      <c r="F34" s="103" t="s">
-        <v>590</v>
+        <v>772</v>
+      </c>
+      <c r="F34" s="103">
+        <v>77054627019</v>
       </c>
       <c r="G34" s="148" t="s">
-        <v>766</v>
+        <v>826</v>
       </c>
       <c r="H34" s="124"/>
       <c r="I34" s="124"/>
@@ -46158,25 +46190,25 @@
     </row>
     <row r="35" spans="1:19" ht="13.8">
       <c r="A35" s="94">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="B35" s="105" t="s">
-        <v>705</v>
+        <v>637</v>
       </c>
       <c r="C35" s="105" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D35" s="105" t="s">
-        <v>706</v>
+        <v>635</v>
       </c>
       <c r="E35" s="148" t="s">
-        <v>427</v>
+        <v>772</v>
       </c>
       <c r="F35" s="98">
-        <v>77057455796</v>
+        <v>77477573740</v>
       </c>
       <c r="G35" s="148" t="s">
-        <v>805</v>
+        <v>829</v>
       </c>
       <c r="H35" s="144"/>
       <c r="I35" s="144"/>
@@ -46191,64 +46223,66 @@
       <c r="R35" s="144"/>
       <c r="S35" s="145"/>
     </row>
-    <row r="36" spans="1:19" ht="14.4">
+    <row r="36" spans="1:19" ht="13.8">
       <c r="A36" s="99">
-        <v>55</v>
-      </c>
-      <c r="B36" s="101" t="s">
-        <v>664</v>
+        <v>40</v>
+      </c>
+      <c r="B36" s="152" t="s">
+        <v>315</v>
       </c>
       <c r="C36" s="101" t="s">
-        <v>27</v>
+        <v>516</v>
       </c>
       <c r="D36" s="101" t="s">
-        <v>665</v>
+        <v>520</v>
       </c>
       <c r="E36" s="148" t="s">
-        <v>793</v>
-      </c>
-      <c r="F36" s="103" t="s">
-        <v>667</v>
-      </c>
-      <c r="G36" s="154" t="s">
-        <v>797</v>
-      </c>
-      <c r="H36" s="155"/>
-      <c r="I36" s="155"/>
-      <c r="J36" s="155"/>
-      <c r="K36" s="155"/>
-      <c r="L36" s="155"/>
-      <c r="M36" s="155"/>
-      <c r="N36" s="155"/>
-      <c r="O36" s="155"/>
-      <c r="P36" s="155"/>
-      <c r="Q36" s="155"/>
-      <c r="R36" s="155"/>
-      <c r="S36" s="156"/>
+        <v>772</v>
+      </c>
+      <c r="F36" s="103">
+        <v>77772459654</v>
+      </c>
+      <c r="G36" s="148" t="s">
+        <v>830</v>
+      </c>
+      <c r="H36" s="124"/>
+      <c r="I36" s="124"/>
+      <c r="J36" s="124"/>
+      <c r="K36" s="124"/>
+      <c r="L36" s="124"/>
+      <c r="M36" s="124"/>
+      <c r="N36" s="124"/>
+      <c r="O36" s="124"/>
+      <c r="P36" s="124"/>
+      <c r="Q36" s="124"/>
+      <c r="R36" s="124"/>
+      <c r="S36" s="149"/>
     </row>
     <row r="37" spans="1:19" ht="13.8">
       <c r="A37" s="94">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B37" s="105" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="C37" s="105" t="s">
         <v>27</v>
       </c>
       <c r="D37" s="105" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="E37" s="148" t="s">
         <v>772</v>
       </c>
       <c r="F37" s="98">
-        <v>7710609229</v>
+        <v>77764004000</v>
       </c>
       <c r="G37" s="148" t="s">
-        <v>786</v>
-      </c>
-      <c r="H37" s="144"/>
+        <v>833</v>
+      </c>
+      <c r="H37" s="144" t="s">
+        <v>782</v>
+      </c>
       <c r="I37" s="144"/>
       <c r="J37" s="144"/>
       <c r="K37" s="144"/>
@@ -46263,10 +46297,10 @@
     </row>
     <row r="38" spans="1:19" ht="13.8">
       <c r="A38" s="99">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="B38" s="152" t="s">
-        <v>380</v>
+        <v>621</v>
       </c>
       <c r="C38" s="101" t="s">
         <v>516</v>
@@ -46275,13 +46309,13 @@
         <v>517</v>
       </c>
       <c r="E38" s="148" t="s">
-        <v>427</v>
-      </c>
-      <c r="F38" s="110">
-        <v>77772285335</v>
+        <v>772</v>
+      </c>
+      <c r="F38" s="110" t="s">
+        <v>623</v>
       </c>
       <c r="G38" s="148" t="s">
-        <v>806</v>
+        <v>783</v>
       </c>
       <c r="H38" s="124"/>
       <c r="I38" s="124"/>
@@ -46298,25 +46332,25 @@
     </row>
     <row r="39" spans="1:19" ht="13.8">
       <c r="A39" s="94">
-        <v>6</v>
-      </c>
-      <c r="B39" s="150" t="s">
-        <v>307</v>
-      </c>
-      <c r="C39" s="96" t="s">
-        <v>516</v>
-      </c>
-      <c r="D39" s="96" t="s">
-        <v>520</v>
-      </c>
-      <c r="E39" s="147" t="s">
-        <v>509</v>
-      </c>
-      <c r="F39" s="98" t="s">
-        <v>522</v>
+        <v>43</v>
+      </c>
+      <c r="B39" s="105" t="s">
+        <v>632</v>
+      </c>
+      <c r="C39" s="105" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="105" t="s">
+        <v>630</v>
+      </c>
+      <c r="E39" s="148" t="s">
+        <v>772</v>
+      </c>
+      <c r="F39" s="98">
+        <v>77710603592</v>
       </c>
       <c r="G39" s="148" t="s">
-        <v>747</v>
+        <v>784</v>
       </c>
       <c r="H39" s="144"/>
       <c r="I39" s="144"/>
@@ -46333,25 +46367,25 @@
     </row>
     <row r="40" spans="1:19" ht="13.8">
       <c r="A40" s="94">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="B40" s="151" t="s">
-        <v>745</v>
+        <v>483</v>
       </c>
       <c r="C40" s="105" t="s">
         <v>516</v>
       </c>
       <c r="D40" s="105" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E40" s="148" t="s">
-        <v>509</v>
-      </c>
-      <c r="F40" s="98" t="s">
-        <v>519</v>
+        <v>772</v>
+      </c>
+      <c r="F40" s="98">
+        <v>77719062173</v>
       </c>
       <c r="G40" s="148" t="s">
-        <v>741</v>
+        <v>785</v>
       </c>
       <c r="H40" s="144"/>
       <c r="I40" s="144"/>
@@ -46359,47 +46393,34 @@
       <c r="K40" s="144"/>
       <c r="L40" s="144"/>
       <c r="M40" s="144"/>
-      <c r="N40" s="144" t="s">
-        <v>746</v>
-      </c>
-      <c r="O40" s="144">
-        <v>70</v>
-      </c>
-      <c r="P40" s="144">
-        <v>115.5</v>
-      </c>
-      <c r="Q40" s="144">
-        <v>115.5</v>
-      </c>
-      <c r="R40" s="144">
-        <v>49</v>
-      </c>
-      <c r="S40" s="145">
-        <f>SUM(O40:R40)</f>
-        <v>350</v>
-      </c>
+      <c r="N40" s="144"/>
+      <c r="O40" s="144"/>
+      <c r="P40" s="144"/>
+      <c r="Q40" s="144"/>
+      <c r="R40" s="144"/>
+      <c r="S40" s="145"/>
     </row>
     <row r="41" spans="1:19" ht="13.8">
       <c r="A41" s="99">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B41" s="122" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
       <c r="C41" s="122" t="s">
         <v>27</v>
       </c>
       <c r="D41" s="122" t="s">
-        <v>513</v>
+        <v>630</v>
       </c>
       <c r="E41" s="148" t="s">
         <v>772</v>
       </c>
       <c r="F41" s="124">
-        <v>77711886438</v>
+        <v>7710609229</v>
       </c>
       <c r="G41" s="148" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="H41" s="124"/>
       <c r="I41" s="124"/>
@@ -46416,25 +46437,25 @@
     </row>
     <row r="42" spans="1:19" ht="13.8">
       <c r="A42" s="99">
-        <v>64</v>
-      </c>
-      <c r="B42" s="152" t="s">
-        <v>376</v>
+        <v>47</v>
+      </c>
+      <c r="B42" s="101" t="s">
+        <v>619</v>
       </c>
       <c r="C42" s="101" t="s">
-        <v>516</v>
+        <v>27</v>
       </c>
       <c r="D42" s="101" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="E42" s="148" t="s">
-        <v>427</v>
+        <v>772</v>
       </c>
       <c r="F42" s="103">
-        <v>77761023037</v>
+        <v>77711886438</v>
       </c>
       <c r="G42" s="148" t="s">
-        <v>807</v>
+        <v>788</v>
       </c>
       <c r="H42" s="124"/>
       <c r="I42" s="124"/>
@@ -46449,60 +46470,62 @@
       <c r="R42" s="124"/>
       <c r="S42" s="149"/>
     </row>
-    <row r="43" spans="1:19" ht="14.4">
+    <row r="43" spans="1:19" ht="13.8">
       <c r="A43" s="94">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B43" s="151" t="s">
-        <v>611</v>
+        <v>627</v>
       </c>
       <c r="C43" s="105" t="s">
         <v>516</v>
       </c>
-      <c r="D43" s="105"/>
+      <c r="D43" s="105" t="s">
+        <v>517</v>
+      </c>
       <c r="E43" s="148" t="s">
-        <v>609</v>
-      </c>
-      <c r="F43" s="98" t="s">
-        <v>613</v>
-      </c>
-      <c r="G43" s="159" t="s">
-        <v>771</v>
-      </c>
-      <c r="H43" s="160"/>
-      <c r="I43" s="160"/>
-      <c r="J43" s="160"/>
-      <c r="K43" s="160"/>
-      <c r="L43" s="160"/>
-      <c r="M43" s="160"/>
-      <c r="N43" s="160"/>
-      <c r="O43" s="160"/>
-      <c r="P43" s="160"/>
-      <c r="Q43" s="160"/>
-      <c r="R43" s="160"/>
-      <c r="S43" s="161"/>
+        <v>772</v>
+      </c>
+      <c r="F43" s="98">
+        <v>77753480121</v>
+      </c>
+      <c r="G43" s="148" t="s">
+        <v>835</v>
+      </c>
+      <c r="H43" s="144"/>
+      <c r="I43" s="144"/>
+      <c r="J43" s="144"/>
+      <c r="K43" s="144"/>
+      <c r="L43" s="144"/>
+      <c r="M43" s="144"/>
+      <c r="N43" s="144"/>
+      <c r="O43" s="144"/>
+      <c r="P43" s="144"/>
+      <c r="Q43" s="144"/>
+      <c r="R43" s="144"/>
+      <c r="S43" s="145"/>
     </row>
     <row r="44" spans="1:19" ht="13.8">
       <c r="A44" s="99">
-        <v>7</v>
-      </c>
-      <c r="B44" s="108" t="s">
-        <v>507</v>
-      </c>
-      <c r="C44" s="108" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="101" t="s">
+        <v>614</v>
+      </c>
+      <c r="C44" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="108" t="s">
-        <v>508</v>
-      </c>
-      <c r="E44" s="147" t="s">
-        <v>509</v>
-      </c>
-      <c r="F44" s="103" t="s">
-        <v>511</v>
+      <c r="D44" s="101" t="s">
+        <v>546</v>
+      </c>
+      <c r="E44" s="148" t="s">
+        <v>772</v>
+      </c>
+      <c r="F44" s="103">
+        <v>77479305650</v>
       </c>
       <c r="G44" s="148" t="s">
-        <v>748</v>
+        <v>827</v>
       </c>
       <c r="H44" s="124"/>
       <c r="I44" s="124"/>
@@ -46519,10 +46542,10 @@
     </row>
     <row r="45" spans="1:19" ht="13.8">
       <c r="A45" s="94">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45" s="151" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C45" s="105" t="s">
         <v>516</v>
@@ -46533,11 +46556,11 @@
       <c r="E45" s="148" t="s">
         <v>772</v>
       </c>
-      <c r="F45" s="98">
-        <v>77753480121</v>
+      <c r="F45" s="98" t="s">
+        <v>626</v>
       </c>
       <c r="G45" s="148" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="H45" s="144"/>
       <c r="I45" s="144"/>
@@ -46552,132 +46575,128 @@
       <c r="R45" s="144"/>
       <c r="S45" s="145"/>
     </row>
-    <row r="46" spans="1:19" ht="14.4">
+    <row r="46" spans="1:19" ht="13.8">
       <c r="A46" s="99">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="B46" s="101" t="s">
-        <v>709</v>
+        <v>645</v>
       </c>
       <c r="C46" s="101" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D46" s="101" t="s">
-        <v>710</v>
+        <v>646</v>
       </c>
       <c r="E46" s="148" t="s">
-        <v>415</v>
-      </c>
-      <c r="F46" s="103" t="s">
-        <v>712</v>
-      </c>
-      <c r="G46" s="154" t="s">
-        <v>813</v>
-      </c>
-      <c r="H46" s="155"/>
-      <c r="I46" s="155"/>
-      <c r="J46" s="155"/>
-      <c r="K46" s="155"/>
-      <c r="L46" s="155"/>
-      <c r="M46" s="155"/>
-      <c r="N46" s="155"/>
-      <c r="O46" s="155"/>
-      <c r="P46" s="155"/>
-      <c r="Q46" s="155"/>
-      <c r="R46" s="155"/>
-      <c r="S46" s="156"/>
-    </row>
-    <row r="47" spans="1:19" ht="13.8">
+        <v>772</v>
+      </c>
+      <c r="F46" s="103">
+        <v>77756396005</v>
+      </c>
+      <c r="G46" s="148" t="s">
+        <v>792</v>
+      </c>
+      <c r="H46" s="124"/>
+      <c r="I46" s="124"/>
+      <c r="J46" s="124"/>
+      <c r="K46" s="124"/>
+      <c r="L46" s="124"/>
+      <c r="M46" s="124"/>
+      <c r="N46" s="124"/>
+      <c r="O46" s="124"/>
+      <c r="P46" s="124"/>
+      <c r="Q46" s="124"/>
+      <c r="R46" s="124"/>
+      <c r="S46" s="149"/>
+    </row>
+    <row r="47" spans="1:19" ht="14.4">
       <c r="A47" s="94">
-        <v>65</v>
-      </c>
-      <c r="B47" s="105" t="s">
-        <v>698</v>
+        <v>52</v>
+      </c>
+      <c r="B47" s="151" t="s">
+        <v>678</v>
       </c>
       <c r="C47" s="105" t="s">
-        <v>15</v>
-      </c>
-      <c r="D47" s="105" t="s">
-        <v>699</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="D47" s="105"/>
       <c r="E47" s="148" t="s">
-        <v>427</v>
-      </c>
-      <c r="F47" s="98">
-        <v>77057454959</v>
-      </c>
-      <c r="G47" s="148" t="s">
-        <v>803</v>
-      </c>
-      <c r="H47" s="144"/>
-      <c r="I47" s="144"/>
-      <c r="J47" s="144"/>
-      <c r="K47" s="144"/>
-      <c r="L47" s="144"/>
-      <c r="M47" s="144"/>
-      <c r="N47" s="144"/>
-      <c r="O47" s="144"/>
-      <c r="P47" s="144"/>
-      <c r="Q47" s="144"/>
-      <c r="R47" s="144"/>
-      <c r="S47" s="145"/>
+        <v>793</v>
+      </c>
+      <c r="F47" s="98" t="s">
+        <v>680</v>
+      </c>
+      <c r="G47" s="154" t="s">
+        <v>794</v>
+      </c>
+      <c r="H47" s="157"/>
+      <c r="I47" s="157"/>
+      <c r="J47" s="157"/>
+      <c r="K47" s="157"/>
+      <c r="L47" s="157"/>
+      <c r="M47" s="157"/>
+      <c r="N47" s="157"/>
+      <c r="O47" s="157"/>
+      <c r="P47" s="157"/>
+      <c r="Q47" s="157"/>
+      <c r="R47" s="157"/>
+      <c r="S47" s="158"/>
     </row>
     <row r="48" spans="1:19" ht="15.75" customHeight="1">
       <c r="A48" s="99">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48" s="101" t="s">
-        <v>614</v>
+        <v>672</v>
       </c>
       <c r="C48" s="101" t="s">
         <v>27</v>
       </c>
       <c r="D48" s="101" t="s">
-        <v>546</v>
+        <v>669</v>
       </c>
       <c r="E48" s="148" t="s">
-        <v>772</v>
-      </c>
-      <c r="F48" s="103">
-        <v>77479305650</v>
-      </c>
-      <c r="G48" s="148" t="s">
-        <v>827</v>
-      </c>
-      <c r="H48" s="124"/>
-      <c r="I48" s="124"/>
-      <c r="J48" s="124"/>
-      <c r="K48" s="124"/>
-      <c r="L48" s="124"/>
-      <c r="M48" s="124"/>
-      <c r="N48" s="124"/>
-      <c r="O48" s="124"/>
-      <c r="P48" s="124"/>
-      <c r="Q48" s="124"/>
-      <c r="R48" s="124"/>
-      <c r="S48" s="149"/>
+        <v>793</v>
+      </c>
+      <c r="F48" s="103" t="s">
+        <v>674</v>
+      </c>
+      <c r="G48" s="154" t="s">
+        <v>795</v>
+      </c>
+      <c r="H48" s="155"/>
+      <c r="I48" s="155"/>
+      <c r="J48" s="155"/>
+      <c r="K48" s="155"/>
+      <c r="L48" s="155"/>
+      <c r="M48" s="155"/>
+      <c r="N48" s="155"/>
+      <c r="O48" s="155"/>
+      <c r="P48" s="155"/>
+      <c r="Q48" s="155"/>
+      <c r="R48" s="155"/>
+      <c r="S48" s="156"/>
     </row>
     <row r="49" spans="1:19" ht="15.75" customHeight="1">
       <c r="A49" s="94">
-        <v>56</v>
-      </c>
-      <c r="B49" s="105" t="s">
-        <v>660</v>
+        <v>54</v>
+      </c>
+      <c r="B49" s="151" t="s">
+        <v>423</v>
       </c>
       <c r="C49" s="105" t="s">
-        <v>27</v>
-      </c>
-      <c r="D49" s="105" t="s">
-        <v>661</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="D49" s="105"/>
       <c r="E49" s="148" t="s">
         <v>793</v>
       </c>
-      <c r="F49" s="98" t="s">
-        <v>663</v>
+      <c r="F49" s="98">
+        <v>77477185969</v>
       </c>
       <c r="G49" s="154" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="H49" s="157"/>
       <c r="I49" s="157"/>
@@ -46694,25 +46713,25 @@
     </row>
     <row r="50" spans="1:19" ht="15.75" customHeight="1">
       <c r="A50" s="99">
-        <v>74</v>
-      </c>
-      <c r="B50" s="152" t="s">
-        <v>414</v>
+        <v>55</v>
+      </c>
+      <c r="B50" s="101" t="s">
+        <v>664</v>
       </c>
       <c r="C50" s="101" t="s">
-        <v>516</v>
-      </c>
-      <c r="D50" s="101">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="D50" s="101" t="s">
+        <v>665</v>
       </c>
       <c r="E50" s="148" t="s">
-        <v>415</v>
-      </c>
-      <c r="F50" s="103">
-        <v>77761009650</v>
+        <v>793</v>
+      </c>
+      <c r="F50" s="103" t="s">
+        <v>667</v>
       </c>
       <c r="G50" s="154" t="s">
-        <v>814</v>
+        <v>797</v>
       </c>
       <c r="H50" s="155"/>
       <c r="I50" s="155"/>
@@ -46729,25 +46748,25 @@
     </row>
     <row r="51" spans="1:19" ht="15.75" customHeight="1">
       <c r="A51" s="94">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B51" s="105" t="s">
-        <v>799</v>
+        <v>660</v>
       </c>
       <c r="C51" s="105" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D51" s="105" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="E51" s="148" t="s">
         <v>793</v>
       </c>
       <c r="F51" s="118" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="G51" s="154" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="H51" s="157"/>
       <c r="I51" s="157"/>
@@ -46764,115 +46783,115 @@
     </row>
     <row r="52" spans="1:19" ht="15.75" customHeight="1">
       <c r="A52" s="99">
-        <v>66</v>
-      </c>
-      <c r="B52" s="152" t="s">
-        <v>342</v>
+        <v>57</v>
+      </c>
+      <c r="B52" s="101" t="s">
+        <v>799</v>
       </c>
       <c r="C52" s="101" t="s">
-        <v>516</v>
+        <v>15</v>
       </c>
       <c r="D52" s="101" t="s">
-        <v>520</v>
+        <v>669</v>
       </c>
       <c r="E52" s="148" t="s">
-        <v>427</v>
-      </c>
-      <c r="F52" s="110">
-        <v>77026615811</v>
-      </c>
-      <c r="G52" s="148" t="s">
-        <v>808</v>
-      </c>
-      <c r="H52" s="124"/>
-      <c r="I52" s="124"/>
-      <c r="J52" s="124"/>
-      <c r="K52" s="124"/>
-      <c r="L52" s="124"/>
-      <c r="M52" s="124"/>
-      <c r="N52" s="124"/>
-      <c r="O52" s="124"/>
-      <c r="P52" s="124"/>
-      <c r="Q52" s="124"/>
-      <c r="R52" s="124"/>
-      <c r="S52" s="149"/>
+        <v>793</v>
+      </c>
+      <c r="F52" s="110" t="s">
+        <v>671</v>
+      </c>
+      <c r="G52" s="154" t="s">
+        <v>800</v>
+      </c>
+      <c r="H52" s="155"/>
+      <c r="I52" s="155"/>
+      <c r="J52" s="155"/>
+      <c r="K52" s="155"/>
+      <c r="L52" s="155"/>
+      <c r="M52" s="155"/>
+      <c r="N52" s="155"/>
+      <c r="O52" s="155"/>
+      <c r="P52" s="155"/>
+      <c r="Q52" s="155"/>
+      <c r="R52" s="155"/>
+      <c r="S52" s="156"/>
     </row>
     <row r="53" spans="1:19" ht="15.75" customHeight="1">
       <c r="A53" s="94">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="B53" s="105" t="s">
-        <v>713</v>
+        <v>675</v>
       </c>
       <c r="C53" s="105" t="s">
-        <v>714</v>
+        <v>27</v>
       </c>
       <c r="D53" s="105" t="s">
-        <v>661</v>
+        <v>539</v>
       </c>
       <c r="E53" s="148" t="s">
-        <v>415</v>
-      </c>
-      <c r="F53" s="98" t="s">
-        <v>716</v>
-      </c>
-      <c r="G53" s="148" t="s">
-        <v>815</v>
-      </c>
-      <c r="H53" s="144"/>
-      <c r="I53" s="144"/>
-      <c r="J53" s="144"/>
-      <c r="K53" s="144"/>
-      <c r="L53" s="144"/>
-      <c r="M53" s="144"/>
-      <c r="N53" s="144"/>
-      <c r="O53" s="144"/>
-      <c r="P53" s="144"/>
-      <c r="Q53" s="144"/>
-      <c r="R53" s="144"/>
-      <c r="S53" s="145"/>
+        <v>793</v>
+      </c>
+      <c r="F53" s="98">
+        <v>77775223892</v>
+      </c>
+      <c r="G53" s="154" t="s">
+        <v>823</v>
+      </c>
+      <c r="H53" s="157"/>
+      <c r="I53" s="157"/>
+      <c r="J53" s="157"/>
+      <c r="K53" s="157"/>
+      <c r="L53" s="157"/>
+      <c r="M53" s="157"/>
+      <c r="N53" s="157"/>
+      <c r="O53" s="157"/>
+      <c r="P53" s="157"/>
+      <c r="Q53" s="157"/>
+      <c r="R53" s="157"/>
+      <c r="S53" s="158"/>
     </row>
     <row r="54" spans="1:19" ht="15.75" customHeight="1">
       <c r="A54" s="99">
-        <v>21</v>
-      </c>
-      <c r="B54" s="152" t="s">
-        <v>338</v>
+        <v>67</v>
+      </c>
+      <c r="B54" s="101" t="s">
+        <v>688</v>
       </c>
       <c r="C54" s="101" t="s">
-        <v>516</v>
+        <v>20</v>
       </c>
       <c r="D54" s="101" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="E54" s="148" t="s">
-        <v>570</v>
+        <v>809</v>
       </c>
       <c r="F54" s="103" t="s">
-        <v>576</v>
-      </c>
-      <c r="G54" s="154" t="s">
-        <v>759</v>
-      </c>
-      <c r="H54" s="155"/>
-      <c r="I54" s="155"/>
-      <c r="J54" s="155"/>
-      <c r="K54" s="155"/>
-      <c r="L54" s="155"/>
-      <c r="M54" s="155"/>
-      <c r="N54" s="155"/>
-      <c r="O54" s="155"/>
-      <c r="P54" s="155"/>
-      <c r="Q54" s="155"/>
-      <c r="R54" s="155"/>
-      <c r="S54" s="156"/>
+        <v>690</v>
+      </c>
+      <c r="G54" s="148" t="s">
+        <v>810</v>
+      </c>
+      <c r="H54" s="124"/>
+      <c r="I54" s="124"/>
+      <c r="J54" s="124"/>
+      <c r="K54" s="124"/>
+      <c r="L54" s="124"/>
+      <c r="M54" s="124"/>
+      <c r="N54" s="124"/>
+      <c r="O54" s="124"/>
+      <c r="P54" s="124"/>
+      <c r="Q54" s="124"/>
+      <c r="R54" s="124"/>
+      <c r="S54" s="149"/>
     </row>
     <row r="55" spans="1:19" ht="13.8">
       <c r="A55" s="94">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B55" s="151" t="s">
-        <v>624</v>
+        <v>393</v>
       </c>
       <c r="C55" s="105" t="s">
         <v>516</v>
@@ -46881,13 +46900,13 @@
         <v>517</v>
       </c>
       <c r="E55" s="148" t="s">
-        <v>772</v>
-      </c>
-      <c r="F55" s="98" t="s">
-        <v>626</v>
+        <v>427</v>
+      </c>
+      <c r="F55" s="98">
+        <v>77078750345</v>
       </c>
       <c r="G55" s="148" t="s">
-        <v>831</v>
+        <v>803</v>
       </c>
       <c r="H55" s="144"/>
       <c r="I55" s="144"/>
@@ -46902,62 +46921,62 @@
       <c r="R55" s="144"/>
       <c r="S55" s="145"/>
     </row>
-    <row r="56" spans="1:19" ht="14.4">
+    <row r="56" spans="1:19" ht="13.8">
       <c r="A56" s="99">
-        <v>58</v>
-      </c>
-      <c r="B56" s="101" t="s">
-        <v>675</v>
+        <v>61</v>
+      </c>
+      <c r="B56" s="175" t="s">
+        <v>346</v>
       </c>
       <c r="C56" s="101" t="s">
-        <v>27</v>
+        <v>516</v>
       </c>
       <c r="D56" s="101" t="s">
-        <v>539</v>
+        <v>520</v>
       </c>
       <c r="E56" s="148" t="s">
-        <v>793</v>
+        <v>427</v>
       </c>
       <c r="F56" s="103">
-        <v>77775223892</v>
-      </c>
-      <c r="G56" s="154" t="s">
-        <v>823</v>
-      </c>
-      <c r="H56" s="155"/>
-      <c r="I56" s="155"/>
-      <c r="J56" s="155"/>
-      <c r="K56" s="155"/>
-      <c r="L56" s="155"/>
-      <c r="M56" s="155"/>
-      <c r="N56" s="155"/>
-      <c r="O56" s="155"/>
-      <c r="P56" s="155"/>
-      <c r="Q56" s="155"/>
-      <c r="R56" s="155"/>
-      <c r="S56" s="156"/>
+        <v>77057418708</v>
+      </c>
+      <c r="G56" s="148" t="s">
+        <v>804</v>
+      </c>
+      <c r="H56" s="124"/>
+      <c r="I56" s="124"/>
+      <c r="J56" s="124"/>
+      <c r="K56" s="124"/>
+      <c r="L56" s="124"/>
+      <c r="M56" s="124"/>
+      <c r="N56" s="124"/>
+      <c r="O56" s="124"/>
+      <c r="P56" s="124"/>
+      <c r="Q56" s="124"/>
+      <c r="R56" s="124"/>
+      <c r="S56" s="149"/>
     </row>
     <row r="57" spans="1:19" ht="13.8">
       <c r="A57" s="94">
-        <v>17</v>
-      </c>
-      <c r="B57" s="151" t="s">
-        <v>363</v>
+        <v>62</v>
+      </c>
+      <c r="B57" s="105" t="s">
+        <v>705</v>
       </c>
       <c r="C57" s="105" t="s">
-        <v>516</v>
+        <v>15</v>
       </c>
       <c r="D57" s="105" t="s">
-        <v>517</v>
+        <v>706</v>
       </c>
       <c r="E57" s="148" t="s">
-        <v>419</v>
-      </c>
-      <c r="F57" s="98" t="s">
-        <v>558</v>
+        <v>427</v>
+      </c>
+      <c r="F57" s="98">
+        <v>77057455796</v>
       </c>
       <c r="G57" s="148" t="s">
-        <v>756</v>
+        <v>805</v>
       </c>
       <c r="H57" s="144"/>
       <c r="I57" s="144"/>
@@ -46972,62 +46991,62 @@
       <c r="R57" s="144"/>
       <c r="S57" s="145"/>
     </row>
-    <row r="58" spans="1:19" ht="14.4">
+    <row r="58" spans="1:19" ht="13.8">
       <c r="A58" s="99">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="B58" s="152" t="s">
-        <v>289</v>
+        <v>380</v>
       </c>
       <c r="C58" s="101" t="s">
         <v>516</v>
       </c>
       <c r="D58" s="101" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E58" s="148" t="s">
-        <v>570</v>
-      </c>
-      <c r="F58" s="103" t="s">
-        <v>572</v>
-      </c>
-      <c r="G58" s="154" t="s">
-        <v>760</v>
-      </c>
-      <c r="H58" s="155"/>
-      <c r="I58" s="155"/>
-      <c r="J58" s="155"/>
-      <c r="K58" s="155"/>
-      <c r="L58" s="155"/>
-      <c r="M58" s="155"/>
-      <c r="N58" s="155"/>
-      <c r="O58" s="155"/>
-      <c r="P58" s="155"/>
-      <c r="Q58" s="155"/>
-      <c r="R58" s="155"/>
-      <c r="S58" s="156"/>
+        <v>427</v>
+      </c>
+      <c r="F58" s="103">
+        <v>77772285335</v>
+      </c>
+      <c r="G58" s="148" t="s">
+        <v>836</v>
+      </c>
+      <c r="H58" s="124"/>
+      <c r="I58" s="124"/>
+      <c r="J58" s="124"/>
+      <c r="K58" s="124"/>
+      <c r="L58" s="124"/>
+      <c r="M58" s="124"/>
+      <c r="N58" s="124"/>
+      <c r="O58" s="124"/>
+      <c r="P58" s="124"/>
+      <c r="Q58" s="124"/>
+      <c r="R58" s="124"/>
+      <c r="S58" s="149"/>
     </row>
     <row r="59" spans="1:19" ht="13.8">
       <c r="A59" s="94">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B59" s="151" t="s">
-        <v>334</v>
+        <v>376</v>
       </c>
       <c r="C59" s="105" t="s">
         <v>516</v>
       </c>
       <c r="D59" s="105" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E59" s="148" t="s">
-        <v>509</v>
-      </c>
-      <c r="F59" s="98" t="s">
-        <v>526</v>
+        <v>427</v>
+      </c>
+      <c r="F59" s="98">
+        <v>77761023037</v>
       </c>
       <c r="G59" s="148" t="s">
-        <v>749</v>
+        <v>807</v>
       </c>
       <c r="H59" s="144"/>
       <c r="I59" s="144"/>
@@ -47044,25 +47063,25 @@
     </row>
     <row r="60" spans="1:19" ht="13.8">
       <c r="A60" s="99">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B60" s="101" t="s">
-        <v>645</v>
+        <v>698</v>
       </c>
       <c r="C60" s="101" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="101" t="s">
-        <v>646</v>
+        <v>699</v>
       </c>
       <c r="E60" s="148" t="s">
-        <v>772</v>
+        <v>427</v>
       </c>
       <c r="F60" s="103">
-        <v>77756396005</v>
+        <v>77057454959</v>
       </c>
       <c r="G60" s="148" t="s">
-        <v>792</v>
+        <v>803</v>
       </c>
       <c r="H60" s="124"/>
       <c r="I60" s="124"/>
@@ -47079,25 +47098,25 @@
     </row>
     <row r="61" spans="1:19" ht="13.8">
       <c r="A61" s="94">
-        <v>9</v>
-      </c>
-      <c r="B61" s="150" t="s">
-        <v>326</v>
-      </c>
-      <c r="C61" s="96" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" s="151" t="s">
+        <v>342</v>
+      </c>
+      <c r="C61" s="105" t="s">
         <v>516</v>
       </c>
-      <c r="D61" s="96" t="s">
+      <c r="D61" s="105" t="s">
         <v>520</v>
       </c>
-      <c r="E61" s="147" t="s">
-        <v>509</v>
-      </c>
-      <c r="F61" s="98" t="s">
-        <v>530</v>
+      <c r="E61" s="148" t="s">
+        <v>427</v>
+      </c>
+      <c r="F61" s="98">
+        <v>77026615811</v>
       </c>
       <c r="G61" s="148" t="s">
-        <v>749</v>
+        <v>808</v>
       </c>
       <c r="H61" s="144"/>
       <c r="I61" s="144"/>
@@ -47114,25 +47133,25 @@
     </row>
     <row r="62" spans="1:19" ht="13.8">
       <c r="A62" s="99">
-        <v>18</v>
-      </c>
-      <c r="B62" s="101" t="s">
-        <v>549</v>
+        <v>68</v>
+      </c>
+      <c r="B62" s="152" t="s">
+        <v>299</v>
       </c>
       <c r="C62" s="101" t="s">
-        <v>15</v>
+        <v>516</v>
       </c>
       <c r="D62" s="101" t="s">
-        <v>550</v>
+        <v>520</v>
       </c>
       <c r="E62" s="148" t="s">
-        <v>419</v>
-      </c>
-      <c r="F62" s="103" t="s">
-        <v>552</v>
+        <v>427</v>
+      </c>
+      <c r="F62" s="103">
+        <v>77761000911</v>
       </c>
       <c r="G62" s="148" t="s">
-        <v>756</v>
+        <v>837</v>
       </c>
       <c r="H62" s="124"/>
       <c r="I62" s="124"/>
@@ -47149,25 +47168,25 @@
     </row>
     <row r="63" spans="1:19" ht="13.8">
       <c r="A63" s="94">
-        <v>19</v>
-      </c>
-      <c r="B63" s="105" t="s">
-        <v>545</v>
+        <v>69</v>
+      </c>
+      <c r="B63" s="151" t="s">
+        <v>401</v>
       </c>
       <c r="C63" s="105" t="s">
-        <v>27</v>
+        <v>516</v>
       </c>
       <c r="D63" s="105" t="s">
-        <v>546</v>
+        <v>517</v>
       </c>
       <c r="E63" s="148" t="s">
-        <v>419</v>
-      </c>
-      <c r="F63" s="98" t="s">
-        <v>548</v>
+        <v>427</v>
+      </c>
+      <c r="F63" s="98">
+        <v>77022144180</v>
       </c>
       <c r="G63" s="148" t="s">
-        <v>757</v>
+        <v>803</v>
       </c>
       <c r="H63" s="144"/>
       <c r="I63" s="144"/>
@@ -47184,25 +47203,25 @@
     </row>
     <row r="64" spans="1:19" ht="13.8">
       <c r="A64" s="99">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64" s="101" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="C64" s="101" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D64" s="101" t="s">
-        <v>508</v>
+        <v>699</v>
       </c>
       <c r="E64" s="148" t="s">
-        <v>809</v>
-      </c>
-      <c r="F64" s="103" t="s">
-        <v>690</v>
+        <v>427</v>
+      </c>
+      <c r="F64" s="103">
+        <v>77057455794</v>
       </c>
       <c r="G64" s="148" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H64" s="124"/>
       <c r="I64" s="124"/>
@@ -47217,62 +47236,62 @@
       <c r="R64" s="124"/>
       <c r="S64" s="149"/>
     </row>
-    <row r="65" spans="1:19" ht="13.8">
+    <row r="65" spans="1:19" ht="14.4">
       <c r="A65" s="94">
-        <v>68</v>
-      </c>
-      <c r="B65" s="151" t="s">
-        <v>299</v>
+        <v>71</v>
+      </c>
+      <c r="B65" s="105" t="s">
+        <v>723</v>
       </c>
       <c r="C65" s="105" t="s">
-        <v>516</v>
+        <v>15</v>
       </c>
       <c r="D65" s="105" t="s">
-        <v>520</v>
+        <v>724</v>
       </c>
       <c r="E65" s="148" t="s">
-        <v>427</v>
-      </c>
-      <c r="F65" s="98">
-        <v>77761000911</v>
-      </c>
-      <c r="G65" s="148" t="s">
-        <v>806</v>
-      </c>
-      <c r="H65" s="144"/>
-      <c r="I65" s="144"/>
-      <c r="J65" s="144"/>
-      <c r="K65" s="144"/>
-      <c r="L65" s="144"/>
-      <c r="M65" s="144"/>
-      <c r="N65" s="144"/>
-      <c r="O65" s="144"/>
-      <c r="P65" s="144"/>
-      <c r="Q65" s="144"/>
-      <c r="R65" s="144"/>
-      <c r="S65" s="145"/>
+        <v>415</v>
+      </c>
+      <c r="F65" s="164" t="s">
+        <v>726</v>
+      </c>
+      <c r="G65" s="154" t="s">
+        <v>822</v>
+      </c>
+      <c r="H65" s="157"/>
+      <c r="I65" s="157"/>
+      <c r="J65" s="157"/>
+      <c r="K65" s="157"/>
+      <c r="L65" s="157"/>
+      <c r="M65" s="157"/>
+      <c r="N65" s="157"/>
+      <c r="O65" s="157"/>
+      <c r="P65" s="157"/>
+      <c r="Q65" s="157"/>
+      <c r="R65" s="157"/>
+      <c r="S65" s="158"/>
     </row>
     <row r="66" spans="1:19" ht="15.75" customHeight="1">
       <c r="A66" s="94">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B66" s="105" t="s">
-        <v>538</v>
+        <v>681</v>
       </c>
       <c r="C66" s="105" t="s">
         <v>27</v>
       </c>
       <c r="D66" s="105" t="s">
-        <v>539</v>
+        <v>508</v>
       </c>
       <c r="E66" s="148" t="s">
-        <v>509</v>
+        <v>415</v>
       </c>
       <c r="F66" s="98" t="s">
-        <v>541</v>
+        <v>683</v>
       </c>
       <c r="G66" s="148" t="s">
-        <v>750</v>
+        <v>802</v>
       </c>
       <c r="H66" s="144"/>
       <c r="I66" s="144"/>
@@ -47289,10 +47308,10 @@
     </row>
     <row r="67" spans="1:19" ht="15.75" customHeight="1">
       <c r="A67" s="94">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B67" s="151" t="s">
-        <v>401</v>
+        <v>717</v>
       </c>
       <c r="C67" s="105" t="s">
         <v>516</v>
@@ -47301,144 +47320,131 @@
         <v>517</v>
       </c>
       <c r="E67" s="148" t="s">
-        <v>427</v>
-      </c>
-      <c r="F67" s="98">
-        <v>77022144180</v>
-      </c>
-      <c r="G67" s="148" t="s">
-        <v>803</v>
-      </c>
-      <c r="H67" s="144"/>
-      <c r="I67" s="144"/>
-      <c r="J67" s="144"/>
-      <c r="K67" s="144"/>
-      <c r="L67" s="144"/>
-      <c r="M67" s="144"/>
-      <c r="N67" s="144"/>
-      <c r="O67" s="144"/>
-      <c r="P67" s="144"/>
-      <c r="Q67" s="144"/>
-      <c r="R67" s="144"/>
-      <c r="S67" s="145"/>
+        <v>415</v>
+      </c>
+      <c r="F67" s="98" t="s">
+        <v>719</v>
+      </c>
+      <c r="G67" s="154" t="s">
+        <v>808</v>
+      </c>
+      <c r="H67" s="157"/>
+      <c r="I67" s="157"/>
+      <c r="J67" s="157"/>
+      <c r="K67" s="157"/>
+      <c r="L67" s="157"/>
+      <c r="M67" s="157"/>
+      <c r="N67" s="157"/>
+      <c r="O67" s="157"/>
+      <c r="P67" s="157"/>
+      <c r="Q67" s="157"/>
+      <c r="R67" s="157"/>
+      <c r="S67" s="158"/>
     </row>
     <row r="68" spans="1:19" ht="15.75" customHeight="1">
       <c r="A68" s="99">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B68" s="101" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="C68" s="101" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D68" s="101" t="s">
-        <v>699</v>
+        <v>710</v>
       </c>
       <c r="E68" s="148" t="s">
-        <v>427</v>
-      </c>
-      <c r="F68" s="103">
-        <v>77057455794</v>
-      </c>
-      <c r="G68" s="148" t="s">
-        <v>811</v>
-      </c>
-      <c r="H68" s="124"/>
-      <c r="I68" s="124"/>
-      <c r="J68" s="124"/>
-      <c r="K68" s="124"/>
-      <c r="L68" s="124"/>
-      <c r="M68" s="124"/>
-      <c r="N68" s="124"/>
-      <c r="O68" s="124"/>
-      <c r="P68" s="124"/>
-      <c r="Q68" s="124"/>
-      <c r="R68" s="124"/>
-      <c r="S68" s="149"/>
-    </row>
-    <row r="69" spans="1:19" ht="13.8">
+        <v>415</v>
+      </c>
+      <c r="F68" s="103" t="s">
+        <v>712</v>
+      </c>
+      <c r="G68" s="154" t="s">
+        <v>813</v>
+      </c>
+      <c r="H68" s="155"/>
+      <c r="I68" s="155"/>
+      <c r="J68" s="155"/>
+      <c r="K68" s="155"/>
+      <c r="L68" s="155"/>
+      <c r="M68" s="155"/>
+      <c r="N68" s="155"/>
+      <c r="O68" s="155"/>
+      <c r="P68" s="155"/>
+      <c r="Q68" s="155"/>
+      <c r="R68" s="155"/>
+      <c r="S68" s="156"/>
+    </row>
+    <row r="69" spans="1:19" ht="14.4">
       <c r="A69" s="94">
-        <v>11</v>
-      </c>
-      <c r="B69" s="105" t="s">
-        <v>512</v>
+        <v>74</v>
+      </c>
+      <c r="B69" s="151" t="s">
+        <v>414</v>
       </c>
       <c r="C69" s="105" t="s">
-        <v>27</v>
-      </c>
-      <c r="D69" s="105" t="s">
-        <v>513</v>
+        <v>516</v>
+      </c>
+      <c r="D69" s="105">
+        <v>0</v>
       </c>
       <c r="E69" s="148" t="s">
-        <v>509</v>
-      </c>
-      <c r="F69" s="118" t="s">
-        <v>515</v>
-      </c>
-      <c r="G69" s="148" t="s">
-        <v>751</v>
-      </c>
-      <c r="H69" s="144"/>
-      <c r="I69" s="144"/>
-      <c r="J69" s="144"/>
-      <c r="K69" s="144"/>
-      <c r="L69" s="144"/>
-      <c r="M69" s="144"/>
-      <c r="N69" s="144" t="s">
-        <v>752</v>
-      </c>
-      <c r="O69" s="144">
-        <v>30</v>
-      </c>
-      <c r="P69" s="144">
-        <v>50</v>
-      </c>
-      <c r="Q69" s="144">
-        <v>50</v>
-      </c>
-      <c r="R69" s="144">
-        <v>20</v>
-      </c>
-      <c r="S69" s="145">
-        <f>SUM(O69:R69)</f>
-        <v>150</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="F69" s="118">
+        <v>77761009650</v>
+      </c>
+      <c r="G69" s="154" t="s">
+        <v>814</v>
+      </c>
+      <c r="H69" s="157"/>
+      <c r="I69" s="157"/>
+      <c r="J69" s="157"/>
+      <c r="K69" s="157"/>
+      <c r="L69" s="157"/>
+      <c r="M69" s="157"/>
+      <c r="N69" s="157"/>
+      <c r="O69" s="157"/>
+      <c r="P69" s="157"/>
+      <c r="Q69" s="157"/>
+      <c r="R69" s="157"/>
+      <c r="S69" s="158"/>
     </row>
     <row r="70" spans="1:19" ht="15.75" customHeight="1">
       <c r="A70" s="99">
-        <v>24</v>
-      </c>
-      <c r="B70" s="152" t="s">
-        <v>295</v>
+        <v>75</v>
+      </c>
+      <c r="B70" s="101" t="s">
+        <v>713</v>
       </c>
       <c r="C70" s="122" t="s">
-        <v>516</v>
+        <v>714</v>
       </c>
       <c r="D70" s="124" t="s">
-        <v>520</v>
+        <v>661</v>
       </c>
       <c r="E70" s="148" t="s">
-        <v>570</v>
+        <v>415</v>
       </c>
       <c r="F70" s="124" t="s">
-        <v>574</v>
-      </c>
-      <c r="G70" s="154" t="s">
-        <v>762</v>
-      </c>
-      <c r="H70" s="155"/>
-      <c r="I70" s="155"/>
-      <c r="J70" s="155"/>
-      <c r="K70" s="155"/>
-      <c r="L70" s="155"/>
-      <c r="M70" s="155"/>
-      <c r="N70" s="155"/>
-      <c r="O70" s="155"/>
-      <c r="P70" s="155"/>
-      <c r="Q70" s="155"/>
-      <c r="R70" s="155"/>
-      <c r="S70" s="156"/>
+        <v>716</v>
+      </c>
+      <c r="G70" s="148" t="s">
+        <v>815</v>
+      </c>
+      <c r="H70" s="124"/>
+      <c r="I70" s="124"/>
+      <c r="J70" s="124"/>
+      <c r="K70" s="124"/>
+      <c r="L70" s="124"/>
+      <c r="M70" s="124"/>
+      <c r="N70" s="124"/>
+      <c r="O70" s="124"/>
+      <c r="P70" s="124"/>
+      <c r="Q70" s="124"/>
+      <c r="R70" s="124"/>
+      <c r="S70" s="149"/>
     </row>
     <row r="71" spans="1:19" ht="13.8">
       <c r="A71" s="165"/>

--- a/Контакты Stratera.xlsx
+++ b/Контакты Stratera.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Рабочий стол\heatmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3754832B-2B6F-453F-8901-C3A293D5A85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F69A289-AC7F-475B-A164-CA6221C4B488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1428" yWindow="1428" windowWidth="13440" windowHeight="9300" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Менеджеры по продажам район (2)" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2392" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2392" uniqueCount="839">
   <si>
     <t>СКО</t>
   </si>
@@ -4327,6 +4327,9 @@
   </si>
   <si>
     <t>Уалихановский, Зерендинский</t>
+  </si>
+  <si>
+    <t>Бухар жырауский, Абайский</t>
   </si>
 </sst>
 </file>
@@ -44936,9 +44939,9 @@
   </sheetPr>
   <dimension ref="A1:S71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="73" zoomScaleNormal="112" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G62" sqref="G62"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="73" zoomScaleNormal="112" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -45720,7 +45723,7 @@
         <v>572</v>
       </c>
       <c r="G21" s="154" t="s">
-        <v>760</v>
+        <v>838</v>
       </c>
       <c r="H21" s="157"/>
       <c r="I21" s="157"/>
@@ -47326,7 +47329,7 @@
         <v>719</v>
       </c>
       <c r="G67" s="154" t="s">
-        <v>808</v>
+        <v>816</v>
       </c>
       <c r="H67" s="157"/>
       <c r="I67" s="157"/>
@@ -47396,7 +47399,7 @@
         <v>77761009650</v>
       </c>
       <c r="G69" s="154" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="H69" s="157"/>
       <c r="I69" s="157"/>

--- a/Контакты Stratera.xlsx
+++ b/Контакты Stratera.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Рабочий стол\heatmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F69A289-AC7F-475B-A164-CA6221C4B488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0006EA37-7628-4A45-821C-CA375568EBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4270,9 +4270,6 @@
     <t>итог</t>
   </si>
   <si>
-    <t>Жамбылский, Кызылжарский, Аккайынский</t>
-  </si>
-  <si>
     <t>Актогайский, Иртышский, Железинский</t>
   </si>
   <si>
@@ -4330,6 +4327,9 @@
   </si>
   <si>
     <t>Бухар жырауский, Абайский</t>
+  </si>
+  <si>
+    <t>Жамбылский, Кызылжарский, Аккайынский, Тимирязевский, Тайыншинский</t>
   </si>
 </sst>
 </file>
@@ -12796,7 +12796,7 @@
       <c r="Y103" s="11"/>
       <c r="Z103" s="11"/>
     </row>
-    <row r="104" spans="1:26" ht="41.4">
+    <row r="104" spans="1:26" ht="27.6">
       <c r="A104" s="9" t="s">
         <v>330</v>
       </c>
@@ -13007,7 +13007,7 @@
       <c r="Y108" s="11"/>
       <c r="Z108" s="11"/>
     </row>
-    <row r="109" spans="1:26" ht="41.4">
+    <row r="109" spans="1:26" ht="27.6">
       <c r="A109" s="9" t="s">
         <v>349</v>
       </c>
@@ -44939,9 +44939,9 @@
   </sheetPr>
   <dimension ref="A1:S71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="73" zoomScaleNormal="112" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G67" sqref="G67"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="73" zoomScaleNormal="112" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -45723,7 +45723,7 @@
         <v>572</v>
       </c>
       <c r="G21" s="154" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H21" s="157"/>
       <c r="I21" s="157"/>
@@ -45968,7 +45968,7 @@
         <v>605</v>
       </c>
       <c r="G28" s="148" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H28" s="124"/>
       <c r="I28" s="124"/>
@@ -46003,7 +46003,7 @@
         <v>601</v>
       </c>
       <c r="G29" s="159" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H29" s="160"/>
       <c r="I29" s="160"/>
@@ -46071,7 +46071,7 @@
         <v>77054441706</v>
       </c>
       <c r="G31" s="148" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H31" s="144"/>
       <c r="I31" s="144"/>
@@ -46106,7 +46106,7 @@
         <v>77775223878</v>
       </c>
       <c r="G32" s="148" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H32" s="144"/>
       <c r="I32" s="144"/>
@@ -46141,7 +46141,7 @@
         <v>77711886327</v>
       </c>
       <c r="G33" s="148" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H33" s="124"/>
       <c r="I33" s="124"/>
@@ -46176,7 +46176,7 @@
         <v>77054627019</v>
       </c>
       <c r="G34" s="148" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H34" s="124"/>
       <c r="I34" s="124"/>
@@ -46211,7 +46211,7 @@
         <v>77477573740</v>
       </c>
       <c r="G35" s="148" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H35" s="144"/>
       <c r="I35" s="144"/>
@@ -46246,7 +46246,7 @@
         <v>77772459654</v>
       </c>
       <c r="G36" s="148" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H36" s="124"/>
       <c r="I36" s="124"/>
@@ -46281,7 +46281,7 @@
         <v>77764004000</v>
       </c>
       <c r="G37" s="148" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H37" s="144" t="s">
         <v>782</v>
@@ -46493,7 +46493,7 @@
         <v>77753480121</v>
       </c>
       <c r="G43" s="148" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H43" s="144"/>
       <c r="I43" s="144"/>
@@ -46528,7 +46528,7 @@
         <v>77479305650</v>
       </c>
       <c r="G44" s="148" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H44" s="124"/>
       <c r="I44" s="124"/>
@@ -46563,7 +46563,7 @@
         <v>626</v>
       </c>
       <c r="G45" s="148" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H45" s="144"/>
       <c r="I45" s="144"/>
@@ -46839,7 +46839,7 @@
         <v>77775223892</v>
       </c>
       <c r="G53" s="154" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H53" s="157"/>
       <c r="I53" s="157"/>
@@ -47014,7 +47014,7 @@
         <v>77772285335</v>
       </c>
       <c r="G58" s="148" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H58" s="124"/>
       <c r="I58" s="124"/>
@@ -47154,7 +47154,7 @@
         <v>77761000911</v>
       </c>
       <c r="G62" s="148" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H62" s="124"/>
       <c r="I62" s="124"/>
@@ -47259,7 +47259,7 @@
         <v>726</v>
       </c>
       <c r="G65" s="154" t="s">
-        <v>822</v>
+        <v>838</v>
       </c>
       <c r="H65" s="157"/>
       <c r="I65" s="157"/>

--- a/Контакты Stratera.xlsx
+++ b/Контакты Stratera.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Рабочий стол\heatmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0006EA37-7628-4A45-821C-CA375568EBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F2C404-D5D4-4351-843A-354E90A666BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="13440" windowHeight="9300" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Менеджеры по продажам район (2)" sheetId="5" r:id="rId1"/>
@@ -4329,7 +4329,7 @@
     <t>Бухар жырауский, Абайский</t>
   </si>
   <si>
-    <t>Жамбылский, Кызылжарский, Аккайынский, Тимирязевский, Тайыншинский</t>
+    <t>Жамбылский, Кызылжарский, Аккайынский, Тимирязевский, Тайыншинский, Мамлютский</t>
   </si>
 </sst>
 </file>
@@ -12796,7 +12796,7 @@
       <c r="Y103" s="11"/>
       <c r="Z103" s="11"/>
     </row>
-    <row r="104" spans="1:26" ht="27.6">
+    <row r="104" spans="1:26" ht="41.4">
       <c r="A104" s="9" t="s">
         <v>330</v>
       </c>
@@ -13007,7 +13007,7 @@
       <c r="Y108" s="11"/>
       <c r="Z108" s="11"/>
     </row>
-    <row r="109" spans="1:26" ht="27.6">
+    <row r="109" spans="1:26" ht="41.4">
       <c r="A109" s="9" t="s">
         <v>349</v>
       </c>

--- a/Контакты Stratera.xlsx
+++ b/Контакты Stratera.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Рабочий стол\heatmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F2C404-D5D4-4351-843A-354E90A666BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7600369-E454-4628-A26C-8F2A7D2E9B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="13440" windowHeight="9300" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="13440" windowHeight="9300" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Менеджеры по продажам район (2)" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2392" uniqueCount="839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2392" uniqueCount="840">
   <si>
     <t>СКО</t>
   </si>
@@ -4330,6 +4330,9 @@
   </si>
   <si>
     <t>Жамбылский, Кызылжарский, Аккайынский, Тимирязевский, Тайыншинский, Мамлютский</t>
+  </si>
+  <si>
+    <t>Жаркаинский, Атбасарский</t>
   </si>
 </sst>
 </file>
@@ -12796,7 +12799,7 @@
       <c r="Y103" s="11"/>
       <c r="Z103" s="11"/>
     </row>
-    <row r="104" spans="1:26" ht="41.4">
+    <row r="104" spans="1:26" ht="27.6">
       <c r="A104" s="9" t="s">
         <v>330</v>
       </c>
@@ -13007,7 +13010,7 @@
       <c r="Y108" s="11"/>
       <c r="Z108" s="11"/>
     </row>
-    <row r="109" spans="1:26" ht="41.4">
+    <row r="109" spans="1:26" ht="27.6">
       <c r="A109" s="9" t="s">
         <v>349</v>
       </c>
@@ -44940,8 +44943,8 @@
   <dimension ref="A1:S71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="73" zoomScaleNormal="112" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G65" sqref="G65"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -45513,7 +45516,7 @@
         <v>562</v>
       </c>
       <c r="G15" s="148" t="s">
-        <v>756</v>
+        <v>839</v>
       </c>
       <c r="H15" s="144"/>
       <c r="I15" s="144"/>

--- a/Контакты Stratera.xlsx
+++ b/Контакты Stratera.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Рабочий стол\heatmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7600369-E454-4628-A26C-8F2A7D2E9B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABBAC31-2F2E-4174-BB23-1C9160BA95AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="13440" windowHeight="9300" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Менеджеры по продажам район (2)" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2392" uniqueCount="840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2392" uniqueCount="841">
   <si>
     <t>СКО</t>
   </si>
@@ -4333,6 +4333,9 @@
   </si>
   <si>
     <t>Жаркаинский, Атбасарский</t>
+  </si>
+  <si>
+    <t>Федоровский, Аулиекольский, Денисовский</t>
   </si>
 </sst>
 </file>
@@ -12799,7 +12802,7 @@
       <c r="Y103" s="11"/>
       <c r="Z103" s="11"/>
     </row>
-    <row r="104" spans="1:26" ht="27.6">
+    <row r="104" spans="1:26" ht="41.4">
       <c r="A104" s="9" t="s">
         <v>330</v>
       </c>
@@ -13010,7 +13013,7 @@
       <c r="Y108" s="11"/>
       <c r="Z108" s="11"/>
     </row>
-    <row r="109" spans="1:26" ht="27.6">
+    <row r="109" spans="1:26" ht="41.4">
       <c r="A109" s="9" t="s">
         <v>349</v>
       </c>
@@ -44943,8 +44946,8 @@
   <dimension ref="A1:S71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="73" zoomScaleNormal="112" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -46356,7 +46359,7 @@
         <v>77710603592</v>
       </c>
       <c r="G39" s="148" t="s">
-        <v>784</v>
+        <v>840</v>
       </c>
       <c r="H39" s="144"/>
       <c r="I39" s="144"/>

--- a/Контакты Stratera.xlsx
+++ b/Контакты Stratera.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Рабочий стол\heatmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABBAC31-2F2E-4174-BB23-1C9160BA95AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0973E8-7167-413E-BB1A-7F74FD70AAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4279,9 +4279,6 @@
     <t>Карабалыкский, Федоровский, Алтынсаринский, Карасуский, Костанайский, Беимбета Майлина, Мендыгаринский</t>
   </si>
   <si>
-    <t>Денисовский, Мендыгаринский, Аркалыкский, Тарановский</t>
-  </si>
-  <si>
     <t>Карабалыкский, Костанайский, Камыстинский, Мендыкаринский, Узункольский, Денисовский</t>
   </si>
   <si>
@@ -4311,9 +4308,6 @@
     <t>Карасуский, Сарыкольский, Алтынсаринский</t>
   </si>
   <si>
-    <t>Костанайский, Аулиекольский, Алтынсаринский, Амангельдинский</t>
-  </si>
-  <si>
     <t>Бескарагайский, Бородулихинский, Глубоковский</t>
   </si>
   <si>
@@ -4336,6 +4330,12 @@
   </si>
   <si>
     <t>Федоровский, Аулиекольский, Денисовский</t>
+  </si>
+  <si>
+    <t>Денисовский, Мендыгаринский, Аркалыкский, Тарановский, Карасуский</t>
+  </si>
+  <si>
+    <t>Костанайский, Аулиекольский, Алтынсаринский, Амангельдинский, Мендыкаринский</t>
   </si>
 </sst>
 </file>
@@ -44945,9 +44945,9 @@
   </sheetPr>
   <dimension ref="A1:S71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="73" zoomScaleNormal="112" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="73" zoomScaleNormal="112" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -45519,7 +45519,7 @@
         <v>562</v>
       </c>
       <c r="G15" s="148" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="H15" s="144"/>
       <c r="I15" s="144"/>
@@ -45729,7 +45729,7 @@
         <v>572</v>
       </c>
       <c r="G21" s="154" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="H21" s="157"/>
       <c r="I21" s="157"/>
@@ -45974,7 +45974,7 @@
         <v>605</v>
       </c>
       <c r="G28" s="148" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="H28" s="124"/>
       <c r="I28" s="124"/>
@@ -46077,7 +46077,7 @@
         <v>77054441706</v>
       </c>
       <c r="G31" s="148" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H31" s="144"/>
       <c r="I31" s="144"/>
@@ -46112,7 +46112,7 @@
         <v>77775223878</v>
       </c>
       <c r="G32" s="148" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H32" s="144"/>
       <c r="I32" s="144"/>
@@ -46182,7 +46182,7 @@
         <v>77054627019</v>
       </c>
       <c r="G34" s="148" t="s">
-        <v>825</v>
+        <v>839</v>
       </c>
       <c r="H34" s="124"/>
       <c r="I34" s="124"/>
@@ -46217,7 +46217,7 @@
         <v>77477573740</v>
       </c>
       <c r="G35" s="148" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H35" s="144"/>
       <c r="I35" s="144"/>
@@ -46252,7 +46252,7 @@
         <v>77772459654</v>
       </c>
       <c r="G36" s="148" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H36" s="124"/>
       <c r="I36" s="124"/>
@@ -46287,7 +46287,7 @@
         <v>77764004000</v>
       </c>
       <c r="G37" s="148" t="s">
-        <v>832</v>
+        <v>840</v>
       </c>
       <c r="H37" s="144" t="s">
         <v>782</v>
@@ -46359,7 +46359,7 @@
         <v>77710603592</v>
       </c>
       <c r="G39" s="148" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="H39" s="144"/>
       <c r="I39" s="144"/>
@@ -46499,7 +46499,7 @@
         <v>77753480121</v>
       </c>
       <c r="G43" s="148" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="H43" s="144"/>
       <c r="I43" s="144"/>
@@ -46534,7 +46534,7 @@
         <v>77479305650</v>
       </c>
       <c r="G44" s="148" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H44" s="124"/>
       <c r="I44" s="124"/>
@@ -46569,7 +46569,7 @@
         <v>626</v>
       </c>
       <c r="G45" s="148" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H45" s="144"/>
       <c r="I45" s="144"/>
@@ -47020,7 +47020,7 @@
         <v>77772285335</v>
       </c>
       <c r="G58" s="148" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="H58" s="124"/>
       <c r="I58" s="124"/>
@@ -47160,7 +47160,7 @@
         <v>77761000911</v>
       </c>
       <c r="G62" s="148" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="H62" s="124"/>
       <c r="I62" s="124"/>
@@ -47265,7 +47265,7 @@
         <v>726</v>
       </c>
       <c r="G65" s="154" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="H65" s="157"/>
       <c r="I65" s="157"/>
